--- a/resultado_simu.xlsx
+++ b/resultado_simu.xlsx
@@ -483,7 +483,7 @@
         <v>0.9926964823357762</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000703582427697</v>
+        <v>1.000613152917157</v>
       </c>
       <c r="D3" t="n">
         <v>1.000755813135012</v>
@@ -497,7 +497,7 @@
         <v>0.9857050087288</v>
       </c>
       <c r="C4" t="n">
-        <v>1.007190649053354</v>
+        <v>1.005770495832026</v>
       </c>
       <c r="D4" t="n">
         <v>1.013523951837465</v>
@@ -511,7 +511,7 @@
         <v>0.9838833461243285</v>
       </c>
       <c r="C5" t="n">
-        <v>1.005800467203943</v>
+        <v>1.004424499180318</v>
       </c>
       <c r="D5" t="n">
         <v>1.012734418512621</v>
@@ -525,7 +525,7 @@
         <v>0.9803833925092559</v>
       </c>
       <c r="C6" t="n">
-        <v>1.006556744285825</v>
+        <v>1.004933568974782</v>
       </c>
       <c r="D6" t="n">
         <v>1.012069126729789</v>
@@ -539,7 +539,7 @@
         <v>0.9778533055586011</v>
       </c>
       <c r="C7" t="n">
-        <v>1.013205089290127</v>
+        <v>1.012084009105916</v>
       </c>
       <c r="D7" t="n">
         <v>1.018359503914989</v>
@@ -553,7 +553,7 @@
         <v>0.9741087768716318</v>
       </c>
       <c r="C8" t="n">
-        <v>1.010276078583299</v>
+        <v>1.008367326722358</v>
       </c>
       <c r="D8" t="n">
         <v>1.014298480167287</v>
@@ -567,7 +567,7 @@
         <v>0.9894748382852757</v>
       </c>
       <c r="C9" t="n">
-        <v>1.004962808528168</v>
+        <v>1.002587836087245</v>
       </c>
       <c r="D9" t="n">
         <v>1.007206568457111</v>
@@ -581,7 +581,7 @@
         <v>0.9920639605981125</v>
       </c>
       <c r="C10" t="n">
-        <v>1.010424146009876</v>
+        <v>1.008837998186381</v>
       </c>
       <c r="D10" t="n">
         <v>1.016158831759203</v>
@@ -595,7 +595,7 @@
         <v>0.9817918075784537</v>
       </c>
       <c r="C11" t="n">
-        <v>1.009988447504721</v>
+        <v>1.008721603967999</v>
       </c>
       <c r="D11" t="n">
         <v>1.017415155653433</v>
@@ -609,7 +609,7 @@
         <v>0.9842375582974201</v>
       </c>
       <c r="C12" t="n">
-        <v>1.020018883737422</v>
+        <v>1.017358866764767</v>
       </c>
       <c r="D12" t="n">
         <v>1.037272885247752</v>
@@ -623,7 +623,7 @@
         <v>0.9991988057989593</v>
       </c>
       <c r="C13" t="n">
-        <v>1.023138673540832</v>
+        <v>1.019976331422651</v>
       </c>
       <c r="D13" t="n">
         <v>1.044285157069332</v>
@@ -637,7 +637,7 @@
         <v>1.002437317095797</v>
       </c>
       <c r="C14" t="n">
-        <v>1.024793290535317</v>
+        <v>1.022031988896584</v>
       </c>
       <c r="D14" t="n">
         <v>1.04694158557634</v>
@@ -651,7 +651,7 @@
         <v>0.9869531849577897</v>
       </c>
       <c r="C15" t="n">
-        <v>1.023300277976425</v>
+        <v>1.020818522591348</v>
       </c>
       <c r="D15" t="n">
         <v>1.04712705689803</v>
@@ -665,7 +665,7 @@
         <v>0.9984650805832693</v>
       </c>
       <c r="C16" t="n">
-        <v>1.027345040067448</v>
+        <v>1.025011697842013</v>
       </c>
       <c r="D16" t="n">
         <v>1.050737757823069</v>
@@ -679,7 +679,7 @@
         <v>1.008054110126251</v>
       </c>
       <c r="C17" t="n">
-        <v>1.051612489528539</v>
+        <v>1.049506485924001</v>
       </c>
       <c r="D17" t="n">
         <v>1.067838149995117</v>
@@ -693,7 +693,7 @@
         <v>0.9983385762357366</v>
       </c>
       <c r="C18" t="n">
-        <v>1.061933909444226</v>
+        <v>1.056536155393317</v>
       </c>
       <c r="D18" t="n">
         <v>1.076093148131219</v>
@@ -707,7 +707,7 @@
         <v>0.9654980476162364</v>
       </c>
       <c r="C19" t="n">
-        <v>1.060227039361785</v>
+        <v>1.055309220363317</v>
       </c>
       <c r="D19" t="n">
         <v>1.074394524715467</v>
@@ -721,7 +721,7 @@
         <v>0.982339993084429</v>
       </c>
       <c r="C20" t="n">
-        <v>1.076336589116933</v>
+        <v>1.070784325222861</v>
       </c>
       <c r="D20" t="n">
         <v>1.094542858055125</v>
@@ -735,7 +735,7 @@
         <v>0.9731136093377075</v>
       </c>
       <c r="C21" t="n">
-        <v>1.073427231782161</v>
+        <v>1.067729783165456</v>
       </c>
       <c r="D21" t="n">
         <v>1.093637695646895</v>
@@ -749,7 +749,7 @@
         <v>0.974319617450853</v>
       </c>
       <c r="C22" t="n">
-        <v>1.07004329196017</v>
+        <v>1.063051382076454</v>
       </c>
       <c r="D22" t="n">
         <v>1.093119211738469</v>
@@ -763,7 +763,7 @@
         <v>0.9594174053114959</v>
       </c>
       <c r="C23" t="n">
-        <v>1.059378020121645</v>
+        <v>1.053621933286633</v>
       </c>
       <c r="D23" t="n">
         <v>1.084917150279685</v>
@@ -777,7 +777,7 @@
         <v>0.9667377902220573</v>
       </c>
       <c r="C24" t="n">
-        <v>1.068427243039826</v>
+        <v>1.064889067339304</v>
       </c>
       <c r="D24" t="n">
         <v>1.091167907714704</v>
@@ -791,7 +791,7 @@
         <v>0.9745641925227497</v>
       </c>
       <c r="C25" t="n">
-        <v>1.094699006917924</v>
+        <v>1.093453803775726</v>
       </c>
       <c r="D25" t="n">
         <v>1.114430507004157</v>
@@ -805,7 +805,7 @@
         <v>0.9785364290352778</v>
       </c>
       <c r="C26" t="n">
-        <v>1.082467198538635</v>
+        <v>1.080498150254958</v>
       </c>
       <c r="D26" t="n">
         <v>1.10155276297543</v>
@@ -819,7 +819,7 @@
         <v>0.9714690528197819</v>
       </c>
       <c r="C27" t="n">
-        <v>1.078247919855975</v>
+        <v>1.075206135287539</v>
       </c>
       <c r="D27" t="n">
         <v>1.098662150191295</v>
@@ -833,7 +833,7 @@
         <v>0.9594933079200155</v>
       </c>
       <c r="C28" t="n">
-        <v>1.067891232782658</v>
+        <v>1.065196964085198</v>
       </c>
       <c r="D28" t="n">
         <v>1.087996845034602</v>
@@ -847,7 +847,7 @@
         <v>0.949372960117396</v>
       </c>
       <c r="C29" t="n">
-        <v>1.06374697927304</v>
+        <v>1.058682098342192</v>
       </c>
       <c r="D29" t="n">
         <v>1.081252812477607</v>
@@ -861,7 +861,7 @@
         <v>0.9729955386133436</v>
       </c>
       <c r="C30" t="n">
-        <v>1.073717464779299</v>
+        <v>1.069842879017477</v>
       </c>
       <c r="D30" t="n">
         <v>1.091908715718012</v>
@@ -875,7 +875,7 @@
         <v>0.9839845496023547</v>
       </c>
       <c r="C31" t="n">
-        <v>1.092484992735532</v>
+        <v>1.090350599544545</v>
       </c>
       <c r="D31" t="n">
         <v>1.109939971152139</v>
@@ -889,7 +889,7 @@
         <v>0.9754497229554789</v>
       </c>
       <c r="C32" t="n">
-        <v>1.089426235285335</v>
+        <v>1.087148284081272</v>
       </c>
       <c r="D32" t="n">
         <v>1.106981345873321</v>
@@ -903,7 +903,7 @@
         <v>0.9646462516761826</v>
       </c>
       <c r="C33" t="n">
-        <v>1.08521194451398</v>
+        <v>1.082773488704636</v>
       </c>
       <c r="D33" t="n">
         <v>1.104037653329997</v>
@@ -917,7 +917,7 @@
         <v>0.972472653976875</v>
       </c>
       <c r="C34" t="n">
-        <v>1.095676579581475</v>
+        <v>1.091709805840966</v>
       </c>
       <c r="D34" t="n">
         <v>1.112075605328587</v>
@@ -931,7 +931,7 @@
         <v>0.9696726910848169</v>
       </c>
       <c r="C35" t="n">
-        <v>1.08040915205793</v>
+        <v>1.079017782730985</v>
       </c>
       <c r="D35" t="n">
         <v>1.09902575832637</v>
@@ -945,7 +945,7 @@
         <v>0.9826689043880141</v>
       </c>
       <c r="C36" t="n">
-        <v>1.098830512826466</v>
+        <v>1.09427033885639</v>
       </c>
       <c r="D36" t="n">
         <v>1.114963387563554</v>
@@ -959,7 +959,7 @@
         <v>0.9663751444257968</v>
       </c>
       <c r="C37" t="n">
-        <v>1.091931059063598</v>
+        <v>1.086800683444578</v>
       </c>
       <c r="D37" t="n">
         <v>1.109284540451943</v>
@@ -973,7 +973,7 @@
         <v>0.9587427154579879</v>
       </c>
       <c r="C38" t="n">
-        <v>1.100802231241139</v>
+        <v>1.09649850736858</v>
       </c>
       <c r="D38" t="n">
         <v>1.117225930338282</v>
@@ -987,7 +987,7 @@
         <v>0.8915857741644387</v>
       </c>
       <c r="C39" t="n">
-        <v>1.07373202340358</v>
+        <v>1.065457796083038</v>
       </c>
       <c r="D39" t="n">
         <v>1.090049893288632</v>
@@ -1001,7 +1001,7 @@
         <v>0.8685282484208041</v>
       </c>
       <c r="C40" t="n">
-        <v>1.064986384392249</v>
+        <v>1.057152888294531</v>
       </c>
       <c r="D40" t="n">
         <v>1.085771259454015</v>
@@ -1015,7 +1015,7 @@
         <v>0.8785473927453974</v>
       </c>
       <c r="C41" t="n">
-        <v>1.061437412195926</v>
+        <v>1.052919497359817</v>
       </c>
       <c r="D41" t="n">
         <v>1.079388900524902</v>
@@ -1029,7 +1029,7 @@
         <v>0.8992350703785853</v>
       </c>
       <c r="C42" t="n">
-        <v>1.096384872415106</v>
+        <v>1.09166220859498</v>
       </c>
       <c r="D42" t="n">
         <v>1.1145107585046</v>
@@ -1043,7 +1043,7 @@
         <v>0.890059288370877</v>
       </c>
       <c r="C43" t="n">
-        <v>1.098107125836132</v>
+        <v>1.093123167060419</v>
       </c>
       <c r="D43" t="n">
         <v>1.114171505622863</v>
@@ -1057,7 +1057,7 @@
         <v>0.9042868106567262</v>
       </c>
       <c r="C44" t="n">
-        <v>1.108244579869437</v>
+        <v>1.102825091326772</v>
       </c>
       <c r="D44" t="n">
         <v>1.12026064016612</v>
@@ -1071,7 +1071,7 @@
         <v>0.862194597420998</v>
       </c>
       <c r="C45" t="n">
-        <v>1.084693455056372</v>
+        <v>1.077629731171948</v>
       </c>
       <c r="D45" t="n">
         <v>1.09957501032164</v>
@@ -1085,7 +1085,7 @@
         <v>0.8264697696777512</v>
       </c>
       <c r="C46" t="n">
-        <v>1.064830141762211</v>
+        <v>1.054651307707132</v>
       </c>
       <c r="D46" t="n">
         <v>1.07390489169007</v>
@@ -1099,7 +1099,7 @@
         <v>0.7258566452733759</v>
       </c>
       <c r="C47" t="n">
-        <v>1.018908364524688</v>
+        <v>1.004333321405421</v>
       </c>
       <c r="D47" t="n">
         <v>1.028425143577885</v>
@@ -1113,7 +1113,7 @@
         <v>0.7776981268922942</v>
       </c>
       <c r="C48" t="n">
-        <v>1.019097750544684</v>
+        <v>1.004832373110485</v>
       </c>
       <c r="D48" t="n">
         <v>1.030990907008179</v>
@@ -1127,7 +1127,7 @@
         <v>0.7183001189140866</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9946624012815983</v>
+        <v>0.9787329918217468</v>
       </c>
       <c r="D49" t="n">
         <v>1.008677382643274</v>
@@ -1141,7 +1141,7 @@
         <v>0.6121376704646083</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9424724813413867</v>
+        <v>0.922240402206597</v>
       </c>
       <c r="D50" t="n">
         <v>0.9588661019658112</v>
@@ -1155,7 +1155,7 @@
         <v>0.6972750963541448</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9744383553005135</v>
+        <v>0.9564901733222279</v>
       </c>
       <c r="D51" t="n">
         <v>0.9888898849355683</v>
@@ -1169,7 +1169,7 @@
         <v>0.6002040936806862</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9442178986127678</v>
+        <v>0.9246142892726341</v>
       </c>
       <c r="D52" t="n">
         <v>0.9622443935277919</v>
@@ -1183,7 +1183,7 @@
         <v>0.6292916599900483</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9631310966864817</v>
+        <v>0.9431223792816202</v>
       </c>
       <c r="D53" t="n">
         <v>0.9725290815081725</v>
@@ -1197,7 +1197,7 @@
         <v>0.564167221880192</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9127820873807637</v>
+        <v>0.888399408661757</v>
       </c>
       <c r="D54" t="n">
         <v>0.9246567493962302</v>
@@ -1211,7 +1211,7 @@
         <v>0.5762863383738288</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9262414564414941</v>
+        <v>0.9039175569519385</v>
       </c>
       <c r="D55" t="n">
         <v>0.9427692477978806</v>
@@ -1225,7 +1225,7 @@
         <v>0.5656346723115718</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9054946376393547</v>
+        <v>0.8836992368944215</v>
       </c>
       <c r="D56" t="n">
         <v>0.9301608886454747</v>
@@ -1239,7 +1239,7 @@
         <v>0.5361254248437671</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8856403898061643</v>
+        <v>0.8628535906278956</v>
       </c>
       <c r="D57" t="n">
         <v>0.913511482243803</v>
@@ -1253,7 +1253,7 @@
         <v>0.5880681099407117</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8955799363175898</v>
+        <v>0.873533205472898</v>
       </c>
       <c r="D58" t="n">
         <v>0.9213072714902464</v>
@@ -1267,7 +1267,7 @@
         <v>0.6321506582442883</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9004308446258393</v>
+        <v>0.879158435822088</v>
       </c>
       <c r="D59" t="n">
         <v>0.927505644469379</v>
@@ -1281,7 +1281,7 @@
         <v>0.6553768564513001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9209582975148363</v>
+        <v>0.9003245982089246</v>
       </c>
       <c r="D60" t="n">
         <v>0.9431051172803753</v>
@@ -1295,7 +1295,7 @@
         <v>0.619272515665455</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8994530475286908</v>
+        <v>0.8780639482277682</v>
       </c>
       <c r="D61" t="n">
         <v>0.9272225974193946</v>
@@ -1309,7 +1309,7 @@
         <v>0.6294856333229318</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9116555508275941</v>
+        <v>0.8905501730611046</v>
       </c>
       <c r="D62" t="n">
         <v>0.9353815822631208</v>
@@ -1323,7 +1323,7 @@
         <v>0.6158231637893956</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9131451000140685</v>
+        <v>0.8914987538183764</v>
       </c>
       <c r="D63" t="n">
         <v>0.9368175935768435</v>
@@ -1337,7 +1337,7 @@
         <v>0.5985089354237474</v>
       </c>
       <c r="C64" t="n">
-        <v>0.874419232633448</v>
+        <v>0.8550045736888719</v>
       </c>
       <c r="D64" t="n">
         <v>0.879766649372932</v>
@@ -1351,7 +1351,7 @@
         <v>0.609354574818888</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8790662477278672</v>
+        <v>0.8589735583616263</v>
       </c>
       <c r="D65" t="n">
         <v>0.8921228166442131</v>
@@ -1365,7 +1365,7 @@
         <v>0.5864572879154614</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8744788171830333</v>
+        <v>0.8533862993284907</v>
       </c>
       <c r="D66" t="n">
         <v>0.88570135825072</v>
@@ -1379,7 +1379,7 @@
         <v>0.6247037689861942</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8891407000960875</v>
+        <v>0.8678905382380194</v>
       </c>
       <c r="D67" t="n">
         <v>0.8943010565361932</v>
@@ -1393,7 +1393,7 @@
         <v>0.6439745979270154</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8936892817340732</v>
+        <v>0.8741173991416354</v>
       </c>
       <c r="D68" t="n">
         <v>0.9032588398876239</v>
@@ -1407,7 +1407,7 @@
         <v>0.6630936216507974</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9107635716093893</v>
+        <v>0.8921619122385982</v>
       </c>
       <c r="D69" t="n">
         <v>0.9176098437347572</v>
@@ -1421,7 +1421,7 @@
         <v>0.6551407150025722</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8940915990463758</v>
+        <v>0.8852122549483936</v>
       </c>
       <c r="D70" t="n">
         <v>0.9002049106078549</v>
@@ -1435,7 +1435,7 @@
         <v>0.6648731161394247</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8904320080551195</v>
+        <v>0.8833478370282863</v>
       </c>
       <c r="D71" t="n">
         <v>0.89300963533472</v>
@@ -1449,7 +1449,7 @@
         <v>0.6739982964081199</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8925308546603482</v>
+        <v>0.8850267108290932</v>
       </c>
       <c r="D72" t="n">
         <v>0.8908808042638089</v>
@@ -1463,7 +1463,7 @@
         <v>0.6648309480235804</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8932144196158631</v>
+        <v>0.8848059581598228</v>
       </c>
       <c r="D73" t="n">
         <v>0.8923515867535905</v>
@@ -1477,7 +1477,7 @@
         <v>0.6562370860145227</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8917043982229289</v>
+        <v>0.883525191436463</v>
       </c>
       <c r="D74" t="n">
         <v>0.8877611442116041</v>
@@ -1491,7 +1491,7 @@
         <v>0.6661718941074275</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9046402104889076</v>
+        <v>0.8964554483373884</v>
       </c>
       <c r="D75" t="n">
         <v>0.8996018064518447</v>
@@ -1505,7 +1505,7 @@
         <v>0.666028522513557</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9165322083916851</v>
+        <v>0.9072948499031197</v>
       </c>
       <c r="D76" t="n">
         <v>0.9168944019215549</v>
@@ -1519,7 +1519,7 @@
         <v>0.6804837526249652</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9253225004112124</v>
+        <v>0.9167840590235358</v>
       </c>
       <c r="D77" t="n">
         <v>0.9250158296982017</v>
@@ -1533,7 +1533,7 @@
         <v>0.6719320587317518</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9116943228548293</v>
+        <v>0.9023472034954482</v>
       </c>
       <c r="D78" t="n">
         <v>0.9138376002231603</v>
@@ -1547,7 +1547,7 @@
         <v>0.6353132669326069</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8893887201555785</v>
+        <v>0.8797725612075569</v>
       </c>
       <c r="D79" t="n">
         <v>0.8955323179589008</v>
@@ -1561,7 +1561,7 @@
         <v>0.6598382431076215</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9061056096261609</v>
+        <v>0.8965260711249388</v>
       </c>
       <c r="D80" t="n">
         <v>0.9094750406682545</v>
@@ -1575,7 +1575,7 @@
         <v>0.6857547671054962</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9476714242148486</v>
+        <v>0.9334239734284258</v>
       </c>
       <c r="D81" t="n">
         <v>0.9870112192964182</v>
@@ -1589,7 +1589,7 @@
         <v>0.7014328725763875</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9486208498990903</v>
+        <v>0.9341894101064834</v>
       </c>
       <c r="D82" t="n">
         <v>0.9909923121862609</v>
@@ -1603,7 +1603,7 @@
         <v>0.6789572668314034</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9419778685406459</v>
+        <v>0.9274073135157949</v>
       </c>
       <c r="D83" t="n">
         <v>0.986536894638754</v>
@@ -1617,7 +1617,7 @@
         <v>0.6652104610661786</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9147901409697359</v>
+        <v>0.9037679085573134</v>
       </c>
       <c r="D84" t="n">
         <v>0.9525841771954808</v>
@@ -1631,7 +1631,7 @@
         <v>0.6702284668516442</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9212640383468489</v>
+        <v>0.9125440740825486</v>
       </c>
       <c r="D85" t="n">
         <v>0.9642100287756304</v>
@@ -1645,7 +1645,7 @@
         <v>0.6667959822219224</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9110661500651669</v>
+        <v>0.901840199464583</v>
       </c>
       <c r="D86" t="n">
         <v>0.9557513333648067</v>
@@ -1659,7 +1659,7 @@
         <v>0.6588262083273595</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8947955974384639</v>
+        <v>0.8844483749345335</v>
       </c>
       <c r="D87" t="n">
         <v>0.9412123307580753</v>
@@ -1673,7 +1673,7 @@
         <v>0.6769078964013729</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9058824865807851</v>
+        <v>0.8956356650212927</v>
       </c>
       <c r="D88" t="n">
         <v>0.9481369314111096</v>
@@ -1687,7 +1687,7 @@
         <v>0.6668044158450912</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9032624633458062</v>
+        <v>0.8938827996972378</v>
       </c>
       <c r="D89" t="n">
         <v>0.9418699633905842</v>
@@ -1701,7 +1701,7 @@
         <v>0.6567431034046537</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8974090098369447</v>
+        <v>0.8856600492187503</v>
       </c>
       <c r="D90" t="n">
         <v>0.9370050029717543</v>
@@ -1715,7 +1715,7 @@
         <v>0.6558997410877687</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8823244877992436</v>
+        <v>0.8689870004494908</v>
       </c>
       <c r="D91" t="n">
         <v>0.9216999545442766</v>
@@ -1729,7 +1729,7 @@
         <v>0.6663490001939734</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8988241747158014</v>
+        <v>0.8861747693624957</v>
       </c>
       <c r="D92" t="n">
         <v>0.9344346507079189</v>
@@ -1743,7 +1743,7 @@
         <v>0.6540865121064661</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9038032426822574</v>
+        <v>0.8902244381025282</v>
       </c>
       <c r="D93" t="n">
         <v>0.9391698819263892</v>
@@ -1757,7 +1757,7 @@
         <v>0.684759599571572</v>
       </c>
       <c r="C94" t="n">
-        <v>0.922099177511299</v>
+        <v>0.9089838534071413</v>
       </c>
       <c r="D94" t="n">
         <v>0.9553224934975355</v>
@@ -1771,7 +1771,7 @@
         <v>0.680947601899252</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9203979485369126</v>
+        <v>0.9057878442693251</v>
       </c>
       <c r="D95" t="n">
         <v>0.9662431732438557</v>
@@ -1785,7 +1785,7 @@
         <v>0.6858138024676781</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9173891453442333</v>
+        <v>0.9026737995821095</v>
       </c>
       <c r="D96" t="n">
         <v>0.9702262304180889</v>
@@ -1799,7 +1799,7 @@
         <v>0.7002184308400732</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9209937536285667</v>
+        <v>0.9059461379033289</v>
       </c>
       <c r="D97" t="n">
         <v>0.9716503911447865</v>
@@ -1813,7 +1813,7 @@
         <v>0.6930161166538756</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9257874996406884</v>
+        <v>0.9109293361241322</v>
       </c>
       <c r="D98" t="n">
         <v>0.9749083581969211</v>
@@ -1827,7 +1827,7 @@
         <v>0.7224494615131607</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9475572761449972</v>
+        <v>0.9337887486796715</v>
       </c>
       <c r="D99" t="n">
         <v>0.9931468400495409</v>
@@ -1841,7 +1841,7 @@
         <v>0.7208133386184038</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9511779098104517</v>
+        <v>0.9385719506660667</v>
       </c>
       <c r="D100" t="n">
         <v>0.9992104001422319</v>
@@ -1855,7 +1855,7 @@
         <v>0.7417034232076443</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9656969382122553</v>
+        <v>0.9537211785972783</v>
       </c>
       <c r="D101" t="n">
         <v>1.011054411821164</v>
@@ -1869,7 +1869,7 @@
         <v>0.7332951009083012</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9631753159307876</v>
+        <v>0.9507115699157357</v>
       </c>
       <c r="D102" t="n">
         <v>1.007748403945486</v>
@@ -1883,7 +1883,7 @@
         <v>0.7371239658269589</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9655292976780536</v>
+        <v>0.9535288364292039</v>
       </c>
       <c r="D103" t="n">
         <v>1.010923427282051</v>
@@ -1897,7 +1897,7 @@
         <v>0.7473876852234489</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9648021581070931</v>
+        <v>0.9529357145146057</v>
       </c>
       <c r="D104" t="n">
         <v>1.010939758175231</v>
@@ -1911,7 +1911,7 @@
         <v>0.7678476550310779</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9666694893819729</v>
+        <v>0.9546733438509517</v>
       </c>
       <c r="D105" t="n">
         <v>1.011372310769463</v>
@@ -1925,7 +1925,7 @@
         <v>0.7843438219493477</v>
       </c>
       <c r="C106" t="n">
-        <v>0.975653664736468</v>
+        <v>0.9644902540277815</v>
       </c>
       <c r="D106" t="n">
         <v>1.019797946076282</v>
@@ -1939,7 +1939,7 @@
         <v>0.7913184283099862</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9731342349390166</v>
+        <v>0.9619765719787418</v>
       </c>
       <c r="D107" t="n">
         <v>1.018172415622959</v>
@@ -1953,7 +1953,7 @@
         <v>0.7981327958304167</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9825647146224661</v>
+        <v>0.970312872993068</v>
       </c>
       <c r="D108" t="n">
         <v>1.03845486169196</v>
@@ -1967,7 +1967,7 @@
         <v>0.8235011343223162</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9993807890227925</v>
+        <v>0.9889155123037046</v>
       </c>
       <c r="D109" t="n">
         <v>1.055384753228691</v>
@@ -1981,7 +1981,7 @@
         <v>0.8159277407166893</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9995171152784013</v>
+        <v>0.9890506770250039</v>
       </c>
       <c r="D110" t="n">
         <v>1.055052752873271</v>
@@ -1995,7 +1995,7 @@
         <v>0.7985460433656904</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9884669291683934</v>
+        <v>0.9768289243171133</v>
       </c>
       <c r="D111" t="n">
         <v>1.043601055430028</v>
@@ -2009,7 +2009,7 @@
         <v>0.7825980619533958</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9913709892754426</v>
+        <v>0.9798192078159949</v>
       </c>
       <c r="D112" t="n">
         <v>1.046185392123949</v>
@@ -2023,7 +2023,7 @@
         <v>0.7790643738456479</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9895340290220762</v>
+        <v>0.977969642931209</v>
       </c>
       <c r="D113" t="n">
         <v>1.044993699112397</v>
@@ -2037,7 +2037,7 @@
         <v>0.7888052086056691</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9884675562883077</v>
+        <v>0.9774712148388409</v>
       </c>
       <c r="D114" t="n">
         <v>1.046518967892539</v>
@@ -2051,7 +2051,7 @@
         <v>0.8058073929140698</v>
       </c>
       <c r="C115" t="n">
-        <v>1.006435140395241</v>
+        <v>0.9969684232223464</v>
       </c>
       <c r="D115" t="n">
         <v>1.062200420265395</v>
@@ -2065,7 +2065,7 @@
         <v>0.8106820271056648</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9995640202304185</v>
+        <v>0.9901358197481368</v>
       </c>
       <c r="D116" t="n">
         <v>1.057882994225044</v>
@@ -2079,7 +2079,7 @@
         <v>0.8144518566621406</v>
       </c>
       <c r="C117" t="n">
-        <v>1.003906820488558</v>
+        <v>0.9937665906261635</v>
       </c>
       <c r="D117" t="n">
         <v>1.059620905014891</v>
@@ -2093,7 +2093,7 @@
         <v>0.8040278984254425</v>
       </c>
       <c r="C118" t="n">
-        <v>1.003359359199118</v>
+        <v>0.9924852348496012</v>
       </c>
       <c r="D118" t="n">
         <v>1.05951373279643</v>
@@ -2107,7 +2107,7 @@
         <v>0.8094169836303374</v>
       </c>
       <c r="C119" t="n">
-        <v>1.006411525199933</v>
+        <v>0.9935978045127047</v>
       </c>
       <c r="D119" t="n">
         <v>1.062163638142952</v>
@@ -2121,7 +2121,7 @@
         <v>0.7959400538065158</v>
       </c>
       <c r="C120" t="n">
-        <v>1.016142671009712</v>
+        <v>0.9985408074176768</v>
       </c>
       <c r="D120" t="n">
         <v>1.068623926066817</v>
@@ -2135,7 +2135,7 @@
         <v>0.8094844526156882</v>
       </c>
       <c r="C121" t="n">
-        <v>1.025176883162692</v>
+        <v>1.008334794790255</v>
       </c>
       <c r="D121" t="n">
         <v>1.077191680373709</v>
@@ -2149,7 +2149,7 @@
         <v>0.7913605964258305</v>
       </c>
       <c r="C122" t="n">
-        <v>1.021061432699431</v>
+        <v>1.004462531721563</v>
       </c>
       <c r="D122" t="n">
         <v>1.075107409759976</v>
@@ -2163,7 +2163,7 @@
         <v>0.8073929140698135</v>
       </c>
       <c r="C123" t="n">
-        <v>1.027799092821538</v>
+        <v>1.011203820097891</v>
       </c>
       <c r="D123" t="n">
         <v>1.079501079454253</v>
@@ -2177,7 +2177,7 @@
         <v>0.8016664839381646</v>
       </c>
       <c r="C124" t="n">
-        <v>1.034572376831591</v>
+        <v>1.018140568110018</v>
       </c>
       <c r="D124" t="n">
         <v>1.084445348503446</v>
@@ -2191,7 +2191,7 @@
         <v>0.8113398497128351</v>
       </c>
       <c r="C125" t="n">
-        <v>1.031648680800205</v>
+        <v>1.015329039626193</v>
       </c>
       <c r="D125" t="n">
         <v>1.073854591816736</v>
@@ -2205,7 +2205,7 @@
         <v>0.8116097256542383</v>
       </c>
       <c r="C126" t="n">
-        <v>1.026798349793458</v>
+        <v>1.010538622187223</v>
       </c>
       <c r="D126" t="n">
         <v>1.070783641137764</v>
@@ -2219,7 +2219,7 @@
         <v>0.8160795459337286</v>
       </c>
       <c r="C127" t="n">
-        <v>1.032613459260194</v>
+        <v>1.0172783285153</v>
       </c>
       <c r="D127" t="n">
         <v>1.077383194282449</v>
@@ -2233,7 +2233,7 @@
         <v>0.8343973754564699</v>
       </c>
       <c r="C128" t="n">
-        <v>1.035834042434266</v>
+        <v>1.021060754608046</v>
       </c>
       <c r="D128" t="n">
         <v>1.081107093639091</v>
@@ -2247,7 +2247,7 @@
         <v>0.8244794346099028</v>
       </c>
       <c r="C129" t="n">
-        <v>1.042098357658753</v>
+        <v>1.027831244896381</v>
       </c>
       <c r="D129" t="n">
         <v>1.086552139846708</v>
@@ -2261,7 +2261,7 @@
         <v>0.8414225835561215</v>
       </c>
       <c r="C130" t="n">
-        <v>1.052736979021012</v>
+        <v>1.036834591118137</v>
       </c>
       <c r="D130" t="n">
         <v>1.104484872981288</v>
@@ -2275,7 +2275,7 @@
         <v>0.8362780734231233</v>
       </c>
       <c r="C131" t="n">
-        <v>1.049625069802282</v>
+        <v>1.033361678672935</v>
       </c>
       <c r="D131" t="n">
         <v>1.101202204274856</v>
@@ -2289,7 +2289,7 @@
         <v>0.8436321928263601</v>
       </c>
       <c r="C132" t="n">
-        <v>1.052939070644884</v>
+        <v>1.036875758901633</v>
       </c>
       <c r="D132" t="n">
         <v>1.103571248234073</v>
@@ -2303,7 +2303,7 @@
         <v>0.8323733058959459</v>
       </c>
       <c r="C133" t="n">
-        <v>1.043665321305131</v>
+        <v>1.027385636475907</v>
       </c>
       <c r="D133" t="n">
         <v>1.096895342311836</v>
@@ -2317,7 +2317,7 @@
         <v>0.8470731110792508</v>
       </c>
       <c r="C134" t="n">
-        <v>1.041726922653147</v>
+        <v>1.02508895356478</v>
       </c>
       <c r="D134" t="n">
         <v>1.094527032688194</v>
@@ -2331,7 +2331,7 @@
         <v>0.8584669359803665</v>
       </c>
       <c r="C135" t="n">
-        <v>1.057414340264627</v>
+        <v>1.040476128742734</v>
       </c>
       <c r="D135" t="n">
         <v>1.116211880397217</v>
@@ -2345,7 +2345,7 @@
         <v>0.8480261104973308</v>
       </c>
       <c r="C136" t="n">
-        <v>1.055924054576825</v>
+        <v>1.039044923884161</v>
       </c>
       <c r="D136" t="n">
         <v>1.115351232528234</v>
@@ -2359,7 +2359,7 @@
         <v>0.8677186205965945</v>
       </c>
       <c r="C137" t="n">
-        <v>1.068892170569747</v>
+        <v>1.051895731859779</v>
       </c>
       <c r="D137" t="n">
         <v>1.130559625190337</v>
@@ -2373,7 +2373,7 @@
         <v>0.8806895330302852</v>
       </c>
       <c r="C138" t="n">
-        <v>1.06678620888198</v>
+        <v>1.049579502518529</v>
       </c>
       <c r="D138" t="n">
         <v>1.128411523458676</v>
@@ -2387,7 +2387,7 @@
         <v>0.8797112327426986</v>
       </c>
       <c r="C139" t="n">
-        <v>1.054533594177836</v>
+        <v>1.036012714707719</v>
       </c>
       <c r="D139" t="n">
         <v>1.116774243269733</v>
@@ -2401,7 +2401,7 @@
         <v>0.8795425602793217</v>
       </c>
       <c r="C140" t="n">
-        <v>1.060788809007862</v>
+        <v>1.04215627208503</v>
       </c>
       <c r="D140" t="n">
         <v>1.120552723959612</v>
@@ -2415,7 +2415,7 @@
         <v>0.862700614811129</v>
       </c>
       <c r="C141" t="n">
-        <v>1.069197337463552</v>
+        <v>1.050853624606596</v>
       </c>
       <c r="D141" t="n">
         <v>1.132822627997161</v>
@@ -2429,7 +2429,7 @@
         <v>0.8634512072731566</v>
       </c>
       <c r="C142" t="n">
-        <v>1.075301766216112</v>
+        <v>1.056924622445969</v>
       </c>
       <c r="D142" t="n">
         <v>1.143160790120179</v>
@@ -2443,7 +2443,7 @@
         <v>0.8811196478118964</v>
       </c>
       <c r="C143" t="n">
-        <v>1.089278336584674</v>
+        <v>1.070959234369613</v>
       </c>
       <c r="D143" t="n">
         <v>1.160734883467043</v>
@@ -2457,7 +2457,7 @@
         <v>0.8780160744857598</v>
       </c>
       <c r="C144" t="n">
-        <v>1.092779177374022</v>
+        <v>1.073689611597652</v>
       </c>
       <c r="D144" t="n">
         <v>1.165580032029508</v>
@@ -2471,7 +2471,7 @@
         <v>0.8906327747463588</v>
       </c>
       <c r="C145" t="n">
-        <v>1.094208838878521</v>
+        <v>1.074431299266867</v>
       </c>
       <c r="D145" t="n">
         <v>1.173299652874521</v>
@@ -2485,7 +2485,7 @@
         <v>0.8856063353377245</v>
       </c>
       <c r="C146" t="n">
-        <v>1.100760229245045</v>
+        <v>1.081419950407746</v>
       </c>
       <c r="D146" t="n">
         <v>1.178611501304679</v>
@@ -2499,7 +2499,7 @@
         <v>0.8679210275526469</v>
       </c>
       <c r="C147" t="n">
-        <v>1.097896707337065</v>
+        <v>1.0781701247891</v>
       </c>
       <c r="D147" t="n">
         <v>1.174863197689356</v>
@@ -2513,7 +2513,7 @@
         <v>0.8672294704528012</v>
       </c>
       <c r="C148" t="n">
-        <v>1.091729778696293</v>
+        <v>1.071895011131085</v>
       </c>
       <c r="D148" t="n">
         <v>1.170961910831997</v>
@@ -2527,7 +2527,7 @@
         <v>0.853617602658278</v>
       </c>
       <c r="C149" t="n">
-        <v>1.05871371627861</v>
+        <v>1.037060324924588</v>
       </c>
       <c r="D149" t="n">
         <v>1.143418166026222</v>
@@ -2541,7 +2541,7 @@
         <v>0.8669933290040734</v>
       </c>
       <c r="C150" t="n">
-        <v>1.064515126629068</v>
+        <v>1.045041961693645</v>
       </c>
       <c r="D150" t="n">
         <v>1.142629024629369</v>
@@ -2555,7 +2555,7 @@
         <v>0.8781594460796303</v>
       </c>
       <c r="C151" t="n">
-        <v>1.061123634333329</v>
+        <v>1.040647943618136</v>
       </c>
       <c r="D151" t="n">
         <v>1.138111145229672</v>
@@ -2569,7 +2569,7 @@
         <v>0.8667740548016833</v>
       </c>
       <c r="C152" t="n">
-        <v>1.056507804968275</v>
+        <v>1.036112765585515</v>
       </c>
       <c r="D152" t="n">
         <v>1.135688505748372</v>
@@ -2583,7 +2583,7 @@
         <v>0.8724077150784748</v>
       </c>
       <c r="C153" t="n">
-        <v>1.05705396131335</v>
+        <v>1.036535799154524</v>
       </c>
       <c r="D153" t="n">
         <v>1.135732233483616</v>
@@ -2597,7 +2597,7 @@
         <v>0.8616970136540359</v>
       </c>
       <c r="C154" t="n">
-        <v>1.055304029174221</v>
+        <v>1.035778576447017</v>
       </c>
       <c r="D154" t="n">
         <v>1.13738048964373</v>
@@ -2611,7 +2611,7 @@
         <v>0.8612247307565803</v>
       </c>
       <c r="C155" t="n">
-        <v>1.05372436189455</v>
+        <v>1.034486968944955</v>
       </c>
       <c r="D155" t="n">
         <v>1.136336754819116</v>
@@ -2625,7 +2625,7 @@
         <v>0.8472502171657966</v>
       </c>
       <c r="C156" t="n">
-        <v>1.043862095001893</v>
+        <v>1.024406248044508</v>
       </c>
       <c r="D156" t="n">
         <v>1.129038331681364</v>
@@ -2639,7 +2639,7 @@
         <v>0.8547730090324104</v>
       </c>
       <c r="C157" t="n">
-        <v>1.040673185268046</v>
+        <v>1.019953032284436</v>
       </c>
       <c r="D157" t="n">
         <v>1.122992611136828</v>
@@ -2653,7 +2653,7 @@
         <v>0.8399466995015729</v>
       </c>
       <c r="C158" t="n">
-        <v>1.027700467606804</v>
+        <v>1.006232960524121</v>
       </c>
       <c r="D158" t="n">
         <v>1.111087694646494</v>
@@ -2667,7 +2667,7 @@
         <v>0.8607777487286313</v>
       </c>
       <c r="C159" t="n">
-        <v>1.038530032214119</v>
+        <v>1.017197950995695</v>
       </c>
       <c r="D159" t="n">
         <v>1.118614572432767</v>
@@ -2681,7 +2681,7 @@
         <v>0.8505646310711544</v>
       </c>
       <c r="C160" t="n">
-        <v>1.041568721132687</v>
+        <v>1.022550577368184</v>
       </c>
       <c r="D160" t="n">
         <v>1.128113010628361</v>
@@ -2695,7 +2695,7 @@
         <v>0.8557428756968282</v>
       </c>
       <c r="C161" t="n">
-        <v>1.04309589183296</v>
+        <v>1.02418183066462</v>
       </c>
       <c r="D161" t="n">
         <v>1.12419154860863</v>
@@ -2709,7 +2709,7 @@
         <v>0.8561898577247772</v>
       </c>
       <c r="C162" t="n">
-        <v>1.048591603836622</v>
+        <v>1.026865863540629</v>
       </c>
       <c r="D162" t="n">
         <v>1.143945473826667</v>
@@ -2723,7 +2723,7 @@
         <v>0.8627427829269733</v>
       </c>
       <c r="C163" t="n">
-        <v>1.052378323564994</v>
+        <v>1.03080491405811</v>
       </c>
       <c r="D163" t="n">
         <v>1.14687260655459</v>
@@ -2737,7 +2737,7 @@
         <v>0.8612247307565803</v>
       </c>
       <c r="C164" t="n">
-        <v>1.050470775596947</v>
+        <v>1.028896353156666</v>
       </c>
       <c r="D164" t="n">
         <v>1.145433822197657</v>
@@ -2751,7 +2751,7 @@
         <v>0.8486501986118257</v>
       </c>
       <c r="C165" t="n">
-        <v>1.04651792189233</v>
+        <v>1.024897353156473</v>
       </c>
       <c r="D165" t="n">
         <v>1.142723050671203</v>
@@ -2765,7 +2765,7 @@
         <v>0.8486248977423191</v>
       </c>
       <c r="C166" t="n">
-        <v>1.049681048581994</v>
+        <v>1.028142320206232</v>
       </c>
       <c r="D166" t="n">
         <v>1.145225063778465</v>
@@ -2779,7 +2779,7 @@
         <v>0.8614355713358016</v>
       </c>
       <c r="C167" t="n">
-        <v>1.058202455551917</v>
+        <v>1.036747283457554</v>
       </c>
       <c r="D167" t="n">
         <v>1.151168804840194</v>
@@ -2793,7 +2793,7 @@
         <v>0.8380407006654129</v>
       </c>
       <c r="C168" t="n">
-        <v>1.045194280773216</v>
+        <v>1.02326804887517</v>
       </c>
       <c r="D168" t="n">
         <v>1.141080336974163</v>
@@ -2807,7 +2807,7 @@
         <v>0.8616464119150228</v>
       </c>
       <c r="C169" t="n">
-        <v>1.053831906571223</v>
+        <v>1.032467990544503</v>
       </c>
       <c r="D169" t="n">
         <v>1.148077758886105</v>
@@ -2821,7 +2821,7 @@
         <v>0.8594789707606285</v>
       </c>
       <c r="C170" t="n">
-        <v>1.037255776651023</v>
+        <v>1.018592467265516</v>
       </c>
       <c r="D170" t="n">
         <v>1.111461526302686</v>
@@ -2835,7 +2835,7 @@
         <v>0.8494429591896975</v>
       </c>
       <c r="C171" t="n">
-        <v>1.03025902250648</v>
+        <v>1.011036420489537</v>
       </c>
       <c r="D171" t="n">
         <v>1.10480607126716</v>
@@ -2849,7 +2849,7 @@
         <v>0.8538368768606681</v>
       </c>
       <c r="C172" t="n">
-        <v>1.049015785299108</v>
+        <v>1.028375979481835</v>
       </c>
       <c r="D172" t="n">
         <v>1.14200134306941</v>
@@ -2863,7 +2863,7 @@
         <v>0.8437839980433994</v>
       </c>
       <c r="C173" t="n">
-        <v>1.048100126337157</v>
+        <v>1.027896956986418</v>
       </c>
       <c r="D173" t="n">
         <v>1.14311333887166</v>
@@ -2877,7 +2877,7 @@
         <v>0.8542585580191105</v>
       </c>
       <c r="C174" t="n">
-        <v>1.054661715087492</v>
+        <v>1.034056828826194</v>
       </c>
       <c r="D174" t="n">
         <v>1.145688880384957</v>
@@ -2891,7 +2891,7 @@
         <v>0.8335371458932472</v>
       </c>
       <c r="C175" t="n">
-        <v>1.048208232460559</v>
+        <v>1.029083425114376</v>
       </c>
       <c r="D175" t="n">
         <v>1.147645789470028</v>
@@ -2905,7 +2905,7 @@
         <v>0.8295564757575502</v>
       </c>
       <c r="C176" t="n">
-        <v>1.042733246265395</v>
+        <v>1.023659579964255</v>
       </c>
       <c r="D176" t="n">
         <v>1.144911525494277</v>
@@ -2919,7 +2919,7 @@
         <v>0.8456815632563905</v>
       </c>
       <c r="C177" t="n">
-        <v>1.051287822860168</v>
+        <v>1.03285496162473</v>
       </c>
       <c r="D177" t="n">
         <v>1.153054575529637</v>
@@ -2933,7 +2933,7 @@
         <v>0.8458755365892742</v>
       </c>
       <c r="C178" t="n">
-        <v>1.044914082289748</v>
+        <v>1.026064654164036</v>
       </c>
       <c r="D178" t="n">
         <v>1.147595880852926</v>
@@ -2947,7 +2947,7 @@
         <v>0.8406298229782497</v>
       </c>
       <c r="C179" t="n">
-        <v>1.052835592542331</v>
+        <v>1.03450553990861</v>
       </c>
       <c r="D179" t="n">
         <v>1.154735559376279</v>
@@ -2961,7 +2961,7 @@
         <v>0.8441888119555042</v>
       </c>
       <c r="C180" t="n">
-        <v>1.05416163628268</v>
+        <v>1.035944068417866</v>
       </c>
       <c r="D180" t="n">
         <v>1.155538951291654</v>
@@ -2975,7 +2975,7 @@
         <v>0.8289408212662241</v>
       </c>
       <c r="C181" t="n">
-        <v>1.035469028906216</v>
+        <v>1.017315205924672</v>
       </c>
       <c r="D181" t="n">
         <v>1.143505768589557</v>
@@ -2989,7 +2989,7 @@
         <v>0.8179855447698886</v>
       </c>
       <c r="C182" t="n">
-        <v>1.042708494556254</v>
+        <v>1.024000844144189</v>
       </c>
       <c r="D182" t="n">
         <v>1.153115276720972</v>
@@ -3003,7 +3003,7 @@
         <v>0.82054093259005</v>
       </c>
       <c r="C183" t="n">
-        <v>1.031330491448422</v>
+        <v>1.0136947670011</v>
       </c>
       <c r="D183" t="n">
         <v>1.130686174778545</v>
@@ -3017,7 +3017,7 @@
         <v>0.8073929140698135</v>
       </c>
       <c r="C184" t="n">
-        <v>1.015729134481179</v>
+        <v>0.9978266526102023</v>
       </c>
       <c r="D184" t="n">
         <v>1.1194988924124</v>
@@ -3031,7 +3031,7 @@
         <v>0.8181626508564345</v>
       </c>
       <c r="C185" t="n">
-        <v>1.01992706452887</v>
+        <v>1.003231475390499</v>
       </c>
       <c r="D185" t="n">
         <v>1.119612147505836</v>
@@ -3045,7 +3045,7 @@
         <v>0.8180530137552394</v>
       </c>
       <c r="C186" t="n">
-        <v>1.023143816034248</v>
+        <v>1.006564299033657</v>
       </c>
       <c r="D186" t="n">
         <v>1.121963186383469</v>
@@ -3059,7 +3059,7 @@
         <v>0.7983773709023133</v>
       </c>
       <c r="C187" t="n">
-        <v>1.034918477063609</v>
+        <v>1.01425883290863</v>
       </c>
       <c r="D187" t="n">
         <v>1.162050340832098</v>
@@ -3073,7 +3073,7 @@
         <v>0.7892184561409427</v>
       </c>
       <c r="C188" t="n">
-        <v>1.04567176178847</v>
+        <v>1.022591668031578</v>
       </c>
       <c r="D188" t="n">
         <v>1.191594281778737</v>
@@ -3087,7 +3087,7 @@
         <v>0.7978460526426758</v>
       </c>
       <c r="C189" t="n">
-        <v>1.045057286136288</v>
+        <v>1.023723363655183</v>
       </c>
       <c r="D189" t="n">
         <v>1.19877419825035</v>
@@ -3101,7 +3101,7 @@
         <v>0.8052339065385881</v>
       </c>
       <c r="C190" t="n">
-        <v>1.050295212574732</v>
+        <v>1.031367998245239</v>
       </c>
       <c r="D190" t="n">
         <v>1.210958139732305</v>
@@ -3115,7 +3115,7 @@
         <v>0.7928955158425611</v>
       </c>
       <c r="C191" t="n">
-        <v>1.049303175420231</v>
+        <v>1.029508860730411</v>
       </c>
       <c r="D191" t="n">
         <v>1.220172035136634</v>
@@ -3129,7 +3129,7 @@
         <v>0.8103784166715863</v>
       </c>
       <c r="C192" t="n">
-        <v>1.057214984267958</v>
+        <v>1.037989479746849</v>
       </c>
       <c r="D192" t="n">
         <v>1.227367180621386</v>
@@ -3143,7 +3143,7 @@
         <v>0.8063808792895516</v>
       </c>
       <c r="C193" t="n">
-        <v>1.054739016232175</v>
+        <v>1.036793100038421</v>
       </c>
       <c r="D193" t="n">
         <v>1.231029542882648</v>
@@ -3157,7 +3157,7 @@
         <v>0.805630286827524</v>
       </c>
       <c r="C194" t="n">
-        <v>1.045389759482579</v>
+        <v>1.028205806133743</v>
       </c>
       <c r="D194" t="n">
         <v>1.215758155056525</v>
@@ -3171,7 +3171,7 @@
         <v>0.8258203806937499</v>
       </c>
       <c r="C195" t="n">
-        <v>1.051071710490065</v>
+        <v>1.033529754523798</v>
       </c>
       <c r="D195" t="n">
         <v>1.217031235860759</v>
@@ -3185,7 +3185,7 @@
         <v>0.8221348873689626</v>
       </c>
       <c r="C196" t="n">
-        <v>1.049439598750255</v>
+        <v>1.030958514858289</v>
       </c>
       <c r="D196" t="n">
         <v>1.211750790293723</v>
@@ -3199,7 +3199,7 @@
         <v>0.8307371830011892</v>
       </c>
       <c r="C197" t="n">
-        <v>1.04802404534769</v>
+        <v>1.02635563043332</v>
       </c>
       <c r="D197" t="n">
         <v>1.216448301676911</v>
@@ -3213,7 +3213,7 @@
         <v>0.8377455238545032</v>
       </c>
       <c r="C198" t="n">
-        <v>1.051395835546336</v>
+        <v>1.030664650193732</v>
       </c>
       <c r="D198" t="n">
         <v>1.222291104213816</v>
@@ -3227,7 +3227,7 @@
         <v>0.8353841093672253</v>
       </c>
       <c r="C199" t="n">
-        <v>1.034020571140009</v>
+        <v>1.01519112308749</v>
       </c>
       <c r="D199" t="n">
         <v>1.184274492366169</v>
@@ -3241,7 +3241,7 @@
         <v>0.8291010601064324</v>
       </c>
       <c r="C200" t="n">
-        <v>1.038052211406499</v>
+        <v>1.018175429806454</v>
       </c>
       <c r="D200" t="n">
         <v>1.194024459990273</v>
@@ -3255,7 +3255,7 @@
         <v>0.8320443945923608</v>
       </c>
       <c r="C201" t="n">
-        <v>1.054927290007255</v>
+        <v>1.033435556253545</v>
       </c>
       <c r="D201" t="n">
         <v>1.218906980543371</v>
@@ -3269,7 +3269,7 @@
         <v>0.8479164733961357</v>
       </c>
       <c r="C202" t="n">
-        <v>1.0440621203048</v>
+        <v>1.026631920741898</v>
       </c>
       <c r="D202" t="n">
         <v>1.184465594955599</v>
@@ -3283,7 +3283,7 @@
         <v>0.848017676874162</v>
       </c>
       <c r="C203" t="n">
-        <v>1.055809456750103</v>
+        <v>1.035695855370207</v>
       </c>
       <c r="D203" t="n">
         <v>1.218311167932461</v>
@@ -3297,7 +3297,7 @@
         <v>0.8595380061228104</v>
       </c>
       <c r="C204" t="n">
-        <v>1.055963999579952</v>
+        <v>1.035646323802301</v>
       </c>
       <c r="D204" t="n">
         <v>1.217150543552739</v>
@@ -3311,7 +3311,7 @@
         <v>0.8539886820777074</v>
       </c>
       <c r="C205" t="n">
-        <v>1.038922924587927</v>
+        <v>1.021204762932308</v>
       </c>
       <c r="D205" t="n">
         <v>1.181122001923847</v>
@@ -3325,7 +3325,7 @@
         <v>0.851939311647677</v>
       </c>
       <c r="C206" t="n">
-        <v>1.060060249037666</v>
+        <v>1.042846917696128</v>
       </c>
       <c r="D206" t="n">
         <v>1.206558823123965</v>
@@ -3339,7 +3339,7 @@
         <v>0.8400394693564303</v>
       </c>
       <c r="C207" t="n">
-        <v>1.056193496364167</v>
+        <v>1.035775385201102</v>
       </c>
       <c r="D207" t="n">
         <v>1.218256338241531</v>
@@ -3353,7 +3353,7 @@
         <v>0.8043062079900146</v>
       </c>
       <c r="C208" t="n">
-        <v>1.054815213392316</v>
+        <v>1.033755596774287</v>
       </c>
       <c r="D208" t="n">
         <v>1.207930794234906</v>
@@ -3367,7 +3367,7 @@
         <v>0.8145361928938292</v>
       </c>
       <c r="C209" t="n">
-        <v>1.048645838365699</v>
+        <v>1.028039761283529</v>
       </c>
       <c r="D209" t="n">
         <v>1.20886179048441</v>
@@ -3381,7 +3381,7 @@
         <v>0.7923557639597547</v>
       </c>
       <c r="C210" t="n">
-        <v>1.045112369347283</v>
+        <v>1.024372429106971</v>
       </c>
       <c r="D210" t="n">
         <v>1.206213130665112</v>
@@ -3395,7 +3395,7 @@
         <v>0.8061447378408237</v>
       </c>
       <c r="C211" t="n">
-        <v>1.054333501072232</v>
+        <v>1.03351207580333</v>
       </c>
       <c r="D211" t="n">
         <v>1.216124230228511</v>
@@ -3409,7 +3409,7 @@
         <v>0.8249011157683452</v>
       </c>
       <c r="C212" t="n">
-        <v>1.071785775757176</v>
+        <v>1.050913560965013</v>
       </c>
       <c r="D212" t="n">
         <v>1.230696992862498</v>
@@ -3423,7 +3423,7 @@
         <v>0.8498899412176465</v>
       </c>
       <c r="C213" t="n">
-        <v>1.089244997183529</v>
+        <v>1.068712840913421</v>
       </c>
       <c r="D213" t="n">
         <v>1.246098331477905</v>
@@ -3437,7 +3437,7 @@
         <v>0.8501007817968678</v>
       </c>
       <c r="C214" t="n">
-        <v>1.093601566460082</v>
+        <v>1.07306159150761</v>
       </c>
       <c r="D214" t="n">
         <v>1.24898127467902</v>
@@ -3451,7 +3451,7 @@
         <v>0.8763630843446654</v>
       </c>
       <c r="C215" t="n">
-        <v>1.100867339637709</v>
+        <v>1.079066311224728</v>
       </c>
       <c r="D215" t="n">
         <v>1.262759966587423</v>
@@ -3465,7 +3465,7 @@
         <v>0.888490634461471</v>
       </c>
       <c r="C216" t="n">
-        <v>1.09484399199999</v>
+        <v>1.072316009905286</v>
       </c>
       <c r="D216" t="n">
         <v>1.274177475656477</v>
@@ -3479,7 +3479,7 @@
         <v>0.8815834970861832</v>
       </c>
       <c r="C217" t="n">
-        <v>1.081054322331242</v>
+        <v>1.058308220274073</v>
       </c>
       <c r="D217" t="n">
         <v>1.265070308128389</v>
@@ -3493,7 +3493,7 @@
         <v>0.8617054472772048</v>
       </c>
       <c r="C218" t="n">
-        <v>1.073087990681378</v>
+        <v>1.049526216868304</v>
       </c>
       <c r="D218" t="n">
         <v>1.256947184880501</v>
@@ -3507,7 +3507,7 @@
         <v>0.8814148246228062</v>
       </c>
       <c r="C219" t="n">
-        <v>1.084633724590848</v>
+        <v>1.062365668487965</v>
       </c>
       <c r="D219" t="n">
         <v>1.272679459322976</v>
@@ -3521,7 +3521,7 @@
         <v>0.8975905138606597</v>
       </c>
       <c r="C220" t="n">
-        <v>1.091590263013323</v>
+        <v>1.069851565883142</v>
       </c>
       <c r="D220" t="n">
         <v>1.283144742810933</v>
@@ -3535,7 +3535,7 @@
         <v>0.9043289787725705</v>
       </c>
       <c r="C221" t="n">
-        <v>1.099148638114812</v>
+        <v>1.076795911512243</v>
       </c>
       <c r="D221" t="n">
         <v>1.292676236150838</v>
@@ -3549,7 +3549,7 @@
         <v>0.8980374958886087</v>
       </c>
       <c r="C222" t="n">
-        <v>1.094615105830444</v>
+        <v>1.070132413355964</v>
       </c>
       <c r="D222" t="n">
         <v>1.286652678561641</v>
@@ -3563,7 +3563,7 @@
         <v>0.8983242390763496</v>
       </c>
       <c r="C223" t="n">
-        <v>1.097408747894129</v>
+        <v>1.072838651202972</v>
       </c>
       <c r="D223" t="n">
         <v>1.287409176887308</v>
@@ -3577,7 +3577,7 @@
         <v>0.9055940222478979</v>
       </c>
       <c r="C224" t="n">
-        <v>1.087537023104203</v>
+        <v>1.062699354143458</v>
       </c>
       <c r="D224" t="n">
         <v>1.283976744928369</v>
@@ -3591,7 +3591,7 @@
         <v>0.9258937532153189</v>
       </c>
       <c r="C225" t="n">
-        <v>1.088174140780479</v>
+        <v>1.063875108686404</v>
       </c>
       <c r="D225" t="n">
         <v>1.286352671214202</v>
@@ -3605,7 +3605,7 @@
         <v>0.9288202204549096</v>
       </c>
       <c r="C226" t="n">
-        <v>1.099065025378061</v>
+        <v>1.075807596275909</v>
       </c>
       <c r="D226" t="n">
         <v>1.296465217147799</v>
@@ -3619,7 +3619,7 @@
         <v>0.9296129810327814</v>
       </c>
       <c r="C227" t="n">
-        <v>1.105816855947906</v>
+        <v>1.082035092107944</v>
       </c>
       <c r="D227" t="n">
         <v>1.305517108425787</v>
@@ -3633,7 +3633,7 @@
         <v>0.9325478818955412</v>
       </c>
       <c r="C228" t="n">
-        <v>1.107812805615182</v>
+        <v>1.084132143611897</v>
       </c>
       <c r="D228" t="n">
         <v>1.306711843407103</v>
@@ -3647,7 +3647,7 @@
         <v>0.9183203596096919</v>
       </c>
       <c r="C229" t="n">
-        <v>1.105102395364193</v>
+        <v>1.08041882540523</v>
       </c>
       <c r="D229" t="n">
         <v>1.302164337383469</v>
@@ -3661,7 +3661,7 @@
         <v>0.9389574355038668</v>
       </c>
       <c r="C230" t="n">
-        <v>1.113955704521616</v>
+        <v>1.088420733832948</v>
       </c>
       <c r="D230" t="n">
         <v>1.318193591840712</v>
@@ -3675,7 +3675,7 @@
         <v>0.9429971410017458</v>
       </c>
       <c r="C231" t="n">
-        <v>1.116795251436242</v>
+        <v>1.090542583631516</v>
       </c>
       <c r="D231" t="n">
         <v>1.324202269776135</v>
@@ -3689,7 +3689,7 @@
         <v>0.9523162946033246</v>
       </c>
       <c r="C232" t="n">
-        <v>1.147765306817585</v>
+        <v>1.11682890309592</v>
       </c>
       <c r="D232" t="n">
         <v>1.372117785430622</v>
@@ -3703,7 +3703,7 @@
         <v>0.9587511490811568</v>
       </c>
       <c r="C233" t="n">
-        <v>1.163900260274938</v>
+        <v>1.12900965350737</v>
       </c>
       <c r="D233" t="n">
         <v>1.418468509488285</v>
@@ -3717,7 +3717,7 @@
         <v>0.9582704325605323</v>
       </c>
       <c r="C234" t="n">
-        <v>1.165637970337335</v>
+        <v>1.130943354168514</v>
       </c>
       <c r="D234" t="n">
         <v>1.421459077714695</v>
@@ -3731,7 +3731,7 @@
         <v>0.9578150169094145</v>
       </c>
       <c r="C235" t="n">
-        <v>1.167847843980629</v>
+        <v>1.132869071994344</v>
       </c>
       <c r="D235" t="n">
         <v>1.434664075138142</v>
@@ -3745,7 +3745,7 @@
         <v>0.9506548708390612</v>
       </c>
       <c r="C236" t="n">
-        <v>1.160926428417048</v>
+        <v>1.124730923296234</v>
       </c>
       <c r="D236" t="n">
         <v>1.427338223320794</v>
@@ -3759,7 +3759,7 @@
         <v>0.9697991954323497</v>
       </c>
       <c r="C237" t="n">
-        <v>1.172095937045825</v>
+        <v>1.140964200428229</v>
       </c>
       <c r="D237" t="n">
         <v>1.445235880656119</v>
@@ -3773,7 +3773,7 @@
         <v>0.9725907247012389</v>
       </c>
       <c r="C238" t="n">
-        <v>1.189892908091957</v>
+        <v>1.162869892644257</v>
       </c>
       <c r="D238" t="n">
         <v>1.472402960196193</v>
@@ -3787,7 +3787,7 @@
         <v>0.9696558238384793</v>
       </c>
       <c r="C239" t="n">
-        <v>1.190794747890479</v>
+        <v>1.166011482318297</v>
       </c>
       <c r="D239" t="n">
         <v>1.482078744557089</v>
@@ -3801,7 +3801,7 @@
         <v>0.9795315965692021</v>
       </c>
       <c r="C240" t="n">
-        <v>1.195684156955051</v>
+        <v>1.171763848753157</v>
       </c>
       <c r="D240" t="n">
         <v>1.480559695186146</v>
@@ -3815,7 +3815,7 @@
         <v>0.9947205518963002</v>
       </c>
       <c r="C241" t="n">
-        <v>1.199397308058431</v>
+        <v>1.176248725414494</v>
       </c>
       <c r="D241" t="n">
         <v>1.485134139114761</v>
@@ -3829,7 +3829,7 @@
         <v>0.9964916127617586</v>
       </c>
       <c r="C242" t="n">
-        <v>1.203293136472367</v>
+        <v>1.180412562411486</v>
       </c>
       <c r="D242" t="n">
         <v>1.485915994793205</v>
@@ -3843,7 +3843,7 @@
         <v>0.9924603408870485</v>
       </c>
       <c r="C243" t="n">
-        <v>1.205257940500354</v>
+        <v>1.183366464677206</v>
       </c>
       <c r="D243" t="n">
         <v>1.490659804137502</v>
@@ -3857,7 +3857,7 @@
         <v>0.9784352255572516</v>
       </c>
       <c r="C244" t="n">
-        <v>1.189014610978165</v>
+        <v>1.169227838343431</v>
       </c>
       <c r="D244" t="n">
         <v>1.472559756315299</v>
@@ -3871,7 +3871,7 @@
         <v>0.9812351884493097</v>
       </c>
       <c r="C245" t="n">
-        <v>1.174830494479183</v>
+        <v>1.153428596393286</v>
       </c>
       <c r="D245" t="n">
         <v>1.440723367272774</v>
@@ -3885,7 +3885,7 @@
         <v>0.9939615258111038</v>
       </c>
       <c r="C246" t="n">
-        <v>1.182813991640439</v>
+        <v>1.162477134657588</v>
       </c>
       <c r="D246" t="n">
         <v>1.453390993047242</v>
@@ -3899,7 +3899,7 @@
         <v>1.00403127187471</v>
       </c>
       <c r="C247" t="n">
-        <v>1.207019594627914</v>
+        <v>1.187703443074839</v>
       </c>
       <c r="D247" t="n">
         <v>1.473286362203761</v>
@@ -3913,7 +3913,7 @@
         <v>1.007607128098302</v>
       </c>
       <c r="C248" t="n">
-        <v>1.228559954609612</v>
+        <v>1.213044149652781</v>
       </c>
       <c r="D248" t="n">
         <v>1.515473786642165</v>
@@ -3927,7 +3927,7 @@
         <v>1.006181845782767</v>
       </c>
       <c r="C249" t="n">
-        <v>1.252796797084966</v>
+        <v>1.246152254438833</v>
       </c>
       <c r="D249" t="n">
         <v>1.582639482469492</v>
@@ -3941,7 +3941,7 @@
         <v>0.9998734956524673</v>
       </c>
       <c r="C250" t="n">
-        <v>1.248459220219327</v>
+        <v>1.243812112727872</v>
       </c>
       <c r="D250" t="n">
         <v>1.595541109485294</v>
@@ -3955,7 +3955,7 @@
         <v>1.005481855059752</v>
       </c>
       <c r="C251" t="n">
-        <v>1.250751045730579</v>
+        <v>1.241876731080454</v>
       </c>
       <c r="D251" t="n">
         <v>1.587455356972147</v>
@@ -3969,7 +3969,7 @@
         <v>1.01077817040979</v>
       </c>
       <c r="C252" t="n">
-        <v>1.230088621074808</v>
+        <v>1.215261578938666</v>
       </c>
       <c r="D252" t="n">
         <v>1.544259698190829</v>
@@ -3983,7 +3983,7 @@
         <v>1.028530947180218</v>
       </c>
       <c r="C253" t="n">
-        <v>1.227537410682978</v>
+        <v>1.215443150103695</v>
       </c>
       <c r="D253" t="n">
         <v>1.556123039634881</v>
@@ -3997,7 +3997,7 @@
         <v>1.054852285090198</v>
       </c>
       <c r="C254" t="n">
-        <v>1.237054046370756</v>
+        <v>1.22616885197088</v>
       </c>
       <c r="D254" t="n">
         <v>1.566804074865839</v>
@@ -4011,7 +4011,7 @@
         <v>1.035707960496909</v>
       </c>
       <c r="C255" t="n">
-        <v>1.226660370787151</v>
+        <v>1.213623774009168</v>
       </c>
       <c r="D255" t="n">
         <v>1.552300499214949</v>
@@ -4025,7 +4025,7 @@
         <v>1.045752405691009</v>
       </c>
       <c r="C256" t="n">
-        <v>1.215404232437392</v>
+        <v>1.203899927618263</v>
       </c>
       <c r="D256" t="n">
         <v>1.542989208559279</v>
@@ -4039,7 +4039,7 @@
         <v>1.029239371526401</v>
       </c>
       <c r="C257" t="n">
-        <v>1.231152009928349</v>
+        <v>1.219018913266635</v>
       </c>
       <c r="D257" t="n">
         <v>1.548167465494615</v>
@@ -4053,7 +4053,7 @@
         <v>1.041392222512714</v>
       </c>
       <c r="C258" t="n">
-        <v>1.243098457599041</v>
+        <v>1.232655322950499</v>
       </c>
       <c r="D258" t="n">
         <v>1.571028683435062</v>
@@ -4067,7 +4067,7 @@
         <v>1.016268459092711</v>
       </c>
       <c r="C259" t="n">
-        <v>1.24173233294611</v>
+        <v>1.231291984764552</v>
       </c>
       <c r="D259" t="n">
         <v>1.570218075125092</v>
@@ -4081,7 +4081,7 @@
         <v>1.022509340237659</v>
       </c>
       <c r="C260" t="n">
-        <v>1.228443812942707</v>
+        <v>1.215613316049299</v>
       </c>
       <c r="D260" t="n">
         <v>1.567443436157971</v>
@@ -4095,7 +4095,7 @@
         <v>1.017710608654584</v>
       </c>
       <c r="C261" t="n">
-        <v>1.232081658960047</v>
+        <v>1.217473244943552</v>
       </c>
       <c r="D261" t="n">
         <v>1.559516111812467</v>
@@ -4109,7 +4109,7 @@
         <v>1.009572162296644</v>
       </c>
       <c r="C262" t="n">
-        <v>1.214853075720568</v>
+        <v>1.199833080424146</v>
       </c>
       <c r="D262" t="n">
         <v>1.546926587307181</v>
@@ -4123,7 +4123,7 @@
         <v>0.9989036289880495</v>
       </c>
       <c r="C263" t="n">
-        <v>1.2156474138049</v>
+        <v>1.20037670866322</v>
       </c>
       <c r="D263" t="n">
         <v>1.535456888683809</v>
@@ -4137,7 +4137,7 @@
         <v>0.9881844939404417</v>
       </c>
       <c r="C264" t="n">
-        <v>1.215955777666044</v>
+        <v>1.200616108819538</v>
       </c>
       <c r="D264" t="n">
         <v>1.538478444432994</v>
@@ -4151,7 +4151,7 @@
         <v>0.9822134887368963</v>
       </c>
       <c r="C265" t="n">
-        <v>1.207819988733527</v>
+        <v>1.189815159410288</v>
       </c>
       <c r="D265" t="n">
         <v>1.523052048805008</v>
@@ -4165,7 +4165,7 @@
         <v>0.9773051200526258</v>
       </c>
       <c r="C266" t="n">
-        <v>1.219312361400992</v>
+        <v>1.200589234169662</v>
       </c>
       <c r="D266" t="n">
         <v>1.528677849783596</v>
@@ -4179,7 +4179,7 @@
         <v>1.006249314768118</v>
       </c>
       <c r="C267" t="n">
-        <v>1.228717631306478</v>
+        <v>1.212096301756667</v>
       </c>
       <c r="D267" t="n">
         <v>1.542347420873305</v>
@@ -4193,7 +4193,7 @@
         <v>0.978359322948732</v>
       </c>
       <c r="C268" t="n">
-        <v>1.227032692960204</v>
+        <v>1.209988041891382</v>
       </c>
       <c r="D268" t="n">
         <v>1.539780969694964</v>
@@ -4207,7 +4207,7 @@
         <v>0.9898121832120297</v>
       </c>
       <c r="C269" t="n">
-        <v>1.225000977938788</v>
+        <v>1.208261712990104</v>
       </c>
       <c r="D269" t="n">
         <v>1.539510833382962</v>
@@ -4221,7 +4221,7 @@
         <v>0.99714100174576</v>
       </c>
       <c r="C270" t="n">
-        <v>1.225014573219698</v>
+        <v>1.205345943137769</v>
       </c>
       <c r="D270" t="n">
         <v>1.528625233646642</v>
@@ -4235,7 +4235,7 @@
         <v>1.009715533890515</v>
       </c>
       <c r="C271" t="n">
-        <v>1.229070865104442</v>
+        <v>1.210744030362972</v>
       </c>
       <c r="D271" t="n">
         <v>1.536285699816545</v>
@@ -4249,7 +4249,7 @@
         <v>1.005802332740169</v>
       </c>
       <c r="C272" t="n">
-        <v>1.224945441079212</v>
+        <v>1.204740390654233</v>
       </c>
       <c r="D272" t="n">
         <v>1.525879333296306</v>
@@ -4263,7 +4263,7 @@
         <v>1.011402258524285</v>
       </c>
       <c r="C273" t="n">
-        <v>1.221109896099256</v>
+        <v>1.203525714037575</v>
       </c>
       <c r="D273" t="n">
         <v>1.527836157622036</v>
@@ -4277,7 +4277,7 @@
         <v>1.007952906648225</v>
       </c>
       <c r="C274" t="n">
-        <v>1.219586832836486</v>
+        <v>1.201063388570607</v>
       </c>
       <c r="D274" t="n">
         <v>1.526279904950232</v>
@@ -4291,7 +4291,7 @@
         <v>1.007219181432535</v>
       </c>
       <c r="C275" t="n">
-        <v>1.228275153780839</v>
+        <v>1.210096277857709</v>
       </c>
       <c r="D275" t="n">
         <v>1.527046372065282</v>
@@ -4305,7 +4305,7 @@
         <v>0.9987939918868545</v>
       </c>
       <c r="C276" t="n">
-        <v>1.221678242782217</v>
+        <v>1.204390712393808</v>
       </c>
       <c r="D276" t="n">
         <v>1.523846941331836</v>
@@ -4319,7 +4319,7 @@
         <v>1.005583058537779</v>
       </c>
       <c r="C277" t="n">
-        <v>1.227096074856241</v>
+        <v>1.208758751482916</v>
       </c>
       <c r="D277" t="n">
         <v>1.5287805938969</v>
@@ -4333,7 +4333,7 @@
         <v>1.004579457380685</v>
       </c>
       <c r="C278" t="n">
-        <v>1.228875242329515</v>
+        <v>1.210949955204221</v>
       </c>
       <c r="D278" t="n">
         <v>1.530067985088101</v>
@@ -4347,7 +4347,7 @@
         <v>1.015332326920968</v>
       </c>
       <c r="C279" t="n">
-        <v>1.220261981888854</v>
+        <v>1.201163598292205</v>
       </c>
       <c r="D279" t="n">
         <v>1.520587231612154</v>
@@ -4361,7 +4361,7 @@
         <v>1.004781864336738</v>
       </c>
       <c r="C280" t="n">
-        <v>1.210344249343558</v>
+        <v>1.190318873762287</v>
       </c>
       <c r="D280" t="n">
         <v>1.514433434695416</v>
@@ -4375,7 +4375,7 @@
         <v>1.001475884054549</v>
       </c>
       <c r="C281" t="n">
-        <v>1.20897266063485</v>
+        <v>1.188228521541013</v>
       </c>
       <c r="D281" t="n">
         <v>1.51331413341099</v>
@@ -4389,7 +4389,7 @@
         <v>0.9501994551879432</v>
       </c>
       <c r="C282" t="n">
-        <v>1.192419080321435</v>
+        <v>1.170609118120229</v>
       </c>
       <c r="D282" t="n">
         <v>1.498577423006258</v>
@@ -4403,7 +4403,7 @@
         <v>0.9717810968770293</v>
       </c>
       <c r="C283" t="n">
-        <v>1.187042687476116</v>
+        <v>1.162757504242642</v>
       </c>
       <c r="D283" t="n">
         <v>1.48611948203301</v>
@@ -4417,7 +4417,7 @@
         <v>0.975500324694492</v>
       </c>
       <c r="C284" t="n">
-        <v>1.186011836026212</v>
+        <v>1.163438684647003</v>
       </c>
       <c r="D284" t="n">
         <v>1.49146433328782</v>
@@ -4431,7 +4431,7 @@
         <v>0.9467248024423772</v>
       </c>
       <c r="C285" t="n">
-        <v>1.171016627173158</v>
+        <v>1.147781955354413</v>
       </c>
       <c r="D285" t="n">
         <v>1.478482640993593</v>
@@ -4445,7 +4445,7 @@
         <v>0.9279937253843624</v>
       </c>
       <c r="C286" t="n">
-        <v>1.152875028232416</v>
+        <v>1.128333227918429</v>
       </c>
       <c r="D286" t="n">
         <v>1.447489119935141</v>
@@ -4459,7 +4459,7 @@
         <v>0.9305238123350172</v>
       </c>
       <c r="C287" t="n">
-        <v>1.150376504675142</v>
+        <v>1.122605796877385</v>
       </c>
       <c r="D287" t="n">
         <v>1.447850279237917</v>
@@ -4473,7 +4473,7 @@
         <v>0.940686328253481</v>
       </c>
       <c r="C288" t="n">
-        <v>1.143445705086464</v>
+        <v>1.115375105806368</v>
       </c>
       <c r="D288" t="n">
         <v>1.441821555215741</v>
@@ -4487,7 +4487,7 @@
         <v>0.9376839584053706</v>
       </c>
       <c r="C289" t="n">
-        <v>1.137684019756783</v>
+        <v>1.108292552688144</v>
       </c>
       <c r="D289" t="n">
         <v>1.432813303339632</v>
@@ -4501,7 +4501,7 @@
         <v>0.9503849948976579</v>
       </c>
       <c r="C290" t="n">
-        <v>1.152745332212637</v>
+        <v>1.124019496562694</v>
       </c>
       <c r="D290" t="n">
         <v>1.451886101408993</v>
@@ -4515,7 +4515,7 @@
         <v>0.9715702562978081</v>
       </c>
       <c r="C291" t="n">
-        <v>1.156271032628889</v>
+        <v>1.129049546562473</v>
       </c>
       <c r="D291" t="n">
         <v>1.459722580982695</v>
@@ -4529,7 +4529,7 @@
         <v>0.9328599259527885</v>
       </c>
       <c r="C292" t="n">
-        <v>1.141981040619234</v>
+        <v>1.113779911094949</v>
       </c>
       <c r="D292" t="n">
         <v>1.443447612298571</v>
@@ -4543,7 +4543,7 @@
         <v>0.9389237010111914</v>
       </c>
       <c r="C293" t="n">
-        <v>1.139868295063414</v>
+        <v>1.111661204368379</v>
       </c>
       <c r="D293" t="n">
         <v>1.442238124116637</v>
@@ -4557,7 +4557,7 @@
         <v>0.951110286490179</v>
       </c>
       <c r="C294" t="n">
-        <v>1.146454452789101</v>
+        <v>1.118586507084957</v>
       </c>
       <c r="D294" t="n">
         <v>1.450768616590988</v>
@@ -4571,7 +4571,7 @@
         <v>0.9697317264469989</v>
       </c>
       <c r="C295" t="n">
-        <v>1.140337243765284</v>
+        <v>1.111705567948007</v>
       </c>
       <c r="D295" t="n">
         <v>1.444964700194556</v>
@@ -4585,7 +4585,7 @@
         <v>0.9627824209558669</v>
       </c>
       <c r="C296" t="n">
-        <v>1.13578574773095</v>
+        <v>1.109311692832472</v>
       </c>
       <c r="D296" t="n">
         <v>1.442291348165673</v>
@@ -4599,7 +4599,7 @@
         <v>0.9686100545655419</v>
       </c>
       <c r="C297" t="n">
-        <v>1.184514401024095</v>
+        <v>1.149762028470851</v>
       </c>
       <c r="D297" t="n">
         <v>1.497405680994942</v>
@@ -4613,7 +4613,7 @@
         <v>0.9615932800890591</v>
       </c>
       <c r="C298" t="n">
-        <v>1.196653096650953</v>
+        <v>1.160656224329195</v>
       </c>
       <c r="D298" t="n">
         <v>1.516347749706023</v>
@@ -4627,7 +4627,7 @@
         <v>0.9829303467062485</v>
       </c>
       <c r="C299" t="n">
-        <v>1.213268928400844</v>
+        <v>1.17512759266995</v>
       </c>
       <c r="D299" t="n">
         <v>1.529670212689685</v>
@@ -4641,7 +4641,7 @@
         <v>0.9684751165948403</v>
       </c>
       <c r="C300" t="n">
-        <v>1.215672158365553</v>
+        <v>1.1762931742837</v>
       </c>
       <c r="D300" t="n">
         <v>1.53497219561139</v>
@@ -4655,7 +4655,7 @@
         <v>0.9801725519300346</v>
       </c>
       <c r="C301" t="n">
-        <v>1.243361429735745</v>
+        <v>1.205706079544865</v>
       </c>
       <c r="D301" t="n">
         <v>1.559589867783336</v>
@@ -4669,7 +4669,7 @@
         <v>0.9696895583311547</v>
       </c>
       <c r="C302" t="n">
-        <v>1.240996616422717</v>
+        <v>1.204550214314367</v>
       </c>
       <c r="D302" t="n">
         <v>1.562990966016206</v>
@@ -4683,7 +4683,7 @@
         <v>0.9552090273502399</v>
       </c>
       <c r="C303" t="n">
-        <v>1.23837668670379</v>
+        <v>1.201800320670052</v>
       </c>
       <c r="D303" t="n">
         <v>1.560845550186841</v>
@@ -4697,7 +4697,7 @@
         <v>0.9451055467939582</v>
       </c>
       <c r="C304" t="n">
-        <v>1.240316920855388</v>
+        <v>1.199604552872788</v>
       </c>
       <c r="D304" t="n">
         <v>1.581846659019407</v>
@@ -4711,7 +4711,7 @@
         <v>0.9593246354566385</v>
       </c>
       <c r="C305" t="n">
-        <v>1.263002534930859</v>
+        <v>1.222760619006679</v>
       </c>
       <c r="D305" t="n">
         <v>1.598296723928014</v>
@@ -4725,7 +4725,7 @@
         <v>0.9680197009437225</v>
       </c>
       <c r="C306" t="n">
-        <v>1.272889005456018</v>
+        <v>1.232244110724408</v>
       </c>
       <c r="D306" t="n">
         <v>1.61638809193992</v>
@@ -4739,7 +4739,7 @@
         <v>0.9734003525254484</v>
       </c>
       <c r="C307" t="n">
-        <v>1.269701235179217</v>
+        <v>1.22897954506604</v>
       </c>
       <c r="D307" t="n">
         <v>1.614116011949874</v>
@@ -4753,7 +4753,7 @@
         <v>0.9854688672800722</v>
       </c>
       <c r="C308" t="n">
-        <v>1.299152935643077</v>
+        <v>1.256977955209749</v>
       </c>
       <c r="D308" t="n">
         <v>1.670105106550386</v>
@@ -4767,7 +4767,7 @@
         <v>0.9836472046756007</v>
       </c>
       <c r="C309" t="n">
-        <v>1.339324461231167</v>
+        <v>1.292332451708742</v>
       </c>
       <c r="D309" t="n">
         <v>1.714519155866787</v>
@@ -4781,7 +4781,7 @@
         <v>0.9720003710794194</v>
       </c>
       <c r="C310" t="n">
-        <v>1.338302336547015</v>
+        <v>1.287825718309642</v>
       </c>
       <c r="D310" t="n">
         <v>1.72196514913141</v>
@@ -4795,7 +4795,7 @@
         <v>0.9911025275568637</v>
       </c>
       <c r="C311" t="n">
-        <v>1.341768659877142</v>
+        <v>1.291917152452055</v>
       </c>
       <c r="D311" t="n">
         <v>1.726775513994719</v>
@@ -4809,7 +4809,7 @@
         <v>0.9909422887166556</v>
       </c>
       <c r="C312" t="n">
-        <v>1.347280143162755</v>
+        <v>1.298266160454258</v>
       </c>
       <c r="D312" t="n">
         <v>1.732831097767475</v>
@@ -4823,7 +4823,7 @@
         <v>0.9919964916127617</v>
       </c>
       <c r="C313" t="n">
-        <v>1.344654702808517</v>
+        <v>1.296091883517196</v>
       </c>
       <c r="D313" t="n">
         <v>1.733655671162154</v>
@@ -4837,7 +4837,7 @@
         <v>0.9978072579760991</v>
       </c>
       <c r="C314" t="n">
-        <v>1.344094571684296</v>
+        <v>1.29579931983797</v>
       </c>
       <c r="D314" t="n">
         <v>1.734434317326175</v>
@@ -4851,7 +4851,7 @@
         <v>0.9923844382785288</v>
       </c>
       <c r="C315" t="n">
-        <v>1.360630642762662</v>
+        <v>1.310673585866247</v>
       </c>
       <c r="D315" t="n">
         <v>1.767081168828099</v>
@@ -4865,7 +4865,7 @@
         <v>1.002015635937355</v>
       </c>
       <c r="C316" t="n">
-        <v>1.363271797093791</v>
+        <v>1.314045394155582</v>
       </c>
       <c r="D316" t="n">
         <v>1.772511961591234</v>
@@ -4879,7 +4879,7 @@
         <v>1.006105943174247</v>
       </c>
       <c r="C317" t="n">
-        <v>1.356737761221323</v>
+        <v>1.30651887377978</v>
       </c>
       <c r="D317" t="n">
         <v>1.757471899146341</v>
@@ -4893,7 +4893,7 @@
         <v>1.014522699096759</v>
       </c>
       <c r="C318" t="n">
-        <v>1.369633666833928</v>
+        <v>1.314709015956529</v>
       </c>
       <c r="D318" t="n">
         <v>1.797210562790962</v>
@@ -4907,7 +4907,7 @@
         <v>1.017946750103312</v>
       </c>
       <c r="C319" t="n">
-        <v>1.381702652043148</v>
+        <v>1.325673833905977</v>
       </c>
       <c r="D319" t="n">
         <v>1.817951563263022</v>
@@ -4921,7 +4921,7 @@
         <v>1.021429836472047</v>
       </c>
       <c r="C320" t="n">
-        <v>1.405492107565232</v>
+        <v>1.351455650944509</v>
       </c>
       <c r="D320" t="n">
         <v>1.845045319070674</v>
@@ -4935,7 +4935,7 @@
         <v>1.019911784301654</v>
       </c>
       <c r="C321" t="n">
-        <v>1.40469056661367</v>
+        <v>1.352430004014535</v>
       </c>
       <c r="D321" t="n">
         <v>1.847843525055972</v>
@@ -4949,7 +4949,7 @@
         <v>1.012557664898417</v>
       </c>
       <c r="C322" t="n">
-        <v>1.403894474715625</v>
+        <v>1.350545429680288</v>
       </c>
       <c r="D322" t="n">
         <v>1.843360611674296</v>
@@ -4963,7 +4963,7 @@
         <v>1.006730031288742</v>
       </c>
       <c r="C323" t="n">
-        <v>1.411293026306248</v>
+        <v>1.366966416453552</v>
       </c>
       <c r="D323" t="n">
         <v>1.864019937760529</v>
@@ -4977,7 +4977,7 @@
         <v>1.016504600541439</v>
       </c>
       <c r="C324" t="n">
-        <v>1.433147673824457</v>
+        <v>1.394057408412566</v>
       </c>
       <c r="D324" t="n">
         <v>1.915069239259443</v>
@@ -4991,7 +4991,7 @@
         <v>1.017052786047414</v>
       </c>
       <c r="C325" t="n">
-        <v>1.459277002944173</v>
+        <v>1.417217265155477</v>
       </c>
       <c r="D325" t="n">
         <v>1.936225083075318</v>
@@ -5005,7 +5005,7 @@
         <v>1.006873402882612</v>
       </c>
       <c r="C326" t="n">
-        <v>1.494305163721243</v>
+        <v>1.446727878724122</v>
       </c>
       <c r="D326" t="n">
         <v>2.006869679549446</v>
@@ -5019,7 +5019,7 @@
         <v>1.020915385458747</v>
       </c>
       <c r="C327" t="n">
-        <v>1.499632774068181</v>
+        <v>1.453184739274413</v>
       </c>
       <c r="D327" t="n">
         <v>2.008388212187622</v>
@@ -5033,7 +5033,7 @@
         <v>1.012591399391092</v>
       </c>
       <c r="C328" t="n">
-        <v>1.49385069557905</v>
+        <v>1.442997882334704</v>
       </c>
       <c r="D328" t="n">
         <v>2.003416745437591</v>
@@ -5047,7 +5047,7 @@
         <v>1.002707193037201</v>
       </c>
       <c r="C329" t="n">
-        <v>1.493694796288504</v>
+        <v>1.440589848702499</v>
       </c>
       <c r="D329" t="n">
         <v>2.011197457021561</v>
@@ -5061,7 +5061,7 @@
         <v>1.005363784335388</v>
       </c>
       <c r="C330" t="n">
-        <v>1.484646337715072</v>
+        <v>1.430221973625204</v>
       </c>
       <c r="D330" t="n">
         <v>2.000827616288476</v>
@@ -5075,7 +5075,7 @@
         <v>0.9927386504516206</v>
       </c>
       <c r="C331" t="n">
-        <v>1.484637761120003</v>
+        <v>1.431022748886808</v>
       </c>
       <c r="D331" t="n">
         <v>2.002518065195617</v>
@@ -5089,7 +5089,7 @@
         <v>1.00835772056033</v>
       </c>
       <c r="C332" t="n">
-        <v>1.484092689278957</v>
+        <v>1.429666655739778</v>
       </c>
       <c r="D332" t="n">
         <v>2.003048180490746</v>
@@ -5103,7 +5103,7 @@
         <v>1.011368524031609</v>
       </c>
       <c r="C333" t="n">
-        <v>1.516559627551637</v>
+        <v>1.455298803530367</v>
       </c>
       <c r="D333" t="n">
         <v>2.070124339618134</v>
@@ -5117,7 +5117,7 @@
         <v>1.029222504280064</v>
       </c>
       <c r="C334" t="n">
-        <v>1.52926961097497</v>
+        <v>1.471706104448256</v>
       </c>
       <c r="D334" t="n">
         <v>2.091855989182169</v>
@@ -5131,7 +5131,7 @@
         <v>1.028134566891282</v>
       </c>
       <c r="C335" t="n">
-        <v>1.510148612479054</v>
+        <v>1.459516406513035</v>
       </c>
       <c r="D335" t="n">
         <v>2.066062543088354</v>
@@ -5145,7 +5145,7 @@
         <v>1.037032039334419</v>
       </c>
       <c r="C336" t="n">
-        <v>1.526904020988282</v>
+        <v>1.480230779960457</v>
       </c>
       <c r="D336" t="n">
         <v>2.092138557219011</v>
@@ -5159,7 +5159,7 @@
         <v>1.009589029542982</v>
       </c>
       <c r="C337" t="n">
-        <v>1.512210432495489</v>
+        <v>1.46399467993592</v>
       </c>
       <c r="D337" t="n">
         <v>2.077192335021223</v>
@@ -5173,7 +5173,7 @@
         <v>1.017988918219156</v>
       </c>
       <c r="C338" t="n">
-        <v>1.517547540940024</v>
+        <v>1.472415683148885</v>
       </c>
       <c r="D338" t="n">
         <v>2.065786456407156</v>
@@ -5187,7 +5187,7 @@
         <v>1.027898425442554</v>
       </c>
       <c r="C339" t="n">
-        <v>1.553669444724038</v>
+        <v>1.503575807782216</v>
       </c>
       <c r="D339" t="n">
         <v>2.094995246484818</v>
@@ -5201,7 +5201,7 @@
         <v>1.036812765132028</v>
       </c>
       <c r="C340" t="n">
-        <v>1.557940022307067</v>
+        <v>1.508974154571777</v>
       </c>
       <c r="D340" t="n">
         <v>2.102337492221914</v>
@@ -5215,7 +5215,7 @@
         <v>1.03716697730512</v>
       </c>
       <c r="C341" t="n">
-        <v>1.561400573600862</v>
+        <v>1.509923676603759</v>
       </c>
       <c r="D341" t="n">
         <v>2.089922800389235</v>
@@ -5229,7 +5229,7 @@
         <v>1.034265810935036</v>
       </c>
       <c r="C342" t="n">
-        <v>1.564090765310842</v>
+        <v>1.513842977574059</v>
       </c>
       <c r="D342" t="n">
         <v>2.083255191581909</v>
@@ -5243,7 +5243,7 @@
         <v>1.034813996441011</v>
       </c>
       <c r="C343" t="n">
-        <v>1.537714883432209</v>
+        <v>1.488515554684429</v>
       </c>
       <c r="D343" t="n">
         <v>2.030877858834375</v>
@@ -5257,7 +5257,7 @@
         <v>1.033894731515606</v>
       </c>
       <c r="C344" t="n">
-        <v>1.541960632267168</v>
+        <v>1.491706777696728</v>
       </c>
       <c r="D344" t="n">
         <v>2.037928117212676</v>
@@ -5271,7 +5271,7 @@
         <v>1.04603914887875</v>
       </c>
       <c r="C345" t="n">
-        <v>1.573225578383318</v>
+        <v>1.516532725587127</v>
       </c>
       <c r="D345" t="n">
         <v>2.092943620370798</v>
@@ -5285,7 +5285,7 @@
         <v>1.037234446290471</v>
       </c>
       <c r="C346" t="n">
-        <v>1.572204243087062</v>
+        <v>1.514376972285496</v>
       </c>
       <c r="D346" t="n">
         <v>2.090070640940897</v>
@@ -5299,7 +5299,7 @@
         <v>1.045676503082489</v>
       </c>
       <c r="C347" t="n">
-        <v>1.577455018871737</v>
+        <v>1.518537097555785</v>
       </c>
       <c r="D347" t="n">
         <v>2.095667655391391</v>
@@ -5313,7 +5313,7 @@
         <v>1.048864412640314</v>
       </c>
       <c r="C348" t="n">
-        <v>1.593655175147247</v>
+        <v>1.535130583860736</v>
       </c>
       <c r="D348" t="n">
         <v>2.13320472146963</v>
@@ -5327,7 +5327,7 @@
         <v>1.058934158703921</v>
       </c>
       <c r="C349" t="n">
-        <v>1.589758116757359</v>
+        <v>1.529560717625552</v>
       </c>
       <c r="D349" t="n">
         <v>2.125064894043371</v>
@@ -5341,7 +5341,7 @@
         <v>1.064458181879517</v>
       </c>
       <c r="C350" t="n">
-        <v>1.575882569007508</v>
+        <v>1.517027076045285</v>
       </c>
       <c r="D350" t="n">
         <v>2.099305791062482</v>
@@ -5355,7 +5355,7 @@
         <v>1.081755542998828</v>
       </c>
       <c r="C351" t="n">
-        <v>1.628651802324914</v>
+        <v>1.570549130256707</v>
       </c>
       <c r="D351" t="n">
         <v>2.124595999553603</v>
@@ -5369,7 +5369,7 @@
         <v>1.093005996306073</v>
       </c>
       <c r="C352" t="n">
-        <v>1.635072275318836</v>
+        <v>1.58277445069535</v>
       </c>
       <c r="D352" t="n">
         <v>2.139283066637224</v>
@@ -5383,7 +5383,7 @@
         <v>1.097433648469719</v>
       </c>
       <c r="C353" t="n">
-        <v>1.69021296088027</v>
+        <v>1.637882445507211</v>
       </c>
       <c r="D353" t="n">
         <v>2.171393643718464</v>
@@ -5397,7 +5397,7 @@
         <v>1.102915503529471</v>
       </c>
       <c r="C354" t="n">
-        <v>1.763719216998286</v>
+        <v>1.716146236981262</v>
       </c>
       <c r="D354" t="n">
         <v>2.229551911831678</v>
@@ -5411,7 +5411,7 @@
         <v>1.094574650215479</v>
       </c>
       <c r="C355" t="n">
-        <v>1.756592220330874</v>
+        <v>1.705027456756249</v>
       </c>
       <c r="D355" t="n">
         <v>2.209278562191002</v>
@@ -5425,7 +5425,7 @@
         <v>1.095586684995741</v>
       </c>
       <c r="C356" t="n">
-        <v>1.757349899923573</v>
+        <v>1.709877897335129</v>
       </c>
       <c r="D356" t="n">
         <v>2.232757628413627</v>
@@ -5439,7 +5439,7 @@
         <v>1.097011967311277</v>
       </c>
       <c r="C357" t="n">
-        <v>1.776508193948178</v>
+        <v>1.731076378533542</v>
       </c>
       <c r="D357" t="n">
         <v>2.264588130442879</v>
@@ -5453,7 +5453,7 @@
         <v>1.091656616599057</v>
       </c>
       <c r="C358" t="n">
-        <v>1.773004481323886</v>
+        <v>1.726773876856657</v>
       </c>
       <c r="D358" t="n">
         <v>2.259300693543463</v>
@@ -5467,7 +5467,7 @@
         <v>1.098125205569565</v>
       </c>
       <c r="C359" t="n">
-        <v>1.789003646919486</v>
+        <v>1.74168380968454</v>
       </c>
       <c r="D359" t="n">
         <v>2.273290127074538</v>
@@ -5481,7 +5481,7 @@
         <v>1.097138471658809</v>
       </c>
       <c r="C360" t="n">
-        <v>1.796679805992126</v>
+        <v>1.743929488852569</v>
       </c>
       <c r="D360" t="n">
         <v>2.283766724436402</v>
@@ -5495,7 +5495,7 @@
         <v>1.090121697182326</v>
       </c>
       <c r="C361" t="n">
-        <v>1.782738192369258</v>
+        <v>1.730581490017971</v>
       </c>
       <c r="D361" t="n">
         <v>2.268210179697853</v>
@@ -5509,7 +5509,7 @@
         <v>1.079984482133369</v>
       </c>
       <c r="C362" t="n">
-        <v>1.783011967333956</v>
+        <v>1.728709119811272</v>
       </c>
       <c r="D362" t="n">
         <v>2.264559314479983</v>
@@ -5523,7 +5523,7 @@
         <v>1.082919382996129</v>
       </c>
       <c r="C363" t="n">
-        <v>1.784448183409807</v>
+        <v>1.732422582403594</v>
       </c>
       <c r="D363" t="n">
         <v>2.271085228242412</v>
@@ -5537,7 +5537,7 @@
         <v>1.09017229892134</v>
       </c>
       <c r="C364" t="n">
-        <v>2.01537135089352</v>
+        <v>1.962683310489613</v>
       </c>
       <c r="D364" t="n">
         <v>2.422775680674746</v>
@@ -5551,7 +5551,7 @@
         <v>1.085972354583252</v>
       </c>
       <c r="C365" t="n">
-        <v>2.00932567452808</v>
+        <v>1.958364127806596</v>
       </c>
       <c r="D365" t="n">
         <v>2.415549167723573</v>
@@ -5565,7 +5565,7 @@
         <v>1.083113356329013</v>
       </c>
       <c r="C366" t="n">
-        <v>2.0035879587419</v>
+        <v>1.951109580026388</v>
       </c>
       <c r="D366" t="n">
         <v>2.408265632305158</v>
@@ -5579,7 +5579,7 @@
         <v>1.092272271090383</v>
       </c>
       <c r="C367" t="n">
-        <v>2.014808309991373</v>
+        <v>1.962244303198462</v>
       </c>
       <c r="D367" t="n">
         <v>2.416003571019993</v>
@@ -5593,7 +5593,7 @@
         <v>1.073229149975121</v>
       </c>
       <c r="C368" t="n">
-        <v>1.712618754489854</v>
+        <v>1.656128889250263</v>
       </c>
       <c r="D368" t="n">
         <v>2.19907680647753</v>
@@ -5607,7 +5607,7 @@
         <v>1.074688166783332</v>
       </c>
       <c r="C369" t="n">
-        <v>2.050736319259804</v>
+        <v>1.996526280974465</v>
       </c>
       <c r="D369" t="n">
         <v>2.436631490446505</v>
@@ -5621,7 +5621,7 @@
         <v>1.073827937220109</v>
       </c>
       <c r="C370" t="n">
-        <v>2.107799669505162</v>
+        <v>2.0534181221101</v>
       </c>
       <c r="D370" t="n">
         <v>2.469577692840767</v>
@@ -5635,7 +5635,7 @@
         <v>1.069400285056463</v>
       </c>
       <c r="C371" t="n">
-        <v>2.090266283324269</v>
+        <v>2.03560660992037</v>
       </c>
       <c r="D371" t="n">
         <v>2.430515003702663</v>
@@ -5649,7 +5649,7 @@
         <v>1.05981968913665</v>
       </c>
       <c r="C372" t="n">
-        <v>2.065073045443287</v>
+        <v>2.006493183890205</v>
       </c>
       <c r="D372" t="n">
         <v>2.403405642398257</v>
@@ -5663,7 +5663,7 @@
         <v>1.07631585605492</v>
       </c>
       <c r="C373" t="n">
-        <v>2.044222310398839</v>
+        <v>1.982767659983059</v>
       </c>
       <c r="D373" t="n">
         <v>2.382981747127742</v>
@@ -5677,7 +5677,7 @@
         <v>1.070395452590387</v>
       </c>
       <c r="C374" t="n">
-        <v>2.044531585832698</v>
+        <v>1.983473613814506</v>
       </c>
       <c r="D374" t="n">
         <v>2.382685823473866</v>
@@ -5691,7 +5691,7 @@
         <v>1.055004090307237</v>
       </c>
       <c r="C375" t="n">
-        <v>2.042952344222267</v>
+        <v>1.97861578351564</v>
       </c>
       <c r="D375" t="n">
         <v>2.371786339336373</v>
@@ -5705,7 +5705,7 @@
         <v>1.071230381284104</v>
       </c>
       <c r="C376" t="n">
-        <v>2.035070694215944</v>
+        <v>1.971680383911538</v>
       </c>
       <c r="D376" t="n">
         <v>2.352585920012824</v>
@@ -5719,7 +5719,7 @@
         <v>1.057812486822464</v>
       </c>
       <c r="C377" t="n">
-        <v>2.033011277027926</v>
+        <v>1.970069758316914</v>
       </c>
       <c r="D377" t="n">
         <v>2.354528838387078</v>
@@ -5733,7 +5733,7 @@
         <v>1.076079714606192</v>
       </c>
       <c r="C378" t="n">
-        <v>1.988738404412626</v>
+        <v>1.923223155110423</v>
       </c>
       <c r="D378" t="n">
         <v>2.319551616091771</v>
@@ -5747,7 +5747,7 @@
         <v>1.080920614305112</v>
       </c>
       <c r="C379" t="n">
-        <v>1.962835841972351</v>
+        <v>1.89753054139284</v>
       </c>
       <c r="D379" t="n">
         <v>2.305959310762686</v>
@@ -5761,7 +5761,7 @@
         <v>1.082936250242467</v>
       </c>
       <c r="C380" t="n">
-        <v>1.969359264215141</v>
+        <v>1.903633599800244</v>
       </c>
       <c r="D380" t="n">
         <v>2.310655308876732</v>
@@ -5775,7 +5775,7 @@
         <v>1.075017078086917</v>
       </c>
       <c r="C381" t="n">
-        <v>1.967684727118291</v>
+        <v>1.908153529406113</v>
       </c>
       <c r="D381" t="n">
         <v>2.327587189724281</v>
@@ -5789,7 +5789,7 @@
         <v>1.062299174348292</v>
       </c>
       <c r="C382" t="n">
-        <v>1.972647946926302</v>
+        <v>1.915107426111705</v>
       </c>
       <c r="D382" t="n">
         <v>2.3399509607499</v>
@@ -5803,7 +5803,7 @@
         <v>1.049100554089042</v>
       </c>
       <c r="C383" t="n">
-        <v>1.980324851844153</v>
+        <v>1.922712926055193</v>
       </c>
       <c r="D383" t="n">
         <v>2.354937890350317</v>
@@ -5817,7 +5817,7 @@
         <v>1.057584778996905</v>
       </c>
       <c r="C384" t="n">
-        <v>1.981871077039098</v>
+        <v>1.923557025663894</v>
       </c>
       <c r="D384" t="n">
         <v>2.354013035870461</v>
@@ -5831,7 +5831,7 @@
         <v>1.062037732030057</v>
       </c>
       <c r="C385" t="n">
-        <v>1.982920881686673</v>
+        <v>1.925505248958726</v>
       </c>
       <c r="D385" t="n">
         <v>2.348458615936045</v>
@@ -5845,7 +5845,7 @@
         <v>1.063876261880867</v>
       </c>
       <c r="C386" t="n">
-        <v>1.995164479794133</v>
+        <v>1.935443536523417</v>
       </c>
       <c r="D386" t="n">
         <v>2.361343865285101</v>
@@ -5859,7 +5859,7 @@
         <v>1.054649878134145</v>
       </c>
       <c r="C387" t="n">
-        <v>1.983803094838834</v>
+        <v>1.920713884226037</v>
       </c>
       <c r="D387" t="n">
         <v>2.344903130984115</v>
@@ -5873,7 +5873,7 @@
         <v>1.062670253767721</v>
       </c>
       <c r="C388" t="n">
-        <v>1.982475869374624</v>
+        <v>1.918869187305758</v>
       </c>
       <c r="D388" t="n">
         <v>2.341827771813978</v>
@@ -5887,7 +5887,7 @@
         <v>1.050930650316683</v>
       </c>
       <c r="C389" t="n">
-        <v>1.982358450896661</v>
+        <v>1.917559578337496</v>
       </c>
       <c r="D389" t="n">
         <v>2.337213549337627</v>
@@ -5901,7 +5901,7 @@
         <v>1.065048535501337</v>
       </c>
       <c r="C390" t="n">
-        <v>1.99186972115381</v>
+        <v>1.927617421444085</v>
       </c>
       <c r="D390" t="n">
         <v>2.353559220646377</v>
@@ -5915,7 +5915,7 @@
         <v>1.05989559174517</v>
       </c>
       <c r="C391" t="n">
-        <v>1.955373734584473</v>
+        <v>1.890894356449943</v>
       </c>
       <c r="D391" t="n">
         <v>2.328573426999324</v>
@@ -5929,7 +5929,7 @@
         <v>1.027223735589046</v>
       </c>
       <c r="C392" t="n">
-        <v>1.941175483667095</v>
+        <v>1.875414569858197</v>
       </c>
       <c r="D392" t="n">
         <v>2.314917450964886</v>
@@ -5943,7 +5943,7 @@
         <v>1.033253776154774</v>
       </c>
       <c r="C393" t="n">
-        <v>1.954291486656823</v>
+        <v>1.893669105700681</v>
       </c>
       <c r="D393" t="n">
         <v>2.343311922363192</v>
@@ -5957,7 +5957,7 @@
         <v>1.042201850336923</v>
       </c>
       <c r="C394" t="n">
-        <v>1.952399777460863</v>
+        <v>1.890012972938039</v>
       </c>
       <c r="D394" t="n">
         <v>2.335265002672235</v>
@@ -5971,7 +5971,7 @@
         <v>1.027223735589046</v>
       </c>
       <c r="C395" t="n">
-        <v>1.946875219244065</v>
+        <v>1.883452627580723</v>
       </c>
       <c r="D395" t="n">
         <v>2.327748008507234</v>
@@ -5985,7 +5985,7 @@
         <v>1.02580688689668</v>
       </c>
       <c r="C396" t="n">
-        <v>1.93849092005115</v>
+        <v>1.874192941575163</v>
       </c>
       <c r="D396" t="n">
         <v>2.319151802389436</v>
@@ -5999,7 +5999,7 @@
         <v>1.035733261366416</v>
       </c>
       <c r="C397" t="n">
-        <v>1.9419083390045</v>
+        <v>1.879157134551307</v>
       </c>
       <c r="D397" t="n">
         <v>2.31581885086549</v>
@@ -6013,7 +6013,7 @@
         <v>1.037495888608705</v>
       </c>
       <c r="C398" t="n">
-        <v>1.937148144374225</v>
+        <v>1.870746036080285</v>
       </c>
       <c r="D398" t="n">
         <v>2.298626955158888</v>
@@ -6027,7 +6027,7 @@
         <v>1.030605618479755</v>
       </c>
       <c r="C399" t="n">
-        <v>1.925930581179297</v>
+        <v>1.861811890331637</v>
       </c>
       <c r="D399" t="n">
         <v>2.292205352180825</v>
@@ -6041,7 +6041,7 @@
         <v>1.029374309497103</v>
       </c>
       <c r="C400" t="n">
-        <v>1.634979148103781</v>
+        <v>1.567715240881452</v>
       </c>
       <c r="D400" t="n">
         <v>2.084605281580191</v>
@@ -6055,7 +6055,7 @@
         <v>1.017946750103312</v>
       </c>
       <c r="C401" t="n">
-        <v>1.621044508418953</v>
+        <v>1.554251359728974</v>
       </c>
       <c r="D401" t="n">
         <v>2.077028531350101</v>
@@ -6069,7 +6069,7 @@
         <v>1.022104526325555</v>
       </c>
       <c r="C402" t="n">
-        <v>1.640961300161888</v>
+        <v>1.568550626544011</v>
       </c>
       <c r="D402" t="n">
         <v>2.089748599269314</v>
@@ -6083,7 +6083,7 @@
         <v>1.005119209263492</v>
       </c>
       <c r="C403" t="n">
-        <v>1.616959914654683</v>
+        <v>1.542432496180238</v>
       </c>
       <c r="D403" t="n">
         <v>2.04948724513859</v>
@@ -6097,7 +6097,7 @@
         <v>0.9943579061000396</v>
       </c>
       <c r="C404" t="n">
-        <v>1.623289230785861</v>
+        <v>1.53386621613613</v>
       </c>
       <c r="D404" t="n">
         <v>2.043321834797825</v>
@@ -6111,7 +6111,7 @@
         <v>0.9837231072841204</v>
       </c>
       <c r="C405" t="n">
-        <v>1.631637996965513</v>
+        <v>1.54282342341281</v>
       </c>
       <c r="D405" t="n">
         <v>2.054717573117572</v>
@@ -6125,7 +6125,7 @@
         <v>0.9881254585782598</v>
       </c>
       <c r="C406" t="n">
-        <v>1.64485626498368</v>
+        <v>1.555664142386184</v>
       </c>
       <c r="D406" t="n">
         <v>2.061155161798827</v>
@@ -6139,7 +6139,7 @@
         <v>0.9956145159521982</v>
       </c>
       <c r="C407" t="n">
-        <v>1.656198293089358</v>
+        <v>1.567506821227449</v>
       </c>
       <c r="D407" t="n">
         <v>2.069529848409811</v>
@@ -6153,7 +6153,7 @@
         <v>0.9907145808910967</v>
       </c>
       <c r="C408" t="n">
-        <v>1.653723875861436</v>
+        <v>1.563682284016343</v>
       </c>
       <c r="D408" t="n">
         <v>2.06394785914754</v>
@@ -6167,7 +6167,7 @@
         <v>1.013814274750576</v>
       </c>
       <c r="C409" t="n">
-        <v>1.670104370802385</v>
+        <v>1.580087050830801</v>
       </c>
       <c r="D409" t="n">
         <v>2.082116805989142</v>
@@ -6181,7 +6181,7 @@
         <v>1.018933484014067</v>
       </c>
       <c r="C410" t="n">
-        <v>1.675844112367991</v>
+        <v>1.584145431137399</v>
       </c>
       <c r="D410" t="n">
         <v>2.082440861474049</v>
@@ -6195,7 +6195,7 @@
         <v>1.001273477098496</v>
       </c>
       <c r="C411" t="n">
-        <v>1.674901517927138</v>
+        <v>1.582436537125726</v>
       </c>
       <c r="D411" t="n">
         <v>2.083469813088067</v>
@@ -6209,7 +6209,7 @@
         <v>1.017752776770428</v>
       </c>
       <c r="C412" t="n">
-        <v>1.686520190896055</v>
+        <v>1.595423574764264</v>
       </c>
       <c r="D412" t="n">
         <v>2.105067986958289</v>
@@ -6223,7 +6223,7 @@
         <v>1.009842038238048</v>
       </c>
       <c r="C413" t="n">
-        <v>1.685278844215136</v>
+        <v>1.593567889172849</v>
       </c>
       <c r="D413" t="n">
         <v>2.097580422962141</v>
@@ -6237,7 +6237,7 @@
         <v>1.001754193619121</v>
       </c>
       <c r="C414" t="n">
-        <v>1.691193012329357</v>
+        <v>1.600667406317587</v>
       </c>
       <c r="D414" t="n">
         <v>2.110174042396503</v>
@@ -6251,7 +6251,7 @@
         <v>1.006940871867963</v>
       </c>
       <c r="C415" t="n">
-        <v>1.704530521424713</v>
+        <v>1.61216981021573</v>
       </c>
       <c r="D415" t="n">
         <v>2.119352837303572</v>
@@ -6265,7 +6265,7 @@
         <v>0.9840098504718612</v>
       </c>
       <c r="C416" t="n">
-        <v>1.682882662114816</v>
+        <v>1.586408585990188</v>
       </c>
       <c r="D416" t="n">
         <v>2.089888086367593</v>
@@ -6279,7 +6279,7 @@
         <v>0.9861688580030867</v>
       </c>
       <c r="C417" t="n">
-        <v>1.677359811748431</v>
+        <v>1.580725406389475</v>
       </c>
       <c r="D417" t="n">
         <v>2.08591757646059</v>
@@ -6293,7 +6293,7 @@
         <v>0.9940627292891299</v>
       </c>
       <c r="C418" t="n">
-        <v>1.683480569998719</v>
+        <v>1.589053460171763</v>
       </c>
       <c r="D418" t="n">
         <v>2.098201193828346</v>
@@ -6307,7 +6307,7 @@
         <v>0.9564825044487362</v>
       </c>
       <c r="C419" t="n">
-        <v>1.665079087565251</v>
+        <v>1.568013817139705</v>
       </c>
       <c r="D419" t="n">
         <v>2.077201151168526</v>
@@ -6321,7 +6321,7 @@
         <v>0.9729112023816552</v>
       </c>
       <c r="C420" t="n">
-        <v>1.674387131068662</v>
+        <v>1.577736087414079</v>
       </c>
       <c r="D420" t="n">
         <v>2.084633489847983</v>
@@ -6335,7 +6335,7 @@
         <v>0.9638450574751419</v>
       </c>
       <c r="C421" t="n">
-        <v>1.660455898187196</v>
+        <v>1.567260642997993</v>
       </c>
       <c r="D421" t="n">
         <v>2.06330203512272</v>
@@ -6349,7 +6349,7 @@
         <v>0.9817074713467653</v>
       </c>
       <c r="C422" t="n">
-        <v>1.663855556514041</v>
+        <v>1.569783834729524</v>
       </c>
       <c r="D422" t="n">
         <v>2.061708302037355</v>
@@ -6363,7 +6363,7 @@
         <v>0.9798267733801118</v>
       </c>
       <c r="C423" t="n">
-        <v>1.667400310553663</v>
+        <v>1.572602331590104</v>
       </c>
       <c r="D423" t="n">
         <v>2.06967618446004</v>
@@ -6377,7 +6377,7 @@
         <v>0.970397982677338</v>
       </c>
       <c r="C424" t="n">
-        <v>1.667391551135639</v>
+        <v>1.571689055320616</v>
       </c>
       <c r="D424" t="n">
         <v>2.064367520769774</v>
@@ -6391,7 +6391,7 @@
         <v>0.9596957148760679</v>
       </c>
       <c r="C425" t="n">
-        <v>1.72532476402701</v>
+        <v>1.625194275770923</v>
       </c>
       <c r="D425" t="n">
         <v>2.198685060037604</v>
@@ -6405,7 +6405,7 @@
         <v>0.9398345323134272</v>
       </c>
       <c r="C426" t="n">
-        <v>1.724159050762479</v>
+        <v>1.62141866375678</v>
       </c>
       <c r="D426" t="n">
         <v>2.190536420403511</v>
@@ -6419,7 +6419,7 @@
         <v>0.9179492801902626</v>
       </c>
       <c r="C427" t="n">
-        <v>1.698583493241149</v>
+        <v>1.595638015974734</v>
       </c>
       <c r="D427" t="n">
         <v>2.139353110176286</v>
@@ -6433,7 +6433,7 @@
         <v>0.9298069543656651</v>
       </c>
       <c r="C428" t="n">
-        <v>1.709006737132339</v>
+        <v>1.604773533702598</v>
       </c>
       <c r="D428" t="n">
         <v>2.153561714861288</v>
@@ -6447,7 +6447,7 @@
         <v>0.9469440766447673</v>
       </c>
       <c r="C429" t="n">
-        <v>1.683419279760171</v>
+        <v>1.58260675216222</v>
       </c>
       <c r="D429" t="n">
         <v>2.094989537005538</v>
@@ -6461,7 +6461,7 @@
         <v>0.9619727931316573</v>
       </c>
       <c r="C430" t="n">
-        <v>1.6864448919104</v>
+        <v>1.586163891861917</v>
       </c>
       <c r="D430" t="n">
         <v>2.098813455558098</v>
@@ -6475,7 +6475,7 @@
         <v>0.9553861334367858</v>
       </c>
       <c r="C431" t="n">
-        <v>1.657355144202912</v>
+        <v>1.554615584845422</v>
       </c>
       <c r="D431" t="n">
         <v>2.07841139673756</v>
@@ -6489,7 +6489,7 @@
         <v>0.9579162203874406</v>
       </c>
       <c r="C432" t="n">
-        <v>1.655441893341548</v>
+        <v>1.554529494787443</v>
       </c>
       <c r="D432" t="n">
         <v>2.080220721225415</v>
@@ -6503,7 +6503,7 @@
         <v>0.92874431784639</v>
       </c>
       <c r="C433" t="n">
-        <v>1.630111022897792</v>
+        <v>1.528909969535972</v>
       </c>
       <c r="D433" t="n">
         <v>2.032104285282199</v>
@@ -6517,7 +6517,7 @@
         <v>0.9370345694213691</v>
       </c>
       <c r="C434" t="n">
-        <v>1.653645209284702</v>
+        <v>1.547844554437804</v>
       </c>
       <c r="D434" t="n">
         <v>2.070381488212269</v>
@@ -6531,7 +6531,7 @@
         <v>0.9359550656557564</v>
       </c>
       <c r="C435" t="n">
-        <v>1.650865624722088</v>
+        <v>1.544796543856923</v>
       </c>
       <c r="D435" t="n">
         <v>2.068033824445343</v>
@@ -6545,7 +6545,7 @@
         <v>0.9521560557631163</v>
       </c>
       <c r="C436" t="n">
-        <v>1.656573206839011</v>
+        <v>1.551627735387831</v>
       </c>
       <c r="D436" t="n">
         <v>2.075882689504585</v>
@@ -6559,7 +6559,7 @@
         <v>0.9310129624788105</v>
       </c>
       <c r="C437" t="n">
-        <v>1.644028047979329</v>
+        <v>1.540266044889391</v>
       </c>
       <c r="D437" t="n">
         <v>2.064122593453531</v>
@@ -6573,7 +6573,7 @@
         <v>0.9315611479847857</v>
       </c>
       <c r="C438" t="n">
-        <v>1.649831888943259</v>
+        <v>1.542781648550264</v>
       </c>
       <c r="D438" t="n">
         <v>2.07959592318699</v>
@@ -6587,7 +6587,7 @@
         <v>0.9324213775480084</v>
       </c>
       <c r="C439" t="n">
-        <v>1.641004397290053</v>
+        <v>1.532242872435455</v>
       </c>
       <c r="D439" t="n">
         <v>2.067258269814507</v>
@@ -6601,7 +6601,7 @@
         <v>0.9326322181272296</v>
       </c>
       <c r="C440" t="n">
-        <v>1.640516774164203</v>
+        <v>1.532188620947462</v>
       </c>
       <c r="D440" t="n">
         <v>2.06211082693478</v>
@@ -6615,7 +6615,7 @@
         <v>0.9515910030108035</v>
       </c>
       <c r="C441" t="n">
-        <v>1.653032228153601</v>
+        <v>1.546218542251807</v>
       </c>
       <c r="D441" t="n">
         <v>2.080651741916938</v>
@@ -6629,7 +6629,7 @@
         <v>0.9460838470815447</v>
       </c>
       <c r="C442" t="n">
-        <v>1.657835166067239</v>
+        <v>1.550978910323203</v>
       </c>
       <c r="D442" t="n">
         <v>2.08987235788805</v>
@@ -6643,7 +6643,7 @@
         <v>0.9568451502449967</v>
       </c>
       <c r="C443" t="n">
-        <v>1.658314891568529</v>
+        <v>1.552565573378644</v>
       </c>
       <c r="D443" t="n">
         <v>2.081974323984241</v>
@@ -6657,7 +6657,7 @@
         <v>0.9545596383662385</v>
       </c>
       <c r="C444" t="n">
-        <v>1.879102377397915</v>
+        <v>1.738008368437701</v>
       </c>
       <c r="D444" t="n">
         <v>2.574745085939441</v>
@@ -6671,7 +6671,7 @@
         <v>0.9668980290622654</v>
       </c>
       <c r="C445" t="n">
-        <v>1.871952296374028</v>
+        <v>1.730652644145034</v>
       </c>
       <c r="D445" t="n">
         <v>2.556529596659502</v>
@@ -6685,7 +6685,7 @@
         <v>0.9650426319651185</v>
       </c>
       <c r="C446" t="n">
-        <v>1.865983864234193</v>
+        <v>1.724032274889016</v>
       </c>
       <c r="D446" t="n">
         <v>2.541708353517051</v>
@@ -6699,7 +6699,7 @@
         <v>0.9333743769660884</v>
       </c>
       <c r="C447" t="n">
-        <v>1.827356216299279</v>
+        <v>1.691345185064905</v>
       </c>
       <c r="D447" t="n">
         <v>2.475069452980489</v>
@@ -6713,7 +6713,7 @@
         <v>0.9343273763841684</v>
       </c>
       <c r="C448" t="n">
-        <v>1.811869655422966</v>
+        <v>1.678069668798912</v>
       </c>
       <c r="D448" t="n">
         <v>2.443297673799504</v>
@@ -6727,7 +6727,7 @@
         <v>0.9085963920960084</v>
       </c>
       <c r="C449" t="n">
-        <v>1.801483223130813</v>
+        <v>1.66705550186853</v>
       </c>
       <c r="D449" t="n">
         <v>2.432437881030511</v>
@@ -6741,7 +6741,7 @@
         <v>0.8964604083560338</v>
       </c>
       <c r="C450" t="n">
-        <v>1.78697449804124</v>
+        <v>1.650180000348556</v>
       </c>
       <c r="D450" t="n">
         <v>2.426406023714068</v>
@@ -6755,7 +6755,7 @@
         <v>0.9168613428014809</v>
       </c>
       <c r="C451" t="n">
-        <v>1.806713547003092</v>
+        <v>1.668523596817691</v>
       </c>
       <c r="D451" t="n">
         <v>2.453866975855685</v>
@@ -6769,7 +6769,7 @@
         <v>0.8975061776289712</v>
       </c>
       <c r="C452" t="n">
-        <v>1.786102172819138</v>
+        <v>1.649234249901968</v>
       </c>
       <c r="D452" t="n">
         <v>2.418921882967538</v>
@@ -6783,7 +6783,7 @@
         <v>0.8970254611083468</v>
       </c>
       <c r="C453" t="n">
-        <v>1.77020996875899</v>
+        <v>1.635388201862473</v>
       </c>
       <c r="D453" t="n">
         <v>2.371274985725099</v>
@@ -6797,7 +6797,7 @@
         <v>0.8914761370632437</v>
       </c>
       <c r="C454" t="n">
-        <v>1.742187593681883</v>
+        <v>1.610038929620832</v>
       </c>
       <c r="D454" t="n">
         <v>2.332669273216353</v>
@@ -6811,7 +6811,7 @@
         <v>0.8728884315990992</v>
       </c>
       <c r="C455" t="n">
-        <v>1.75370253597538</v>
+        <v>1.620611590082275</v>
       </c>
       <c r="D455" t="n">
         <v>2.367166442654293</v>
@@ -6825,7 +6825,7 @@
         <v>0.8901773590952409</v>
       </c>
       <c r="C456" t="n">
-        <v>1.721396840755127</v>
+        <v>1.593198284464884</v>
       </c>
       <c r="D456" t="n">
         <v>2.287856200165081</v>
@@ -6839,7 +6839,7 @@
         <v>0.8907339782243849</v>
       </c>
       <c r="C457" t="n">
-        <v>1.711706227482555</v>
+        <v>1.586646046119477</v>
       </c>
       <c r="D457" t="n">
         <v>2.262163103144915</v>
@@ -6853,7 +6853,7 @@
         <v>0.8721378391370717</v>
       </c>
       <c r="C458" t="n">
-        <v>1.677047403606741</v>
+        <v>1.555699291183554</v>
       </c>
       <c r="D458" t="n">
         <v>2.196080493319658</v>
@@ -6867,7 +6867,7 @@
         <v>0.8840461150514872</v>
       </c>
       <c r="C459" t="n">
-        <v>1.700848816842939</v>
+        <v>1.577922688714183</v>
       </c>
       <c r="D459" t="n">
         <v>2.243014712785214</v>
@@ -6881,7 +6881,7 @@
         <v>0.8836834692552268</v>
       </c>
       <c r="C460" t="n">
-        <v>1.714878630735386</v>
+        <v>1.592782186198971</v>
       </c>
       <c r="D460" t="n">
         <v>2.281373622050072</v>
@@ -6895,7 +6895,7 @@
         <v>0.8900424211245394</v>
       </c>
       <c r="C461" t="n">
-        <v>1.695975714687348</v>
+        <v>1.576616978777468</v>
       </c>
       <c r="D461" t="n">
         <v>2.227256386984858</v>
@@ -6909,7 +6909,7 @@
         <v>0.8936941799566511</v>
       </c>
       <c r="C462" t="n">
-        <v>1.725941128268265</v>
+        <v>1.607733266313298</v>
       </c>
       <c r="D462" t="n">
         <v>2.276627120225521</v>
@@ -6923,7 +6923,7 @@
         <v>0.9085120558643198</v>
       </c>
       <c r="C463" t="n">
-        <v>1.722641720134865</v>
+        <v>1.6057753563954</v>
       </c>
       <c r="D463" t="n">
         <v>2.253213937091051</v>
@@ -6937,7 +6937,7 @@
         <v>0.8965953463267354</v>
       </c>
       <c r="C464" t="n">
-        <v>1.723071730574239</v>
+        <v>1.598281624661089</v>
       </c>
       <c r="D464" t="n">
         <v>2.249283785653905</v>
@@ -6951,7 +6951,7 @@
         <v>0.8813810901301308</v>
       </c>
       <c r="C465" t="n">
-        <v>1.687726787649915</v>
+        <v>1.561939226910252</v>
       </c>
       <c r="D465" t="n">
         <v>2.196979585192965</v>
@@ -6965,7 +6965,7 @@
         <v>0.868199337117219</v>
       </c>
       <c r="C466" t="n">
-        <v>1.648790834254053</v>
+        <v>1.521474892761965</v>
       </c>
       <c r="D466" t="n">
         <v>2.143102993240019</v>
@@ -6979,7 +6979,7 @@
         <v>0.8646487817631333</v>
       </c>
       <c r="C467" t="n">
-        <v>1.647477391612668</v>
+        <v>1.520495602618965</v>
       </c>
       <c r="D467" t="n">
         <v>2.139170097796336</v>
@@ -6993,7 +6993,7 @@
         <v>0.8689583632024154</v>
       </c>
       <c r="C468" t="n">
-        <v>1.640748031870726</v>
+        <v>1.515840150775074</v>
       </c>
       <c r="D468" t="n">
         <v>2.122315616988361</v>
@@ -7007,7 +7007,7 @@
         <v>0.8612584652492558</v>
       </c>
       <c r="C469" t="n">
-        <v>1.66042291180639</v>
+        <v>1.532245827266388</v>
       </c>
       <c r="D469" t="n">
         <v>2.175035701740662</v>
@@ -7021,7 +7021,7 @@
         <v>0.8742546785524529</v>
       </c>
       <c r="C470" t="n">
-        <v>1.66721387458317</v>
+        <v>1.538814211920732</v>
       </c>
       <c r="D470" t="n">
         <v>2.173669428014501</v>
@@ -7035,7 +7035,7 @@
         <v>0.8814316918691439</v>
       </c>
       <c r="C471" t="n">
-        <v>1.667474943686848</v>
+        <v>1.538690867272385</v>
       </c>
       <c r="D471" t="n">
         <v>2.172106827834056</v>
@@ -7049,7 +7049,7 @@
         <v>0.8923701011191418</v>
       </c>
       <c r="C472" t="n">
-        <v>1.667946479553379</v>
+        <v>1.538349240030699</v>
       </c>
       <c r="D472" t="n">
         <v>2.169618980567929</v>
@@ -7063,7 +7063,7 @@
         <v>0.8621186948124784</v>
       </c>
       <c r="C473" t="n">
-        <v>1.659860061884989</v>
+        <v>1.529183092414473</v>
       </c>
       <c r="D473" t="n">
         <v>2.160357166598551</v>
@@ -7077,7 +7077,7 @@
         <v>0.8670945324820997</v>
       </c>
       <c r="C474" t="n">
-        <v>1.651430100116276</v>
+        <v>1.52242517225401</v>
       </c>
       <c r="D474" t="n">
         <v>2.134901794093552</v>
@@ -7091,7 +7091,7 @@
         <v>0.8595127052533039</v>
       </c>
       <c r="C475" t="n">
-        <v>1.619520348108854</v>
+        <v>1.487574891866989</v>
       </c>
       <c r="D475" t="n">
         <v>2.061734441046525</v>
@@ -7105,7 +7105,7 @@
         <v>0.8498983748408153</v>
       </c>
       <c r="C476" t="n">
-        <v>1.600754461104661</v>
+        <v>1.465439276761095</v>
       </c>
       <c r="D476" t="n">
         <v>2.013039015379327</v>
@@ -7119,7 +7119,7 @@
         <v>0.8810268779570392</v>
       </c>
       <c r="C477" t="n">
-        <v>1.605402123526532</v>
+        <v>1.468291654864633</v>
       </c>
       <c r="D477" t="n">
         <v>2.008700871597215</v>
@@ -7133,7 +7133,7 @@
         <v>0.8861207863510243</v>
       </c>
       <c r="C478" t="n">
-        <v>1.670034070658519</v>
+        <v>1.532677171113884</v>
       </c>
       <c r="D478" t="n">
         <v>2.059613145988946</v>
@@ -7147,7 +7147,7 @@
         <v>0.9012085382000962</v>
       </c>
       <c r="C479" t="n">
-        <v>1.654450520057182</v>
+        <v>1.519887256664613</v>
       </c>
       <c r="D479" t="n">
         <v>2.061489983047215</v>
@@ -7161,7 +7161,7 @@
         <v>0.907103640795122</v>
       </c>
       <c r="C480" t="n">
-        <v>1.641276353003393</v>
+        <v>1.508785150565083</v>
       </c>
       <c r="D480" t="n">
         <v>2.03528276265708</v>
@@ -7175,7 +7175,7 @@
         <v>0.9116409300599631</v>
       </c>
       <c r="C481" t="n">
-        <v>1.64739539084315</v>
+        <v>1.516921068164647</v>
       </c>
       <c r="D481" t="n">
         <v>2.046793762823251</v>
@@ -7189,7 +7189,7 @@
         <v>0.8964182402401896</v>
       </c>
       <c r="C482" t="n">
-        <v>1.624893750076061</v>
+        <v>1.500093506739112</v>
       </c>
       <c r="D482" t="n">
         <v>1.992621804496548</v>
@@ -7203,7 +7203,7 @@
         <v>0.9087903654288919</v>
       </c>
       <c r="C483" t="n">
-        <v>1.661134590910479</v>
+        <v>1.530978350078041</v>
       </c>
       <c r="D483" t="n">
         <v>2.071114024045793</v>
@@ -7217,7 +7217,7 @@
         <v>0.9056277567405733</v>
       </c>
       <c r="C484" t="n">
-        <v>1.661680245345087</v>
+        <v>1.532673822518152</v>
       </c>
       <c r="D484" t="n">
         <v>2.073878585855531</v>
@@ -7231,7 +7231,7 @@
         <v>0.90037360950638</v>
       </c>
       <c r="C485" t="n">
-        <v>1.660545772527988</v>
+        <v>1.533965573260019</v>
       </c>
       <c r="D485" t="n">
         <v>2.074485593072637</v>
@@ -7245,7 +7245,7 @@
         <v>0.9055181196393782</v>
       </c>
       <c r="C486" t="n">
-        <v>1.65683995021209</v>
+        <v>1.534040867925908</v>
       </c>
       <c r="D486" t="n">
         <v>2.071996895269404</v>
@@ -7259,7 +7259,7 @@
         <v>0.9126192303475497</v>
       </c>
       <c r="C487" t="n">
-        <v>1.65304961975395</v>
+        <v>1.530083480913187</v>
       </c>
       <c r="D487" t="n">
         <v>2.074285170013979</v>
@@ -7273,7 +7273,7 @@
         <v>0.9040928373238427</v>
       </c>
       <c r="C488" t="n">
-        <v>1.629333255056377</v>
+        <v>1.513559667850178</v>
       </c>
       <c r="D488" t="n">
         <v>2.01954103599413</v>
@@ -7287,7 +7287,7 @@
         <v>0.8856991051925818</v>
       </c>
       <c r="C489" t="n">
-        <v>1.615584646919734</v>
+        <v>1.496054853312435</v>
       </c>
       <c r="D489" t="n">
         <v>1.996253706509258</v>
@@ -7301,7 +7301,7 @@
         <v>0.8897472443136296</v>
       </c>
       <c r="C490" t="n">
-        <v>1.607779042869975</v>
+        <v>1.488054104723591</v>
       </c>
       <c r="D490" t="n">
         <v>1.983385607118752</v>
@@ -7315,7 +7315,7 @@
         <v>0.8875882367824041</v>
       </c>
       <c r="C491" t="n">
-        <v>1.606220199119182</v>
+        <v>1.486592506323646</v>
       </c>
       <c r="D491" t="n">
         <v>1.976700215537822</v>
@@ -7329,7 +7329,7 @@
         <v>0.8846111678038002</v>
       </c>
       <c r="C492" t="n">
-        <v>1.61181272872085</v>
+        <v>1.48718459917877</v>
       </c>
       <c r="D492" t="n">
         <v>1.990503987213283</v>
@@ -7343,7 +7343,7 @@
         <v>0.8900086866318639</v>
       </c>
       <c r="C493" t="n">
-        <v>1.640430579804841</v>
+        <v>1.519700573402529</v>
       </c>
       <c r="D493" t="n">
         <v>2.058461217400051</v>
@@ -7357,7 +7357,7 @@
         <v>0.8843834599782413</v>
       </c>
       <c r="C494" t="n">
-        <v>1.655167438123972</v>
+        <v>1.536914450395005</v>
       </c>
       <c r="D494" t="n">
         <v>2.094549851024671</v>
@@ -7371,7 +7371,7 @@
         <v>0.8779992072394222</v>
       </c>
       <c r="C495" t="n">
-        <v>1.659880521629593</v>
+        <v>1.544358501403827</v>
       </c>
       <c r="D495" t="n">
         <v>2.119912725114943</v>
@@ -7385,7 +7385,7 @@
         <v>0.8840292478051496</v>
       </c>
       <c r="C496" t="n">
-        <v>1.663523252969882</v>
+        <v>1.548521598740867</v>
       </c>
       <c r="D496" t="n">
         <v>2.124245876850459</v>

--- a/resultado_simu.xlsx
+++ b/resultado_simu.xlsx
@@ -472,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -483,10 +483,10 @@
         <v>0.9926964823357762</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000613152917157</v>
+        <v>0.9965840316676582</v>
       </c>
       <c r="D3" t="n">
-        <v>1.000755813135012</v>
+        <v>0.9987440164367114</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0.9857050087288</v>
       </c>
       <c r="C4" t="n">
-        <v>1.005770495832026</v>
+        <v>1.028026173862769</v>
       </c>
       <c r="D4" t="n">
-        <v>1.013523951837465</v>
+        <v>1.027966375819459</v>
       </c>
     </row>
     <row r="5">
@@ -511,10 +511,10 @@
         <v>0.9838833461243285</v>
       </c>
       <c r="C5" t="n">
-        <v>1.004424499180318</v>
+        <v>1.023578722424667</v>
       </c>
       <c r="D5" t="n">
-        <v>1.012734418512621</v>
+        <v>1.024590896078508</v>
       </c>
     </row>
     <row r="6">
@@ -525,10 +525,10 @@
         <v>0.9803833925092559</v>
       </c>
       <c r="C6" t="n">
-        <v>1.004933568974782</v>
+        <v>1.020048087851363</v>
       </c>
       <c r="D6" t="n">
-        <v>1.012069126729789</v>
+        <v>1.022038014969828</v>
       </c>
     </row>
     <row r="7">
@@ -539,10 +539,10 @@
         <v>0.9778533055586011</v>
       </c>
       <c r="C7" t="n">
-        <v>1.012084009105916</v>
+        <v>1.005566570502748</v>
       </c>
       <c r="D7" t="n">
-        <v>1.018359503914989</v>
+        <v>1.010109847672816</v>
       </c>
     </row>
     <row r="8">
@@ -553,10 +553,10 @@
         <v>0.9741087768716318</v>
       </c>
       <c r="C8" t="n">
-        <v>1.008367326722358</v>
+        <v>1.004861208807553</v>
       </c>
       <c r="D8" t="n">
-        <v>1.014298480167287</v>
+        <v>1.013834072949914</v>
       </c>
     </row>
     <row r="9">
@@ -567,10 +567,10 @@
         <v>0.9894748382852757</v>
       </c>
       <c r="C9" t="n">
-        <v>1.002587836087245</v>
+        <v>0.9986687606257931</v>
       </c>
       <c r="D9" t="n">
-        <v>1.007206568457111</v>
+        <v>1.008275115885798</v>
       </c>
     </row>
     <row r="10">
@@ -581,10 +581,10 @@
         <v>0.9920639605981125</v>
       </c>
       <c r="C10" t="n">
-        <v>1.008837998186381</v>
+        <v>1.016629492431917</v>
       </c>
       <c r="D10" t="n">
-        <v>1.016158831759203</v>
+        <v>1.024836842798976</v>
       </c>
     </row>
     <row r="11">
@@ -595,10 +595,10 @@
         <v>0.9817918075784537</v>
       </c>
       <c r="C11" t="n">
-        <v>1.008721603967999</v>
+        <v>1.001477512358929</v>
       </c>
       <c r="D11" t="n">
-        <v>1.017415155653433</v>
+        <v>1.01332775916282</v>
       </c>
     </row>
     <row r="12">
@@ -609,10 +609,10 @@
         <v>0.9842375582974201</v>
       </c>
       <c r="C12" t="n">
-        <v>1.017358866764767</v>
+        <v>1.009163664838123</v>
       </c>
       <c r="D12" t="n">
-        <v>1.037272885247752</v>
+        <v>1.018785553325454</v>
       </c>
     </row>
     <row r="13">
@@ -623,10 +623,10 @@
         <v>0.9991988057989593</v>
       </c>
       <c r="C13" t="n">
-        <v>1.019976331422651</v>
+        <v>1.032980602821767</v>
       </c>
       <c r="D13" t="n">
-        <v>1.044285157069332</v>
+        <v>1.04032946675679</v>
       </c>
     </row>
     <row r="14">
@@ -637,10 +637,10 @@
         <v>1.002437317095797</v>
       </c>
       <c r="C14" t="n">
-        <v>1.022031988896584</v>
+        <v>1.030508383027458</v>
       </c>
       <c r="D14" t="n">
-        <v>1.04694158557634</v>
+        <v>1.03937873859691</v>
       </c>
     </row>
     <row r="15">
@@ -651,10 +651,10 @@
         <v>0.9869531849577897</v>
       </c>
       <c r="C15" t="n">
-        <v>1.020818522591348</v>
+        <v>1.03840939485022</v>
       </c>
       <c r="D15" t="n">
-        <v>1.04712705689803</v>
+        <v>1.046777572458948</v>
       </c>
     </row>
     <row r="16">
@@ -665,10 +665,10 @@
         <v>0.9984650805832693</v>
       </c>
       <c r="C16" t="n">
-        <v>1.025011697842013</v>
+        <v>1.033663787293094</v>
       </c>
       <c r="D16" t="n">
-        <v>1.050737757823069</v>
+        <v>1.043266346082272</v>
       </c>
     </row>
     <row r="17">
@@ -679,10 +679,10 @@
         <v>1.008054110126251</v>
       </c>
       <c r="C17" t="n">
-        <v>1.049506485924001</v>
+        <v>1.025126224050982</v>
       </c>
       <c r="D17" t="n">
-        <v>1.067838149995117</v>
+        <v>1.037634147559973</v>
       </c>
     </row>
     <row r="18">
@@ -693,10 +693,10 @@
         <v>0.9983385762357366</v>
       </c>
       <c r="C18" t="n">
-        <v>1.056536155393317</v>
+        <v>1.025840508095111</v>
       </c>
       <c r="D18" t="n">
-        <v>1.076093148131219</v>
+        <v>1.039397385146794</v>
       </c>
     </row>
     <row r="19">
@@ -707,10 +707,10 @@
         <v>0.9654980476162364</v>
       </c>
       <c r="C19" t="n">
-        <v>1.055309220363317</v>
+        <v>1.022904914840095</v>
       </c>
       <c r="D19" t="n">
-        <v>1.074394524715467</v>
+        <v>1.037993316774656</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         <v>0.982339993084429</v>
       </c>
       <c r="C20" t="n">
-        <v>1.070784325222861</v>
+        <v>1.024996959340311</v>
       </c>
       <c r="D20" t="n">
-        <v>1.094542858055125</v>
+        <v>1.039486042638547</v>
       </c>
     </row>
     <row r="21">
@@ -735,10 +735,10 @@
         <v>0.9731136093377075</v>
       </c>
       <c r="C21" t="n">
-        <v>1.067729783165456</v>
+        <v>1.005328822842846</v>
       </c>
       <c r="D21" t="n">
-        <v>1.093637695646895</v>
+        <v>1.023508208960002</v>
       </c>
     </row>
     <row r="22">
@@ -749,10 +749,10 @@
         <v>0.974319617450853</v>
       </c>
       <c r="C22" t="n">
-        <v>1.063051382076454</v>
+        <v>1.001741816486693</v>
       </c>
       <c r="D22" t="n">
-        <v>1.093119211738469</v>
+        <v>1.022493506944987</v>
       </c>
     </row>
     <row r="23">
@@ -763,10 +763,10 @@
         <v>0.9594174053114959</v>
       </c>
       <c r="C23" t="n">
-        <v>1.053621933286633</v>
+        <v>1.00078029592581</v>
       </c>
       <c r="D23" t="n">
-        <v>1.084917150279685</v>
+        <v>1.021090420121367</v>
       </c>
     </row>
     <row r="24">
@@ -777,10 +777,10 @@
         <v>0.9667377902220573</v>
       </c>
       <c r="C24" t="n">
-        <v>1.064889067339304</v>
+        <v>1.003362454234223</v>
       </c>
       <c r="D24" t="n">
-        <v>1.091167907714704</v>
+        <v>1.016193367417523</v>
       </c>
     </row>
     <row r="25">
@@ -791,10 +791,10 @@
         <v>0.9745641925227497</v>
       </c>
       <c r="C25" t="n">
-        <v>1.093453803775726</v>
+        <v>1.015002467494341</v>
       </c>
       <c r="D25" t="n">
-        <v>1.114430507004157</v>
+        <v>1.024145109791184</v>
       </c>
     </row>
     <row r="26">
@@ -805,10 +805,10 @@
         <v>0.9785364290352778</v>
       </c>
       <c r="C26" t="n">
-        <v>1.080498150254958</v>
+        <v>1.005741092056168</v>
       </c>
       <c r="D26" t="n">
-        <v>1.10155276297543</v>
+        <v>1.016889646963354</v>
       </c>
     </row>
     <row r="27">
@@ -819,10 +819,10 @@
         <v>0.9714690528197819</v>
       </c>
       <c r="C27" t="n">
-        <v>1.075206135287539</v>
+        <v>0.9942162455505398</v>
       </c>
       <c r="D27" t="n">
-        <v>1.098662150191295</v>
+        <v>1.007658226228672</v>
       </c>
     </row>
     <row r="28">
@@ -833,10 +833,10 @@
         <v>0.9594933079200155</v>
       </c>
       <c r="C28" t="n">
-        <v>1.065196964085198</v>
+        <v>0.9801417165185284</v>
       </c>
       <c r="D28" t="n">
-        <v>1.087996845034602</v>
+        <v>0.9982220367552828</v>
       </c>
     </row>
     <row r="29">
@@ -847,10 +847,10 @@
         <v>0.949372960117396</v>
       </c>
       <c r="C29" t="n">
-        <v>1.058682098342192</v>
+        <v>0.976678799265799</v>
       </c>
       <c r="D29" t="n">
-        <v>1.081252812477607</v>
+        <v>1.001415119243167</v>
       </c>
     </row>
     <row r="30">
@@ -861,10 +861,10 @@
         <v>0.9729955386133436</v>
       </c>
       <c r="C30" t="n">
-        <v>1.069842879017477</v>
+        <v>0.9926522561591904</v>
       </c>
       <c r="D30" t="n">
-        <v>1.091908715718012</v>
+        <v>1.016445789751353</v>
       </c>
     </row>
     <row r="31">
@@ -875,10 +875,10 @@
         <v>0.9839845496023547</v>
       </c>
       <c r="C31" t="n">
-        <v>1.090350599544545</v>
+        <v>1.000211679086602</v>
       </c>
       <c r="D31" t="n">
-        <v>1.109939971152139</v>
+        <v>1.022251069321225</v>
       </c>
     </row>
     <row r="32">
@@ -889,10 +889,10 @@
         <v>0.9754497229554789</v>
       </c>
       <c r="C32" t="n">
-        <v>1.087148284081272</v>
+        <v>0.9956325464296641</v>
       </c>
       <c r="D32" t="n">
-        <v>1.106981345873321</v>
+        <v>1.018680575573689</v>
       </c>
     </row>
     <row r="33">
@@ -903,10 +903,10 @@
         <v>0.9646462516761826</v>
       </c>
       <c r="C33" t="n">
-        <v>1.082773488704636</v>
+        <v>1.005879825581811</v>
       </c>
       <c r="D33" t="n">
-        <v>1.104037653329997</v>
+        <v>1.028826650185312</v>
       </c>
     </row>
     <row r="34">
@@ -917,10 +917,10 @@
         <v>0.972472653976875</v>
       </c>
       <c r="C34" t="n">
-        <v>1.091709805840966</v>
+        <v>1.019474368079926</v>
       </c>
       <c r="D34" t="n">
-        <v>1.112075605328587</v>
+        <v>1.039135438058785</v>
       </c>
     </row>
     <row r="35">
@@ -931,10 +931,10 @@
         <v>0.9696726910848169</v>
       </c>
       <c r="C35" t="n">
-        <v>1.079017782730985</v>
+        <v>1.018352595205666</v>
       </c>
       <c r="D35" t="n">
-        <v>1.09902575832637</v>
+        <v>1.037456798554754</v>
       </c>
     </row>
     <row r="36">
@@ -945,10 +945,10 @@
         <v>0.9826689043880141</v>
       </c>
       <c r="C36" t="n">
-        <v>1.09427033885639</v>
+        <v>1.020462036546558</v>
       </c>
       <c r="D36" t="n">
-        <v>1.114963387563554</v>
+        <v>1.038822383729922</v>
       </c>
     </row>
     <row r="37">
@@ -959,10 +959,10 @@
         <v>0.9663751444257968</v>
       </c>
       <c r="C37" t="n">
-        <v>1.086800683444578</v>
+        <v>1.011367517871374</v>
       </c>
       <c r="D37" t="n">
-        <v>1.109284540451943</v>
+        <v>1.032482396381316</v>
       </c>
     </row>
     <row r="38">
@@ -973,10 +973,10 @@
         <v>0.9587427154579879</v>
       </c>
       <c r="C38" t="n">
-        <v>1.09649850736858</v>
+        <v>1.012702997820167</v>
       </c>
       <c r="D38" t="n">
-        <v>1.117225930338282</v>
+        <v>1.033428076293347</v>
       </c>
     </row>
     <row r="39">
@@ -987,10 +987,10 @@
         <v>0.8915857741644387</v>
       </c>
       <c r="C39" t="n">
-        <v>1.065457796083038</v>
+        <v>0.9762583781097742</v>
       </c>
       <c r="D39" t="n">
-        <v>1.090049893288632</v>
+        <v>1.004245474817214</v>
       </c>
     </row>
     <row r="40">
@@ -1001,10 +1001,10 @@
         <v>0.8685282484208041</v>
       </c>
       <c r="C40" t="n">
-        <v>1.057152888294531</v>
+        <v>0.9837639577325989</v>
       </c>
       <c r="D40" t="n">
-        <v>1.085771259454015</v>
+        <v>1.010334753068263</v>
       </c>
     </row>
     <row r="41">
@@ -1015,10 +1015,10 @@
         <v>0.8785473927453974</v>
       </c>
       <c r="C41" t="n">
-        <v>1.052919497359817</v>
+        <v>0.9743324266469442</v>
       </c>
       <c r="D41" t="n">
-        <v>1.079388900524902</v>
+        <v>1.001718738732379</v>
       </c>
     </row>
     <row r="42">
@@ -1029,10 +1029,10 @@
         <v>0.8992350703785853</v>
       </c>
       <c r="C42" t="n">
-        <v>1.09166220859498</v>
+        <v>1.009622468471383</v>
       </c>
       <c r="D42" t="n">
-        <v>1.1145107585046</v>
+        <v>1.043977561381124</v>
       </c>
     </row>
     <row r="43">
@@ -1043,10 +1043,10 @@
         <v>0.890059288370877</v>
       </c>
       <c r="C43" t="n">
-        <v>1.093123167060419</v>
+        <v>1.009099536313432</v>
       </c>
       <c r="D43" t="n">
-        <v>1.114171505622863</v>
+        <v>1.041316234736053</v>
       </c>
     </row>
     <row r="44">
@@ -1057,10 +1057,10 @@
         <v>0.9042868106567262</v>
       </c>
       <c r="C44" t="n">
-        <v>1.102825091326772</v>
+        <v>1.041632193887394</v>
       </c>
       <c r="D44" t="n">
-        <v>1.12026064016612</v>
+        <v>1.065813953516116</v>
       </c>
     </row>
     <row r="45">
@@ -1071,10 +1071,10 @@
         <v>0.862194597420998</v>
       </c>
       <c r="C45" t="n">
-        <v>1.077629731171948</v>
+        <v>1.010384979036285</v>
       </c>
       <c r="D45" t="n">
-        <v>1.09957501032164</v>
+        <v>1.040164184192831</v>
       </c>
     </row>
     <row r="46">
@@ -1085,10 +1085,10 @@
         <v>0.8264697696777512</v>
       </c>
       <c r="C46" t="n">
-        <v>1.054651307707132</v>
+        <v>0.9945404442858419</v>
       </c>
       <c r="D46" t="n">
-        <v>1.07390489169007</v>
+        <v>1.009128691950711</v>
       </c>
     </row>
     <row r="47">
@@ -1099,10 +1099,10 @@
         <v>0.7258566452733759</v>
       </c>
       <c r="C47" t="n">
-        <v>1.004333321405421</v>
+        <v>0.9616963164041601</v>
       </c>
       <c r="D47" t="n">
-        <v>1.028425143577885</v>
+        <v>0.9862662411760987</v>
       </c>
     </row>
     <row r="48">
@@ -1113,10 +1113,10 @@
         <v>0.7776981268922942</v>
       </c>
       <c r="C48" t="n">
-        <v>1.004832373110485</v>
+        <v>0.9739584605784071</v>
       </c>
       <c r="D48" t="n">
-        <v>1.030990907008179</v>
+        <v>1.002426374902817</v>
       </c>
     </row>
     <row r="49">
@@ -1127,10 +1127,10 @@
         <v>0.7183001189140866</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9787329918217468</v>
+        <v>0.945927097747135</v>
       </c>
       <c r="D49" t="n">
-        <v>1.008677382643274</v>
+        <v>0.9810201371825288</v>
       </c>
     </row>
     <row r="50">
@@ -1141,10 +1141,10 @@
         <v>0.6121376704646083</v>
       </c>
       <c r="C50" t="n">
-        <v>0.922240402206597</v>
+        <v>0.8919746958018105</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9588661019658112</v>
+        <v>0.9379714138607932</v>
       </c>
     </row>
     <row r="51">
@@ -1155,10 +1155,10 @@
         <v>0.6972750963541448</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9564901733222279</v>
+        <v>0.9222079889910688</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9888898849355683</v>
+        <v>0.9687012389042216</v>
       </c>
     </row>
     <row r="52">
@@ -1169,10 +1169,10 @@
         <v>0.6002040936806862</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9246142892726341</v>
+        <v>0.8795112370703186</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9622443935277919</v>
+        <v>0.9355532419465049</v>
       </c>
     </row>
     <row r="53">
@@ -1183,10 +1183,10 @@
         <v>0.6292916599900483</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9431223792816202</v>
+        <v>0.8783665165659611</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9725290815081725</v>
+        <v>0.9388364506037354</v>
       </c>
     </row>
     <row r="54">
@@ -1197,10 +1197,10 @@
         <v>0.564167221880192</v>
       </c>
       <c r="C54" t="n">
-        <v>0.888399408661757</v>
+        <v>0.8512531161878931</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9246567493962302</v>
+        <v>0.9211770400659709</v>
       </c>
     </row>
     <row r="55">
@@ -1211,10 +1211,10 @@
         <v>0.5762863383738288</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9039175569519385</v>
+        <v>0.8450540635565194</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9427692477978806</v>
+        <v>0.9149781602030427</v>
       </c>
     </row>
     <row r="56">
@@ -1225,10 +1225,10 @@
         <v>0.5656346723115718</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8836992368944215</v>
+        <v>0.8548645123777644</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9301608886454747</v>
+        <v>0.9234290377823099</v>
       </c>
     </row>
     <row r="57">
@@ -1239,10 +1239,10 @@
         <v>0.5361254248437671</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8628535906278956</v>
+        <v>0.8279870163399795</v>
       </c>
       <c r="D57" t="n">
-        <v>0.913511482243803</v>
+        <v>0.8976248752734169</v>
       </c>
     </row>
     <row r="58">
@@ -1253,10 +1253,10 @@
         <v>0.5880681099407117</v>
       </c>
       <c r="C58" t="n">
-        <v>0.873533205472898</v>
+        <v>0.8352659632430031</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9213072714902464</v>
+        <v>0.9069426413488741</v>
       </c>
     </row>
     <row r="59">
@@ -1267,10 +1267,10 @@
         <v>0.6321506582442883</v>
       </c>
       <c r="C59" t="n">
-        <v>0.879158435822088</v>
+        <v>0.8747762046446877</v>
       </c>
       <c r="D59" t="n">
-        <v>0.927505644469379</v>
+        <v>0.9376269018187394</v>
       </c>
     </row>
     <row r="60">
@@ -1281,10 +1281,10 @@
         <v>0.6553768564513001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9003245982089246</v>
+        <v>0.9094973004234499</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9431051172803753</v>
+        <v>0.9663929884942852</v>
       </c>
     </row>
     <row r="61">
@@ -1295,10 +1295,10 @@
         <v>0.619272515665455</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8780639482277682</v>
+        <v>0.9101084676626556</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9272225974193946</v>
+        <v>0.9682919800071976</v>
       </c>
     </row>
     <row r="62">
@@ -1309,10 +1309,10 @@
         <v>0.6294856333229318</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8905501730611046</v>
+        <v>0.8693224303407743</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9353815822631208</v>
+        <v>0.9350684780427685</v>
       </c>
     </row>
     <row r="63">
@@ -1323,10 +1323,10 @@
         <v>0.6158231637893956</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8914987538183764</v>
+        <v>0.8774056544412117</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9368175935768435</v>
+        <v>0.9424337097190814</v>
       </c>
     </row>
     <row r="64">
@@ -1337,10 +1337,10 @@
         <v>0.5985089354237474</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8550045736888719</v>
+        <v>0.8552538339609876</v>
       </c>
       <c r="D64" t="n">
-        <v>0.879766649372932</v>
+        <v>0.9217723239469238</v>
       </c>
     </row>
     <row r="65">
@@ -1351,10 +1351,10 @@
         <v>0.609354574818888</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8589735583616263</v>
+        <v>0.8842610852020303</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8921228166442131</v>
+        <v>0.9482852641210092</v>
       </c>
     </row>
     <row r="66">
@@ -1365,10 +1365,10 @@
         <v>0.5864572879154614</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8533862993284907</v>
+        <v>0.8819504939303255</v>
       </c>
       <c r="D66" t="n">
-        <v>0.88570135825072</v>
+        <v>0.9436819089376502</v>
       </c>
     </row>
     <row r="67">
@@ -1379,10 +1379,10 @@
         <v>0.6247037689861942</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8678905382380194</v>
+        <v>0.8906875676819459</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8943010565361932</v>
+        <v>0.9519539955654508</v>
       </c>
     </row>
     <row r="68">
@@ -1393,10 +1393,10 @@
         <v>0.6439745979270154</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8741173991416354</v>
+        <v>0.8841087082580257</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9032588398876239</v>
+        <v>0.9477723147743164</v>
       </c>
     </row>
     <row r="69">
@@ -1407,10 +1407,10 @@
         <v>0.6630936216507974</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8921619122385982</v>
+        <v>0.8704044511860016</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9176098437347572</v>
+        <v>0.9367091287692728</v>
       </c>
     </row>
     <row r="70">
@@ -1421,10 +1421,10 @@
         <v>0.6551407150025722</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8852122549483936</v>
+        <v>0.8857916111455506</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9002049106078549</v>
+        <v>0.9492522153360065</v>
       </c>
     </row>
     <row r="71">
@@ -1435,10 +1435,10 @@
         <v>0.6648731161394247</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8833478370282863</v>
+        <v>0.8804907076185412</v>
       </c>
       <c r="D71" t="n">
-        <v>0.89300963533472</v>
+        <v>0.9448803942591655</v>
       </c>
     </row>
     <row r="72">
@@ -1449,10 +1449,10 @@
         <v>0.6739982964081199</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8850267108290932</v>
+        <v>0.9073465662410645</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8908808042638089</v>
+        <v>0.9615909016589523</v>
       </c>
     </row>
     <row r="73">
@@ -1463,10 +1463,10 @@
         <v>0.6648309480235804</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8848059581598228</v>
+        <v>0.919224070606437</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8923515867535905</v>
+        <v>0.9756744162871468</v>
       </c>
     </row>
     <row r="74">
@@ -1477,10 +1477,10 @@
         <v>0.6562370860145227</v>
       </c>
       <c r="C74" t="n">
-        <v>0.883525191436463</v>
+        <v>0.9113010921387483</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8877611442116041</v>
+        <v>0.9688349665500947</v>
       </c>
     </row>
     <row r="75">
@@ -1491,10 +1491,10 @@
         <v>0.6661718941074275</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8964554483373884</v>
+        <v>0.8957590133956786</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8996018064518447</v>
+        <v>0.9575335695668548</v>
       </c>
     </row>
     <row r="76">
@@ -1505,10 +1505,10 @@
         <v>0.666028522513557</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9072948499031197</v>
+        <v>0.8883689823901449</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9168944019215549</v>
+        <v>0.9511393558048693</v>
       </c>
     </row>
     <row r="77">
@@ -1519,10 +1519,10 @@
         <v>0.6804837526249652</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9167840590235358</v>
+        <v>0.9015987051088522</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9250158296982017</v>
+        <v>0.9610410637174065</v>
       </c>
     </row>
     <row r="78">
@@ -1533,10 +1533,10 @@
         <v>0.6719320587317518</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9023472034954482</v>
+        <v>0.8936649409307285</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9138376002231603</v>
+        <v>0.9547184482090398</v>
       </c>
     </row>
     <row r="79">
@@ -1547,10 +1547,10 @@
         <v>0.6353132669326069</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8797725612075569</v>
+        <v>0.8743698747642181</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8955323179589008</v>
+        <v>0.9401352699340829</v>
       </c>
     </row>
     <row r="80">
@@ -1561,10 +1561,10 @@
         <v>0.6598382431076215</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8965260711249388</v>
+        <v>0.8827206559244037</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9094750406682545</v>
+        <v>0.9462333140783692</v>
       </c>
     </row>
     <row r="81">
@@ -1575,10 +1575,10 @@
         <v>0.6857547671054962</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9334239734284258</v>
+        <v>0.9009406808774747</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9870112192964182</v>
+        <v>0.9610407365345672</v>
       </c>
     </row>
     <row r="82">
@@ -1589,10 +1589,10 @@
         <v>0.7014328725763875</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9341894101064834</v>
+        <v>0.8985107349098316</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9909923121862609</v>
+        <v>0.9591240459985758</v>
       </c>
     </row>
     <row r="83">
@@ -1603,10 +1603,10 @@
         <v>0.6789572668314034</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9274073135157949</v>
+        <v>0.8989405722476906</v>
       </c>
       <c r="D83" t="n">
-        <v>0.986536894638754</v>
+        <v>0.9594548066408847</v>
       </c>
     </row>
     <row r="84">
@@ -1617,10 +1617,10 @@
         <v>0.6652104610661786</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9037679085573134</v>
+        <v>0.8775008958767634</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9525841771954808</v>
+        <v>0.9425353524592713</v>
       </c>
     </row>
     <row r="85">
@@ -1631,10 +1631,10 @@
         <v>0.6702284668516442</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9125440740825486</v>
+        <v>0.8883677181510143</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9642100287756304</v>
+        <v>0.9517664460111136</v>
       </c>
     </row>
     <row r="86">
@@ -1645,10 +1645,10 @@
         <v>0.6667959822219224</v>
       </c>
       <c r="C86" t="n">
-        <v>0.901840199464583</v>
+        <v>0.8874446786994046</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9557513333648067</v>
+        <v>0.9512786674301141</v>
       </c>
     </row>
     <row r="87">
@@ -1659,10 +1659,10 @@
         <v>0.6588262083273595</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8844483749345335</v>
+        <v>0.8856793614127526</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9412123307580753</v>
+        <v>0.9500022268757742</v>
       </c>
     </row>
     <row r="88">
@@ -1673,10 +1673,10 @@
         <v>0.6769078964013729</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8956356650212927</v>
+        <v>0.8929928187431684</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9481369314111096</v>
+        <v>0.9552903377437538</v>
       </c>
     </row>
     <row r="89">
@@ -1687,10 +1687,10 @@
         <v>0.6668044158450912</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8938827996972378</v>
+        <v>0.8818294864518272</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9418699633905842</v>
+        <v>0.9462711502000272</v>
       </c>
     </row>
     <row r="90">
@@ -1701,10 +1701,10 @@
         <v>0.6567431034046537</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8856600492187503</v>
+        <v>0.8768523931166903</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9370050029717543</v>
+        <v>0.9426452812539907</v>
       </c>
     </row>
     <row r="91">
@@ -1715,10 +1715,10 @@
         <v>0.6558997410877687</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8689870004494908</v>
+        <v>0.8844403871386424</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9216999545442766</v>
+        <v>0.948531099497689</v>
       </c>
     </row>
     <row r="92">
@@ -1729,10 +1729,10 @@
         <v>0.6663490001939734</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8861747693624957</v>
+        <v>0.8848987955710415</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9344346507079189</v>
+        <v>0.9489423988138248</v>
       </c>
     </row>
     <row r="93">
@@ -1743,10 +1743,10 @@
         <v>0.6540865121064661</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8902244381025282</v>
+        <v>0.8852366970384691</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9391698819263892</v>
+        <v>0.9493663634859253</v>
       </c>
     </row>
     <row r="94">
@@ -1757,10 +1757,10 @@
         <v>0.684759599571572</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9089838534071413</v>
+        <v>0.8990151112774467</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9553224934975355</v>
+        <v>0.9594887432998158</v>
       </c>
     </row>
     <row r="95">
@@ -1771,10 +1771,10 @@
         <v>0.680947601899252</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9057878442693251</v>
+        <v>0.8906374118052812</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9662431732438557</v>
+        <v>0.9534075838666933</v>
       </c>
     </row>
     <row r="96">
@@ -1785,10 +1785,10 @@
         <v>0.6858138024676781</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9026737995821095</v>
+        <v>0.8865626555159578</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9702262304180889</v>
+        <v>0.9502017874203974</v>
       </c>
     </row>
     <row r="97">
@@ -1799,10 +1799,10 @@
         <v>0.7002184308400732</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9059461379033289</v>
+        <v>0.9015100748035412</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9716503911447865</v>
+        <v>0.9613291145171796</v>
       </c>
     </row>
     <row r="98">
@@ -1813,10 +1813,10 @@
         <v>0.6930161166538756</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9109293361241322</v>
+        <v>0.9059591790242038</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9749083581969211</v>
+        <v>0.9648020176431216</v>
       </c>
     </row>
     <row r="99">
@@ -1827,10 +1827,10 @@
         <v>0.7224494615131607</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9337887486796715</v>
+        <v>0.916544860157305</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9931468400495409</v>
+        <v>0.9727954810204329</v>
       </c>
     </row>
     <row r="100">
@@ -1841,10 +1841,10 @@
         <v>0.7208133386184038</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9385719506660667</v>
+        <v>0.922161316644013</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9992104001422319</v>
+        <v>0.9771759080442756</v>
       </c>
     </row>
     <row r="101">
@@ -1855,10 +1855,10 @@
         <v>0.7417034232076443</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9537211785972783</v>
+        <v>0.9466433771415472</v>
       </c>
       <c r="D101" t="n">
-        <v>1.011054411821164</v>
+        <v>0.9970337248096997</v>
       </c>
     </row>
     <row r="102">
@@ -1869,10 +1869,10 @@
         <v>0.7332951009083012</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9507115699157357</v>
+        <v>0.9602316970528508</v>
       </c>
       <c r="D102" t="n">
-        <v>1.007748403945486</v>
+        <v>1.007677332734445</v>
       </c>
     </row>
     <row r="103">
@@ -1883,10 +1883,10 @@
         <v>0.7371239658269589</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9535288364292039</v>
+        <v>0.9600018573767721</v>
       </c>
       <c r="D103" t="n">
-        <v>1.010923427282051</v>
+        <v>1.007910342808924</v>
       </c>
     </row>
     <row r="104">
@@ -1897,10 +1897,10 @@
         <v>0.7473876852234489</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9529357145146057</v>
+        <v>0.9619050784690716</v>
       </c>
       <c r="D104" t="n">
-        <v>1.010939758175231</v>
+        <v>1.009046977318577</v>
       </c>
     </row>
     <row r="105">
@@ -1911,10 +1911,10 @@
         <v>0.7678476550310779</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9546733438509517</v>
+        <v>0.9716422591803191</v>
       </c>
       <c r="D105" t="n">
-        <v>1.011372310769463</v>
+        <v>1.01658659877382</v>
       </c>
     </row>
     <row r="106">
@@ -1925,10 +1925,10 @@
         <v>0.7843438219493477</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9644902540277815</v>
+        <v>0.9483502813193612</v>
       </c>
       <c r="D106" t="n">
-        <v>1.019797946076282</v>
+        <v>0.9990264074814792</v>
       </c>
     </row>
     <row r="107">
@@ -1939,10 +1939,10 @@
         <v>0.7913184283099862</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9619765719787418</v>
+        <v>0.9469274353043878</v>
       </c>
       <c r="D107" t="n">
-        <v>1.018172415622959</v>
+        <v>0.9977416881629769</v>
       </c>
     </row>
     <row r="108">
@@ -1953,10 +1953,10 @@
         <v>0.7981327958304167</v>
       </c>
       <c r="C108" t="n">
-        <v>0.970312872993068</v>
+        <v>0.9524979238558803</v>
       </c>
       <c r="D108" t="n">
-        <v>1.03845486169196</v>
+        <v>1.002168717201716</v>
       </c>
     </row>
     <row r="109">
@@ -1967,10 +1967,10 @@
         <v>0.8235011343223162</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9889155123037046</v>
+        <v>0.950297817564316</v>
       </c>
       <c r="D109" t="n">
-        <v>1.055384753228691</v>
+        <v>1.000019016591245</v>
       </c>
     </row>
     <row r="110">
@@ -1981,10 +1981,10 @@
         <v>0.8159277407166893</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9890506770250039</v>
+        <v>0.9573039791672063</v>
       </c>
       <c r="D110" t="n">
-        <v>1.055052752873271</v>
+        <v>1.006035867696026</v>
       </c>
     </row>
     <row r="111">
@@ -1995,10 +1995,10 @@
         <v>0.7985460433656904</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9768289243171133</v>
+        <v>0.9584667616290008</v>
       </c>
       <c r="D111" t="n">
-        <v>1.043601055430028</v>
+        <v>1.007375635030189</v>
       </c>
     </row>
     <row r="112">
@@ -2009,10 +2009,10 @@
         <v>0.7825980619533958</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9798192078159949</v>
+        <v>0.9417664702283879</v>
       </c>
       <c r="D112" t="n">
-        <v>1.046185392123949</v>
+        <v>0.9943022272765234</v>
       </c>
     </row>
     <row r="113">
@@ -2023,10 +2023,10 @@
         <v>0.7790643738456479</v>
       </c>
       <c r="C113" t="n">
-        <v>0.977969642931209</v>
+        <v>0.9395601413500122</v>
       </c>
       <c r="D113" t="n">
-        <v>1.044993699112397</v>
+        <v>0.9924873467173252</v>
       </c>
     </row>
     <row r="114">
@@ -2037,10 +2037,10 @@
         <v>0.7888052086056691</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9774712148388409</v>
+        <v>0.9460527869767855</v>
       </c>
       <c r="D114" t="n">
-        <v>1.046518967892539</v>
+        <v>0.9990039873933914</v>
       </c>
     </row>
     <row r="115">
@@ -2051,10 +2051,10 @@
         <v>0.8058073929140698</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9969684232223464</v>
+        <v>0.9520593354529483</v>
       </c>
       <c r="D115" t="n">
-        <v>1.062200420265395</v>
+        <v>1.003426957023167</v>
       </c>
     </row>
     <row r="116">
@@ -2065,10 +2065,10 @@
         <v>0.8106820271056648</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9901358197481368</v>
+        <v>0.950844362469127</v>
       </c>
       <c r="D116" t="n">
-        <v>1.057882994225044</v>
+        <v>1.002468611755171</v>
       </c>
     </row>
     <row r="117">
@@ -2079,10 +2079,10 @@
         <v>0.8144518566621406</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9937665906261635</v>
+        <v>0.9536979231878175</v>
       </c>
       <c r="D117" t="n">
-        <v>1.059620905014891</v>
+        <v>1.005050882984743</v>
       </c>
     </row>
     <row r="118">
@@ -2093,10 +2093,10 @@
         <v>0.8040278984254425</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9924852348496012</v>
+        <v>0.9534233864962813</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05951373279643</v>
+        <v>1.004453175609024</v>
       </c>
     </row>
     <row r="119">
@@ -2107,10 +2107,10 @@
         <v>0.8094169836303374</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9935978045127047</v>
+        <v>0.954809786047343</v>
       </c>
       <c r="D119" t="n">
-        <v>1.062163638142952</v>
+        <v>1.005894752919981</v>
       </c>
     </row>
     <row r="120">
@@ -2121,10 +2121,10 @@
         <v>0.7959400538065158</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9985408074176768</v>
+        <v>0.9487349211282357</v>
       </c>
       <c r="D120" t="n">
-        <v>1.068623926066817</v>
+        <v>1.001103026580003</v>
       </c>
     </row>
     <row r="121">
@@ -2135,10 +2135,10 @@
         <v>0.8094844526156882</v>
       </c>
       <c r="C121" t="n">
-        <v>1.008334794790255</v>
+        <v>0.9498070386393569</v>
       </c>
       <c r="D121" t="n">
-        <v>1.077191680373709</v>
+        <v>1.001658678478864</v>
       </c>
     </row>
     <row r="122">
@@ -2149,10 +2149,10 @@
         <v>0.7913605964258305</v>
       </c>
       <c r="C122" t="n">
-        <v>1.004462531721563</v>
+        <v>0.947290497011765</v>
       </c>
       <c r="D122" t="n">
-        <v>1.075107409759976</v>
+        <v>1.001102204977721</v>
       </c>
     </row>
     <row r="123">
@@ -2163,10 +2163,10 @@
         <v>0.8073929140698135</v>
       </c>
       <c r="C123" t="n">
-        <v>1.011203820097891</v>
+        <v>0.9623641453376044</v>
       </c>
       <c r="D123" t="n">
-        <v>1.079501079454253</v>
+        <v>1.014458622573678</v>
       </c>
     </row>
     <row r="124">
@@ -2177,10 +2177,10 @@
         <v>0.8016664839381646</v>
       </c>
       <c r="C124" t="n">
-        <v>1.018140568110018</v>
+        <v>0.9651158668517574</v>
       </c>
       <c r="D124" t="n">
-        <v>1.084445348503446</v>
+        <v>1.016049099005399</v>
       </c>
     </row>
     <row r="125">
@@ -2191,10 +2191,10 @@
         <v>0.8113398497128351</v>
       </c>
       <c r="C125" t="n">
-        <v>1.015329039626193</v>
+        <v>0.9746070819660086</v>
       </c>
       <c r="D125" t="n">
-        <v>1.073854591816736</v>
+        <v>1.02307155175875</v>
       </c>
     </row>
     <row r="126">
@@ -2205,10 +2205,10 @@
         <v>0.8116097256542383</v>
       </c>
       <c r="C126" t="n">
-        <v>1.010538622187223</v>
+        <v>0.9772539286032083</v>
       </c>
       <c r="D126" t="n">
-        <v>1.070783641137764</v>
+        <v>1.027751218970369</v>
       </c>
     </row>
     <row r="127">
@@ -2219,10 +2219,10 @@
         <v>0.8160795459337286</v>
       </c>
       <c r="C127" t="n">
-        <v>1.0172783285153</v>
+        <v>0.9848862377778156</v>
       </c>
       <c r="D127" t="n">
-        <v>1.077383194282449</v>
+        <v>1.033493011814181</v>
       </c>
     </row>
     <row r="128">
@@ -2233,10 +2233,10 @@
         <v>0.8343973754564699</v>
       </c>
       <c r="C128" t="n">
-        <v>1.021060754608046</v>
+        <v>0.992774040701351</v>
       </c>
       <c r="D128" t="n">
-        <v>1.081107093639091</v>
+        <v>1.039612000078594</v>
       </c>
     </row>
     <row r="129">
@@ -2247,10 +2247,10 @@
         <v>0.8244794346099028</v>
       </c>
       <c r="C129" t="n">
-        <v>1.027831244896381</v>
+        <v>0.9776489722597159</v>
       </c>
       <c r="D129" t="n">
-        <v>1.086552139846708</v>
+        <v>1.028336260990123</v>
       </c>
     </row>
     <row r="130">
@@ -2261,10 +2261,10 @@
         <v>0.8414225835561215</v>
       </c>
       <c r="C130" t="n">
-        <v>1.036834591118137</v>
+        <v>0.9871973295630472</v>
       </c>
       <c r="D130" t="n">
-        <v>1.104484872981288</v>
+        <v>1.035519791091128</v>
       </c>
     </row>
     <row r="131">
@@ -2275,10 +2275,10 @@
         <v>0.8362780734231233</v>
       </c>
       <c r="C131" t="n">
-        <v>1.033361678672935</v>
+        <v>0.9731506012193445</v>
       </c>
       <c r="D131" t="n">
-        <v>1.101202204274856</v>
+        <v>1.024464883850247</v>
       </c>
     </row>
     <row r="132">
@@ -2289,10 +2289,10 @@
         <v>0.8436321928263601</v>
       </c>
       <c r="C132" t="n">
-        <v>1.036875758901633</v>
+        <v>0.9779645252194148</v>
       </c>
       <c r="D132" t="n">
-        <v>1.103571248234073</v>
+        <v>1.028344866937125</v>
       </c>
     </row>
     <row r="133">
@@ -2303,10 +2303,10 @@
         <v>0.8323733058959459</v>
       </c>
       <c r="C133" t="n">
-        <v>1.027385636475907</v>
+        <v>0.9742388446513832</v>
       </c>
       <c r="D133" t="n">
-        <v>1.096895342311836</v>
+        <v>1.025770714525479</v>
       </c>
     </row>
     <row r="134">
@@ -2317,10 +2317,10 @@
         <v>0.8470731110792508</v>
       </c>
       <c r="C134" t="n">
-        <v>1.02508895356478</v>
+        <v>0.9774713231056644</v>
       </c>
       <c r="D134" t="n">
-        <v>1.094527032688194</v>
+        <v>1.028187848998435</v>
       </c>
     </row>
     <row r="135">
@@ -2331,10 +2331,10 @@
         <v>0.8584669359803665</v>
       </c>
       <c r="C135" t="n">
-        <v>1.040476128742734</v>
+        <v>0.9788130256412688</v>
       </c>
       <c r="D135" t="n">
-        <v>1.116211880397217</v>
+        <v>1.028798708859194</v>
       </c>
     </row>
     <row r="136">
@@ -2345,10 +2345,10 @@
         <v>0.8480261104973308</v>
       </c>
       <c r="C136" t="n">
-        <v>1.039044923884161</v>
+        <v>0.979701271411527</v>
       </c>
       <c r="D136" t="n">
-        <v>1.115351232528234</v>
+        <v>1.029540768817638</v>
       </c>
     </row>
     <row r="137">
@@ -2359,10 +2359,10 @@
         <v>0.8677186205965945</v>
       </c>
       <c r="C137" t="n">
-        <v>1.051895731859779</v>
+        <v>0.9762451758679787</v>
       </c>
       <c r="D137" t="n">
-        <v>1.130559625190337</v>
+        <v>1.027021824367889</v>
       </c>
     </row>
     <row r="138">
@@ -2373,10 +2373,10 @@
         <v>0.8806895330302852</v>
       </c>
       <c r="C138" t="n">
-        <v>1.049579502518529</v>
+        <v>0.9855459147917536</v>
       </c>
       <c r="D138" t="n">
-        <v>1.128411523458676</v>
+        <v>1.033590762382012</v>
       </c>
     </row>
     <row r="139">
@@ -2387,10 +2387,10 @@
         <v>0.8797112327426986</v>
       </c>
       <c r="C139" t="n">
-        <v>1.036012714707719</v>
+        <v>0.9897825761770134</v>
       </c>
       <c r="D139" t="n">
-        <v>1.116774243269733</v>
+        <v>1.03716953489371</v>
       </c>
     </row>
     <row r="140">
@@ -2401,10 +2401,10 @@
         <v>0.8795425602793217</v>
       </c>
       <c r="C140" t="n">
-        <v>1.04215627208503</v>
+        <v>0.9980562831485541</v>
       </c>
       <c r="D140" t="n">
-        <v>1.120552723959612</v>
+        <v>1.044738052050402</v>
       </c>
     </row>
     <row r="141">
@@ -2415,10 +2415,10 @@
         <v>0.862700614811129</v>
       </c>
       <c r="C141" t="n">
-        <v>1.050853624606596</v>
+        <v>0.9873050094915945</v>
       </c>
       <c r="D141" t="n">
-        <v>1.132822627997161</v>
+        <v>1.035202022987623</v>
       </c>
     </row>
     <row r="142">
@@ -2429,10 +2429,10 @@
         <v>0.8634512072731566</v>
       </c>
       <c r="C142" t="n">
-        <v>1.056924622445969</v>
+        <v>0.9950300249428647</v>
       </c>
       <c r="D142" t="n">
-        <v>1.143160790120179</v>
+        <v>1.042549868242963</v>
       </c>
     </row>
     <row r="143">
@@ -2443,10 +2443,10 @@
         <v>0.8811196478118964</v>
       </c>
       <c r="C143" t="n">
-        <v>1.070959234369613</v>
+        <v>1.009037007938163</v>
       </c>
       <c r="D143" t="n">
-        <v>1.160734883467043</v>
+        <v>1.053316557447468</v>
       </c>
     </row>
     <row r="144">
@@ -2457,10 +2457,10 @@
         <v>0.8780160744857598</v>
       </c>
       <c r="C144" t="n">
-        <v>1.073689611597652</v>
+        <v>1.003637945953911</v>
       </c>
       <c r="D144" t="n">
-        <v>1.165580032029508</v>
+        <v>1.04937276045169</v>
       </c>
     </row>
     <row r="145">
@@ -2471,10 +2471,10 @@
         <v>0.8906327747463588</v>
       </c>
       <c r="C145" t="n">
-        <v>1.074431299266867</v>
+        <v>1.003061453745332</v>
       </c>
       <c r="D145" t="n">
-        <v>1.173299652874521</v>
+        <v>1.050770806317829</v>
       </c>
     </row>
     <row r="146">
@@ -2485,10 +2485,10 @@
         <v>0.8856063353377245</v>
       </c>
       <c r="C146" t="n">
-        <v>1.081419950407746</v>
+        <v>1.012666953237743</v>
       </c>
       <c r="D146" t="n">
-        <v>1.178611501304679</v>
+        <v>1.058115413766487</v>
       </c>
     </row>
     <row r="147">
@@ -2499,10 +2499,10 @@
         <v>0.8679210275526469</v>
       </c>
       <c r="C147" t="n">
-        <v>1.0781701247891</v>
+        <v>1.038652239504016</v>
       </c>
       <c r="D147" t="n">
-        <v>1.174863197689356</v>
+        <v>1.077982323607988</v>
       </c>
     </row>
     <row r="148">
@@ -2513,10 +2513,10 @@
         <v>0.8672294704528012</v>
       </c>
       <c r="C148" t="n">
-        <v>1.071895011131085</v>
+        <v>1.017818014979637</v>
       </c>
       <c r="D148" t="n">
-        <v>1.170961910831997</v>
+        <v>1.060469875825298</v>
       </c>
     </row>
     <row r="149">
@@ -2527,10 +2527,10 @@
         <v>0.853617602658278</v>
       </c>
       <c r="C149" t="n">
-        <v>1.037060324924588</v>
+        <v>1.018317044456142</v>
       </c>
       <c r="D149" t="n">
-        <v>1.143418166026222</v>
+        <v>1.059817789380331</v>
       </c>
     </row>
     <row r="150">
@@ -2541,10 +2541,10 @@
         <v>0.8669933290040734</v>
       </c>
       <c r="C150" t="n">
-        <v>1.045041961693645</v>
+        <v>1.011891944866082</v>
       </c>
       <c r="D150" t="n">
-        <v>1.142629024629369</v>
+        <v>1.051970648973149</v>
       </c>
     </row>
     <row r="151">
@@ -2555,10 +2555,10 @@
         <v>0.8781594460796303</v>
       </c>
       <c r="C151" t="n">
-        <v>1.040647943618136</v>
+        <v>1.030061326790216</v>
       </c>
       <c r="D151" t="n">
-        <v>1.138111145229672</v>
+        <v>1.070307777119303</v>
       </c>
     </row>
     <row r="152">
@@ -2569,10 +2569,10 @@
         <v>0.8667740548016833</v>
       </c>
       <c r="C152" t="n">
-        <v>1.036112765585515</v>
+        <v>1.026099590639922</v>
       </c>
       <c r="D152" t="n">
-        <v>1.135688505748372</v>
+        <v>1.068051225574559</v>
       </c>
     </row>
     <row r="153">
@@ -2583,10 +2583,10 @@
         <v>0.8724077150784748</v>
       </c>
       <c r="C153" t="n">
-        <v>1.036535799154524</v>
+        <v>1.028564712151718</v>
       </c>
       <c r="D153" t="n">
-        <v>1.135732233483616</v>
+        <v>1.070688377583189</v>
       </c>
     </row>
     <row r="154">
@@ -2597,10 +2597,10 @@
         <v>0.8616970136540359</v>
       </c>
       <c r="C154" t="n">
-        <v>1.035778576447017</v>
+        <v>1.023086159470657</v>
       </c>
       <c r="D154" t="n">
-        <v>1.13738048964373</v>
+        <v>1.066168144514659</v>
       </c>
     </row>
     <row r="155">
@@ -2611,10 +2611,10 @@
         <v>0.8612247307565803</v>
       </c>
       <c r="C155" t="n">
-        <v>1.034486968944955</v>
+        <v>1.018702072808446</v>
       </c>
       <c r="D155" t="n">
-        <v>1.136336754819116</v>
+        <v>1.062618922070089</v>
       </c>
     </row>
     <row r="156">
@@ -2625,10 +2625,10 @@
         <v>0.8472502171657966</v>
       </c>
       <c r="C156" t="n">
-        <v>1.024406248044508</v>
+        <v>1.018925689897714</v>
       </c>
       <c r="D156" t="n">
-        <v>1.129038331681364</v>
+        <v>1.062720732046883</v>
       </c>
     </row>
     <row r="157">
@@ -2639,10 +2639,10 @@
         <v>0.8547730090324104</v>
       </c>
       <c r="C157" t="n">
-        <v>1.019953032284436</v>
+        <v>1.021842615392296</v>
       </c>
       <c r="D157" t="n">
-        <v>1.122992611136828</v>
+        <v>1.065129260572836</v>
       </c>
     </row>
     <row r="158">
@@ -2653,10 +2653,10 @@
         <v>0.8399466995015729</v>
       </c>
       <c r="C158" t="n">
-        <v>1.006232960524121</v>
+        <v>1.016008764403131</v>
       </c>
       <c r="D158" t="n">
-        <v>1.111087694646494</v>
+        <v>1.060312203520928</v>
       </c>
     </row>
     <row r="159">
@@ -2667,10 +2667,10 @@
         <v>0.8607777487286313</v>
       </c>
       <c r="C159" t="n">
-        <v>1.017197950995695</v>
+        <v>1.025641952613754</v>
       </c>
       <c r="D159" t="n">
-        <v>1.118614572432767</v>
+        <v>1.069339182699742</v>
       </c>
     </row>
     <row r="160">
@@ -2681,10 +2681,10 @@
         <v>0.8505646310711544</v>
       </c>
       <c r="C160" t="n">
-        <v>1.022550577368184</v>
+        <v>1.022979638491771</v>
       </c>
       <c r="D160" t="n">
-        <v>1.128113010628361</v>
+        <v>1.068909682650717</v>
       </c>
     </row>
     <row r="161">
@@ -2695,10 +2695,10 @@
         <v>0.8557428756968282</v>
       </c>
       <c r="C161" t="n">
-        <v>1.02418183066462</v>
+        <v>1.021148039407537</v>
       </c>
       <c r="D161" t="n">
-        <v>1.12419154860863</v>
+        <v>1.068336651621249</v>
       </c>
     </row>
     <row r="162">
@@ -2709,10 +2709,10 @@
         <v>0.8561898577247772</v>
       </c>
       <c r="C162" t="n">
-        <v>1.026865863540629</v>
+        <v>1.020657754315477</v>
       </c>
       <c r="D162" t="n">
-        <v>1.143945473826667</v>
+        <v>1.067649966861305</v>
       </c>
     </row>
     <row r="163">
@@ -2723,10 +2723,10 @@
         <v>0.8627427829269733</v>
       </c>
       <c r="C163" t="n">
-        <v>1.03080491405811</v>
+        <v>1.022994500173558</v>
       </c>
       <c r="D163" t="n">
-        <v>1.14687260655459</v>
+        <v>1.070286951633332</v>
       </c>
     </row>
     <row r="164">
@@ -2737,10 +2737,10 @@
         <v>0.8612247307565803</v>
       </c>
       <c r="C164" t="n">
-        <v>1.028896353156666</v>
+        <v>1.020534330328815</v>
       </c>
       <c r="D164" t="n">
-        <v>1.145433822197657</v>
+        <v>1.068192299038523</v>
       </c>
     </row>
     <row r="165">
@@ -2751,10 +2751,10 @@
         <v>0.8486501986118257</v>
       </c>
       <c r="C165" t="n">
-        <v>1.024897353156473</v>
+        <v>1.008373426236735</v>
       </c>
       <c r="D165" t="n">
-        <v>1.142723050671203</v>
+        <v>1.058401166996017</v>
       </c>
     </row>
     <row r="166">
@@ -2765,10 +2765,10 @@
         <v>0.8486248977423191</v>
       </c>
       <c r="C166" t="n">
-        <v>1.028142320206232</v>
+        <v>1.004419558775186</v>
       </c>
       <c r="D166" t="n">
-        <v>1.145225063778465</v>
+        <v>1.05615744804384</v>
       </c>
     </row>
     <row r="167">
@@ -2779,10 +2779,10 @@
         <v>0.8614355713358016</v>
       </c>
       <c r="C167" t="n">
-        <v>1.036747283457554</v>
+        <v>1.010335824163477</v>
       </c>
       <c r="D167" t="n">
-        <v>1.151168804840194</v>
+        <v>1.060771045088398</v>
       </c>
     </row>
     <row r="168">
@@ -2793,10 +2793,10 @@
         <v>0.8380407006654129</v>
       </c>
       <c r="C168" t="n">
-        <v>1.02326804887517</v>
+        <v>1.010149035400923</v>
       </c>
       <c r="D168" t="n">
-        <v>1.141080336974163</v>
+        <v>1.061487119969234</v>
       </c>
     </row>
     <row r="169">
@@ -2807,10 +2807,10 @@
         <v>0.8616464119150228</v>
       </c>
       <c r="C169" t="n">
-        <v>1.032467990544503</v>
+        <v>1.00399963145206</v>
       </c>
       <c r="D169" t="n">
-        <v>1.148077758886105</v>
+        <v>1.056661456970325</v>
       </c>
     </row>
     <row r="170">
@@ -2821,10 +2821,10 @@
         <v>0.8594789707606285</v>
       </c>
       <c r="C170" t="n">
-        <v>1.018592467265516</v>
+        <v>1.008521621919918</v>
       </c>
       <c r="D170" t="n">
-        <v>1.111461526302686</v>
+        <v>1.060070873370207</v>
       </c>
     </row>
     <row r="171">
@@ -2835,10 +2835,10 @@
         <v>0.8494429591896975</v>
       </c>
       <c r="C171" t="n">
-        <v>1.011036420489537</v>
+        <v>1.006250275483091</v>
       </c>
       <c r="D171" t="n">
-        <v>1.10480607126716</v>
+        <v>1.058332312129636</v>
       </c>
     </row>
     <row r="172">
@@ -2849,10 +2849,10 @@
         <v>0.8538368768606681</v>
       </c>
       <c r="C172" t="n">
-        <v>1.028375979481835</v>
+        <v>1.003644333143957</v>
       </c>
       <c r="D172" t="n">
-        <v>1.14200134306941</v>
+        <v>1.056364632986947</v>
       </c>
     </row>
     <row r="173">
@@ -2863,10 +2863,10 @@
         <v>0.8437839980433994</v>
       </c>
       <c r="C173" t="n">
-        <v>1.027896956986418</v>
+        <v>1.005931423638899</v>
       </c>
       <c r="D173" t="n">
-        <v>1.14311333887166</v>
+        <v>1.057878630153804</v>
       </c>
     </row>
     <row r="174">
@@ -2877,10 +2877,10 @@
         <v>0.8542585580191105</v>
       </c>
       <c r="C174" t="n">
-        <v>1.034056828826194</v>
+        <v>1.013324371666124</v>
       </c>
       <c r="D174" t="n">
-        <v>1.145688880384957</v>
+        <v>1.063743177094536</v>
       </c>
     </row>
     <row r="175">
@@ -2891,10 +2891,10 @@
         <v>0.8335371458932472</v>
       </c>
       <c r="C175" t="n">
-        <v>1.029083425114376</v>
+        <v>1.006010914335708</v>
       </c>
       <c r="D175" t="n">
-        <v>1.147645789470028</v>
+        <v>1.058455066226557</v>
       </c>
     </row>
     <row r="176">
@@ -2905,10 +2905,10 @@
         <v>0.8295564757575502</v>
       </c>
       <c r="C176" t="n">
-        <v>1.023659579964255</v>
+        <v>0.997241088228726</v>
       </c>
       <c r="D176" t="n">
-        <v>1.144911525494277</v>
+        <v>1.051259197952427</v>
       </c>
     </row>
     <row r="177">
@@ -2919,10 +2919,10 @@
         <v>0.8456815632563905</v>
       </c>
       <c r="C177" t="n">
-        <v>1.03285496162473</v>
+        <v>1.001550635861181</v>
       </c>
       <c r="D177" t="n">
-        <v>1.153054575529637</v>
+        <v>1.054774483738065</v>
       </c>
     </row>
     <row r="178">
@@ -2933,10 +2933,10 @@
         <v>0.8458755365892742</v>
       </c>
       <c r="C178" t="n">
-        <v>1.026064654164036</v>
+        <v>1.001195337553078</v>
       </c>
       <c r="D178" t="n">
-        <v>1.147595880852926</v>
+        <v>1.054477659754687</v>
       </c>
     </row>
     <row r="179">
@@ -2947,10 +2947,10 @@
         <v>0.8406298229782497</v>
       </c>
       <c r="C179" t="n">
-        <v>1.03450553990861</v>
+        <v>0.9985020291477632</v>
       </c>
       <c r="D179" t="n">
-        <v>1.154735559376279</v>
+        <v>1.052170941205527</v>
       </c>
     </row>
     <row r="180">
@@ -2961,10 +2961,10 @@
         <v>0.8441888119555042</v>
       </c>
       <c r="C180" t="n">
-        <v>1.035944068417866</v>
+        <v>1.004320136078812</v>
       </c>
       <c r="D180" t="n">
-        <v>1.155538951291654</v>
+        <v>1.057212562331148</v>
       </c>
     </row>
     <row r="181">
@@ -2975,10 +2975,10 @@
         <v>0.8289408212662241</v>
       </c>
       <c r="C181" t="n">
-        <v>1.017315205924672</v>
+        <v>1.00728468229117</v>
       </c>
       <c r="D181" t="n">
-        <v>1.143505768589557</v>
+        <v>1.059671912227197</v>
       </c>
     </row>
     <row r="182">
@@ -2989,10 +2989,10 @@
         <v>0.8179855447698886</v>
       </c>
       <c r="C182" t="n">
-        <v>1.024000844144189</v>
+        <v>1.013002214256812</v>
       </c>
       <c r="D182" t="n">
-        <v>1.153115276720972</v>
+        <v>1.063094648348722</v>
       </c>
     </row>
     <row r="183">
@@ -3003,10 +3003,10 @@
         <v>0.82054093259005</v>
       </c>
       <c r="C183" t="n">
-        <v>1.0136947670011</v>
+        <v>1.016190377558437</v>
       </c>
       <c r="D183" t="n">
-        <v>1.130686174778545</v>
+        <v>1.065655808221565</v>
       </c>
     </row>
     <row r="184">
@@ -3017,10 +3017,10 @@
         <v>0.8073929140698135</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9978266526102023</v>
+        <v>1.017492716608439</v>
       </c>
       <c r="D184" t="n">
-        <v>1.1194988924124</v>
+        <v>1.066953192896031</v>
       </c>
     </row>
     <row r="185">
@@ -3031,10 +3031,10 @@
         <v>0.8181626508564345</v>
       </c>
       <c r="C185" t="n">
-        <v>1.003231475390499</v>
+        <v>1.029871515716501</v>
       </c>
       <c r="D185" t="n">
-        <v>1.119612147505836</v>
+        <v>1.074604379060191</v>
       </c>
     </row>
     <row r="186">
@@ -3045,10 +3045,10 @@
         <v>0.8180530137552394</v>
       </c>
       <c r="C186" t="n">
-        <v>1.006564299033657</v>
+        <v>1.021883025857461</v>
       </c>
       <c r="D186" t="n">
-        <v>1.121963186383469</v>
+        <v>1.070167595289329</v>
       </c>
     </row>
     <row r="187">
@@ -3059,10 +3059,10 @@
         <v>0.7983773709023133</v>
       </c>
       <c r="C187" t="n">
-        <v>1.01425883290863</v>
+        <v>1.017962299294703</v>
       </c>
       <c r="D187" t="n">
-        <v>1.162050340832098</v>
+        <v>1.067572171574716</v>
       </c>
     </row>
     <row r="188">
@@ -3073,10 +3073,10 @@
         <v>0.7892184561409427</v>
       </c>
       <c r="C188" t="n">
-        <v>1.022591668031578</v>
+        <v>1.011251376789145</v>
       </c>
       <c r="D188" t="n">
-        <v>1.191594281778737</v>
+        <v>1.062220733926913</v>
       </c>
     </row>
     <row r="189">
@@ -3087,10 +3087,10 @@
         <v>0.7978460526426758</v>
       </c>
       <c r="C189" t="n">
-        <v>1.023723363655183</v>
+        <v>1.011700263750239</v>
       </c>
       <c r="D189" t="n">
-        <v>1.19877419825035</v>
+        <v>1.06252177726549</v>
       </c>
     </row>
     <row r="190">
@@ -3101,10 +3101,10 @@
         <v>0.8052339065385881</v>
       </c>
       <c r="C190" t="n">
-        <v>1.031367998245239</v>
+        <v>1.021026268203434</v>
       </c>
       <c r="D190" t="n">
-        <v>1.210958139732305</v>
+        <v>1.068976407183458</v>
       </c>
     </row>
     <row r="191">
@@ -3115,10 +3115,10 @@
         <v>0.7928955158425611</v>
       </c>
       <c r="C191" t="n">
-        <v>1.029508860730411</v>
+        <v>1.013964999056826</v>
       </c>
       <c r="D191" t="n">
-        <v>1.220172035136634</v>
+        <v>1.063870644966098</v>
       </c>
     </row>
     <row r="192">
@@ -3129,10 +3129,10 @@
         <v>0.8103784166715863</v>
       </c>
       <c r="C192" t="n">
-        <v>1.037989479746849</v>
+        <v>1.012610087621995</v>
       </c>
       <c r="D192" t="n">
-        <v>1.227367180621386</v>
+        <v>1.061979939507715</v>
       </c>
     </row>
     <row r="193">
@@ -3143,10 +3143,10 @@
         <v>0.8063808792895516</v>
       </c>
       <c r="C193" t="n">
-        <v>1.036793100038421</v>
+        <v>1.013079670308259</v>
       </c>
       <c r="D193" t="n">
-        <v>1.231029542882648</v>
+        <v>1.0625989181864</v>
       </c>
     </row>
     <row r="194">
@@ -3157,10 +3157,10 @@
         <v>0.805630286827524</v>
       </c>
       <c r="C194" t="n">
-        <v>1.028205806133743</v>
+        <v>1.009732907475817</v>
       </c>
       <c r="D194" t="n">
-        <v>1.215758155056525</v>
+        <v>1.059859629018137</v>
       </c>
     </row>
     <row r="195">
@@ -3171,10 +3171,10 @@
         <v>0.8258203806937499</v>
       </c>
       <c r="C195" t="n">
-        <v>1.033529754523798</v>
+        <v>1.014272294784351</v>
       </c>
       <c r="D195" t="n">
-        <v>1.217031235860759</v>
+        <v>1.063141904729297</v>
       </c>
     </row>
     <row r="196">
@@ -3185,10 +3185,10 @@
         <v>0.8221348873689626</v>
       </c>
       <c r="C196" t="n">
-        <v>1.030958514858289</v>
+        <v>1.007972930399648</v>
       </c>
       <c r="D196" t="n">
-        <v>1.211750790293723</v>
+        <v>1.059850201468854</v>
       </c>
     </row>
     <row r="197">
@@ -3199,10 +3199,10 @@
         <v>0.8307371830011892</v>
       </c>
       <c r="C197" t="n">
-        <v>1.02635563043332</v>
+        <v>1.013687545343599</v>
       </c>
       <c r="D197" t="n">
-        <v>1.216448301676911</v>
+        <v>1.063802604411633</v>
       </c>
     </row>
     <row r="198">
@@ -3213,10 +3213,10 @@
         <v>0.8377455238545032</v>
       </c>
       <c r="C198" t="n">
-        <v>1.030664650193732</v>
+        <v>1.022571273965939</v>
       </c>
       <c r="D198" t="n">
-        <v>1.222291104213816</v>
+        <v>1.070345884530986</v>
       </c>
     </row>
     <row r="199">
@@ -3227,10 +3227,10 @@
         <v>0.8353841093672253</v>
       </c>
       <c r="C199" t="n">
-        <v>1.01519112308749</v>
+        <v>1.021086715957635</v>
       </c>
       <c r="D199" t="n">
-        <v>1.184274492366169</v>
+        <v>1.069332331301093</v>
       </c>
     </row>
     <row r="200">
@@ -3241,10 +3241,10 @@
         <v>0.8291010601064324</v>
       </c>
       <c r="C200" t="n">
-        <v>1.018175429806454</v>
+        <v>1.023562629860493</v>
       </c>
       <c r="D200" t="n">
-        <v>1.194024459990273</v>
+        <v>1.071202419822188</v>
       </c>
     </row>
     <row r="201">
@@ -3255,10 +3255,10 @@
         <v>0.8320443945923608</v>
       </c>
       <c r="C201" t="n">
-        <v>1.033435556253545</v>
+        <v>1.020084185809216</v>
       </c>
       <c r="D201" t="n">
-        <v>1.218906980543371</v>
+        <v>1.068268116647341</v>
       </c>
     </row>
     <row r="202">
@@ -3269,10 +3269,10 @@
         <v>0.8479164733961357</v>
       </c>
       <c r="C202" t="n">
-        <v>1.026631920741898</v>
+        <v>1.031093099830563</v>
       </c>
       <c r="D202" t="n">
-        <v>1.184465594955599</v>
+        <v>1.075952417868149</v>
       </c>
     </row>
     <row r="203">
@@ -3283,10 +3283,10 @@
         <v>0.848017676874162</v>
       </c>
       <c r="C203" t="n">
-        <v>1.035695855370207</v>
+        <v>1.031174243309932</v>
       </c>
       <c r="D203" t="n">
-        <v>1.218311167932461</v>
+        <v>1.076626277325892</v>
       </c>
     </row>
     <row r="204">
@@ -3297,10 +3297,10 @@
         <v>0.8595380061228104</v>
       </c>
       <c r="C204" t="n">
-        <v>1.035646323802301</v>
+        <v>1.034384373256485</v>
       </c>
       <c r="D204" t="n">
-        <v>1.217150543552739</v>
+        <v>1.078628053073749</v>
       </c>
     </row>
     <row r="205">
@@ -3311,10 +3311,10 @@
         <v>0.8539886820777074</v>
       </c>
       <c r="C205" t="n">
-        <v>1.021204762932308</v>
+        <v>1.040321334369945</v>
       </c>
       <c r="D205" t="n">
-        <v>1.181122001923847</v>
+        <v>1.083559585458415</v>
       </c>
     </row>
     <row r="206">
@@ -3325,10 +3325,10 @@
         <v>0.851939311647677</v>
       </c>
       <c r="C206" t="n">
-        <v>1.042846917696128</v>
+        <v>1.044104157127056</v>
       </c>
       <c r="D206" t="n">
-        <v>1.206558823123965</v>
+        <v>1.086294815217715</v>
       </c>
     </row>
     <row r="207">
@@ -3339,10 +3339,10 @@
         <v>0.8400394693564303</v>
       </c>
       <c r="C207" t="n">
-        <v>1.035775385201102</v>
+        <v>1.058226695420273</v>
       </c>
       <c r="D207" t="n">
-        <v>1.218256338241531</v>
+        <v>1.096506339652434</v>
       </c>
     </row>
     <row r="208">
@@ -3353,10 +3353,10 @@
         <v>0.8043062079900146</v>
       </c>
       <c r="C208" t="n">
-        <v>1.033755596774287</v>
+        <v>1.049962898463466</v>
       </c>
       <c r="D208" t="n">
-        <v>1.207930794234906</v>
+        <v>1.089772592064534</v>
       </c>
     </row>
     <row r="209">
@@ -3367,10 +3367,10 @@
         <v>0.8145361928938292</v>
       </c>
       <c r="C209" t="n">
-        <v>1.028039761283529</v>
+        <v>1.049868045571343</v>
       </c>
       <c r="D209" t="n">
-        <v>1.20886179048441</v>
+        <v>1.090395462915579</v>
       </c>
     </row>
     <row r="210">
@@ -3381,10 +3381,10 @@
         <v>0.7923557639597547</v>
       </c>
       <c r="C210" t="n">
-        <v>1.024372429106971</v>
+        <v>1.044442065275111</v>
       </c>
       <c r="D210" t="n">
-        <v>1.206213130665112</v>
+        <v>1.086468550630966</v>
       </c>
     </row>
     <row r="211">
@@ -3395,10 +3395,10 @@
         <v>0.8061447378408237</v>
       </c>
       <c r="C211" t="n">
-        <v>1.03351207580333</v>
+        <v>1.071407533182074</v>
       </c>
       <c r="D211" t="n">
-        <v>1.216124230228511</v>
+        <v>1.10698431640112</v>
       </c>
     </row>
     <row r="212">
@@ -3409,10 +3409,10 @@
         <v>0.8249011157683452</v>
       </c>
       <c r="C212" t="n">
-        <v>1.050913560965013</v>
+        <v>1.09668222283214</v>
       </c>
       <c r="D212" t="n">
-        <v>1.230696992862498</v>
+        <v>1.126257578275866</v>
       </c>
     </row>
     <row r="213">
@@ -3423,10 +3423,10 @@
         <v>0.8498899412176465</v>
       </c>
       <c r="C213" t="n">
-        <v>1.068712840913421</v>
+        <v>1.113189121020586</v>
       </c>
       <c r="D213" t="n">
-        <v>1.246098331477905</v>
+        <v>1.139407138111556</v>
       </c>
     </row>
     <row r="214">
@@ -3437,10 +3437,10 @@
         <v>0.8501007817968678</v>
       </c>
       <c r="C214" t="n">
-        <v>1.07306159150761</v>
+        <v>1.130158997445682</v>
       </c>
       <c r="D214" t="n">
-        <v>1.24898127467902</v>
+        <v>1.152535753827119</v>
       </c>
     </row>
     <row r="215">
@@ -3451,10 +3451,10 @@
         <v>0.8763630843446654</v>
       </c>
       <c r="C215" t="n">
-        <v>1.079066311224728</v>
+        <v>1.139196373931785</v>
       </c>
       <c r="D215" t="n">
-        <v>1.262759966587423</v>
+        <v>1.158714663828072</v>
       </c>
     </row>
     <row r="216">
@@ -3465,10 +3465,10 @@
         <v>0.888490634461471</v>
       </c>
       <c r="C216" t="n">
-        <v>1.072316009905286</v>
+        <v>1.147896230813263</v>
       </c>
       <c r="D216" t="n">
-        <v>1.274177475656477</v>
+        <v>1.165444352007008</v>
       </c>
     </row>
     <row r="217">
@@ -3479,10 +3479,10 @@
         <v>0.8815834970861832</v>
       </c>
       <c r="C217" t="n">
-        <v>1.058308220274073</v>
+        <v>1.139334277737432</v>
       </c>
       <c r="D217" t="n">
-        <v>1.265070308128389</v>
+        <v>1.158574857783385</v>
       </c>
     </row>
     <row r="218">
@@ -3493,10 +3493,10 @@
         <v>0.8617054472772048</v>
       </c>
       <c r="C218" t="n">
-        <v>1.049526216868304</v>
+        <v>1.13984525855466</v>
       </c>
       <c r="D218" t="n">
-        <v>1.256947184880501</v>
+        <v>1.159579477883437</v>
       </c>
     </row>
     <row r="219">
@@ -3507,10 +3507,10 @@
         <v>0.8814148246228062</v>
       </c>
       <c r="C219" t="n">
-        <v>1.062365668487965</v>
+        <v>1.14806270571345</v>
       </c>
       <c r="D219" t="n">
-        <v>1.272679459322976</v>
+        <v>1.165385084636148</v>
       </c>
     </row>
     <row r="220">
@@ -3521,10 +3521,10 @@
         <v>0.8975905138606597</v>
       </c>
       <c r="C220" t="n">
-        <v>1.069851565883142</v>
+        <v>1.15588053941148</v>
       </c>
       <c r="D220" t="n">
-        <v>1.283144742810933</v>
+        <v>1.171037892805367</v>
       </c>
     </row>
     <row r="221">
@@ -3535,10 +3535,10 @@
         <v>0.9043289787725705</v>
       </c>
       <c r="C221" t="n">
-        <v>1.076795911512243</v>
+        <v>1.15117963555044</v>
       </c>
       <c r="D221" t="n">
-        <v>1.292676236150838</v>
+        <v>1.16810715462004</v>
       </c>
     </row>
     <row r="222">
@@ -3549,10 +3549,10 @@
         <v>0.8980374958886087</v>
       </c>
       <c r="C222" t="n">
-        <v>1.070132413355964</v>
+        <v>1.145247626104033</v>
       </c>
       <c r="D222" t="n">
-        <v>1.286652678561641</v>
+        <v>1.163718121649196</v>
       </c>
     </row>
     <row r="223">
@@ -3563,10 +3563,10 @@
         <v>0.8983242390763496</v>
       </c>
       <c r="C223" t="n">
-        <v>1.072838651202972</v>
+        <v>1.150864082590741</v>
       </c>
       <c r="D223" t="n">
-        <v>1.287409176887308</v>
+        <v>1.168098548673038</v>
       </c>
     </row>
     <row r="224">
@@ -3577,10 +3577,10 @@
         <v>0.9055940222478979</v>
       </c>
       <c r="C224" t="n">
-        <v>1.062699354143458</v>
+        <v>1.15132249102314</v>
       </c>
       <c r="D224" t="n">
-        <v>1.283976744928369</v>
+        <v>1.168509847989174</v>
       </c>
     </row>
     <row r="225">
@@ -3591,10 +3591,10 @@
         <v>0.9258937532153189</v>
       </c>
       <c r="C225" t="n">
-        <v>1.063875108686404</v>
+        <v>1.155581119053326</v>
       </c>
       <c r="D225" t="n">
-        <v>1.286352671214202</v>
+        <v>1.171529236375887</v>
       </c>
     </row>
     <row r="226">
@@ -3605,10 +3605,10 @@
         <v>0.9288202204549096</v>
       </c>
       <c r="C226" t="n">
-        <v>1.075807596275909</v>
+        <v>1.167298094531991</v>
       </c>
       <c r="D226" t="n">
-        <v>1.296465217147799</v>
+        <v>1.181311595234788</v>
       </c>
     </row>
     <row r="227">
@@ -3619,10 +3619,10 @@
         <v>0.9296129810327814</v>
       </c>
       <c r="C227" t="n">
-        <v>1.082035092107944</v>
+        <v>1.169183918783615</v>
       </c>
       <c r="D227" t="n">
-        <v>1.305517108425787</v>
+        <v>1.182575370433164</v>
       </c>
     </row>
     <row r="228">
@@ -3633,10 +3633,10 @@
         <v>0.9325478818955412</v>
       </c>
       <c r="C228" t="n">
-        <v>1.084132143611897</v>
+        <v>1.173098422759562</v>
       </c>
       <c r="D228" t="n">
-        <v>1.306711843407103</v>
+        <v>1.185505614199048</v>
       </c>
     </row>
     <row r="229">
@@ -3647,10 +3647,10 @@
         <v>0.9183203596096919</v>
       </c>
       <c r="C229" t="n">
-        <v>1.08041882540523</v>
+        <v>1.172714553356919</v>
       </c>
       <c r="D229" t="n">
-        <v>1.302164337383469</v>
+        <v>1.185128251541843</v>
       </c>
     </row>
     <row r="230">
@@ -3661,10 +3661,10 @@
         <v>0.9389574355038668</v>
       </c>
       <c r="C230" t="n">
-        <v>1.088420733832948</v>
+        <v>1.168530464356488</v>
       </c>
       <c r="D230" t="n">
-        <v>1.318193591840712</v>
+        <v>1.182142799814062</v>
       </c>
     </row>
     <row r="231">
@@ -3675,10 +3675,10 @@
         <v>0.9429971410017458</v>
       </c>
       <c r="C231" t="n">
-        <v>1.090542583631516</v>
+        <v>1.157543516980068</v>
       </c>
       <c r="D231" t="n">
-        <v>1.324202269776135</v>
+        <v>1.173899114468268</v>
       </c>
     </row>
     <row r="232">
@@ -3689,10 +3689,10 @@
         <v>0.9523162946033246</v>
       </c>
       <c r="C232" t="n">
-        <v>1.11682890309592</v>
+        <v>1.171785291318498</v>
       </c>
       <c r="D232" t="n">
-        <v>1.372117785430622</v>
+        <v>1.184975293012116</v>
       </c>
     </row>
     <row r="233">
@@ -3703,10 +3703,10 @@
         <v>0.9587511490811568</v>
       </c>
       <c r="C233" t="n">
-        <v>1.12900965350737</v>
+        <v>1.174634670776367</v>
       </c>
       <c r="D233" t="n">
-        <v>1.418468509488285</v>
+        <v>1.188714321269186</v>
       </c>
     </row>
     <row r="234">
@@ -3717,10 +3717,10 @@
         <v>0.9582704325605323</v>
       </c>
       <c r="C234" t="n">
-        <v>1.130943354168514</v>
+        <v>1.197112941896822</v>
       </c>
       <c r="D234" t="n">
-        <v>1.421459077714695</v>
+        <v>1.205566389262013</v>
       </c>
     </row>
     <row r="235">
@@ -3731,10 +3731,10 @@
         <v>0.9578150169094145</v>
       </c>
       <c r="C235" t="n">
-        <v>1.132869071994344</v>
+        <v>1.194040715755917</v>
       </c>
       <c r="D235" t="n">
-        <v>1.434664075138142</v>
+        <v>1.203424807469468</v>
       </c>
     </row>
     <row r="236">
@@ -3745,10 +3745,10 @@
         <v>0.9506548708390612</v>
       </c>
       <c r="C236" t="n">
-        <v>1.124730923296234</v>
+        <v>1.196854531126204</v>
       </c>
       <c r="D236" t="n">
-        <v>1.427338223320794</v>
+        <v>1.205718860662664</v>
       </c>
     </row>
     <row r="237">
@@ -3759,10 +3759,10 @@
         <v>0.9697991954323497</v>
       </c>
       <c r="C237" t="n">
-        <v>1.140964200428229</v>
+        <v>1.206185493927079</v>
       </c>
       <c r="D237" t="n">
-        <v>1.445235880656119</v>
+        <v>1.212465760735604</v>
       </c>
     </row>
     <row r="238">
@@ -3773,10 +3773,10 @@
         <v>0.9725907247012389</v>
       </c>
       <c r="C238" t="n">
-        <v>1.162869892644257</v>
+        <v>1.225098336792878</v>
       </c>
       <c r="D238" t="n">
-        <v>1.472402960196193</v>
+        <v>1.227019228997196</v>
       </c>
     </row>
     <row r="239">
@@ -3787,10 +3787,10 @@
         <v>0.9696558238384793</v>
       </c>
       <c r="C239" t="n">
-        <v>1.166011482318297</v>
+        <v>1.265568821155061</v>
       </c>
       <c r="D239" t="n">
-        <v>1.482078744557089</v>
+        <v>1.260234125014624</v>
       </c>
     </row>
     <row r="240">
@@ -3801,10 +3801,10 @@
         <v>0.9795315965692021</v>
       </c>
       <c r="C240" t="n">
-        <v>1.171763848753157</v>
+        <v>1.263820900709085</v>
       </c>
       <c r="D240" t="n">
-        <v>1.480559695186146</v>
+        <v>1.258830543771561</v>
       </c>
     </row>
     <row r="241">
@@ -3815,10 +3815,10 @@
         <v>0.9947205518963002</v>
       </c>
       <c r="C241" t="n">
-        <v>1.176248725414494</v>
+        <v>1.26599865849292</v>
       </c>
       <c r="D241" t="n">
-        <v>1.485134139114761</v>
+        <v>1.260564885656932</v>
       </c>
     </row>
     <row r="242">
@@ -3829,10 +3829,10 @@
         <v>0.9964916127617586</v>
       </c>
       <c r="C242" t="n">
-        <v>1.180412562411486</v>
+        <v>1.265768818816841</v>
       </c>
       <c r="D242" t="n">
-        <v>1.485915994793205</v>
+        <v>1.260797895731411</v>
       </c>
     </row>
     <row r="243">
@@ -3843,10 +3843,10 @@
         <v>0.9924603408870485</v>
       </c>
       <c r="C243" t="n">
-        <v>1.183366464677206</v>
+        <v>1.260988806121794</v>
       </c>
       <c r="D243" t="n">
-        <v>1.490659804137502</v>
+        <v>1.258265464323415</v>
       </c>
     </row>
     <row r="244">
@@ -3857,10 +3857,10 @@
         <v>0.9784352255572516</v>
       </c>
       <c r="C244" t="n">
-        <v>1.169227838343431</v>
+        <v>1.25379536192345</v>
       </c>
       <c r="D244" t="n">
-        <v>1.472559756315299</v>
+        <v>1.255291034747034</v>
       </c>
     </row>
     <row r="245">
@@ -3871,10 +3871,10 @@
         <v>0.9812351884493097</v>
       </c>
       <c r="C245" t="n">
-        <v>1.153428596393286</v>
+        <v>1.253721981843354</v>
       </c>
       <c r="D245" t="n">
-        <v>1.440723367272774</v>
+        <v>1.257680868120657</v>
       </c>
     </row>
     <row r="246">
@@ -3885,10 +3885,10 @@
         <v>0.9939615258111038</v>
       </c>
       <c r="C246" t="n">
-        <v>1.162477134657588</v>
+        <v>1.256187880442009</v>
       </c>
       <c r="D246" t="n">
-        <v>1.453390993047242</v>
+        <v>1.261767047311756</v>
       </c>
     </row>
     <row r="247">
@@ -3899,10 +3899,10 @@
         <v>1.00403127187471</v>
       </c>
       <c r="C247" t="n">
-        <v>1.187703443074839</v>
+        <v>1.260475079566736</v>
       </c>
       <c r="D247" t="n">
-        <v>1.473286362203761</v>
+        <v>1.264866974372296</v>
       </c>
     </row>
     <row r="248">
@@ -3913,10 +3913,10 @@
         <v>1.007607128098302</v>
       </c>
       <c r="C248" t="n">
-        <v>1.213044149652781</v>
+        <v>1.273379615884343</v>
       </c>
       <c r="D248" t="n">
-        <v>1.515473786642165</v>
+        <v>1.27795090985792</v>
       </c>
     </row>
     <row r="249">
@@ -3927,10 +3927,10 @@
         <v>1.006181845782767</v>
       </c>
       <c r="C249" t="n">
-        <v>1.246152254438833</v>
+        <v>1.256606820099336</v>
       </c>
       <c r="D249" t="n">
-        <v>1.582639482469492</v>
+        <v>1.265915731680398</v>
       </c>
     </row>
     <row r="250">
@@ -3941,10 +3941,10 @@
         <v>0.9998734956524673</v>
       </c>
       <c r="C250" t="n">
-        <v>1.243812112727872</v>
+        <v>1.25543616226817</v>
       </c>
       <c r="D250" t="n">
-        <v>1.595541109485294</v>
+        <v>1.264813361012516</v>
       </c>
     </row>
     <row r="251">
@@ -3955,10 +3955,10 @@
         <v>1.005481855059752</v>
       </c>
       <c r="C251" t="n">
-        <v>1.241876731080454</v>
+        <v>1.237722166465274</v>
       </c>
       <c r="D251" t="n">
-        <v>1.587455356972147</v>
+        <v>1.250468059242548</v>
       </c>
     </row>
     <row r="252">
@@ -3969,10 +3969,10 @@
         <v>1.01077817040979</v>
       </c>
       <c r="C252" t="n">
-        <v>1.215261578938666</v>
+        <v>1.244139884518862</v>
       </c>
       <c r="D252" t="n">
-        <v>1.544259698190829</v>
+        <v>1.256226249668448</v>
       </c>
     </row>
     <row r="253">
@@ -3983,10 +3983,10 @@
         <v>1.028530947180218</v>
       </c>
       <c r="C253" t="n">
-        <v>1.215443150103695</v>
+        <v>1.232837384182743</v>
       </c>
       <c r="D253" t="n">
-        <v>1.556123039634881</v>
+        <v>1.247973958375653</v>
       </c>
     </row>
     <row r="254">
@@ -3997,10 +3997,10 @@
         <v>1.054852285090198</v>
       </c>
       <c r="C254" t="n">
-        <v>1.22616885197088</v>
+        <v>1.262103928570733</v>
       </c>
       <c r="D254" t="n">
-        <v>1.566804074865839</v>
+        <v>1.272732594092759</v>
       </c>
     </row>
     <row r="255">
@@ -4011,10 +4011,10 @@
         <v>1.035707960496909</v>
       </c>
       <c r="C255" t="n">
-        <v>1.213623774009168</v>
+        <v>1.255345767210201</v>
       </c>
       <c r="D255" t="n">
-        <v>1.552300499214949</v>
+        <v>1.268305077924945</v>
       </c>
     </row>
     <row r="256">
@@ -4025,10 +4025,10 @@
         <v>1.045752405691009</v>
       </c>
       <c r="C256" t="n">
-        <v>1.203899927618263</v>
+        <v>1.271882507412945</v>
       </c>
       <c r="D256" t="n">
-        <v>1.542989208559279</v>
+        <v>1.280657856969369</v>
       </c>
     </row>
     <row r="257">
@@ -4039,10 +4039,10 @@
         <v>1.029239371526401</v>
       </c>
       <c r="C257" t="n">
-        <v>1.219018913266635</v>
+        <v>1.275275238180602</v>
       </c>
       <c r="D257" t="n">
-        <v>1.548167465494615</v>
+        <v>1.283350544122735</v>
       </c>
     </row>
     <row r="258">
@@ -4053,10 +4053,10 @@
         <v>1.041392222512714</v>
       </c>
       <c r="C258" t="n">
-        <v>1.232655322950499</v>
+        <v>1.273172019426522</v>
       </c>
       <c r="D258" t="n">
-        <v>1.571028683435062</v>
+        <v>1.281650138896295</v>
       </c>
     </row>
     <row r="259">
@@ -4067,10 +4067,10 @@
         <v>1.016268459092711</v>
       </c>
       <c r="C259" t="n">
-        <v>1.231291984764552</v>
+        <v>1.272158696887042</v>
       </c>
       <c r="D259" t="n">
-        <v>1.570218075125092</v>
+        <v>1.281352987730078</v>
       </c>
     </row>
     <row r="260">
@@ -4081,10 +4081,10 @@
         <v>1.022509340237659</v>
       </c>
       <c r="C260" t="n">
-        <v>1.215613316049299</v>
+        <v>1.265949233727407</v>
       </c>
       <c r="D260" t="n">
-        <v>1.567443436157971</v>
+        <v>1.276895914204768</v>
       </c>
     </row>
     <row r="261">
@@ -4095,10 +4095,10 @@
         <v>1.017710608654584</v>
       </c>
       <c r="C261" t="n">
-        <v>1.217473244943552</v>
+        <v>1.272754403322091</v>
       </c>
       <c r="D261" t="n">
-        <v>1.559516111812467</v>
+        <v>1.287251917146736</v>
       </c>
     </row>
     <row r="262">
@@ -4109,10 +4109,10 @@
         <v>1.009572162296644</v>
       </c>
       <c r="C262" t="n">
-        <v>1.199833080424146</v>
+        <v>1.255380343631984</v>
       </c>
       <c r="D262" t="n">
-        <v>1.546926587307181</v>
+        <v>1.274402746283944</v>
       </c>
     </row>
     <row r="263">
@@ -4123,10 +4123,10 @@
         <v>0.9989036289880495</v>
       </c>
       <c r="C263" t="n">
-        <v>1.20037670866322</v>
+        <v>1.252303053853929</v>
       </c>
       <c r="D263" t="n">
-        <v>1.535456888683809</v>
+        <v>1.275019754575225</v>
       </c>
     </row>
     <row r="264">
@@ -4137,10 +4137,10 @@
         <v>0.9881844939404417</v>
       </c>
       <c r="C264" t="n">
-        <v>1.200616108819538</v>
+        <v>1.24936250893186</v>
       </c>
       <c r="D264" t="n">
-        <v>1.538478444432994</v>
+        <v>1.273073186789266</v>
       </c>
     </row>
     <row r="265">
@@ -4151,10 +4151,10 @@
         <v>0.9822134887368963</v>
       </c>
       <c r="C265" t="n">
-        <v>1.189815159410288</v>
+        <v>1.255682457071635</v>
       </c>
       <c r="D265" t="n">
-        <v>1.523052048805008</v>
+        <v>1.279983914887464</v>
       </c>
     </row>
     <row r="266">
@@ -4165,10 +4165,10 @@
         <v>0.9773051200526258</v>
       </c>
       <c r="C266" t="n">
-        <v>1.200589234169662</v>
+        <v>1.251860277509548</v>
       </c>
       <c r="D266" t="n">
-        <v>1.528677849783596</v>
+        <v>1.277684980683023</v>
       </c>
     </row>
     <row r="267">
@@ -4179,10 +4179,10 @@
         <v>1.006249314768118</v>
       </c>
       <c r="C267" t="n">
-        <v>1.212096301756667</v>
+        <v>1.257648930969728</v>
       </c>
       <c r="D267" t="n">
-        <v>1.542347420873305</v>
+        <v>1.284247896191145</v>
       </c>
     </row>
     <row r="268">
@@ -4193,10 +4193,10 @@
         <v>0.978359322948732</v>
       </c>
       <c r="C268" t="n">
-        <v>1.209988041891382</v>
+        <v>1.242374784468581</v>
       </c>
       <c r="D268" t="n">
-        <v>1.539780969694964</v>
+        <v>1.272904283784812</v>
       </c>
     </row>
     <row r="269">
@@ -4207,10 +4207,10 @@
         <v>0.9898121832120297</v>
       </c>
       <c r="C269" t="n">
-        <v>1.208261712990104</v>
+        <v>1.247865782323264</v>
       </c>
       <c r="D269" t="n">
-        <v>1.539510833382962</v>
+        <v>1.276754876750798</v>
       </c>
     </row>
     <row r="270">
@@ -4221,10 +4221,10 @@
         <v>0.99714100174576</v>
       </c>
       <c r="C270" t="n">
-        <v>1.205345943137769</v>
+        <v>1.236602645472748</v>
       </c>
       <c r="D270" t="n">
-        <v>1.528625233646642</v>
+        <v>1.267816060644295</v>
       </c>
     </row>
     <row r="271">
@@ -4235,10 +4235,10 @@
         <v>1.009715533890515</v>
       </c>
       <c r="C271" t="n">
-        <v>1.210744030362972</v>
+        <v>1.248127491978376</v>
       </c>
       <c r="D271" t="n">
-        <v>1.536285699816545</v>
+        <v>1.277047481378977</v>
       </c>
     </row>
     <row r="272">
@@ -4249,10 +4249,10 @@
         <v>1.005802332740169</v>
       </c>
       <c r="C272" t="n">
-        <v>1.204740390654233</v>
+        <v>1.23205169536692</v>
       </c>
       <c r="D272" t="n">
-        <v>1.525879333296306</v>
+        <v>1.263601591979351</v>
       </c>
     </row>
     <row r="273">
@@ -4263,10 +4263,10 @@
         <v>1.011402258524285</v>
       </c>
       <c r="C273" t="n">
-        <v>1.203525714037575</v>
+        <v>1.22605759206438</v>
       </c>
       <c r="D273" t="n">
-        <v>1.527836157622036</v>
+        <v>1.258508982247032</v>
       </c>
     </row>
     <row r="274">
@@ -4277,10 +4277,10 @@
         <v>1.007952906648225</v>
       </c>
       <c r="C274" t="n">
-        <v>1.201063388570607</v>
+        <v>1.223862437439869</v>
       </c>
       <c r="D274" t="n">
-        <v>1.526279904950232</v>
+        <v>1.256901781050383</v>
       </c>
     </row>
     <row r="275">
@@ -4291,10 +4291,10 @@
         <v>1.007219181432535</v>
       </c>
       <c r="C275" t="n">
-        <v>1.210096277857709</v>
+        <v>1.21985599759349</v>
       </c>
       <c r="D275" t="n">
-        <v>1.527046372065282</v>
+        <v>1.25406474131429</v>
       </c>
     </row>
     <row r="276">
@@ -4305,10 +4305,10 @@
         <v>0.9987939918868545</v>
       </c>
       <c r="C276" t="n">
-        <v>1.204390712393808</v>
+        <v>1.214279286455186</v>
       </c>
       <c r="D276" t="n">
-        <v>1.523846941331836</v>
+        <v>1.249972532326824</v>
       </c>
     </row>
     <row r="277">
@@ -4319,10 +4319,10 @@
         <v>1.005583058537779</v>
       </c>
       <c r="C277" t="n">
-        <v>1.208758751482916</v>
+        <v>1.212553714516938</v>
       </c>
       <c r="D277" t="n">
-        <v>1.5287805938969</v>
+        <v>1.24898430980886</v>
       </c>
     </row>
     <row r="278">
@@ -4333,10 +4333,10 @@
         <v>1.004579457380685</v>
       </c>
       <c r="C278" t="n">
-        <v>1.210949955204221</v>
+        <v>1.211058752661001</v>
       </c>
       <c r="D278" t="n">
-        <v>1.530067985088101</v>
+        <v>1.249462333657736</v>
       </c>
     </row>
     <row r="279">
@@ -4347,10 +4347,10 @@
         <v>1.015332326920968</v>
       </c>
       <c r="C279" t="n">
-        <v>1.201163598292205</v>
+        <v>1.200352564562928</v>
       </c>
       <c r="D279" t="n">
-        <v>1.520587231612154</v>
+        <v>1.24148153563639</v>
       </c>
     </row>
     <row r="280">
@@ -4361,10 +4361,10 @@
         <v>1.004781864336738</v>
       </c>
       <c r="C280" t="n">
-        <v>1.190318873762287</v>
+        <v>1.203808660106476</v>
       </c>
       <c r="D280" t="n">
-        <v>1.514433434695416</v>
+        <v>1.244000480086138</v>
       </c>
     </row>
     <row r="281">
@@ -4375,10 +4375,10 @@
         <v>1.001475884054549</v>
       </c>
       <c r="C281" t="n">
-        <v>1.188228521541013</v>
+        <v>1.203175519541716</v>
       </c>
       <c r="D281" t="n">
-        <v>1.51331413341099</v>
+        <v>1.24291110195706</v>
       </c>
     </row>
     <row r="282">
@@ -4389,10 +4389,10 @@
         <v>0.9501994551879432</v>
       </c>
       <c r="C282" t="n">
-        <v>1.170609118120229</v>
+        <v>1.184165782457804</v>
       </c>
       <c r="D282" t="n">
-        <v>1.498577423006258</v>
+        <v>1.228158567570288</v>
       </c>
     </row>
     <row r="283">
@@ -4403,10 +4403,10 @@
         <v>0.9717810968770293</v>
       </c>
       <c r="C283" t="n">
-        <v>1.162757504242642</v>
+        <v>1.227701901872533</v>
       </c>
       <c r="D283" t="n">
-        <v>1.48611948203301</v>
+        <v>1.262374664063749</v>
       </c>
     </row>
     <row r="284">
@@ -4417,10 +4417,10 @@
         <v>0.975500324694492</v>
       </c>
       <c r="C284" t="n">
-        <v>1.163438684647003</v>
+        <v>1.267090365389488</v>
       </c>
       <c r="D284" t="n">
-        <v>1.49146433328782</v>
+        <v>1.293948909354672</v>
       </c>
     </row>
     <row r="285">
@@ -4431,10 +4431,10 @@
         <v>0.9467248024423772</v>
       </c>
       <c r="C285" t="n">
-        <v>1.147781955354413</v>
+        <v>1.253467251796833</v>
       </c>
       <c r="D285" t="n">
-        <v>1.478482640993593</v>
+        <v>1.283559582807371</v>
       </c>
     </row>
     <row r="286">
@@ -4445,10 +4445,10 @@
         <v>0.9279937253843624</v>
       </c>
       <c r="C286" t="n">
-        <v>1.128333227918429</v>
+        <v>1.213371872410967</v>
       </c>
       <c r="D286" t="n">
-        <v>1.447489119935141</v>
+        <v>1.252811508428607</v>
       </c>
     </row>
     <row r="287">
@@ -4459,10 +4459,10 @@
         <v>0.9305238123350172</v>
       </c>
       <c r="C287" t="n">
-        <v>1.122605796877385</v>
+        <v>1.192882153803629</v>
       </c>
       <c r="D287" t="n">
-        <v>1.447850279237917</v>
+        <v>1.236362948116829</v>
       </c>
     </row>
     <row r="288">
@@ -4473,10 +4473,10 @@
         <v>0.940686328253481</v>
       </c>
       <c r="C288" t="n">
-        <v>1.115375105806368</v>
+        <v>1.185341398636651</v>
       </c>
       <c r="D288" t="n">
-        <v>1.441821555215741</v>
+        <v>1.229553208393142</v>
       </c>
     </row>
     <row r="289">
@@ -4487,10 +4487,10 @@
         <v>0.9376839584053706</v>
       </c>
       <c r="C289" t="n">
-        <v>1.108292552688144</v>
+        <v>1.194355556857659</v>
       </c>
       <c r="D289" t="n">
-        <v>1.432813303339632</v>
+        <v>1.176128477141148</v>
       </c>
     </row>
     <row r="290">
@@ -4501,10 +4501,10 @@
         <v>0.9503849948976579</v>
       </c>
       <c r="C290" t="n">
-        <v>1.124019496562694</v>
+        <v>1.182200500170217</v>
       </c>
       <c r="D290" t="n">
-        <v>1.451886101408993</v>
+        <v>1.164777552938437</v>
       </c>
     </row>
     <row r="291">
@@ -4515,10 +4515,10 @@
         <v>0.9715702562978081</v>
       </c>
       <c r="C291" t="n">
-        <v>1.129049546562473</v>
+        <v>1.17673477452558</v>
       </c>
       <c r="D291" t="n">
-        <v>1.459722580982695</v>
+        <v>1.160562422617447</v>
       </c>
     </row>
     <row r="292">
@@ -4529,10 +4529,10 @@
         <v>0.9328599259527885</v>
       </c>
       <c r="C292" t="n">
-        <v>1.113779911094949</v>
+        <v>1.157511330367135</v>
       </c>
       <c r="D292" t="n">
-        <v>1.443447612298571</v>
+        <v>1.146542847822674</v>
       </c>
     </row>
     <row r="293">
@@ -4543,10 +4543,10 @@
         <v>0.9389237010111914</v>
       </c>
       <c r="C293" t="n">
-        <v>1.111661204368379</v>
+        <v>1.175277134829256</v>
       </c>
       <c r="D293" t="n">
-        <v>1.442238124116637</v>
+        <v>1.15953198467639</v>
       </c>
     </row>
     <row r="294">
@@ -4557,10 +4557,10 @@
         <v>0.951110286490179</v>
       </c>
       <c r="C294" t="n">
-        <v>1.118586507084957</v>
+        <v>1.166703618956132</v>
       </c>
       <c r="D294" t="n">
-        <v>1.450768616590988</v>
+        <v>1.151730297498982</v>
       </c>
     </row>
     <row r="295">
@@ -4571,10 +4571,10 @@
         <v>0.9697317264469989</v>
       </c>
       <c r="C295" t="n">
-        <v>1.111705567948007</v>
+        <v>1.163918374680385</v>
       </c>
       <c r="D295" t="n">
-        <v>1.444964700194556</v>
+        <v>1.149516782979613</v>
       </c>
     </row>
     <row r="296">
@@ -4585,10 +4585,10 @@
         <v>0.9627824209558669</v>
       </c>
       <c r="C296" t="n">
-        <v>1.109311692832472</v>
+        <v>1.16762043582093</v>
       </c>
       <c r="D296" t="n">
-        <v>1.442291348165673</v>
+        <v>1.152552896131254</v>
       </c>
     </row>
     <row r="297">
@@ -4599,10 +4599,10 @@
         <v>0.9686100545655419</v>
       </c>
       <c r="C297" t="n">
-        <v>1.149762028470851</v>
+        <v>1.182923541960046</v>
       </c>
       <c r="D297" t="n">
-        <v>1.497405680994942</v>
+        <v>1.164701560802649</v>
       </c>
     </row>
     <row r="298">
@@ -4613,10 +4613,10 @@
         <v>0.9615932800890591</v>
       </c>
       <c r="C298" t="n">
-        <v>1.160656224329195</v>
+        <v>1.196129645251266</v>
       </c>
       <c r="D298" t="n">
-        <v>1.516347749706023</v>
+        <v>1.175065229455181</v>
       </c>
     </row>
     <row r="299">
@@ -4627,10 +4627,10 @@
         <v>0.9829303467062485</v>
       </c>
       <c r="C299" t="n">
-        <v>1.17512759266995</v>
+        <v>1.19207305620885</v>
       </c>
       <c r="D299" t="n">
-        <v>1.529670212689685</v>
+        <v>1.173431548761481</v>
       </c>
     </row>
     <row r="300">
@@ -4641,10 +4641,10 @@
         <v>0.9684751165948403</v>
       </c>
       <c r="C300" t="n">
-        <v>1.1762931742837</v>
+        <v>1.18907702188026</v>
       </c>
       <c r="D300" t="n">
-        <v>1.53497219561139</v>
+        <v>1.171421327012858</v>
       </c>
     </row>
     <row r="301">
@@ -4655,10 +4655,10 @@
         <v>0.9801725519300346</v>
       </c>
       <c r="C301" t="n">
-        <v>1.205706079544865</v>
+        <v>1.194016404512355</v>
       </c>
       <c r="D301" t="n">
-        <v>1.559589867783336</v>
+        <v>1.175831144157593</v>
       </c>
     </row>
     <row r="302">
@@ -4669,10 +4669,10 @@
         <v>0.9696895583311547</v>
       </c>
       <c r="C302" t="n">
-        <v>1.204550214314367</v>
+        <v>1.188961466582342</v>
       </c>
       <c r="D302" t="n">
-        <v>1.562990966016206</v>
+        <v>1.171976491782644</v>
       </c>
     </row>
     <row r="303">
@@ -4683,10 +4683,10 @@
         <v>0.9552090273502399</v>
       </c>
       <c r="C303" t="n">
-        <v>1.201800320670052</v>
+        <v>1.19402757876622</v>
       </c>
       <c r="D303" t="n">
-        <v>1.560845550186841</v>
+        <v>1.176038823520143</v>
       </c>
     </row>
     <row r="304">
@@ -4697,10 +4697,10 @@
         <v>0.9451055467939582</v>
       </c>
       <c r="C304" t="n">
-        <v>1.199604552872788</v>
+        <v>1.174426487791942</v>
       </c>
       <c r="D304" t="n">
-        <v>1.581846659019407</v>
+        <v>1.161307066016894</v>
       </c>
     </row>
     <row r="305">
@@ -4711,10 +4711,10 @@
         <v>0.9593246354566385</v>
       </c>
       <c r="C305" t="n">
-        <v>1.222760619006679</v>
+        <v>1.181708457006127</v>
       </c>
       <c r="D305" t="n">
-        <v>1.598296723928014</v>
+        <v>1.1670443050323</v>
       </c>
     </row>
     <row r="306">
@@ -4725,10 +4725,10 @@
         <v>0.9680197009437225</v>
       </c>
       <c r="C306" t="n">
-        <v>1.232244110724408</v>
+        <v>1.222988585498715</v>
       </c>
       <c r="D306" t="n">
-        <v>1.61638809193992</v>
+        <v>1.198572762620242</v>
       </c>
     </row>
     <row r="307">
@@ -4739,10 +4739,10 @@
         <v>0.9734003525254484</v>
       </c>
       <c r="C307" t="n">
-        <v>1.22897954506604</v>
+        <v>1.252939295343203</v>
       </c>
       <c r="D307" t="n">
-        <v>1.614116011949874</v>
+        <v>1.221865813626553</v>
       </c>
     </row>
     <row r="308">
@@ -4753,10 +4753,10 @@
         <v>0.9854688672800722</v>
       </c>
       <c r="C308" t="n">
-        <v>1.256977955209749</v>
+        <v>1.240727471648856</v>
       </c>
       <c r="D308" t="n">
-        <v>1.670105106550386</v>
+        <v>1.211578784185122</v>
       </c>
     </row>
     <row r="309">
@@ -4767,10 +4767,10 @@
         <v>0.9836472046756007</v>
       </c>
       <c r="C309" t="n">
-        <v>1.292332451708742</v>
+        <v>1.248417304875345</v>
       </c>
       <c r="D309" t="n">
-        <v>1.714519155866787</v>
+        <v>1.218456397226671</v>
       </c>
     </row>
     <row r="310">
@@ -4781,10 +4781,10 @@
         <v>0.9720003710794194</v>
       </c>
       <c r="C310" t="n">
-        <v>1.287825718309642</v>
+        <v>1.241666637021383</v>
       </c>
       <c r="D310" t="n">
-        <v>1.72196514913141</v>
+        <v>1.212816741542492</v>
       </c>
     </row>
     <row r="311">
@@ -4795,10 +4795,10 @@
         <v>0.9911025275568637</v>
       </c>
       <c r="C311" t="n">
-        <v>1.291917152452055</v>
+        <v>1.245197271594687</v>
       </c>
       <c r="D311" t="n">
-        <v>1.726775513994719</v>
+        <v>1.215369622651172</v>
       </c>
     </row>
     <row r="312">
@@ -4809,10 +4809,10 @@
         <v>0.9909422887166556</v>
       </c>
       <c r="C312" t="n">
-        <v>1.298266160454258</v>
+        <v>1.254726961137584</v>
       </c>
       <c r="D312" t="n">
-        <v>1.732831097767475</v>
+        <v>1.223557612905992</v>
       </c>
     </row>
     <row r="313">
@@ -4823,10 +4823,10 @@
         <v>0.9919964916127617</v>
       </c>
       <c r="C313" t="n">
-        <v>1.296091883517196</v>
+        <v>1.250331700221509</v>
       </c>
       <c r="D313" t="n">
-        <v>1.733655671162154</v>
+        <v>1.219800711098873</v>
       </c>
     </row>
     <row r="314">
@@ -4837,10 +4837,10 @@
         <v>0.9978072579760991</v>
       </c>
       <c r="C314" t="n">
-        <v>1.29579931983797</v>
+        <v>1.260275101181348</v>
       </c>
       <c r="D314" t="n">
-        <v>1.734434317326175</v>
+        <v>1.227569283219632</v>
       </c>
     </row>
     <row r="315">
@@ -4851,10 +4851,10 @@
         <v>0.9923844382785288</v>
       </c>
       <c r="C315" t="n">
-        <v>1.310673585866247</v>
+        <v>1.247242077239928</v>
       </c>
       <c r="D315" t="n">
-        <v>1.767081168828099</v>
+        <v>1.217786269995052</v>
       </c>
     </row>
     <row r="316">
@@ -4865,10 +4865,10 @@
         <v>1.002015635937355</v>
       </c>
       <c r="C316" t="n">
-        <v>1.314045394155582</v>
+        <v>1.244167816453661</v>
       </c>
       <c r="D316" t="n">
-        <v>1.772511961591234</v>
+        <v>1.214572521967433</v>
       </c>
     </row>
     <row r="317">
@@ -4879,10 +4879,10 @@
         <v>1.006105943174247</v>
       </c>
       <c r="C317" t="n">
-        <v>1.30651887377978</v>
+        <v>1.245374532205309</v>
       </c>
       <c r="D317" t="n">
-        <v>1.757471899146341</v>
+        <v>1.214793521051626</v>
       </c>
     </row>
     <row r="318">
@@ -4893,10 +4893,10 @@
         <v>1.014522699096759</v>
       </c>
       <c r="C318" t="n">
-        <v>1.314709015956529</v>
+        <v>1.239302636964226</v>
       </c>
       <c r="D318" t="n">
-        <v>1.797210562790962</v>
+        <v>1.195793485567421</v>
       </c>
     </row>
     <row r="319">
@@ -4907,10 +4907,10 @@
         <v>1.017946750103312</v>
       </c>
       <c r="C319" t="n">
-        <v>1.325673833905977</v>
+        <v>1.237822694735879</v>
       </c>
       <c r="D319" t="n">
-        <v>1.817951563263022</v>
+        <v>1.180919275837141</v>
       </c>
     </row>
     <row r="320">
@@ -4921,10 +4921,10 @@
         <v>1.021429836472047</v>
       </c>
       <c r="C320" t="n">
-        <v>1.351455650944509</v>
+        <v>1.256002592477743</v>
       </c>
       <c r="D320" t="n">
-        <v>1.845045319070674</v>
+        <v>1.194463737406879</v>
       </c>
     </row>
     <row r="321">
@@ -4935,10 +4935,10 @@
         <v>1.019911784301654</v>
       </c>
       <c r="C321" t="n">
-        <v>1.352430004014535</v>
+        <v>1.255637384154906</v>
       </c>
       <c r="D321" t="n">
-        <v>1.847843525055972</v>
+        <v>1.193332143854708</v>
       </c>
     </row>
     <row r="322">
@@ -4949,10 +4949,10 @@
         <v>1.012557664898417</v>
       </c>
       <c r="C322" t="n">
-        <v>1.350545429680288</v>
+        <v>1.258938949458363</v>
       </c>
       <c r="D322" t="n">
-        <v>1.843360611674296</v>
+        <v>1.197817291479185</v>
       </c>
     </row>
     <row r="323">
@@ -4963,10 +4963,10 @@
         <v>1.006730031288742</v>
       </c>
       <c r="C323" t="n">
-        <v>1.366966416453552</v>
+        <v>1.253229292862093</v>
       </c>
       <c r="D323" t="n">
-        <v>1.864019937760529</v>
+        <v>1.194157158691378</v>
       </c>
     </row>
     <row r="324">
@@ -4977,10 +4977,10 @@
         <v>1.016504600541439</v>
       </c>
       <c r="C324" t="n">
-        <v>1.394057408412566</v>
+        <v>1.258292488024279</v>
       </c>
       <c r="D324" t="n">
-        <v>1.915069239259443</v>
+        <v>1.19874915725013</v>
       </c>
     </row>
     <row r="325">
@@ -4991,10 +4991,10 @@
         <v>1.017052786047414</v>
       </c>
       <c r="C325" t="n">
-        <v>1.417217265155477</v>
+        <v>1.216431034306784</v>
       </c>
       <c r="D325" t="n">
-        <v>1.936225083075318</v>
+        <v>1.164524927358008</v>
       </c>
     </row>
     <row r="326">
@@ -5005,10 +5005,10 @@
         <v>1.006873402882612</v>
       </c>
       <c r="C326" t="n">
-        <v>1.446727878724122</v>
+        <v>1.223462461439094</v>
       </c>
       <c r="D326" t="n">
-        <v>2.006869679549446</v>
+        <v>1.170427470366634</v>
       </c>
     </row>
     <row r="327">
@@ -5019,10 +5019,10 @@
         <v>1.020915385458747</v>
       </c>
       <c r="C327" t="n">
-        <v>1.453184739274413</v>
+        <v>1.235586925747889</v>
       </c>
       <c r="D327" t="n">
-        <v>2.008388212187622</v>
+        <v>1.180125231142746</v>
       </c>
     </row>
     <row r="328">
@@ -5033,10 +5033,10 @@
         <v>1.012591399391092</v>
       </c>
       <c r="C328" t="n">
-        <v>1.442997882334704</v>
+        <v>1.254931647277537</v>
       </c>
       <c r="D328" t="n">
-        <v>2.003416745437591</v>
+        <v>1.195831397022872</v>
       </c>
     </row>
     <row r="329">
@@ -5047,10 +5047,10 @@
         <v>1.002707193037201</v>
       </c>
       <c r="C329" t="n">
-        <v>1.440589848702499</v>
+        <v>1.262335275725727</v>
       </c>
       <c r="D329" t="n">
-        <v>2.011197457021561</v>
+        <v>1.204229969973717</v>
       </c>
     </row>
     <row r="330">
@@ -5061,10 +5061,10 @@
         <v>1.005363784335388</v>
       </c>
       <c r="C330" t="n">
-        <v>1.430221973625204</v>
+        <v>1.2541914259066</v>
       </c>
       <c r="D330" t="n">
-        <v>2.000827616288476</v>
+        <v>1.189682580110939</v>
       </c>
     </row>
     <row r="331">
@@ -5075,10 +5075,10 @@
         <v>0.9927386504516206</v>
       </c>
       <c r="C331" t="n">
-        <v>1.431022748886808</v>
+        <v>1.228581251297271</v>
       </c>
       <c r="D331" t="n">
-        <v>2.002518065195617</v>
+        <v>1.172032262649251</v>
       </c>
     </row>
     <row r="332">
@@ -5089,10 +5089,10 @@
         <v>1.00835772056033</v>
       </c>
       <c r="C332" t="n">
-        <v>1.429666655739778</v>
+        <v>1.234010425188526</v>
       </c>
       <c r="D332" t="n">
-        <v>2.003048180490746</v>
+        <v>1.179455111201493</v>
       </c>
     </row>
     <row r="333">
@@ -5103,10 +5103,10 @@
         <v>1.011368524031609</v>
       </c>
       <c r="C333" t="n">
-        <v>1.455298803530367</v>
+        <v>1.225664213832591</v>
       </c>
       <c r="D333" t="n">
-        <v>2.070124339618134</v>
+        <v>1.172924823620944</v>
       </c>
     </row>
     <row r="334">
@@ -5117,10 +5117,10 @@
         <v>1.029222504280064</v>
       </c>
       <c r="C334" t="n">
-        <v>1.471706104448256</v>
+        <v>1.233092449374067</v>
       </c>
       <c r="D334" t="n">
-        <v>2.091855989182169</v>
+        <v>1.176208742536669</v>
       </c>
     </row>
     <row r="335">
@@ -5131,10 +5131,10 @@
         <v>1.028134566891282</v>
       </c>
       <c r="C335" t="n">
-        <v>1.459516406513035</v>
+        <v>1.218923949826262</v>
       </c>
       <c r="D335" t="n">
-        <v>2.066062543088354</v>
+        <v>1.165793590857996</v>
       </c>
     </row>
     <row r="336">
@@ -5145,10 +5145,10 @@
         <v>1.037032039334419</v>
       </c>
       <c r="C336" t="n">
-        <v>1.480230779960457</v>
+        <v>1.224302309404718</v>
       </c>
       <c r="D336" t="n">
-        <v>2.092138557219011</v>
+        <v>1.169669681772515</v>
       </c>
     </row>
     <row r="337">
@@ -5159,10 +5159,10 @@
         <v>1.009589029542982</v>
       </c>
       <c r="C337" t="n">
-        <v>1.46399467993592</v>
+        <v>1.20625409288169</v>
       </c>
       <c r="D337" t="n">
-        <v>2.077192335021223</v>
+        <v>1.156320234209362</v>
       </c>
     </row>
     <row r="338">
@@ -5173,10 +5173,10 @@
         <v>1.017988918219156</v>
       </c>
       <c r="C338" t="n">
-        <v>1.472415683148885</v>
+        <v>1.204772840438505</v>
       </c>
       <c r="D338" t="n">
-        <v>2.065786456407156</v>
+        <v>1.15550152774945</v>
       </c>
     </row>
     <row r="339">
@@ -5187,10 +5187,10 @@
         <v>1.027898425442554</v>
       </c>
       <c r="C339" t="n">
-        <v>1.503575807782216</v>
+        <v>1.232383624167949</v>
       </c>
       <c r="D339" t="n">
-        <v>2.094995246484818</v>
+        <v>1.196467623605556</v>
       </c>
     </row>
     <row r="340">
@@ -5201,10 +5201,10 @@
         <v>1.036812765132028</v>
       </c>
       <c r="C340" t="n">
-        <v>1.508974154571777</v>
+        <v>1.243168473242835</v>
       </c>
       <c r="D340" t="n">
-        <v>2.102337492221914</v>
+        <v>1.19294804843301</v>
       </c>
     </row>
     <row r="341">
@@ -5215,10 +5215,10 @@
         <v>1.03716697730512</v>
       </c>
       <c r="C341" t="n">
-        <v>1.509923676603759</v>
+        <v>1.24552564493338</v>
       </c>
       <c r="D341" t="n">
-        <v>2.089922800389235</v>
+        <v>1.191627136197414</v>
       </c>
     </row>
     <row r="342">
@@ -5229,10 +5229,10 @@
         <v>1.034265810935036</v>
       </c>
       <c r="C342" t="n">
-        <v>1.513842977574059</v>
+        <v>1.240750142728819</v>
       </c>
       <c r="D342" t="n">
-        <v>2.083255191581909</v>
+        <v>1.17828490852783</v>
       </c>
     </row>
     <row r="343">
@@ -5243,10 +5243,10 @@
         <v>1.034813996441011</v>
       </c>
       <c r="C343" t="n">
-        <v>1.488515554684429</v>
+        <v>1.25187779896248</v>
       </c>
       <c r="D343" t="n">
-        <v>2.030877858834375</v>
+        <v>1.189160210505329</v>
       </c>
     </row>
     <row r="344">
@@ -5257,10 +5257,10 @@
         <v>1.033894731515606</v>
       </c>
       <c r="C344" t="n">
-        <v>1.491706777696728</v>
+        <v>1.263165430936185</v>
       </c>
       <c r="D344" t="n">
-        <v>2.037928117212676</v>
+        <v>1.196285462074359</v>
       </c>
     </row>
     <row r="345">
@@ -5271,10 +5271,10 @@
         <v>1.04603914887875</v>
       </c>
       <c r="C345" t="n">
-        <v>1.516532725587127</v>
+        <v>1.273858791997833</v>
       </c>
       <c r="D345" t="n">
-        <v>2.092943620370798</v>
+        <v>1.203961157348165</v>
       </c>
     </row>
     <row r="346">
@@ -5285,10 +5285,10 @@
         <v>1.037234446290471</v>
       </c>
       <c r="C346" t="n">
-        <v>1.514376972285496</v>
+        <v>1.278367955429267</v>
       </c>
       <c r="D346" t="n">
-        <v>2.090070640940897</v>
+        <v>1.207065471000508</v>
       </c>
     </row>
     <row r="347">
@@ -5299,10 +5299,10 @@
         <v>1.045676503082489</v>
       </c>
       <c r="C347" t="n">
-        <v>1.518537097555785</v>
+        <v>1.279746868154387</v>
       </c>
       <c r="D347" t="n">
-        <v>2.095667655391391</v>
+        <v>1.20946895856898</v>
       </c>
     </row>
     <row r="348">
@@ -5313,10 +5313,10 @@
         <v>1.048864412640314</v>
       </c>
       <c r="C348" t="n">
-        <v>1.535130583860736</v>
+        <v>1.25329453436074</v>
       </c>
       <c r="D348" t="n">
-        <v>2.13320472146963</v>
+        <v>1.187478660377457</v>
       </c>
     </row>
     <row r="349">
@@ -5327,10 +5327,10 @@
         <v>1.058934158703921</v>
       </c>
       <c r="C349" t="n">
-        <v>1.529560717625552</v>
+        <v>1.264748911127337</v>
       </c>
       <c r="D349" t="n">
-        <v>2.125064894043371</v>
+        <v>1.198820476923357</v>
       </c>
     </row>
     <row r="350">
@@ -5341,10 +5341,10 @@
         <v>1.064458181879517</v>
       </c>
       <c r="C350" t="n">
-        <v>1.517027076045285</v>
+        <v>1.273052953946075</v>
       </c>
       <c r="D350" t="n">
-        <v>2.099305791062482</v>
+        <v>1.20326586664122</v>
       </c>
     </row>
     <row r="351">
@@ -5355,10 +5355,10 @@
         <v>1.081755542998828</v>
       </c>
       <c r="C351" t="n">
-        <v>1.570549130256707</v>
+        <v>1.291941518948254</v>
       </c>
       <c r="D351" t="n">
-        <v>2.124595999553603</v>
+        <v>1.213280949703841</v>
       </c>
     </row>
     <row r="352">
@@ -5369,10 +5369,10 @@
         <v>1.093005996306073</v>
       </c>
       <c r="C352" t="n">
-        <v>1.58277445069535</v>
+        <v>1.282966624861714</v>
       </c>
       <c r="D352" t="n">
-        <v>2.139283066637224</v>
+        <v>1.208530130055598</v>
       </c>
     </row>
     <row r="353">
@@ -5383,10 +5383,10 @@
         <v>1.097433648469719</v>
       </c>
       <c r="C353" t="n">
-        <v>1.637882445507211</v>
+        <v>1.297440767354484</v>
       </c>
       <c r="D353" t="n">
-        <v>2.171393643718464</v>
+        <v>1.218119118112479</v>
       </c>
     </row>
     <row r="354">
@@ -5397,10 +5397,10 @@
         <v>1.102915503529471</v>
       </c>
       <c r="C354" t="n">
-        <v>1.716146236981262</v>
+        <v>1.304354993086943</v>
       </c>
       <c r="D354" t="n">
-        <v>2.229551911831678</v>
+        <v>1.224229173247051</v>
       </c>
     </row>
     <row r="355">
@@ -5411,10 +5411,10 @@
         <v>1.094574650215479</v>
       </c>
       <c r="C355" t="n">
-        <v>1.705027456756249</v>
+        <v>1.286142342989717</v>
       </c>
       <c r="D355" t="n">
-        <v>2.209278562191002</v>
+        <v>1.211760930030984</v>
       </c>
     </row>
     <row r="356">
@@ -5425,10 +5425,10 @@
         <v>1.095586684995741</v>
       </c>
       <c r="C356" t="n">
-        <v>1.709877897335129</v>
+        <v>1.299573604182667</v>
       </c>
       <c r="D356" t="n">
-        <v>2.232757628413627</v>
+        <v>1.225624921542947</v>
       </c>
     </row>
     <row r="357">
@@ -5439,10 +5439,10 @@
         <v>1.097011967311277</v>
       </c>
       <c r="C357" t="n">
-        <v>1.731076378533542</v>
+        <v>1.299026565444957</v>
       </c>
       <c r="D357" t="n">
-        <v>2.264588130442879</v>
+        <v>1.225501673026584</v>
       </c>
     </row>
     <row r="358">
@@ -5453,10 +5453,10 @@
         <v>1.091656616599057</v>
       </c>
       <c r="C358" t="n">
-        <v>1.726773876856657</v>
+        <v>1.289386660814623</v>
       </c>
       <c r="D358" t="n">
-        <v>2.259300693543463</v>
+        <v>1.219135860546606</v>
       </c>
     </row>
     <row r="359">
@@ -5467,10 +5467,10 @@
         <v>1.098125205569565</v>
       </c>
       <c r="C359" t="n">
-        <v>1.74168380968454</v>
+        <v>1.307408834721373</v>
       </c>
       <c r="D359" t="n">
-        <v>2.273290127074538</v>
+        <v>1.231150589023444</v>
       </c>
     </row>
     <row r="360">
@@ -5481,10 +5481,10 @@
         <v>1.097138471658809</v>
       </c>
       <c r="C360" t="n">
-        <v>1.743929488852569</v>
+        <v>1.3053242770471</v>
       </c>
       <c r="D360" t="n">
-        <v>2.283766724436402</v>
+        <v>1.228695952902037</v>
       </c>
     </row>
     <row r="361">
@@ -5495,10 +5495,10 @@
         <v>1.090121697182326</v>
       </c>
       <c r="C361" t="n">
-        <v>1.730581490017971</v>
+        <v>1.302768865766805</v>
       </c>
       <c r="D361" t="n">
-        <v>2.268210179697853</v>
+        <v>1.226499657567038</v>
       </c>
     </row>
     <row r="362">
@@ -5509,10 +5509,10 @@
         <v>1.079984482133369</v>
       </c>
       <c r="C362" t="n">
-        <v>1.728709119811272</v>
+        <v>1.295449297819676</v>
       </c>
       <c r="D362" t="n">
-        <v>2.264559314479983</v>
+        <v>1.218245277252684</v>
       </c>
     </row>
     <row r="363">
@@ -5523,10 +5523,10 @@
         <v>1.082919382996129</v>
       </c>
       <c r="C363" t="n">
-        <v>1.732422582403594</v>
+        <v>1.28943730384356</v>
       </c>
       <c r="D363" t="n">
-        <v>2.271085228242412</v>
+        <v>1.21560615485665</v>
       </c>
     </row>
     <row r="364">
@@ -5537,10 +5537,10 @@
         <v>1.09017229892134</v>
       </c>
       <c r="C364" t="n">
-        <v>1.962683310489613</v>
+        <v>1.288518834196202</v>
       </c>
       <c r="D364" t="n">
-        <v>2.422775680674746</v>
+        <v>1.214686132839387</v>
       </c>
     </row>
     <row r="365">
@@ -5551,10 +5551,10 @@
         <v>1.085972354583252</v>
       </c>
       <c r="C365" t="n">
-        <v>1.958364127806596</v>
+        <v>1.279462408086863</v>
       </c>
       <c r="D365" t="n">
-        <v>2.415549167723573</v>
+        <v>1.208536940142167</v>
       </c>
     </row>
     <row r="366">
@@ -5565,10 +5565,10 @@
         <v>1.083113356329013</v>
       </c>
       <c r="C366" t="n">
-        <v>1.951109580026388</v>
+        <v>1.266152812808544</v>
       </c>
       <c r="D366" t="n">
-        <v>2.408265632305158</v>
+        <v>1.197084053306793</v>
       </c>
     </row>
     <row r="367">
@@ -5579,10 +5579,10 @@
         <v>1.092272271090383</v>
       </c>
       <c r="C367" t="n">
-        <v>1.962244303198462</v>
+        <v>1.258830716383153</v>
       </c>
       <c r="D367" t="n">
-        <v>2.416003571019993</v>
+        <v>1.190083853404927</v>
       </c>
     </row>
     <row r="368">
@@ -5593,10 +5593,10 @@
         <v>1.073229149975121</v>
       </c>
       <c r="C368" t="n">
-        <v>1.656128889250263</v>
+        <v>1.261785517184012</v>
       </c>
       <c r="D368" t="n">
-        <v>2.19907680647753</v>
+        <v>1.199035126318711</v>
       </c>
     </row>
     <row r="369">
@@ -5607,10 +5607,10 @@
         <v>1.074688166783332</v>
       </c>
       <c r="C369" t="n">
-        <v>1.996526280974465</v>
+        <v>1.253494966518459</v>
       </c>
       <c r="D369" t="n">
-        <v>2.436631490446505</v>
+        <v>1.199644956028504</v>
       </c>
     </row>
     <row r="370">
@@ -5621,10 +5621,10 @@
         <v>1.073827937220109</v>
       </c>
       <c r="C370" t="n">
-        <v>2.0534181221101</v>
+        <v>1.25491891882676</v>
       </c>
       <c r="D370" t="n">
-        <v>2.469577692840767</v>
+        <v>1.217032087702533</v>
       </c>
     </row>
     <row r="371">
@@ -5635,10 +5635,10 @@
         <v>1.069400285056463</v>
       </c>
       <c r="C371" t="n">
-        <v>2.03560660992037</v>
+        <v>1.247844592046101</v>
       </c>
       <c r="D371" t="n">
-        <v>2.430515003702663</v>
+        <v>1.194167206584628</v>
       </c>
     </row>
     <row r="372">
@@ -5649,10 +5649,10 @@
         <v>1.05981968913665</v>
       </c>
       <c r="C372" t="n">
-        <v>2.006493183890205</v>
+        <v>1.228044273816274</v>
       </c>
       <c r="D372" t="n">
-        <v>2.403405642398257</v>
+        <v>1.18057093480591</v>
       </c>
     </row>
     <row r="373">
@@ -5663,10 +5663,10 @@
         <v>1.07631585605492</v>
       </c>
       <c r="C373" t="n">
-        <v>1.982767659983059</v>
+        <v>1.264980554827955</v>
       </c>
       <c r="D373" t="n">
-        <v>2.382981747127742</v>
+        <v>1.206512041338096</v>
       </c>
     </row>
     <row r="374">
@@ -5677,10 +5677,10 @@
         <v>1.070395452590387</v>
       </c>
       <c r="C374" t="n">
-        <v>1.983473613814506</v>
+        <v>1.275952745812059</v>
       </c>
       <c r="D374" t="n">
-        <v>2.382685823473866</v>
+        <v>1.210327597462477</v>
       </c>
     </row>
     <row r="375">
@@ -5691,10 +5691,10 @@
         <v>1.055004090307237</v>
       </c>
       <c r="C375" t="n">
-        <v>1.97861578351564</v>
+        <v>1.278288714583281</v>
       </c>
       <c r="D375" t="n">
-        <v>2.371786339336373</v>
+        <v>1.211515555052034</v>
       </c>
     </row>
     <row r="376">
@@ -5705,10 +5705,10 @@
         <v>1.071230381284104</v>
       </c>
       <c r="C376" t="n">
-        <v>1.971680383911538</v>
+        <v>1.266950762129677</v>
       </c>
       <c r="D376" t="n">
-        <v>2.352585920012824</v>
+        <v>1.198517199197719</v>
       </c>
     </row>
     <row r="377">
@@ -5719,10 +5719,10 @@
         <v>1.057812486822464</v>
       </c>
       <c r="C377" t="n">
-        <v>1.970069758316914</v>
+        <v>1.261351320620842</v>
       </c>
       <c r="D377" t="n">
-        <v>2.354528838387078</v>
+        <v>1.193034888635069</v>
       </c>
     </row>
     <row r="378">
@@ -5733,10 +5733,10 @@
         <v>1.076079714606192</v>
       </c>
       <c r="C378" t="n">
-        <v>1.923223155110423</v>
+        <v>1.261607861349333</v>
       </c>
       <c r="D378" t="n">
-        <v>2.319551616091771</v>
+        <v>1.199136943585871</v>
       </c>
     </row>
     <row r="379">
@@ -5747,10 +5747,10 @@
         <v>1.080920614305112</v>
       </c>
       <c r="C379" t="n">
-        <v>1.89753054139284</v>
+        <v>1.259243808635843</v>
       </c>
       <c r="D379" t="n">
-        <v>2.305959310762686</v>
+        <v>1.195792329933773</v>
       </c>
     </row>
     <row r="380">
@@ -5761,10 +5761,10 @@
         <v>1.082936250242467</v>
       </c>
       <c r="C380" t="n">
-        <v>1.903633599800244</v>
+        <v>1.273851173159912</v>
       </c>
       <c r="D380" t="n">
-        <v>2.310655308876732</v>
+        <v>1.208974844879876</v>
       </c>
     </row>
     <row r="381">
@@ -5775,10 +5775,10 @@
         <v>1.075017078086917</v>
       </c>
       <c r="C381" t="n">
-        <v>1.908153529406113</v>
+        <v>1.261723903799524</v>
       </c>
       <c r="D381" t="n">
-        <v>2.327587189724281</v>
+        <v>1.196505661427371</v>
       </c>
     </row>
     <row r="382">
@@ -5789,10 +5789,10 @@
         <v>1.062299174348292</v>
       </c>
       <c r="C382" t="n">
-        <v>1.915107426111705</v>
+        <v>1.267122965783776</v>
       </c>
       <c r="D382" t="n">
-        <v>2.3399509607499</v>
+        <v>1.200449458423149</v>
       </c>
     </row>
     <row r="383">
@@ -5803,10 +5803,10 @@
         <v>1.049100554089042</v>
       </c>
       <c r="C383" t="n">
-        <v>1.922712926055193</v>
+        <v>1.254589471832388</v>
       </c>
       <c r="D383" t="n">
-        <v>2.354937890350317</v>
+        <v>1.18743778284719</v>
       </c>
     </row>
     <row r="384">
@@ -5817,10 +5817,10 @@
         <v>1.057584778996905</v>
       </c>
       <c r="C384" t="n">
-        <v>1.923557025663894</v>
+        <v>1.260771134303714</v>
       </c>
       <c r="D384" t="n">
-        <v>2.354013035870461</v>
+        <v>1.193513574139992</v>
       </c>
     </row>
     <row r="385">
@@ -5831,10 +5831,10 @@
         <v>1.062037732030057</v>
       </c>
       <c r="C385" t="n">
-        <v>1.925505248958726</v>
+        <v>1.266338323970713</v>
       </c>
       <c r="D385" t="n">
-        <v>2.348458615936045</v>
+        <v>1.197495527149899</v>
       </c>
     </row>
     <row r="386">
@@ -5845,10 +5845,10 @@
         <v>1.063876261880867</v>
       </c>
       <c r="C386" t="n">
-        <v>1.935443536523417</v>
+        <v>1.272345642853107</v>
       </c>
       <c r="D386" t="n">
-        <v>2.361343865285101</v>
+        <v>1.203617753220994</v>
       </c>
     </row>
     <row r="387">
@@ -5859,10 +5859,10 @@
         <v>1.054649878134145</v>
       </c>
       <c r="C387" t="n">
-        <v>1.920713884226037</v>
+        <v>1.2714224914314</v>
       </c>
       <c r="D387" t="n">
-        <v>2.344903130984115</v>
+        <v>1.206431064137641</v>
       </c>
     </row>
     <row r="388">
@@ -5873,10 +5873,10 @@
         <v>1.062670253767721</v>
       </c>
       <c r="C388" t="n">
-        <v>1.918869187305758</v>
+        <v>1.263196187918067</v>
       </c>
       <c r="D388" t="n">
-        <v>2.341827771813978</v>
+        <v>1.205265318087488</v>
       </c>
     </row>
     <row r="389">
@@ -5887,10 +5887,10 @@
         <v>1.050930650316683</v>
       </c>
       <c r="C389" t="n">
-        <v>1.917559578337496</v>
+        <v>1.256716310013954</v>
       </c>
       <c r="D389" t="n">
-        <v>2.337213549337627</v>
+        <v>1.188676227333636</v>
       </c>
     </row>
     <row r="390">
@@ -5901,10 +5901,10 @@
         <v>1.065048535501337</v>
       </c>
       <c r="C390" t="n">
-        <v>1.927617421444085</v>
+        <v>1.267861251118194</v>
       </c>
       <c r="D390" t="n">
-        <v>2.353559220646377</v>
+        <v>1.20272547812006</v>
       </c>
     </row>
     <row r="391">
@@ -5915,10 +5915,10 @@
         <v>1.05989559174517</v>
       </c>
       <c r="C391" t="n">
-        <v>1.890894356449943</v>
+        <v>1.238179856405483</v>
       </c>
       <c r="D391" t="n">
-        <v>2.328573426999324</v>
+        <v>1.175211802727915</v>
       </c>
     </row>
     <row r="392">
@@ -5929,10 +5929,10 @@
         <v>1.027223735589046</v>
       </c>
       <c r="C392" t="n">
-        <v>1.875414569858197</v>
+        <v>1.224129433953231</v>
       </c>
       <c r="D392" t="n">
-        <v>2.314917450964886</v>
+        <v>1.163237535125817</v>
       </c>
     </row>
     <row r="393">
@@ -5943,10 +5943,10 @@
         <v>1.033253776154774</v>
       </c>
       <c r="C393" t="n">
-        <v>1.893669105700681</v>
+        <v>1.261564145319047</v>
       </c>
       <c r="D393" t="n">
-        <v>2.343311922363192</v>
+        <v>1.193903762099397</v>
       </c>
     </row>
     <row r="394">
@@ -5957,10 +5957,10 @@
         <v>1.042201850336923</v>
       </c>
       <c r="C394" t="n">
-        <v>1.890012972938039</v>
+        <v>1.256706182739653</v>
       </c>
       <c r="D394" t="n">
-        <v>2.335265002672235</v>
+        <v>1.194193407501287</v>
       </c>
     </row>
     <row r="395">
@@ -5971,10 +5971,10 @@
         <v>1.027223735589046</v>
       </c>
       <c r="C395" t="n">
-        <v>1.883452627580723</v>
+        <v>1.233637275501927</v>
       </c>
       <c r="D395" t="n">
-        <v>2.327748008507234</v>
+        <v>1.168433590749127</v>
       </c>
     </row>
     <row r="396">
@@ -5985,10 +5985,10 @@
         <v>1.02580688689668</v>
       </c>
       <c r="C396" t="n">
-        <v>1.874192941575163</v>
+        <v>1.234472942206729</v>
       </c>
       <c r="D396" t="n">
-        <v>2.319151802389436</v>
+        <v>1.168832559182504</v>
       </c>
     </row>
     <row r="397">
@@ -5999,10 +5999,10 @@
         <v>1.035733261366416</v>
       </c>
       <c r="C397" t="n">
-        <v>1.879157134551307</v>
+        <v>1.233618996284922</v>
       </c>
       <c r="D397" t="n">
-        <v>2.31581885086549</v>
+        <v>1.170162564494178</v>
       </c>
     </row>
     <row r="398">
@@ -6013,10 +6013,10 @@
         <v>1.037495888608705</v>
       </c>
       <c r="C398" t="n">
-        <v>1.870746036080285</v>
+        <v>1.234548640186145</v>
       </c>
       <c r="D398" t="n">
-        <v>2.298626955158888</v>
+        <v>1.171290265873989</v>
       </c>
     </row>
     <row r="399">
@@ -6027,10 +6027,10 @@
         <v>1.030605618479755</v>
       </c>
       <c r="C399" t="n">
-        <v>1.861811890331637</v>
+        <v>1.227786791397691</v>
       </c>
       <c r="D399" t="n">
-        <v>2.292205352180825</v>
+        <v>1.16569316008611</v>
       </c>
     </row>
     <row r="400">
@@ -6041,10 +6041,10 @@
         <v>1.029374309497103</v>
       </c>
       <c r="C400" t="n">
-        <v>1.567715240881452</v>
+        <v>1.218281208434552</v>
       </c>
       <c r="D400" t="n">
-        <v>2.084605281580191</v>
+        <v>1.154967091702581</v>
       </c>
     </row>
     <row r="401">
@@ -6055,10 +6055,10 @@
         <v>1.017946750103312</v>
       </c>
       <c r="C401" t="n">
-        <v>1.554251359728974</v>
+        <v>1.223627309490546</v>
       </c>
       <c r="D401" t="n">
-        <v>2.077028531350101</v>
+        <v>1.157593054323207</v>
       </c>
     </row>
     <row r="402">
@@ -6069,10 +6069,10 @@
         <v>1.022104526325555</v>
       </c>
       <c r="C402" t="n">
-        <v>1.568550626544011</v>
+        <v>1.218501631928797</v>
       </c>
       <c r="D402" t="n">
-        <v>2.089748599269314</v>
+        <v>1.151572965411746</v>
       </c>
     </row>
     <row r="403">
@@ -6083,10 +6083,10 @@
         <v>1.005119209263492</v>
       </c>
       <c r="C403" t="n">
-        <v>1.542432496180238</v>
+        <v>1.216909775854748</v>
       </c>
       <c r="D403" t="n">
-        <v>2.04948724513859</v>
+        <v>1.151851923135442</v>
       </c>
     </row>
     <row r="404">
@@ -6097,10 +6097,10 @@
         <v>0.9943579061000396</v>
       </c>
       <c r="C404" t="n">
-        <v>1.53386621613613</v>
+        <v>1.217524920456462</v>
       </c>
       <c r="D404" t="n">
-        <v>2.043321834797825</v>
+        <v>1.158445648839603</v>
       </c>
     </row>
     <row r="405">
@@ -6111,10 +6111,10 @@
         <v>0.9837231072841204</v>
       </c>
       <c r="C405" t="n">
-        <v>1.54282342341281</v>
+        <v>1.218791794027724</v>
       </c>
       <c r="D405" t="n">
-        <v>2.054717573117572</v>
+        <v>1.155497427470248</v>
       </c>
     </row>
     <row r="406">
@@ -6125,10 +6125,10 @@
         <v>0.9881254585782598</v>
       </c>
       <c r="C406" t="n">
-        <v>1.555664142386184</v>
+        <v>1.193089637595453</v>
       </c>
       <c r="D406" t="n">
-        <v>2.061155161798827</v>
+        <v>1.127062302695327</v>
       </c>
     </row>
     <row r="407">
@@ -6139,10 +6139,10 @@
         <v>0.9956145159521982</v>
       </c>
       <c r="C407" t="n">
-        <v>1.567506821227449</v>
+        <v>1.225479716270047</v>
       </c>
       <c r="D407" t="n">
-        <v>2.069529848409811</v>
+        <v>1.155182931195137</v>
       </c>
     </row>
     <row r="408">
@@ -6153,10 +6153,10 @@
         <v>0.9907145808910967</v>
       </c>
       <c r="C408" t="n">
-        <v>1.563682284016343</v>
+        <v>1.225611008945453</v>
       </c>
       <c r="D408" t="n">
-        <v>2.06394785914754</v>
+        <v>1.154653431610487</v>
       </c>
     </row>
     <row r="409">
@@ -6167,10 +6167,10 @@
         <v>1.013814274750576</v>
       </c>
       <c r="C409" t="n">
-        <v>1.580087050830801</v>
+        <v>1.250372182619402</v>
       </c>
       <c r="D409" t="n">
-        <v>2.082116805989142</v>
+        <v>1.174426483056518</v>
       </c>
     </row>
     <row r="410">
@@ -6181,10 +6181,10 @@
         <v>1.018933484014067</v>
       </c>
       <c r="C410" t="n">
-        <v>1.584145431137399</v>
+        <v>1.254509809851718</v>
       </c>
       <c r="D410" t="n">
-        <v>2.082440861474049</v>
+        <v>1.179784883446758</v>
       </c>
     </row>
     <row r="411">
@@ -6195,10 +6195,10 @@
         <v>1.001273477098496</v>
       </c>
       <c r="C411" t="n">
-        <v>1.582436537125726</v>
+        <v>1.244526386970142</v>
       </c>
       <c r="D411" t="n">
-        <v>2.083469813088067</v>
+        <v>1.167702490200742</v>
       </c>
     </row>
     <row r="412">
@@ -6209,10 +6209,10 @@
         <v>1.017752776770428</v>
       </c>
       <c r="C412" t="n">
-        <v>1.595423574764264</v>
+        <v>1.251682890871675</v>
       </c>
       <c r="D412" t="n">
-        <v>2.105067986958289</v>
+        <v>1.17316012441714</v>
       </c>
     </row>
     <row r="413">
@@ -6223,10 +6223,10 @@
         <v>1.009842038238048</v>
       </c>
       <c r="C413" t="n">
-        <v>1.593567889172849</v>
+        <v>1.259492849200334</v>
       </c>
       <c r="D413" t="n">
-        <v>2.097580422962141</v>
+        <v>1.179050329252641</v>
       </c>
     </row>
     <row r="414">
@@ -6237,10 +6237,10 @@
         <v>1.001754193619121</v>
       </c>
       <c r="C414" t="n">
-        <v>1.600667406317587</v>
+        <v>1.251677162117763</v>
       </c>
       <c r="D414" t="n">
-        <v>2.110174042396503</v>
+        <v>1.171168597820849</v>
       </c>
     </row>
     <row r="415">
@@ -6251,10 +6251,10 @@
         <v>1.006940871867963</v>
       </c>
       <c r="C415" t="n">
-        <v>1.61216981021573</v>
+        <v>1.257772729442667</v>
       </c>
       <c r="D415" t="n">
-        <v>2.119352837303572</v>
+        <v>1.176028030242087</v>
       </c>
     </row>
     <row r="416">
@@ -6265,10 +6265,10 @@
         <v>0.9840098504718612</v>
       </c>
       <c r="C416" t="n">
-        <v>1.586408585990188</v>
+        <v>1.246631752339682</v>
       </c>
       <c r="D416" t="n">
-        <v>2.089888086367593</v>
+        <v>1.16717397216461</v>
       </c>
     </row>
     <row r="417">
@@ -6279,10 +6279,10 @@
         <v>0.9861688580030867</v>
       </c>
       <c r="C417" t="n">
-        <v>1.580725406389475</v>
+        <v>1.234103987142205</v>
       </c>
       <c r="D417" t="n">
-        <v>2.08591757646059</v>
+        <v>1.156153823184941</v>
       </c>
     </row>
     <row r="418">
@@ -6293,10 +6293,10 @@
         <v>0.9940627292891299</v>
       </c>
       <c r="C418" t="n">
-        <v>1.589053460171763</v>
+        <v>1.239093907513767</v>
       </c>
       <c r="D418" t="n">
-        <v>2.098201193828346</v>
+        <v>1.160084794878518</v>
       </c>
     </row>
     <row r="419">
@@ -6307,10 +6307,10 @@
         <v>0.9564825044487362</v>
       </c>
       <c r="C419" t="n">
-        <v>1.568013817139705</v>
+        <v>1.203079507004035</v>
       </c>
       <c r="D419" t="n">
-        <v>2.077201151168526</v>
+        <v>1.132207696894778</v>
       </c>
     </row>
     <row r="420">
@@ -6321,10 +6321,10 @@
         <v>0.9729112023816552</v>
       </c>
       <c r="C420" t="n">
-        <v>1.577736087414079</v>
+        <v>1.231066936545454</v>
       </c>
       <c r="D420" t="n">
-        <v>2.084633489847983</v>
+        <v>1.154732702865036</v>
       </c>
     </row>
     <row r="421">
@@ -6335,10 +6335,10 @@
         <v>0.9638450574751419</v>
       </c>
       <c r="C421" t="n">
-        <v>1.567260642997993</v>
+        <v>1.243580221923945</v>
       </c>
       <c r="D421" t="n">
-        <v>2.06330203512272</v>
+        <v>1.165350325712174</v>
       </c>
     </row>
     <row r="422">
@@ -6349,10 +6349,10 @@
         <v>0.9817074713467653</v>
       </c>
       <c r="C422" t="n">
-        <v>1.569783834729524</v>
+        <v>1.26958890367751</v>
       </c>
       <c r="D422" t="n">
-        <v>2.061708302037355</v>
+        <v>1.191357453808974</v>
       </c>
     </row>
     <row r="423">
@@ -6363,10 +6363,10 @@
         <v>0.9798267733801118</v>
       </c>
       <c r="C423" t="n">
-        <v>1.572602331590104</v>
+        <v>1.277205468794002</v>
       </c>
       <c r="D423" t="n">
-        <v>2.06967618446004</v>
+        <v>1.197323810726499</v>
       </c>
     </row>
     <row r="424">
@@ -6377,10 +6377,10 @@
         <v>0.970397982677338</v>
       </c>
       <c r="C424" t="n">
-        <v>1.571689055320616</v>
+        <v>1.250392219908437</v>
       </c>
       <c r="D424" t="n">
-        <v>2.064367520769774</v>
+        <v>1.16974407245766</v>
       </c>
     </row>
     <row r="425">
@@ -6391,10 +6391,10 @@
         <v>0.9596957148760679</v>
       </c>
       <c r="C425" t="n">
-        <v>1.625194275770923</v>
+        <v>1.26908045801917</v>
       </c>
       <c r="D425" t="n">
-        <v>2.198685060037604</v>
+        <v>1.188848424037585</v>
       </c>
     </row>
     <row r="426">
@@ -6405,10 +6405,10 @@
         <v>0.9398345323134272</v>
       </c>
       <c r="C426" t="n">
-        <v>1.62141866375678</v>
+        <v>1.254021783345215</v>
       </c>
       <c r="D426" t="n">
-        <v>2.190536420403511</v>
+        <v>1.173568185926595</v>
       </c>
     </row>
     <row r="427">
@@ -6419,10 +6419,10 @@
         <v>0.9179492801902626</v>
       </c>
       <c r="C427" t="n">
-        <v>1.595638015974734</v>
+        <v>1.230395321552048</v>
       </c>
       <c r="D427" t="n">
-        <v>2.139353110176286</v>
+        <v>1.152477787234488</v>
       </c>
     </row>
     <row r="428">
@@ -6433,10 +6433,10 @@
         <v>0.9298069543656651</v>
       </c>
       <c r="C428" t="n">
-        <v>1.604773533702598</v>
+        <v>1.236832201198969</v>
       </c>
       <c r="D428" t="n">
-        <v>2.153561714861288</v>
+        <v>1.15490517085901</v>
       </c>
     </row>
     <row r="429">
@@ -6447,10 +6447,10 @@
         <v>0.9469440766447673</v>
       </c>
       <c r="C429" t="n">
-        <v>1.58260675216222</v>
+        <v>1.23674560553902</v>
       </c>
       <c r="D429" t="n">
-        <v>2.094989537005538</v>
+        <v>1.156265387893858</v>
       </c>
     </row>
     <row r="430">
@@ -6461,10 +6461,10 @@
         <v>0.9619727931316573</v>
       </c>
       <c r="C430" t="n">
-        <v>1.586163891861917</v>
+        <v>1.256204881339533</v>
       </c>
       <c r="D430" t="n">
-        <v>2.098813455558098</v>
+        <v>1.176569540817023</v>
       </c>
     </row>
     <row r="431">
@@ -6475,10 +6475,10 @@
         <v>0.9553861334367858</v>
       </c>
       <c r="C431" t="n">
-        <v>1.554615584845422</v>
+        <v>1.254314105420857</v>
       </c>
       <c r="D431" t="n">
-        <v>2.07841139673756</v>
+        <v>1.174763266204826</v>
       </c>
     </row>
     <row r="432">
@@ -6489,10 +6489,10 @@
         <v>0.9579162203874406</v>
       </c>
       <c r="C432" t="n">
-        <v>1.554529494787443</v>
+        <v>1.257811315841411</v>
       </c>
       <c r="D432" t="n">
-        <v>2.080220721225415</v>
+        <v>1.173892478245909</v>
       </c>
     </row>
     <row r="433">
@@ -6503,10 +6503,10 @@
         <v>0.92874431784639</v>
       </c>
       <c r="C433" t="n">
-        <v>1.528909969535972</v>
+        <v>1.243312895485019</v>
       </c>
       <c r="D433" t="n">
-        <v>2.032104285282199</v>
+        <v>1.159765104990057</v>
       </c>
     </row>
     <row r="434">
@@ -6517,10 +6517,10 @@
         <v>0.9370345694213691</v>
       </c>
       <c r="C434" t="n">
-        <v>1.547844554437804</v>
+        <v>1.245557982046</v>
       </c>
       <c r="D434" t="n">
-        <v>2.070381488212269</v>
+        <v>1.166520896880757</v>
       </c>
     </row>
     <row r="435">
@@ -6531,10 +6531,10 @@
         <v>0.9359550656557564</v>
       </c>
       <c r="C435" t="n">
-        <v>1.544796543856923</v>
+        <v>1.238799932655566</v>
       </c>
       <c r="D435" t="n">
-        <v>2.068033824445343</v>
+        <v>1.158792291215297</v>
       </c>
     </row>
     <row r="436">
@@ -6545,10 +6545,10 @@
         <v>0.9521560557631163</v>
       </c>
       <c r="C436" t="n">
-        <v>1.551627735387831</v>
+        <v>1.248943331277186</v>
       </c>
       <c r="D436" t="n">
-        <v>2.075882689504585</v>
+        <v>1.167124634052843</v>
       </c>
     </row>
     <row r="437">
@@ -6559,10 +6559,10 @@
         <v>0.9310129624788105</v>
       </c>
       <c r="C437" t="n">
-        <v>1.540266044889391</v>
+        <v>1.239969431537071</v>
       </c>
       <c r="D437" t="n">
-        <v>2.064122593453531</v>
+        <v>1.157470891850625</v>
       </c>
     </row>
     <row r="438">
@@ -6573,10 +6573,10 @@
         <v>0.9315611479847857</v>
       </c>
       <c r="C438" t="n">
-        <v>1.542781648550264</v>
+        <v>1.250001350832124</v>
       </c>
       <c r="D438" t="n">
-        <v>2.07959592318699</v>
+        <v>1.168252502669258</v>
       </c>
     </row>
     <row r="439">
@@ -6587,10 +6587,10 @@
         <v>0.9324213775480084</v>
       </c>
       <c r="C439" t="n">
-        <v>1.532242872435455</v>
+        <v>1.247119712851793</v>
       </c>
       <c r="D439" t="n">
-        <v>2.067258269814507</v>
+        <v>1.163263346118296</v>
       </c>
     </row>
     <row r="440">
@@ -6601,10 +6601,10 @@
         <v>0.9326322181272296</v>
       </c>
       <c r="C440" t="n">
-        <v>1.532188620947462</v>
+        <v>1.237297095430257</v>
       </c>
       <c r="D440" t="n">
-        <v>2.06211082693478</v>
+        <v>1.159507711730454</v>
       </c>
     </row>
     <row r="441">
@@ -6615,10 +6615,10 @@
         <v>0.9515910030108035</v>
       </c>
       <c r="C441" t="n">
-        <v>1.546218542251807</v>
+        <v>1.262428429094096</v>
       </c>
       <c r="D441" t="n">
-        <v>2.080651741916938</v>
+        <v>1.180954856142478</v>
       </c>
     </row>
     <row r="442">
@@ -6629,10 +6629,10 @@
         <v>0.9460838470815447</v>
       </c>
       <c r="C442" t="n">
-        <v>1.550978910323203</v>
+        <v>1.253265817916163</v>
       </c>
       <c r="D442" t="n">
-        <v>2.08987235788805</v>
+        <v>1.167643933088375</v>
       </c>
     </row>
     <row r="443">
@@ -6643,10 +6643,10 @@
         <v>0.9568451502449967</v>
       </c>
       <c r="C443" t="n">
-        <v>1.552565573378644</v>
+        <v>1.260758188639761</v>
       </c>
       <c r="D443" t="n">
-        <v>2.081974323984241</v>
+        <v>1.172453365741799</v>
       </c>
     </row>
     <row r="444">
@@ -6657,10 +6657,10 @@
         <v>0.9545596383662385</v>
       </c>
       <c r="C444" t="n">
-        <v>1.738008368437701</v>
+        <v>1.267951520868007</v>
       </c>
       <c r="D444" t="n">
-        <v>2.574745085939441</v>
+        <v>1.178728884815827</v>
       </c>
     </row>
     <row r="445">
@@ -6671,10 +6671,10 @@
         <v>0.9668980290622654</v>
       </c>
       <c r="C445" t="n">
-        <v>1.730652644145034</v>
+        <v>1.265897957477066</v>
       </c>
       <c r="D445" t="n">
-        <v>2.556529596659502</v>
+        <v>1.178151467194557</v>
       </c>
     </row>
     <row r="446">
@@ -6685,10 +6685,10 @@
         <v>0.9650426319651185</v>
       </c>
       <c r="C446" t="n">
-        <v>1.724032274889016</v>
+        <v>1.276877029484115</v>
       </c>
       <c r="D446" t="n">
-        <v>2.541708353517051</v>
+        <v>1.186632549206632</v>
       </c>
     </row>
     <row r="447">
@@ -6699,10 +6699,10 @@
         <v>0.9333743769660884</v>
       </c>
       <c r="C447" t="n">
-        <v>1.691345185064905</v>
+        <v>1.251897473641911</v>
       </c>
       <c r="D447" t="n">
-        <v>2.475069452980489</v>
+        <v>1.171075561027661</v>
       </c>
     </row>
     <row r="448">
@@ -6713,10 +6713,10 @@
         <v>0.9343273763841684</v>
       </c>
       <c r="C448" t="n">
-        <v>1.678069668798912</v>
+        <v>1.249430699347554</v>
       </c>
       <c r="D448" t="n">
-        <v>2.443297673799504</v>
+        <v>1.16834098563404</v>
       </c>
     </row>
     <row r="449">
@@ -6727,10 +6727,10 @@
         <v>0.9085963920960084</v>
       </c>
       <c r="C449" t="n">
-        <v>1.66705550186853</v>
+        <v>1.232553252625789</v>
       </c>
       <c r="D449" t="n">
-        <v>2.432437881030511</v>
+        <v>1.152792819241122</v>
       </c>
     </row>
     <row r="450">
@@ -6741,10 +6741,10 @@
         <v>0.8964604083560338</v>
       </c>
       <c r="C450" t="n">
-        <v>1.650180000348556</v>
+        <v>1.231232357785451</v>
       </c>
       <c r="D450" t="n">
-        <v>2.426406023714068</v>
+        <v>1.149198805222825</v>
       </c>
     </row>
     <row r="451">
@@ -6755,10 +6755,10 @@
         <v>0.9168613428014809</v>
       </c>
       <c r="C451" t="n">
-        <v>1.668523596817691</v>
+        <v>1.236295941491067</v>
       </c>
       <c r="D451" t="n">
-        <v>2.453866975855685</v>
+        <v>1.154515317372811</v>
       </c>
     </row>
     <row r="452">
@@ -6769,10 +6769,10 @@
         <v>0.8975061776289712</v>
       </c>
       <c r="C452" t="n">
-        <v>1.649234249901968</v>
+        <v>1.232032361793827</v>
       </c>
       <c r="D452" t="n">
-        <v>2.418921882967538</v>
+        <v>1.150953429572277</v>
       </c>
     </row>
     <row r="453">
@@ -6783,10 +6783,10 @@
         <v>0.8970254611083468</v>
       </c>
       <c r="C453" t="n">
-        <v>1.635388201862473</v>
+        <v>1.244858283110327</v>
       </c>
       <c r="D453" t="n">
-        <v>2.371274985725099</v>
+        <v>1.162109325187669</v>
       </c>
     </row>
     <row r="454">
@@ -6797,10 +6797,10 @@
         <v>0.8914761370632437</v>
       </c>
       <c r="C454" t="n">
-        <v>1.610038929620832</v>
+        <v>1.231332169025254</v>
       </c>
       <c r="D454" t="n">
-        <v>2.332669273216353</v>
+        <v>1.148868204526752</v>
       </c>
     </row>
     <row r="455">
@@ -6811,10 +6811,10 @@
         <v>0.8728884315990992</v>
       </c>
       <c r="C455" t="n">
-        <v>1.620611590082275</v>
+        <v>1.246436916923895</v>
       </c>
       <c r="D455" t="n">
-        <v>2.367166442654293</v>
+        <v>1.161050980384048</v>
       </c>
     </row>
     <row r="456">
@@ -6825,10 +6825,10 @@
         <v>0.8901773590952409</v>
       </c>
       <c r="C456" t="n">
-        <v>1.593198284464884</v>
+        <v>1.247496707912118</v>
       </c>
       <c r="D456" t="n">
-        <v>2.287856200165081</v>
+        <v>1.158724953628957</v>
       </c>
     </row>
     <row r="457">
@@ -6839,10 +6839,10 @@
         <v>0.8907339782243849</v>
       </c>
       <c r="C457" t="n">
-        <v>1.586646046119477</v>
+        <v>1.268556584171127</v>
       </c>
       <c r="D457" t="n">
-        <v>2.262163103144915</v>
+        <v>1.177411377623516</v>
       </c>
     </row>
     <row r="458">
@@ -6853,10 +6853,10 @@
         <v>0.8721378391370717</v>
       </c>
       <c r="C458" t="n">
-        <v>1.555699291183554</v>
+        <v>1.24671564155688</v>
       </c>
       <c r="D458" t="n">
-        <v>2.196080493319658</v>
+        <v>1.16024170147342</v>
       </c>
     </row>
     <row r="459">
@@ -6867,10 +6867,10 @@
         <v>0.8840461150514872</v>
       </c>
       <c r="C459" t="n">
-        <v>1.577922688714183</v>
+        <v>1.223064684640524</v>
       </c>
       <c r="D459" t="n">
-        <v>2.243014712785214</v>
+        <v>1.140964867318787</v>
       </c>
     </row>
     <row r="460">
@@ -6881,10 +6881,10 @@
         <v>0.8836834692552268</v>
       </c>
       <c r="C460" t="n">
-        <v>1.592782186198971</v>
+        <v>1.225705032117581</v>
       </c>
       <c r="D460" t="n">
-        <v>2.281373622050072</v>
+        <v>1.141953751492797</v>
       </c>
     </row>
     <row r="461">
@@ -6895,10 +6895,10 @@
         <v>0.8900424211245394</v>
       </c>
       <c r="C461" t="n">
-        <v>1.576616978777468</v>
+        <v>1.225451191151213</v>
       </c>
       <c r="D461" t="n">
-        <v>2.227256386984858</v>
+        <v>1.141673979457186</v>
       </c>
     </row>
     <row r="462">
@@ -6909,10 +6909,10 @@
         <v>0.8936941799566511</v>
       </c>
       <c r="C462" t="n">
-        <v>1.607733266313298</v>
+        <v>1.229645190166377</v>
       </c>
       <c r="D462" t="n">
-        <v>2.276627120225521</v>
+        <v>1.145494200753761</v>
       </c>
     </row>
     <row r="463">
@@ -6923,10 +6923,10 @@
         <v>0.9085120558643198</v>
       </c>
       <c r="C463" t="n">
-        <v>1.6057753563954</v>
+        <v>1.291587602741322</v>
       </c>
       <c r="D463" t="n">
-        <v>2.253213937091051</v>
+        <v>1.197128908505544</v>
       </c>
     </row>
     <row r="464">
@@ -6937,10 +6937,10 @@
         <v>0.8965953463267354</v>
       </c>
       <c r="C464" t="n">
-        <v>1.598281624661089</v>
+        <v>1.249500003456298</v>
       </c>
       <c r="D464" t="n">
-        <v>2.249283785653905</v>
+        <v>1.164057049049117</v>
       </c>
     </row>
     <row r="465">
@@ -6951,10 +6951,10 @@
         <v>0.8813810901301308</v>
       </c>
       <c r="C465" t="n">
-        <v>1.561939226910252</v>
+        <v>1.251728522896598</v>
       </c>
       <c r="D465" t="n">
-        <v>2.196979585192965</v>
+        <v>1.183016790895185</v>
       </c>
     </row>
     <row r="466">
@@ -6965,10 +6965,10 @@
         <v>0.868199337117219</v>
       </c>
       <c r="C466" t="n">
-        <v>1.521474892761965</v>
+        <v>1.245665326064255</v>
       </c>
       <c r="D466" t="n">
-        <v>2.143102993240019</v>
+        <v>1.176106397270194</v>
       </c>
     </row>
     <row r="467">
@@ -6979,10 +6979,10 @@
         <v>0.8646487817631333</v>
       </c>
       <c r="C467" t="n">
-        <v>1.520495602618965</v>
+        <v>1.242171677763468</v>
       </c>
       <c r="D467" t="n">
-        <v>2.139170097796336</v>
+        <v>1.157641898457372</v>
       </c>
     </row>
     <row r="468">
@@ -6993,10 +6993,10 @@
         <v>0.8689583632024154</v>
       </c>
       <c r="C468" t="n">
-        <v>1.515840150775074</v>
+        <v>1.26935249216627</v>
       </c>
       <c r="D468" t="n">
-        <v>2.122315616988361</v>
+        <v>1.178022586538215</v>
       </c>
     </row>
     <row r="469">
@@ -7007,10 +7007,10 @@
         <v>0.8612584652492558</v>
       </c>
       <c r="C469" t="n">
-        <v>1.532245827266388</v>
+        <v>1.245579270212912</v>
       </c>
       <c r="D469" t="n">
-        <v>2.175035701740662</v>
+        <v>1.161711854593354</v>
       </c>
     </row>
     <row r="470">
@@ -7021,10 +7021,10 @@
         <v>0.8742546785524529</v>
       </c>
       <c r="C470" t="n">
-        <v>1.538814211920732</v>
+        <v>1.24108469857056</v>
       </c>
       <c r="D470" t="n">
-        <v>2.173669428014501</v>
+        <v>1.155708977575896</v>
       </c>
     </row>
     <row r="471">
@@ -7035,10 +7035,10 @@
         <v>0.8814316918691439</v>
       </c>
       <c r="C471" t="n">
-        <v>1.538690867272385</v>
+        <v>1.246270053480278</v>
       </c>
       <c r="D471" t="n">
-        <v>2.172106827834056</v>
+        <v>1.160385734163674</v>
       </c>
     </row>
     <row r="472">
@@ -7049,10 +7049,10 @@
         <v>0.8923701011191418</v>
       </c>
       <c r="C472" t="n">
-        <v>1.538349240030699</v>
+        <v>1.247697469299503</v>
       </c>
       <c r="D472" t="n">
-        <v>2.169618980567929</v>
+        <v>1.161238210045913</v>
       </c>
     </row>
     <row r="473">
@@ -7063,10 +7063,10 @@
         <v>0.8621186948124784</v>
       </c>
       <c r="C473" t="n">
-        <v>1.529183092414473</v>
+        <v>1.247290862845701</v>
       </c>
       <c r="D473" t="n">
-        <v>2.160357166598551</v>
+        <v>1.159720975072375</v>
       </c>
     </row>
     <row r="474">
@@ -7077,10 +7077,10 @@
         <v>0.8670945324820997</v>
       </c>
       <c r="C474" t="n">
-        <v>1.52242517225401</v>
+        <v>1.250897689231321</v>
       </c>
       <c r="D474" t="n">
-        <v>2.134901794093552</v>
+        <v>1.162405216224977</v>
       </c>
     </row>
     <row r="475">
@@ -7091,10 +7091,10 @@
         <v>0.8595127052533039</v>
       </c>
       <c r="C475" t="n">
-        <v>1.487574891866989</v>
+        <v>1.255393037960532</v>
       </c>
       <c r="D475" t="n">
-        <v>2.061734441046525</v>
+        <v>1.169857120424904</v>
       </c>
     </row>
     <row r="476">
@@ -7105,10 +7105,10 @@
         <v>0.8498983748408153</v>
       </c>
       <c r="C476" t="n">
-        <v>1.465439276761095</v>
+        <v>1.270037448070882</v>
       </c>
       <c r="D476" t="n">
-        <v>2.013039015379327</v>
+        <v>1.177505570492193</v>
       </c>
     </row>
     <row r="477">
@@ -7119,10 +7119,10 @@
         <v>0.8810268779570392</v>
       </c>
       <c r="C477" t="n">
-        <v>1.468291654864633</v>
+        <v>1.275616701048702</v>
       </c>
       <c r="D477" t="n">
-        <v>2.008700871597215</v>
+        <v>1.179843140549473</v>
       </c>
     </row>
     <row r="478">
@@ -7133,10 +7133,10 @@
         <v>0.8861207863510243</v>
       </c>
       <c r="C478" t="n">
-        <v>1.532677171113884</v>
+        <v>1.292282969174195</v>
       </c>
       <c r="D478" t="n">
-        <v>2.059613145988946</v>
+        <v>1.194870086121902</v>
       </c>
     </row>
     <row r="479">
@@ -7147,10 +7147,10 @@
         <v>0.9012085382000962</v>
       </c>
       <c r="C479" t="n">
-        <v>1.519887256664613</v>
+        <v>1.287450877927218</v>
       </c>
       <c r="D479" t="n">
-        <v>2.061489983047215</v>
+        <v>1.189417987282428</v>
       </c>
     </row>
     <row r="480">
@@ -7161,10 +7161,10 @@
         <v>0.907103640795122</v>
       </c>
       <c r="C480" t="n">
-        <v>1.508785150565083</v>
+        <v>1.282849778625353</v>
       </c>
       <c r="D480" t="n">
-        <v>2.03528276265708</v>
+        <v>1.186406877659877</v>
       </c>
     </row>
     <row r="481">
@@ -7175,10 +7175,10 @@
         <v>0.9116409300599631</v>
       </c>
       <c r="C481" t="n">
-        <v>1.516921068164647</v>
+        <v>1.273101430340868</v>
       </c>
       <c r="D481" t="n">
-        <v>2.046793762823251</v>
+        <v>1.178409347583236</v>
       </c>
     </row>
     <row r="482">
@@ -7189,10 +7189,10 @@
         <v>0.8964182402401896</v>
       </c>
       <c r="C482" t="n">
-        <v>1.500093506739112</v>
+        <v>1.249168449907034</v>
       </c>
       <c r="D482" t="n">
-        <v>1.992621804496548</v>
+        <v>1.1594967163104</v>
       </c>
     </row>
     <row r="483">
@@ -7203,10 +7203,10 @@
         <v>0.9087903654288919</v>
       </c>
       <c r="C483" t="n">
-        <v>1.530978350078041</v>
+        <v>1.233775949737002</v>
       </c>
       <c r="D483" t="n">
-        <v>2.071114024045793</v>
+        <v>1.14568661673861</v>
       </c>
     </row>
     <row r="484">
@@ -7217,10 +7217,10 @@
         <v>0.9056277567405733</v>
       </c>
       <c r="C484" t="n">
-        <v>1.532673822518152</v>
+        <v>1.254510922848869</v>
       </c>
       <c r="D484" t="n">
-        <v>2.073878585855531</v>
+        <v>1.171330642136287</v>
       </c>
     </row>
     <row r="485">
@@ -7231,10 +7231,10 @@
         <v>0.90037360950638</v>
       </c>
       <c r="C485" t="n">
-        <v>1.533965573260019</v>
+        <v>1.257252944927229</v>
       </c>
       <c r="D485" t="n">
-        <v>2.074485593072637</v>
+        <v>1.16598462852162</v>
       </c>
     </row>
     <row r="486">
@@ -7245,10 +7245,10 @@
         <v>0.9055181196393782</v>
       </c>
       <c r="C486" t="n">
-        <v>1.534040867925908</v>
+        <v>1.286766771784483</v>
       </c>
       <c r="D486" t="n">
-        <v>2.071996895269404</v>
+        <v>1.201261124818548</v>
       </c>
     </row>
     <row r="487">
@@ -7259,10 +7259,10 @@
         <v>0.9126192303475497</v>
       </c>
       <c r="C487" t="n">
-        <v>1.530083480913187</v>
+        <v>1.268767558869086</v>
       </c>
       <c r="D487" t="n">
-        <v>2.074285170013979</v>
+        <v>1.18378408966275</v>
       </c>
     </row>
     <row r="488">
@@ -7273,10 +7273,10 @@
         <v>0.9040928373238427</v>
       </c>
       <c r="C488" t="n">
-        <v>1.513559667850178</v>
+        <v>1.280200574793753</v>
       </c>
       <c r="D488" t="n">
-        <v>2.01954103599413</v>
+        <v>1.190057854188425</v>
       </c>
     </row>
     <row r="489">
@@ -7287,10 +7287,10 @@
         <v>0.8856991051925818</v>
       </c>
       <c r="C489" t="n">
-        <v>1.496054853312435</v>
+        <v>1.26185828480368</v>
       </c>
       <c r="D489" t="n">
-        <v>1.996253706509258</v>
+        <v>1.178216533941999</v>
       </c>
     </row>
     <row r="490">
@@ -7301,10 +7301,10 @@
         <v>0.8897472443136296</v>
       </c>
       <c r="C490" t="n">
-        <v>1.488054104723591</v>
+        <v>1.26131465692056</v>
       </c>
       <c r="D490" t="n">
-        <v>1.983385607118752</v>
+        <v>1.17523727195682</v>
       </c>
     </row>
     <row r="491">
@@ -7315,10 +7315,10 @@
         <v>0.8875882367824041</v>
       </c>
       <c r="C491" t="n">
-        <v>1.486592506323646</v>
+        <v>1.291858261467878</v>
       </c>
       <c r="D491" t="n">
-        <v>1.976700215537822</v>
+        <v>1.201908058962245</v>
       </c>
     </row>
     <row r="492">
@@ -7329,10 +7329,10 @@
         <v>0.8846111678038002</v>
       </c>
       <c r="C492" t="n">
-        <v>1.48718459917877</v>
+        <v>1.276304626608142</v>
       </c>
       <c r="D492" t="n">
-        <v>1.990503987213283</v>
+        <v>1.189424239766372</v>
       </c>
     </row>
     <row r="493">
@@ -7343,10 +7343,10 @@
         <v>0.8900086866318639</v>
       </c>
       <c r="C493" t="n">
-        <v>1.519700573402529</v>
+        <v>1.270513826532502</v>
       </c>
       <c r="D493" t="n">
-        <v>2.058461217400051</v>
+        <v>1.185090247520822</v>
       </c>
     </row>
     <row r="494">
@@ -7357,10 +7357,10 @@
         <v>0.8843834599782413</v>
       </c>
       <c r="C494" t="n">
-        <v>1.536914450395005</v>
+        <v>1.289794122945441</v>
       </c>
       <c r="D494" t="n">
-        <v>2.094549851024671</v>
+        <v>1.195745755092064</v>
       </c>
     </row>
     <row r="495">
@@ -7371,10 +7371,10 @@
         <v>0.8779992072394222</v>
       </c>
       <c r="C495" t="n">
-        <v>1.544358501403827</v>
+        <v>1.279345081378856</v>
       </c>
       <c r="D495" t="n">
-        <v>2.119912725114943</v>
+        <v>1.18823957587631</v>
       </c>
     </row>
     <row r="496">
@@ -7385,10 +7385,10 @@
         <v>0.8840292478051496</v>
       </c>
       <c r="C496" t="n">
-        <v>1.548521598740867</v>
+        <v>1.278199695757738</v>
       </c>
       <c r="D496" t="n">
-        <v>2.124245876850459</v>
+        <v>1.186772667853424</v>
       </c>
     </row>
   </sheetData>

--- a/resultado_simu.xlsx
+++ b/resultado_simu.xlsx
@@ -472,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -483,10 +483,10 @@
         <v>0.9926964823357762</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9965840316676582</v>
+        <v>0.9993251632022335</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9987440164367114</v>
+        <v>1.0010688392674</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0.9857050087288</v>
       </c>
       <c r="C4" t="n">
-        <v>1.028026173862769</v>
+        <v>1.012659553463517</v>
       </c>
       <c r="D4" t="n">
-        <v>1.027966375819459</v>
+        <v>1.017177305611924</v>
       </c>
     </row>
     <row r="5">
@@ -511,10 +511,10 @@
         <v>0.9838833461243285</v>
       </c>
       <c r="C5" t="n">
-        <v>1.023578722424667</v>
+        <v>1.011830330729964</v>
       </c>
       <c r="D5" t="n">
-        <v>1.024590896078508</v>
+        <v>1.015350456444305</v>
       </c>
     </row>
     <row r="6">
@@ -525,10 +525,10 @@
         <v>0.9803833925092559</v>
       </c>
       <c r="C6" t="n">
-        <v>1.020048087851363</v>
+        <v>1.009684227207011</v>
       </c>
       <c r="D6" t="n">
-        <v>1.022038014969828</v>
+        <v>1.014109240809527</v>
       </c>
     </row>
     <row r="7">
@@ -539,10 +539,10 @@
         <v>0.9778533055586011</v>
       </c>
       <c r="C7" t="n">
-        <v>1.005566570502748</v>
+        <v>1.004636831587286</v>
       </c>
       <c r="D7" t="n">
-        <v>1.010109847672816</v>
+        <v>1.003328205615881</v>
       </c>
     </row>
     <row r="8">
@@ -553,10 +553,10 @@
         <v>0.9741087768716318</v>
       </c>
       <c r="C8" t="n">
-        <v>1.004861208807553</v>
+        <v>1.007903169351155</v>
       </c>
       <c r="D8" t="n">
-        <v>1.013834072949914</v>
+        <v>1.009393184717474</v>
       </c>
     </row>
     <row r="9">
@@ -567,10 +567,10 @@
         <v>0.9894748382852757</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9986687606257931</v>
+        <v>1.008877081822704</v>
       </c>
       <c r="D9" t="n">
-        <v>1.008275115885798</v>
+        <v>1.015296878896625</v>
       </c>
     </row>
     <row r="10">
@@ -581,10 +581,10 @@
         <v>0.9920639605981125</v>
       </c>
       <c r="C10" t="n">
-        <v>1.016629492431917</v>
+        <v>1.015725423793203</v>
       </c>
       <c r="D10" t="n">
-        <v>1.024836842798976</v>
+        <v>1.020353943383231</v>
       </c>
     </row>
     <row r="11">
@@ -595,10 +595,10 @@
         <v>0.9817918075784537</v>
       </c>
       <c r="C11" t="n">
-        <v>1.001477512358929</v>
+        <v>1.011197655950711</v>
       </c>
       <c r="D11" t="n">
-        <v>1.01332775916282</v>
+        <v>1.019712958161888</v>
       </c>
     </row>
     <row r="12">
@@ -609,10 +609,10 @@
         <v>0.9842375582974201</v>
       </c>
       <c r="C12" t="n">
-        <v>1.009163664838123</v>
+        <v>1.012933296413434</v>
       </c>
       <c r="D12" t="n">
-        <v>1.018785553325454</v>
+        <v>1.027070490036601</v>
       </c>
     </row>
     <row r="13">
@@ -623,10 +623,10 @@
         <v>0.9991988057989593</v>
       </c>
       <c r="C13" t="n">
-        <v>1.032980602821767</v>
+        <v>1.049058276582031</v>
       </c>
       <c r="D13" t="n">
-        <v>1.04032946675679</v>
+        <v>1.087019139437104</v>
       </c>
     </row>
     <row r="14">
@@ -637,10 +637,10 @@
         <v>1.002437317095797</v>
       </c>
       <c r="C14" t="n">
-        <v>1.030508383027458</v>
+        <v>1.047952691835974</v>
       </c>
       <c r="D14" t="n">
-        <v>1.03937873859691</v>
+        <v>1.093575559047644</v>
       </c>
     </row>
     <row r="15">
@@ -651,10 +651,10 @@
         <v>0.9869531849577897</v>
       </c>
       <c r="C15" t="n">
-        <v>1.03840939485022</v>
+        <v>1.046487891015925</v>
       </c>
       <c r="D15" t="n">
-        <v>1.046777572458948</v>
+        <v>1.0858151732109</v>
       </c>
     </row>
     <row r="16">
@@ -665,10 +665,10 @@
         <v>0.9984650805832693</v>
       </c>
       <c r="C16" t="n">
-        <v>1.033663787293094</v>
+        <v>1.051625020388931</v>
       </c>
       <c r="D16" t="n">
-        <v>1.043266346082272</v>
+        <v>1.091496694125336</v>
       </c>
     </row>
     <row r="17">
@@ -679,10 +679,10 @@
         <v>1.008054110126251</v>
       </c>
       <c r="C17" t="n">
-        <v>1.025126224050982</v>
+        <v>1.04470496345585</v>
       </c>
       <c r="D17" t="n">
-        <v>1.037634147559973</v>
+        <v>1.084772677043379</v>
       </c>
     </row>
     <row r="18">
@@ -693,10 +693,10 @@
         <v>0.9983385762357366</v>
       </c>
       <c r="C18" t="n">
-        <v>1.025840508095111</v>
+        <v>1.049670814679412</v>
       </c>
       <c r="D18" t="n">
-        <v>1.039397385146794</v>
+        <v>1.092831942413566</v>
       </c>
     </row>
     <row r="19">
@@ -707,10 +707,10 @@
         <v>0.9654980476162364</v>
       </c>
       <c r="C19" t="n">
-        <v>1.022904914840095</v>
+        <v>1.03656880682538</v>
       </c>
       <c r="D19" t="n">
-        <v>1.037993316774656</v>
+        <v>1.074442227138329</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         <v>0.982339993084429</v>
       </c>
       <c r="C20" t="n">
-        <v>1.024996959340311</v>
+        <v>1.038529856795894</v>
       </c>
       <c r="D20" t="n">
-        <v>1.039486042638547</v>
+        <v>1.077604118817845</v>
       </c>
     </row>
     <row r="21">
@@ -735,10 +735,10 @@
         <v>0.9731136093377075</v>
       </c>
       <c r="C21" t="n">
-        <v>1.005328822842846</v>
+        <v>1.031917756427532</v>
       </c>
       <c r="D21" t="n">
-        <v>1.023508208960002</v>
+        <v>1.072017443605535</v>
       </c>
     </row>
     <row r="22">
@@ -749,10 +749,10 @@
         <v>0.974319617450853</v>
       </c>
       <c r="C22" t="n">
-        <v>1.001741816486693</v>
+        <v>1.016833269666031</v>
       </c>
       <c r="D22" t="n">
-        <v>1.022493506944987</v>
+        <v>1.055301273078494</v>
       </c>
     </row>
     <row r="23">
@@ -763,10 +763,10 @@
         <v>0.9594174053114959</v>
       </c>
       <c r="C23" t="n">
-        <v>1.00078029592581</v>
+        <v>1.016792570628949</v>
       </c>
       <c r="D23" t="n">
-        <v>1.021090420121367</v>
+        <v>1.056769209523284</v>
       </c>
     </row>
     <row r="24">
@@ -777,10 +777,10 @@
         <v>0.9667377902220573</v>
       </c>
       <c r="C24" t="n">
-        <v>1.003362454234223</v>
+        <v>1.025182598158656</v>
       </c>
       <c r="D24" t="n">
-        <v>1.016193367417523</v>
+        <v>1.070267248331518</v>
       </c>
     </row>
     <row r="25">
@@ -791,10 +791,10 @@
         <v>0.9745641925227497</v>
       </c>
       <c r="C25" t="n">
-        <v>1.015002467494341</v>
+        <v>1.031331149742145</v>
       </c>
       <c r="D25" t="n">
-        <v>1.024145109791184</v>
+        <v>1.076052919309771</v>
       </c>
     </row>
     <row r="26">
@@ -805,10 +805,10 @@
         <v>0.9785364290352778</v>
       </c>
       <c r="C26" t="n">
-        <v>1.005741092056168</v>
+        <v>1.026451963274888</v>
       </c>
       <c r="D26" t="n">
-        <v>1.016889646963354</v>
+        <v>1.068629753728903</v>
       </c>
     </row>
     <row r="27">
@@ -819,10 +819,10 @@
         <v>0.9714690528197819</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9942162455505398</v>
+        <v>1.018013373262889</v>
       </c>
       <c r="D27" t="n">
-        <v>1.007658226228672</v>
+        <v>1.056089850305953</v>
       </c>
     </row>
     <row r="28">
@@ -833,10 +833,10 @@
         <v>0.9594933079200155</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9801417165185284</v>
+        <v>1.009048113202245</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9982220367552828</v>
+        <v>1.044992157691015</v>
       </c>
     </row>
     <row r="29">
@@ -847,10 +847,10 @@
         <v>0.949372960117396</v>
       </c>
       <c r="C29" t="n">
-        <v>0.976678799265799</v>
+        <v>1.005751775050067</v>
       </c>
       <c r="D29" t="n">
-        <v>1.001415119243167</v>
+        <v>1.044248403164385</v>
       </c>
     </row>
     <row r="30">
@@ -861,10 +861,10 @@
         <v>0.9729955386133436</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9926522561591904</v>
+        <v>1.014918649637191</v>
       </c>
       <c r="D30" t="n">
-        <v>1.016445789751353</v>
+        <v>1.050858237313603</v>
       </c>
     </row>
     <row r="31">
@@ -875,10 +875,10 @@
         <v>0.9839845496023547</v>
       </c>
       <c r="C31" t="n">
-        <v>1.000211679086602</v>
+        <v>1.021743219542301</v>
       </c>
       <c r="D31" t="n">
-        <v>1.022251069321225</v>
+        <v>1.055505697370557</v>
       </c>
     </row>
     <row r="32">
@@ -889,10 +889,10 @@
         <v>0.9754497229554789</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9956325464296641</v>
+        <v>1.011935035766185</v>
       </c>
       <c r="D32" t="n">
-        <v>1.018680575573689</v>
+        <v>1.049220478160191</v>
       </c>
     </row>
     <row r="33">
@@ -903,10 +903,10 @@
         <v>0.9646462516761826</v>
       </c>
       <c r="C33" t="n">
-        <v>1.005879825581811</v>
+        <v>1.020837802794413</v>
       </c>
       <c r="D33" t="n">
-        <v>1.028826650185312</v>
+        <v>1.055722949163554</v>
       </c>
     </row>
     <row r="34">
@@ -917,10 +917,10 @@
         <v>0.972472653976875</v>
       </c>
       <c r="C34" t="n">
-        <v>1.019474368079926</v>
+        <v>1.029392880661614</v>
       </c>
       <c r="D34" t="n">
-        <v>1.039135438058785</v>
+        <v>1.06074521484337</v>
       </c>
     </row>
     <row r="35">
@@ -931,10 +931,10 @@
         <v>0.9696726910848169</v>
       </c>
       <c r="C35" t="n">
-        <v>1.018352595205666</v>
+        <v>1.027575400890206</v>
       </c>
       <c r="D35" t="n">
-        <v>1.037456798554754</v>
+        <v>1.058328626384386</v>
       </c>
     </row>
     <row r="36">
@@ -945,10 +945,10 @@
         <v>0.9826689043880141</v>
       </c>
       <c r="C36" t="n">
-        <v>1.020462036546558</v>
+        <v>1.029040228990614</v>
       </c>
       <c r="D36" t="n">
-        <v>1.038822383729922</v>
+        <v>1.059465604692585</v>
       </c>
     </row>
     <row r="37">
@@ -959,10 +959,10 @@
         <v>0.9663751444257968</v>
       </c>
       <c r="C37" t="n">
-        <v>1.011367517871374</v>
+        <v>1.02523100048697</v>
       </c>
       <c r="D37" t="n">
-        <v>1.032482396381316</v>
+        <v>1.058414092947534</v>
       </c>
     </row>
     <row r="38">
@@ -973,10 +973,10 @@
         <v>0.9587427154579879</v>
       </c>
       <c r="C38" t="n">
-        <v>1.012702997820167</v>
+        <v>1.024639655275837</v>
       </c>
       <c r="D38" t="n">
-        <v>1.033428076293347</v>
+        <v>1.057153758648339</v>
       </c>
     </row>
     <row r="39">
@@ -987,10 +987,10 @@
         <v>0.8915857741644387</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9762583781097742</v>
+        <v>1.001607735980191</v>
       </c>
       <c r="D39" t="n">
-        <v>1.004245474817214</v>
+        <v>1.037506233975958</v>
       </c>
     </row>
     <row r="40">
@@ -1001,10 +1001,10 @@
         <v>0.8685282484208041</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9837639577325989</v>
+        <v>1.002993380651926</v>
       </c>
       <c r="D40" t="n">
-        <v>1.010334753068263</v>
+        <v>1.037000056140415</v>
       </c>
     </row>
     <row r="41">
@@ -1015,10 +1015,10 @@
         <v>0.8785473927453974</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9743324266469442</v>
+        <v>0.9920342653721611</v>
       </c>
       <c r="D41" t="n">
-        <v>1.001718738732379</v>
+        <v>1.018595105462111</v>
       </c>
     </row>
     <row r="42">
@@ -1029,10 +1029,10 @@
         <v>0.8992350703785853</v>
       </c>
       <c r="C42" t="n">
-        <v>1.009622468471383</v>
+        <v>1.008511136469922</v>
       </c>
       <c r="D42" t="n">
-        <v>1.043977561381124</v>
+        <v>1.039171733200878</v>
       </c>
     </row>
     <row r="43">
@@ -1043,10 +1043,10 @@
         <v>0.890059288370877</v>
       </c>
       <c r="C43" t="n">
-        <v>1.009099536313432</v>
+        <v>1.003056232427801</v>
       </c>
       <c r="D43" t="n">
-        <v>1.041316234736053</v>
+        <v>1.034395222662919</v>
       </c>
     </row>
     <row r="44">
@@ -1057,10 +1057,10 @@
         <v>0.9042868106567262</v>
       </c>
       <c r="C44" t="n">
-        <v>1.041632193887394</v>
+        <v>1.032278735483161</v>
       </c>
       <c r="D44" t="n">
-        <v>1.065813953516116</v>
+        <v>1.04824611209694</v>
       </c>
     </row>
     <row r="45">
@@ -1071,10 +1071,10 @@
         <v>0.862194597420998</v>
       </c>
       <c r="C45" t="n">
-        <v>1.010384979036285</v>
+        <v>1.006844739033597</v>
       </c>
       <c r="D45" t="n">
-        <v>1.040164184192831</v>
+        <v>1.029986745540231</v>
       </c>
     </row>
     <row r="46">
@@ -1085,10 +1085,10 @@
         <v>0.8264697696777512</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9945404442858419</v>
+        <v>0.9896146067863267</v>
       </c>
       <c r="D46" t="n">
-        <v>1.009128691950711</v>
+        <v>1.003777086438867</v>
       </c>
     </row>
     <row r="47">
@@ -1099,10 +1099,10 @@
         <v>0.7258566452733759</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9616963164041601</v>
+        <v>0.9572002284286896</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9862662411760987</v>
+        <v>0.9866664106002173</v>
       </c>
     </row>
     <row r="48">
@@ -1113,10 +1113,10 @@
         <v>0.7776981268922942</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9739584605784071</v>
+        <v>0.9707893124358034</v>
       </c>
       <c r="D48" t="n">
-        <v>1.002426374902817</v>
+        <v>0.9972700049263266</v>
       </c>
     </row>
     <row r="49">
@@ -1127,10 +1127,10 @@
         <v>0.7183001189140866</v>
       </c>
       <c r="C49" t="n">
-        <v>0.945927097747135</v>
+        <v>0.9471977377815533</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9810201371825288</v>
+        <v>0.9776345075502888</v>
       </c>
     </row>
     <row r="50">
@@ -1141,10 +1141,10 @@
         <v>0.6121376704646083</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8919746958018105</v>
+        <v>0.8946289086122422</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9379714138607932</v>
+        <v>0.9457457582413737</v>
       </c>
     </row>
     <row r="51">
@@ -1155,10 +1155,10 @@
         <v>0.6972750963541448</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9222079889910688</v>
+        <v>0.9194935042674768</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9687012389042216</v>
+        <v>0.9631557307508121</v>
       </c>
     </row>
     <row r="52">
@@ -1169,10 +1169,10 @@
         <v>0.6002040936806862</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8795112370703186</v>
+        <v>0.8649152356231928</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9355532419465049</v>
+        <v>0.8922584647901359</v>
       </c>
     </row>
     <row r="53">
@@ -1183,10 +1183,10 @@
         <v>0.6292916599900483</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8783665165659611</v>
+        <v>0.8565312539924169</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9388364506037354</v>
+        <v>0.8770090808760103</v>
       </c>
     </row>
     <row r="54">
@@ -1197,10 +1197,10 @@
         <v>0.564167221880192</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8512531161878931</v>
+        <v>0.8163738909711815</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9211770400659709</v>
+        <v>0.8507671947868103</v>
       </c>
     </row>
     <row r="55">
@@ -1211,10 +1211,10 @@
         <v>0.5762863383738288</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8450540635565194</v>
+        <v>0.8137386970626054</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9149781602030427</v>
+        <v>0.8521513482994834</v>
       </c>
     </row>
     <row r="56">
@@ -1225,10 +1225,10 @@
         <v>0.5656346723115718</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8548645123777644</v>
+        <v>0.8059754896275525</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9234290377823099</v>
+        <v>0.8292034207347228</v>
       </c>
     </row>
     <row r="57">
@@ -1239,10 +1239,10 @@
         <v>0.5361254248437671</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8279870163399795</v>
+        <v>0.7597018243462594</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8976248752734169</v>
+        <v>0.7778203809663671</v>
       </c>
     </row>
     <row r="58">
@@ -1253,10 +1253,10 @@
         <v>0.5880681099407117</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8352659632430031</v>
+        <v>0.7772535521431706</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9069426413488741</v>
+        <v>0.807525642538425</v>
       </c>
     </row>
     <row r="59">
@@ -1267,10 +1267,10 @@
         <v>0.6321506582442883</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8747762046446877</v>
+        <v>0.7930426723808123</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9376269018187394</v>
+        <v>0.8268396054763864</v>
       </c>
     </row>
     <row r="60">
@@ -1281,10 +1281,10 @@
         <v>0.6553768564513001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9094973004234499</v>
+        <v>0.8277310398427971</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9663929884942852</v>
+        <v>0.8518096390892654</v>
       </c>
     </row>
     <row r="61">
@@ -1295,10 +1295,10 @@
         <v>0.619272515665455</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9101084676626556</v>
+        <v>0.8356223127915078</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9682919800071976</v>
+        <v>0.8445904665933514</v>
       </c>
     </row>
     <row r="62">
@@ -1309,10 +1309,10 @@
         <v>0.6294856333229318</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8693224303407743</v>
+        <v>0.8231706978752253</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9350684780427685</v>
+        <v>0.8285295766325198</v>
       </c>
     </row>
     <row r="63">
@@ -1323,10 +1323,10 @@
         <v>0.6158231637893956</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8774056544412117</v>
+        <v>0.8274081778422058</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9424337097190814</v>
+        <v>0.8454483967056474</v>
       </c>
     </row>
     <row r="64">
@@ -1337,10 +1337,10 @@
         <v>0.5985089354237474</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8552538339609876</v>
+        <v>0.8119216815010751</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9217723239469238</v>
+        <v>0.8327946243533549</v>
       </c>
     </row>
     <row r="65">
@@ -1351,10 +1351,10 @@
         <v>0.609354574818888</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8842610852020303</v>
+        <v>0.8280771807932634</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9482852641210092</v>
+        <v>0.8453470364091086</v>
       </c>
     </row>
     <row r="66">
@@ -1365,10 +1365,10 @@
         <v>0.5864572879154614</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8819504939303255</v>
+        <v>0.8240407131417717</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9436819089376502</v>
+        <v>0.8363017335681396</v>
       </c>
     </row>
     <row r="67">
@@ -1379,10 +1379,10 @@
         <v>0.6247037689861942</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8906875676819459</v>
+        <v>0.8332246076372147</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9519539955654508</v>
+        <v>0.8527203752927925</v>
       </c>
     </row>
     <row r="68">
@@ -1393,10 +1393,10 @@
         <v>0.6439745979270154</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8841087082580257</v>
+        <v>0.8350525811125189</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9477723147743164</v>
+        <v>0.8570337259474552</v>
       </c>
     </row>
     <row r="69">
@@ -1407,10 +1407,10 @@
         <v>0.6630936216507974</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8704044511860016</v>
+        <v>0.8254958469465085</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9367091287692728</v>
+        <v>0.8488244826485738</v>
       </c>
     </row>
     <row r="70">
@@ -1421,10 +1421,10 @@
         <v>0.6551407150025722</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8857916111455506</v>
+        <v>0.8313966826466538</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9492522153360065</v>
+        <v>0.8503380526547811</v>
       </c>
     </row>
     <row r="71">
@@ -1435,10 +1435,10 @@
         <v>0.6648731161394247</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8804907076185412</v>
+        <v>0.833339157096754</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9448803942591655</v>
+        <v>0.8566770738273091</v>
       </c>
     </row>
     <row r="72">
@@ -1449,10 +1449,10 @@
         <v>0.6739982964081199</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9073465662410645</v>
+        <v>0.8563103189323288</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9615909016589523</v>
+        <v>0.8734856320998652</v>
       </c>
     </row>
     <row r="73">
@@ -1463,10 +1463,10 @@
         <v>0.6648309480235804</v>
       </c>
       <c r="C73" t="n">
-        <v>0.919224070606437</v>
+        <v>0.8633994865781698</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9756744162871468</v>
+        <v>0.8791325391054029</v>
       </c>
     </row>
     <row r="74">
@@ -1477,10 +1477,10 @@
         <v>0.6562370860145227</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9113010921387483</v>
+        <v>0.8680641749227995</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9688349665500947</v>
+        <v>0.8869176294452819</v>
       </c>
     </row>
     <row r="75">
@@ -1491,10 +1491,10 @@
         <v>0.6661718941074275</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8957590133956786</v>
+        <v>0.857122713714643</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9575335695668548</v>
+        <v>0.8809182864519394</v>
       </c>
     </row>
     <row r="76">
@@ -1505,10 +1505,10 @@
         <v>0.666028522513557</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8883689823901449</v>
+        <v>0.8494955707903217</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9511393558048693</v>
+        <v>0.8709688463035411</v>
       </c>
     </row>
     <row r="77">
@@ -1519,10 +1519,10 @@
         <v>0.6804837526249652</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9015987051088522</v>
+        <v>0.8602776130769807</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9610410637174065</v>
+        <v>0.8825791733143451</v>
       </c>
     </row>
     <row r="78">
@@ -1533,10 +1533,10 @@
         <v>0.6719320587317518</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8936649409307285</v>
+        <v>0.8543810406263789</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9547184482090398</v>
+        <v>0.872796990510301</v>
       </c>
     </row>
     <row r="79">
@@ -1547,10 +1547,10 @@
         <v>0.6353132669326069</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8743698747642181</v>
+        <v>0.8315782392588068</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9401352699340829</v>
+        <v>0.8547262216655246</v>
       </c>
     </row>
     <row r="80">
@@ -1561,10 +1561,10 @@
         <v>0.6598382431076215</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8827206559244037</v>
+        <v>0.8348535590034731</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9462333140783692</v>
+        <v>0.8557160865475274</v>
       </c>
     </row>
     <row r="81">
@@ -1575,10 +1575,10 @@
         <v>0.6857547671054962</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9009406808774747</v>
+        <v>0.8634998526096977</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9610407365345672</v>
+        <v>0.8994043248625624</v>
       </c>
     </row>
     <row r="82">
@@ -1589,10 +1589,10 @@
         <v>0.7014328725763875</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8985107349098316</v>
+        <v>0.8692285004714515</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9591240459985758</v>
+        <v>0.9063901161923399</v>
       </c>
     </row>
     <row r="83">
@@ -1603,10 +1603,10 @@
         <v>0.6789572668314034</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8989405722476906</v>
+        <v>0.8701230293419202</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9594548066408847</v>
+        <v>0.9039255784569477</v>
       </c>
     </row>
     <row r="84">
@@ -1617,10 +1617,10 @@
         <v>0.6652104610661786</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8775008958767634</v>
+        <v>0.8568541063893258</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9425353524592713</v>
+        <v>0.8926810485830441</v>
       </c>
     </row>
     <row r="85">
@@ -1631,10 +1631,10 @@
         <v>0.6702284668516442</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8883677181510143</v>
+        <v>0.8696936629138079</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9517664460111136</v>
+        <v>0.9045239346814861</v>
       </c>
     </row>
     <row r="86">
@@ -1645,10 +1645,10 @@
         <v>0.6667959822219224</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8874446786994046</v>
+        <v>0.8701814111980172</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9512786674301141</v>
+        <v>0.9043936430957491</v>
       </c>
     </row>
     <row r="87">
@@ -1659,10 +1659,10 @@
         <v>0.6588262083273595</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8856793614127526</v>
+        <v>0.8629593747261695</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9500022268757742</v>
+        <v>0.8980000973144939</v>
       </c>
     </row>
     <row r="88">
@@ -1673,10 +1673,10 @@
         <v>0.6769078964013729</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8929928187431684</v>
+        <v>0.883515260966752</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9552903377437538</v>
+        <v>0.9094505983419499</v>
       </c>
     </row>
     <row r="89">
@@ -1687,10 +1687,10 @@
         <v>0.6668044158450912</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8818294864518272</v>
+        <v>0.8734193682574596</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9462711502000272</v>
+        <v>0.9094267196369029</v>
       </c>
     </row>
     <row r="90">
@@ -1701,10 +1701,10 @@
         <v>0.6567431034046537</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8768523931166903</v>
+        <v>0.873161038020571</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9426452812539907</v>
+        <v>0.9091705651105578</v>
       </c>
     </row>
     <row r="91">
@@ -1715,10 +1715,10 @@
         <v>0.6558997410877687</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8844403871386424</v>
+        <v>0.8775002490303291</v>
       </c>
       <c r="D91" t="n">
-        <v>0.948531099497689</v>
+        <v>0.9090762691041497</v>
       </c>
     </row>
     <row r="92">
@@ -1729,10 +1729,10 @@
         <v>0.6663490001939734</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8848987955710415</v>
+        <v>0.8713225235970221</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9489423988138248</v>
+        <v>0.9011268901906585</v>
       </c>
     </row>
     <row r="93">
@@ -1743,10 +1743,10 @@
         <v>0.6540865121064661</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8852366970384691</v>
+        <v>0.8712277387782594</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9493663634859253</v>
+        <v>0.9012823191734948</v>
       </c>
     </row>
     <row r="94">
@@ -1757,10 +1757,10 @@
         <v>0.684759599571572</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8990151112774467</v>
+        <v>0.879705345928021</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9594887432998158</v>
+        <v>0.9048029593409831</v>
       </c>
     </row>
     <row r="95">
@@ -1771,10 +1771,10 @@
         <v>0.680947601899252</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8906374118052812</v>
+        <v>0.9055151956047458</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9534075838666933</v>
+        <v>0.9769820806011775</v>
       </c>
     </row>
     <row r="96">
@@ -1785,10 +1785,10 @@
         <v>0.6858138024676781</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8865626555159578</v>
+        <v>0.9013361122029983</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9502017874203974</v>
+        <v>0.9715149735312097</v>
       </c>
     </row>
     <row r="97">
@@ -1799,10 +1799,10 @@
         <v>0.7002184308400732</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9015100748035412</v>
+        <v>0.9135287542163324</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9613291145171796</v>
+        <v>0.9872037159844065</v>
       </c>
     </row>
     <row r="98">
@@ -1813,10 +1813,10 @@
         <v>0.6930161166538756</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9059591790242038</v>
+        <v>0.9165286731639677</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9648020176431216</v>
+        <v>0.9868845210745282</v>
       </c>
     </row>
     <row r="99">
@@ -1827,10 +1827,10 @@
         <v>0.7224494615131607</v>
       </c>
       <c r="C99" t="n">
-        <v>0.916544860157305</v>
+        <v>0.9214597975952705</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9727954810204329</v>
+        <v>0.9734573846540261</v>
       </c>
     </row>
     <row r="100">
@@ -1841,10 +1841,10 @@
         <v>0.7208133386184038</v>
       </c>
       <c r="C100" t="n">
-        <v>0.922161316644013</v>
+        <v>0.9203115397638761</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9771759080442756</v>
+        <v>0.9674951096936636</v>
       </c>
     </row>
     <row r="101">
@@ -1855,10 +1855,10 @@
         <v>0.7417034232076443</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9466433771415472</v>
+        <v>0.9312042947940075</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9970337248096997</v>
+        <v>0.976483795301194</v>
       </c>
     </row>
     <row r="102">
@@ -1869,10 +1869,10 @@
         <v>0.7332951009083012</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9602316970528508</v>
+        <v>0.940477225534692</v>
       </c>
       <c r="D102" t="n">
-        <v>1.007677332734445</v>
+        <v>0.9824429358354554</v>
       </c>
     </row>
     <row r="103">
@@ -1883,10 +1883,10 @@
         <v>0.7371239658269589</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9600018573767721</v>
+        <v>0.9283946761716543</v>
       </c>
       <c r="D103" t="n">
-        <v>1.007910342808924</v>
+        <v>0.9735685743584207</v>
       </c>
     </row>
     <row r="104">
@@ -1897,10 +1897,10 @@
         <v>0.7473876852234489</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9619050784690716</v>
+        <v>0.9377181049256251</v>
       </c>
       <c r="D104" t="n">
-        <v>1.009046977318577</v>
+        <v>0.9879259439567063</v>
       </c>
     </row>
     <row r="105">
@@ -1911,10 +1911,10 @@
         <v>0.7678476550310779</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9716422591803191</v>
+        <v>0.9439866417098737</v>
       </c>
       <c r="D105" t="n">
-        <v>1.01658659877382</v>
+        <v>0.9903479486095995</v>
       </c>
     </row>
     <row r="106">
@@ -1925,10 +1925,10 @@
         <v>0.7843438219493477</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9483502813193612</v>
+        <v>0.9352255582147073</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9990264074814792</v>
+        <v>0.9867050771309256</v>
       </c>
     </row>
     <row r="107">
@@ -1939,10 +1939,10 @@
         <v>0.7913184283099862</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9469274353043878</v>
+        <v>0.9267411456095676</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9977416881629769</v>
+        <v>0.981646042581755</v>
       </c>
     </row>
     <row r="108">
@@ -1953,10 +1953,10 @@
         <v>0.7981327958304167</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9524979238558803</v>
+        <v>0.9355180674122653</v>
       </c>
       <c r="D108" t="n">
-        <v>1.002168717201716</v>
+        <v>0.9902193733978593</v>
       </c>
     </row>
     <row r="109">
@@ -1967,10 +1967,10 @@
         <v>0.8235011343223162</v>
       </c>
       <c r="C109" t="n">
-        <v>0.950297817564316</v>
+        <v>0.9377474766403584</v>
       </c>
       <c r="D109" t="n">
-        <v>1.000019016591245</v>
+        <v>0.989681520109433</v>
       </c>
     </row>
     <row r="110">
@@ -1981,10 +1981,10 @@
         <v>0.8159277407166893</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9573039791672063</v>
+        <v>0.9492067341615515</v>
       </c>
       <c r="D110" t="n">
-        <v>1.006035867696026</v>
+        <v>0.996069344123603</v>
       </c>
     </row>
     <row r="111">
@@ -1995,10 +1995,10 @@
         <v>0.7985460433656904</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9584667616290008</v>
+        <v>0.9412162955566254</v>
       </c>
       <c r="D111" t="n">
-        <v>1.007375635030189</v>
+        <v>0.9735141810178665</v>
       </c>
     </row>
     <row r="112">
@@ -2009,10 +2009,10 @@
         <v>0.7825980619533958</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9417664702283879</v>
+        <v>0.9500311608413156</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9943022272765234</v>
+        <v>0.9919785843692991</v>
       </c>
     </row>
     <row r="113">
@@ -2023,10 +2023,10 @@
         <v>0.7790643738456479</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9395601413500122</v>
+        <v>0.9405421374862728</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9924873467173252</v>
+        <v>0.9713810715657649</v>
       </c>
     </row>
     <row r="114">
@@ -2037,10 +2037,10 @@
         <v>0.7888052086056691</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9460527869767855</v>
+        <v>0.953912553881777</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9990039873933914</v>
+        <v>0.9992264322447</v>
       </c>
     </row>
     <row r="115">
@@ -2051,10 +2051,10 @@
         <v>0.8058073929140698</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9520593354529483</v>
+        <v>0.9573750260143414</v>
       </c>
       <c r="D115" t="n">
-        <v>1.003426957023167</v>
+        <v>0.9911675240038591</v>
       </c>
     </row>
     <row r="116">
@@ -2065,10 +2065,10 @@
         <v>0.8106820271056648</v>
       </c>
       <c r="C116" t="n">
-        <v>0.950844362469127</v>
+        <v>0.9577783683341715</v>
       </c>
       <c r="D116" t="n">
-        <v>1.002468611755171</v>
+        <v>0.9895249772977017</v>
       </c>
     </row>
     <row r="117">
@@ -2079,10 +2079,10 @@
         <v>0.8144518566621406</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9536979231878175</v>
+        <v>0.96370742736911</v>
       </c>
       <c r="D117" t="n">
-        <v>1.005050882984743</v>
+        <v>0.9973671805190252</v>
       </c>
     </row>
     <row r="118">
@@ -2093,10 +2093,10 @@
         <v>0.8040278984254425</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9534233864962813</v>
+        <v>0.9694222446078606</v>
       </c>
       <c r="D118" t="n">
-        <v>1.004453175609024</v>
+        <v>1.009603431864133</v>
       </c>
     </row>
     <row r="119">
@@ -2107,10 +2107,10 @@
         <v>0.8094169836303374</v>
       </c>
       <c r="C119" t="n">
-        <v>0.954809786047343</v>
+        <v>0.9805570707005683</v>
       </c>
       <c r="D119" t="n">
-        <v>1.005894752919981</v>
+        <v>1.029163390503255</v>
       </c>
     </row>
     <row r="120">
@@ -2121,10 +2121,10 @@
         <v>0.7959400538065158</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9487349211282357</v>
+        <v>0.9701044450084881</v>
       </c>
       <c r="D120" t="n">
-        <v>1.001103026580003</v>
+        <v>1.010587640876824</v>
       </c>
     </row>
     <row r="121">
@@ -2135,10 +2135,10 @@
         <v>0.8094844526156882</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9498070386393569</v>
+        <v>0.972034392251204</v>
       </c>
       <c r="D121" t="n">
-        <v>1.001658678478864</v>
+        <v>1.018388143845575</v>
       </c>
     </row>
     <row r="122">
@@ -2149,10 +2149,10 @@
         <v>0.7913605964258305</v>
       </c>
       <c r="C122" t="n">
-        <v>0.947290497011765</v>
+        <v>0.9737679777395938</v>
       </c>
       <c r="D122" t="n">
-        <v>1.001102204977721</v>
+        <v>1.026418714917501</v>
       </c>
     </row>
     <row r="123">
@@ -2163,10 +2163,10 @@
         <v>0.8073929140698135</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9623641453376044</v>
+        <v>0.9748768108023835</v>
       </c>
       <c r="D123" t="n">
-        <v>1.014458622573678</v>
+        <v>1.023054291681816</v>
       </c>
     </row>
     <row r="124">
@@ -2177,10 +2177,10 @@
         <v>0.8016664839381646</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9651158668517574</v>
+        <v>0.9729532084805237</v>
       </c>
       <c r="D124" t="n">
-        <v>1.016049099005399</v>
+        <v>1.008270913369238</v>
       </c>
     </row>
     <row r="125">
@@ -2191,10 +2191,10 @@
         <v>0.8113398497128351</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9746070819660086</v>
+        <v>0.9825845010878633</v>
       </c>
       <c r="D125" t="n">
-        <v>1.02307155175875</v>
+        <v>1.019832524656536</v>
       </c>
     </row>
     <row r="126">
@@ -2205,10 +2205,10 @@
         <v>0.8116097256542383</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9772539286032083</v>
+        <v>0.9808466088248575</v>
       </c>
       <c r="D126" t="n">
-        <v>1.027751218970369</v>
+        <v>1.015698706377675</v>
       </c>
     </row>
     <row r="127">
@@ -2219,10 +2219,10 @@
         <v>0.8160795459337286</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9848862377778156</v>
+        <v>0.9858354340475852</v>
       </c>
       <c r="D127" t="n">
-        <v>1.033493011814181</v>
+        <v>1.023642251131706</v>
       </c>
     </row>
     <row r="128">
@@ -2233,10 +2233,10 @@
         <v>0.8343973754564699</v>
       </c>
       <c r="C128" t="n">
-        <v>0.992774040701351</v>
+        <v>0.987116403301967</v>
       </c>
       <c r="D128" t="n">
-        <v>1.039612000078594</v>
+        <v>1.026712286911382</v>
       </c>
     </row>
     <row r="129">
@@ -2247,10 +2247,10 @@
         <v>0.8244794346099028</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9776489722597159</v>
+        <v>0.9782280688652591</v>
       </c>
       <c r="D129" t="n">
-        <v>1.028336260990123</v>
+        <v>1.021643395840891</v>
       </c>
     </row>
     <row r="130">
@@ -2261,10 +2261,10 @@
         <v>0.8414225835561215</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9871973295630472</v>
+        <v>0.9826408753431389</v>
       </c>
       <c r="D130" t="n">
-        <v>1.035519791091128</v>
+        <v>1.023129960719178</v>
       </c>
     </row>
     <row r="131">
@@ -2275,10 +2275,10 @@
         <v>0.8362780734231233</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9731506012193445</v>
+        <v>0.9757128472194528</v>
       </c>
       <c r="D131" t="n">
-        <v>1.024464883850247</v>
+        <v>1.018660120629995</v>
       </c>
     </row>
     <row r="132">
@@ -2289,10 +2289,10 @@
         <v>0.8436321928263601</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9779645252194148</v>
+        <v>0.9795033489916343</v>
       </c>
       <c r="D132" t="n">
-        <v>1.028344866937125</v>
+        <v>1.017133264360374</v>
       </c>
     </row>
     <row r="133">
@@ -2303,10 +2303,10 @@
         <v>0.8323733058959459</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9742388446513832</v>
+        <v>0.9741982146859689</v>
       </c>
       <c r="D133" t="n">
-        <v>1.025770714525479</v>
+        <v>1.010230572273834</v>
       </c>
     </row>
     <row r="134">
@@ -2317,10 +2317,10 @@
         <v>0.8470731110792508</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9774713231056644</v>
+        <v>0.9841258308728194</v>
       </c>
       <c r="D134" t="n">
-        <v>1.028187848998435</v>
+        <v>1.008836646086712</v>
       </c>
     </row>
     <row r="135">
@@ -2331,10 +2331,10 @@
         <v>0.8584669359803665</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9788130256412688</v>
+        <v>1.008236016188001</v>
       </c>
       <c r="D135" t="n">
-        <v>1.028798708859194</v>
+        <v>1.026580050729263</v>
       </c>
     </row>
     <row r="136">
@@ -2345,10 +2345,10 @@
         <v>0.8480261104973308</v>
       </c>
       <c r="C136" t="n">
-        <v>0.979701271411527</v>
+        <v>1.006154712899237</v>
       </c>
       <c r="D136" t="n">
-        <v>1.029540768817638</v>
+        <v>1.020251184256288</v>
       </c>
     </row>
     <row r="137">
@@ -2359,10 +2359,10 @@
         <v>0.8677186205965945</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9762451758679787</v>
+        <v>1.008506794789549</v>
       </c>
       <c r="D137" t="n">
-        <v>1.027021824367889</v>
+        <v>1.027320451933719</v>
       </c>
     </row>
     <row r="138">
@@ -2373,10 +2373,10 @@
         <v>0.8806895330302852</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9855459147917536</v>
+        <v>1.022894833998342</v>
       </c>
       <c r="D138" t="n">
-        <v>1.033590762382012</v>
+        <v>1.03650004805503</v>
       </c>
     </row>
     <row r="139">
@@ -2387,10 +2387,10 @@
         <v>0.8797112327426986</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9897825761770134</v>
+        <v>1.024916082645777</v>
       </c>
       <c r="D139" t="n">
-        <v>1.03716953489371</v>
+        <v>1.036315101924625</v>
       </c>
     </row>
     <row r="140">
@@ -2401,10 +2401,10 @@
         <v>0.8795425602793217</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9980562831485541</v>
+        <v>1.029857876406052</v>
       </c>
       <c r="D140" t="n">
-        <v>1.044738052050402</v>
+        <v>1.041491724186963</v>
       </c>
     </row>
     <row r="141">
@@ -2415,10 +2415,10 @@
         <v>0.862700614811129</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9873050094915945</v>
+        <v>1.024340861943297</v>
       </c>
       <c r="D141" t="n">
-        <v>1.035202022987623</v>
+        <v>1.045047921486891</v>
       </c>
     </row>
     <row r="142">
@@ -2429,10 +2429,10 @@
         <v>0.8634512072731566</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9950300249428647</v>
+        <v>1.027895563654365</v>
       </c>
       <c r="D142" t="n">
-        <v>1.042549868242963</v>
+        <v>1.052023266801392</v>
       </c>
     </row>
     <row r="143">
@@ -2443,10 +2443,10 @@
         <v>0.8811196478118964</v>
       </c>
       <c r="C143" t="n">
-        <v>1.009037007938163</v>
+        <v>1.044326926287368</v>
       </c>
       <c r="D143" t="n">
-        <v>1.053316557447468</v>
+        <v>1.083975563589372</v>
       </c>
     </row>
     <row r="144">
@@ -2457,10 +2457,10 @@
         <v>0.8780160744857598</v>
       </c>
       <c r="C144" t="n">
-        <v>1.003637945953911</v>
+        <v>1.043623186603586</v>
       </c>
       <c r="D144" t="n">
-        <v>1.04937276045169</v>
+        <v>1.088394427312223</v>
       </c>
     </row>
     <row r="145">
@@ -2471,10 +2471,10 @@
         <v>0.8906327747463588</v>
       </c>
       <c r="C145" t="n">
-        <v>1.003061453745332</v>
+        <v>1.047312158148801</v>
       </c>
       <c r="D145" t="n">
-        <v>1.050770806317829</v>
+        <v>1.08703294826254</v>
       </c>
     </row>
     <row r="146">
@@ -2485,10 +2485,10 @@
         <v>0.8856063353377245</v>
       </c>
       <c r="C146" t="n">
-        <v>1.012666953237743</v>
+        <v>1.05324013495812</v>
       </c>
       <c r="D146" t="n">
-        <v>1.058115413766487</v>
+        <v>1.091157617085955</v>
       </c>
     </row>
     <row r="147">
@@ -2499,10 +2499,10 @@
         <v>0.8679210275526469</v>
       </c>
       <c r="C147" t="n">
-        <v>1.038652239504016</v>
+        <v>1.064603134776651</v>
       </c>
       <c r="D147" t="n">
-        <v>1.077982323607988</v>
+        <v>1.084554911805378</v>
       </c>
     </row>
     <row r="148">
@@ -2513,10 +2513,10 @@
         <v>0.8672294704528012</v>
       </c>
       <c r="C148" t="n">
-        <v>1.017818014979637</v>
+        <v>1.059568895246145</v>
       </c>
       <c r="D148" t="n">
-        <v>1.060469875825298</v>
+        <v>1.079452486316212</v>
       </c>
     </row>
     <row r="149">
@@ -2527,10 +2527,10 @@
         <v>0.853617602658278</v>
       </c>
       <c r="C149" t="n">
-        <v>1.018317044456142</v>
+        <v>1.048896824431004</v>
       </c>
       <c r="D149" t="n">
-        <v>1.059817789380331</v>
+        <v>1.076567215386061</v>
       </c>
     </row>
     <row r="150">
@@ -2541,10 +2541,10 @@
         <v>0.8669933290040734</v>
       </c>
       <c r="C150" t="n">
-        <v>1.011891944866082</v>
+        <v>1.050182491329205</v>
       </c>
       <c r="D150" t="n">
-        <v>1.051970648973149</v>
+        <v>1.088959083287608</v>
       </c>
     </row>
     <row r="151">
@@ -2555,10 +2555,10 @@
         <v>0.8781594460796303</v>
       </c>
       <c r="C151" t="n">
-        <v>1.030061326790216</v>
+        <v>1.063319310074309</v>
       </c>
       <c r="D151" t="n">
-        <v>1.070307777119303</v>
+        <v>1.090787080097387</v>
       </c>
     </row>
     <row r="152">
@@ -2569,10 +2569,10 @@
         <v>0.8667740548016833</v>
       </c>
       <c r="C152" t="n">
-        <v>1.026099590639922</v>
+        <v>1.053824441047403</v>
       </c>
       <c r="D152" t="n">
-        <v>1.068051225574559</v>
+        <v>1.072904485952959</v>
       </c>
     </row>
     <row r="153">
@@ -2583,10 +2583,10 @@
         <v>0.8724077150784748</v>
       </c>
       <c r="C153" t="n">
-        <v>1.028564712151718</v>
+        <v>1.051256779548044</v>
       </c>
       <c r="D153" t="n">
-        <v>1.070688377583189</v>
+        <v>1.072556106980096</v>
       </c>
     </row>
     <row r="154">
@@ -2597,10 +2597,10 @@
         <v>0.8616970136540359</v>
       </c>
       <c r="C154" t="n">
-        <v>1.023086159470657</v>
+        <v>1.046143407166911</v>
       </c>
       <c r="D154" t="n">
-        <v>1.066168144514659</v>
+        <v>1.062663893252136</v>
       </c>
     </row>
     <row r="155">
@@ -2611,10 +2611,10 @@
         <v>0.8612247307565803</v>
       </c>
       <c r="C155" t="n">
-        <v>1.018702072808446</v>
+        <v>1.040051974778555</v>
       </c>
       <c r="D155" t="n">
-        <v>1.062618922070089</v>
+        <v>1.064540591391829</v>
       </c>
     </row>
     <row r="156">
@@ -2625,10 +2625,10 @@
         <v>0.8472502171657966</v>
       </c>
       <c r="C156" t="n">
-        <v>1.018925689897714</v>
+        <v>1.040636980309093</v>
       </c>
       <c r="D156" t="n">
-        <v>1.062720732046883</v>
+        <v>1.061156247877842</v>
       </c>
     </row>
     <row r="157">
@@ -2639,10 +2639,10 @@
         <v>0.8547730090324104</v>
       </c>
       <c r="C157" t="n">
-        <v>1.021842615392296</v>
+        <v>1.036338173360641</v>
       </c>
       <c r="D157" t="n">
-        <v>1.065129260572836</v>
+        <v>1.059666679313557</v>
       </c>
     </row>
     <row r="158">
@@ -2653,10 +2653,10 @@
         <v>0.8399466995015729</v>
       </c>
       <c r="C158" t="n">
-        <v>1.016008764403131</v>
+        <v>1.022529989733953</v>
       </c>
       <c r="D158" t="n">
-        <v>1.060312203520928</v>
+        <v>1.050273396198563</v>
       </c>
     </row>
     <row r="159">
@@ -2667,10 +2667,10 @@
         <v>0.8607777487286313</v>
       </c>
       <c r="C159" t="n">
-        <v>1.025641952613754</v>
+        <v>1.035421003913974</v>
       </c>
       <c r="D159" t="n">
-        <v>1.069339182699742</v>
+        <v>1.061006482876797</v>
       </c>
     </row>
     <row r="160">
@@ -2681,10 +2681,10 @@
         <v>0.8505646310711544</v>
       </c>
       <c r="C160" t="n">
-        <v>1.022979638491771</v>
+        <v>1.027358745795731</v>
       </c>
       <c r="D160" t="n">
-        <v>1.068909682650717</v>
+        <v>1.063003516507388</v>
       </c>
     </row>
     <row r="161">
@@ -2695,10 +2695,10 @@
         <v>0.8557428756968282</v>
       </c>
       <c r="C161" t="n">
-        <v>1.021148039407537</v>
+        <v>1.026724208782225</v>
       </c>
       <c r="D161" t="n">
-        <v>1.068336651621249</v>
+        <v>1.06227973907241</v>
       </c>
     </row>
     <row r="162">
@@ -2709,10 +2709,10 @@
         <v>0.8561898577247772</v>
       </c>
       <c r="C162" t="n">
-        <v>1.020657754315477</v>
+        <v>1.029200566747763</v>
       </c>
       <c r="D162" t="n">
-        <v>1.067649966861305</v>
+        <v>1.078100664105489</v>
       </c>
     </row>
     <row r="163">
@@ -2723,10 +2723,10 @@
         <v>0.8627427829269733</v>
       </c>
       <c r="C163" t="n">
-        <v>1.022994500173558</v>
+        <v>1.032739099682106</v>
       </c>
       <c r="D163" t="n">
-        <v>1.070286951633332</v>
+        <v>1.081910519324518</v>
       </c>
     </row>
     <row r="164">
@@ -2737,10 +2737,10 @@
         <v>0.8612247307565803</v>
       </c>
       <c r="C164" t="n">
-        <v>1.020534330328815</v>
+        <v>1.027695959013766</v>
       </c>
       <c r="D164" t="n">
-        <v>1.068192299038523</v>
+        <v>1.069700244319182</v>
       </c>
     </row>
     <row r="165">
@@ -2751,10 +2751,10 @@
         <v>0.8486501986118257</v>
       </c>
       <c r="C165" t="n">
-        <v>1.008373426236735</v>
+        <v>1.025237575133687</v>
       </c>
       <c r="D165" t="n">
-        <v>1.058401166996017</v>
+        <v>1.069097997876021</v>
       </c>
     </row>
     <row r="166">
@@ -2765,10 +2765,10 @@
         <v>0.8486248977423191</v>
       </c>
       <c r="C166" t="n">
-        <v>1.004419558775186</v>
+        <v>1.026008620075965</v>
       </c>
       <c r="D166" t="n">
-        <v>1.05615744804384</v>
+        <v>1.082293877488033</v>
       </c>
     </row>
     <row r="167">
@@ -2779,10 +2779,10 @@
         <v>0.8614355713358016</v>
       </c>
       <c r="C167" t="n">
-        <v>1.010335824163477</v>
+        <v>1.028678035260259</v>
       </c>
       <c r="D167" t="n">
-        <v>1.060771045088398</v>
+        <v>1.082713487171507</v>
       </c>
     </row>
     <row r="168">
@@ -2793,10 +2793,10 @@
         <v>0.8380407006654129</v>
       </c>
       <c r="C168" t="n">
-        <v>1.010149035400923</v>
+        <v>1.029140509218137</v>
       </c>
       <c r="D168" t="n">
-        <v>1.061487119969234</v>
+        <v>1.079172772773054</v>
       </c>
     </row>
     <row r="169">
@@ -2807,10 +2807,10 @@
         <v>0.8616464119150228</v>
       </c>
       <c r="C169" t="n">
-        <v>1.00399963145206</v>
+        <v>1.026525283152612</v>
       </c>
       <c r="D169" t="n">
-        <v>1.056661456970325</v>
+        <v>1.074865232023825</v>
       </c>
     </row>
     <row r="170">
@@ -2821,10 +2821,10 @@
         <v>0.8594789707606285</v>
       </c>
       <c r="C170" t="n">
-        <v>1.008521621919918</v>
+        <v>1.023548350553834</v>
       </c>
       <c r="D170" t="n">
-        <v>1.060070873370207</v>
+        <v>1.067526373876155</v>
       </c>
     </row>
     <row r="171">
@@ -2835,10 +2835,10 @@
         <v>0.8494429591896975</v>
       </c>
       <c r="C171" t="n">
-        <v>1.006250275483091</v>
+        <v>1.023333726694272</v>
       </c>
       <c r="D171" t="n">
-        <v>1.058332312129636</v>
+        <v>1.070283076736761</v>
       </c>
     </row>
     <row r="172">
@@ -2849,10 +2849,10 @@
         <v>0.8538368768606681</v>
       </c>
       <c r="C172" t="n">
-        <v>1.003644333143957</v>
+        <v>1.018384115451068</v>
       </c>
       <c r="D172" t="n">
-        <v>1.056364632986947</v>
+        <v>1.065809781905779</v>
       </c>
     </row>
     <row r="173">
@@ -2863,10 +2863,10 @@
         <v>0.8437839980433994</v>
       </c>
       <c r="C173" t="n">
-        <v>1.005931423638899</v>
+        <v>1.024227903025771</v>
       </c>
       <c r="D173" t="n">
-        <v>1.057878630153804</v>
+        <v>1.063399457623996</v>
       </c>
     </row>
     <row r="174">
@@ -2877,10 +2877,10 @@
         <v>0.8542585580191105</v>
       </c>
       <c r="C174" t="n">
-        <v>1.013324371666124</v>
+        <v>1.021895578336119</v>
       </c>
       <c r="D174" t="n">
-        <v>1.063743177094536</v>
+        <v>1.069843651817867</v>
       </c>
     </row>
     <row r="175">
@@ -2891,10 +2891,10 @@
         <v>0.8335371458932472</v>
       </c>
       <c r="C175" t="n">
-        <v>1.006010914335708</v>
+        <v>1.012812233856722</v>
       </c>
       <c r="D175" t="n">
-        <v>1.058455066226557</v>
+        <v>1.058929541108303</v>
       </c>
     </row>
     <row r="176">
@@ -2905,10 +2905,10 @@
         <v>0.8295564757575502</v>
       </c>
       <c r="C176" t="n">
-        <v>0.997241088228726</v>
+        <v>1.006848409993428</v>
       </c>
       <c r="D176" t="n">
-        <v>1.051259197952427</v>
+        <v>1.057218435415604</v>
       </c>
     </row>
     <row r="177">
@@ -2919,10 +2919,10 @@
         <v>0.8456815632563905</v>
       </c>
       <c r="C177" t="n">
-        <v>1.001550635861181</v>
+        <v>1.011930446079968</v>
       </c>
       <c r="D177" t="n">
-        <v>1.054774483738065</v>
+        <v>1.061526036673388</v>
       </c>
     </row>
     <row r="178">
@@ -2933,10 +2933,10 @@
         <v>0.8458755365892742</v>
       </c>
       <c r="C178" t="n">
-        <v>1.001195337553078</v>
+        <v>1.01023181740475</v>
       </c>
       <c r="D178" t="n">
-        <v>1.054477659754687</v>
+        <v>1.064543047763567</v>
       </c>
     </row>
     <row r="179">
@@ -2947,10 +2947,10 @@
         <v>0.8406298229782497</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9985020291477632</v>
+        <v>1.008620958011045</v>
       </c>
       <c r="D179" t="n">
-        <v>1.052170941205527</v>
+        <v>1.070035799499978</v>
       </c>
     </row>
     <row r="180">
@@ -2961,10 +2961,10 @@
         <v>0.8441888119555042</v>
       </c>
       <c r="C180" t="n">
-        <v>1.004320136078812</v>
+        <v>1.011611254830526</v>
       </c>
       <c r="D180" t="n">
-        <v>1.057212562331148</v>
+        <v>1.071129806635807</v>
       </c>
     </row>
     <row r="181">
@@ -2975,10 +2975,10 @@
         <v>0.8289408212662241</v>
       </c>
       <c r="C181" t="n">
-        <v>1.00728468229117</v>
+        <v>1.002752131784795</v>
       </c>
       <c r="D181" t="n">
-        <v>1.059671912227197</v>
+        <v>1.049889261181679</v>
       </c>
     </row>
     <row r="182">
@@ -2989,10 +2989,10 @@
         <v>0.8179855447698886</v>
       </c>
       <c r="C182" t="n">
-        <v>1.013002214256812</v>
+        <v>0.9968414186443928</v>
       </c>
       <c r="D182" t="n">
-        <v>1.063094648348722</v>
+        <v>1.047095160223499</v>
       </c>
     </row>
     <row r="183">
@@ -3003,10 +3003,10 @@
         <v>0.82054093259005</v>
       </c>
       <c r="C183" t="n">
-        <v>1.016190377558437</v>
+        <v>1.010862641385594</v>
       </c>
       <c r="D183" t="n">
-        <v>1.065655808221565</v>
+        <v>1.058680303498766</v>
       </c>
     </row>
     <row r="184">
@@ -3017,10 +3017,10 @@
         <v>0.8073929140698135</v>
       </c>
       <c r="C184" t="n">
-        <v>1.017492716608439</v>
+        <v>1.017608158046046</v>
       </c>
       <c r="D184" t="n">
-        <v>1.066953192896031</v>
+        <v>1.069427353753685</v>
       </c>
     </row>
     <row r="185">
@@ -3031,10 +3031,10 @@
         <v>0.8181626508564345</v>
       </c>
       <c r="C185" t="n">
-        <v>1.029871515716501</v>
+        <v>1.022974209906275</v>
       </c>
       <c r="D185" t="n">
-        <v>1.074604379060191</v>
+        <v>1.070921473958578</v>
       </c>
     </row>
     <row r="186">
@@ -3045,10 +3045,10 @@
         <v>0.8180530137552394</v>
       </c>
       <c r="C186" t="n">
-        <v>1.021883025857461</v>
+        <v>1.025197340225385</v>
       </c>
       <c r="D186" t="n">
-        <v>1.070167595289329</v>
+        <v>1.072224955006289</v>
       </c>
     </row>
     <row r="187">
@@ -3059,10 +3059,10 @@
         <v>0.7983773709023133</v>
       </c>
       <c r="C187" t="n">
-        <v>1.017962299294703</v>
+        <v>1.025699350252494</v>
       </c>
       <c r="D187" t="n">
-        <v>1.067572171574716</v>
+        <v>1.112582723155089</v>
       </c>
     </row>
     <row r="188">
@@ -3073,10 +3073,10 @@
         <v>0.7892184561409427</v>
       </c>
       <c r="C188" t="n">
-        <v>1.011251376789145</v>
+        <v>1.032890491053025</v>
       </c>
       <c r="D188" t="n">
-        <v>1.062220733926913</v>
+        <v>1.137303814200739</v>
       </c>
     </row>
     <row r="189">
@@ -3087,10 +3087,10 @@
         <v>0.7978460526426758</v>
       </c>
       <c r="C189" t="n">
-        <v>1.011700263750239</v>
+        <v>1.041588238870855</v>
       </c>
       <c r="D189" t="n">
-        <v>1.06252177726549</v>
+        <v>1.141167614354987</v>
       </c>
     </row>
     <row r="190">
@@ -3101,10 +3101,10 @@
         <v>0.8052339065385881</v>
       </c>
       <c r="C190" t="n">
-        <v>1.021026268203434</v>
+        <v>1.036545644781851</v>
       </c>
       <c r="D190" t="n">
-        <v>1.068976407183458</v>
+        <v>1.157009737547986</v>
       </c>
     </row>
     <row r="191">
@@ -3115,10 +3115,10 @@
         <v>0.7928955158425611</v>
       </c>
       <c r="C191" t="n">
-        <v>1.013964999056826</v>
+        <v>1.035937019609543</v>
       </c>
       <c r="D191" t="n">
-        <v>1.063870644966098</v>
+        <v>1.155357346011577</v>
       </c>
     </row>
     <row r="192">
@@ -3129,10 +3129,10 @@
         <v>0.8103784166715863</v>
       </c>
       <c r="C192" t="n">
-        <v>1.012610087621995</v>
+        <v>1.036036085458138</v>
       </c>
       <c r="D192" t="n">
-        <v>1.061979939507715</v>
+        <v>1.152965395926524</v>
       </c>
     </row>
     <row r="193">
@@ -3143,10 +3143,10 @@
         <v>0.8063808792895516</v>
       </c>
       <c r="C193" t="n">
-        <v>1.013079670308259</v>
+        <v>1.036114791964733</v>
       </c>
       <c r="D193" t="n">
-        <v>1.0625989181864</v>
+        <v>1.154080439375013</v>
       </c>
     </row>
     <row r="194">
@@ -3157,10 +3157,10 @@
         <v>0.805630286827524</v>
       </c>
       <c r="C194" t="n">
-        <v>1.009732907475817</v>
+        <v>1.029537027121674</v>
       </c>
       <c r="D194" t="n">
-        <v>1.059859629018137</v>
+        <v>1.127539924232694</v>
       </c>
     </row>
     <row r="195">
@@ -3171,10 +3171,10 @@
         <v>0.8258203806937499</v>
       </c>
       <c r="C195" t="n">
-        <v>1.014272294784351</v>
+        <v>1.042028438102888</v>
       </c>
       <c r="D195" t="n">
-        <v>1.063141904729297</v>
+        <v>1.140139856896546</v>
       </c>
     </row>
     <row r="196">
@@ -3185,10 +3185,10 @@
         <v>0.8221348873689626</v>
       </c>
       <c r="C196" t="n">
-        <v>1.007972930399648</v>
+        <v>1.035207236295482</v>
       </c>
       <c r="D196" t="n">
-        <v>1.059850201468854</v>
+        <v>1.135237280803051</v>
       </c>
     </row>
     <row r="197">
@@ -3199,10 +3199,10 @@
         <v>0.8307371830011892</v>
       </c>
       <c r="C197" t="n">
-        <v>1.013687545343599</v>
+        <v>1.040176272726922</v>
       </c>
       <c r="D197" t="n">
-        <v>1.063802604411633</v>
+        <v>1.142371901089266</v>
       </c>
     </row>
     <row r="198">
@@ -3213,10 +3213,10 @@
         <v>0.8377455238545032</v>
       </c>
       <c r="C198" t="n">
-        <v>1.022571273965939</v>
+        <v>1.052625492719241</v>
       </c>
       <c r="D198" t="n">
-        <v>1.070345884530986</v>
+        <v>1.164465045196373</v>
       </c>
     </row>
     <row r="199">
@@ -3227,10 +3227,10 @@
         <v>0.8353841093672253</v>
       </c>
       <c r="C199" t="n">
-        <v>1.021086715957635</v>
+        <v>1.055529173733051</v>
       </c>
       <c r="D199" t="n">
-        <v>1.069332331301093</v>
+        <v>1.165922116929875</v>
       </c>
     </row>
     <row r="200">
@@ -3241,10 +3241,10 @@
         <v>0.8291010601064324</v>
       </c>
       <c r="C200" t="n">
-        <v>1.023562629860493</v>
+        <v>1.054416954415057</v>
       </c>
       <c r="D200" t="n">
-        <v>1.071202419822188</v>
+        <v>1.155275192508322</v>
       </c>
     </row>
     <row r="201">
@@ -3255,10 +3255,10 @@
         <v>0.8320443945923608</v>
       </c>
       <c r="C201" t="n">
-        <v>1.020084185809216</v>
+        <v>1.051261959406318</v>
       </c>
       <c r="D201" t="n">
-        <v>1.068268116647341</v>
+        <v>1.150175700528008</v>
       </c>
     </row>
     <row r="202">
@@ -3269,10 +3269,10 @@
         <v>0.8479164733961357</v>
       </c>
       <c r="C202" t="n">
-        <v>1.031093099830563</v>
+        <v>1.063740912025071</v>
       </c>
       <c r="D202" t="n">
-        <v>1.075952417868149</v>
+        <v>1.160315238808387</v>
       </c>
     </row>
     <row r="203">
@@ -3283,10 +3283,10 @@
         <v>0.848017676874162</v>
       </c>
       <c r="C203" t="n">
-        <v>1.031174243309932</v>
+        <v>1.06325786031198</v>
       </c>
       <c r="D203" t="n">
-        <v>1.076626277325892</v>
+        <v>1.164966259094878</v>
       </c>
     </row>
     <row r="204">
@@ -3297,10 +3297,10 @@
         <v>0.8595380061228104</v>
       </c>
       <c r="C204" t="n">
-        <v>1.034384373256485</v>
+        <v>1.065913020661653</v>
       </c>
       <c r="D204" t="n">
-        <v>1.078628053073749</v>
+        <v>1.166769154514296</v>
       </c>
     </row>
     <row r="205">
@@ -3311,10 +3311,10 @@
         <v>0.8539886820777074</v>
       </c>
       <c r="C205" t="n">
-        <v>1.040321334369945</v>
+        <v>1.068111718667659</v>
       </c>
       <c r="D205" t="n">
-        <v>1.083559585458415</v>
+        <v>1.172441357924155</v>
       </c>
     </row>
     <row r="206">
@@ -3325,10 +3325,10 @@
         <v>0.851939311647677</v>
       </c>
       <c r="C206" t="n">
-        <v>1.044104157127056</v>
+        <v>1.069535047593064</v>
       </c>
       <c r="D206" t="n">
-        <v>1.086294815217715</v>
+        <v>1.166653452720984</v>
       </c>
     </row>
     <row r="207">
@@ -3339,10 +3339,10 @@
         <v>0.8400394693564303</v>
       </c>
       <c r="C207" t="n">
-        <v>1.058226695420273</v>
+        <v>1.077427765872667</v>
       </c>
       <c r="D207" t="n">
-        <v>1.096506339652434</v>
+        <v>1.174154198504406</v>
       </c>
     </row>
     <row r="208">
@@ -3353,10 +3353,10 @@
         <v>0.8043062079900146</v>
       </c>
       <c r="C208" t="n">
-        <v>1.049962898463466</v>
+        <v>1.061002808844533</v>
       </c>
       <c r="D208" t="n">
-        <v>1.089772592064534</v>
+        <v>1.148229863070423</v>
       </c>
     </row>
     <row r="209">
@@ -3367,10 +3367,10 @@
         <v>0.8145361928938292</v>
       </c>
       <c r="C209" t="n">
-        <v>1.049868045571343</v>
+        <v>1.064745557618744</v>
       </c>
       <c r="D209" t="n">
-        <v>1.090395462915579</v>
+        <v>1.156991019427514</v>
       </c>
     </row>
     <row r="210">
@@ -3381,10 +3381,10 @@
         <v>0.7923557639597547</v>
       </c>
       <c r="C210" t="n">
-        <v>1.044442065275111</v>
+        <v>1.062425780962167</v>
       </c>
       <c r="D210" t="n">
-        <v>1.086468550630966</v>
+        <v>1.15754204029738</v>
       </c>
     </row>
     <row r="211">
@@ -3395,10 +3395,10 @@
         <v>0.8061447378408237</v>
       </c>
       <c r="C211" t="n">
-        <v>1.071407533182074</v>
+        <v>1.076566166302983</v>
       </c>
       <c r="D211" t="n">
-        <v>1.10698431640112</v>
+        <v>1.169211103656748</v>
       </c>
     </row>
     <row r="212">
@@ -3409,10 +3409,10 @@
         <v>0.8249011157683452</v>
       </c>
       <c r="C212" t="n">
-        <v>1.09668222283214</v>
+        <v>1.092928621628382</v>
       </c>
       <c r="D212" t="n">
-        <v>1.126257578275866</v>
+        <v>1.185512855253642</v>
       </c>
     </row>
     <row r="213">
@@ -3423,10 +3423,10 @@
         <v>0.8498899412176465</v>
       </c>
       <c r="C213" t="n">
-        <v>1.113189121020586</v>
+        <v>1.10952617167758</v>
       </c>
       <c r="D213" t="n">
-        <v>1.139407138111556</v>
+        <v>1.20429791853491</v>
       </c>
     </row>
     <row r="214">
@@ -3437,10 +3437,10 @@
         <v>0.8501007817968678</v>
       </c>
       <c r="C214" t="n">
-        <v>1.130158997445682</v>
+        <v>1.123036203783101</v>
       </c>
       <c r="D214" t="n">
-        <v>1.152535753827119</v>
+        <v>1.232471422843613</v>
       </c>
     </row>
     <row r="215">
@@ -3451,10 +3451,10 @@
         <v>0.8763630843446654</v>
       </c>
       <c r="C215" t="n">
-        <v>1.139196373931785</v>
+        <v>1.129603091894776</v>
       </c>
       <c r="D215" t="n">
-        <v>1.158714663828072</v>
+        <v>1.243014380240335</v>
       </c>
     </row>
     <row r="216">
@@ -3465,10 +3465,10 @@
         <v>0.888490634461471</v>
       </c>
       <c r="C216" t="n">
-        <v>1.147896230813263</v>
+        <v>1.138236955346267</v>
       </c>
       <c r="D216" t="n">
-        <v>1.165444352007008</v>
+        <v>1.263779235591342</v>
       </c>
     </row>
     <row r="217">
@@ -3479,10 +3479,10 @@
         <v>0.8815834970861832</v>
       </c>
       <c r="C217" t="n">
-        <v>1.139334277737432</v>
+        <v>1.128717914219433</v>
       </c>
       <c r="D217" t="n">
-        <v>1.158574857783385</v>
+        <v>1.26290362496515</v>
       </c>
     </row>
     <row r="218">
@@ -3493,10 +3493,10 @@
         <v>0.8617054472772048</v>
       </c>
       <c r="C218" t="n">
-        <v>1.13984525855466</v>
+        <v>1.122383890203464</v>
       </c>
       <c r="D218" t="n">
-        <v>1.159579477883437</v>
+        <v>1.248549484661443</v>
       </c>
     </row>
     <row r="219">
@@ -3507,10 +3507,10 @@
         <v>0.8814148246228062</v>
       </c>
       <c r="C219" t="n">
-        <v>1.14806270571345</v>
+        <v>1.137548370498409</v>
       </c>
       <c r="D219" t="n">
-        <v>1.165385084636148</v>
+        <v>1.263356915598582</v>
       </c>
     </row>
     <row r="220">
@@ -3521,10 +3521,10 @@
         <v>0.8975905138606597</v>
       </c>
       <c r="C220" t="n">
-        <v>1.15588053941148</v>
+        <v>1.136364900259072</v>
       </c>
       <c r="D220" t="n">
-        <v>1.171037892805367</v>
+        <v>1.259475763219072</v>
       </c>
     </row>
     <row r="221">
@@ -3535,10 +3535,10 @@
         <v>0.9043289787725705</v>
       </c>
       <c r="C221" t="n">
-        <v>1.15117963555044</v>
+        <v>1.137924965484856</v>
       </c>
       <c r="D221" t="n">
-        <v>1.16810715462004</v>
+        <v>1.272642143958588</v>
       </c>
     </row>
     <row r="222">
@@ -3549,10 +3549,10 @@
         <v>0.8980374958886087</v>
       </c>
       <c r="C222" t="n">
-        <v>1.145247626104033</v>
+        <v>1.132581915825557</v>
       </c>
       <c r="D222" t="n">
-        <v>1.163718121649196</v>
+        <v>1.268473760115896</v>
       </c>
     </row>
     <row r="223">
@@ -3563,10 +3563,10 @@
         <v>0.8983242390763496</v>
       </c>
       <c r="C223" t="n">
-        <v>1.150864082590741</v>
+        <v>1.125921000790765</v>
       </c>
       <c r="D223" t="n">
-        <v>1.168098548673038</v>
+        <v>1.248478824268373</v>
       </c>
     </row>
     <row r="224">
@@ -3577,10 +3577,10 @@
         <v>0.9055940222478979</v>
       </c>
       <c r="C224" t="n">
-        <v>1.15132249102314</v>
+        <v>1.125946849827843</v>
       </c>
       <c r="D224" t="n">
-        <v>1.168509847989174</v>
+        <v>1.259551530266651</v>
       </c>
     </row>
     <row r="225">
@@ -3591,10 +3591,10 @@
         <v>0.9258937532153189</v>
       </c>
       <c r="C225" t="n">
-        <v>1.155581119053326</v>
+        <v>1.129028298004261</v>
       </c>
       <c r="D225" t="n">
-        <v>1.171529236375887</v>
+        <v>1.263210019322871</v>
       </c>
     </row>
     <row r="226">
@@ -3605,10 +3605,10 @@
         <v>0.9288202204549096</v>
       </c>
       <c r="C226" t="n">
-        <v>1.167298094531991</v>
+        <v>1.137965420168603</v>
       </c>
       <c r="D226" t="n">
-        <v>1.181311595234788</v>
+        <v>1.277830623740718</v>
       </c>
     </row>
     <row r="227">
@@ -3619,10 +3619,10 @@
         <v>0.9296129810327814</v>
       </c>
       <c r="C227" t="n">
-        <v>1.169183918783615</v>
+        <v>1.140364846784342</v>
       </c>
       <c r="D227" t="n">
-        <v>1.182575370433164</v>
+        <v>1.281225408573946</v>
       </c>
     </row>
     <row r="228">
@@ -3633,10 +3633,10 @@
         <v>0.9325478818955412</v>
       </c>
       <c r="C228" t="n">
-        <v>1.173098422759562</v>
+        <v>1.141196881031504</v>
       </c>
       <c r="D228" t="n">
-        <v>1.185505614199048</v>
+        <v>1.279585214318186</v>
       </c>
     </row>
     <row r="229">
@@ -3647,10 +3647,10 @@
         <v>0.9183203596096919</v>
       </c>
       <c r="C229" t="n">
-        <v>1.172714553356919</v>
+        <v>1.144309253163868</v>
       </c>
       <c r="D229" t="n">
-        <v>1.185128251541843</v>
+        <v>1.290134685951876</v>
       </c>
     </row>
     <row r="230">
@@ -3661,10 +3661,10 @@
         <v>0.9389574355038668</v>
       </c>
       <c r="C230" t="n">
-        <v>1.168530464356488</v>
+        <v>1.141326644225057</v>
       </c>
       <c r="D230" t="n">
-        <v>1.182142799814062</v>
+        <v>1.292234434567407</v>
       </c>
     </row>
     <row r="231">
@@ -3675,10 +3675,10 @@
         <v>0.9429971410017458</v>
       </c>
       <c r="C231" t="n">
-        <v>1.157543516980068</v>
+        <v>1.140502821126669</v>
       </c>
       <c r="D231" t="n">
-        <v>1.173899114468268</v>
+        <v>1.292382396868067</v>
       </c>
     </row>
     <row r="232">
@@ -3689,10 +3689,10 @@
         <v>0.9523162946033246</v>
       </c>
       <c r="C232" t="n">
-        <v>1.171785291318498</v>
+        <v>1.155574129899093</v>
       </c>
       <c r="D232" t="n">
-        <v>1.184975293012116</v>
+        <v>1.32758144098002</v>
       </c>
     </row>
     <row r="233">
@@ -3703,10 +3703,10 @@
         <v>0.9587511490811568</v>
       </c>
       <c r="C233" t="n">
-        <v>1.174634670776367</v>
+        <v>1.1712947862728</v>
       </c>
       <c r="D233" t="n">
-        <v>1.188714321269186</v>
+        <v>1.363903080513788</v>
       </c>
     </row>
     <row r="234">
@@ -3717,10 +3717,10 @@
         <v>0.9582704325605323</v>
       </c>
       <c r="C234" t="n">
-        <v>1.197112941896822</v>
+        <v>1.175216045704044</v>
       </c>
       <c r="D234" t="n">
-        <v>1.205566389262013</v>
+        <v>1.350892495885399</v>
       </c>
     </row>
     <row r="235">
@@ -3731,10 +3731,10 @@
         <v>0.9578150169094145</v>
       </c>
       <c r="C235" t="n">
-        <v>1.194040715755917</v>
+        <v>1.176383934191169</v>
       </c>
       <c r="D235" t="n">
-        <v>1.203424807469468</v>
+        <v>1.358216121394926</v>
       </c>
     </row>
     <row r="236">
@@ -3745,10 +3745,10 @@
         <v>0.9506548708390612</v>
       </c>
       <c r="C236" t="n">
-        <v>1.196854531126204</v>
+        <v>1.167012658581136</v>
       </c>
       <c r="D236" t="n">
-        <v>1.205718860662664</v>
+        <v>1.341307694549607</v>
       </c>
     </row>
     <row r="237">
@@ -3759,10 +3759,10 @@
         <v>0.9697991954323497</v>
       </c>
       <c r="C237" t="n">
-        <v>1.206185493927079</v>
+        <v>1.16588693162224</v>
       </c>
       <c r="D237" t="n">
-        <v>1.212465760735604</v>
+        <v>1.320948249728808</v>
       </c>
     </row>
     <row r="238">
@@ -3773,10 +3773,10 @@
         <v>0.9725907247012389</v>
       </c>
       <c r="C238" t="n">
-        <v>1.225098336792878</v>
+        <v>1.177622430187788</v>
       </c>
       <c r="D238" t="n">
-        <v>1.227019228997196</v>
+        <v>1.320228094512662</v>
       </c>
     </row>
     <row r="239">
@@ -3787,10 +3787,10 @@
         <v>0.9696558238384793</v>
       </c>
       <c r="C239" t="n">
-        <v>1.265568821155061</v>
+        <v>1.195192231094614</v>
       </c>
       <c r="D239" t="n">
-        <v>1.260234125014624</v>
+        <v>1.33570094926569</v>
       </c>
     </row>
     <row r="240">
@@ -3801,10 +3801,10 @@
         <v>0.9795315965692021</v>
       </c>
       <c r="C240" t="n">
-        <v>1.263820900709085</v>
+        <v>1.190549453508781</v>
       </c>
       <c r="D240" t="n">
-        <v>1.258830543771561</v>
+        <v>1.327537652191285</v>
       </c>
     </row>
     <row r="241">
@@ -3815,10 +3815,10 @@
         <v>0.9947205518963002</v>
       </c>
       <c r="C241" t="n">
-        <v>1.26599865849292</v>
+        <v>1.194367964286371</v>
       </c>
       <c r="D241" t="n">
-        <v>1.260564885656932</v>
+        <v>1.330733050970996</v>
       </c>
     </row>
     <row r="242">
@@ -3829,10 +3829,10 @@
         <v>0.9964916127617586</v>
       </c>
       <c r="C242" t="n">
-        <v>1.265768818816841</v>
+        <v>1.201007506176516</v>
       </c>
       <c r="D242" t="n">
-        <v>1.260797895731411</v>
+        <v>1.332897595685565</v>
       </c>
     </row>
     <row r="243">
@@ -3843,10 +3843,10 @@
         <v>0.9924603408870485</v>
       </c>
       <c r="C243" t="n">
-        <v>1.260988806121794</v>
+        <v>1.198781539835537</v>
       </c>
       <c r="D243" t="n">
-        <v>1.258265464323415</v>
+        <v>1.331959391670339</v>
       </c>
     </row>
     <row r="244">
@@ -3857,10 +3857,10 @@
         <v>0.9784352255572516</v>
       </c>
       <c r="C244" t="n">
-        <v>1.25379536192345</v>
+        <v>1.190209344329253</v>
       </c>
       <c r="D244" t="n">
-        <v>1.255291034747034</v>
+        <v>1.328414904932498</v>
       </c>
     </row>
     <row r="245">
@@ -3871,10 +3871,10 @@
         <v>0.9812351884493097</v>
       </c>
       <c r="C245" t="n">
-        <v>1.253721981843354</v>
+        <v>1.194565166753774</v>
       </c>
       <c r="D245" t="n">
-        <v>1.257680868120657</v>
+        <v>1.326689807418265</v>
       </c>
     </row>
     <row r="246">
@@ -3885,10 +3885,10 @@
         <v>0.9939615258111038</v>
       </c>
       <c r="C246" t="n">
-        <v>1.256187880442009</v>
+        <v>1.202309142259778</v>
       </c>
       <c r="D246" t="n">
-        <v>1.261767047311756</v>
+        <v>1.335166434326151</v>
       </c>
     </row>
     <row r="247">
@@ -3899,10 +3899,10 @@
         <v>1.00403127187471</v>
       </c>
       <c r="C247" t="n">
-        <v>1.260475079566736</v>
+        <v>1.206589459283446</v>
       </c>
       <c r="D247" t="n">
-        <v>1.264866974372296</v>
+        <v>1.336794466008127</v>
       </c>
     </row>
     <row r="248">
@@ -3913,10 +3913,10 @@
         <v>1.007607128098302</v>
       </c>
       <c r="C248" t="n">
-        <v>1.273379615884343</v>
+        <v>1.21988896702429</v>
       </c>
       <c r="D248" t="n">
-        <v>1.27795090985792</v>
+        <v>1.352473060330655</v>
       </c>
     </row>
     <row r="249">
@@ -3927,10 +3927,10 @@
         <v>1.006181845782767</v>
       </c>
       <c r="C249" t="n">
-        <v>1.256606820099336</v>
+        <v>1.2163102869167</v>
       </c>
       <c r="D249" t="n">
-        <v>1.265915731680398</v>
+        <v>1.359004333021745</v>
       </c>
     </row>
     <row r="250">
@@ -3941,10 +3941,10 @@
         <v>0.9998734956524673</v>
       </c>
       <c r="C250" t="n">
-        <v>1.25543616226817</v>
+        <v>1.232900191301488</v>
       </c>
       <c r="D250" t="n">
-        <v>1.264813361012516</v>
+        <v>1.395721268392118</v>
       </c>
     </row>
     <row r="251">
@@ -3955,10 +3955,10 @@
         <v>1.005481855059752</v>
       </c>
       <c r="C251" t="n">
-        <v>1.237722166465274</v>
+        <v>1.213359497151811</v>
       </c>
       <c r="D251" t="n">
-        <v>1.250468059242548</v>
+        <v>1.376140732520333</v>
       </c>
     </row>
     <row r="252">
@@ -3969,10 +3969,10 @@
         <v>1.01077817040979</v>
       </c>
       <c r="C252" t="n">
-        <v>1.244139884518862</v>
+        <v>1.210818838495111</v>
       </c>
       <c r="D252" t="n">
-        <v>1.256226249668448</v>
+        <v>1.374658042444752</v>
       </c>
     </row>
     <row r="253">
@@ -3983,10 +3983,10 @@
         <v>1.028530947180218</v>
       </c>
       <c r="C253" t="n">
-        <v>1.232837384182743</v>
+        <v>1.20415545392992</v>
       </c>
       <c r="D253" t="n">
-        <v>1.247973958375653</v>
+        <v>1.376785465539579</v>
       </c>
     </row>
     <row r="254">
@@ -3997,10 +3997,10 @@
         <v>1.054852285090198</v>
       </c>
       <c r="C254" t="n">
-        <v>1.262103928570733</v>
+        <v>1.215526675166079</v>
       </c>
       <c r="D254" t="n">
-        <v>1.272732594092759</v>
+        <v>1.374139966992964</v>
       </c>
     </row>
     <row r="255">
@@ -4011,10 +4011,10 @@
         <v>1.035707960496909</v>
       </c>
       <c r="C255" t="n">
-        <v>1.255345767210201</v>
+        <v>1.20860486862509</v>
       </c>
       <c r="D255" t="n">
-        <v>1.268305077924945</v>
+        <v>1.371003330497118</v>
       </c>
     </row>
     <row r="256">
@@ -4025,10 +4025,10 @@
         <v>1.045752405691009</v>
       </c>
       <c r="C256" t="n">
-        <v>1.271882507412945</v>
+        <v>1.22225443350186</v>
       </c>
       <c r="D256" t="n">
-        <v>1.280657856969369</v>
+        <v>1.38323109269675</v>
       </c>
     </row>
     <row r="257">
@@ -4039,10 +4039,10 @@
         <v>1.029239371526401</v>
       </c>
       <c r="C257" t="n">
-        <v>1.275275238180602</v>
+        <v>1.22418733708015</v>
       </c>
       <c r="D257" t="n">
-        <v>1.283350544122735</v>
+        <v>1.383669563678559</v>
       </c>
     </row>
     <row r="258">
@@ -4053,10 +4053,10 @@
         <v>1.041392222512714</v>
       </c>
       <c r="C258" t="n">
-        <v>1.273172019426522</v>
+        <v>1.224091926558682</v>
       </c>
       <c r="D258" t="n">
-        <v>1.281650138896295</v>
+        <v>1.381694744740354</v>
       </c>
     </row>
     <row r="259">
@@ -4067,10 +4067,10 @@
         <v>1.016268459092711</v>
       </c>
       <c r="C259" t="n">
-        <v>1.272158696887042</v>
+        <v>1.221931210849621</v>
       </c>
       <c r="D259" t="n">
-        <v>1.281352987730078</v>
+        <v>1.377185939248252</v>
       </c>
     </row>
     <row r="260">
@@ -4081,10 +4081,10 @@
         <v>1.022509340237659</v>
       </c>
       <c r="C260" t="n">
-        <v>1.265949233727407</v>
+        <v>1.211407783119899</v>
       </c>
       <c r="D260" t="n">
-        <v>1.276895914204768</v>
+        <v>1.371793596740368</v>
       </c>
     </row>
     <row r="261">
@@ -4095,10 +4095,10 @@
         <v>1.017710608654584</v>
       </c>
       <c r="C261" t="n">
-        <v>1.272754403322091</v>
+        <v>1.221114580350174</v>
       </c>
       <c r="D261" t="n">
-        <v>1.287251917146736</v>
+        <v>1.380473099032344</v>
       </c>
     </row>
     <row r="262">
@@ -4109,10 +4109,10 @@
         <v>1.009572162296644</v>
       </c>
       <c r="C262" t="n">
-        <v>1.255380343631984</v>
+        <v>1.196520772522808</v>
       </c>
       <c r="D262" t="n">
-        <v>1.274402746283944</v>
+        <v>1.326356226310517</v>
       </c>
     </row>
     <row r="263">
@@ -4123,10 +4123,10 @@
         <v>0.9989036289880495</v>
       </c>
       <c r="C263" t="n">
-        <v>1.252303053853929</v>
+        <v>1.196608290143975</v>
       </c>
       <c r="D263" t="n">
-        <v>1.275019754575225</v>
+        <v>1.340639377296779</v>
       </c>
     </row>
     <row r="264">
@@ -4137,10 +4137,10 @@
         <v>0.9881844939404417</v>
       </c>
       <c r="C264" t="n">
-        <v>1.24936250893186</v>
+        <v>1.190069584278378</v>
       </c>
       <c r="D264" t="n">
-        <v>1.273073186789266</v>
+        <v>1.337666753566581</v>
       </c>
     </row>
     <row r="265">
@@ -4151,10 +4151,10 @@
         <v>0.9822134887368963</v>
       </c>
       <c r="C265" t="n">
-        <v>1.255682457071635</v>
+        <v>1.181478873905189</v>
       </c>
       <c r="D265" t="n">
-        <v>1.279983914887464</v>
+        <v>1.336716385866227</v>
       </c>
     </row>
     <row r="266">
@@ -4165,10 +4165,10 @@
         <v>0.9773051200526258</v>
       </c>
       <c r="C266" t="n">
-        <v>1.251860277509548</v>
+        <v>1.182122299976121</v>
       </c>
       <c r="D266" t="n">
-        <v>1.277684980683023</v>
+        <v>1.338994120595659</v>
       </c>
     </row>
     <row r="267">
@@ -4179,10 +4179,10 @@
         <v>1.006249314768118</v>
       </c>
       <c r="C267" t="n">
-        <v>1.257648930969728</v>
+        <v>1.184239953927581</v>
       </c>
       <c r="D267" t="n">
-        <v>1.284247896191145</v>
+        <v>1.336336701729926</v>
       </c>
     </row>
     <row r="268">
@@ -4193,10 +4193,10 @@
         <v>0.978359322948732</v>
       </c>
       <c r="C268" t="n">
-        <v>1.242374784468581</v>
+        <v>1.178247169747433</v>
       </c>
       <c r="D268" t="n">
-        <v>1.272904283784812</v>
+        <v>1.339201386250627</v>
       </c>
     </row>
     <row r="269">
@@ -4207,10 +4207,10 @@
         <v>0.9898121832120297</v>
       </c>
       <c r="C269" t="n">
-        <v>1.247865782323264</v>
+        <v>1.189080083224816</v>
       </c>
       <c r="D269" t="n">
-        <v>1.276754876750798</v>
+        <v>1.339585653854197</v>
       </c>
     </row>
     <row r="270">
@@ -4221,10 +4221,10 @@
         <v>0.99714100174576</v>
       </c>
       <c r="C270" t="n">
-        <v>1.236602645472748</v>
+        <v>1.183830216942444</v>
       </c>
       <c r="D270" t="n">
-        <v>1.267816060644295</v>
+        <v>1.336047720622958</v>
       </c>
     </row>
     <row r="271">
@@ -4235,10 +4235,10 @@
         <v>1.009715533890515</v>
       </c>
       <c r="C271" t="n">
-        <v>1.248127491978376</v>
+        <v>1.181011021412187</v>
       </c>
       <c r="D271" t="n">
-        <v>1.277047481378977</v>
+        <v>1.33066173574589</v>
       </c>
     </row>
     <row r="272">
@@ -4249,10 +4249,10 @@
         <v>1.005802332740169</v>
       </c>
       <c r="C272" t="n">
-        <v>1.23205169536692</v>
+        <v>1.16821653519514</v>
       </c>
       <c r="D272" t="n">
-        <v>1.263601591979351</v>
+        <v>1.322135514885001</v>
       </c>
     </row>
     <row r="273">
@@ -4263,10 +4263,10 @@
         <v>1.011402258524285</v>
       </c>
       <c r="C273" t="n">
-        <v>1.22605759206438</v>
+        <v>1.173675117414365</v>
       </c>
       <c r="D273" t="n">
-        <v>1.258508982247032</v>
+        <v>1.338864894599115</v>
       </c>
     </row>
     <row r="274">
@@ -4277,10 +4277,10 @@
         <v>1.007952906648225</v>
       </c>
       <c r="C274" t="n">
-        <v>1.223862437439869</v>
+        <v>1.173816985971044</v>
       </c>
       <c r="D274" t="n">
-        <v>1.256901781050383</v>
+        <v>1.340946694493042</v>
       </c>
     </row>
     <row r="275">
@@ -4291,10 +4291,10 @@
         <v>1.007219181432535</v>
       </c>
       <c r="C275" t="n">
-        <v>1.21985599759349</v>
+        <v>1.170666585211527</v>
       </c>
       <c r="D275" t="n">
-        <v>1.25406474131429</v>
+        <v>1.337442482869605</v>
       </c>
     </row>
     <row r="276">
@@ -4305,10 +4305,10 @@
         <v>0.9987939918868545</v>
       </c>
       <c r="C276" t="n">
-        <v>1.214279286455186</v>
+        <v>1.163185470754786</v>
       </c>
       <c r="D276" t="n">
-        <v>1.249972532326824</v>
+        <v>1.335393668777174</v>
       </c>
     </row>
     <row r="277">
@@ -4319,10 +4319,10 @@
         <v>1.005583058537779</v>
       </c>
       <c r="C277" t="n">
-        <v>1.212553714516938</v>
+        <v>1.159538526530442</v>
       </c>
       <c r="D277" t="n">
-        <v>1.24898430980886</v>
+        <v>1.332408674843092</v>
       </c>
     </row>
     <row r="278">
@@ -4333,10 +4333,10 @@
         <v>1.004579457380685</v>
       </c>
       <c r="C278" t="n">
-        <v>1.211058752661001</v>
+        <v>1.14803876474772</v>
       </c>
       <c r="D278" t="n">
-        <v>1.249462333657736</v>
+        <v>1.31348859962058</v>
       </c>
     </row>
     <row r="279">
@@ -4347,10 +4347,10 @@
         <v>1.015332326920968</v>
       </c>
       <c r="C279" t="n">
-        <v>1.200352564562928</v>
+        <v>1.145700568048837</v>
       </c>
       <c r="D279" t="n">
-        <v>1.24148153563639</v>
+        <v>1.320078944659128</v>
       </c>
     </row>
     <row r="280">
@@ -4361,10 +4361,10 @@
         <v>1.004781864336738</v>
       </c>
       <c r="C280" t="n">
-        <v>1.203808660106476</v>
+        <v>1.149121888784552</v>
       </c>
       <c r="D280" t="n">
-        <v>1.244000480086138</v>
+        <v>1.315791185561489</v>
       </c>
     </row>
     <row r="281">
@@ -4375,10 +4375,10 @@
         <v>1.001475884054549</v>
       </c>
       <c r="C281" t="n">
-        <v>1.203175519541716</v>
+        <v>1.150439263367536</v>
       </c>
       <c r="D281" t="n">
-        <v>1.24291110195706</v>
+        <v>1.325084506186377</v>
       </c>
     </row>
     <row r="282">
@@ -4389,10 +4389,10 @@
         <v>0.9501994551879432</v>
       </c>
       <c r="C282" t="n">
-        <v>1.184165782457804</v>
+        <v>1.124149875064061</v>
       </c>
       <c r="D282" t="n">
-        <v>1.228158567570288</v>
+        <v>1.296300591728579</v>
       </c>
     </row>
     <row r="283">
@@ -4403,10 +4403,10 @@
         <v>0.9717810968770293</v>
       </c>
       <c r="C283" t="n">
-        <v>1.227701901872533</v>
+        <v>1.151092346823926</v>
       </c>
       <c r="D283" t="n">
-        <v>1.262374664063749</v>
+        <v>1.325722371613126</v>
       </c>
     </row>
     <row r="284">
@@ -4417,10 +4417,10 @@
         <v>0.975500324694492</v>
       </c>
       <c r="C284" t="n">
-        <v>1.267090365389488</v>
+        <v>1.175765742465023</v>
       </c>
       <c r="D284" t="n">
-        <v>1.293948909354672</v>
+        <v>1.345107486208215</v>
       </c>
     </row>
     <row r="285">
@@ -4431,10 +4431,10 @@
         <v>0.9467248024423772</v>
       </c>
       <c r="C285" t="n">
-        <v>1.253467251796833</v>
+        <v>1.161604561234683</v>
       </c>
       <c r="D285" t="n">
-        <v>1.283559582807371</v>
+        <v>1.321510487551094</v>
       </c>
     </row>
     <row r="286">
@@ -4445,10 +4445,10 @@
         <v>0.9279937253843624</v>
       </c>
       <c r="C286" t="n">
-        <v>1.213371872410967</v>
+        <v>1.131772473340039</v>
       </c>
       <c r="D286" t="n">
-        <v>1.252811508428607</v>
+        <v>1.31416677546153</v>
       </c>
     </row>
     <row r="287">
@@ -4459,10 +4459,10 @@
         <v>0.9305238123350172</v>
       </c>
       <c r="C287" t="n">
-        <v>1.192882153803629</v>
+        <v>1.126104089164234</v>
       </c>
       <c r="D287" t="n">
-        <v>1.236362948116829</v>
+        <v>1.302560650677904</v>
       </c>
     </row>
     <row r="288">
@@ -4473,10 +4473,10 @@
         <v>0.940686328253481</v>
       </c>
       <c r="C288" t="n">
-        <v>1.185341398636651</v>
+        <v>1.122239933183405</v>
       </c>
       <c r="D288" t="n">
-        <v>1.229553208393142</v>
+        <v>1.300330598912684</v>
       </c>
     </row>
     <row r="289">
@@ -4487,10 +4487,10 @@
         <v>0.9376839584053706</v>
       </c>
       <c r="C289" t="n">
-        <v>1.194355556857659</v>
+        <v>1.117258386559218</v>
       </c>
       <c r="D289" t="n">
-        <v>1.176128477141148</v>
+        <v>1.271641488745149</v>
       </c>
     </row>
     <row r="290">
@@ -4501,10 +4501,10 @@
         <v>0.9503849948976579</v>
       </c>
       <c r="C290" t="n">
-        <v>1.182200500170217</v>
+        <v>1.128173276734229</v>
       </c>
       <c r="D290" t="n">
-        <v>1.164777552938437</v>
+        <v>1.293677010215202</v>
       </c>
     </row>
     <row r="291">
@@ -4515,10 +4515,10 @@
         <v>0.9715702562978081</v>
       </c>
       <c r="C291" t="n">
-        <v>1.17673477452558</v>
+        <v>1.124449474559612</v>
       </c>
       <c r="D291" t="n">
-        <v>1.160562422617447</v>
+        <v>1.292008726068467</v>
       </c>
     </row>
     <row r="292">
@@ -4529,10 +4529,10 @@
         <v>0.9328599259527885</v>
       </c>
       <c r="C292" t="n">
-        <v>1.157511330367135</v>
+        <v>1.112406743037844</v>
       </c>
       <c r="D292" t="n">
-        <v>1.146542847822674</v>
+        <v>1.284758789775478</v>
       </c>
     </row>
     <row r="293">
@@ -4543,10 +4543,10 @@
         <v>0.9389237010111914</v>
       </c>
       <c r="C293" t="n">
-        <v>1.175277134829256</v>
+        <v>1.128134399356823</v>
       </c>
       <c r="D293" t="n">
-        <v>1.15953198467639</v>
+        <v>1.294439589177633</v>
       </c>
     </row>
     <row r="294">
@@ -4557,10 +4557,10 @@
         <v>0.951110286490179</v>
       </c>
       <c r="C294" t="n">
-        <v>1.166703618956132</v>
+        <v>1.126955580102064</v>
       </c>
       <c r="D294" t="n">
-        <v>1.151730297498982</v>
+        <v>1.295173376237203</v>
       </c>
     </row>
     <row r="295">
@@ -4571,10 +4571,10 @@
         <v>0.9697317264469989</v>
       </c>
       <c r="C295" t="n">
-        <v>1.163918374680385</v>
+        <v>1.129270116822438</v>
       </c>
       <c r="D295" t="n">
-        <v>1.149516782979613</v>
+        <v>1.297655834017676</v>
       </c>
     </row>
     <row r="296">
@@ -4585,10 +4585,10 @@
         <v>0.9627824209558669</v>
       </c>
       <c r="C296" t="n">
-        <v>1.16762043582093</v>
+        <v>1.128501657639563</v>
       </c>
       <c r="D296" t="n">
-        <v>1.152552896131254</v>
+        <v>1.296119685506121</v>
       </c>
     </row>
     <row r="297">
@@ -4599,10 +4599,10 @@
         <v>0.9686100545655419</v>
       </c>
       <c r="C297" t="n">
-        <v>1.182923541960046</v>
+        <v>1.14015272679465</v>
       </c>
       <c r="D297" t="n">
-        <v>1.164701560802649</v>
+        <v>1.315505316687955</v>
       </c>
     </row>
     <row r="298">
@@ -4613,10 +4613,10 @@
         <v>0.9615932800890591</v>
       </c>
       <c r="C298" t="n">
-        <v>1.196129645251266</v>
+        <v>1.151651937404067</v>
       </c>
       <c r="D298" t="n">
-        <v>1.175065229455181</v>
+        <v>1.32358931201502</v>
       </c>
     </row>
     <row r="299">
@@ -4627,10 +4627,10 @@
         <v>0.9829303467062485</v>
       </c>
       <c r="C299" t="n">
-        <v>1.19207305620885</v>
+        <v>1.151014603023833</v>
       </c>
       <c r="D299" t="n">
-        <v>1.173431548761481</v>
+        <v>1.327132567947463</v>
       </c>
     </row>
     <row r="300">
@@ -4641,10 +4641,10 @@
         <v>0.9684751165948403</v>
       </c>
       <c r="C300" t="n">
-        <v>1.18907702188026</v>
+        <v>1.147181563256173</v>
       </c>
       <c r="D300" t="n">
-        <v>1.171421327012858</v>
+        <v>1.323727951940768</v>
       </c>
     </row>
     <row r="301">
@@ -4655,10 +4655,10 @@
         <v>0.9801725519300346</v>
       </c>
       <c r="C301" t="n">
-        <v>1.194016404512355</v>
+        <v>1.147200411733182</v>
       </c>
       <c r="D301" t="n">
-        <v>1.175831144157593</v>
+        <v>1.324320084266556</v>
       </c>
     </row>
     <row r="302">
@@ -4669,10 +4669,10 @@
         <v>0.9696895583311547</v>
       </c>
       <c r="C302" t="n">
-        <v>1.188961466582342</v>
+        <v>1.149837556030063</v>
       </c>
       <c r="D302" t="n">
-        <v>1.171976491782644</v>
+        <v>1.330878599250904</v>
       </c>
     </row>
     <row r="303">
@@ -4683,10 +4683,10 @@
         <v>0.9552090273502399</v>
       </c>
       <c r="C303" t="n">
-        <v>1.19402757876622</v>
+        <v>1.150428241626504</v>
       </c>
       <c r="D303" t="n">
-        <v>1.176038823520143</v>
+        <v>1.330192084059272</v>
       </c>
     </row>
     <row r="304">
@@ -4697,10 +4697,10 @@
         <v>0.9451055467939582</v>
       </c>
       <c r="C304" t="n">
-        <v>1.174426487791942</v>
+        <v>1.136387314033468</v>
       </c>
       <c r="D304" t="n">
-        <v>1.161307066016894</v>
+        <v>1.323016888128969</v>
       </c>
     </row>
     <row r="305">
@@ -4711,10 +4711,10 @@
         <v>0.9593246354566385</v>
       </c>
       <c r="C305" t="n">
-        <v>1.181708457006127</v>
+        <v>1.147509350417896</v>
       </c>
       <c r="D305" t="n">
-        <v>1.1670443050323</v>
+        <v>1.343910350142888</v>
       </c>
     </row>
     <row r="306">
@@ -4725,10 +4725,10 @@
         <v>0.9680197009437225</v>
       </c>
       <c r="C306" t="n">
-        <v>1.222988585498715</v>
+        <v>1.171719791904452</v>
       </c>
       <c r="D306" t="n">
-        <v>1.198572762620242</v>
+        <v>1.368178024138657</v>
       </c>
     </row>
     <row r="307">
@@ -4739,10 +4739,10 @@
         <v>0.9734003525254484</v>
       </c>
       <c r="C307" t="n">
-        <v>1.252939295343203</v>
+        <v>1.202299517851646</v>
       </c>
       <c r="D307" t="n">
-        <v>1.221865813626553</v>
+        <v>1.429742116723344</v>
       </c>
     </row>
     <row r="308">
@@ -4753,10 +4753,10 @@
         <v>0.9854688672800722</v>
       </c>
       <c r="C308" t="n">
-        <v>1.240727471648856</v>
+        <v>1.208480972357903</v>
       </c>
       <c r="D308" t="n">
-        <v>1.211578784185122</v>
+        <v>1.467051325123698</v>
       </c>
     </row>
     <row r="309">
@@ -4767,10 +4767,10 @@
         <v>0.9836472046756007</v>
       </c>
       <c r="C309" t="n">
-        <v>1.248417304875345</v>
+        <v>1.220025283679549</v>
       </c>
       <c r="D309" t="n">
-        <v>1.218456397226671</v>
+        <v>1.470403044481859</v>
       </c>
     </row>
     <row r="310">
@@ -4781,10 +4781,10 @@
         <v>0.9720003710794194</v>
       </c>
       <c r="C310" t="n">
-        <v>1.241666637021383</v>
+        <v>1.219546560883984</v>
       </c>
       <c r="D310" t="n">
-        <v>1.212816741542492</v>
+        <v>1.470213042491245</v>
       </c>
     </row>
     <row r="311">
@@ -4795,10 +4795,10 @@
         <v>0.9911025275568637</v>
       </c>
       <c r="C311" t="n">
-        <v>1.245197271594687</v>
+        <v>1.229298562065205</v>
       </c>
       <c r="D311" t="n">
-        <v>1.215369622651172</v>
+        <v>1.475293871188058</v>
       </c>
     </row>
     <row r="312">
@@ -4809,10 +4809,10 @@
         <v>0.9909422887166556</v>
       </c>
       <c r="C312" t="n">
-        <v>1.254726961137584</v>
+        <v>1.232909757587879</v>
       </c>
       <c r="D312" t="n">
-        <v>1.223557612905992</v>
+        <v>1.478792512625656</v>
       </c>
     </row>
     <row r="313">
@@ -4823,10 +4823,10 @@
         <v>0.9919964916127617</v>
       </c>
       <c r="C313" t="n">
-        <v>1.250331700221509</v>
+        <v>1.240808563855792</v>
       </c>
       <c r="D313" t="n">
-        <v>1.219800711098873</v>
+        <v>1.511593326438946</v>
       </c>
     </row>
     <row r="314">
@@ -4837,10 +4837,10 @@
         <v>0.9978072579760991</v>
       </c>
       <c r="C314" t="n">
-        <v>1.260275101181348</v>
+        <v>1.232800836181654</v>
       </c>
       <c r="D314" t="n">
-        <v>1.227569283219632</v>
+        <v>1.47542070108181</v>
       </c>
     </row>
     <row r="315">
@@ -4851,10 +4851,10 @@
         <v>0.9923844382785288</v>
       </c>
       <c r="C315" t="n">
-        <v>1.247242077239928</v>
+        <v>1.222348185912243</v>
       </c>
       <c r="D315" t="n">
-        <v>1.217786269995052</v>
+        <v>1.468522046187409</v>
       </c>
     </row>
     <row r="316">
@@ -4865,10 +4865,10 @@
         <v>1.002015635937355</v>
       </c>
       <c r="C316" t="n">
-        <v>1.244167816453661</v>
+        <v>1.271929010573327</v>
       </c>
       <c r="D316" t="n">
-        <v>1.214572521967433</v>
+        <v>1.593878202070173</v>
       </c>
     </row>
     <row r="317">
@@ -4879,10 +4879,10 @@
         <v>1.006105943174247</v>
       </c>
       <c r="C317" t="n">
-        <v>1.245374532205309</v>
+        <v>1.278765843070499</v>
       </c>
       <c r="D317" t="n">
-        <v>1.214793521051626</v>
+        <v>1.61670385418953</v>
       </c>
     </row>
     <row r="318">
@@ -4893,10 +4893,10 @@
         <v>1.014522699096759</v>
       </c>
       <c r="C318" t="n">
-        <v>1.239302636964226</v>
+        <v>1.263764875435328</v>
       </c>
       <c r="D318" t="n">
-        <v>1.195793485567421</v>
+        <v>1.576777838012236</v>
       </c>
     </row>
     <row r="319">
@@ -4907,10 +4907,10 @@
         <v>1.017946750103312</v>
       </c>
       <c r="C319" t="n">
-        <v>1.237822694735879</v>
+        <v>1.278462537964935</v>
       </c>
       <c r="D319" t="n">
-        <v>1.180919275837141</v>
+        <v>1.616813808295985</v>
       </c>
     </row>
     <row r="320">
@@ -4921,10 +4921,10 @@
         <v>1.021429836472047</v>
       </c>
       <c r="C320" t="n">
-        <v>1.256002592477743</v>
+        <v>1.284979896666039</v>
       </c>
       <c r="D320" t="n">
-        <v>1.194463737406879</v>
+        <v>1.614913676826917</v>
       </c>
     </row>
     <row r="321">
@@ -4935,10 +4935,10 @@
         <v>1.019911784301654</v>
       </c>
       <c r="C321" t="n">
-        <v>1.255637384154906</v>
+        <v>1.276605026199984</v>
       </c>
       <c r="D321" t="n">
-        <v>1.193332143854708</v>
+        <v>1.589330182544662</v>
       </c>
     </row>
     <row r="322">
@@ -4949,10 +4949,10 @@
         <v>1.012557664898417</v>
       </c>
       <c r="C322" t="n">
-        <v>1.258938949458363</v>
+        <v>1.279343276706124</v>
       </c>
       <c r="D322" t="n">
-        <v>1.197817291479185</v>
+        <v>1.590135711281304</v>
       </c>
     </row>
     <row r="323">
@@ -4963,10 +4963,10 @@
         <v>1.006730031288742</v>
       </c>
       <c r="C323" t="n">
-        <v>1.253229292862093</v>
+        <v>1.271549518208994</v>
       </c>
       <c r="D323" t="n">
-        <v>1.194157158691378</v>
+        <v>1.573732258027526</v>
       </c>
     </row>
     <row r="324">
@@ -4977,10 +4977,10 @@
         <v>1.016504600541439</v>
       </c>
       <c r="C324" t="n">
-        <v>1.258292488024279</v>
+        <v>1.275895328432967</v>
       </c>
       <c r="D324" t="n">
-        <v>1.19874915725013</v>
+        <v>1.580599911229176</v>
       </c>
     </row>
     <row r="325">
@@ -4991,10 +4991,10 @@
         <v>1.017052786047414</v>
       </c>
       <c r="C325" t="n">
-        <v>1.216431034306784</v>
+        <v>1.24985738295437</v>
       </c>
       <c r="D325" t="n">
-        <v>1.164524927358008</v>
+        <v>1.557786085473353</v>
       </c>
     </row>
     <row r="326">
@@ -5005,10 +5005,10 @@
         <v>1.006873402882612</v>
       </c>
       <c r="C326" t="n">
-        <v>1.223462461439094</v>
+        <v>1.254175559507446</v>
       </c>
       <c r="D326" t="n">
-        <v>1.170427470366634</v>
+        <v>1.559945877024675</v>
       </c>
     </row>
     <row r="327">
@@ -5019,10 +5019,10 @@
         <v>1.020915385458747</v>
       </c>
       <c r="C327" t="n">
-        <v>1.235586925747889</v>
+        <v>1.259204380588609</v>
       </c>
       <c r="D327" t="n">
-        <v>1.180125231142746</v>
+        <v>1.5619776692516</v>
       </c>
     </row>
     <row r="328">
@@ -5033,10 +5033,10 @@
         <v>1.012591399391092</v>
       </c>
       <c r="C328" t="n">
-        <v>1.254931647277537</v>
+        <v>1.281414441784336</v>
       </c>
       <c r="D328" t="n">
-        <v>1.195831397022872</v>
+        <v>1.576010945266563</v>
       </c>
     </row>
     <row r="329">
@@ -5047,10 +5047,10 @@
         <v>1.002707193037201</v>
       </c>
       <c r="C329" t="n">
-        <v>1.262335275725727</v>
+        <v>1.287433738832173</v>
       </c>
       <c r="D329" t="n">
-        <v>1.204229969973717</v>
+        <v>1.583161255304624</v>
       </c>
     </row>
     <row r="330">
@@ -5061,10 +5061,10 @@
         <v>1.005363784335388</v>
       </c>
       <c r="C330" t="n">
-        <v>1.2541914259066</v>
+        <v>1.295076123110275</v>
       </c>
       <c r="D330" t="n">
-        <v>1.189682580110939</v>
+        <v>1.62045805981391</v>
       </c>
     </row>
     <row r="331">
@@ -5075,10 +5075,10 @@
         <v>0.9927386504516206</v>
       </c>
       <c r="C331" t="n">
-        <v>1.228581251297271</v>
+        <v>1.279144056037702</v>
       </c>
       <c r="D331" t="n">
-        <v>1.172032262649251</v>
+        <v>1.618602883645292</v>
       </c>
     </row>
     <row r="332">
@@ -5089,10 +5089,10 @@
         <v>1.00835772056033</v>
       </c>
       <c r="C332" t="n">
-        <v>1.234010425188526</v>
+        <v>1.287713412317221</v>
       </c>
       <c r="D332" t="n">
-        <v>1.179455111201493</v>
+        <v>1.659274617608649</v>
       </c>
     </row>
     <row r="333">
@@ -5103,10 +5103,10 @@
         <v>1.011368524031609</v>
       </c>
       <c r="C333" t="n">
-        <v>1.225664213832591</v>
+        <v>1.292682064679838</v>
       </c>
       <c r="D333" t="n">
-        <v>1.172924823620944</v>
+        <v>1.685888940971003</v>
       </c>
     </row>
     <row r="334">
@@ -5117,10 +5117,10 @@
         <v>1.029222504280064</v>
       </c>
       <c r="C334" t="n">
-        <v>1.233092449374067</v>
+        <v>1.298418128407616</v>
       </c>
       <c r="D334" t="n">
-        <v>1.176208742536669</v>
+        <v>1.667648541038056</v>
       </c>
     </row>
     <row r="335">
@@ -5131,10 +5131,10 @@
         <v>1.028134566891282</v>
       </c>
       <c r="C335" t="n">
-        <v>1.218923949826262</v>
+        <v>1.284978467008972</v>
       </c>
       <c r="D335" t="n">
-        <v>1.165793590857996</v>
+        <v>1.651547790209835</v>
       </c>
     </row>
     <row r="336">
@@ -5145,10 +5145,10 @@
         <v>1.037032039334419</v>
       </c>
       <c r="C336" t="n">
-        <v>1.224302309404718</v>
+        <v>1.289300532979497</v>
       </c>
       <c r="D336" t="n">
-        <v>1.169669681772515</v>
+        <v>1.643620889305813</v>
       </c>
     </row>
     <row r="337">
@@ -5159,10 +5159,10 @@
         <v>1.009589029542982</v>
       </c>
       <c r="C337" t="n">
-        <v>1.20625409288169</v>
+        <v>1.271705670481977</v>
       </c>
       <c r="D337" t="n">
-        <v>1.156320234209362</v>
+        <v>1.638708713211408</v>
       </c>
     </row>
     <row r="338">
@@ -5173,10 +5173,10 @@
         <v>1.017988918219156</v>
       </c>
       <c r="C338" t="n">
-        <v>1.204772840438505</v>
+        <v>1.274090884627166</v>
       </c>
       <c r="D338" t="n">
-        <v>1.15550152774945</v>
+        <v>1.643113080767532</v>
       </c>
     </row>
     <row r="339">
@@ -5187,10 +5187,10 @@
         <v>1.027898425442554</v>
       </c>
       <c r="C339" t="n">
-        <v>1.232383624167949</v>
+        <v>1.296955895324986</v>
       </c>
       <c r="D339" t="n">
-        <v>1.196467623605556</v>
+        <v>1.675627897591333</v>
       </c>
     </row>
     <row r="340">
@@ -5201,10 +5201,10 @@
         <v>1.036812765132028</v>
       </c>
       <c r="C340" t="n">
-        <v>1.243168473242835</v>
+        <v>1.300096192881762</v>
       </c>
       <c r="D340" t="n">
-        <v>1.19294804843301</v>
+        <v>1.675329357533106</v>
       </c>
     </row>
     <row r="341">
@@ -5215,10 +5215,10 @@
         <v>1.03716697730512</v>
       </c>
       <c r="C341" t="n">
-        <v>1.24552564493338</v>
+        <v>1.296014640235762</v>
       </c>
       <c r="D341" t="n">
-        <v>1.191627136197414</v>
+        <v>1.658034494243587</v>
       </c>
     </row>
     <row r="342">
@@ -5229,10 +5229,10 @@
         <v>1.034265810935036</v>
       </c>
       <c r="C342" t="n">
-        <v>1.240750142728819</v>
+        <v>1.29351364930198</v>
       </c>
       <c r="D342" t="n">
-        <v>1.17828490852783</v>
+        <v>1.647586336912484</v>
       </c>
     </row>
     <row r="343">
@@ -5243,10 +5243,10 @@
         <v>1.034813996441011</v>
       </c>
       <c r="C343" t="n">
-        <v>1.25187779896248</v>
+        <v>1.303424127038899</v>
       </c>
       <c r="D343" t="n">
-        <v>1.189160210505329</v>
+        <v>1.646081631475672</v>
       </c>
     </row>
     <row r="344">
@@ -5257,10 +5257,10 @@
         <v>1.033894731515606</v>
       </c>
       <c r="C344" t="n">
-        <v>1.263165430936185</v>
+        <v>1.308172121043968</v>
       </c>
       <c r="D344" t="n">
-        <v>1.196285462074359</v>
+        <v>1.648052904277437</v>
       </c>
     </row>
     <row r="345">
@@ -5271,10 +5271,10 @@
         <v>1.04603914887875</v>
       </c>
       <c r="C345" t="n">
-        <v>1.273858791997833</v>
+        <v>1.322656505089737</v>
       </c>
       <c r="D345" t="n">
-        <v>1.203961157348165</v>
+        <v>1.68378825372553</v>
       </c>
     </row>
     <row r="346">
@@ -5285,10 +5285,10 @@
         <v>1.037234446290471</v>
       </c>
       <c r="C346" t="n">
-        <v>1.278367955429267</v>
+        <v>1.327397293121933</v>
       </c>
       <c r="D346" t="n">
-        <v>1.207065471000508</v>
+        <v>1.689411532225275</v>
       </c>
     </row>
     <row r="347">
@@ -5299,10 +5299,10 @@
         <v>1.045676503082489</v>
       </c>
       <c r="C347" t="n">
-        <v>1.279746868154387</v>
+        <v>1.328885881334628</v>
       </c>
       <c r="D347" t="n">
-        <v>1.20946895856898</v>
+        <v>1.690951228653731</v>
       </c>
     </row>
     <row r="348">
@@ -5313,10 +5313,10 @@
         <v>1.048864412640314</v>
       </c>
       <c r="C348" t="n">
-        <v>1.25329453436074</v>
+        <v>1.309369488617961</v>
       </c>
       <c r="D348" t="n">
-        <v>1.187478660377457</v>
+        <v>1.679884440437499</v>
       </c>
     </row>
     <row r="349">
@@ -5327,10 +5327,10 @@
         <v>1.058934158703921</v>
       </c>
       <c r="C349" t="n">
-        <v>1.264748911127337</v>
+        <v>1.313096606132638</v>
       </c>
       <c r="D349" t="n">
-        <v>1.198820476923357</v>
+        <v>1.687410439077137</v>
       </c>
     </row>
     <row r="350">
@@ -5341,10 +5341,10 @@
         <v>1.064458181879517</v>
       </c>
       <c r="C350" t="n">
-        <v>1.273052953946075</v>
+        <v>1.323208910978577</v>
       </c>
       <c r="D350" t="n">
-        <v>1.20326586664122</v>
+        <v>1.693596488906057</v>
       </c>
     </row>
     <row r="351">
@@ -5355,10 +5355,10 @@
         <v>1.081755542998828</v>
       </c>
       <c r="C351" t="n">
-        <v>1.291941518948254</v>
+        <v>1.329931988780437</v>
       </c>
       <c r="D351" t="n">
-        <v>1.213280949703841</v>
+        <v>1.688473554451133</v>
       </c>
     </row>
     <row r="352">
@@ -5369,10 +5369,10 @@
         <v>1.093005996306073</v>
       </c>
       <c r="C352" t="n">
-        <v>1.282966624861714</v>
+        <v>1.332746750836722</v>
       </c>
       <c r="D352" t="n">
-        <v>1.208530130055598</v>
+        <v>1.698075730884297</v>
       </c>
     </row>
     <row r="353">
@@ -5383,10 +5383,10 @@
         <v>1.097433648469719</v>
       </c>
       <c r="C353" t="n">
-        <v>1.297440767354484</v>
+        <v>1.339796709305066</v>
       </c>
       <c r="D353" t="n">
-        <v>1.218119118112479</v>
+        <v>1.700224237995959</v>
       </c>
     </row>
     <row r="354">
@@ -5397,10 +5397,10 @@
         <v>1.102915503529471</v>
       </c>
       <c r="C354" t="n">
-        <v>1.304354993086943</v>
+        <v>1.345396677870672</v>
       </c>
       <c r="D354" t="n">
-        <v>1.224229173247051</v>
+        <v>1.701101133395919</v>
       </c>
     </row>
     <row r="355">
@@ -5411,10 +5411,10 @@
         <v>1.094574650215479</v>
       </c>
       <c r="C355" t="n">
-        <v>1.286142342989717</v>
+        <v>1.340597467642143</v>
       </c>
       <c r="D355" t="n">
-        <v>1.211760930030984</v>
+        <v>1.704532291439522</v>
       </c>
     </row>
     <row r="356">
@@ -5425,10 +5425,10 @@
         <v>1.095586684995741</v>
       </c>
       <c r="C356" t="n">
-        <v>1.299573604182667</v>
+        <v>1.337395088062974</v>
       </c>
       <c r="D356" t="n">
-        <v>1.225624921542947</v>
+        <v>1.697890585020413</v>
       </c>
     </row>
     <row r="357">
@@ -5439,10 +5439,10 @@
         <v>1.097011967311277</v>
       </c>
       <c r="C357" t="n">
-        <v>1.299026565444957</v>
+        <v>1.346676550894609</v>
       </c>
       <c r="D357" t="n">
-        <v>1.225501673026584</v>
+        <v>1.717060317873207</v>
       </c>
     </row>
     <row r="358">
@@ -5453,10 +5453,10 @@
         <v>1.091656616599057</v>
       </c>
       <c r="C358" t="n">
-        <v>1.289386660814623</v>
+        <v>1.336828450673551</v>
       </c>
       <c r="D358" t="n">
-        <v>1.219135860546606</v>
+        <v>1.705028645870674</v>
       </c>
     </row>
     <row r="359">
@@ -5467,10 +5467,10 @@
         <v>1.098125205569565</v>
       </c>
       <c r="C359" t="n">
-        <v>1.307408834721373</v>
+        <v>1.357481191407732</v>
       </c>
       <c r="D359" t="n">
-        <v>1.231150589023444</v>
+        <v>1.724154960012414</v>
       </c>
     </row>
     <row r="360">
@@ -5481,10 +5481,10 @@
         <v>1.097138471658809</v>
       </c>
       <c r="C360" t="n">
-        <v>1.3053242770471</v>
+        <v>1.347970993198624</v>
       </c>
       <c r="D360" t="n">
-        <v>1.228695952902037</v>
+        <v>1.705419465443534</v>
       </c>
     </row>
     <row r="361">
@@ -5495,10 +5495,10 @@
         <v>1.090121697182326</v>
       </c>
       <c r="C361" t="n">
-        <v>1.302768865766805</v>
+        <v>1.350927974195222</v>
       </c>
       <c r="D361" t="n">
-        <v>1.226499657567038</v>
+        <v>1.720102763505777</v>
       </c>
     </row>
     <row r="362">
@@ -5509,10 +5509,10 @@
         <v>1.079984482133369</v>
       </c>
       <c r="C362" t="n">
-        <v>1.295449297819676</v>
+        <v>1.342002547020873</v>
       </c>
       <c r="D362" t="n">
-        <v>1.218245277252684</v>
+        <v>1.707140313155664</v>
       </c>
     </row>
     <row r="363">
@@ -5523,10 +5523,10 @@
         <v>1.082919382996129</v>
       </c>
       <c r="C363" t="n">
-        <v>1.28943730384356</v>
+        <v>1.347676561414101</v>
       </c>
       <c r="D363" t="n">
-        <v>1.21560615485665</v>
+        <v>1.71661524586991</v>
       </c>
     </row>
     <row r="364">
@@ -5537,10 +5537,10 @@
         <v>1.09017229892134</v>
       </c>
       <c r="C364" t="n">
-        <v>1.288518834196202</v>
+        <v>1.343911614532767</v>
       </c>
       <c r="D364" t="n">
-        <v>1.214686132839387</v>
+        <v>1.695970159699291</v>
       </c>
     </row>
     <row r="365">
@@ -5551,10 +5551,10 @@
         <v>1.085972354583252</v>
       </c>
       <c r="C365" t="n">
-        <v>1.279462408086863</v>
+        <v>1.345912044701769</v>
       </c>
       <c r="D365" t="n">
-        <v>1.208536940142167</v>
+        <v>1.714272098097417</v>
       </c>
     </row>
     <row r="366">
@@ -5565,10 +5565,10 @@
         <v>1.083113356329013</v>
       </c>
       <c r="C366" t="n">
-        <v>1.266152812808544</v>
+        <v>1.345047066134188</v>
       </c>
       <c r="D366" t="n">
-        <v>1.197084053306793</v>
+        <v>1.704981889072685</v>
       </c>
     </row>
     <row r="367">
@@ -5579,10 +5579,10 @@
         <v>1.092272271090383</v>
       </c>
       <c r="C367" t="n">
-        <v>1.258830716383153</v>
+        <v>1.332818373843847</v>
       </c>
       <c r="D367" t="n">
-        <v>1.190083853404927</v>
+        <v>1.69250230351341</v>
       </c>
     </row>
     <row r="368">
@@ -5593,10 +5593,10 @@
         <v>1.073229149975121</v>
       </c>
       <c r="C368" t="n">
-        <v>1.261785517184012</v>
+        <v>1.335064698717399</v>
       </c>
       <c r="D368" t="n">
-        <v>1.199035126318711</v>
+        <v>1.702904652620577</v>
       </c>
     </row>
     <row r="369">
@@ -5607,10 +5607,10 @@
         <v>1.074688166783332</v>
       </c>
       <c r="C369" t="n">
-        <v>1.253494966518459</v>
+        <v>1.325351565322811</v>
       </c>
       <c r="D369" t="n">
-        <v>1.199644956028504</v>
+        <v>1.697327140039599</v>
       </c>
     </row>
     <row r="370">
@@ -5621,10 +5621,10 @@
         <v>1.073827937220109</v>
       </c>
       <c r="C370" t="n">
-        <v>1.25491891882676</v>
+        <v>1.325750730182994</v>
       </c>
       <c r="D370" t="n">
-        <v>1.217032087702533</v>
+        <v>1.694311782117791</v>
       </c>
     </row>
     <row r="371">
@@ -5635,10 +5635,10 @@
         <v>1.069400285056463</v>
       </c>
       <c r="C371" t="n">
-        <v>1.247844592046101</v>
+        <v>1.32519859522179</v>
       </c>
       <c r="D371" t="n">
-        <v>1.194167206584628</v>
+        <v>1.67750357930476</v>
       </c>
     </row>
     <row r="372">
@@ -5649,10 +5649,10 @@
         <v>1.05981968913665</v>
       </c>
       <c r="C372" t="n">
-        <v>1.228044273816274</v>
+        <v>1.309776298733406</v>
       </c>
       <c r="D372" t="n">
-        <v>1.18057093480591</v>
+        <v>1.665663344290333</v>
       </c>
     </row>
     <row r="373">
@@ -5663,10 +5663,10 @@
         <v>1.07631585605492</v>
       </c>
       <c r="C373" t="n">
-        <v>1.264980554827955</v>
+        <v>1.32725686919641</v>
       </c>
       <c r="D373" t="n">
-        <v>1.206512041338096</v>
+        <v>1.671919552736756</v>
       </c>
     </row>
     <row r="374">
@@ -5677,10 +5677,10 @@
         <v>1.070395452590387</v>
       </c>
       <c r="C374" t="n">
-        <v>1.275952745812059</v>
+        <v>1.327131496117298</v>
       </c>
       <c r="D374" t="n">
-        <v>1.210327597462477</v>
+        <v>1.645535434410896</v>
       </c>
     </row>
     <row r="375">
@@ -5691,10 +5691,10 @@
         <v>1.055004090307237</v>
       </c>
       <c r="C375" t="n">
-        <v>1.278288714583281</v>
+        <v>1.323843287396488</v>
       </c>
       <c r="D375" t="n">
-        <v>1.211515555052034</v>
+        <v>1.645566658216488</v>
       </c>
     </row>
     <row r="376">
@@ -5705,10 +5705,10 @@
         <v>1.071230381284104</v>
       </c>
       <c r="C376" t="n">
-        <v>1.266950762129677</v>
+        <v>1.310208912488716</v>
       </c>
       <c r="D376" t="n">
-        <v>1.198517199197719</v>
+        <v>1.631617788083132</v>
       </c>
     </row>
     <row r="377">
@@ -5719,10 +5719,10 @@
         <v>1.057812486822464</v>
       </c>
       <c r="C377" t="n">
-        <v>1.261351320620842</v>
+        <v>1.300385731765621</v>
       </c>
       <c r="D377" t="n">
-        <v>1.193034888635069</v>
+        <v>1.600068960971077</v>
       </c>
     </row>
     <row r="378">
@@ -5733,10 +5733,10 @@
         <v>1.076079714606192</v>
       </c>
       <c r="C378" t="n">
-        <v>1.261607861349333</v>
+        <v>1.317862194969063</v>
       </c>
       <c r="D378" t="n">
-        <v>1.199136943585871</v>
+        <v>1.635007543479157</v>
       </c>
     </row>
     <row r="379">
@@ -5747,10 +5747,10 @@
         <v>1.080920614305112</v>
       </c>
       <c r="C379" t="n">
-        <v>1.259243808635843</v>
+        <v>1.315071127321902</v>
       </c>
       <c r="D379" t="n">
-        <v>1.195792329933773</v>
+        <v>1.633737656141264</v>
       </c>
     </row>
     <row r="380">
@@ -5761,10 +5761,10 @@
         <v>1.082936250242467</v>
       </c>
       <c r="C380" t="n">
-        <v>1.273851173159912</v>
+        <v>1.325320184774942</v>
       </c>
       <c r="D380" t="n">
-        <v>1.208974844879876</v>
+        <v>1.657319886473212</v>
       </c>
     </row>
     <row r="381">
@@ -5775,10 +5775,10 @@
         <v>1.075017078086917</v>
       </c>
       <c r="C381" t="n">
-        <v>1.261723903799524</v>
+        <v>1.322348239027896</v>
       </c>
       <c r="D381" t="n">
-        <v>1.196505661427371</v>
+        <v>1.652452153829424</v>
       </c>
     </row>
     <row r="382">
@@ -5789,10 +5789,10 @@
         <v>1.062299174348292</v>
       </c>
       <c r="C382" t="n">
-        <v>1.267122965783776</v>
+        <v>1.330229431408805</v>
       </c>
       <c r="D382" t="n">
-        <v>1.200449458423149</v>
+        <v>1.661660805506626</v>
       </c>
     </row>
     <row r="383">
@@ -5803,10 +5803,10 @@
         <v>1.049100554089042</v>
       </c>
       <c r="C383" t="n">
-        <v>1.254589471832388</v>
+        <v>1.321188795098939</v>
       </c>
       <c r="D383" t="n">
-        <v>1.18743778284719</v>
+        <v>1.656079205659659</v>
       </c>
     </row>
     <row r="384">
@@ -5817,10 +5817,10 @@
         <v>1.057584778996905</v>
       </c>
       <c r="C384" t="n">
-        <v>1.260771134303714</v>
+        <v>1.325891428144967</v>
       </c>
       <c r="D384" t="n">
-        <v>1.193513574139992</v>
+        <v>1.659628842058303</v>
       </c>
     </row>
     <row r="385">
@@ -5831,10 +5831,10 @@
         <v>1.062037732030057</v>
       </c>
       <c r="C385" t="n">
-        <v>1.266338323970713</v>
+        <v>1.329178881933154</v>
       </c>
       <c r="D385" t="n">
-        <v>1.197495527149899</v>
+        <v>1.658608301592673</v>
       </c>
     </row>
     <row r="386">
@@ -5845,10 +5845,10 @@
         <v>1.063876261880867</v>
       </c>
       <c r="C386" t="n">
-        <v>1.272345642853107</v>
+        <v>1.328614771487087</v>
       </c>
       <c r="D386" t="n">
-        <v>1.203617753220994</v>
+        <v>1.655961982719768</v>
       </c>
     </row>
     <row r="387">
@@ -5859,10 +5859,10 @@
         <v>1.054649878134145</v>
       </c>
       <c r="C387" t="n">
-        <v>1.2714224914314</v>
+        <v>1.323736091349317</v>
       </c>
       <c r="D387" t="n">
-        <v>1.206431064137641</v>
+        <v>1.656333088628101</v>
       </c>
     </row>
     <row r="388">
@@ -5873,10 +5873,10 @@
         <v>1.062670253767721</v>
       </c>
       <c r="C388" t="n">
-        <v>1.263196187918067</v>
+        <v>1.317035591202118</v>
       </c>
       <c r="D388" t="n">
-        <v>1.205265318087488</v>
+        <v>1.655171767759729</v>
       </c>
     </row>
     <row r="389">
@@ -5887,10 +5887,10 @@
         <v>1.050930650316683</v>
       </c>
       <c r="C389" t="n">
-        <v>1.256716310013954</v>
+        <v>1.313452591679071</v>
       </c>
       <c r="D389" t="n">
-        <v>1.188676227333636</v>
+        <v>1.642498790670972</v>
       </c>
     </row>
     <row r="390">
@@ -5901,10 +5901,10 @@
         <v>1.065048535501337</v>
       </c>
       <c r="C390" t="n">
-        <v>1.267861251118194</v>
+        <v>1.314319273794991</v>
       </c>
       <c r="D390" t="n">
-        <v>1.20272547812006</v>
+        <v>1.629146105930549</v>
       </c>
     </row>
     <row r="391">
@@ -5915,10 +5915,10 @@
         <v>1.05989559174517</v>
       </c>
       <c r="C391" t="n">
-        <v>1.238179856405483</v>
+        <v>1.300154635250661</v>
       </c>
       <c r="D391" t="n">
-        <v>1.175211802727915</v>
+        <v>1.618413186051948</v>
       </c>
     </row>
     <row r="392">
@@ -5929,10 +5929,10 @@
         <v>1.027223735589046</v>
       </c>
       <c r="C392" t="n">
-        <v>1.224129433953231</v>
+        <v>1.287105189246273</v>
       </c>
       <c r="D392" t="n">
-        <v>1.163237535125817</v>
+        <v>1.61022622356109</v>
       </c>
     </row>
     <row r="393">
@@ -5943,10 +5943,10 @@
         <v>1.033253776154774</v>
       </c>
       <c r="C393" t="n">
-        <v>1.261564145319047</v>
+        <v>1.303915796140219</v>
       </c>
       <c r="D393" t="n">
-        <v>1.193903762099397</v>
+        <v>1.617363035343531</v>
       </c>
     </row>
     <row r="394">
@@ -5957,10 +5957,10 @@
         <v>1.042201850336923</v>
       </c>
       <c r="C394" t="n">
-        <v>1.256706182739653</v>
+        <v>1.307941240833107</v>
       </c>
       <c r="D394" t="n">
-        <v>1.194193407501287</v>
+        <v>1.629704657991262</v>
       </c>
     </row>
     <row r="395">
@@ -5971,10 +5971,10 @@
         <v>1.027223735589046</v>
       </c>
       <c r="C395" t="n">
-        <v>1.233637275501927</v>
+        <v>1.294214726875705</v>
       </c>
       <c r="D395" t="n">
-        <v>1.168433590749127</v>
+        <v>1.617603432789027</v>
       </c>
     </row>
     <row r="396">
@@ -5985,10 +5985,10 @@
         <v>1.02580688689668</v>
       </c>
       <c r="C396" t="n">
-        <v>1.234472942206729</v>
+        <v>1.288229185349925</v>
       </c>
       <c r="D396" t="n">
-        <v>1.168832559182504</v>
+        <v>1.613460674630368</v>
       </c>
     </row>
     <row r="397">
@@ -5999,10 +5999,10 @@
         <v>1.035733261366416</v>
       </c>
       <c r="C397" t="n">
-        <v>1.233618996284922</v>
+        <v>1.281158301400425</v>
       </c>
       <c r="D397" t="n">
-        <v>1.170162564494178</v>
+        <v>1.605492387157677</v>
       </c>
     </row>
     <row r="398">
@@ -6013,10 +6013,10 @@
         <v>1.037495888608705</v>
       </c>
       <c r="C398" t="n">
-        <v>1.234548640186145</v>
+        <v>1.274808527069621</v>
       </c>
       <c r="D398" t="n">
-        <v>1.171290265873989</v>
+        <v>1.596249716288745</v>
       </c>
     </row>
     <row r="399">
@@ -6027,10 +6027,10 @@
         <v>1.030605618479755</v>
       </c>
       <c r="C399" t="n">
-        <v>1.227786791397691</v>
+        <v>1.271721710516102</v>
       </c>
       <c r="D399" t="n">
-        <v>1.16569316008611</v>
+        <v>1.597447980652263</v>
       </c>
     </row>
     <row r="400">
@@ -6041,10 +6041,10 @@
         <v>1.029374309497103</v>
       </c>
       <c r="C400" t="n">
-        <v>1.218281208434552</v>
+        <v>1.267621821445927</v>
       </c>
       <c r="D400" t="n">
-        <v>1.154967091702581</v>
+        <v>1.59273018652397</v>
       </c>
     </row>
     <row r="401">
@@ -6055,10 +6055,10 @@
         <v>1.017946750103312</v>
       </c>
       <c r="C401" t="n">
-        <v>1.223627309490546</v>
+        <v>1.269086304325674</v>
       </c>
       <c r="D401" t="n">
-        <v>1.157593054323207</v>
+        <v>1.59352088232042</v>
       </c>
     </row>
     <row r="402">
@@ -6069,10 +6069,10 @@
         <v>1.022104526325555</v>
       </c>
       <c r="C402" t="n">
-        <v>1.218501631928797</v>
+        <v>1.269969825815237</v>
       </c>
       <c r="D402" t="n">
-        <v>1.151572965411746</v>
+        <v>1.594345630406418</v>
       </c>
     </row>
     <row r="403">
@@ -6083,10 +6083,10 @@
         <v>1.005119209263492</v>
       </c>
       <c r="C403" t="n">
-        <v>1.216909775854748</v>
+        <v>1.264358397033789</v>
       </c>
       <c r="D403" t="n">
-        <v>1.151851923135442</v>
+        <v>1.588487963979904</v>
       </c>
     </row>
     <row r="404">
@@ -6097,10 +6097,10 @@
         <v>0.9943579061000396</v>
       </c>
       <c r="C404" t="n">
-        <v>1.217524920456462</v>
+        <v>1.25917168884599</v>
       </c>
       <c r="D404" t="n">
-        <v>1.158445648839603</v>
+        <v>1.587951265643796</v>
       </c>
     </row>
     <row r="405">
@@ -6111,10 +6111,10 @@
         <v>0.9837231072841204</v>
       </c>
       <c r="C405" t="n">
-        <v>1.218791794027724</v>
+        <v>1.260765628924691</v>
       </c>
       <c r="D405" t="n">
-        <v>1.155497427470248</v>
+        <v>1.588820901026374</v>
       </c>
     </row>
     <row r="406">
@@ -6125,10 +6125,10 @@
         <v>0.9881254585782598</v>
       </c>
       <c r="C406" t="n">
-        <v>1.193089637595453</v>
+        <v>1.248337919176835</v>
       </c>
       <c r="D406" t="n">
-        <v>1.127062302695327</v>
+        <v>1.573973263640031</v>
       </c>
     </row>
     <row r="407">
@@ -6139,10 +6139,10 @@
         <v>0.9956145159521982</v>
       </c>
       <c r="C407" t="n">
-        <v>1.225479716270047</v>
+        <v>1.278330244343182</v>
       </c>
       <c r="D407" t="n">
-        <v>1.155182931195137</v>
+        <v>1.59132625868687</v>
       </c>
     </row>
     <row r="408">
@@ -6153,10 +6153,10 @@
         <v>0.9907145808910967</v>
       </c>
       <c r="C408" t="n">
-        <v>1.225611008945453</v>
+        <v>1.274355949679283</v>
       </c>
       <c r="D408" t="n">
-        <v>1.154653431610487</v>
+        <v>1.589549390714822</v>
       </c>
     </row>
     <row r="409">
@@ -6167,10 +6167,10 @@
         <v>1.013814274750576</v>
       </c>
       <c r="C409" t="n">
-        <v>1.250372182619402</v>
+        <v>1.288055629262844</v>
       </c>
       <c r="D409" t="n">
-        <v>1.174426483056518</v>
+        <v>1.59906239930168</v>
       </c>
     </row>
     <row r="410">
@@ -6181,10 +6181,10 @@
         <v>1.018933484014067</v>
       </c>
       <c r="C410" t="n">
-        <v>1.254509809851718</v>
+        <v>1.295105194486972</v>
       </c>
       <c r="D410" t="n">
-        <v>1.179784883446758</v>
+        <v>1.603917613712235</v>
       </c>
     </row>
     <row r="411">
@@ -6195,10 +6195,10 @@
         <v>1.001273477098496</v>
       </c>
       <c r="C411" t="n">
-        <v>1.244526386970142</v>
+        <v>1.288199906718709</v>
       </c>
       <c r="D411" t="n">
-        <v>1.167702490200742</v>
+        <v>1.597793719333642</v>
       </c>
     </row>
     <row r="412">
@@ -6209,10 +6209,10 @@
         <v>1.017752776770428</v>
       </c>
       <c r="C412" t="n">
-        <v>1.251682890871675</v>
+        <v>1.295296319105651</v>
       </c>
       <c r="D412" t="n">
-        <v>1.17316012441714</v>
+        <v>1.602281637172282</v>
       </c>
     </row>
     <row r="413">
@@ -6223,10 +6223,10 @@
         <v>1.009842038238048</v>
       </c>
       <c r="C413" t="n">
-        <v>1.259492849200334</v>
+        <v>1.295934697433794</v>
       </c>
       <c r="D413" t="n">
-        <v>1.179050329252641</v>
+        <v>1.600221857805471</v>
       </c>
     </row>
     <row r="414">
@@ -6237,10 +6237,10 @@
         <v>1.001754193619121</v>
       </c>
       <c r="C414" t="n">
-        <v>1.251677162117763</v>
+        <v>1.289218995573236</v>
       </c>
       <c r="D414" t="n">
-        <v>1.171168597820849</v>
+        <v>1.592992485736279</v>
       </c>
     </row>
     <row r="415">
@@ -6251,10 +6251,10 @@
         <v>1.006940871867963</v>
       </c>
       <c r="C415" t="n">
-        <v>1.257772729442667</v>
+        <v>1.29383001456284</v>
       </c>
       <c r="D415" t="n">
-        <v>1.176028030242087</v>
+        <v>1.593539913493936</v>
       </c>
     </row>
     <row r="416">
@@ -6265,10 +6265,10 @@
         <v>0.9840098504718612</v>
       </c>
       <c r="C416" t="n">
-        <v>1.246631752339682</v>
+        <v>1.286284950469074</v>
       </c>
       <c r="D416" t="n">
-        <v>1.16717397216461</v>
+        <v>1.588505343868316</v>
       </c>
     </row>
     <row r="417">
@@ -6279,10 +6279,10 @@
         <v>0.9861688580030867</v>
       </c>
       <c r="C417" t="n">
-        <v>1.234103987142205</v>
+        <v>1.276487695808231</v>
       </c>
       <c r="D417" t="n">
-        <v>1.156153823184941</v>
+        <v>1.582248256217713</v>
       </c>
     </row>
     <row r="418">
@@ -6293,10 +6293,10 @@
         <v>0.9940627292891299</v>
       </c>
       <c r="C418" t="n">
-        <v>1.239093907513767</v>
+        <v>1.27825659681606</v>
       </c>
       <c r="D418" t="n">
-        <v>1.160084794878518</v>
+        <v>1.583680753991647</v>
       </c>
     </row>
     <row r="419">
@@ -6307,10 +6307,10 @@
         <v>0.9564825044487362</v>
       </c>
       <c r="C419" t="n">
-        <v>1.203079507004035</v>
+        <v>1.250853568806043</v>
       </c>
       <c r="D419" t="n">
-        <v>1.132207696894778</v>
+        <v>1.547798766110065</v>
       </c>
     </row>
     <row r="420">
@@ -6321,10 +6321,10 @@
         <v>0.9729112023816552</v>
       </c>
       <c r="C420" t="n">
-        <v>1.231066936545454</v>
+        <v>1.269734495885938</v>
       </c>
       <c r="D420" t="n">
-        <v>1.154732702865036</v>
+        <v>1.561703047159686</v>
       </c>
     </row>
     <row r="421">
@@ -6335,10 +6335,10 @@
         <v>0.9638450574751419</v>
       </c>
       <c r="C421" t="n">
-        <v>1.243580221923945</v>
+        <v>1.273241527677077</v>
       </c>
       <c r="D421" t="n">
-        <v>1.165350325712174</v>
+        <v>1.567784995310232</v>
       </c>
     </row>
     <row r="422">
@@ -6349,10 +6349,10 @@
         <v>0.9817074713467653</v>
       </c>
       <c r="C422" t="n">
-        <v>1.26958890367751</v>
+        <v>1.284028592781491</v>
       </c>
       <c r="D422" t="n">
-        <v>1.191357453808974</v>
+        <v>1.577643669396588</v>
       </c>
     </row>
     <row r="423">
@@ -6363,10 +6363,10 @@
         <v>0.9798267733801118</v>
       </c>
       <c r="C423" t="n">
-        <v>1.277205468794002</v>
+        <v>1.293773672556028</v>
       </c>
       <c r="D423" t="n">
-        <v>1.197323810726499</v>
+        <v>1.595998974050001</v>
       </c>
     </row>
     <row r="424">
@@ -6377,10 +6377,10 @@
         <v>0.970397982677338</v>
       </c>
       <c r="C424" t="n">
-        <v>1.250392219908437</v>
+        <v>1.277460187862813</v>
       </c>
       <c r="D424" t="n">
-        <v>1.16974407245766</v>
+        <v>1.58276049745362</v>
       </c>
     </row>
     <row r="425">
@@ -6391,10 +6391,10 @@
         <v>0.9596957148760679</v>
       </c>
       <c r="C425" t="n">
-        <v>1.26908045801917</v>
+        <v>1.31252907782445</v>
       </c>
       <c r="D425" t="n">
-        <v>1.188848424037585</v>
+        <v>1.669261246576167</v>
       </c>
     </row>
     <row r="426">
@@ -6405,10 +6405,10 @@
         <v>0.9398345323134272</v>
       </c>
       <c r="C426" t="n">
-        <v>1.254021783345215</v>
+        <v>1.296395808214003</v>
       </c>
       <c r="D426" t="n">
-        <v>1.173568185926595</v>
+        <v>1.650399925160975</v>
       </c>
     </row>
     <row r="427">
@@ -6419,10 +6419,10 @@
         <v>0.9179492801902626</v>
       </c>
       <c r="C427" t="n">
-        <v>1.230395321552048</v>
+        <v>1.270897486950952</v>
       </c>
       <c r="D427" t="n">
-        <v>1.152477787234488</v>
+        <v>1.616164283947439</v>
       </c>
     </row>
     <row r="428">
@@ -6433,10 +6433,10 @@
         <v>0.9298069543656651</v>
       </c>
       <c r="C428" t="n">
-        <v>1.236832201198969</v>
+        <v>1.278823872089848</v>
       </c>
       <c r="D428" t="n">
-        <v>1.15490517085901</v>
+        <v>1.626759599719832</v>
       </c>
     </row>
     <row r="429">
@@ -6447,10 +6447,10 @@
         <v>0.9469440766447673</v>
       </c>
       <c r="C429" t="n">
-        <v>1.23674560553902</v>
+        <v>1.264543248706997</v>
       </c>
       <c r="D429" t="n">
-        <v>1.156265387893858</v>
+        <v>1.575275484434424</v>
       </c>
     </row>
     <row r="430">
@@ -6461,10 +6461,10 @@
         <v>0.9619727931316573</v>
       </c>
       <c r="C430" t="n">
-        <v>1.256204881339533</v>
+        <v>1.277740059442236</v>
       </c>
       <c r="D430" t="n">
-        <v>1.176569540817023</v>
+        <v>1.605052178624537</v>
       </c>
     </row>
     <row r="431">
@@ -6475,10 +6475,10 @@
         <v>0.9553861334367858</v>
       </c>
       <c r="C431" t="n">
-        <v>1.254314105420857</v>
+        <v>1.278155779654192</v>
       </c>
       <c r="D431" t="n">
-        <v>1.174763266204826</v>
+        <v>1.604630070287181</v>
       </c>
     </row>
     <row r="432">
@@ -6489,10 +6489,10 @@
         <v>0.9579162203874406</v>
       </c>
       <c r="C432" t="n">
-        <v>1.257811315841411</v>
+        <v>1.279374629059917</v>
       </c>
       <c r="D432" t="n">
-        <v>1.173892478245909</v>
+        <v>1.595609805904259</v>
       </c>
     </row>
     <row r="433">
@@ -6503,10 +6503,10 @@
         <v>0.92874431784639</v>
       </c>
       <c r="C433" t="n">
-        <v>1.243312895485019</v>
+        <v>1.263538382649742</v>
       </c>
       <c r="D433" t="n">
-        <v>1.159765104990057</v>
+        <v>1.578529133879219</v>
       </c>
     </row>
     <row r="434">
@@ -6517,10 +6517,10 @@
         <v>0.9370345694213691</v>
       </c>
       <c r="C434" t="n">
-        <v>1.245557982046</v>
+        <v>1.275088577054012</v>
       </c>
       <c r="D434" t="n">
-        <v>1.166520896880757</v>
+        <v>1.586415804107372</v>
       </c>
     </row>
     <row r="435">
@@ -6531,10 +6531,10 @@
         <v>0.9359550656557564</v>
       </c>
       <c r="C435" t="n">
-        <v>1.238799932655566</v>
+        <v>1.271246537380466</v>
       </c>
       <c r="D435" t="n">
-        <v>1.158792291215297</v>
+        <v>1.583208625185859</v>
       </c>
     </row>
     <row r="436">
@@ -6545,10 +6545,10 @@
         <v>0.9521560557631163</v>
       </c>
       <c r="C436" t="n">
-        <v>1.248943331277186</v>
+        <v>1.276471995430542</v>
       </c>
       <c r="D436" t="n">
-        <v>1.167124634052843</v>
+        <v>1.587189454613647</v>
       </c>
     </row>
     <row r="437">
@@ -6559,10 +6559,10 @@
         <v>0.9310129624788105</v>
       </c>
       <c r="C437" t="n">
-        <v>1.239969431537071</v>
+        <v>1.268366717234076</v>
       </c>
       <c r="D437" t="n">
-        <v>1.157470891850625</v>
+        <v>1.590707735256381</v>
       </c>
     </row>
     <row r="438">
@@ -6573,10 +6573,10 @@
         <v>0.9315611479847857</v>
       </c>
       <c r="C438" t="n">
-        <v>1.250001350832124</v>
+        <v>1.288887194844397</v>
       </c>
       <c r="D438" t="n">
-        <v>1.168252502669258</v>
+        <v>1.622420586320056</v>
       </c>
     </row>
     <row r="439">
@@ -6587,10 +6587,10 @@
         <v>0.9324213775480084</v>
       </c>
       <c r="C439" t="n">
-        <v>1.247119712851793</v>
+        <v>1.288596503407392</v>
       </c>
       <c r="D439" t="n">
-        <v>1.163263346118296</v>
+        <v>1.623662342221183</v>
       </c>
     </row>
     <row r="440">
@@ -6601,10 +6601,10 @@
         <v>0.9326322181272296</v>
       </c>
       <c r="C440" t="n">
-        <v>1.237297095430257</v>
+        <v>1.285591102827865</v>
       </c>
       <c r="D440" t="n">
-        <v>1.159507711730454</v>
+        <v>1.632370787827268</v>
       </c>
     </row>
     <row r="441">
@@ -6615,10 +6615,10 @@
         <v>0.9515910030108035</v>
       </c>
       <c r="C441" t="n">
-        <v>1.262428429094096</v>
+        <v>1.300246167277386</v>
       </c>
       <c r="D441" t="n">
-        <v>1.180954856142478</v>
+        <v>1.642613227640691</v>
       </c>
     </row>
     <row r="442">
@@ -6629,10 +6629,10 @@
         <v>0.9460838470815447</v>
       </c>
       <c r="C442" t="n">
-        <v>1.253265817916163</v>
+        <v>1.309274662760518</v>
       </c>
       <c r="D442" t="n">
-        <v>1.167643933088375</v>
+        <v>1.658914468134838</v>
       </c>
     </row>
     <row r="443">
@@ -6643,10 +6643,10 @@
         <v>0.9568451502449967</v>
       </c>
       <c r="C443" t="n">
-        <v>1.260758188639761</v>
+        <v>1.312803785731091</v>
       </c>
       <c r="D443" t="n">
-        <v>1.172453365741799</v>
+        <v>1.660791762421287</v>
       </c>
     </row>
     <row r="444">
@@ -6657,10 +6657,10 @@
         <v>0.9545596383662385</v>
       </c>
       <c r="C444" t="n">
-        <v>1.267951520868007</v>
+        <v>1.519924285099577</v>
       </c>
       <c r="D444" t="n">
-        <v>1.178728884815827</v>
+        <v>2.35212319036607</v>
       </c>
     </row>
     <row r="445">
@@ -6671,10 +6671,10 @@
         <v>0.9668980290622654</v>
       </c>
       <c r="C445" t="n">
-        <v>1.265897957477066</v>
+        <v>1.504529549372854</v>
       </c>
       <c r="D445" t="n">
-        <v>1.178151467194557</v>
+        <v>2.282554928482436</v>
       </c>
     </row>
     <row r="446">
@@ -6685,10 +6685,10 @@
         <v>0.9650426319651185</v>
       </c>
       <c r="C446" t="n">
-        <v>1.276877029484115</v>
+        <v>1.507344110254273</v>
       </c>
       <c r="D446" t="n">
-        <v>1.186632549206632</v>
+        <v>2.263913631638685</v>
       </c>
     </row>
     <row r="447">
@@ -6699,10 +6699,10 @@
         <v>0.9333743769660884</v>
       </c>
       <c r="C447" t="n">
-        <v>1.251897473641911</v>
+        <v>1.470067507136474</v>
       </c>
       <c r="D447" t="n">
-        <v>1.171075561027661</v>
+        <v>2.202722810624937</v>
       </c>
     </row>
     <row r="448">
@@ -6713,10 +6713,10 @@
         <v>0.9343273763841684</v>
       </c>
       <c r="C448" t="n">
-        <v>1.249430699347554</v>
+        <v>1.472382172345682</v>
       </c>
       <c r="D448" t="n">
-        <v>1.16834098563404</v>
+        <v>2.224518235274869</v>
       </c>
     </row>
     <row r="449">
@@ -6727,10 +6727,10 @@
         <v>0.9085963920960084</v>
       </c>
       <c r="C449" t="n">
-        <v>1.232553252625789</v>
+        <v>1.434396316106379</v>
       </c>
       <c r="D449" t="n">
-        <v>1.152792819241122</v>
+        <v>2.154194989440398</v>
       </c>
     </row>
     <row r="450">
@@ -6741,10 +6741,10 @@
         <v>0.8964604083560338</v>
       </c>
       <c r="C450" t="n">
-        <v>1.231232357785451</v>
+        <v>1.383903859320183</v>
       </c>
       <c r="D450" t="n">
-        <v>1.149198805222825</v>
+        <v>1.990965047026111</v>
       </c>
     </row>
     <row r="451">
@@ -6755,10 +6755,10 @@
         <v>0.9168613428014809</v>
       </c>
       <c r="C451" t="n">
-        <v>1.236295941491067</v>
+        <v>1.398255176838614</v>
       </c>
       <c r="D451" t="n">
-        <v>1.154515317372811</v>
+        <v>2.03342939486747</v>
       </c>
     </row>
     <row r="452">
@@ -6769,10 +6769,10 @@
         <v>0.8975061776289712</v>
       </c>
       <c r="C452" t="n">
-        <v>1.232032361793827</v>
+        <v>1.402669509039354</v>
       </c>
       <c r="D452" t="n">
-        <v>1.150953429572277</v>
+        <v>2.067632264324371</v>
       </c>
     </row>
     <row r="453">
@@ -6783,10 +6783,10 @@
         <v>0.8970254611083468</v>
       </c>
       <c r="C453" t="n">
-        <v>1.244858283110327</v>
+        <v>1.397426663468524</v>
       </c>
       <c r="D453" t="n">
-        <v>1.162109325187669</v>
+        <v>2.046228391763435</v>
       </c>
     </row>
     <row r="454">
@@ -6797,10 +6797,10 @@
         <v>0.8914761370632437</v>
       </c>
       <c r="C454" t="n">
-        <v>1.231332169025254</v>
+        <v>1.372081728137504</v>
       </c>
       <c r="D454" t="n">
-        <v>1.148868204526752</v>
+        <v>2.003591628400663</v>
       </c>
     </row>
     <row r="455">
@@ -6811,10 +6811,10 @@
         <v>0.8728884315990992</v>
       </c>
       <c r="C455" t="n">
-        <v>1.246436916923895</v>
+        <v>1.367721113808867</v>
       </c>
       <c r="D455" t="n">
-        <v>1.161050980384048</v>
+        <v>1.968486108479669</v>
       </c>
     </row>
     <row r="456">
@@ -6825,10 +6825,10 @@
         <v>0.8901773590952409</v>
       </c>
       <c r="C456" t="n">
-        <v>1.247496707912118</v>
+        <v>1.364667004009454</v>
       </c>
       <c r="D456" t="n">
-        <v>1.158724953628957</v>
+        <v>1.955957728144772</v>
       </c>
     </row>
     <row r="457">
@@ -6839,10 +6839,10 @@
         <v>0.8907339782243849</v>
       </c>
       <c r="C457" t="n">
-        <v>1.268556584171127</v>
+        <v>1.370551681526811</v>
       </c>
       <c r="D457" t="n">
-        <v>1.177411377623516</v>
+        <v>1.9408937293887</v>
       </c>
     </row>
     <row r="458">
@@ -6853,10 +6853,10 @@
         <v>0.8721378391370717</v>
       </c>
       <c r="C458" t="n">
-        <v>1.24671564155688</v>
+        <v>1.328086025349598</v>
       </c>
       <c r="D458" t="n">
-        <v>1.16024170147342</v>
+        <v>1.836589337209178</v>
       </c>
     </row>
     <row r="459">
@@ -6867,10 +6867,10 @@
         <v>0.8840461150514872</v>
       </c>
       <c r="C459" t="n">
-        <v>1.223064684640524</v>
+        <v>1.328600035908</v>
       </c>
       <c r="D459" t="n">
-        <v>1.140964867318787</v>
+        <v>1.867186472444339</v>
       </c>
     </row>
     <row r="460">
@@ -6881,10 +6881,10 @@
         <v>0.8836834692552268</v>
       </c>
       <c r="C460" t="n">
-        <v>1.225705032117581</v>
+        <v>1.332917030169474</v>
       </c>
       <c r="D460" t="n">
-        <v>1.141953751492797</v>
+        <v>1.903090615944073</v>
       </c>
     </row>
     <row r="461">
@@ -6895,10 +6895,10 @@
         <v>0.8900424211245394</v>
       </c>
       <c r="C461" t="n">
-        <v>1.225451191151213</v>
+        <v>1.322589094690354</v>
       </c>
       <c r="D461" t="n">
-        <v>1.141673979457186</v>
+        <v>1.868947826883961</v>
       </c>
     </row>
     <row r="462">
@@ -6909,10 +6909,10 @@
         <v>0.8936941799566511</v>
       </c>
       <c r="C462" t="n">
-        <v>1.229645190166377</v>
+        <v>1.30796056721314</v>
       </c>
       <c r="D462" t="n">
-        <v>1.145494200753761</v>
+        <v>1.833463872454631</v>
       </c>
     </row>
     <row r="463">
@@ -6923,10 +6923,10 @@
         <v>0.9085120558643198</v>
       </c>
       <c r="C463" t="n">
-        <v>1.291587602741322</v>
+        <v>1.344627416271666</v>
       </c>
       <c r="D463" t="n">
-        <v>1.197128908505544</v>
+        <v>1.859136357259822</v>
       </c>
     </row>
     <row r="464">
@@ -6937,10 +6937,10 @@
         <v>0.8965953463267354</v>
       </c>
       <c r="C464" t="n">
-        <v>1.249500003456298</v>
+        <v>1.327068239550207</v>
       </c>
       <c r="D464" t="n">
-        <v>1.164057049049117</v>
+        <v>1.846358169388652</v>
       </c>
     </row>
     <row r="465">
@@ -6951,10 +6951,10 @@
         <v>0.8813810901301308</v>
       </c>
       <c r="C465" t="n">
-        <v>1.251728522896598</v>
+        <v>1.326620103503827</v>
       </c>
       <c r="D465" t="n">
-        <v>1.183016790895185</v>
+        <v>1.861731674511026</v>
       </c>
     </row>
     <row r="466">
@@ -6965,10 +6965,10 @@
         <v>0.868199337117219</v>
       </c>
       <c r="C466" t="n">
-        <v>1.245665326064255</v>
+        <v>1.308660073258488</v>
       </c>
       <c r="D466" t="n">
-        <v>1.176106397270194</v>
+        <v>1.826492037718805</v>
       </c>
     </row>
     <row r="467">
@@ -6979,10 +6979,10 @@
         <v>0.8646487817631333</v>
       </c>
       <c r="C467" t="n">
-        <v>1.242171677763468</v>
+        <v>1.310934307974208</v>
       </c>
       <c r="D467" t="n">
-        <v>1.157641898457372</v>
+        <v>1.837775269304908</v>
       </c>
     </row>
     <row r="468">
@@ -6993,10 +6993,10 @@
         <v>0.8689583632024154</v>
       </c>
       <c r="C468" t="n">
-        <v>1.26935249216627</v>
+        <v>1.329837418042796</v>
       </c>
       <c r="D468" t="n">
-        <v>1.178022586538215</v>
+        <v>1.863717809769253</v>
       </c>
     </row>
     <row r="469">
@@ -7007,10 +7007,10 @@
         <v>0.8612584652492558</v>
       </c>
       <c r="C469" t="n">
-        <v>1.245579270212912</v>
+        <v>1.313756739751399</v>
       </c>
       <c r="D469" t="n">
-        <v>1.161711854593354</v>
+        <v>1.852230576951232</v>
       </c>
     </row>
     <row r="470">
@@ -7021,10 +7021,10 @@
         <v>0.8742546785524529</v>
       </c>
       <c r="C470" t="n">
-        <v>1.24108469857056</v>
+        <v>1.311579699543925</v>
       </c>
       <c r="D470" t="n">
-        <v>1.155708977575896</v>
+        <v>1.844864155516471</v>
       </c>
     </row>
     <row r="471">
@@ -7035,10 +7035,10 @@
         <v>0.8814316918691439</v>
       </c>
       <c r="C471" t="n">
-        <v>1.246270053480278</v>
+        <v>1.335594160112299</v>
       </c>
       <c r="D471" t="n">
-        <v>1.160385734163674</v>
+        <v>1.867857955133972</v>
       </c>
     </row>
     <row r="472">
@@ -7049,10 +7049,10 @@
         <v>0.8923701011191418</v>
       </c>
       <c r="C472" t="n">
-        <v>1.247697469299503</v>
+        <v>1.336447245405799</v>
       </c>
       <c r="D472" t="n">
-        <v>1.161238210045913</v>
+        <v>1.840061808962527</v>
       </c>
     </row>
     <row r="473">
@@ -7063,10 +7063,10 @@
         <v>0.8621186948124784</v>
       </c>
       <c r="C473" t="n">
-        <v>1.247290862845701</v>
+        <v>1.316997634210705</v>
       </c>
       <c r="D473" t="n">
-        <v>1.159720975072375</v>
+        <v>1.799278782369572</v>
       </c>
     </row>
     <row r="474">
@@ -7077,10 +7077,10 @@
         <v>0.8670945324820997</v>
       </c>
       <c r="C474" t="n">
-        <v>1.250897689231321</v>
+        <v>1.336852942579362</v>
       </c>
       <c r="D474" t="n">
-        <v>1.162405216224977</v>
+        <v>1.774023407286399</v>
       </c>
     </row>
     <row r="475">
@@ -7091,10 +7091,10 @@
         <v>0.8595127052533039</v>
       </c>
       <c r="C475" t="n">
-        <v>1.255393037960532</v>
+        <v>1.339060713262739</v>
       </c>
       <c r="D475" t="n">
-        <v>1.169857120424904</v>
+        <v>1.803720405687978</v>
       </c>
     </row>
     <row r="476">
@@ -7105,10 +7105,10 @@
         <v>0.8498983748408153</v>
       </c>
       <c r="C476" t="n">
-        <v>1.270037448070882</v>
+        <v>1.344066627917583</v>
       </c>
       <c r="D476" t="n">
-        <v>1.177505570492193</v>
+        <v>1.807912655194139</v>
       </c>
     </row>
     <row r="477">
@@ -7119,10 +7119,10 @@
         <v>0.8810268779570392</v>
       </c>
       <c r="C477" t="n">
-        <v>1.275616701048702</v>
+        <v>1.356563066903103</v>
       </c>
       <c r="D477" t="n">
-        <v>1.179843140549473</v>
+        <v>1.821312898016083</v>
       </c>
     </row>
     <row r="478">
@@ -7133,10 +7133,10 @@
         <v>0.8861207863510243</v>
       </c>
       <c r="C478" t="n">
-        <v>1.292282969174195</v>
+        <v>1.366391607700316</v>
       </c>
       <c r="D478" t="n">
-        <v>1.194870086121902</v>
+        <v>1.821869807164718</v>
       </c>
     </row>
     <row r="479">
@@ -7147,10 +7147,10 @@
         <v>0.9012085382000962</v>
       </c>
       <c r="C479" t="n">
-        <v>1.287450877927218</v>
+        <v>1.366743557297617</v>
       </c>
       <c r="D479" t="n">
-        <v>1.189417987282428</v>
+        <v>1.799101942559802</v>
       </c>
     </row>
     <row r="480">
@@ -7161,10 +7161,10 @@
         <v>0.907103640795122</v>
       </c>
       <c r="C480" t="n">
-        <v>1.282849778625353</v>
+        <v>1.359366468922824</v>
       </c>
       <c r="D480" t="n">
-        <v>1.186406877659877</v>
+        <v>1.794946445522646</v>
       </c>
     </row>
     <row r="481">
@@ -7175,10 +7175,10 @@
         <v>0.9116409300599631</v>
       </c>
       <c r="C481" t="n">
-        <v>1.273101430340868</v>
+        <v>1.362176278348788</v>
       </c>
       <c r="D481" t="n">
-        <v>1.178409347583236</v>
+        <v>1.788456518444511</v>
       </c>
     </row>
     <row r="482">
@@ -7189,10 +7189,10 @@
         <v>0.8964182402401896</v>
       </c>
       <c r="C482" t="n">
-        <v>1.249168449907034</v>
+        <v>1.339930339497939</v>
       </c>
       <c r="D482" t="n">
-        <v>1.1594967163104</v>
+        <v>1.765087656474124</v>
       </c>
     </row>
     <row r="483">
@@ -7203,10 +7203,10 @@
         <v>0.9087903654288919</v>
       </c>
       <c r="C483" t="n">
-        <v>1.233775949737002</v>
+        <v>1.34123837478656</v>
       </c>
       <c r="D483" t="n">
-        <v>1.14568661673861</v>
+        <v>1.775675057512742</v>
       </c>
     </row>
     <row r="484">
@@ -7217,10 +7217,10 @@
         <v>0.9056277567405733</v>
       </c>
       <c r="C484" t="n">
-        <v>1.254510922848869</v>
+        <v>1.344374257656429</v>
       </c>
       <c r="D484" t="n">
-        <v>1.171330642136287</v>
+        <v>1.772602907418254</v>
       </c>
     </row>
     <row r="485">
@@ -7231,10 +7231,10 @@
         <v>0.90037360950638</v>
       </c>
       <c r="C485" t="n">
-        <v>1.257252944927229</v>
+        <v>1.346341508898123</v>
       </c>
       <c r="D485" t="n">
-        <v>1.16598462852162</v>
+        <v>1.788507009127928</v>
       </c>
     </row>
     <row r="486">
@@ -7245,10 +7245,10 @@
         <v>0.9055181196393782</v>
       </c>
       <c r="C486" t="n">
-        <v>1.286766771784483</v>
+        <v>1.360223471246979</v>
       </c>
       <c r="D486" t="n">
-        <v>1.201261124818548</v>
+        <v>1.790112717119411</v>
       </c>
     </row>
     <row r="487">
@@ -7259,10 +7259,10 @@
         <v>0.9126192303475497</v>
       </c>
       <c r="C487" t="n">
-        <v>1.268767558869086</v>
+        <v>1.342683010658229</v>
       </c>
       <c r="D487" t="n">
-        <v>1.18378408966275</v>
+        <v>1.782193202181513</v>
       </c>
     </row>
     <row r="488">
@@ -7273,10 +7273,10 @@
         <v>0.9040928373238427</v>
       </c>
       <c r="C488" t="n">
-        <v>1.280200574793753</v>
+        <v>1.356601773496486</v>
       </c>
       <c r="D488" t="n">
-        <v>1.190057854188425</v>
+        <v>1.791349139710389</v>
       </c>
     </row>
     <row r="489">
@@ -7287,10 +7287,10 @@
         <v>0.8856991051925818</v>
       </c>
       <c r="C489" t="n">
-        <v>1.26185828480368</v>
+        <v>1.342325304655694</v>
       </c>
       <c r="D489" t="n">
-        <v>1.178216533941999</v>
+        <v>1.778213856005338</v>
       </c>
     </row>
     <row r="490">
@@ -7301,10 +7301,10 @@
         <v>0.8897472443136296</v>
       </c>
       <c r="C490" t="n">
-        <v>1.26131465692056</v>
+        <v>1.344343998110577</v>
       </c>
       <c r="D490" t="n">
-        <v>1.17523727195682</v>
+        <v>1.780332175537472</v>
       </c>
     </row>
     <row r="491">
@@ -7315,10 +7315,10 @@
         <v>0.8875882367824041</v>
       </c>
       <c r="C491" t="n">
-        <v>1.291858261467878</v>
+        <v>1.359560637790675</v>
       </c>
       <c r="D491" t="n">
-        <v>1.201908058962245</v>
+        <v>1.789781939323763</v>
       </c>
     </row>
     <row r="492">
@@ -7329,10 +7329,10 @@
         <v>0.8846111678038002</v>
       </c>
       <c r="C492" t="n">
-        <v>1.276304626608142</v>
+        <v>1.338762944230741</v>
       </c>
       <c r="D492" t="n">
-        <v>1.189424239766372</v>
+        <v>1.7386114834117</v>
       </c>
     </row>
     <row r="493">
@@ -7343,10 +7343,10 @@
         <v>0.8900086866318639</v>
       </c>
       <c r="C493" t="n">
-        <v>1.270513826532502</v>
+        <v>1.347767721542878</v>
       </c>
       <c r="D493" t="n">
-        <v>1.185090247520822</v>
+        <v>1.772356562414949</v>
       </c>
     </row>
     <row r="494">
@@ -7357,10 +7357,10 @@
         <v>0.8843834599782413</v>
       </c>
       <c r="C494" t="n">
-        <v>1.289794122945441</v>
+        <v>1.36467006140315</v>
       </c>
       <c r="D494" t="n">
-        <v>1.195745755092064</v>
+        <v>1.804777930516053</v>
       </c>
     </row>
     <row r="495">
@@ -7371,10 +7371,10 @@
         <v>0.8779992072394222</v>
       </c>
       <c r="C495" t="n">
-        <v>1.279345081378856</v>
+        <v>1.36039813936494</v>
       </c>
       <c r="D495" t="n">
-        <v>1.18823957587631</v>
+        <v>1.789408966229005</v>
       </c>
     </row>
     <row r="496">
@@ -7385,10 +7385,10 @@
         <v>0.8840292478051496</v>
       </c>
       <c r="C496" t="n">
-        <v>1.278199695757738</v>
+        <v>1.362355220708749</v>
       </c>
       <c r="D496" t="n">
-        <v>1.186772667853424</v>
+        <v>1.790234898603981</v>
       </c>
     </row>
   </sheetData>

--- a/resultado_simu.xlsx
+++ b/resultado_simu.xlsx
@@ -472,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -483,10 +483,10 @@
         <v>0.9926964823357762</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9993251632022335</v>
+        <v>1.004382288077713</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0010688392674</v>
+        <v>1.001544747788796</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0.9857050087288</v>
       </c>
       <c r="C4" t="n">
-        <v>1.012659553463517</v>
+        <v>1.01552601430738</v>
       </c>
       <c r="D4" t="n">
-        <v>1.017177305611924</v>
+        <v>1.010956593211704</v>
       </c>
     </row>
     <row r="5">
@@ -511,10 +511,10 @@
         <v>0.9838833461243285</v>
       </c>
       <c r="C5" t="n">
-        <v>1.011830330729964</v>
+        <v>1.017422034501014</v>
       </c>
       <c r="D5" t="n">
-        <v>1.015350456444305</v>
+        <v>1.014172107697551</v>
       </c>
     </row>
     <row r="6">
@@ -525,10 +525,10 @@
         <v>0.9803833925092559</v>
       </c>
       <c r="C6" t="n">
-        <v>1.009684227207011</v>
+        <v>1.018470064427721</v>
       </c>
       <c r="D6" t="n">
-        <v>1.014109240809527</v>
+        <v>1.016282094319626</v>
       </c>
     </row>
     <row r="7">
@@ -539,10 +539,10 @@
         <v>0.9778533055586011</v>
       </c>
       <c r="C7" t="n">
-        <v>1.004636831587286</v>
+        <v>1.016843505816021</v>
       </c>
       <c r="D7" t="n">
-        <v>1.003328205615881</v>
+        <v>1.016478351601566</v>
       </c>
     </row>
     <row r="8">
@@ -553,10 +553,10 @@
         <v>0.9741087768716318</v>
       </c>
       <c r="C8" t="n">
-        <v>1.007903169351155</v>
+        <v>1.006974269346339</v>
       </c>
       <c r="D8" t="n">
-        <v>1.009393184717474</v>
+        <v>1.00861235779027</v>
       </c>
     </row>
     <row r="9">
@@ -567,10 +567,10 @@
         <v>0.9894748382852757</v>
       </c>
       <c r="C9" t="n">
-        <v>1.008877081822704</v>
+        <v>0.9978205426284191</v>
       </c>
       <c r="D9" t="n">
-        <v>1.015296878896625</v>
+        <v>1.004281278886978</v>
       </c>
     </row>
     <row r="10">
@@ -581,10 +581,10 @@
         <v>0.9920639605981125</v>
       </c>
       <c r="C10" t="n">
-        <v>1.015725423793203</v>
+        <v>1.020352733198518</v>
       </c>
       <c r="D10" t="n">
-        <v>1.020353943383231</v>
+        <v>1.026686024088668</v>
       </c>
     </row>
     <row r="11">
@@ -595,10 +595,10 @@
         <v>0.9817918075784537</v>
       </c>
       <c r="C11" t="n">
-        <v>1.011197655950711</v>
+        <v>1.015670948726789</v>
       </c>
       <c r="D11" t="n">
-        <v>1.019712958161888</v>
+        <v>1.025697453754568</v>
       </c>
     </row>
     <row r="12">
@@ -609,10 +609,10 @@
         <v>0.9842375582974201</v>
       </c>
       <c r="C12" t="n">
-        <v>1.012933296413434</v>
+        <v>1.016814187247374</v>
       </c>
       <c r="D12" t="n">
-        <v>1.027070490036601</v>
+        <v>1.027641572525135</v>
       </c>
     </row>
     <row r="13">
@@ -623,10 +623,10 @@
         <v>0.9991988057989593</v>
       </c>
       <c r="C13" t="n">
-        <v>1.049058276582031</v>
+        <v>1.029574896783776</v>
       </c>
       <c r="D13" t="n">
-        <v>1.087019139437104</v>
+        <v>1.062626926639171</v>
       </c>
     </row>
     <row r="14">
@@ -637,10 +637,10 @@
         <v>1.002437317095797</v>
       </c>
       <c r="C14" t="n">
-        <v>1.047952691835974</v>
+        <v>1.027991651615313</v>
       </c>
       <c r="D14" t="n">
-        <v>1.093575559047644</v>
+        <v>1.065959170781576</v>
       </c>
     </row>
     <row r="15">
@@ -651,10 +651,10 @@
         <v>0.9869531849577897</v>
       </c>
       <c r="C15" t="n">
-        <v>1.046487891015925</v>
+        <v>1.027213961549327</v>
       </c>
       <c r="D15" t="n">
-        <v>1.0858151732109</v>
+        <v>1.057625647686476</v>
       </c>
     </row>
     <row r="16">
@@ -665,10 +665,10 @@
         <v>0.9984650805832693</v>
       </c>
       <c r="C16" t="n">
-        <v>1.051625020388931</v>
+        <v>1.033434396574852</v>
       </c>
       <c r="D16" t="n">
-        <v>1.091496694125336</v>
+        <v>1.067184454384495</v>
       </c>
     </row>
     <row r="17">
@@ -679,10 +679,10 @@
         <v>1.008054110126251</v>
       </c>
       <c r="C17" t="n">
-        <v>1.04470496345585</v>
+        <v>1.044756935569001</v>
       </c>
       <c r="D17" t="n">
-        <v>1.084772677043379</v>
+        <v>1.06366816747417</v>
       </c>
     </row>
     <row r="18">
@@ -693,10 +693,10 @@
         <v>0.9983385762357366</v>
       </c>
       <c r="C18" t="n">
-        <v>1.049670814679412</v>
+        <v>1.046224175871498</v>
       </c>
       <c r="D18" t="n">
-        <v>1.092831942413566</v>
+        <v>1.066656171091682</v>
       </c>
     </row>
     <row r="19">
@@ -707,10 +707,10 @@
         <v>0.9654980476162364</v>
       </c>
       <c r="C19" t="n">
-        <v>1.03656880682538</v>
+        <v>1.047197536285993</v>
       </c>
       <c r="D19" t="n">
-        <v>1.074442227138329</v>
+        <v>1.05549890662858</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         <v>0.982339993084429</v>
       </c>
       <c r="C20" t="n">
-        <v>1.038529856795894</v>
+        <v>1.052543332653853</v>
       </c>
       <c r="D20" t="n">
-        <v>1.077604118817845</v>
+        <v>1.061103777242252</v>
       </c>
     </row>
     <row r="21">
@@ -735,10 +735,10 @@
         <v>0.9731136093377075</v>
       </c>
       <c r="C21" t="n">
-        <v>1.031917756427532</v>
+        <v>1.047088143043018</v>
       </c>
       <c r="D21" t="n">
-        <v>1.072017443605535</v>
+        <v>1.059778335236853</v>
       </c>
     </row>
     <row r="22">
@@ -749,10 +749,10 @@
         <v>0.974319617450853</v>
       </c>
       <c r="C22" t="n">
-        <v>1.016833269666031</v>
+        <v>1.037953211652447</v>
       </c>
       <c r="D22" t="n">
-        <v>1.055301273078494</v>
+        <v>1.048821180971823</v>
       </c>
     </row>
     <row r="23">
@@ -763,10 +763,10 @@
         <v>0.9594174053114959</v>
       </c>
       <c r="C23" t="n">
-        <v>1.016792570628949</v>
+        <v>1.037567022823216</v>
       </c>
       <c r="D23" t="n">
-        <v>1.056769209523284</v>
+        <v>1.048097945520415</v>
       </c>
     </row>
     <row r="24">
@@ -777,10 +777,10 @@
         <v>0.9667377902220573</v>
       </c>
       <c r="C24" t="n">
-        <v>1.025182598158656</v>
+        <v>1.042812225734232</v>
       </c>
       <c r="D24" t="n">
-        <v>1.070267248331518</v>
+        <v>1.053304266970483</v>
       </c>
     </row>
     <row r="25">
@@ -791,10 +791,10 @@
         <v>0.9745641925227497</v>
       </c>
       <c r="C25" t="n">
-        <v>1.031331149742145</v>
+        <v>1.062644252688074</v>
       </c>
       <c r="D25" t="n">
-        <v>1.076052919309771</v>
+        <v>1.065652788880273</v>
       </c>
     </row>
     <row r="26">
@@ -805,10 +805,10 @@
         <v>0.9785364290352778</v>
       </c>
       <c r="C26" t="n">
-        <v>1.026451963274888</v>
+        <v>1.048912916596237</v>
       </c>
       <c r="D26" t="n">
-        <v>1.068629753728903</v>
+        <v>1.056826052755338</v>
       </c>
     </row>
     <row r="27">
@@ -819,10 +819,10 @@
         <v>0.9714690528197819</v>
       </c>
       <c r="C27" t="n">
-        <v>1.018013373262889</v>
+        <v>1.041668950975341</v>
       </c>
       <c r="D27" t="n">
-        <v>1.056089850305953</v>
+        <v>1.050118120514754</v>
       </c>
     </row>
     <row r="28">
@@ -833,10 +833,10 @@
         <v>0.9594933079200155</v>
       </c>
       <c r="C28" t="n">
-        <v>1.009048113202245</v>
+        <v>1.035449796916563</v>
       </c>
       <c r="D28" t="n">
-        <v>1.044992157691015</v>
+        <v>1.044703249990865</v>
       </c>
     </row>
     <row r="29">
@@ -847,10 +847,10 @@
         <v>0.949372960117396</v>
       </c>
       <c r="C29" t="n">
-        <v>1.005751775050067</v>
+        <v>1.026484002227124</v>
       </c>
       <c r="D29" t="n">
-        <v>1.044248403164385</v>
+        <v>1.031015743570394</v>
       </c>
     </row>
     <row r="30">
@@ -861,10 +861,10 @@
         <v>0.9729955386133436</v>
       </c>
       <c r="C30" t="n">
-        <v>1.014918649637191</v>
+        <v>1.03213463021175</v>
       </c>
       <c r="D30" t="n">
-        <v>1.050858237313603</v>
+        <v>1.037175034436437</v>
       </c>
     </row>
     <row r="31">
@@ -875,10 +875,10 @@
         <v>0.9839845496023547</v>
       </c>
       <c r="C31" t="n">
-        <v>1.021743219542301</v>
+        <v>1.043789789565563</v>
       </c>
       <c r="D31" t="n">
-        <v>1.055505697370557</v>
+        <v>1.044629034361392</v>
       </c>
     </row>
     <row r="32">
@@ -889,10 +889,10 @@
         <v>0.9754497229554789</v>
       </c>
       <c r="C32" t="n">
-        <v>1.011935035766185</v>
+        <v>1.039888762535363</v>
       </c>
       <c r="D32" t="n">
-        <v>1.049220478160191</v>
+        <v>1.041026706092903</v>
       </c>
     </row>
     <row r="33">
@@ -903,10 +903,10 @@
         <v>0.9646462516761826</v>
       </c>
       <c r="C33" t="n">
-        <v>1.020837802794413</v>
+        <v>1.04597153906908</v>
       </c>
       <c r="D33" t="n">
-        <v>1.055722949163554</v>
+        <v>1.047029669179467</v>
       </c>
     </row>
     <row r="34">
@@ -917,10 +917,10 @@
         <v>0.972472653976875</v>
       </c>
       <c r="C34" t="n">
-        <v>1.029392880661614</v>
+        <v>1.059264956937277</v>
       </c>
       <c r="D34" t="n">
-        <v>1.06074521484337</v>
+        <v>1.05747138004254</v>
       </c>
     </row>
     <row r="35">
@@ -931,10 +931,10 @@
         <v>0.9696726910848169</v>
       </c>
       <c r="C35" t="n">
-        <v>1.027575400890206</v>
+        <v>1.06099839285666</v>
       </c>
       <c r="D35" t="n">
-        <v>1.058328626384386</v>
+        <v>1.059027482835604</v>
       </c>
     </row>
     <row r="36">
@@ -945,10 +945,10 @@
         <v>0.9826689043880141</v>
       </c>
       <c r="C36" t="n">
-        <v>1.029040228990614</v>
+        <v>1.063759137550615</v>
       </c>
       <c r="D36" t="n">
-        <v>1.059465604692585</v>
+        <v>1.065454385388316</v>
       </c>
     </row>
     <row r="37">
@@ -959,10 +959,10 @@
         <v>0.9663751444257968</v>
       </c>
       <c r="C37" t="n">
-        <v>1.02523100048697</v>
+        <v>1.061193094759394</v>
       </c>
       <c r="D37" t="n">
-        <v>1.058414092947534</v>
+        <v>1.064166102935937</v>
       </c>
     </row>
     <row r="38">
@@ -973,10 +973,10 @@
         <v>0.9587427154579879</v>
       </c>
       <c r="C38" t="n">
-        <v>1.024639655275837</v>
+        <v>1.065071138958157</v>
       </c>
       <c r="D38" t="n">
-        <v>1.057153758648339</v>
+        <v>1.061734777268462</v>
       </c>
     </row>
     <row r="39">
@@ -987,10 +987,10 @@
         <v>0.8915857741644387</v>
       </c>
       <c r="C39" t="n">
-        <v>1.001607735980191</v>
+        <v>1.036721772508799</v>
       </c>
       <c r="D39" t="n">
-        <v>1.037506233975958</v>
+        <v>1.033850382482046</v>
       </c>
     </row>
     <row r="40">
@@ -1001,10 +1001,10 @@
         <v>0.8685282484208041</v>
       </c>
       <c r="C40" t="n">
-        <v>1.002993380651926</v>
+        <v>1.038823001235717</v>
       </c>
       <c r="D40" t="n">
-        <v>1.037000056140415</v>
+        <v>1.036219783283975</v>
       </c>
     </row>
     <row r="41">
@@ -1015,10 +1015,10 @@
         <v>0.8785473927453974</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9920342653721611</v>
+        <v>1.028839015119423</v>
       </c>
       <c r="D41" t="n">
-        <v>1.018595105462111</v>
+        <v>1.022659892371545</v>
       </c>
     </row>
     <row r="42">
@@ -1029,10 +1029,10 @@
         <v>0.8992350703785853</v>
       </c>
       <c r="C42" t="n">
-        <v>1.008511136469922</v>
+        <v>1.059204996487944</v>
       </c>
       <c r="D42" t="n">
-        <v>1.039171733200878</v>
+        <v>1.049097213272762</v>
       </c>
     </row>
     <row r="43">
@@ -1043,10 +1043,10 @@
         <v>0.890059288370877</v>
       </c>
       <c r="C43" t="n">
-        <v>1.003056232427801</v>
+        <v>1.063357453735486</v>
       </c>
       <c r="D43" t="n">
-        <v>1.034395222662919</v>
+        <v>1.049393354184634</v>
       </c>
     </row>
     <row r="44">
@@ -1057,10 +1057,10 @@
         <v>0.9042868106567262</v>
       </c>
       <c r="C44" t="n">
-        <v>1.032278735483161</v>
+        <v>1.062184426044118</v>
       </c>
       <c r="D44" t="n">
-        <v>1.04824611209694</v>
+        <v>1.049616639113381</v>
       </c>
     </row>
     <row r="45">
@@ -1071,10 +1071,10 @@
         <v>0.862194597420998</v>
       </c>
       <c r="C45" t="n">
-        <v>1.006844739033597</v>
+        <v>1.044572590768678</v>
       </c>
       <c r="D45" t="n">
-        <v>1.029986745540231</v>
+        <v>1.034753455128957</v>
       </c>
     </row>
     <row r="46">
@@ -1085,10 +1085,10 @@
         <v>0.8264697696777512</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9896146067863267</v>
+        <v>1.035307288996338</v>
       </c>
       <c r="D46" t="n">
-        <v>1.003777086438867</v>
+        <v>1.018306935812753</v>
       </c>
     </row>
     <row r="47">
@@ -1099,10 +1099,10 @@
         <v>0.7258566452733759</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9572002284286896</v>
+        <v>1.006341556037696</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9866664106002173</v>
+        <v>0.9812010989347738</v>
       </c>
     </row>
     <row r="48">
@@ -1113,10 +1113,10 @@
         <v>0.7776981268922942</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9707893124358034</v>
+        <v>1.009748010346001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9972700049263266</v>
+        <v>0.9928023061837162</v>
       </c>
     </row>
     <row r="49">
@@ -1127,10 +1127,10 @@
         <v>0.7183001189140866</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9471977377815533</v>
+        <v>0.9879815787627382</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9776345075502888</v>
+        <v>0.9640460909939802</v>
       </c>
     </row>
     <row r="50">
@@ -1141,10 +1141,10 @@
         <v>0.6121376704646083</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8946289086122422</v>
+        <v>0.953119341324455</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9457457582413737</v>
+        <v>0.9370097287435816</v>
       </c>
     </row>
     <row r="51">
@@ -1155,10 +1155,10 @@
         <v>0.6972750963541448</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9194935042674768</v>
+        <v>0.9764747061663955</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9631557307508121</v>
+        <v>0.9639071004359552</v>
       </c>
     </row>
     <row r="52">
@@ -1169,10 +1169,10 @@
         <v>0.6002040936806862</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8649152356231928</v>
+        <v>0.9511855532190172</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8922584647901359</v>
+        <v>0.9315510190580544</v>
       </c>
     </row>
     <row r="53">
@@ -1183,10 +1183,10 @@
         <v>0.6292916599900483</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8565312539924169</v>
+        <v>0.9531949766914789</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8770090808760103</v>
+        <v>0.9267886006892745</v>
       </c>
     </row>
     <row r="54">
@@ -1197,10 +1197,10 @@
         <v>0.564167221880192</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8163738909711815</v>
+        <v>0.9193728645316901</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8507671947868103</v>
+        <v>0.8884449015943349</v>
       </c>
     </row>
     <row r="55">
@@ -1211,10 +1211,10 @@
         <v>0.5762863383738288</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8137386970626054</v>
+        <v>0.9182020770112517</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8521513482994834</v>
+        <v>0.884293570201216</v>
       </c>
     </row>
     <row r="56">
@@ -1225,10 +1225,10 @@
         <v>0.5656346723115718</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8059754896275525</v>
+        <v>0.9063464229465322</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8292034207347228</v>
+        <v>0.8667621727584722</v>
       </c>
     </row>
     <row r="57">
@@ -1239,10 +1239,10 @@
         <v>0.5361254248437671</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7597018243462594</v>
+        <v>0.8920373965463697</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7778203809663671</v>
+        <v>0.8535584459374991</v>
       </c>
     </row>
     <row r="58">
@@ -1253,10 +1253,10 @@
         <v>0.5880681099407117</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7772535521431706</v>
+        <v>0.8985623393822302</v>
       </c>
       <c r="D58" t="n">
-        <v>0.807525642538425</v>
+        <v>0.8638362804053245</v>
       </c>
     </row>
     <row r="59">
@@ -1267,10 +1267,10 @@
         <v>0.6321506582442883</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7930426723808123</v>
+        <v>0.9112490975352024</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8268396054763864</v>
+        <v>0.8776765724344318</v>
       </c>
     </row>
     <row r="60">
@@ -1281,10 +1281,10 @@
         <v>0.6553768564513001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8277310398427971</v>
+        <v>0.9281348179252223</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8518096390892654</v>
+        <v>0.8997486378632679</v>
       </c>
     </row>
     <row r="61">
@@ -1295,10 +1295,10 @@
         <v>0.619272515665455</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8356223127915078</v>
+        <v>0.9251656562873781</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8445904665933514</v>
+        <v>0.8931403144728758</v>
       </c>
     </row>
     <row r="62">
@@ -1309,10 +1309,10 @@
         <v>0.6294856333229318</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8231706978752253</v>
+        <v>0.9191106170400476</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8285295766325198</v>
+        <v>0.8944768889918671</v>
       </c>
     </row>
     <row r="63">
@@ -1323,10 +1323,10 @@
         <v>0.6158231637893956</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8274081778422058</v>
+        <v>0.9246288977302568</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8454483967056474</v>
+        <v>0.8972307117212358</v>
       </c>
     </row>
     <row r="64">
@@ -1337,10 +1337,10 @@
         <v>0.5985089354237474</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8119216815010751</v>
+        <v>0.9133566521689562</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8327946243533549</v>
+        <v>0.8873998034089701</v>
       </c>
     </row>
     <row r="65">
@@ -1351,10 +1351,10 @@
         <v>0.609354574818888</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8280771807932634</v>
+        <v>0.917581356476214</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8453470364091086</v>
+        <v>0.8896803746332254</v>
       </c>
     </row>
     <row r="66">
@@ -1365,10 +1365,10 @@
         <v>0.5864572879154614</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8240407131417717</v>
+        <v>0.9118215397402561</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8363017335681396</v>
+        <v>0.8807784752371091</v>
       </c>
     </row>
     <row r="67">
@@ -1379,10 +1379,10 @@
         <v>0.6247037689861942</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8332246076372147</v>
+        <v>0.9201641158667648</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8527203752927925</v>
+        <v>0.8948176562641537</v>
       </c>
     </row>
     <row r="68">
@@ -1393,10 +1393,10 @@
         <v>0.6439745979270154</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8350525811125189</v>
+        <v>0.9289877893283331</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8570337259474552</v>
+        <v>0.903034532294511</v>
       </c>
     </row>
     <row r="69">
@@ -1407,10 +1407,10 @@
         <v>0.6630936216507974</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8254958469465085</v>
+        <v>0.9330903662258438</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8488244826485738</v>
+        <v>0.9069135310914344</v>
       </c>
     </row>
     <row r="70">
@@ -1421,10 +1421,10 @@
         <v>0.6551407150025722</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8313966826466538</v>
+        <v>0.9440022700255603</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8503380526547811</v>
+        <v>0.9146020477013106</v>
       </c>
     </row>
     <row r="71">
@@ -1435,10 +1435,10 @@
         <v>0.6648731161394247</v>
       </c>
       <c r="C71" t="n">
-        <v>0.833339157096754</v>
+        <v>0.9438323537587933</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8566770738273091</v>
+        <v>0.9202634318703882</v>
       </c>
     </row>
     <row r="72">
@@ -1449,10 +1449,10 @@
         <v>0.6739982964081199</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8563103189323288</v>
+        <v>0.9511925157001569</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8734856320998652</v>
+        <v>0.9284383217256738</v>
       </c>
     </row>
     <row r="73">
@@ -1463,10 +1463,10 @@
         <v>0.6648309480235804</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8633994865781698</v>
+        <v>0.9498108658223225</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8791325391054029</v>
+        <v>0.9246524146746276</v>
       </c>
     </row>
     <row r="74">
@@ -1477,10 +1477,10 @@
         <v>0.6562370860145227</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8680641749227995</v>
+        <v>0.9493530307946059</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8869176294452819</v>
+        <v>0.9237560425623871</v>
       </c>
     </row>
     <row r="75">
@@ -1491,10 +1491,10 @@
         <v>0.6661718941074275</v>
       </c>
       <c r="C75" t="n">
-        <v>0.857122713714643</v>
+        <v>0.958414274751105</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8809182864519394</v>
+        <v>0.9574081532252465</v>
       </c>
     </row>
     <row r="76">
@@ -1505,10 +1505,10 @@
         <v>0.666028522513557</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8494955707903217</v>
+        <v>0.9598899781257296</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8709688463035411</v>
+        <v>0.9551330642777284</v>
       </c>
     </row>
     <row r="77">
@@ -1519,10 +1519,10 @@
         <v>0.6804837526249652</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8602776130769807</v>
+        <v>0.9668593781570428</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8825791733143451</v>
+        <v>0.9640398299109085</v>
       </c>
     </row>
     <row r="78">
@@ -1533,10 +1533,10 @@
         <v>0.6719320587317518</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8543810406263789</v>
+        <v>0.9536771535869968</v>
       </c>
       <c r="D78" t="n">
-        <v>0.872796990510301</v>
+        <v>0.9495359027101437</v>
       </c>
     </row>
     <row r="79">
@@ -1547,10 +1547,10 @@
         <v>0.6353132669326069</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8315782392588068</v>
+        <v>0.9380822149590743</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8547262216655246</v>
+        <v>0.9335046954023919</v>
       </c>
     </row>
     <row r="80">
@@ -1561,10 +1561,10 @@
         <v>0.6598382431076215</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8348535590034731</v>
+        <v>0.9449830777307319</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8557160865475274</v>
+        <v>0.9394478684511509</v>
       </c>
     </row>
     <row r="81">
@@ -1575,10 +1575,10 @@
         <v>0.6857547671054962</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8634998526096977</v>
+        <v>0.9561166190200707</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8994043248625624</v>
+        <v>0.9482103312588197</v>
       </c>
     </row>
     <row r="82">
@@ -1589,10 +1589,10 @@
         <v>0.7014328725763875</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8692285004714515</v>
+        <v>0.9572636328414292</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9063901161923399</v>
+        <v>0.9521053137327075</v>
       </c>
     </row>
     <row r="83">
@@ -1603,10 +1603,10 @@
         <v>0.6789572668314034</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8701230293419202</v>
+        <v>0.9537209603899894</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9039255784569477</v>
+        <v>0.9460650998502468</v>
       </c>
     </row>
     <row r="84">
@@ -1617,10 +1617,10 @@
         <v>0.6652104610661786</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8568541063893258</v>
+        <v>0.942870107591953</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8926810485830441</v>
+        <v>0.9346336493030104</v>
       </c>
     </row>
     <row r="85">
@@ -1631,10 +1631,10 @@
         <v>0.6702284668516442</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8696936629138079</v>
+        <v>0.9541384742527893</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9045239346814861</v>
+        <v>0.9459177427751926</v>
       </c>
     </row>
     <row r="86">
@@ -1645,10 +1645,10 @@
         <v>0.6667959822219224</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8701814111980172</v>
+        <v>0.9494090369533201</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9043936430957491</v>
+        <v>0.9401027630633602</v>
       </c>
     </row>
     <row r="87">
@@ -1659,10 +1659,10 @@
         <v>0.6588262083273595</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8629593747261695</v>
+        <v>0.942208191657616</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8980000973144939</v>
+        <v>0.930883040667379</v>
       </c>
     </row>
     <row r="88">
@@ -1673,10 +1673,10 @@
         <v>0.6769078964013729</v>
       </c>
       <c r="C88" t="n">
-        <v>0.883515260966752</v>
+        <v>0.9457145976821879</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9094505983419499</v>
+        <v>0.9344885229086649</v>
       </c>
     </row>
     <row r="89">
@@ -1687,10 +1687,10 @@
         <v>0.6668044158450912</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8734193682574596</v>
+        <v>0.944864441954259</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9094267196369029</v>
+        <v>0.929992855678904</v>
       </c>
     </row>
     <row r="90">
@@ -1701,10 +1701,10 @@
         <v>0.6567431034046537</v>
       </c>
       <c r="C90" t="n">
-        <v>0.873161038020571</v>
+        <v>0.9359898211199806</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9091705651105578</v>
+        <v>0.9240871729908855</v>
       </c>
     </row>
     <row r="91">
@@ -1715,10 +1715,10 @@
         <v>0.6558997410877687</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8775002490303291</v>
+        <v>0.9279545144501657</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9090762691041497</v>
+        <v>0.9165308619378476</v>
       </c>
     </row>
     <row r="92">
@@ -1729,10 +1729,10 @@
         <v>0.6663490001939734</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8713225235970221</v>
+        <v>0.9387224537287622</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9011268901906585</v>
+        <v>0.9266325707896416</v>
       </c>
     </row>
     <row r="93">
@@ -1743,10 +1743,10 @@
         <v>0.6540865121064661</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8712277387782594</v>
+        <v>0.9420709739292197</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9012823191734948</v>
+        <v>0.9305596451745617</v>
       </c>
     </row>
     <row r="94">
@@ -1757,10 +1757,10 @@
         <v>0.684759599571572</v>
       </c>
       <c r="C94" t="n">
-        <v>0.879705345928021</v>
+        <v>0.9542470563094733</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9048029593409831</v>
+        <v>0.9438613535151381</v>
       </c>
     </row>
     <row r="95">
@@ -1771,10 +1771,10 @@
         <v>0.680947601899252</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9055151956047458</v>
+        <v>0.9526696249236571</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9769820806011775</v>
+        <v>0.9584029708868913</v>
       </c>
     </row>
     <row r="96">
@@ -1785,10 +1785,10 @@
         <v>0.6858138024676781</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9013361122029983</v>
+        <v>0.9459123692215</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9715149735312097</v>
+        <v>0.9501371681613865</v>
       </c>
     </row>
     <row r="97">
@@ -1799,10 +1799,10 @@
         <v>0.7002184308400732</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9135287542163324</v>
+        <v>0.9522194287394947</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9872037159844065</v>
+        <v>0.9589520786860931</v>
       </c>
     </row>
     <row r="98">
@@ -1813,10 +1813,10 @@
         <v>0.6930161166538756</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9165286731639677</v>
+        <v>0.9536439771220028</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9868845210745282</v>
+        <v>0.9600763635699758</v>
       </c>
     </row>
     <row r="99">
@@ -1827,10 +1827,10 @@
         <v>0.7224494615131607</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9214597975952705</v>
+        <v>0.9635088935494392</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9734573846540261</v>
+        <v>0.9724563131602972</v>
       </c>
     </row>
     <row r="100">
@@ -1841,10 +1841,10 @@
         <v>0.7208133386184038</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9203115397638761</v>
+        <v>0.9672478584754932</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9674951096936636</v>
+        <v>0.9686990418412751</v>
       </c>
     </row>
     <row r="101">
@@ -1855,10 +1855,10 @@
         <v>0.7417034232076443</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9312042947940075</v>
+        <v>0.9832762513146438</v>
       </c>
       <c r="D101" t="n">
-        <v>0.976483795301194</v>
+        <v>0.9831635034915128</v>
       </c>
     </row>
     <row r="102">
@@ -1869,10 +1869,10 @@
         <v>0.7332951009083012</v>
       </c>
       <c r="C102" t="n">
-        <v>0.940477225534692</v>
+        <v>0.9849781420722802</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9824429358354554</v>
+        <v>0.9828346602752045</v>
       </c>
     </row>
     <row r="103">
@@ -1883,10 +1883,10 @@
         <v>0.7371239658269589</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9283946761716543</v>
+        <v>0.9850248532286744</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9735685743584207</v>
+        <v>0.979467355517035</v>
       </c>
     </row>
     <row r="104">
@@ -1897,10 +1897,10 @@
         <v>0.7473876852234489</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9377181049256251</v>
+        <v>0.9887708576354084</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9879259439567063</v>
+        <v>0.9883070305906926</v>
       </c>
     </row>
     <row r="105">
@@ -1911,10 +1911,10 @@
         <v>0.7678476550310779</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9439866417098737</v>
+        <v>0.9911432467392336</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9903479486095995</v>
+        <v>0.9900765250727397</v>
       </c>
     </row>
     <row r="106">
@@ -1925,10 +1925,10 @@
         <v>0.7843438219493477</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9352255582147073</v>
+        <v>0.988507482186191</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9867050771309256</v>
+        <v>0.9830615836185244</v>
       </c>
     </row>
     <row r="107">
@@ -1939,10 +1939,10 @@
         <v>0.7913184283099862</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9267411456095676</v>
+        <v>0.9879269864336255</v>
       </c>
       <c r="D107" t="n">
-        <v>0.981646042581755</v>
+        <v>0.9829378153641066</v>
       </c>
     </row>
     <row r="108">
@@ -1953,10 +1953,10 @@
         <v>0.7981327958304167</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9355180674122653</v>
+        <v>0.9906731859640734</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9902193733978593</v>
+        <v>0.9863748485954074</v>
       </c>
     </row>
     <row r="109">
@@ -1967,10 +1967,10 @@
         <v>0.8235011343223162</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9377474766403584</v>
+        <v>0.9984286806124463</v>
       </c>
       <c r="D109" t="n">
-        <v>0.989681520109433</v>
+        <v>0.9956367380530523</v>
       </c>
     </row>
     <row r="110">
@@ -1981,10 +1981,10 @@
         <v>0.8159277407166893</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9492067341615515</v>
+        <v>0.9999611721283976</v>
       </c>
       <c r="D110" t="n">
-        <v>0.996069344123603</v>
+        <v>0.9991473563062949</v>
       </c>
     </row>
     <row r="111">
@@ -1995,10 +1995,10 @@
         <v>0.7985460433656904</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9412162955566254</v>
+        <v>0.9926481272681458</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9735141810178665</v>
+        <v>0.9937824696234606</v>
       </c>
     </row>
     <row r="112">
@@ -2009,10 +2009,10 @@
         <v>0.7825980619533958</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9500311608413156</v>
+        <v>0.9928736848655947</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9919785843692991</v>
+        <v>1.001542243027354</v>
       </c>
     </row>
     <row r="113">
@@ -2023,10 +2023,10 @@
         <v>0.7790643738456479</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9405421374862728</v>
+        <v>0.9776754601237597</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9713810715657649</v>
+        <v>0.9789472496228901</v>
       </c>
     </row>
     <row r="114">
@@ -2037,10 +2037,10 @@
         <v>0.7888052086056691</v>
       </c>
       <c r="C114" t="n">
-        <v>0.953912553881777</v>
+        <v>0.9774784564904928</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9992264322447</v>
+        <v>0.9846109188649625</v>
       </c>
     </row>
     <row r="115">
@@ -2051,10 +2051,10 @@
         <v>0.8058073929140698</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9573750260143414</v>
+        <v>0.9916436948419098</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9911675240038591</v>
+        <v>0.991932716455237</v>
       </c>
     </row>
     <row r="116">
@@ -2065,10 +2065,10 @@
         <v>0.8106820271056648</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9577783683341715</v>
+        <v>0.9864271217281793</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9895249772977017</v>
+        <v>0.9850406964694893</v>
       </c>
     </row>
     <row r="117">
@@ -2079,10 +2079,10 @@
         <v>0.8144518566621406</v>
       </c>
       <c r="C117" t="n">
-        <v>0.96370742736911</v>
+        <v>0.9880560480361972</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9973671805190252</v>
+        <v>0.9937718276768048</v>
       </c>
     </row>
     <row r="118">
@@ -2093,10 +2093,10 @@
         <v>0.8040278984254425</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9694222446078606</v>
+        <v>0.9837595142862083</v>
       </c>
       <c r="D118" t="n">
-        <v>1.009603431864133</v>
+        <v>0.989236513339311</v>
       </c>
     </row>
     <row r="119">
@@ -2107,10 +2107,10 @@
         <v>0.8094169836303374</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9805570707005683</v>
+        <v>0.9994149995409238</v>
       </c>
       <c r="D119" t="n">
-        <v>1.029163390503255</v>
+        <v>1.019703631896294</v>
       </c>
     </row>
     <row r="120">
@@ -2121,10 +2121,10 @@
         <v>0.7959400538065158</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9701044450084881</v>
+        <v>0.9941202185868261</v>
       </c>
       <c r="D120" t="n">
-        <v>1.010587640876824</v>
+        <v>1.012155313406478</v>
       </c>
     </row>
     <row r="121">
@@ -2135,10 +2135,10 @@
         <v>0.8094844526156882</v>
       </c>
       <c r="C121" t="n">
-        <v>0.972034392251204</v>
+        <v>0.9998363492973247</v>
       </c>
       <c r="D121" t="n">
-        <v>1.018388143845575</v>
+        <v>1.019882869245354</v>
       </c>
     </row>
     <row r="122">
@@ -2149,10 +2149,10 @@
         <v>0.7913605964258305</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9737679777395938</v>
+        <v>0.9975135286757282</v>
       </c>
       <c r="D122" t="n">
-        <v>1.026418714917501</v>
+        <v>1.020424748062913</v>
       </c>
     </row>
     <row r="123">
@@ -2163,10 +2163,10 @@
         <v>0.8073929140698135</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9748768108023835</v>
+        <v>0.9977750749247102</v>
       </c>
       <c r="D123" t="n">
-        <v>1.023054291681816</v>
+        <v>1.017082223442885</v>
       </c>
     </row>
     <row r="124">
@@ -2177,10 +2177,10 @@
         <v>0.8016664839381646</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9729532084805237</v>
+        <v>0.9989532287019093</v>
       </c>
       <c r="D124" t="n">
-        <v>1.008270913369238</v>
+        <v>1.016433820847364</v>
       </c>
     </row>
     <row r="125">
@@ -2191,10 +2191,10 @@
         <v>0.8113398497128351</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9825845010878633</v>
+        <v>0.9988270762129587</v>
       </c>
       <c r="D125" t="n">
-        <v>1.019832524656536</v>
+        <v>1.021590032934027</v>
       </c>
     </row>
     <row r="126">
@@ -2205,10 +2205,10 @@
         <v>0.8116097256542383</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9808466088248575</v>
+        <v>0.9970057755255991</v>
       </c>
       <c r="D126" t="n">
-        <v>1.015698706377675</v>
+        <v>1.015867225337486</v>
       </c>
     </row>
     <row r="127">
@@ -2219,10 +2219,10 @@
         <v>0.8160795459337286</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9858354340475852</v>
+        <v>0.9990271111851678</v>
       </c>
       <c r="D127" t="n">
-        <v>1.023642251131706</v>
+        <v>1.019069984161521</v>
       </c>
     </row>
     <row r="128">
@@ -2233,10 +2233,10 @@
         <v>0.8343973754564699</v>
       </c>
       <c r="C128" t="n">
-        <v>0.987116403301967</v>
+        <v>1.004184397173202</v>
       </c>
       <c r="D128" t="n">
-        <v>1.026712286911382</v>
+        <v>1.022411608748232</v>
       </c>
     </row>
     <row r="129">
@@ -2247,10 +2247,10 @@
         <v>0.8244794346099028</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9782280688652591</v>
+        <v>1.022664715214121</v>
       </c>
       <c r="D129" t="n">
-        <v>1.021643395840891</v>
+        <v>1.040738653634118</v>
       </c>
     </row>
     <row r="130">
@@ -2261,10 +2261,10 @@
         <v>0.8414225835561215</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9826408753431389</v>
+        <v>1.02559924283775</v>
       </c>
       <c r="D130" t="n">
-        <v>1.023129960719178</v>
+        <v>1.041792332611601</v>
       </c>
     </row>
     <row r="131">
@@ -2275,10 +2275,10 @@
         <v>0.8362780734231233</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9757128472194528</v>
+        <v>1.025948071828445</v>
       </c>
       <c r="D131" t="n">
-        <v>1.018660120629995</v>
+        <v>1.04686184419862</v>
       </c>
     </row>
     <row r="132">
@@ -2289,10 +2289,10 @@
         <v>0.8436321928263601</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9795033489916343</v>
+        <v>1.026254337138287</v>
       </c>
       <c r="D132" t="n">
-        <v>1.017133264360374</v>
+        <v>1.04633008477926</v>
       </c>
     </row>
     <row r="133">
@@ -2303,10 +2303,10 @@
         <v>0.8323733058959459</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9741982146859689</v>
+        <v>1.021274919465481</v>
       </c>
       <c r="D133" t="n">
-        <v>1.010230572273834</v>
+        <v>1.040017603662529</v>
       </c>
     </row>
     <row r="134">
@@ -2317,10 +2317,10 @@
         <v>0.8470731110792508</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9841258308728194</v>
+        <v>1.020870522285822</v>
       </c>
       <c r="D134" t="n">
-        <v>1.008836646086712</v>
+        <v>1.037787834526521</v>
       </c>
     </row>
     <row r="135">
@@ -2331,10 +2331,10 @@
         <v>0.8584669359803665</v>
       </c>
       <c r="C135" t="n">
-        <v>1.008236016188001</v>
+        <v>1.023138533202348</v>
       </c>
       <c r="D135" t="n">
-        <v>1.026580050729263</v>
+        <v>1.036837822005956</v>
       </c>
     </row>
     <row r="136">
@@ -2345,10 +2345,10 @@
         <v>0.8480261104973308</v>
       </c>
       <c r="C136" t="n">
-        <v>1.006154712899237</v>
+        <v>1.020965213643678</v>
       </c>
       <c r="D136" t="n">
-        <v>1.020251184256288</v>
+        <v>1.031588702111946</v>
       </c>
     </row>
     <row r="137">
@@ -2359,10 +2359,10 @@
         <v>0.8677186205965945</v>
       </c>
       <c r="C137" t="n">
-        <v>1.008506794789549</v>
+        <v>1.032509154240077</v>
       </c>
       <c r="D137" t="n">
-        <v>1.027320451933719</v>
+        <v>1.04654645786151</v>
       </c>
     </row>
     <row r="138">
@@ -2373,10 +2373,10 @@
         <v>0.8806895330302852</v>
       </c>
       <c r="C138" t="n">
-        <v>1.022894833998342</v>
+        <v>1.033093680161107</v>
       </c>
       <c r="D138" t="n">
-        <v>1.03650004805503</v>
+        <v>1.046789247448056</v>
       </c>
     </row>
     <row r="139">
@@ -2387,10 +2387,10 @@
         <v>0.8797112327426986</v>
       </c>
       <c r="C139" t="n">
-        <v>1.024916082645777</v>
+        <v>1.020780533878471</v>
       </c>
       <c r="D139" t="n">
-        <v>1.036315101924625</v>
+        <v>1.035003062420758</v>
       </c>
     </row>
     <row r="140">
@@ -2401,10 +2401,10 @@
         <v>0.8795425602793217</v>
       </c>
       <c r="C140" t="n">
-        <v>1.029857876406052</v>
+        <v>1.028139586706807</v>
       </c>
       <c r="D140" t="n">
-        <v>1.041491724186963</v>
+        <v>1.042014108181816</v>
       </c>
     </row>
     <row r="141">
@@ -2415,10 +2415,10 @@
         <v>0.862700614811129</v>
       </c>
       <c r="C141" t="n">
-        <v>1.024340861943297</v>
+        <v>1.033127429270563</v>
       </c>
       <c r="D141" t="n">
-        <v>1.045047921486891</v>
+        <v>1.043887801071731</v>
       </c>
     </row>
     <row r="142">
@@ -2429,10 +2429,10 @@
         <v>0.8634512072731566</v>
       </c>
       <c r="C142" t="n">
-        <v>1.027895563654365</v>
+        <v>1.032331312548182</v>
       </c>
       <c r="D142" t="n">
-        <v>1.052023266801392</v>
+        <v>1.040841315929586</v>
       </c>
     </row>
     <row r="143">
@@ -2443,10 +2443,10 @@
         <v>0.8811196478118964</v>
       </c>
       <c r="C143" t="n">
-        <v>1.044326926287368</v>
+        <v>1.041460635503402</v>
       </c>
       <c r="D143" t="n">
-        <v>1.083975563589372</v>
+        <v>1.051259114455217</v>
       </c>
     </row>
     <row r="144">
@@ -2457,10 +2457,10 @@
         <v>0.8780160744857598</v>
       </c>
       <c r="C144" t="n">
-        <v>1.043623186603586</v>
+        <v>1.034791025089556</v>
       </c>
       <c r="D144" t="n">
-        <v>1.088394427312223</v>
+        <v>1.045708564553798</v>
       </c>
     </row>
     <row r="145">
@@ -2471,10 +2471,10 @@
         <v>0.8906327747463588</v>
       </c>
       <c r="C145" t="n">
-        <v>1.047312158148801</v>
+        <v>1.033902040454098</v>
       </c>
       <c r="D145" t="n">
-        <v>1.08703294826254</v>
+        <v>1.046789843155381</v>
       </c>
     </row>
     <row r="146">
@@ -2485,10 +2485,10 @@
         <v>0.8856063353377245</v>
       </c>
       <c r="C146" t="n">
-        <v>1.05324013495812</v>
+        <v>1.034995119744413</v>
       </c>
       <c r="D146" t="n">
-        <v>1.091157617085955</v>
+        <v>1.046243485311094</v>
       </c>
     </row>
     <row r="147">
@@ -2499,10 +2499,10 @@
         <v>0.8679210275526469</v>
       </c>
       <c r="C147" t="n">
-        <v>1.064603134776651</v>
+        <v>1.037578763297024</v>
       </c>
       <c r="D147" t="n">
-        <v>1.084554911805378</v>
+        <v>1.050880605458092</v>
       </c>
     </row>
     <row r="148">
@@ -2513,10 +2513,10 @@
         <v>0.8672294704528012</v>
       </c>
       <c r="C148" t="n">
-        <v>1.059568895246145</v>
+        <v>1.027630311657729</v>
       </c>
       <c r="D148" t="n">
-        <v>1.079452486316212</v>
+        <v>1.045018227653897</v>
       </c>
     </row>
     <row r="149">
@@ -2527,10 +2527,10 @@
         <v>0.853617602658278</v>
       </c>
       <c r="C149" t="n">
-        <v>1.048896824431004</v>
+        <v>1.007906751837878</v>
       </c>
       <c r="D149" t="n">
-        <v>1.076567215386061</v>
+        <v>1.033612587605276</v>
       </c>
     </row>
     <row r="150">
@@ -2541,10 +2541,10 @@
         <v>0.8669933290040734</v>
       </c>
       <c r="C150" t="n">
-        <v>1.050182491329205</v>
+        <v>1.015258345571796</v>
       </c>
       <c r="D150" t="n">
-        <v>1.088959083287608</v>
+        <v>1.040215638656362</v>
       </c>
     </row>
     <row r="151">
@@ -2555,10 +2555,10 @@
         <v>0.8781594460796303</v>
       </c>
       <c r="C151" t="n">
-        <v>1.063319310074309</v>
+        <v>1.016446515909365</v>
       </c>
       <c r="D151" t="n">
-        <v>1.090787080097387</v>
+        <v>1.045397899380685</v>
       </c>
     </row>
     <row r="152">
@@ -2569,10 +2569,10 @@
         <v>0.8667740548016833</v>
       </c>
       <c r="C152" t="n">
-        <v>1.053824441047403</v>
+        <v>1.012712712076094</v>
       </c>
       <c r="D152" t="n">
-        <v>1.072904485952959</v>
+        <v>1.039611208192661</v>
       </c>
     </row>
     <row r="153">
@@ -2583,10 +2583,10 @@
         <v>0.8724077150784748</v>
       </c>
       <c r="C153" t="n">
-        <v>1.051256779548044</v>
+        <v>1.001484445382447</v>
       </c>
       <c r="D153" t="n">
-        <v>1.072556106980096</v>
+        <v>1.03194754015223</v>
       </c>
     </row>
     <row r="154">
@@ -2597,10 +2597,10 @@
         <v>0.8616970136540359</v>
       </c>
       <c r="C154" t="n">
-        <v>1.046143407166911</v>
+        <v>1.00304873492409</v>
       </c>
       <c r="D154" t="n">
-        <v>1.062663893252136</v>
+        <v>1.026800985587271</v>
       </c>
     </row>
     <row r="155">
@@ -2611,10 +2611,10 @@
         <v>0.8612247307565803</v>
       </c>
       <c r="C155" t="n">
-        <v>1.040051974778555</v>
+        <v>0.9941516765087197</v>
       </c>
       <c r="D155" t="n">
-        <v>1.064540591391829</v>
+        <v>1.017247913759511</v>
       </c>
     </row>
     <row r="156">
@@ -2625,10 +2625,10 @@
         <v>0.8472502171657966</v>
       </c>
       <c r="C156" t="n">
-        <v>1.040636980309093</v>
+        <v>0.9853150851809009</v>
       </c>
       <c r="D156" t="n">
-        <v>1.061156247877842</v>
+        <v>1.005604255346794</v>
       </c>
     </row>
     <row r="157">
@@ -2639,10 +2639,10 @@
         <v>0.8547730090324104</v>
       </c>
       <c r="C157" t="n">
-        <v>1.036338173360641</v>
+        <v>0.9836080379864162</v>
       </c>
       <c r="D157" t="n">
-        <v>1.059666679313557</v>
+        <v>1.00443444892091</v>
       </c>
     </row>
     <row r="158">
@@ -2653,10 +2653,10 @@
         <v>0.8399466995015729</v>
       </c>
       <c r="C158" t="n">
-        <v>1.022529989733953</v>
+        <v>0.972450814518876</v>
       </c>
       <c r="D158" t="n">
-        <v>1.050273396198563</v>
+        <v>0.991009638445066</v>
       </c>
     </row>
     <row r="159">
@@ -2667,10 +2667,10 @@
         <v>0.8607777487286313</v>
       </c>
       <c r="C159" t="n">
-        <v>1.035421003913974</v>
+        <v>0.9812011427825723</v>
       </c>
       <c r="D159" t="n">
-        <v>1.061006482876797</v>
+        <v>0.9990124736784328</v>
       </c>
     </row>
     <row r="160">
@@ -2681,10 +2681,10 @@
         <v>0.8505646310711544</v>
       </c>
       <c r="C160" t="n">
-        <v>1.027358745795731</v>
+        <v>1.020335291761532</v>
       </c>
       <c r="D160" t="n">
-        <v>1.063003516507388</v>
+        <v>1.032626237332741</v>
       </c>
     </row>
     <row r="161">
@@ -2695,10 +2695,10 @@
         <v>0.8557428756968282</v>
       </c>
       <c r="C161" t="n">
-        <v>1.026724208782225</v>
+        <v>0.999397400026741</v>
       </c>
       <c r="D161" t="n">
-        <v>1.06227973907241</v>
+        <v>1.012939809496344</v>
       </c>
     </row>
     <row r="162">
@@ -2709,10 +2709,10 @@
         <v>0.8561898577247772</v>
       </c>
       <c r="C162" t="n">
-        <v>1.029200566747763</v>
+        <v>0.9900698053300174</v>
       </c>
       <c r="D162" t="n">
-        <v>1.078100664105489</v>
+        <v>1.011170063268009</v>
       </c>
     </row>
     <row r="163">
@@ -2723,10 +2723,10 @@
         <v>0.8627427829269733</v>
       </c>
       <c r="C163" t="n">
-        <v>1.032739099682106</v>
+        <v>1.000985164042158</v>
       </c>
       <c r="D163" t="n">
-        <v>1.081910519324518</v>
+        <v>1.026993069240276</v>
       </c>
     </row>
     <row r="164">
@@ -2737,10 +2737,10 @@
         <v>0.8612247307565803</v>
       </c>
       <c r="C164" t="n">
-        <v>1.027695959013766</v>
+        <v>1.002122360433855</v>
       </c>
       <c r="D164" t="n">
-        <v>1.069700244319182</v>
+        <v>1.028298858489207</v>
       </c>
     </row>
     <row r="165">
@@ -2751,10 +2751,10 @@
         <v>0.8486501986118257</v>
       </c>
       <c r="C165" t="n">
-        <v>1.025237575133687</v>
+        <v>0.9966121005028202</v>
       </c>
       <c r="D165" t="n">
-        <v>1.069097997876021</v>
+        <v>1.021895841166291</v>
       </c>
     </row>
     <row r="166">
@@ -2765,10 +2765,10 @@
         <v>0.8486248977423191</v>
       </c>
       <c r="C166" t="n">
-        <v>1.026008620075965</v>
+        <v>0.9927032056828107</v>
       </c>
       <c r="D166" t="n">
-        <v>1.082293877488033</v>
+        <v>1.017972822951592</v>
       </c>
     </row>
     <row r="167">
@@ -2779,10 +2779,10 @@
         <v>0.8614355713358016</v>
       </c>
       <c r="C167" t="n">
-        <v>1.028678035260259</v>
+        <v>0.9975796277066364</v>
       </c>
       <c r="D167" t="n">
-        <v>1.082713487171507</v>
+        <v>1.02428028798836</v>
       </c>
     </row>
     <row r="168">
@@ -2793,10 +2793,10 @@
         <v>0.8380407006654129</v>
       </c>
       <c r="C168" t="n">
-        <v>1.029140509218137</v>
+        <v>0.9895957994793877</v>
       </c>
       <c r="D168" t="n">
-        <v>1.079172772773054</v>
+        <v>1.011668988738086</v>
       </c>
     </row>
     <row r="169">
@@ -2807,10 +2807,10 @@
         <v>0.8616464119150228</v>
       </c>
       <c r="C169" t="n">
-        <v>1.026525283152612</v>
+        <v>0.9908984456151134</v>
       </c>
       <c r="D169" t="n">
-        <v>1.074865232023825</v>
+        <v>1.018211146653066</v>
       </c>
     </row>
     <row r="170">
@@ -2821,10 +2821,10 @@
         <v>0.8594789707606285</v>
       </c>
       <c r="C170" t="n">
-        <v>1.023548350553834</v>
+        <v>0.9878626252208677</v>
       </c>
       <c r="D170" t="n">
-        <v>1.067526373876155</v>
+        <v>1.016334871434627</v>
       </c>
     </row>
     <row r="171">
@@ -2835,10 +2835,10 @@
         <v>0.8494429591896975</v>
       </c>
       <c r="C171" t="n">
-        <v>1.023333726694272</v>
+        <v>0.9842542278521232</v>
       </c>
       <c r="D171" t="n">
-        <v>1.070283076736761</v>
+        <v>1.01131623368953</v>
       </c>
     </row>
     <row r="172">
@@ -2849,10 +2849,10 @@
         <v>0.8538368768606681</v>
       </c>
       <c r="C172" t="n">
-        <v>1.018384115451068</v>
+        <v>0.9857020894428067</v>
       </c>
       <c r="D172" t="n">
-        <v>1.065809781905779</v>
+        <v>1.013611942090742</v>
       </c>
     </row>
     <row r="173">
@@ -2863,10 +2863,10 @@
         <v>0.8437839980433994</v>
       </c>
       <c r="C173" t="n">
-        <v>1.024227903025771</v>
+        <v>0.9791028792314895</v>
       </c>
       <c r="D173" t="n">
-        <v>1.063399457623996</v>
+        <v>1.005038892523669</v>
       </c>
     </row>
     <row r="174">
@@ -2877,10 +2877,10 @@
         <v>0.8542585580191105</v>
       </c>
       <c r="C174" t="n">
-        <v>1.021895578336119</v>
+        <v>0.9853603674920406</v>
       </c>
       <c r="D174" t="n">
-        <v>1.069843651817867</v>
+        <v>1.013067391389546</v>
       </c>
     </row>
     <row r="175">
@@ -2891,10 +2891,10 @@
         <v>0.8335371458932472</v>
       </c>
       <c r="C175" t="n">
-        <v>1.012812233856722</v>
+        <v>0.9766355661974438</v>
       </c>
       <c r="D175" t="n">
-        <v>1.058929541108303</v>
+        <v>0.9995131375510888</v>
       </c>
     </row>
     <row r="176">
@@ -2905,10 +2905,10 @@
         <v>0.8295564757575502</v>
       </c>
       <c r="C176" t="n">
-        <v>1.006848409993428</v>
+        <v>0.9729345171576536</v>
       </c>
       <c r="D176" t="n">
-        <v>1.057218435415604</v>
+        <v>0.9956750900618261</v>
       </c>
     </row>
     <row r="177">
@@ -2919,10 +2919,10 @@
         <v>0.8456815632563905</v>
       </c>
       <c r="C177" t="n">
-        <v>1.011930446079968</v>
+        <v>0.975631470001647</v>
       </c>
       <c r="D177" t="n">
-        <v>1.061526036673388</v>
+        <v>0.9989962967542626</v>
       </c>
     </row>
     <row r="178">
@@ -2933,10 +2933,10 @@
         <v>0.8458755365892742</v>
       </c>
       <c r="C178" t="n">
-        <v>1.01023181740475</v>
+        <v>0.9758255084446597</v>
       </c>
       <c r="D178" t="n">
-        <v>1.064543047763567</v>
+        <v>0.9965643889037127</v>
       </c>
     </row>
     <row r="179">
@@ -2947,10 +2947,10 @@
         <v>0.8406298229782497</v>
       </c>
       <c r="C179" t="n">
-        <v>1.008620958011045</v>
+        <v>0.9785208956267214</v>
       </c>
       <c r="D179" t="n">
-        <v>1.070035799499978</v>
+        <v>0.9996753334214187</v>
       </c>
     </row>
     <row r="180">
@@ -2961,10 +2961,10 @@
         <v>0.8441888119555042</v>
       </c>
       <c r="C180" t="n">
-        <v>1.011611254830526</v>
+        <v>0.9800284467394424</v>
       </c>
       <c r="D180" t="n">
-        <v>1.071129806635807</v>
+        <v>1.001847122581683</v>
       </c>
     </row>
     <row r="181">
@@ -2975,10 +2975,10 @@
         <v>0.8289408212662241</v>
       </c>
       <c r="C181" t="n">
-        <v>1.002752131784795</v>
+        <v>0.966288440505058</v>
       </c>
       <c r="D181" t="n">
-        <v>1.049889261181679</v>
+        <v>0.9888959116449481</v>
       </c>
     </row>
     <row r="182">
@@ -2989,10 +2989,10 @@
         <v>0.8179855447698886</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9968414186443928</v>
+        <v>0.9698507520165736</v>
       </c>
       <c r="D182" t="n">
-        <v>1.047095160223499</v>
+        <v>0.9924069135218022</v>
       </c>
     </row>
     <row r="183">
@@ -3003,10 +3003,10 @@
         <v>0.82054093259005</v>
       </c>
       <c r="C183" t="n">
-        <v>1.010862641385594</v>
+        <v>0.9726665229929635</v>
       </c>
       <c r="D183" t="n">
-        <v>1.058680303498766</v>
+        <v>0.9959269250564079</v>
       </c>
     </row>
     <row r="184">
@@ -3017,10 +3017,10 @@
         <v>0.8073929140698135</v>
       </c>
       <c r="C184" t="n">
-        <v>1.017608158046046</v>
+        <v>0.9606396736200483</v>
       </c>
       <c r="D184" t="n">
-        <v>1.069427353753685</v>
+        <v>0.9860038886639242</v>
       </c>
     </row>
     <row r="185">
@@ -3031,10 +3031,10 @@
         <v>0.8181626508564345</v>
       </c>
       <c r="C185" t="n">
-        <v>1.022974209906275</v>
+        <v>0.9654111494880252</v>
       </c>
       <c r="D185" t="n">
-        <v>1.070921473958578</v>
+        <v>0.9858547252695147</v>
       </c>
     </row>
     <row r="186">
@@ -3045,10 +3045,10 @@
         <v>0.8180530137552394</v>
       </c>
       <c r="C186" t="n">
-        <v>1.025197340225385</v>
+        <v>0.9670464043340148</v>
       </c>
       <c r="D186" t="n">
-        <v>1.072224955006289</v>
+        <v>0.9919579856510526</v>
       </c>
     </row>
     <row r="187">
@@ -3059,10 +3059,10 @@
         <v>0.7983773709023133</v>
       </c>
       <c r="C187" t="n">
-        <v>1.025699350252494</v>
+        <v>0.9625777765830122</v>
       </c>
       <c r="D187" t="n">
-        <v>1.112582723155089</v>
+        <v>0.9824624039515876</v>
       </c>
     </row>
     <row r="188">
@@ -3073,10 +3073,10 @@
         <v>0.7892184561409427</v>
       </c>
       <c r="C188" t="n">
-        <v>1.032890491053025</v>
+        <v>0.9591047518918164</v>
       </c>
       <c r="D188" t="n">
-        <v>1.137303814200739</v>
+        <v>0.9798314761547127</v>
       </c>
     </row>
     <row r="189">
@@ -3087,10 +3087,10 @@
         <v>0.7978460526426758</v>
       </c>
       <c r="C189" t="n">
-        <v>1.041588238870855</v>
+        <v>0.9512831219356036</v>
       </c>
       <c r="D189" t="n">
-        <v>1.141167614354987</v>
+        <v>0.9747676480135692</v>
       </c>
     </row>
     <row r="190">
@@ -3101,10 +3101,10 @@
         <v>0.8052339065385881</v>
       </c>
       <c r="C190" t="n">
-        <v>1.036545644781851</v>
+        <v>0.9520061729070031</v>
       </c>
       <c r="D190" t="n">
-        <v>1.157009737547986</v>
+        <v>0.9729258404243578</v>
       </c>
     </row>
     <row r="191">
@@ -3115,10 +3115,10 @@
         <v>0.7928955158425611</v>
       </c>
       <c r="C191" t="n">
-        <v>1.035937019609543</v>
+        <v>0.9479262438426321</v>
       </c>
       <c r="D191" t="n">
-        <v>1.155357346011577</v>
+        <v>0.9679814299767098</v>
       </c>
     </row>
     <row r="192">
@@ -3129,10 +3129,10 @@
         <v>0.8103784166715863</v>
       </c>
       <c r="C192" t="n">
-        <v>1.036036085458138</v>
+        <v>0.9487241951388879</v>
       </c>
       <c r="D192" t="n">
-        <v>1.152965395926524</v>
+        <v>0.9707891130103332</v>
       </c>
     </row>
     <row r="193">
@@ -3143,10 +3143,10 @@
         <v>0.8063808792895516</v>
       </c>
       <c r="C193" t="n">
-        <v>1.036114791964733</v>
+        <v>0.9474694678503865</v>
       </c>
       <c r="D193" t="n">
-        <v>1.154080439375013</v>
+        <v>0.9707545404739151</v>
       </c>
     </row>
     <row r="194">
@@ -3157,10 +3157,10 @@
         <v>0.805630286827524</v>
       </c>
       <c r="C194" t="n">
-        <v>1.029537027121674</v>
+        <v>0.9393922339916201</v>
       </c>
       <c r="D194" t="n">
-        <v>1.127539924232694</v>
+        <v>0.9657139442622643</v>
       </c>
     </row>
     <row r="195">
@@ -3171,10 +3171,10 @@
         <v>0.8258203806937499</v>
       </c>
       <c r="C195" t="n">
-        <v>1.042028438102888</v>
+        <v>0.9417407597542576</v>
       </c>
       <c r="D195" t="n">
-        <v>1.140139856896546</v>
+        <v>0.958845356878979</v>
       </c>
     </row>
     <row r="196">
@@ -3185,10 +3185,10 @@
         <v>0.8221348873689626</v>
       </c>
       <c r="C196" t="n">
-        <v>1.035207236295482</v>
+        <v>0.9462862478547646</v>
       </c>
       <c r="D196" t="n">
-        <v>1.135237280803051</v>
+        <v>0.957993352313671</v>
       </c>
     </row>
     <row r="197">
@@ -3199,10 +3199,10 @@
         <v>0.8307371830011892</v>
       </c>
       <c r="C197" t="n">
-        <v>1.040176272726922</v>
+        <v>0.9419704485268866</v>
       </c>
       <c r="D197" t="n">
-        <v>1.142371901089266</v>
+        <v>0.9589209457350887</v>
       </c>
     </row>
     <row r="198">
@@ -3213,10 +3213,10 @@
         <v>0.8377455238545032</v>
       </c>
       <c r="C198" t="n">
-        <v>1.052625492719241</v>
+        <v>0.9489477336831041</v>
       </c>
       <c r="D198" t="n">
-        <v>1.164465045196373</v>
+        <v>0.9659696678743062</v>
       </c>
     </row>
     <row r="199">
@@ -3227,10 +3227,10 @@
         <v>0.8353841093672253</v>
       </c>
       <c r="C199" t="n">
-        <v>1.055529173733051</v>
+        <v>0.9440045806805504</v>
       </c>
       <c r="D199" t="n">
-        <v>1.165922116929875</v>
+        <v>0.9626856207841035</v>
       </c>
     </row>
     <row r="200">
@@ -3241,10 +3241,10 @@
         <v>0.8291010601064324</v>
       </c>
       <c r="C200" t="n">
-        <v>1.054416954415057</v>
+        <v>0.943758435702887</v>
       </c>
       <c r="D200" t="n">
-        <v>1.155275192508322</v>
+        <v>0.9634398759073917</v>
       </c>
     </row>
     <row r="201">
@@ -3255,10 +3255,10 @@
         <v>0.8320443945923608</v>
       </c>
       <c r="C201" t="n">
-        <v>1.051261959406318</v>
+        <v>0.9535553256483638</v>
       </c>
       <c r="D201" t="n">
-        <v>1.150175700528008</v>
+        <v>0.9717266950955342</v>
       </c>
     </row>
     <row r="202">
@@ -3269,10 +3269,10 @@
         <v>0.8479164733961357</v>
       </c>
       <c r="C202" t="n">
-        <v>1.063740912025071</v>
+        <v>0.9568417540036037</v>
       </c>
       <c r="D202" t="n">
-        <v>1.160315238808387</v>
+        <v>0.9732013926144127</v>
       </c>
     </row>
     <row r="203">
@@ -3283,10 +3283,10 @@
         <v>0.848017676874162</v>
       </c>
       <c r="C203" t="n">
-        <v>1.06325786031198</v>
+        <v>0.9580614445260869</v>
       </c>
       <c r="D203" t="n">
-        <v>1.164966259094878</v>
+        <v>0.9731702509163791</v>
       </c>
     </row>
     <row r="204">
@@ -3297,10 +3297,10 @@
         <v>0.8595380061228104</v>
       </c>
       <c r="C204" t="n">
-        <v>1.065913020661653</v>
+        <v>0.9558963556660937</v>
       </c>
       <c r="D204" t="n">
-        <v>1.166769154514296</v>
+        <v>0.972486451037528</v>
       </c>
     </row>
     <row r="205">
@@ -3311,10 +3311,10 @@
         <v>0.8539886820777074</v>
       </c>
       <c r="C205" t="n">
-        <v>1.068111718667659</v>
+        <v>0.9585790959628547</v>
       </c>
       <c r="D205" t="n">
-        <v>1.172441357924155</v>
+        <v>0.9754122688496945</v>
       </c>
     </row>
     <row r="206">
@@ -3325,10 +3325,10 @@
         <v>0.851939311647677</v>
       </c>
       <c r="C206" t="n">
-        <v>1.069535047593064</v>
+        <v>0.9722956200831688</v>
       </c>
       <c r="D206" t="n">
-        <v>1.166653452720984</v>
+        <v>0.9824948153461166</v>
       </c>
     </row>
     <row r="207">
@@ -3339,10 +3339,10 @@
         <v>0.8400394693564303</v>
       </c>
       <c r="C207" t="n">
-        <v>1.077427765872667</v>
+        <v>0.9593822004449249</v>
       </c>
       <c r="D207" t="n">
-        <v>1.174154198504406</v>
+        <v>0.972859861270605</v>
       </c>
     </row>
     <row r="208">
@@ -3353,10 +3353,10 @@
         <v>0.8043062079900146</v>
       </c>
       <c r="C208" t="n">
-        <v>1.061002808844533</v>
+        <v>0.962452904895669</v>
       </c>
       <c r="D208" t="n">
-        <v>1.148229863070423</v>
+        <v>0.9660288650617166</v>
       </c>
     </row>
     <row r="209">
@@ -3367,10 +3367,10 @@
         <v>0.8145361928938292</v>
       </c>
       <c r="C209" t="n">
-        <v>1.064745557618744</v>
+        <v>0.9510360801027224</v>
       </c>
       <c r="D209" t="n">
-        <v>1.156991019427514</v>
+        <v>0.9608395387743344</v>
       </c>
     </row>
     <row r="210">
@@ -3381,10 +3381,10 @@
         <v>0.7923557639597547</v>
       </c>
       <c r="C210" t="n">
-        <v>1.062425780962167</v>
+        <v>0.9472057577467392</v>
       </c>
       <c r="D210" t="n">
-        <v>1.15754204029738</v>
+        <v>0.9521266501427209</v>
       </c>
     </row>
     <row r="211">
@@ -3395,10 +3395,10 @@
         <v>0.8061447378408237</v>
       </c>
       <c r="C211" t="n">
-        <v>1.076566166302983</v>
+        <v>0.957197766595534</v>
       </c>
       <c r="D211" t="n">
-        <v>1.169211103656748</v>
+        <v>0.9592713118738991</v>
       </c>
     </row>
     <row r="212">
@@ -3409,10 +3409,10 @@
         <v>0.8249011157683452</v>
       </c>
       <c r="C212" t="n">
-        <v>1.092928621628382</v>
+        <v>0.9717722525288384</v>
       </c>
       <c r="D212" t="n">
-        <v>1.185512855253642</v>
+        <v>0.9734798338062109</v>
       </c>
     </row>
     <row r="213">
@@ -3423,10 +3423,10 @@
         <v>0.8498899412176465</v>
       </c>
       <c r="C213" t="n">
-        <v>1.10952617167758</v>
+        <v>0.9824215727035724</v>
       </c>
       <c r="D213" t="n">
-        <v>1.20429791853491</v>
+        <v>0.9867154674969516</v>
       </c>
     </row>
     <row r="214">
@@ -3437,10 +3437,10 @@
         <v>0.8501007817968678</v>
       </c>
       <c r="C214" t="n">
-        <v>1.123036203783101</v>
+        <v>0.9883286067701522</v>
       </c>
       <c r="D214" t="n">
-        <v>1.232471422843613</v>
+        <v>0.9915844687077507</v>
       </c>
     </row>
     <row r="215">
@@ -3451,10 +3451,10 @@
         <v>0.8763630843446654</v>
       </c>
       <c r="C215" t="n">
-        <v>1.129603091894776</v>
+        <v>0.9919304383251956</v>
       </c>
       <c r="D215" t="n">
-        <v>1.243014380240335</v>
+        <v>0.9907385281586594</v>
       </c>
     </row>
     <row r="216">
@@ -3465,10 +3465,10 @@
         <v>0.888490634461471</v>
       </c>
       <c r="C216" t="n">
-        <v>1.138236955346267</v>
+        <v>0.9859694061861161</v>
       </c>
       <c r="D216" t="n">
-        <v>1.263779235591342</v>
+        <v>0.9961578642666484</v>
       </c>
     </row>
     <row r="217">
@@ -3479,10 +3479,10 @@
         <v>0.8815834970861832</v>
       </c>
       <c r="C217" t="n">
-        <v>1.128717914219433</v>
+        <v>0.9740039040891827</v>
       </c>
       <c r="D217" t="n">
-        <v>1.26290362496515</v>
+        <v>0.9852034594676945</v>
       </c>
     </row>
     <row r="218">
@@ -3493,10 +3493,10 @@
         <v>0.8617054472772048</v>
       </c>
       <c r="C218" t="n">
-        <v>1.122383890203464</v>
+        <v>0.9649224514838324</v>
       </c>
       <c r="D218" t="n">
-        <v>1.248549484661443</v>
+        <v>0.9714531388513955</v>
       </c>
     </row>
     <row r="219">
@@ -3507,10 +3507,10 @@
         <v>0.8814148246228062</v>
       </c>
       <c r="C219" t="n">
-        <v>1.137548370498409</v>
+        <v>0.9752826680149088</v>
       </c>
       <c r="D219" t="n">
-        <v>1.263356915598582</v>
+        <v>1.000835581241841</v>
       </c>
     </row>
     <row r="220">
@@ -3521,10 +3521,10 @@
         <v>0.8975905138606597</v>
       </c>
       <c r="C220" t="n">
-        <v>1.136364900259072</v>
+        <v>0.9752994531645771</v>
       </c>
       <c r="D220" t="n">
-        <v>1.259475763219072</v>
+        <v>0.9981480587373247</v>
       </c>
     </row>
     <row r="221">
@@ -3535,10 +3535,10 @@
         <v>0.9043289787725705</v>
       </c>
       <c r="C221" t="n">
-        <v>1.137924965484856</v>
+        <v>0.9715850597993617</v>
       </c>
       <c r="D221" t="n">
-        <v>1.272642143958588</v>
+        <v>0.9918453355527166</v>
       </c>
     </row>
     <row r="222">
@@ -3549,10 +3549,10 @@
         <v>0.8980374958886087</v>
       </c>
       <c r="C222" t="n">
-        <v>1.132581915825557</v>
+        <v>0.9699615898921915</v>
       </c>
       <c r="D222" t="n">
-        <v>1.268473760115896</v>
+        <v>0.9898352705635423</v>
       </c>
     </row>
     <row r="223">
@@ -3563,10 +3563,10 @@
         <v>0.8983242390763496</v>
       </c>
       <c r="C223" t="n">
-        <v>1.125921000790765</v>
+        <v>0.9732718092997251</v>
       </c>
       <c r="D223" t="n">
-        <v>1.248478824268373</v>
+        <v>0.9891502906702048</v>
       </c>
     </row>
     <row r="224">
@@ -3577,10 +3577,10 @@
         <v>0.9055940222478979</v>
       </c>
       <c r="C224" t="n">
-        <v>1.125946849827843</v>
+        <v>0.966050964903678</v>
       </c>
       <c r="D224" t="n">
-        <v>1.259551530266651</v>
+        <v>0.9793223747722311</v>
       </c>
     </row>
     <row r="225">
@@ -3591,10 +3591,10 @@
         <v>0.9258937532153189</v>
       </c>
       <c r="C225" t="n">
-        <v>1.129028298004261</v>
+        <v>0.966277796534487</v>
       </c>
       <c r="D225" t="n">
-        <v>1.263210019322871</v>
+        <v>0.9801545369247225</v>
       </c>
     </row>
     <row r="226">
@@ -3605,10 +3605,10 @@
         <v>0.9288202204549096</v>
       </c>
       <c r="C226" t="n">
-        <v>1.137965420168603</v>
+        <v>0.9692272082235708</v>
       </c>
       <c r="D226" t="n">
-        <v>1.277830623740718</v>
+        <v>0.9819509530801735</v>
       </c>
     </row>
     <row r="227">
@@ -3619,10 +3619,10 @@
         <v>0.9296129810327814</v>
       </c>
       <c r="C227" t="n">
-        <v>1.140364846784342</v>
+        <v>0.9736337211854844</v>
       </c>
       <c r="D227" t="n">
-        <v>1.281225408573946</v>
+        <v>0.9892222740530502</v>
       </c>
     </row>
     <row r="228">
@@ -3633,10 +3633,10 @@
         <v>0.9325478818955412</v>
       </c>
       <c r="C228" t="n">
-        <v>1.141196881031504</v>
+        <v>0.9716489016250835</v>
       </c>
       <c r="D228" t="n">
-        <v>1.279585214318186</v>
+        <v>0.9867437631170702</v>
       </c>
     </row>
     <row r="229">
@@ -3647,10 +3647,10 @@
         <v>0.9183203596096919</v>
       </c>
       <c r="C229" t="n">
-        <v>1.144309253163868</v>
+        <v>0.9710345854268088</v>
       </c>
       <c r="D229" t="n">
-        <v>1.290134685951876</v>
+        <v>0.9837525008541455</v>
       </c>
     </row>
     <row r="230">
@@ -3661,10 +3661,10 @@
         <v>0.9389574355038668</v>
       </c>
       <c r="C230" t="n">
-        <v>1.141326644225057</v>
+        <v>0.9752869002864492</v>
       </c>
       <c r="D230" t="n">
-        <v>1.292234434567407</v>
+        <v>0.9913894706913262</v>
       </c>
     </row>
     <row r="231">
@@ -3675,10 +3675,10 @@
         <v>0.9429971410017458</v>
       </c>
       <c r="C231" t="n">
-        <v>1.140502821126669</v>
+        <v>0.9750199735822119</v>
       </c>
       <c r="D231" t="n">
-        <v>1.292382396868067</v>
+        <v>0.9926501740581831</v>
       </c>
     </row>
     <row r="232">
@@ -3689,10 +3689,10 @@
         <v>0.9523162946033246</v>
       </c>
       <c r="C232" t="n">
-        <v>1.155574129899093</v>
+        <v>0.9807029506251226</v>
       </c>
       <c r="D232" t="n">
-        <v>1.32758144098002</v>
+        <v>0.9964893379228299</v>
       </c>
     </row>
     <row r="233">
@@ -3703,10 +3703,10 @@
         <v>0.9587511490811568</v>
       </c>
       <c r="C233" t="n">
-        <v>1.1712947862728</v>
+        <v>0.9805574208635637</v>
       </c>
       <c r="D233" t="n">
-        <v>1.363903080513788</v>
+        <v>0.9993754602254615</v>
       </c>
     </row>
     <row r="234">
@@ -3717,10 +3717,10 @@
         <v>0.9582704325605323</v>
       </c>
       <c r="C234" t="n">
-        <v>1.175216045704044</v>
+        <v>0.9808956676823467</v>
       </c>
       <c r="D234" t="n">
-        <v>1.350892495885399</v>
+        <v>0.9989443684768883</v>
       </c>
     </row>
     <row r="235">
@@ -3731,10 +3731,10 @@
         <v>0.9578150169094145</v>
       </c>
       <c r="C235" t="n">
-        <v>1.176383934191169</v>
+        <v>0.9866903625590983</v>
       </c>
       <c r="D235" t="n">
-        <v>1.358216121394926</v>
+        <v>1.005413246439571</v>
       </c>
     </row>
     <row r="236">
@@ -3745,10 +3745,10 @@
         <v>0.9506548708390612</v>
       </c>
       <c r="C236" t="n">
-        <v>1.167012658581136</v>
+        <v>0.9843269410368342</v>
       </c>
       <c r="D236" t="n">
-        <v>1.341307694549607</v>
+        <v>1.002573546432295</v>
       </c>
     </row>
     <row r="237">
@@ -3759,10 +3759,10 @@
         <v>0.9697991954323497</v>
       </c>
       <c r="C237" t="n">
-        <v>1.16588693162224</v>
+        <v>0.990438844869324</v>
       </c>
       <c r="D237" t="n">
-        <v>1.320948249728808</v>
+        <v>1.01013175343178</v>
       </c>
     </row>
     <row r="238">
@@ -3773,10 +3773,10 @@
         <v>0.9725907247012389</v>
       </c>
       <c r="C238" t="n">
-        <v>1.177622430187788</v>
+        <v>1.002777434188948</v>
       </c>
       <c r="D238" t="n">
-        <v>1.320228094512662</v>
+        <v>1.022578779708427</v>
       </c>
     </row>
     <row r="239">
@@ -3787,10 +3787,10 @@
         <v>0.9696558238384793</v>
       </c>
       <c r="C239" t="n">
-        <v>1.195192231094614</v>
+        <v>1.032514122449506</v>
       </c>
       <c r="D239" t="n">
-        <v>1.33570094926569</v>
+        <v>1.042860838393569</v>
       </c>
     </row>
     <row r="240">
@@ -3801,10 +3801,10 @@
         <v>0.9795315965692021</v>
       </c>
       <c r="C240" t="n">
-        <v>1.190549453508781</v>
+        <v>1.036563127372336</v>
       </c>
       <c r="D240" t="n">
-        <v>1.327537652191285</v>
+        <v>1.048210222344375</v>
       </c>
     </row>
     <row r="241">
@@ -3815,10 +3815,10 @@
         <v>0.9947205518963002</v>
       </c>
       <c r="C241" t="n">
-        <v>1.194367964286371</v>
+        <v>1.048215441986808</v>
       </c>
       <c r="D241" t="n">
-        <v>1.330733050970996</v>
+        <v>1.069148940660121</v>
       </c>
     </row>
     <row r="242">
@@ -3829,10 +3829,10 @@
         <v>0.9964916127617586</v>
       </c>
       <c r="C242" t="n">
-        <v>1.201007506176516</v>
+        <v>1.051767672406376</v>
       </c>
       <c r="D242" t="n">
-        <v>1.332897595685565</v>
+        <v>1.068893921886338</v>
       </c>
     </row>
     <row r="243">
@@ -3843,10 +3843,10 @@
         <v>0.9924603408870485</v>
       </c>
       <c r="C243" t="n">
-        <v>1.198781539835537</v>
+        <v>1.053701486936344</v>
       </c>
       <c r="D243" t="n">
-        <v>1.331959391670339</v>
+        <v>1.071083692660709</v>
       </c>
     </row>
     <row r="244">
@@ -3857,10 +3857,10 @@
         <v>0.9784352255572516</v>
       </c>
       <c r="C244" t="n">
-        <v>1.190209344329253</v>
+        <v>1.047052200440051</v>
       </c>
       <c r="D244" t="n">
-        <v>1.328414904932498</v>
+        <v>1.062781512388635</v>
       </c>
     </row>
     <row r="245">
@@ -3871,10 +3871,10 @@
         <v>0.9812351884493097</v>
       </c>
       <c r="C245" t="n">
-        <v>1.194565166753774</v>
+        <v>1.035319191637158</v>
       </c>
       <c r="D245" t="n">
-        <v>1.326689807418265</v>
+        <v>1.052937313523185</v>
       </c>
     </row>
     <row r="246">
@@ -3885,10 +3885,10 @@
         <v>0.9939615258111038</v>
       </c>
       <c r="C246" t="n">
-        <v>1.202309142259778</v>
+        <v>1.035582881322518</v>
       </c>
       <c r="D246" t="n">
-        <v>1.335166434326151</v>
+        <v>1.057746762434407</v>
       </c>
     </row>
     <row r="247">
@@ -3899,10 +3899,10 @@
         <v>1.00403127187471</v>
       </c>
       <c r="C247" t="n">
-        <v>1.206589459283446</v>
+        <v>1.052501901577851</v>
       </c>
       <c r="D247" t="n">
-        <v>1.336794466008127</v>
+        <v>1.068746167173635</v>
       </c>
     </row>
     <row r="248">
@@ -3913,10 +3913,10 @@
         <v>1.007607128098302</v>
       </c>
       <c r="C248" t="n">
-        <v>1.21988896702429</v>
+        <v>1.060144488159215</v>
       </c>
       <c r="D248" t="n">
-        <v>1.352473060330655</v>
+        <v>1.07447448938668</v>
       </c>
     </row>
     <row r="249">
@@ -3927,10 +3927,10 @@
         <v>1.006181845782767</v>
       </c>
       <c r="C249" t="n">
-        <v>1.2163102869167</v>
+        <v>1.059490280393222</v>
       </c>
       <c r="D249" t="n">
-        <v>1.359004333021745</v>
+        <v>1.077127498596655</v>
       </c>
     </row>
     <row r="250">
@@ -3941,10 +3941,10 @@
         <v>0.9998734956524673</v>
       </c>
       <c r="C250" t="n">
-        <v>1.232900191301488</v>
+        <v>1.051629510926178</v>
       </c>
       <c r="D250" t="n">
-        <v>1.395721268392118</v>
+        <v>1.077863501576382</v>
       </c>
     </row>
     <row r="251">
@@ -3955,10 +3955,10 @@
         <v>1.005481855059752</v>
       </c>
       <c r="C251" t="n">
-        <v>1.213359497151811</v>
+        <v>1.044906705035336</v>
       </c>
       <c r="D251" t="n">
-        <v>1.376140732520333</v>
+        <v>1.070873473616233</v>
       </c>
     </row>
     <row r="252">
@@ -3969,10 +3969,10 @@
         <v>1.01077817040979</v>
       </c>
       <c r="C252" t="n">
-        <v>1.210818838495111</v>
+        <v>1.043401017667049</v>
       </c>
       <c r="D252" t="n">
-        <v>1.374658042444752</v>
+        <v>1.063081909603421</v>
       </c>
     </row>
     <row r="253">
@@ -3983,10 +3983,10 @@
         <v>1.028530947180218</v>
       </c>
       <c r="C253" t="n">
-        <v>1.20415545392992</v>
+        <v>1.03807790070781</v>
       </c>
       <c r="D253" t="n">
-        <v>1.376785465539579</v>
+        <v>1.056844080840123</v>
       </c>
     </row>
     <row r="254">
@@ -3997,10 +3997,10 @@
         <v>1.054852285090198</v>
       </c>
       <c r="C254" t="n">
-        <v>1.215526675166079</v>
+        <v>1.04431144553076</v>
       </c>
       <c r="D254" t="n">
-        <v>1.374139966992964</v>
+        <v>1.070646793407033</v>
       </c>
     </row>
     <row r="255">
@@ -4011,10 +4011,10 @@
         <v>1.035707960496909</v>
       </c>
       <c r="C255" t="n">
-        <v>1.20860486862509</v>
+        <v>1.040675180293577</v>
       </c>
       <c r="D255" t="n">
-        <v>1.371003330497118</v>
+        <v>1.062836863049638</v>
       </c>
     </row>
     <row r="256">
@@ -4025,10 +4025,10 @@
         <v>1.045752405691009</v>
       </c>
       <c r="C256" t="n">
-        <v>1.22225443350186</v>
+        <v>1.031512980095142</v>
       </c>
       <c r="D256" t="n">
-        <v>1.38323109269675</v>
+        <v>1.057336872009524</v>
       </c>
     </row>
     <row r="257">
@@ -4039,10 +4039,10 @@
         <v>1.029239371526401</v>
       </c>
       <c r="C257" t="n">
-        <v>1.22418733708015</v>
+        <v>1.052380887194438</v>
       </c>
       <c r="D257" t="n">
-        <v>1.383669563678559</v>
+        <v>1.070195347403687</v>
       </c>
     </row>
     <row r="258">
@@ -4053,10 +4053,10 @@
         <v>1.041392222512714</v>
       </c>
       <c r="C258" t="n">
-        <v>1.224091926558682</v>
+        <v>1.050288680107893</v>
       </c>
       <c r="D258" t="n">
-        <v>1.381694744740354</v>
+        <v>1.074557253782847</v>
       </c>
     </row>
     <row r="259">
@@ -4067,10 +4067,10 @@
         <v>1.016268459092711</v>
       </c>
       <c r="C259" t="n">
-        <v>1.221931210849621</v>
+        <v>1.044211951662962</v>
       </c>
       <c r="D259" t="n">
-        <v>1.377185939248252</v>
+        <v>1.069353801628357</v>
       </c>
     </row>
     <row r="260">
@@ -4081,10 +4081,10 @@
         <v>1.022509340237659</v>
       </c>
       <c r="C260" t="n">
-        <v>1.211407783119899</v>
+        <v>1.030157552474227</v>
       </c>
       <c r="D260" t="n">
-        <v>1.371793596740368</v>
+        <v>1.058736440680502</v>
       </c>
     </row>
     <row r="261">
@@ -4095,10 +4095,10 @@
         <v>1.017710608654584</v>
       </c>
       <c r="C261" t="n">
-        <v>1.221114580350174</v>
+        <v>1.031170221905921</v>
       </c>
       <c r="D261" t="n">
-        <v>1.380473099032344</v>
+        <v>1.060513195301754</v>
       </c>
     </row>
     <row r="262">
@@ -4109,10 +4109,10 @@
         <v>1.009572162296644</v>
       </c>
       <c r="C262" t="n">
-        <v>1.196520772522808</v>
+        <v>1.017788774241394</v>
       </c>
       <c r="D262" t="n">
-        <v>1.326356226310517</v>
+        <v>1.05128440097887</v>
       </c>
     </row>
     <row r="263">
@@ -4123,10 +4123,10 @@
         <v>0.9989036289880495</v>
       </c>
       <c r="C263" t="n">
-        <v>1.196608290143975</v>
+        <v>1.017130463532165</v>
       </c>
       <c r="D263" t="n">
-        <v>1.340639377296779</v>
+        <v>1.043443689888446</v>
       </c>
     </row>
     <row r="264">
@@ -4137,10 +4137,10 @@
         <v>0.9881844939404417</v>
       </c>
       <c r="C264" t="n">
-        <v>1.190069584278378</v>
+        <v>1.013098224142981</v>
       </c>
       <c r="D264" t="n">
-        <v>1.337666753566581</v>
+        <v>1.034229332870094</v>
       </c>
     </row>
     <row r="265">
@@ -4151,10 +4151,10 @@
         <v>0.9822134887368963</v>
       </c>
       <c r="C265" t="n">
-        <v>1.181478873905189</v>
+        <v>1.008926441249151</v>
       </c>
       <c r="D265" t="n">
-        <v>1.336716385866227</v>
+        <v>1.027996111087435</v>
       </c>
     </row>
     <row r="266">
@@ -4165,10 +4165,10 @@
         <v>0.9773051200526258</v>
       </c>
       <c r="C266" t="n">
-        <v>1.182122299976121</v>
+        <v>1.015529418571066</v>
       </c>
       <c r="D266" t="n">
-        <v>1.338994120595659</v>
+        <v>1.040004409668685</v>
       </c>
     </row>
     <row r="267">
@@ -4179,10 +4179,10 @@
         <v>1.006249314768118</v>
       </c>
       <c r="C267" t="n">
-        <v>1.184239953927581</v>
+        <v>1.024533065986586</v>
       </c>
       <c r="D267" t="n">
-        <v>1.336336701729926</v>
+        <v>1.051722823578973</v>
       </c>
     </row>
     <row r="268">
@@ -4193,10 +4193,10 @@
         <v>0.978359322948732</v>
       </c>
       <c r="C268" t="n">
-        <v>1.178247169747433</v>
+        <v>1.022643680577495</v>
       </c>
       <c r="D268" t="n">
-        <v>1.339201386250627</v>
+        <v>1.0474263347806</v>
       </c>
     </row>
     <row r="269">
@@ -4207,10 +4207,10 @@
         <v>0.9898121832120297</v>
       </c>
       <c r="C269" t="n">
-        <v>1.189080083224816</v>
+        <v>1.026273411232485</v>
       </c>
       <c r="D269" t="n">
-        <v>1.339585653854197</v>
+        <v>1.052280084417523</v>
       </c>
     </row>
     <row r="270">
@@ -4221,10 +4221,10 @@
         <v>0.99714100174576</v>
       </c>
       <c r="C270" t="n">
-        <v>1.183830216942444</v>
+        <v>1.027647711995103</v>
       </c>
       <c r="D270" t="n">
-        <v>1.336047720622958</v>
+        <v>1.055544137105815</v>
       </c>
     </row>
     <row r="271">
@@ -4235,10 +4235,10 @@
         <v>1.009715533890515</v>
       </c>
       <c r="C271" t="n">
-        <v>1.181011021412187</v>
+        <v>1.032443187529435</v>
       </c>
       <c r="D271" t="n">
-        <v>1.33066173574589</v>
+        <v>1.064128646693969</v>
       </c>
     </row>
     <row r="272">
@@ -4249,10 +4249,10 @@
         <v>1.005802332740169</v>
       </c>
       <c r="C272" t="n">
-        <v>1.16821653519514</v>
+        <v>1.017973411403239</v>
       </c>
       <c r="D272" t="n">
-        <v>1.322135514885001</v>
+        <v>1.047911163140115</v>
       </c>
     </row>
     <row r="273">
@@ -4263,10 +4263,10 @@
         <v>1.011402258524285</v>
       </c>
       <c r="C273" t="n">
-        <v>1.173675117414365</v>
+        <v>1.007780136894731</v>
       </c>
       <c r="D273" t="n">
-        <v>1.338864894599115</v>
+        <v>1.040966233062532</v>
       </c>
     </row>
     <row r="274">
@@ -4277,10 +4277,10 @@
         <v>1.007952906648225</v>
       </c>
       <c r="C274" t="n">
-        <v>1.173816985971044</v>
+        <v>1.007758532152452</v>
       </c>
       <c r="D274" t="n">
-        <v>1.340946694493042</v>
+        <v>1.042954717343512</v>
       </c>
     </row>
     <row r="275">
@@ -4291,10 +4291,10 @@
         <v>1.007219181432535</v>
       </c>
       <c r="C275" t="n">
-        <v>1.170666585211527</v>
+        <v>1.01763854150812</v>
       </c>
       <c r="D275" t="n">
-        <v>1.337442482869605</v>
+        <v>1.05130261882503</v>
       </c>
     </row>
     <row r="276">
@@ -4305,10 +4305,10 @@
         <v>0.9987939918868545</v>
       </c>
       <c r="C276" t="n">
-        <v>1.163185470754786</v>
+        <v>1.017145649774303</v>
       </c>
       <c r="D276" t="n">
-        <v>1.335393668777174</v>
+        <v>1.048109299545414</v>
       </c>
     </row>
     <row r="277">
@@ -4319,10 +4319,10 @@
         <v>1.005583058537779</v>
       </c>
       <c r="C277" t="n">
-        <v>1.159538526530442</v>
+        <v>1.02090061177994</v>
       </c>
       <c r="D277" t="n">
-        <v>1.332408674843092</v>
+        <v>1.050808418380557</v>
       </c>
     </row>
     <row r="278">
@@ -4333,10 +4333,10 @@
         <v>1.004579457380685</v>
       </c>
       <c r="C278" t="n">
-        <v>1.14803876474772</v>
+        <v>1.023930808780615</v>
       </c>
       <c r="D278" t="n">
-        <v>1.31348859962058</v>
+        <v>1.058407458844192</v>
       </c>
     </row>
     <row r="279">
@@ -4347,10 +4347,10 @@
         <v>1.015332326920968</v>
       </c>
       <c r="C279" t="n">
-        <v>1.145700568048837</v>
+        <v>1.021725072957981</v>
       </c>
       <c r="D279" t="n">
-        <v>1.320078944659128</v>
+        <v>1.057333934102039</v>
       </c>
     </row>
     <row r="280">
@@ -4361,10 +4361,10 @@
         <v>1.004781864336738</v>
       </c>
       <c r="C280" t="n">
-        <v>1.149121888784552</v>
+        <v>1.008405800931448</v>
       </c>
       <c r="D280" t="n">
-        <v>1.315791185561489</v>
+        <v>1.043774554182171</v>
       </c>
     </row>
     <row r="281">
@@ -4375,10 +4375,10 @@
         <v>1.001475884054549</v>
       </c>
       <c r="C281" t="n">
-        <v>1.150439263367536</v>
+        <v>1.010859123629012</v>
       </c>
       <c r="D281" t="n">
-        <v>1.325084506186377</v>
+        <v>1.042968238354464</v>
       </c>
     </row>
     <row r="282">
@@ -4389,10 +4389,10 @@
         <v>0.9501994551879432</v>
       </c>
       <c r="C282" t="n">
-        <v>1.124149875064061</v>
+        <v>0.9987819455567974</v>
       </c>
       <c r="D282" t="n">
-        <v>1.296300591728579</v>
+        <v>1.028821166262654</v>
       </c>
     </row>
     <row r="283">
@@ -4403,10 +4403,10 @@
         <v>0.9717810968770293</v>
       </c>
       <c r="C283" t="n">
-        <v>1.151092346823926</v>
+        <v>1.006505888345781</v>
       </c>
       <c r="D283" t="n">
-        <v>1.325722371613126</v>
+        <v>1.039087172930973</v>
       </c>
     </row>
     <row r="284">
@@ -4417,10 +4417,10 @@
         <v>0.975500324694492</v>
       </c>
       <c r="C284" t="n">
-        <v>1.175765742465023</v>
+        <v>1.016908235243442</v>
       </c>
       <c r="D284" t="n">
-        <v>1.345107486208215</v>
+        <v>1.047708217092665</v>
       </c>
     </row>
     <row r="285">
@@ -4431,10 +4431,10 @@
         <v>0.9467248024423772</v>
       </c>
       <c r="C285" t="n">
-        <v>1.161604561234683</v>
+        <v>1.002060019254701</v>
       </c>
       <c r="D285" t="n">
-        <v>1.321510487551094</v>
+        <v>1.028961654464179</v>
       </c>
     </row>
     <row r="286">
@@ -4445,10 +4445,10 @@
         <v>0.9279937253843624</v>
       </c>
       <c r="C286" t="n">
-        <v>1.131772473340039</v>
+        <v>0.9909390069985899</v>
       </c>
       <c r="D286" t="n">
-        <v>1.31416677546153</v>
+        <v>1.018624086505738</v>
       </c>
     </row>
     <row r="287">
@@ -4459,10 +4459,10 @@
         <v>0.9305238123350172</v>
       </c>
       <c r="C287" t="n">
-        <v>1.126104089164234</v>
+        <v>0.9792964384406148</v>
       </c>
       <c r="D287" t="n">
-        <v>1.302560650677904</v>
+        <v>1.004666156629251</v>
       </c>
     </row>
     <row r="288">
@@ -4473,10 +4473,10 @@
         <v>0.940686328253481</v>
       </c>
       <c r="C288" t="n">
-        <v>1.122239933183405</v>
+        <v>0.9679868025266711</v>
       </c>
       <c r="D288" t="n">
-        <v>1.300330598912684</v>
+        <v>0.9984750593279321</v>
       </c>
     </row>
     <row r="289">
@@ -4487,10 +4487,10 @@
         <v>0.9376839584053706</v>
       </c>
       <c r="C289" t="n">
-        <v>1.117258386559218</v>
+        <v>0.9703810902812291</v>
       </c>
       <c r="D289" t="n">
-        <v>1.271641488745149</v>
+        <v>0.9740081717681632</v>
       </c>
     </row>
     <row r="290">
@@ -4501,10 +4501,10 @@
         <v>0.9503849948976579</v>
       </c>
       <c r="C290" t="n">
-        <v>1.128173276734229</v>
+        <v>0.9661000206004635</v>
       </c>
       <c r="D290" t="n">
-        <v>1.293677010215202</v>
+        <v>0.9792393512602423</v>
       </c>
     </row>
     <row r="291">
@@ -4515,10 +4515,10 @@
         <v>0.9715702562978081</v>
       </c>
       <c r="C291" t="n">
-        <v>1.124449474559612</v>
+        <v>0.9642608750063231</v>
       </c>
       <c r="D291" t="n">
-        <v>1.292008726068467</v>
+        <v>0.9784949869662264</v>
       </c>
     </row>
     <row r="292">
@@ -4529,10 +4529,10 @@
         <v>0.9328599259527885</v>
       </c>
       <c r="C292" t="n">
-        <v>1.112406743037844</v>
+        <v>0.9565378072243135</v>
       </c>
       <c r="D292" t="n">
-        <v>1.284758789775478</v>
+        <v>0.9690585665955319</v>
       </c>
     </row>
     <row r="293">
@@ -4543,10 +4543,10 @@
         <v>0.9389237010111914</v>
       </c>
       <c r="C293" t="n">
-        <v>1.128134399356823</v>
+        <v>0.9534163867844044</v>
       </c>
       <c r="D293" t="n">
-        <v>1.294439589177633</v>
+        <v>0.9654792566100344</v>
       </c>
     </row>
     <row r="294">
@@ -4557,10 +4557,10 @@
         <v>0.951110286490179</v>
       </c>
       <c r="C294" t="n">
-        <v>1.126955580102064</v>
+        <v>0.953997777249078</v>
       </c>
       <c r="D294" t="n">
-        <v>1.295173376237203</v>
+        <v>0.9677404707995557</v>
       </c>
     </row>
     <row r="295">
@@ -4571,10 +4571,10 @@
         <v>0.9697317264469989</v>
       </c>
       <c r="C295" t="n">
-        <v>1.129270116822438</v>
+        <v>0.9493495721915751</v>
       </c>
       <c r="D295" t="n">
-        <v>1.297655834017676</v>
+        <v>0.9741032243107</v>
       </c>
     </row>
     <row r="296">
@@ -4585,10 +4585,10 @@
         <v>0.9627824209558669</v>
       </c>
       <c r="C296" t="n">
-        <v>1.128501657639563</v>
+        <v>0.9485146547787802</v>
       </c>
       <c r="D296" t="n">
-        <v>1.296119685506121</v>
+        <v>0.9701389666568493</v>
       </c>
     </row>
     <row r="297">
@@ -4599,10 +4599,10 @@
         <v>0.9686100545655419</v>
       </c>
       <c r="C297" t="n">
-        <v>1.14015272679465</v>
+        <v>0.9564267219594373</v>
       </c>
       <c r="D297" t="n">
-        <v>1.315505316687955</v>
+        <v>0.9783519041363266</v>
       </c>
     </row>
     <row r="298">
@@ -4613,10 +4613,10 @@
         <v>0.9615932800890591</v>
       </c>
       <c r="C298" t="n">
-        <v>1.151651937404067</v>
+        <v>0.9550320294674455</v>
       </c>
       <c r="D298" t="n">
-        <v>1.32358931201502</v>
+        <v>0.9744560239291353</v>
       </c>
     </row>
     <row r="299">
@@ -4627,10 +4627,10 @@
         <v>0.9829303467062485</v>
       </c>
       <c r="C299" t="n">
-        <v>1.151014603023833</v>
+        <v>0.9579187560396076</v>
       </c>
       <c r="D299" t="n">
-        <v>1.327132567947463</v>
+        <v>0.9803873390720248</v>
       </c>
     </row>
     <row r="300">
@@ -4641,10 +4641,10 @@
         <v>0.9684751165948403</v>
       </c>
       <c r="C300" t="n">
-        <v>1.147181563256173</v>
+        <v>0.9547059312619354</v>
       </c>
       <c r="D300" t="n">
-        <v>1.323727951940768</v>
+        <v>0.9765993919288086</v>
       </c>
     </row>
     <row r="301">
@@ -4655,10 +4655,10 @@
         <v>0.9801725519300346</v>
       </c>
       <c r="C301" t="n">
-        <v>1.147200411733182</v>
+        <v>0.9811976764615794</v>
       </c>
       <c r="D301" t="n">
-        <v>1.324320084266556</v>
+        <v>0.9931666072286327</v>
       </c>
     </row>
     <row r="302">
@@ -4669,10 +4669,10 @@
         <v>0.9696895583311547</v>
       </c>
       <c r="C302" t="n">
-        <v>1.149837556030063</v>
+        <v>0.9812246670926184</v>
       </c>
       <c r="D302" t="n">
-        <v>1.330878599250904</v>
+        <v>0.9980709755334187</v>
       </c>
     </row>
     <row r="303">
@@ -4683,10 +4683,10 @@
         <v>0.9552090273502399</v>
       </c>
       <c r="C303" t="n">
-        <v>1.150428241626504</v>
+        <v>0.9823216906390553</v>
       </c>
       <c r="D303" t="n">
-        <v>1.330192084059272</v>
+        <v>0.9966162984354692</v>
       </c>
     </row>
     <row r="304">
@@ -4697,10 +4697,10 @@
         <v>0.9451055467939582</v>
       </c>
       <c r="C304" t="n">
-        <v>1.136387314033468</v>
+        <v>0.9732726586548827</v>
       </c>
       <c r="D304" t="n">
-        <v>1.323016888128969</v>
+        <v>0.9886036699925655</v>
       </c>
     </row>
     <row r="305">
@@ -4711,10 +4711,10 @@
         <v>0.9593246354566385</v>
       </c>
       <c r="C305" t="n">
-        <v>1.147509350417896</v>
+        <v>0.9848986383153366</v>
       </c>
       <c r="D305" t="n">
-        <v>1.343910350142888</v>
+        <v>1.002054572520203</v>
       </c>
     </row>
     <row r="306">
@@ -4725,10 +4725,10 @@
         <v>0.9680197009437225</v>
       </c>
       <c r="C306" t="n">
-        <v>1.171719791904452</v>
+        <v>0.991931804610542</v>
       </c>
       <c r="D306" t="n">
-        <v>1.368178024138657</v>
+        <v>1.007064027367818</v>
       </c>
     </row>
     <row r="307">
@@ -4739,10 +4739,10 @@
         <v>0.9734003525254484</v>
       </c>
       <c r="C307" t="n">
-        <v>1.202299517851646</v>
+        <v>0.9960853316864973</v>
       </c>
       <c r="D307" t="n">
-        <v>1.429742116723344</v>
+        <v>1.007684153608948</v>
       </c>
     </row>
     <row r="308">
@@ -4753,10 +4753,10 @@
         <v>0.9854688672800722</v>
       </c>
       <c r="C308" t="n">
-        <v>1.208480972357903</v>
+        <v>0.9994219925011235</v>
       </c>
       <c r="D308" t="n">
-        <v>1.467051325123698</v>
+        <v>1.01047475084082</v>
       </c>
     </row>
     <row r="309">
@@ -4767,10 +4767,10 @@
         <v>0.9836472046756007</v>
       </c>
       <c r="C309" t="n">
-        <v>1.220025283679549</v>
+        <v>1.009196859345058</v>
       </c>
       <c r="D309" t="n">
-        <v>1.470403044481859</v>
+        <v>1.015649305865533</v>
       </c>
     </row>
     <row r="310">
@@ -4781,10 +4781,10 @@
         <v>0.9720003710794194</v>
       </c>
       <c r="C310" t="n">
-        <v>1.219546560883984</v>
+        <v>0.9975479765678238</v>
       </c>
       <c r="D310" t="n">
-        <v>1.470213042491245</v>
+        <v>1.01386172786218</v>
       </c>
     </row>
     <row r="311">
@@ -4795,10 +4795,10 @@
         <v>0.9911025275568637</v>
       </c>
       <c r="C311" t="n">
-        <v>1.229298562065205</v>
+        <v>0.9976676824528206</v>
       </c>
       <c r="D311" t="n">
-        <v>1.475293871188058</v>
+        <v>1.01650803879762</v>
       </c>
     </row>
     <row r="312">
@@ -4809,10 +4809,10 @@
         <v>0.9909422887166556</v>
       </c>
       <c r="C312" t="n">
-        <v>1.232909757587879</v>
+        <v>1.010999125467097</v>
       </c>
       <c r="D312" t="n">
-        <v>1.478792512625656</v>
+        <v>1.030426779905888</v>
       </c>
     </row>
     <row r="313">
@@ -4823,10 +4823,10 @@
         <v>0.9919964916127617</v>
       </c>
       <c r="C313" t="n">
-        <v>1.240808563855792</v>
+        <v>1.010455574544856</v>
       </c>
       <c r="D313" t="n">
-        <v>1.511593326438946</v>
+        <v>1.029937241864916</v>
       </c>
     </row>
     <row r="314">
@@ -4837,10 +4837,10 @@
         <v>0.9978072579760991</v>
       </c>
       <c r="C314" t="n">
-        <v>1.232800836181654</v>
+        <v>1.011873829563559</v>
       </c>
       <c r="D314" t="n">
-        <v>1.47542070108181</v>
+        <v>1.027201339176102</v>
       </c>
     </row>
     <row r="315">
@@ -4851,10 +4851,10 @@
         <v>0.9923844382785288</v>
       </c>
       <c r="C315" t="n">
-        <v>1.222348185912243</v>
+        <v>1.017852321149449</v>
       </c>
       <c r="D315" t="n">
-        <v>1.468522046187409</v>
+        <v>1.030243052216732</v>
       </c>
     </row>
     <row r="316">
@@ -4865,10 +4865,10 @@
         <v>1.002015635937355</v>
       </c>
       <c r="C316" t="n">
-        <v>1.271929010573327</v>
+        <v>1.014188571336014</v>
       </c>
       <c r="D316" t="n">
-        <v>1.593878202070173</v>
+        <v>1.027576330316477</v>
       </c>
     </row>
     <row r="317">
@@ -4879,10 +4879,10 @@
         <v>1.006105943174247</v>
       </c>
       <c r="C317" t="n">
-        <v>1.278765843070499</v>
+        <v>1.014488382971803</v>
       </c>
       <c r="D317" t="n">
-        <v>1.61670385418953</v>
+        <v>1.027969340780677</v>
       </c>
     </row>
     <row r="318">
@@ -4893,10 +4893,10 @@
         <v>1.014522699096759</v>
       </c>
       <c r="C318" t="n">
-        <v>1.263764875435328</v>
+        <v>1.000240956374469</v>
       </c>
       <c r="D318" t="n">
-        <v>1.576777838012236</v>
+        <v>1.014714679748002</v>
       </c>
     </row>
     <row r="319">
@@ -4907,10 +4907,10 @@
         <v>1.017946750103312</v>
       </c>
       <c r="C319" t="n">
-        <v>1.278462537964935</v>
+        <v>1.005112458660687</v>
       </c>
       <c r="D319" t="n">
-        <v>1.616813808295985</v>
+        <v>1.013221005501225</v>
       </c>
     </row>
     <row r="320">
@@ -4921,10 +4921,10 @@
         <v>1.021429836472047</v>
       </c>
       <c r="C320" t="n">
-        <v>1.284979896666039</v>
+        <v>1.018697034622009</v>
       </c>
       <c r="D320" t="n">
-        <v>1.614913676826917</v>
+        <v>1.023553466919978</v>
       </c>
     </row>
     <row r="321">
@@ -4935,10 +4935,10 @@
         <v>1.019911784301654</v>
       </c>
       <c r="C321" t="n">
-        <v>1.276605026199984</v>
+        <v>1.023040474794212</v>
       </c>
       <c r="D321" t="n">
-        <v>1.589330182544662</v>
+        <v>1.026660228847182</v>
       </c>
     </row>
     <row r="322">
@@ -4949,10 +4949,10 @@
         <v>1.012557664898417</v>
       </c>
       <c r="C322" t="n">
-        <v>1.279343276706124</v>
+        <v>1.020822335127674</v>
       </c>
       <c r="D322" t="n">
-        <v>1.590135711281304</v>
+        <v>1.026389164927324</v>
       </c>
     </row>
     <row r="323">
@@ -4963,10 +4963,10 @@
         <v>1.006730031288742</v>
       </c>
       <c r="C323" t="n">
-        <v>1.271549518208994</v>
+        <v>1.024210092555063</v>
       </c>
       <c r="D323" t="n">
-        <v>1.573732258027526</v>
+        <v>1.016679038947285</v>
       </c>
     </row>
     <row r="324">
@@ -4977,10 +4977,10 @@
         <v>1.016504600541439</v>
       </c>
       <c r="C324" t="n">
-        <v>1.275895328432967</v>
+        <v>1.032256982143513</v>
       </c>
       <c r="D324" t="n">
-        <v>1.580599911229176</v>
+        <v>1.028966646581736</v>
       </c>
     </row>
     <row r="325">
@@ -4991,10 +4991,10 @@
         <v>1.017052786047414</v>
       </c>
       <c r="C325" t="n">
-        <v>1.24985738295437</v>
+        <v>1.044859237137983</v>
       </c>
       <c r="D325" t="n">
-        <v>1.557786085473353</v>
+        <v>1.039128716812437</v>
       </c>
     </row>
     <row r="326">
@@ -5005,10 +5005,10 @@
         <v>1.006873402882612</v>
       </c>
       <c r="C326" t="n">
-        <v>1.254175559507446</v>
+        <v>1.047921562678342</v>
       </c>
       <c r="D326" t="n">
-        <v>1.559945877024675</v>
+        <v>1.040422091257389</v>
       </c>
     </row>
     <row r="327">
@@ -5019,10 +5019,10 @@
         <v>1.020915385458747</v>
       </c>
       <c r="C327" t="n">
-        <v>1.259204380588609</v>
+        <v>1.047962427848544</v>
       </c>
       <c r="D327" t="n">
-        <v>1.5619776692516</v>
+        <v>1.041955436079137</v>
       </c>
     </row>
     <row r="328">
@@ -5033,10 +5033,10 @@
         <v>1.012591399391092</v>
       </c>
       <c r="C328" t="n">
-        <v>1.281414441784336</v>
+        <v>1.040174758609062</v>
       </c>
       <c r="D328" t="n">
-        <v>1.576010945266563</v>
+        <v>1.043103237200836</v>
       </c>
     </row>
     <row r="329">
@@ -5047,10 +5047,10 @@
         <v>1.002707193037201</v>
       </c>
       <c r="C329" t="n">
-        <v>1.287433738832173</v>
+        <v>1.042618178906266</v>
       </c>
       <c r="D329" t="n">
-        <v>1.583161255304624</v>
+        <v>1.046514728428728</v>
       </c>
     </row>
     <row r="330">
@@ -5061,10 +5061,10 @@
         <v>1.005363784335388</v>
       </c>
       <c r="C330" t="n">
-        <v>1.295076123110275</v>
+        <v>1.040642764464188</v>
       </c>
       <c r="D330" t="n">
-        <v>1.62045805981391</v>
+        <v>1.039486846327943</v>
       </c>
     </row>
     <row r="331">
@@ -5075,10 +5075,10 @@
         <v>0.9927386504516206</v>
       </c>
       <c r="C331" t="n">
-        <v>1.279144056037702</v>
+        <v>1.040133772947813</v>
       </c>
       <c r="D331" t="n">
-        <v>1.618602883645292</v>
+        <v>1.037923096044121</v>
       </c>
     </row>
     <row r="332">
@@ -5089,10 +5089,10 @@
         <v>1.00835772056033</v>
       </c>
       <c r="C332" t="n">
-        <v>1.287713412317221</v>
+        <v>1.036728698662719</v>
       </c>
       <c r="D332" t="n">
-        <v>1.659274617608649</v>
+        <v>1.038207464152928</v>
       </c>
     </row>
     <row r="333">
@@ -5103,10 +5103,10 @@
         <v>1.011368524031609</v>
       </c>
       <c r="C333" t="n">
-        <v>1.292682064679838</v>
+        <v>1.044060644558175</v>
       </c>
       <c r="D333" t="n">
-        <v>1.685888940971003</v>
+        <v>1.046160864993458</v>
       </c>
     </row>
     <row r="334">
@@ -5117,10 +5117,10 @@
         <v>1.029222504280064</v>
       </c>
       <c r="C334" t="n">
-        <v>1.298418128407616</v>
+        <v>1.049570988054005</v>
       </c>
       <c r="D334" t="n">
-        <v>1.667648541038056</v>
+        <v>1.055626510746719</v>
       </c>
     </row>
     <row r="335">
@@ -5131,10 +5131,10 @@
         <v>1.028134566891282</v>
       </c>
       <c r="C335" t="n">
-        <v>1.284978467008972</v>
+        <v>1.05025906970485</v>
       </c>
       <c r="D335" t="n">
-        <v>1.651547790209835</v>
+        <v>1.053966986863106</v>
       </c>
     </row>
     <row r="336">
@@ -5145,10 +5145,10 @@
         <v>1.037032039334419</v>
       </c>
       <c r="C336" t="n">
-        <v>1.289300532979497</v>
+        <v>1.076347239902313</v>
       </c>
       <c r="D336" t="n">
-        <v>1.643620889305813</v>
+        <v>1.086213567542708</v>
       </c>
     </row>
     <row r="337">
@@ -5159,10 +5159,10 @@
         <v>1.009589029542982</v>
       </c>
       <c r="C337" t="n">
-        <v>1.271705670481977</v>
+        <v>1.066553306884985</v>
       </c>
       <c r="D337" t="n">
-        <v>1.638708713211408</v>
+        <v>1.069179240811304</v>
       </c>
     </row>
     <row r="338">
@@ -5173,10 +5173,10 @@
         <v>1.017988918219156</v>
       </c>
       <c r="C338" t="n">
-        <v>1.274090884627166</v>
+        <v>1.070292891030676</v>
       </c>
       <c r="D338" t="n">
-        <v>1.643113080767532</v>
+        <v>1.076482575661064</v>
       </c>
     </row>
     <row r="339">
@@ -5187,10 +5187,10 @@
         <v>1.027898425442554</v>
       </c>
       <c r="C339" t="n">
-        <v>1.296955895324986</v>
+        <v>1.07687600179631</v>
       </c>
       <c r="D339" t="n">
-        <v>1.675627897591333</v>
+        <v>1.087442231324921</v>
       </c>
     </row>
     <row r="340">
@@ -5201,10 +5201,10 @@
         <v>1.036812765132028</v>
       </c>
       <c r="C340" t="n">
-        <v>1.300096192881762</v>
+        <v>1.086267002370352</v>
       </c>
       <c r="D340" t="n">
-        <v>1.675329357533106</v>
+        <v>1.090826897238654</v>
       </c>
     </row>
     <row r="341">
@@ -5215,10 +5215,10 @@
         <v>1.03716697730512</v>
       </c>
       <c r="C341" t="n">
-        <v>1.296014640235762</v>
+        <v>1.080763848293841</v>
       </c>
       <c r="D341" t="n">
-        <v>1.658034494243587</v>
+        <v>1.083664618439785</v>
       </c>
     </row>
     <row r="342">
@@ -5229,10 +5229,10 @@
         <v>1.034265810935036</v>
       </c>
       <c r="C342" t="n">
-        <v>1.29351364930198</v>
+        <v>1.085697262349861</v>
       </c>
       <c r="D342" t="n">
-        <v>1.647586336912484</v>
+        <v>1.089680912964425</v>
       </c>
     </row>
     <row r="343">
@@ -5243,10 +5243,10 @@
         <v>1.034813996441011</v>
       </c>
       <c r="C343" t="n">
-        <v>1.303424127038899</v>
+        <v>1.076225992076485</v>
       </c>
       <c r="D343" t="n">
-        <v>1.646081631475672</v>
+        <v>1.083262103816577</v>
       </c>
     </row>
     <row r="344">
@@ -5257,10 +5257,10 @@
         <v>1.033894731515606</v>
       </c>
       <c r="C344" t="n">
-        <v>1.308172121043968</v>
+        <v>1.086602464316697</v>
       </c>
       <c r="D344" t="n">
-        <v>1.648052904277437</v>
+        <v>1.090414916565676</v>
       </c>
     </row>
     <row r="345">
@@ -5271,10 +5271,10 @@
         <v>1.04603914887875</v>
       </c>
       <c r="C345" t="n">
-        <v>1.322656505089737</v>
+        <v>1.101616567602836</v>
       </c>
       <c r="D345" t="n">
-        <v>1.68378825372553</v>
+        <v>1.10707343734702</v>
       </c>
     </row>
     <row r="346">
@@ -5285,10 +5285,10 @@
         <v>1.037234446290471</v>
       </c>
       <c r="C346" t="n">
-        <v>1.327397293121933</v>
+        <v>1.103482622600754</v>
       </c>
       <c r="D346" t="n">
-        <v>1.689411532225275</v>
+        <v>1.110489868774922</v>
       </c>
     </row>
     <row r="347">
@@ -5299,10 +5299,10 @@
         <v>1.045676503082489</v>
       </c>
       <c r="C347" t="n">
-        <v>1.328885881334628</v>
+        <v>1.102461094519604</v>
       </c>
       <c r="D347" t="n">
-        <v>1.690951228653731</v>
+        <v>1.10930924964809</v>
       </c>
     </row>
     <row r="348">
@@ -5313,10 +5313,10 @@
         <v>1.048864412640314</v>
       </c>
       <c r="C348" t="n">
-        <v>1.309369488617961</v>
+        <v>1.090808289847764</v>
       </c>
       <c r="D348" t="n">
-        <v>1.679884440437499</v>
+        <v>1.099665415641502</v>
       </c>
     </row>
     <row r="349">
@@ -5327,10 +5327,10 @@
         <v>1.058934158703921</v>
       </c>
       <c r="C349" t="n">
-        <v>1.313096606132638</v>
+        <v>1.095004382691113</v>
       </c>
       <c r="D349" t="n">
-        <v>1.687410439077137</v>
+        <v>1.10010452676849</v>
       </c>
     </row>
     <row r="350">
@@ -5341,10 +5341,10 @@
         <v>1.064458181879517</v>
       </c>
       <c r="C350" t="n">
-        <v>1.323208910978577</v>
+        <v>1.094702561808196</v>
       </c>
       <c r="D350" t="n">
-        <v>1.693596488906057</v>
+        <v>1.101327053550468</v>
       </c>
     </row>
     <row r="351">
@@ -5355,10 +5355,10 @@
         <v>1.081755542998828</v>
       </c>
       <c r="C351" t="n">
-        <v>1.329931988780437</v>
+        <v>1.145061901300548</v>
       </c>
       <c r="D351" t="n">
-        <v>1.688473554451133</v>
+        <v>1.132891537635335</v>
       </c>
     </row>
     <row r="352">
@@ -5369,10 +5369,10 @@
         <v>1.093005996306073</v>
       </c>
       <c r="C352" t="n">
-        <v>1.332746750836722</v>
+        <v>1.148928644055172</v>
       </c>
       <c r="D352" t="n">
-        <v>1.698075730884297</v>
+        <v>1.135042635859149</v>
       </c>
     </row>
     <row r="353">
@@ -5383,10 +5383,10 @@
         <v>1.097433648469719</v>
       </c>
       <c r="C353" t="n">
-        <v>1.339796709305066</v>
+        <v>1.204706456026833</v>
       </c>
       <c r="D353" t="n">
-        <v>1.700224237995959</v>
+        <v>1.169196486865836</v>
       </c>
     </row>
     <row r="354">
@@ -5397,10 +5397,10 @@
         <v>1.102915503529471</v>
       </c>
       <c r="C354" t="n">
-        <v>1.345396677870672</v>
+        <v>1.278812155652232</v>
       </c>
       <c r="D354" t="n">
-        <v>1.701101133395919</v>
+        <v>1.221489457060196</v>
       </c>
     </row>
     <row r="355">
@@ -5411,10 +5411,10 @@
         <v>1.094574650215479</v>
       </c>
       <c r="C355" t="n">
-        <v>1.340597467642143</v>
+        <v>1.271277347825306</v>
       </c>
       <c r="D355" t="n">
-        <v>1.704532291439522</v>
+        <v>1.217580968470691</v>
       </c>
     </row>
     <row r="356">
@@ -5425,10 +5425,10 @@
         <v>1.095586684995741</v>
       </c>
       <c r="C356" t="n">
-        <v>1.337395088062974</v>
+        <v>1.272491879778067</v>
       </c>
       <c r="D356" t="n">
-        <v>1.697890585020413</v>
+        <v>1.215105574120291</v>
       </c>
     </row>
     <row r="357">
@@ -5439,10 +5439,10 @@
         <v>1.097011967311277</v>
       </c>
       <c r="C357" t="n">
-        <v>1.346676550894609</v>
+        <v>1.277523504921555</v>
       </c>
       <c r="D357" t="n">
-        <v>1.717060317873207</v>
+        <v>1.222388525961243</v>
       </c>
     </row>
     <row r="358">
@@ -5453,10 +5453,10 @@
         <v>1.091656616599057</v>
       </c>
       <c r="C358" t="n">
-        <v>1.336828450673551</v>
+        <v>1.273749968620466</v>
       </c>
       <c r="D358" t="n">
-        <v>1.705028645870674</v>
+        <v>1.219440325649052</v>
       </c>
     </row>
     <row r="359">
@@ -5467,10 +5467,10 @@
         <v>1.098125205569565</v>
       </c>
       <c r="C359" t="n">
-        <v>1.357481191407732</v>
+        <v>1.278830343420865</v>
       </c>
       <c r="D359" t="n">
-        <v>1.724154960012414</v>
+        <v>1.223699591562407</v>
       </c>
     </row>
     <row r="360">
@@ -5481,10 +5481,10 @@
         <v>1.097138471658809</v>
       </c>
       <c r="C360" t="n">
-        <v>1.347970993198624</v>
+        <v>1.275853933471854</v>
       </c>
       <c r="D360" t="n">
-        <v>1.705419465443534</v>
+        <v>1.221352613103081</v>
       </c>
     </row>
     <row r="361">
@@ -5495,10 +5495,10 @@
         <v>1.090121697182326</v>
       </c>
       <c r="C361" t="n">
-        <v>1.350927974195222</v>
+        <v>1.272245323706195</v>
       </c>
       <c r="D361" t="n">
-        <v>1.720102763505777</v>
+        <v>1.218024493408952</v>
       </c>
     </row>
     <row r="362">
@@ -5509,10 +5509,10 @@
         <v>1.079984482133369</v>
       </c>
       <c r="C362" t="n">
-        <v>1.342002547020873</v>
+        <v>1.269213801370793</v>
       </c>
       <c r="D362" t="n">
-        <v>1.707140313155664</v>
+        <v>1.209829666824077</v>
       </c>
     </row>
     <row r="363">
@@ -5523,10 +5523,10 @@
         <v>1.082919382996129</v>
       </c>
       <c r="C363" t="n">
-        <v>1.347676561414101</v>
+        <v>1.269412203796044</v>
       </c>
       <c r="D363" t="n">
-        <v>1.71661524586991</v>
+        <v>1.215771975843872</v>
       </c>
     </row>
     <row r="364">
@@ -5537,10 +5537,10 @@
         <v>1.09017229892134</v>
       </c>
       <c r="C364" t="n">
-        <v>1.343911614532767</v>
+        <v>1.44954241510075</v>
       </c>
       <c r="D364" t="n">
-        <v>1.695970159699291</v>
+        <v>1.316858811515424</v>
       </c>
     </row>
     <row r="365">
@@ -5551,10 +5551,10 @@
         <v>1.085972354583252</v>
       </c>
       <c r="C365" t="n">
-        <v>1.345912044701769</v>
+        <v>1.449988481892515</v>
       </c>
       <c r="D365" t="n">
-        <v>1.714272098097417</v>
+        <v>1.316290230594579</v>
       </c>
     </row>
     <row r="366">
@@ -5565,10 +5565,10 @@
         <v>1.083113356329013</v>
       </c>
       <c r="C366" t="n">
-        <v>1.345047066134188</v>
+        <v>1.444092725740221</v>
       </c>
       <c r="D366" t="n">
-        <v>1.704981889072685</v>
+        <v>1.311293420835531</v>
       </c>
     </row>
     <row r="367">
@@ -5579,10 +5579,10 @@
         <v>1.092272271090383</v>
       </c>
       <c r="C367" t="n">
-        <v>1.332818373843847</v>
+        <v>1.441413353522452</v>
       </c>
       <c r="D367" t="n">
-        <v>1.69250230351341</v>
+        <v>1.309314350686211</v>
       </c>
     </row>
     <row r="368">
@@ -5593,10 +5593,10 @@
         <v>1.073229149975121</v>
       </c>
       <c r="C368" t="n">
-        <v>1.335064698717399</v>
+        <v>1.207617774227193</v>
       </c>
       <c r="D368" t="n">
-        <v>1.702904652620577</v>
+        <v>1.178034416739618</v>
       </c>
     </row>
     <row r="369">
@@ -5607,10 +5607,10 @@
         <v>1.074688166783332</v>
       </c>
       <c r="C369" t="n">
-        <v>1.325351565322811</v>
+        <v>1.478266228917303</v>
       </c>
       <c r="D369" t="n">
-        <v>1.697327140039599</v>
+        <v>1.367149554654266</v>
       </c>
     </row>
     <row r="370">
@@ -5621,10 +5621,10 @@
         <v>1.073827937220109</v>
       </c>
       <c r="C370" t="n">
-        <v>1.325750730182994</v>
+        <v>1.556540824732059</v>
       </c>
       <c r="D370" t="n">
-        <v>1.694311782117791</v>
+        <v>1.433036065967997</v>
       </c>
     </row>
     <row r="371">
@@ -5635,10 +5635,10 @@
         <v>1.069400285056463</v>
       </c>
       <c r="C371" t="n">
-        <v>1.32519859522179</v>
+        <v>1.557237023798999</v>
       </c>
       <c r="D371" t="n">
-        <v>1.67750357930476</v>
+        <v>1.425004850449766</v>
       </c>
     </row>
     <row r="372">
@@ -5649,10 +5649,10 @@
         <v>1.05981968913665</v>
       </c>
       <c r="C372" t="n">
-        <v>1.309776298733406</v>
+        <v>1.538890260488481</v>
       </c>
       <c r="D372" t="n">
-        <v>1.665663344290333</v>
+        <v>1.412582870167863</v>
       </c>
     </row>
     <row r="373">
@@ -5663,10 +5663,10 @@
         <v>1.07631585605492</v>
       </c>
       <c r="C373" t="n">
-        <v>1.32725686919641</v>
+        <v>1.53289610290147</v>
       </c>
       <c r="D373" t="n">
-        <v>1.671919552736756</v>
+        <v>1.410488888937341</v>
       </c>
     </row>
     <row r="374">
@@ -5677,10 +5677,10 @@
         <v>1.070395452590387</v>
       </c>
       <c r="C374" t="n">
-        <v>1.327131496117298</v>
+        <v>1.544277690927805</v>
       </c>
       <c r="D374" t="n">
-        <v>1.645535434410896</v>
+        <v>1.4171186769337</v>
       </c>
     </row>
     <row r="375">
@@ -5691,10 +5691,10 @@
         <v>1.055004090307237</v>
       </c>
       <c r="C375" t="n">
-        <v>1.323843287396488</v>
+        <v>1.524570777571508</v>
       </c>
       <c r="D375" t="n">
-        <v>1.645566658216488</v>
+        <v>1.396608574172201</v>
       </c>
     </row>
     <row r="376">
@@ -5705,10 +5705,10 @@
         <v>1.071230381284104</v>
       </c>
       <c r="C376" t="n">
-        <v>1.310208912488716</v>
+        <v>1.511385730645342</v>
       </c>
       <c r="D376" t="n">
-        <v>1.631617788083132</v>
+        <v>1.387756162711906</v>
       </c>
     </row>
     <row r="377">
@@ -5719,10 +5719,10 @@
         <v>1.057812486822464</v>
       </c>
       <c r="C377" t="n">
-        <v>1.300385731765621</v>
+        <v>1.513633084596493</v>
       </c>
       <c r="D377" t="n">
-        <v>1.600068960971077</v>
+        <v>1.387225806360875</v>
       </c>
     </row>
     <row r="378">
@@ -5733,10 +5733,10 @@
         <v>1.076079714606192</v>
       </c>
       <c r="C378" t="n">
-        <v>1.317862194969063</v>
+        <v>1.488809294709292</v>
       </c>
       <c r="D378" t="n">
-        <v>1.635007543479157</v>
+        <v>1.380473080953669</v>
       </c>
     </row>
     <row r="379">
@@ -5747,10 +5747,10 @@
         <v>1.080920614305112</v>
       </c>
       <c r="C379" t="n">
-        <v>1.315071127321902</v>
+        <v>1.474603276289521</v>
       </c>
       <c r="D379" t="n">
-        <v>1.633737656141264</v>
+        <v>1.372814525269577</v>
       </c>
     </row>
     <row r="380">
@@ -5761,10 +5761,10 @@
         <v>1.082936250242467</v>
       </c>
       <c r="C380" t="n">
-        <v>1.325320184774942</v>
+        <v>1.482671134748502</v>
       </c>
       <c r="D380" t="n">
-        <v>1.657319886473212</v>
+        <v>1.380088445640139</v>
       </c>
     </row>
     <row r="381">
@@ -5775,10 +5775,10 @@
         <v>1.075017078086917</v>
       </c>
       <c r="C381" t="n">
-        <v>1.322348239027896</v>
+        <v>1.476964218374627</v>
       </c>
       <c r="D381" t="n">
-        <v>1.652452153829424</v>
+        <v>1.374724128829462</v>
       </c>
     </row>
     <row r="382">
@@ -5789,10 +5789,10 @@
         <v>1.062299174348292</v>
       </c>
       <c r="C382" t="n">
-        <v>1.330229431408805</v>
+        <v>1.475967819303189</v>
       </c>
       <c r="D382" t="n">
-        <v>1.661660805506626</v>
+        <v>1.37284397489469</v>
       </c>
     </row>
     <row r="383">
@@ -5803,10 +5803,10 @@
         <v>1.049100554089042</v>
       </c>
       <c r="C383" t="n">
-        <v>1.321188795098939</v>
+        <v>1.468649596777307</v>
       </c>
       <c r="D383" t="n">
-        <v>1.656079205659659</v>
+        <v>1.350210107259997</v>
       </c>
     </row>
     <row r="384">
@@ -5817,10 +5817,10 @@
         <v>1.057584778996905</v>
       </c>
       <c r="C384" t="n">
-        <v>1.325891428144967</v>
+        <v>1.467799702482757</v>
       </c>
       <c r="D384" t="n">
-        <v>1.659628842058303</v>
+        <v>1.349352078250524</v>
       </c>
     </row>
     <row r="385">
@@ -5831,10 +5831,10 @@
         <v>1.062037732030057</v>
       </c>
       <c r="C385" t="n">
-        <v>1.329178881933154</v>
+        <v>1.466066343518236</v>
       </c>
       <c r="D385" t="n">
-        <v>1.658608301592673</v>
+        <v>1.346813438242498</v>
       </c>
     </row>
     <row r="386">
@@ -5845,10 +5845,10 @@
         <v>1.063876261880867</v>
       </c>
       <c r="C386" t="n">
-        <v>1.328614771487087</v>
+        <v>1.468467939981896</v>
       </c>
       <c r="D386" t="n">
-        <v>1.655961982719768</v>
+        <v>1.347243709221863</v>
       </c>
     </row>
     <row r="387">
@@ -5859,10 +5859,10 @@
         <v>1.054649878134145</v>
       </c>
       <c r="C387" t="n">
-        <v>1.323736091349317</v>
+        <v>1.464866046840432</v>
       </c>
       <c r="D387" t="n">
-        <v>1.656333088628101</v>
+        <v>1.343886304051753</v>
       </c>
     </row>
     <row r="388">
@@ -5873,10 +5873,10 @@
         <v>1.062670253767721</v>
       </c>
       <c r="C388" t="n">
-        <v>1.317035591202118</v>
+        <v>1.460274107374563</v>
       </c>
       <c r="D388" t="n">
-        <v>1.655171767759729</v>
+        <v>1.342738901988153</v>
       </c>
     </row>
     <row r="389">
@@ -5887,10 +5887,10 @@
         <v>1.050930650316683</v>
       </c>
       <c r="C389" t="n">
-        <v>1.313452591679071</v>
+        <v>1.459374690515489</v>
       </c>
       <c r="D389" t="n">
-        <v>1.642498790670972</v>
+        <v>1.338075669567839</v>
       </c>
     </row>
     <row r="390">
@@ -5901,10 +5901,10 @@
         <v>1.065048535501337</v>
       </c>
       <c r="C390" t="n">
-        <v>1.314319273794991</v>
+        <v>1.464751001592296</v>
       </c>
       <c r="D390" t="n">
-        <v>1.629146105930549</v>
+        <v>1.344753519424162</v>
       </c>
     </row>
     <row r="391">
@@ -5915,10 +5915,10 @@
         <v>1.05989559174517</v>
       </c>
       <c r="C391" t="n">
-        <v>1.300154635250661</v>
+        <v>1.423785386402751</v>
       </c>
       <c r="D391" t="n">
-        <v>1.618413186051948</v>
+        <v>1.319138054600653</v>
       </c>
     </row>
     <row r="392">
@@ -5929,10 +5929,10 @@
         <v>1.027223735589046</v>
       </c>
       <c r="C392" t="n">
-        <v>1.287105189246273</v>
+        <v>1.41494994389443</v>
       </c>
       <c r="D392" t="n">
-        <v>1.61022622356109</v>
+        <v>1.305367092175522</v>
       </c>
     </row>
     <row r="393">
@@ -5943,10 +5943,10 @@
         <v>1.033253776154774</v>
       </c>
       <c r="C393" t="n">
-        <v>1.303915796140219</v>
+        <v>1.43227550873456</v>
       </c>
       <c r="D393" t="n">
-        <v>1.617363035343531</v>
+        <v>1.312111530346543</v>
       </c>
     </row>
     <row r="394">
@@ -5957,10 +5957,10 @@
         <v>1.042201850336923</v>
       </c>
       <c r="C394" t="n">
-        <v>1.307941240833107</v>
+        <v>1.429700119493087</v>
       </c>
       <c r="D394" t="n">
-        <v>1.629704657991262</v>
+        <v>1.308302521322254</v>
       </c>
     </row>
     <row r="395">
@@ -5971,10 +5971,10 @@
         <v>1.027223735589046</v>
       </c>
       <c r="C395" t="n">
-        <v>1.294214726875705</v>
+        <v>1.424760188452689</v>
       </c>
       <c r="D395" t="n">
-        <v>1.617603432789027</v>
+        <v>1.303678718075442</v>
       </c>
     </row>
     <row r="396">
@@ -5985,10 +5985,10 @@
         <v>1.02580688689668</v>
       </c>
       <c r="C396" t="n">
-        <v>1.288229185349925</v>
+        <v>1.428011094655511</v>
       </c>
       <c r="D396" t="n">
-        <v>1.613460674630368</v>
+        <v>1.307207049441097</v>
       </c>
     </row>
     <row r="397">
@@ -5999,10 +5999,10 @@
         <v>1.035733261366416</v>
       </c>
       <c r="C397" t="n">
-        <v>1.281158301400425</v>
+        <v>1.436948692666721</v>
       </c>
       <c r="D397" t="n">
-        <v>1.605492387157677</v>
+        <v>1.319044115142517</v>
       </c>
     </row>
     <row r="398">
@@ -6013,10 +6013,10 @@
         <v>1.037495888608705</v>
       </c>
       <c r="C398" t="n">
-        <v>1.274808527069621</v>
+        <v>1.43374223708537</v>
       </c>
       <c r="D398" t="n">
-        <v>1.596249716288745</v>
+        <v>1.313617035555118</v>
       </c>
     </row>
     <row r="399">
@@ -6027,10 +6027,10 @@
         <v>1.030605618479755</v>
       </c>
       <c r="C399" t="n">
-        <v>1.271721710516102</v>
+        <v>1.431113318470922</v>
       </c>
       <c r="D399" t="n">
-        <v>1.597447980652263</v>
+        <v>1.311475735049812</v>
       </c>
     </row>
     <row r="400">
@@ -6041,10 +6041,10 @@
         <v>1.029374309497103</v>
       </c>
       <c r="C400" t="n">
-        <v>1.267621821445927</v>
+        <v>1.205141062870353</v>
       </c>
       <c r="D400" t="n">
-        <v>1.59273018652397</v>
+        <v>1.186286352066388</v>
       </c>
     </row>
     <row r="401">
@@ -6055,10 +6055,10 @@
         <v>1.017946750103312</v>
       </c>
       <c r="C401" t="n">
-        <v>1.269086304325674</v>
+        <v>1.165415298569403</v>
       </c>
       <c r="D401" t="n">
-        <v>1.59352088232042</v>
+        <v>1.149040334465359</v>
       </c>
     </row>
     <row r="402">
@@ -6069,10 +6069,10 @@
         <v>1.022104526325555</v>
       </c>
       <c r="C402" t="n">
-        <v>1.269969825815237</v>
+        <v>1.193040029305202</v>
       </c>
       <c r="D402" t="n">
-        <v>1.594345630406418</v>
+        <v>1.177437104937656</v>
       </c>
     </row>
     <row r="403">
@@ -6083,10 +6083,10 @@
         <v>1.005119209263492</v>
       </c>
       <c r="C403" t="n">
-        <v>1.264358397033789</v>
+        <v>1.168337101973974</v>
       </c>
       <c r="D403" t="n">
-        <v>1.588487963979904</v>
+        <v>1.158219866192675</v>
       </c>
     </row>
     <row r="404">
@@ -6097,10 +6097,10 @@
         <v>0.9943579061000396</v>
       </c>
       <c r="C404" t="n">
-        <v>1.25917168884599</v>
+        <v>1.156793841703203</v>
       </c>
       <c r="D404" t="n">
-        <v>1.587951265643796</v>
+        <v>1.153131612935664</v>
       </c>
     </row>
     <row r="405">
@@ -6111,10 +6111,10 @@
         <v>0.9837231072841204</v>
       </c>
       <c r="C405" t="n">
-        <v>1.260765628924691</v>
+        <v>1.162429096775456</v>
       </c>
       <c r="D405" t="n">
-        <v>1.588820901026374</v>
+        <v>1.152082670451166</v>
       </c>
     </row>
     <row r="406">
@@ -6125,10 +6125,10 @@
         <v>0.9881254585782598</v>
       </c>
       <c r="C406" t="n">
-        <v>1.248337919176835</v>
+        <v>1.163081912123807</v>
       </c>
       <c r="D406" t="n">
-        <v>1.573973263640031</v>
+        <v>1.154794242103113</v>
       </c>
     </row>
     <row r="407">
@@ -6139,10 +6139,10 @@
         <v>0.9956145159521982</v>
       </c>
       <c r="C407" t="n">
-        <v>1.278330244343182</v>
+        <v>1.167663107020926</v>
       </c>
       <c r="D407" t="n">
-        <v>1.59132625868687</v>
+        <v>1.16162664389088</v>
       </c>
     </row>
     <row r="408">
@@ -6153,10 +6153,10 @@
         <v>0.9907145808910967</v>
       </c>
       <c r="C408" t="n">
-        <v>1.274355949679283</v>
+        <v>1.165656267735093</v>
       </c>
       <c r="D408" t="n">
-        <v>1.589549390714822</v>
+        <v>1.144498275810732</v>
       </c>
     </row>
     <row r="409">
@@ -6167,10 +6167,10 @@
         <v>1.013814274750576</v>
       </c>
       <c r="C409" t="n">
-        <v>1.288055629262844</v>
+        <v>1.180460604475567</v>
       </c>
       <c r="D409" t="n">
-        <v>1.59906239930168</v>
+        <v>1.160895726544356</v>
       </c>
     </row>
     <row r="410">
@@ -6181,10 +6181,10 @@
         <v>1.018933484014067</v>
       </c>
       <c r="C410" t="n">
-        <v>1.295105194486972</v>
+        <v>1.180820747110262</v>
       </c>
       <c r="D410" t="n">
-        <v>1.603917613712235</v>
+        <v>1.163699159247511</v>
       </c>
     </row>
     <row r="411">
@@ -6195,10 +6195,10 @@
         <v>1.001273477098496</v>
       </c>
       <c r="C411" t="n">
-        <v>1.288199906718709</v>
+        <v>1.176500220262831</v>
       </c>
       <c r="D411" t="n">
-        <v>1.597793719333642</v>
+        <v>1.163567687957054</v>
       </c>
     </row>
     <row r="412">
@@ -6209,10 +6209,10 @@
         <v>1.017752776770428</v>
       </c>
       <c r="C412" t="n">
-        <v>1.295296319105651</v>
+        <v>1.178759171896318</v>
       </c>
       <c r="D412" t="n">
-        <v>1.602281637172282</v>
+        <v>1.163757469929149</v>
       </c>
     </row>
     <row r="413">
@@ -6223,10 +6223,10 @@
         <v>1.009842038238048</v>
       </c>
       <c r="C413" t="n">
-        <v>1.295934697433794</v>
+        <v>1.179515850230789</v>
       </c>
       <c r="D413" t="n">
-        <v>1.600221857805471</v>
+        <v>1.162859318243192</v>
       </c>
     </row>
     <row r="414">
@@ -6237,10 +6237,10 @@
         <v>1.001754193619121</v>
       </c>
       <c r="C414" t="n">
-        <v>1.289218995573236</v>
+        <v>1.178502861456948</v>
       </c>
       <c r="D414" t="n">
-        <v>1.592992485736279</v>
+        <v>1.161576762666768</v>
       </c>
     </row>
     <row r="415">
@@ -6251,10 +6251,10 @@
         <v>1.006940871867963</v>
       </c>
       <c r="C415" t="n">
-        <v>1.29383001456284</v>
+        <v>1.18313187612103</v>
       </c>
       <c r="D415" t="n">
-        <v>1.593539913493936</v>
+        <v>1.165254242075092</v>
       </c>
     </row>
     <row r="416">
@@ -6265,10 +6265,10 @@
         <v>0.9840098504718612</v>
       </c>
       <c r="C416" t="n">
-        <v>1.286284950469074</v>
+        <v>1.16606893738745</v>
       </c>
       <c r="D416" t="n">
-        <v>1.588505343868316</v>
+        <v>1.151526846489303</v>
       </c>
     </row>
     <row r="417">
@@ -6279,10 +6279,10 @@
         <v>0.9861688580030867</v>
       </c>
       <c r="C417" t="n">
-        <v>1.276487695808231</v>
+        <v>1.159759683060801</v>
       </c>
       <c r="D417" t="n">
-        <v>1.582248256217713</v>
+        <v>1.147405721458478</v>
       </c>
     </row>
     <row r="418">
@@ -6293,10 +6293,10 @@
         <v>0.9940627292891299</v>
       </c>
       <c r="C418" t="n">
-        <v>1.27825659681606</v>
+        <v>1.16934665222609</v>
       </c>
       <c r="D418" t="n">
-        <v>1.583680753991647</v>
+        <v>1.155389667740246</v>
       </c>
     </row>
     <row r="419">
@@ -6307,10 +6307,10 @@
         <v>0.9564825044487362</v>
       </c>
       <c r="C419" t="n">
-        <v>1.250853568806043</v>
+        <v>1.149082211672985</v>
       </c>
       <c r="D419" t="n">
-        <v>1.547798766110065</v>
+        <v>1.135306466213488</v>
       </c>
     </row>
     <row r="420">
@@ -6321,10 +6321,10 @@
         <v>0.9729112023816552</v>
       </c>
       <c r="C420" t="n">
-        <v>1.269734495885938</v>
+        <v>1.139046830839831</v>
       </c>
       <c r="D420" t="n">
-        <v>1.561703047159686</v>
+        <v>1.125364379912134</v>
       </c>
     </row>
     <row r="421">
@@ -6335,10 +6335,10 @@
         <v>0.9638450574751419</v>
       </c>
       <c r="C421" t="n">
-        <v>1.273241527677077</v>
+        <v>1.13254550366436</v>
       </c>
       <c r="D421" t="n">
-        <v>1.567784995310232</v>
+        <v>1.117790279299726</v>
       </c>
     </row>
     <row r="422">
@@ -6349,10 +6349,10 @@
         <v>0.9817074713467653</v>
       </c>
       <c r="C422" t="n">
-        <v>1.284028592781491</v>
+        <v>1.140022656750207</v>
       </c>
       <c r="D422" t="n">
-        <v>1.577643669396588</v>
+        <v>1.125424538225764</v>
       </c>
     </row>
     <row r="423">
@@ -6363,10 +6363,10 @@
         <v>0.9798267733801118</v>
       </c>
       <c r="C423" t="n">
-        <v>1.293773672556028</v>
+        <v>1.142715387135239</v>
       </c>
       <c r="D423" t="n">
-        <v>1.595998974050001</v>
+        <v>1.12848313459263</v>
       </c>
     </row>
     <row r="424">
@@ -6377,10 +6377,10 @@
         <v>0.970397982677338</v>
       </c>
       <c r="C424" t="n">
-        <v>1.277460187862813</v>
+        <v>1.133805216826478</v>
       </c>
       <c r="D424" t="n">
-        <v>1.58276049745362</v>
+        <v>1.119280945628238</v>
       </c>
     </row>
     <row r="425">
@@ -6391,10 +6391,10 @@
         <v>0.9596957148760679</v>
       </c>
       <c r="C425" t="n">
-        <v>1.31252907782445</v>
+        <v>1.135633997899729</v>
       </c>
       <c r="D425" t="n">
-        <v>1.669261246576167</v>
+        <v>1.120959719933134</v>
       </c>
     </row>
     <row r="426">
@@ -6405,10 +6405,10 @@
         <v>0.9398345323134272</v>
       </c>
       <c r="C426" t="n">
-        <v>1.296395808214003</v>
+        <v>1.133210420725937</v>
       </c>
       <c r="D426" t="n">
-        <v>1.650399925160975</v>
+        <v>1.119645978329352</v>
       </c>
     </row>
     <row r="427">
@@ -6419,10 +6419,10 @@
         <v>0.9179492801902626</v>
       </c>
       <c r="C427" t="n">
-        <v>1.270897486950952</v>
+        <v>1.120012792314796</v>
       </c>
       <c r="D427" t="n">
-        <v>1.616164283947439</v>
+        <v>1.106639002152159</v>
       </c>
     </row>
     <row r="428">
@@ -6433,10 +6433,10 @@
         <v>0.9298069543656651</v>
       </c>
       <c r="C428" t="n">
-        <v>1.278823872089848</v>
+        <v>1.12562107116159</v>
       </c>
       <c r="D428" t="n">
-        <v>1.626759599719832</v>
+        <v>1.112685577222444</v>
       </c>
     </row>
     <row r="429">
@@ -6447,10 +6447,10 @@
         <v>0.9469440766447673</v>
       </c>
       <c r="C429" t="n">
-        <v>1.264543248706997</v>
+        <v>1.13000435435603</v>
       </c>
       <c r="D429" t="n">
-        <v>1.575275484434424</v>
+        <v>1.116446600838632</v>
       </c>
     </row>
     <row r="430">
@@ -6461,10 +6461,10 @@
         <v>0.9619727931316573</v>
       </c>
       <c r="C430" t="n">
-        <v>1.277740059442236</v>
+        <v>1.137592231857173</v>
       </c>
       <c r="D430" t="n">
-        <v>1.605052178624537</v>
+        <v>1.125066178645448</v>
       </c>
     </row>
     <row r="431">
@@ -6475,10 +6475,10 @@
         <v>0.9553861334367858</v>
       </c>
       <c r="C431" t="n">
-        <v>1.278155779654192</v>
+        <v>1.108351227613939</v>
       </c>
       <c r="D431" t="n">
-        <v>1.604630070287181</v>
+        <v>1.108009781081057</v>
       </c>
     </row>
     <row r="432">
@@ -6489,10 +6489,10 @@
         <v>0.9579162203874406</v>
       </c>
       <c r="C432" t="n">
-        <v>1.279374629059917</v>
+        <v>1.103391802038278</v>
       </c>
       <c r="D432" t="n">
-        <v>1.595609805904259</v>
+        <v>1.099393370535709</v>
       </c>
     </row>
     <row r="433">
@@ -6503,10 +6503,10 @@
         <v>0.92874431784639</v>
       </c>
       <c r="C433" t="n">
-        <v>1.263538382649742</v>
+        <v>1.087841795072198</v>
       </c>
       <c r="D433" t="n">
-        <v>1.578529133879219</v>
+        <v>1.085785401880715</v>
       </c>
     </row>
     <row r="434">
@@ -6517,10 +6517,10 @@
         <v>0.9370345694213691</v>
       </c>
       <c r="C434" t="n">
-        <v>1.275088577054012</v>
+        <v>1.092414349016451</v>
       </c>
       <c r="D434" t="n">
-        <v>1.586415804107372</v>
+        <v>1.09459227345282</v>
       </c>
     </row>
     <row r="435">
@@ -6531,10 +6531,10 @@
         <v>0.9359550656557564</v>
       </c>
       <c r="C435" t="n">
-        <v>1.271246537380466</v>
+        <v>1.093698060613947</v>
       </c>
       <c r="D435" t="n">
-        <v>1.583208625185859</v>
+        <v>1.096002713479612</v>
       </c>
     </row>
     <row r="436">
@@ -6545,10 +6545,10 @@
         <v>0.9521560557631163</v>
       </c>
       <c r="C436" t="n">
-        <v>1.276471995430542</v>
+        <v>1.08590452058013</v>
       </c>
       <c r="D436" t="n">
-        <v>1.587189454613647</v>
+        <v>1.088889331335259</v>
       </c>
     </row>
     <row r="437">
@@ -6559,10 +6559,10 @@
         <v>0.9310129624788105</v>
       </c>
       <c r="C437" t="n">
-        <v>1.268366717234076</v>
+        <v>1.08367359325475</v>
       </c>
       <c r="D437" t="n">
-        <v>1.590707735256381</v>
+        <v>1.082163569914874</v>
       </c>
     </row>
     <row r="438">
@@ -6573,10 +6573,10 @@
         <v>0.9315611479847857</v>
       </c>
       <c r="C438" t="n">
-        <v>1.288887194844397</v>
+        <v>1.09231491795584</v>
       </c>
       <c r="D438" t="n">
-        <v>1.622420586320056</v>
+        <v>1.088357556140069</v>
       </c>
     </row>
     <row r="439">
@@ -6587,10 +6587,10 @@
         <v>0.9324213775480084</v>
       </c>
       <c r="C439" t="n">
-        <v>1.288596503407392</v>
+        <v>1.084976053088633</v>
       </c>
       <c r="D439" t="n">
-        <v>1.623662342221183</v>
+        <v>1.081027204093572</v>
       </c>
     </row>
     <row r="440">
@@ -6601,10 +6601,10 @@
         <v>0.9326322181272296</v>
       </c>
       <c r="C440" t="n">
-        <v>1.285591102827865</v>
+        <v>1.083665893107986</v>
       </c>
       <c r="D440" t="n">
-        <v>1.632370787827268</v>
+        <v>1.079845578671301</v>
       </c>
     </row>
     <row r="441">
@@ -6615,10 +6615,10 @@
         <v>0.9515910030108035</v>
       </c>
       <c r="C441" t="n">
-        <v>1.300246167277386</v>
+        <v>1.094777400264468</v>
       </c>
       <c r="D441" t="n">
-        <v>1.642613227640691</v>
+        <v>1.089905402381047</v>
       </c>
     </row>
     <row r="442">
@@ -6629,10 +6629,10 @@
         <v>0.9460838470815447</v>
       </c>
       <c r="C442" t="n">
-        <v>1.309274662760518</v>
+        <v>1.094673526259566</v>
       </c>
       <c r="D442" t="n">
-        <v>1.658914468134838</v>
+        <v>1.092034494849031</v>
       </c>
     </row>
     <row r="443">
@@ -6643,10 +6643,10 @@
         <v>0.9568451502449967</v>
       </c>
       <c r="C443" t="n">
-        <v>1.312803785731091</v>
+        <v>1.098146771123331</v>
       </c>
       <c r="D443" t="n">
-        <v>1.660791762421287</v>
+        <v>1.094447702746128</v>
       </c>
     </row>
     <row r="444">
@@ -6657,10 +6657,10 @@
         <v>0.9545596383662385</v>
       </c>
       <c r="C444" t="n">
-        <v>1.519924285099577</v>
+        <v>1.103913740889862</v>
       </c>
       <c r="D444" t="n">
-        <v>2.35212319036607</v>
+        <v>1.102134382451429</v>
       </c>
     </row>
     <row r="445">
@@ -6671,10 +6671,10 @@
         <v>0.9668980290622654</v>
       </c>
       <c r="C445" t="n">
-        <v>1.504529549372854</v>
+        <v>1.108765225647141</v>
       </c>
       <c r="D445" t="n">
-        <v>2.282554928482436</v>
+        <v>1.10658509547729</v>
       </c>
     </row>
     <row r="446">
@@ -6685,10 +6685,10 @@
         <v>0.9650426319651185</v>
       </c>
       <c r="C446" t="n">
-        <v>1.507344110254273</v>
+        <v>1.112403604457941</v>
       </c>
       <c r="D446" t="n">
-        <v>2.263913631638685</v>
+        <v>1.110696756020221</v>
       </c>
     </row>
     <row r="447">
@@ -6699,10 +6699,10 @@
         <v>0.9333743769660884</v>
       </c>
       <c r="C447" t="n">
-        <v>1.470067507136474</v>
+        <v>1.096334825604506</v>
       </c>
       <c r="D447" t="n">
-        <v>2.202722810624937</v>
+        <v>1.095342018212474</v>
       </c>
     </row>
     <row r="448">
@@ -6713,10 +6713,10 @@
         <v>0.9343273763841684</v>
       </c>
       <c r="C448" t="n">
-        <v>1.472382172345682</v>
+        <v>1.09470479118133</v>
       </c>
       <c r="D448" t="n">
-        <v>2.224518235274869</v>
+        <v>1.092491357842186</v>
       </c>
     </row>
     <row r="449">
@@ -6727,10 +6727,10 @@
         <v>0.9085963920960084</v>
       </c>
       <c r="C449" t="n">
-        <v>1.434396316106379</v>
+        <v>1.076470435441343</v>
       </c>
       <c r="D449" t="n">
-        <v>2.154194989440398</v>
+        <v>1.07184615598224</v>
       </c>
     </row>
     <row r="450">
@@ -6741,10 +6741,10 @@
         <v>0.8964604083560338</v>
       </c>
       <c r="C450" t="n">
-        <v>1.383903859320183</v>
+        <v>1.062907104080199</v>
       </c>
       <c r="D450" t="n">
-        <v>1.990965047026111</v>
+        <v>1.058479516529217</v>
       </c>
     </row>
     <row r="451">
@@ -6755,10 +6755,10 @@
         <v>0.9168613428014809</v>
       </c>
       <c r="C451" t="n">
-        <v>1.398255176838614</v>
+        <v>1.061528744814023</v>
       </c>
       <c r="D451" t="n">
-        <v>2.03342939486747</v>
+        <v>1.062747881077097</v>
       </c>
     </row>
     <row r="452">
@@ -6769,10 +6769,10 @@
         <v>0.8975061776289712</v>
       </c>
       <c r="C452" t="n">
-        <v>1.402669509039354</v>
+        <v>1.048506948538232</v>
       </c>
       <c r="D452" t="n">
-        <v>2.067632264324371</v>
+        <v>1.047225571871933</v>
       </c>
     </row>
     <row r="453">
@@ -6783,10 +6783,10 @@
         <v>0.8970254611083468</v>
       </c>
       <c r="C453" t="n">
-        <v>1.397426663468524</v>
+        <v>1.053885923817135</v>
       </c>
       <c r="D453" t="n">
-        <v>2.046228391763435</v>
+        <v>1.053409140241014</v>
       </c>
     </row>
     <row r="454">
@@ -6797,10 +6797,10 @@
         <v>0.8914761370632437</v>
       </c>
       <c r="C454" t="n">
-        <v>1.372081728137504</v>
+        <v>1.044573988038473</v>
       </c>
       <c r="D454" t="n">
-        <v>2.003591628400663</v>
+        <v>1.04301409768875</v>
       </c>
     </row>
     <row r="455">
@@ -6811,10 +6811,10 @@
         <v>0.8728884315990992</v>
       </c>
       <c r="C455" t="n">
-        <v>1.367721113808867</v>
+        <v>1.046940517814275</v>
       </c>
       <c r="D455" t="n">
-        <v>1.968486108479669</v>
+        <v>1.040334780603362</v>
       </c>
     </row>
     <row r="456">
@@ -6825,10 +6825,10 @@
         <v>0.8901773590952409</v>
       </c>
       <c r="C456" t="n">
-        <v>1.364667004009454</v>
+        <v>1.049297791534611</v>
       </c>
       <c r="D456" t="n">
-        <v>1.955957728144772</v>
+        <v>1.047485659910419</v>
       </c>
     </row>
     <row r="457">
@@ -6839,10 +6839,10 @@
         <v>0.8907339782243849</v>
       </c>
       <c r="C457" t="n">
-        <v>1.370551681526811</v>
+        <v>1.05948714776839</v>
       </c>
       <c r="D457" t="n">
-        <v>1.9408937293887</v>
+        <v>1.054409545969825</v>
       </c>
     </row>
     <row r="458">
@@ -6853,10 +6853,10 @@
         <v>0.8721378391370717</v>
       </c>
       <c r="C458" t="n">
-        <v>1.328086025349598</v>
+        <v>1.035905378829579</v>
       </c>
       <c r="D458" t="n">
-        <v>1.836589337209178</v>
+        <v>1.031065150073901</v>
       </c>
     </row>
     <row r="459">
@@ -6867,10 +6867,10 @@
         <v>0.8840461150514872</v>
       </c>
       <c r="C459" t="n">
-        <v>1.328600035908</v>
+        <v>1.033698659743113</v>
       </c>
       <c r="D459" t="n">
-        <v>1.867186472444339</v>
+        <v>1.033669573143892</v>
       </c>
     </row>
     <row r="460">
@@ -6881,10 +6881,10 @@
         <v>0.8836834692552268</v>
       </c>
       <c r="C460" t="n">
-        <v>1.332917030169474</v>
+        <v>1.034295413624825</v>
       </c>
       <c r="D460" t="n">
-        <v>1.903090615944073</v>
+        <v>1.032367240260123</v>
       </c>
     </row>
     <row r="461">
@@ -6895,10 +6895,10 @@
         <v>0.8900424211245394</v>
       </c>
       <c r="C461" t="n">
-        <v>1.322589094690354</v>
+        <v>1.036510245834793</v>
       </c>
       <c r="D461" t="n">
-        <v>1.868947826883961</v>
+        <v>1.035778449222153</v>
       </c>
     </row>
     <row r="462">
@@ -6909,10 +6909,10 @@
         <v>0.8936941799566511</v>
       </c>
       <c r="C462" t="n">
-        <v>1.30796056721314</v>
+        <v>1.04236413326518</v>
       </c>
       <c r="D462" t="n">
-        <v>1.833463872454631</v>
+        <v>1.0413378618043</v>
       </c>
     </row>
     <row r="463">
@@ -6923,10 +6923,10 @@
         <v>0.9085120558643198</v>
       </c>
       <c r="C463" t="n">
-        <v>1.344627416271666</v>
+        <v>1.06640400835709</v>
       </c>
       <c r="D463" t="n">
-        <v>1.859136357259822</v>
+        <v>1.055231120997071</v>
       </c>
     </row>
     <row r="464">
@@ -6937,10 +6937,10 @@
         <v>0.8965953463267354</v>
       </c>
       <c r="C464" t="n">
-        <v>1.327068239550207</v>
+        <v>1.052995662840737</v>
       </c>
       <c r="D464" t="n">
-        <v>1.846358169388652</v>
+        <v>1.048982876576792</v>
       </c>
     </row>
     <row r="465">
@@ -6951,10 +6951,10 @@
         <v>0.8813810901301308</v>
       </c>
       <c r="C465" t="n">
-        <v>1.326620103503827</v>
+        <v>1.03900664890772</v>
       </c>
       <c r="D465" t="n">
-        <v>1.861731674511026</v>
+        <v>1.044577338693264</v>
       </c>
     </row>
     <row r="466">
@@ -6965,10 +6965,10 @@
         <v>0.868199337117219</v>
       </c>
       <c r="C466" t="n">
-        <v>1.308660073258488</v>
+        <v>1.021806518349554</v>
       </c>
       <c r="D466" t="n">
-        <v>1.826492037718805</v>
+        <v>1.028904702126761</v>
       </c>
     </row>
     <row r="467">
@@ -6979,10 +6979,10 @@
         <v>0.8646487817631333</v>
       </c>
       <c r="C467" t="n">
-        <v>1.310934307974208</v>
+        <v>1.024532005639308</v>
       </c>
       <c r="D467" t="n">
-        <v>1.837775269304908</v>
+        <v>1.025476857060176</v>
       </c>
     </row>
     <row r="468">
@@ -6993,10 +6993,10 @@
         <v>0.8689583632024154</v>
       </c>
       <c r="C468" t="n">
-        <v>1.329837418042796</v>
+        <v>1.038181370153187</v>
       </c>
       <c r="D468" t="n">
-        <v>1.863717809769253</v>
+        <v>1.034588745475931</v>
       </c>
     </row>
     <row r="469">
@@ -7007,10 +7007,10 @@
         <v>0.8612584652492558</v>
       </c>
       <c r="C469" t="n">
-        <v>1.313756739751399</v>
+        <v>1.028136590150173</v>
       </c>
       <c r="D469" t="n">
-        <v>1.852230576951232</v>
+        <v>1.02888765616524</v>
       </c>
     </row>
     <row r="470">
@@ -7021,10 +7021,10 @@
         <v>0.8742546785524529</v>
       </c>
       <c r="C470" t="n">
-        <v>1.311579699543925</v>
+        <v>1.02213674240372</v>
       </c>
       <c r="D470" t="n">
-        <v>1.844864155516471</v>
+        <v>1.026321771194431</v>
       </c>
     </row>
     <row r="471">
@@ -7035,10 +7035,10 @@
         <v>0.8814316918691439</v>
       </c>
       <c r="C471" t="n">
-        <v>1.335594160112299</v>
+        <v>1.036157632827271</v>
       </c>
       <c r="D471" t="n">
-        <v>1.867857955133972</v>
+        <v>1.040822200425017</v>
       </c>
     </row>
     <row r="472">
@@ -7049,10 +7049,10 @@
         <v>0.8923701011191418</v>
       </c>
       <c r="C472" t="n">
-        <v>1.336447245405799</v>
+        <v>1.039481216123095</v>
       </c>
       <c r="D472" t="n">
-        <v>1.840061808962527</v>
+        <v>1.045853515819347</v>
       </c>
     </row>
     <row r="473">
@@ -7063,10 +7063,10 @@
         <v>0.8621186948124784</v>
       </c>
       <c r="C473" t="n">
-        <v>1.316997634210705</v>
+        <v>1.035533712867559</v>
       </c>
       <c r="D473" t="n">
-        <v>1.799278782369572</v>
+        <v>1.041895511195179</v>
       </c>
     </row>
     <row r="474">
@@ -7077,10 +7077,10 @@
         <v>0.8670945324820997</v>
       </c>
       <c r="C474" t="n">
-        <v>1.336852942579362</v>
+        <v>1.030566553844227</v>
       </c>
       <c r="D474" t="n">
-        <v>1.774023407286399</v>
+        <v>1.036645142270931</v>
       </c>
     </row>
     <row r="475">
@@ -7091,10 +7091,10 @@
         <v>0.8595127052533039</v>
       </c>
       <c r="C475" t="n">
-        <v>1.339060713262739</v>
+        <v>1.018685115669854</v>
       </c>
       <c r="D475" t="n">
-        <v>1.803720405687978</v>
+        <v>1.029496744117631</v>
       </c>
     </row>
     <row r="476">
@@ -7105,10 +7105,10 @@
         <v>0.8498983748408153</v>
       </c>
       <c r="C476" t="n">
-        <v>1.344066627917583</v>
+        <v>1.025837852112462</v>
       </c>
       <c r="D476" t="n">
-        <v>1.807912655194139</v>
+        <v>1.034880653492457</v>
       </c>
     </row>
     <row r="477">
@@ -7119,10 +7119,10 @@
         <v>0.8810268779570392</v>
       </c>
       <c r="C477" t="n">
-        <v>1.356563066903103</v>
+        <v>1.028805244188921</v>
       </c>
       <c r="D477" t="n">
-        <v>1.821312898016083</v>
+        <v>1.040424584380952</v>
       </c>
     </row>
     <row r="478">
@@ -7133,10 +7133,10 @@
         <v>0.8861207863510243</v>
       </c>
       <c r="C478" t="n">
-        <v>1.366391607700316</v>
+        <v>1.092044550149628</v>
       </c>
       <c r="D478" t="n">
-        <v>1.821869807164718</v>
+        <v>1.083362428407704</v>
       </c>
     </row>
     <row r="479">
@@ -7147,10 +7147,10 @@
         <v>0.9012085382000962</v>
       </c>
       <c r="C479" t="n">
-        <v>1.366743557297617</v>
+        <v>1.091363240318627</v>
       </c>
       <c r="D479" t="n">
-        <v>1.799101942559802</v>
+        <v>1.087990017019178</v>
       </c>
     </row>
     <row r="480">
@@ -7161,10 +7161,10 @@
         <v>0.907103640795122</v>
       </c>
       <c r="C480" t="n">
-        <v>1.359366468922824</v>
+        <v>1.09062036868265</v>
       </c>
       <c r="D480" t="n">
-        <v>1.794946445522646</v>
+        <v>1.087498351512454</v>
       </c>
     </row>
     <row r="481">
@@ -7175,10 +7175,10 @@
         <v>0.9116409300599631</v>
       </c>
       <c r="C481" t="n">
-        <v>1.362176278348788</v>
+        <v>1.087367425094943</v>
       </c>
       <c r="D481" t="n">
-        <v>1.788456518444511</v>
+        <v>1.089183475460167</v>
       </c>
     </row>
     <row r="482">
@@ -7189,10 +7189,10 @@
         <v>0.8964182402401896</v>
       </c>
       <c r="C482" t="n">
-        <v>1.339930339497939</v>
+        <v>1.076234377028281</v>
       </c>
       <c r="D482" t="n">
-        <v>1.765087656474124</v>
+        <v>1.0786543544267</v>
       </c>
     </row>
     <row r="483">
@@ -7203,10 +7203,10 @@
         <v>0.9087903654288919</v>
       </c>
       <c r="C483" t="n">
-        <v>1.34123837478656</v>
+        <v>1.076393706207058</v>
       </c>
       <c r="D483" t="n">
-        <v>1.775675057512742</v>
+        <v>1.083593293030244</v>
       </c>
     </row>
     <row r="484">
@@ -7217,10 +7217,10 @@
         <v>0.9056277567405733</v>
       </c>
       <c r="C484" t="n">
-        <v>1.344374257656429</v>
+        <v>1.078935210630085</v>
       </c>
       <c r="D484" t="n">
-        <v>1.772602907418254</v>
+        <v>1.082933509937394</v>
       </c>
     </row>
     <row r="485">
@@ -7231,10 +7231,10 @@
         <v>0.90037360950638</v>
       </c>
       <c r="C485" t="n">
-        <v>1.346341508898123</v>
+        <v>1.078638003186688</v>
       </c>
       <c r="D485" t="n">
-        <v>1.788507009127928</v>
+        <v>1.080929316319334</v>
       </c>
     </row>
     <row r="486">
@@ -7245,10 +7245,10 @@
         <v>0.9055181196393782</v>
       </c>
       <c r="C486" t="n">
-        <v>1.360223471246979</v>
+        <v>1.08894938288774</v>
       </c>
       <c r="D486" t="n">
-        <v>1.790112717119411</v>
+        <v>1.091087315070269</v>
       </c>
     </row>
     <row r="487">
@@ -7259,10 +7259,10 @@
         <v>0.9126192303475497</v>
       </c>
       <c r="C487" t="n">
-        <v>1.342683010658229</v>
+        <v>1.075889420151881</v>
       </c>
       <c r="D487" t="n">
-        <v>1.782193202181513</v>
+        <v>1.07302176854962</v>
       </c>
     </row>
     <row r="488">
@@ -7273,10 +7273,10 @@
         <v>0.9040928373238427</v>
       </c>
       <c r="C488" t="n">
-        <v>1.356601773496486</v>
+        <v>1.082224243158837</v>
       </c>
       <c r="D488" t="n">
-        <v>1.791349139710389</v>
+        <v>1.074683078187324</v>
       </c>
     </row>
     <row r="489">
@@ -7287,10 +7287,10 @@
         <v>0.8856991051925818</v>
       </c>
       <c r="C489" t="n">
-        <v>1.342325304655694</v>
+        <v>1.069362289806043</v>
       </c>
       <c r="D489" t="n">
-        <v>1.778213856005338</v>
+        <v>1.066482541337994</v>
       </c>
     </row>
     <row r="490">
@@ -7301,10 +7301,10 @@
         <v>0.8897472443136296</v>
       </c>
       <c r="C490" t="n">
-        <v>1.344343998110577</v>
+        <v>1.06141959703252</v>
       </c>
       <c r="D490" t="n">
-        <v>1.780332175537472</v>
+        <v>1.057291975934513</v>
       </c>
     </row>
     <row r="491">
@@ -7315,10 +7315,10 @@
         <v>0.8875882367824041</v>
       </c>
       <c r="C491" t="n">
-        <v>1.359560637790675</v>
+        <v>1.071196863872528</v>
       </c>
       <c r="D491" t="n">
-        <v>1.789781939323763</v>
+        <v>1.064917820542191</v>
       </c>
     </row>
     <row r="492">
@@ -7329,10 +7329,10 @@
         <v>0.8846111678038002</v>
       </c>
       <c r="C492" t="n">
-        <v>1.338762944230741</v>
+        <v>1.068798771951229</v>
       </c>
       <c r="D492" t="n">
-        <v>1.7386114834117</v>
+        <v>1.063270014326119</v>
       </c>
     </row>
     <row r="493">
@@ -7343,10 +7343,10 @@
         <v>0.8900086866318639</v>
       </c>
       <c r="C493" t="n">
-        <v>1.347767721542878</v>
+        <v>1.066516217815731</v>
       </c>
       <c r="D493" t="n">
-        <v>1.772356562414949</v>
+        <v>1.060751877055343</v>
       </c>
     </row>
     <row r="494">
@@ -7357,10 +7357,10 @@
         <v>0.8843834599782413</v>
       </c>
       <c r="C494" t="n">
-        <v>1.36467006140315</v>
+        <v>1.074808772493098</v>
       </c>
       <c r="D494" t="n">
-        <v>1.804777930516053</v>
+        <v>1.062159141216401</v>
       </c>
     </row>
     <row r="495">
@@ -7371,10 +7371,10 @@
         <v>0.8779992072394222</v>
       </c>
       <c r="C495" t="n">
-        <v>1.36039813936494</v>
+        <v>1.0641930504413</v>
       </c>
       <c r="D495" t="n">
-        <v>1.789408966229005</v>
+        <v>1.050920069106695</v>
       </c>
     </row>
     <row r="496">
@@ -7385,10 +7385,10 @@
         <v>0.8840292478051496</v>
       </c>
       <c r="C496" t="n">
-        <v>1.362355220708749</v>
+        <v>1.063550121927467</v>
       </c>
       <c r="D496" t="n">
-        <v>1.790234898603981</v>
+        <v>1.052602334112538</v>
       </c>
     </row>
   </sheetData>

--- a/resultado_simu.xlsx
+++ b/resultado_simu.xlsx
@@ -483,10 +483,10 @@
         <v>0.9926964823357762</v>
       </c>
       <c r="C3" t="n">
-        <v>1.004382288077713</v>
+        <v>0.9926172407971501</v>
       </c>
       <c r="D3" t="n">
-        <v>1.001544747788796</v>
+        <v>0.9940117946454118</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0.9857050087288</v>
       </c>
       <c r="C4" t="n">
-        <v>1.01552601430738</v>
+        <v>1.017089421248981</v>
       </c>
       <c r="D4" t="n">
-        <v>1.010956593211704</v>
+        <v>1.015750442310797</v>
       </c>
     </row>
     <row r="5">
@@ -511,10 +511,10 @@
         <v>0.9838833461243285</v>
       </c>
       <c r="C5" t="n">
-        <v>1.017422034501014</v>
+        <v>1.014591444685034</v>
       </c>
       <c r="D5" t="n">
-        <v>1.014172107697551</v>
+        <v>1.014123896820268</v>
       </c>
     </row>
     <row r="6">
@@ -525,10 +525,10 @@
         <v>0.9803833925092559</v>
       </c>
       <c r="C6" t="n">
-        <v>1.018470064427721</v>
+        <v>1.006506489612638</v>
       </c>
       <c r="D6" t="n">
-        <v>1.016282094319626</v>
+        <v>1.00256827854195</v>
       </c>
     </row>
     <row r="7">
@@ -539,10 +539,10 @@
         <v>0.9778533055586011</v>
       </c>
       <c r="C7" t="n">
-        <v>1.016843505816021</v>
+        <v>0.9964016049382027</v>
       </c>
       <c r="D7" t="n">
-        <v>1.016478351601566</v>
+        <v>0.9955687997806223</v>
       </c>
     </row>
     <row r="8">
@@ -553,10 +553,10 @@
         <v>0.9741087768716318</v>
       </c>
       <c r="C8" t="n">
-        <v>1.006974269346339</v>
+        <v>0.990479710630893</v>
       </c>
       <c r="D8" t="n">
-        <v>1.00861235779027</v>
+        <v>0.9893513609155091</v>
       </c>
     </row>
     <row r="9">
@@ -567,10 +567,10 @@
         <v>0.9894748382852757</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9978205426284191</v>
+        <v>0.9899046063699921</v>
       </c>
       <c r="D9" t="n">
-        <v>1.004281278886978</v>
+        <v>0.9906857393662118</v>
       </c>
     </row>
     <row r="10">
@@ -581,10 +581,10 @@
         <v>0.9920639605981125</v>
       </c>
       <c r="C10" t="n">
-        <v>1.020352733198518</v>
+        <v>1.004813079258707</v>
       </c>
       <c r="D10" t="n">
-        <v>1.026686024088668</v>
+        <v>1.00506453322891</v>
       </c>
     </row>
     <row r="11">
@@ -595,10 +595,10 @@
         <v>0.9817918075784537</v>
       </c>
       <c r="C11" t="n">
-        <v>1.015670948726789</v>
+        <v>0.9956767464607226</v>
       </c>
       <c r="D11" t="n">
-        <v>1.025697453754568</v>
+        <v>0.9997276956595604</v>
       </c>
     </row>
     <row r="12">
@@ -609,10 +609,10 @@
         <v>0.9842375582974201</v>
       </c>
       <c r="C12" t="n">
-        <v>1.016814187247374</v>
+        <v>0.9999763110924826</v>
       </c>
       <c r="D12" t="n">
-        <v>1.027641572525135</v>
+        <v>0.9991200158790611</v>
       </c>
     </row>
     <row r="13">
@@ -623,10 +623,10 @@
         <v>0.9991988057989593</v>
       </c>
       <c r="C13" t="n">
-        <v>1.029574896783776</v>
+        <v>1.020420247071178</v>
       </c>
       <c r="D13" t="n">
-        <v>1.062626926639171</v>
+        <v>1.017877275509665</v>
       </c>
     </row>
     <row r="14">
@@ -637,10 +637,10 @@
         <v>1.002437317095797</v>
       </c>
       <c r="C14" t="n">
-        <v>1.027991651615313</v>
+        <v>1.020151723943391</v>
       </c>
       <c r="D14" t="n">
-        <v>1.065959170781576</v>
+        <v>1.017832285727249</v>
       </c>
     </row>
     <row r="15">
@@ -651,10 +651,10 @@
         <v>0.9869531849577897</v>
       </c>
       <c r="C15" t="n">
-        <v>1.027213961549327</v>
+        <v>1.028853307329247</v>
       </c>
       <c r="D15" t="n">
-        <v>1.057625647686476</v>
+        <v>1.027965828621865</v>
       </c>
     </row>
     <row r="16">
@@ -665,10 +665,10 @@
         <v>0.9984650805832693</v>
       </c>
       <c r="C16" t="n">
-        <v>1.033434396574852</v>
+        <v>1.013041718376391</v>
       </c>
       <c r="D16" t="n">
-        <v>1.067184454384495</v>
+        <v>1.008507819404847</v>
       </c>
     </row>
     <row r="17">
@@ -679,10 +679,10 @@
         <v>1.008054110126251</v>
       </c>
       <c r="C17" t="n">
-        <v>1.044756935569001</v>
+        <v>1.016848138898937</v>
       </c>
       <c r="D17" t="n">
-        <v>1.06366816747417</v>
+        <v>1.019498591729566</v>
       </c>
     </row>
     <row r="18">
@@ -693,10 +693,10 @@
         <v>0.9983385762357366</v>
       </c>
       <c r="C18" t="n">
-        <v>1.046224175871498</v>
+        <v>1.021733194167444</v>
       </c>
       <c r="D18" t="n">
-        <v>1.066656171091682</v>
+        <v>1.028493526973633</v>
       </c>
     </row>
     <row r="19">
@@ -707,10 +707,10 @@
         <v>0.9654980476162364</v>
       </c>
       <c r="C19" t="n">
-        <v>1.047197536285993</v>
+        <v>1.020398571536346</v>
       </c>
       <c r="D19" t="n">
-        <v>1.05549890662858</v>
+        <v>1.031238964894432</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         <v>0.982339993084429</v>
       </c>
       <c r="C20" t="n">
-        <v>1.052543332653853</v>
+        <v>1.025073256933891</v>
       </c>
       <c r="D20" t="n">
-        <v>1.061103777242252</v>
+        <v>1.036493237469682</v>
       </c>
     </row>
     <row r="21">
@@ -735,10 +735,10 @@
         <v>0.9731136093377075</v>
       </c>
       <c r="C21" t="n">
-        <v>1.047088143043018</v>
+        <v>1.011346474196228</v>
       </c>
       <c r="D21" t="n">
-        <v>1.059778335236853</v>
+        <v>1.027264240901817</v>
       </c>
     </row>
     <row r="22">
@@ -749,10 +749,10 @@
         <v>0.974319617450853</v>
       </c>
       <c r="C22" t="n">
-        <v>1.037953211652447</v>
+        <v>1.004958341973349</v>
       </c>
       <c r="D22" t="n">
-        <v>1.048821180971823</v>
+        <v>1.021237895335178</v>
       </c>
     </row>
     <row r="23">
@@ -763,10 +763,10 @@
         <v>0.9594174053114959</v>
       </c>
       <c r="C23" t="n">
-        <v>1.037567022823216</v>
+        <v>1.000491892912646</v>
       </c>
       <c r="D23" t="n">
-        <v>1.048097945520415</v>
+        <v>1.012944116363901</v>
       </c>
     </row>
     <row r="24">
@@ -777,10 +777,10 @@
         <v>0.9667377902220573</v>
       </c>
       <c r="C24" t="n">
-        <v>1.042812225734232</v>
+        <v>1.006022285437854</v>
       </c>
       <c r="D24" t="n">
-        <v>1.053304266970483</v>
+        <v>1.018042498317311</v>
       </c>
     </row>
     <row r="25">
@@ -791,10 +791,10 @@
         <v>0.9745641925227497</v>
       </c>
       <c r="C25" t="n">
-        <v>1.062644252688074</v>
+        <v>1.019819362507098</v>
       </c>
       <c r="D25" t="n">
-        <v>1.065652788880273</v>
+        <v>1.032159887904355</v>
       </c>
     </row>
     <row r="26">
@@ -805,10 +805,10 @@
         <v>0.9785364290352778</v>
       </c>
       <c r="C26" t="n">
-        <v>1.048912916596237</v>
+        <v>1.010888506035745</v>
       </c>
       <c r="D26" t="n">
-        <v>1.056826052755338</v>
+        <v>1.023915877952805</v>
       </c>
     </row>
     <row r="27">
@@ -819,10 +819,10 @@
         <v>0.9714690528197819</v>
       </c>
       <c r="C27" t="n">
-        <v>1.041668950975341</v>
+        <v>1.001207529185147</v>
       </c>
       <c r="D27" t="n">
-        <v>1.050118120514754</v>
+        <v>1.015757329390711</v>
       </c>
     </row>
     <row r="28">
@@ -833,10 +833,10 @@
         <v>0.9594933079200155</v>
       </c>
       <c r="C28" t="n">
-        <v>1.035449796916563</v>
+        <v>0.9816641952424773</v>
       </c>
       <c r="D28" t="n">
-        <v>1.044703249990865</v>
+        <v>0.9928739026935214</v>
       </c>
     </row>
     <row r="29">
@@ -847,10 +847,10 @@
         <v>0.949372960117396</v>
       </c>
       <c r="C29" t="n">
-        <v>1.026484002227124</v>
+        <v>0.9697462108590967</v>
       </c>
       <c r="D29" t="n">
-        <v>1.031015743570394</v>
+        <v>0.9768771252564531</v>
       </c>
     </row>
     <row r="30">
@@ -861,10 +861,10 @@
         <v>0.9729955386133436</v>
       </c>
       <c r="C30" t="n">
-        <v>1.03213463021175</v>
+        <v>0.9880547678996212</v>
       </c>
       <c r="D30" t="n">
-        <v>1.037175034436437</v>
+        <v>0.9970114827271596</v>
       </c>
     </row>
     <row r="31">
@@ -875,10 +875,10 @@
         <v>0.9839845496023547</v>
       </c>
       <c r="C31" t="n">
-        <v>1.043789789565563</v>
+        <v>0.9961604476571402</v>
       </c>
       <c r="D31" t="n">
-        <v>1.044629034361392</v>
+        <v>1.003648328093423</v>
       </c>
     </row>
     <row r="32">
@@ -889,10 +889,10 @@
         <v>0.9754497229554789</v>
       </c>
       <c r="C32" t="n">
-        <v>1.039888762535363</v>
+        <v>0.9937461449096779</v>
       </c>
       <c r="D32" t="n">
-        <v>1.041026706092903</v>
+        <v>1.003487193888264</v>
       </c>
     </row>
     <row r="33">
@@ -903,10 +903,10 @@
         <v>0.9646462516761826</v>
       </c>
       <c r="C33" t="n">
-        <v>1.04597153906908</v>
+        <v>0.9974522728524922</v>
       </c>
       <c r="D33" t="n">
-        <v>1.047029669179467</v>
+        <v>1.003412027021681</v>
       </c>
     </row>
     <row r="34">
@@ -917,10 +917,10 @@
         <v>0.972472653976875</v>
       </c>
       <c r="C34" t="n">
-        <v>1.059264956937277</v>
+        <v>1.016170857158789</v>
       </c>
       <c r="D34" t="n">
-        <v>1.05747138004254</v>
+        <v>1.024064801487987</v>
       </c>
     </row>
     <row r="35">
@@ -931,10 +931,10 @@
         <v>0.9696726910848169</v>
       </c>
       <c r="C35" t="n">
-        <v>1.06099839285666</v>
+        <v>1.010718990932062</v>
       </c>
       <c r="D35" t="n">
-        <v>1.059027482835604</v>
+        <v>1.014517719384931</v>
       </c>
     </row>
     <row r="36">
@@ -945,10 +945,10 @@
         <v>0.9826689043880141</v>
       </c>
       <c r="C36" t="n">
-        <v>1.063759137550615</v>
+        <v>1.012411399282055</v>
       </c>
       <c r="D36" t="n">
-        <v>1.065454385388316</v>
+        <v>1.016583490662554</v>
       </c>
     </row>
     <row r="37">
@@ -959,10 +959,10 @@
         <v>0.9663751444257968</v>
       </c>
       <c r="C37" t="n">
-        <v>1.061193094759394</v>
+        <v>1.001685729558468</v>
       </c>
       <c r="D37" t="n">
-        <v>1.064166102935937</v>
+        <v>1.00678481058159</v>
       </c>
     </row>
     <row r="38">
@@ -973,10 +973,10 @@
         <v>0.9587427154579879</v>
       </c>
       <c r="C38" t="n">
-        <v>1.065071138958157</v>
+        <v>1.005989217879091</v>
       </c>
       <c r="D38" t="n">
-        <v>1.061734777268462</v>
+        <v>1.013383308845845</v>
       </c>
     </row>
     <row r="39">
@@ -987,10 +987,10 @@
         <v>0.8915857741644387</v>
       </c>
       <c r="C39" t="n">
-        <v>1.036721772508799</v>
+        <v>0.96609224324344</v>
       </c>
       <c r="D39" t="n">
-        <v>1.033850382482046</v>
+        <v>0.9709858850236499</v>
       </c>
     </row>
     <row r="40">
@@ -1001,10 +1001,10 @@
         <v>0.8685282484208041</v>
       </c>
       <c r="C40" t="n">
-        <v>1.038823001235717</v>
+        <v>0.9717534852514534</v>
       </c>
       <c r="D40" t="n">
-        <v>1.036219783283975</v>
+        <v>0.9757981755433988</v>
       </c>
     </row>
     <row r="41">
@@ -1015,10 +1015,10 @@
         <v>0.8785473927453974</v>
       </c>
       <c r="C41" t="n">
-        <v>1.028839015119423</v>
+        <v>0.9673702029539462</v>
       </c>
       <c r="D41" t="n">
-        <v>1.022659892371545</v>
+        <v>0.972282680041061</v>
       </c>
     </row>
     <row r="42">
@@ -1029,10 +1029,10 @@
         <v>0.8992350703785853</v>
       </c>
       <c r="C42" t="n">
-        <v>1.059204996487944</v>
+        <v>0.9929241038604033</v>
       </c>
       <c r="D42" t="n">
-        <v>1.049097213272762</v>
+        <v>0.9966442368495974</v>
       </c>
     </row>
     <row r="43">
@@ -1043,10 +1043,10 @@
         <v>0.890059288370877</v>
       </c>
       <c r="C43" t="n">
-        <v>1.063357453735486</v>
+        <v>0.9955495779147271</v>
       </c>
       <c r="D43" t="n">
-        <v>1.049393354184634</v>
+        <v>1.001698828057718</v>
       </c>
     </row>
     <row r="44">
@@ -1057,10 +1057,10 @@
         <v>0.9042868106567262</v>
       </c>
       <c r="C44" t="n">
-        <v>1.062184426044118</v>
+        <v>1.034166942409599</v>
       </c>
       <c r="D44" t="n">
-        <v>1.049616639113381</v>
+        <v>1.039778650047165</v>
       </c>
     </row>
     <row r="45">
@@ -1071,10 +1071,10 @@
         <v>0.862194597420998</v>
       </c>
       <c r="C45" t="n">
-        <v>1.044572590768678</v>
+        <v>1.003212808666344</v>
       </c>
       <c r="D45" t="n">
-        <v>1.034753455128957</v>
+        <v>1.008993429182323</v>
       </c>
     </row>
     <row r="46">
@@ -1085,10 +1085,10 @@
         <v>0.8264697696777512</v>
       </c>
       <c r="C46" t="n">
-        <v>1.035307288996338</v>
+        <v>1.001545808340444</v>
       </c>
       <c r="D46" t="n">
-        <v>1.018306935812753</v>
+        <v>1.01012971345999</v>
       </c>
     </row>
     <row r="47">
@@ -1099,10 +1099,10 @@
         <v>0.7258566452733759</v>
       </c>
       <c r="C47" t="n">
-        <v>1.006341556037696</v>
+        <v>0.9330389838677294</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9812010989347738</v>
+        <v>0.923692684786168</v>
       </c>
     </row>
     <row r="48">
@@ -1113,10 +1113,10 @@
         <v>0.7776981268922942</v>
       </c>
       <c r="C48" t="n">
-        <v>1.009748010346001</v>
+        <v>0.9538080542931712</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9928023061837162</v>
+        <v>0.9526694058744959</v>
       </c>
     </row>
     <row r="49">
@@ -1127,10 +1127,10 @@
         <v>0.7183001189140866</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9879815787627382</v>
+        <v>0.9154443855614736</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9640460909939802</v>
+        <v>0.9098230541759796</v>
       </c>
     </row>
     <row r="50">
@@ -1141,10 +1141,10 @@
         <v>0.6121376704646083</v>
       </c>
       <c r="C50" t="n">
-        <v>0.953119341324455</v>
+        <v>0.8438691668488063</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9370097287435816</v>
+        <v>0.8318627848077935</v>
       </c>
     </row>
     <row r="51">
@@ -1155,10 +1155,10 @@
         <v>0.6972750963541448</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9764747061663955</v>
+        <v>0.8836102665350232</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9639071004359552</v>
+        <v>0.876189077950336</v>
       </c>
     </row>
     <row r="52">
@@ -1169,10 +1169,10 @@
         <v>0.6002040936806862</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9511855532190172</v>
+        <v>0.8396561392918145</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9315510190580544</v>
+        <v>0.834038318076883</v>
       </c>
     </row>
     <row r="53">
@@ -1183,10 +1183,10 @@
         <v>0.6292916599900483</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9531949766914789</v>
+        <v>0.836304283319806</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9267886006892745</v>
+        <v>0.8288197990728374</v>
       </c>
     </row>
     <row r="54">
@@ -1197,10 +1197,10 @@
         <v>0.564167221880192</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9193728645316901</v>
+        <v>0.7891743929612042</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8884449015943349</v>
+        <v>0.776644520329281</v>
       </c>
     </row>
     <row r="55">
@@ -1211,10 +1211,10 @@
         <v>0.5762863383738288</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9182020770112517</v>
+        <v>0.7957741473848836</v>
       </c>
       <c r="D55" t="n">
-        <v>0.884293570201216</v>
+        <v>0.7891928464769031</v>
       </c>
     </row>
     <row r="56">
@@ -1225,10 +1225,10 @@
         <v>0.5656346723115718</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9063464229465322</v>
+        <v>0.8217434111256214</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8667621727584722</v>
+        <v>0.8274067125328851</v>
       </c>
     </row>
     <row r="57">
@@ -1239,10 +1239,10 @@
         <v>0.5361254248437671</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8920373965463697</v>
+        <v>0.7897957601767343</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8535584459374991</v>
+        <v>0.7903167670365661</v>
       </c>
     </row>
     <row r="58">
@@ -1253,10 +1253,10 @@
         <v>0.5880681099407117</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8985623393822302</v>
+        <v>0.7965629267182627</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8638362804053245</v>
+        <v>0.7964691359019269</v>
       </c>
     </row>
     <row r="59">
@@ -1267,10 +1267,10 @@
         <v>0.6321506582442883</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9112490975352024</v>
+        <v>0.8358846650074575</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8776765724344318</v>
+        <v>0.8310294856107696</v>
       </c>
     </row>
     <row r="60">
@@ -1281,10 +1281,10 @@
         <v>0.6553768564513001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9281348179252223</v>
+        <v>0.8726750861294454</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8997486378632679</v>
+        <v>0.8657417076906133</v>
       </c>
     </row>
     <row r="61">
@@ -1295,10 +1295,10 @@
         <v>0.619272515665455</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9251656562873781</v>
+        <v>0.8600159296332401</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8931403144728758</v>
+        <v>0.8474504651186801</v>
       </c>
     </row>
     <row r="62">
@@ -1309,10 +1309,10 @@
         <v>0.6294856333229318</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9191106170400476</v>
+        <v>0.8337950270759286</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8944768889918671</v>
+        <v>0.8321737960921668</v>
       </c>
     </row>
     <row r="63">
@@ -1323,10 +1323,10 @@
         <v>0.6158231637893956</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9246288977302568</v>
+        <v>0.8338813387297368</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8972307117212358</v>
+        <v>0.8273060178648295</v>
       </c>
     </row>
     <row r="64">
@@ -1337,10 +1337,10 @@
         <v>0.5985089354237474</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9133566521689562</v>
+        <v>0.8150658188860662</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8873998034089701</v>
+        <v>0.8117190662303313</v>
       </c>
     </row>
     <row r="65">
@@ -1351,10 +1351,10 @@
         <v>0.609354574818888</v>
       </c>
       <c r="C65" t="n">
-        <v>0.917581356476214</v>
+        <v>0.8379594973952804</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8896803746332254</v>
+        <v>0.8291702583148711</v>
       </c>
     </row>
     <row r="66">
@@ -1365,10 +1365,10 @@
         <v>0.5864572879154614</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9118215397402561</v>
+        <v>0.8431349040634601</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8807784752371091</v>
+        <v>0.8375423540632831</v>
       </c>
     </row>
     <row r="67">
@@ -1379,10 +1379,10 @@
         <v>0.6247037689861942</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9201641158667648</v>
+        <v>0.8522875376944884</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8948176562641537</v>
+        <v>0.846361122083058</v>
       </c>
     </row>
     <row r="68">
@@ -1393,10 +1393,10 @@
         <v>0.6439745979270154</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9289877893283331</v>
+        <v>0.8383700909057071</v>
       </c>
       <c r="D68" t="n">
-        <v>0.903034532294511</v>
+        <v>0.8294882567029822</v>
       </c>
     </row>
     <row r="69">
@@ -1407,10 +1407,10 @@
         <v>0.6630936216507974</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9330903662258438</v>
+        <v>0.8251073155048765</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9069135310914344</v>
+        <v>0.8179663644703513</v>
       </c>
     </row>
     <row r="70">
@@ -1421,10 +1421,10 @@
         <v>0.6551407150025722</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9440022700255603</v>
+        <v>0.8400843099145663</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9146020477013106</v>
+        <v>0.8335473303945117</v>
       </c>
     </row>
     <row r="71">
@@ -1435,10 +1435,10 @@
         <v>0.6648731161394247</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9438323537587933</v>
+        <v>0.8324139421046181</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9202634318703882</v>
+        <v>0.8238559069459134</v>
       </c>
     </row>
     <row r="72">
@@ -1449,10 +1449,10 @@
         <v>0.6739982964081199</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9511925157001569</v>
+        <v>0.862795491452833</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9284383217256738</v>
+        <v>0.8520695057218838</v>
       </c>
     </row>
     <row r="73">
@@ -1463,10 +1463,10 @@
         <v>0.6648309480235804</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9498108658223225</v>
+        <v>0.8663699653119619</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9246524146746276</v>
+        <v>0.8523980322738394</v>
       </c>
     </row>
     <row r="74">
@@ -1477,10 +1477,10 @@
         <v>0.6562370860145227</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9493530307946059</v>
+        <v>0.8618238942766516</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9237560425623871</v>
+        <v>0.8509875084398161</v>
       </c>
     </row>
     <row r="75">
@@ -1491,10 +1491,10 @@
         <v>0.6661718941074275</v>
       </c>
       <c r="C75" t="n">
-        <v>0.958414274751105</v>
+        <v>0.8503997729386359</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9574081532252465</v>
+        <v>0.8452581501475194</v>
       </c>
     </row>
     <row r="76">
@@ -1505,10 +1505,10 @@
         <v>0.666028522513557</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9598899781257296</v>
+        <v>0.8416040615031443</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9551330642777284</v>
+        <v>0.8388548200207894</v>
       </c>
     </row>
     <row r="77">
@@ -1519,10 +1519,10 @@
         <v>0.6804837526249652</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9668593781570428</v>
+        <v>0.8533226364693789</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9640398299109085</v>
+        <v>0.8468915352429758</v>
       </c>
     </row>
     <row r="78">
@@ -1533,10 +1533,10 @@
         <v>0.6719320587317518</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9536771535869968</v>
+        <v>0.8473409271919081</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9495359027101437</v>
+        <v>0.8414693015028574</v>
       </c>
     </row>
     <row r="79">
@@ -1547,10 +1547,10 @@
         <v>0.6353132669326069</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9380822149590743</v>
+        <v>0.8204491970166923</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9335046954023919</v>
+        <v>0.81339658032697</v>
       </c>
     </row>
     <row r="80">
@@ -1561,10 +1561,10 @@
         <v>0.6598382431076215</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9449830777307319</v>
+        <v>0.8369689827444629</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9394478684511509</v>
+        <v>0.8337897781063278</v>
       </c>
     </row>
     <row r="81">
@@ -1575,10 +1575,10 @@
         <v>0.6857547671054962</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9561166190200707</v>
+        <v>0.8629737908122408</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9482103312588197</v>
+        <v>0.8638914782088348</v>
       </c>
     </row>
     <row r="82">
@@ -1589,10 +1589,10 @@
         <v>0.7014328725763875</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9572636328414292</v>
+        <v>0.8527606128498809</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9521053137327075</v>
+        <v>0.848487402180476</v>
       </c>
     </row>
     <row r="83">
@@ -1603,10 +1603,10 @@
         <v>0.6789572668314034</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9537209603899894</v>
+        <v>0.8495906646817498</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9460650998502468</v>
+        <v>0.8419917322690358</v>
       </c>
     </row>
     <row r="84">
@@ -1617,10 +1617,10 @@
         <v>0.6652104610661786</v>
       </c>
       <c r="C84" t="n">
-        <v>0.942870107591953</v>
+        <v>0.8299072196173662</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9346336493030104</v>
+        <v>0.8249310349262485</v>
       </c>
     </row>
     <row r="85">
@@ -1631,10 +1631,10 @@
         <v>0.6702284668516442</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9541384742527893</v>
+        <v>0.8397560161291668</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9459177427751926</v>
+        <v>0.8343646660060183</v>
       </c>
     </row>
     <row r="86">
@@ -1645,10 +1645,10 @@
         <v>0.6667959822219224</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9494090369533201</v>
+        <v>0.8372860523841051</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9401027630633602</v>
+        <v>0.8317652445773476</v>
       </c>
     </row>
     <row r="87">
@@ -1659,10 +1659,10 @@
         <v>0.6588262083273595</v>
       </c>
       <c r="C87" t="n">
-        <v>0.942208191657616</v>
+        <v>0.835205218323354</v>
       </c>
       <c r="D87" t="n">
-        <v>0.930883040667379</v>
+        <v>0.8289573357294268</v>
       </c>
     </row>
     <row r="88">
@@ -1673,10 +1673,10 @@
         <v>0.6769078964013729</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9457145976821879</v>
+        <v>0.8412263100626193</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9344885229086649</v>
+        <v>0.8324961678489416</v>
       </c>
     </row>
     <row r="89">
@@ -1687,10 +1687,10 @@
         <v>0.6668044158450912</v>
       </c>
       <c r="C89" t="n">
-        <v>0.944864441954259</v>
+        <v>0.8308447965160072</v>
       </c>
       <c r="D89" t="n">
-        <v>0.929992855678904</v>
+        <v>0.8241874151092863</v>
       </c>
     </row>
     <row r="90">
@@ -1701,10 +1701,10 @@
         <v>0.6567431034046537</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9359898211199806</v>
+        <v>0.8249739135964722</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9240871729908855</v>
+        <v>0.8175100432891355</v>
       </c>
     </row>
     <row r="91">
@@ -1715,10 +1715,10 @@
         <v>0.6558997410877687</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9279545144501657</v>
+        <v>0.8321499180554557</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9165308619378476</v>
+        <v>0.824487913160729</v>
       </c>
     </row>
     <row r="92">
@@ -1729,10 +1729,10 @@
         <v>0.6663490001939734</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9387224537287622</v>
+        <v>0.8340799645184062</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9266325707896416</v>
+        <v>0.8282624300392231</v>
       </c>
     </row>
     <row r="93">
@@ -1743,10 +1743,10 @@
         <v>0.6540865121064661</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9420709739292197</v>
+        <v>0.8380496115205647</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9305596451745617</v>
+        <v>0.8332877492273045</v>
       </c>
     </row>
     <row r="94">
@@ -1757,10 +1757,10 @@
         <v>0.684759599571572</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9542470563094733</v>
+        <v>0.8576825982376779</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9438613535151381</v>
+        <v>0.8563616957251305</v>
       </c>
     </row>
     <row r="95">
@@ -1771,10 +1771,10 @@
         <v>0.680947601899252</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9526696249236571</v>
+        <v>0.8475352088484858</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9584029708868913</v>
+        <v>0.8451922348737976</v>
       </c>
     </row>
     <row r="96">
@@ -1785,10 +1785,10 @@
         <v>0.6858138024676781</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9459123692215</v>
+        <v>0.847629757438177</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9501371681613865</v>
+        <v>0.848914768454859</v>
       </c>
     </row>
     <row r="97">
@@ -1799,10 +1799,10 @@
         <v>0.7002184308400732</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9522194287394947</v>
+        <v>0.8640956107798629</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9589520786860931</v>
+        <v>0.865380561487987</v>
       </c>
     </row>
     <row r="98">
@@ -1813,10 +1813,10 @@
         <v>0.6930161166538756</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9536439771220028</v>
+        <v>0.8667323685731581</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9600763635699758</v>
+        <v>0.8660296388187951</v>
       </c>
     </row>
     <row r="99">
@@ -1827,10 +1827,10 @@
         <v>0.7224494615131607</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9635088935494392</v>
+        <v>0.8811985748472482</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9724563131602972</v>
+        <v>0.8829006768096703</v>
       </c>
     </row>
     <row r="100">
@@ -1841,10 +1841,10 @@
         <v>0.7208133386184038</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9672478584754932</v>
+        <v>0.88554387883991</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9686990418412751</v>
+        <v>0.8864223756067975</v>
       </c>
     </row>
     <row r="101">
@@ -1855,10 +1855,10 @@
         <v>0.7417034232076443</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9832762513146438</v>
+        <v>0.9028904195692758</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9831635034915128</v>
+        <v>0.8991769549109035</v>
       </c>
     </row>
     <row r="102">
@@ -1869,10 +1869,10 @@
         <v>0.7332951009083012</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9849781420722802</v>
+        <v>0.9151001968861996</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9828346602752045</v>
+        <v>0.909819235322548</v>
       </c>
     </row>
     <row r="103">
@@ -1883,10 +1883,10 @@
         <v>0.7371239658269589</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9850248532286744</v>
+        <v>0.9155631622409346</v>
       </c>
       <c r="D103" t="n">
-        <v>0.979467355517035</v>
+        <v>0.9113250441687558</v>
       </c>
     </row>
     <row r="104">
@@ -1897,10 +1897,10 @@
         <v>0.7473876852234489</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9887708576354084</v>
+        <v>0.9167238297415428</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9883070305906926</v>
+        <v>0.9114165581547085</v>
       </c>
     </row>
     <row r="105">
@@ -1911,10 +1911,10 @@
         <v>0.7678476550310779</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9911432467392336</v>
+        <v>0.9249897827053927</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9900765250727397</v>
+        <v>0.9191582312075517</v>
       </c>
     </row>
     <row r="106">
@@ -1925,10 +1925,10 @@
         <v>0.7843438219493477</v>
       </c>
       <c r="C106" t="n">
-        <v>0.988507482186191</v>
+        <v>0.9072578944000851</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9830615836185244</v>
+        <v>0.9084580537604627</v>
       </c>
     </row>
     <row r="107">
@@ -1939,10 +1939,10 @@
         <v>0.7913184283099862</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9879269864336255</v>
+        <v>0.903871761011881</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9829378153641066</v>
+        <v>0.9034180375924104</v>
       </c>
     </row>
     <row r="108">
@@ -1953,10 +1953,10 @@
         <v>0.7981327958304167</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9906731859640734</v>
+        <v>0.9085838349220237</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9863748485954074</v>
+        <v>0.9072135945425669</v>
       </c>
     </row>
     <row r="109">
@@ -1967,10 +1967,10 @@
         <v>0.8235011343223162</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9984286806124463</v>
+        <v>0.9073340527407592</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9956367380530523</v>
+        <v>0.9051753321095504</v>
       </c>
     </row>
     <row r="110">
@@ -1981,10 +1981,10 @@
         <v>0.8159277407166893</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9999611721283976</v>
+        <v>0.9134062657826172</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9991473563062949</v>
+        <v>0.9108115066781314</v>
       </c>
     </row>
     <row r="111">
@@ -1995,10 +1995,10 @@
         <v>0.7985460433656904</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9926481272681458</v>
+        <v>0.9120165886651264</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9937824696234606</v>
+        <v>0.9080646130621777</v>
       </c>
     </row>
     <row r="112">
@@ -2009,10 +2009,10 @@
         <v>0.7825980619533958</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9928736848655947</v>
+        <v>0.8926492537739175</v>
       </c>
       <c r="D112" t="n">
-        <v>1.001542243027354</v>
+        <v>0.8875719611786489</v>
       </c>
     </row>
     <row r="113">
@@ -2023,10 +2023,10 @@
         <v>0.7790643738456479</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9776754601237597</v>
+        <v>0.8885641740280834</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9789472496228901</v>
+        <v>0.8823149792237757</v>
       </c>
     </row>
     <row r="114">
@@ -2037,10 +2037,10 @@
         <v>0.7888052086056691</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9774784564904928</v>
+        <v>0.8931405583976735</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9846109188649625</v>
+        <v>0.8866483834364454</v>
       </c>
     </row>
     <row r="115">
@@ -2051,10 +2051,10 @@
         <v>0.8058073929140698</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9916436948419098</v>
+        <v>0.9005083546514266</v>
       </c>
       <c r="D115" t="n">
-        <v>0.991932716455237</v>
+        <v>0.8929133899646583</v>
       </c>
     </row>
     <row r="116">
@@ -2065,10 +2065,10 @@
         <v>0.8106820271056648</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9864271217281793</v>
+        <v>0.9046068360529019</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9850406964694893</v>
+        <v>0.9013615673456736</v>
       </c>
     </row>
     <row r="117">
@@ -2079,10 +2079,10 @@
         <v>0.8144518566621406</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9880560480361972</v>
+        <v>0.9062261023170242</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9937718276768048</v>
+        <v>0.9027281813737909</v>
       </c>
     </row>
     <row r="118">
@@ -2093,10 +2093,10 @@
         <v>0.8040278984254425</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9837595142862083</v>
+        <v>0.903385504782162</v>
       </c>
       <c r="D118" t="n">
-        <v>0.989236513339311</v>
+        <v>0.897007521989158</v>
       </c>
     </row>
     <row r="119">
@@ -2107,10 +2107,10 @@
         <v>0.8094169836303374</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9994149995409238</v>
+        <v>0.9026398428782036</v>
       </c>
       <c r="D119" t="n">
-        <v>1.019703631896294</v>
+        <v>0.8957603132564949</v>
       </c>
     </row>
     <row r="120">
@@ -2121,10 +2121,10 @@
         <v>0.7959400538065158</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9941202185868261</v>
+        <v>0.8939893407358341</v>
       </c>
       <c r="D120" t="n">
-        <v>1.012155313406478</v>
+        <v>0.8850422971601956</v>
       </c>
     </row>
     <row r="121">
@@ -2135,10 +2135,10 @@
         <v>0.8094844526156882</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9998363492973247</v>
+        <v>0.8956182949646474</v>
       </c>
       <c r="D121" t="n">
-        <v>1.019882869245354</v>
+        <v>0.8864563765098736</v>
       </c>
     </row>
     <row r="122">
@@ -2149,10 +2149,10 @@
         <v>0.7913605964258305</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9975135286757282</v>
+        <v>0.8924929269555371</v>
       </c>
       <c r="D122" t="n">
-        <v>1.020424748062913</v>
+        <v>0.8841083877722669</v>
       </c>
     </row>
     <row r="123">
@@ -2163,10 +2163,10 @@
         <v>0.8073929140698135</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9977750749247102</v>
+        <v>0.9066438858122521</v>
       </c>
       <c r="D123" t="n">
-        <v>1.017082223442885</v>
+        <v>0.8975077911040514</v>
       </c>
     </row>
     <row r="124">
@@ -2177,10 +2177,10 @@
         <v>0.8016664839381646</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9989532287019093</v>
+        <v>0.9094473072298475</v>
       </c>
       <c r="D124" t="n">
-        <v>1.016433820847364</v>
+        <v>0.8981798572297189</v>
       </c>
     </row>
     <row r="125">
@@ -2191,10 +2191,10 @@
         <v>0.8113398497128351</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9988270762129587</v>
+        <v>0.9192941320896899</v>
       </c>
       <c r="D125" t="n">
-        <v>1.021590032934027</v>
+        <v>0.9071984159113086</v>
       </c>
     </row>
     <row r="126">
@@ -2205,10 +2205,10 @@
         <v>0.8116097256542383</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9970057755255991</v>
+        <v>0.9205626546442014</v>
       </c>
       <c r="D126" t="n">
-        <v>1.015867225337486</v>
+        <v>0.908984418310181</v>
       </c>
     </row>
     <row r="127">
@@ -2219,10 +2219,10 @@
         <v>0.8160795459337286</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9990271111851678</v>
+        <v>0.9270748481068296</v>
       </c>
       <c r="D127" t="n">
-        <v>1.019069984161521</v>
+        <v>0.9142957926144828</v>
       </c>
     </row>
     <row r="128">
@@ -2233,10 +2233,10 @@
         <v>0.8343973754564699</v>
       </c>
       <c r="C128" t="n">
-        <v>1.004184397173202</v>
+        <v>0.9402411071985508</v>
       </c>
       <c r="D128" t="n">
-        <v>1.022411608748232</v>
+        <v>0.929709043054059</v>
       </c>
     </row>
     <row r="129">
@@ -2247,10 +2247,10 @@
         <v>0.8244794346099028</v>
       </c>
       <c r="C129" t="n">
-        <v>1.022664715214121</v>
+        <v>0.9243079927125846</v>
       </c>
       <c r="D129" t="n">
-        <v>1.040738653634118</v>
+        <v>0.9162149743578012</v>
       </c>
     </row>
     <row r="130">
@@ -2261,10 +2261,10 @@
         <v>0.8414225835561215</v>
       </c>
       <c r="C130" t="n">
-        <v>1.02559924283775</v>
+        <v>0.9276349621618294</v>
       </c>
       <c r="D130" t="n">
-        <v>1.041792332611601</v>
+        <v>0.9135278302500338</v>
       </c>
     </row>
     <row r="131">
@@ -2275,10 +2275,10 @@
         <v>0.8362780734231233</v>
       </c>
       <c r="C131" t="n">
-        <v>1.025948071828445</v>
+        <v>0.9142795611632835</v>
       </c>
       <c r="D131" t="n">
-        <v>1.04686184419862</v>
+        <v>0.901673275092409</v>
       </c>
     </row>
     <row r="132">
@@ -2289,10 +2289,10 @@
         <v>0.8436321928263601</v>
       </c>
       <c r="C132" t="n">
-        <v>1.026254337138287</v>
+        <v>0.9187136747896436</v>
       </c>
       <c r="D132" t="n">
-        <v>1.04633008477926</v>
+        <v>0.9059130496416105</v>
       </c>
     </row>
     <row r="133">
@@ -2303,10 +2303,10 @@
         <v>0.8323733058959459</v>
       </c>
       <c r="C133" t="n">
-        <v>1.021274919465481</v>
+        <v>0.9164509720900588</v>
       </c>
       <c r="D133" t="n">
-        <v>1.040017603662529</v>
+        <v>0.9052186824002652</v>
       </c>
     </row>
     <row r="134">
@@ -2317,10 +2317,10 @@
         <v>0.8470731110792508</v>
       </c>
       <c r="C134" t="n">
-        <v>1.020870522285822</v>
+        <v>0.9161700334047251</v>
       </c>
       <c r="D134" t="n">
-        <v>1.037787834526521</v>
+        <v>0.9018539586250975</v>
       </c>
     </row>
     <row r="135">
@@ -2331,10 +2331,10 @@
         <v>0.8584669359803665</v>
       </c>
       <c r="C135" t="n">
-        <v>1.023138533202348</v>
+        <v>0.9191973396361675</v>
       </c>
       <c r="D135" t="n">
-        <v>1.036837822005956</v>
+        <v>0.9052093205743033</v>
       </c>
     </row>
     <row r="136">
@@ -2345,10 +2345,10 @@
         <v>0.8480261104973308</v>
       </c>
       <c r="C136" t="n">
-        <v>1.020965213643678</v>
+        <v>0.9155379734863627</v>
       </c>
       <c r="D136" t="n">
-        <v>1.031588702111946</v>
+        <v>0.8984027375599639</v>
       </c>
     </row>
     <row r="137">
@@ -2359,10 +2359,10 @@
         <v>0.8677186205965945</v>
       </c>
       <c r="C137" t="n">
-        <v>1.032509154240077</v>
+        <v>0.916266070811412</v>
       </c>
       <c r="D137" t="n">
-        <v>1.04654645786151</v>
+        <v>0.9028312826406606</v>
       </c>
     </row>
     <row r="138">
@@ -2373,10 +2373,10 @@
         <v>0.8806895330302852</v>
       </c>
       <c r="C138" t="n">
-        <v>1.033093680161107</v>
+        <v>0.9245077868612875</v>
       </c>
       <c r="D138" t="n">
-        <v>1.046789247448056</v>
+        <v>0.908478603153817</v>
       </c>
     </row>
     <row r="139">
@@ -2387,10 +2387,10 @@
         <v>0.8797112327426986</v>
       </c>
       <c r="C139" t="n">
-        <v>1.020780533878471</v>
+        <v>0.9268864375568644</v>
       </c>
       <c r="D139" t="n">
-        <v>1.035003062420758</v>
+        <v>0.9091603124406158</v>
       </c>
     </row>
     <row r="140">
@@ -2401,10 +2401,10 @@
         <v>0.8795425602793217</v>
       </c>
       <c r="C140" t="n">
-        <v>1.028139586706807</v>
+        <v>0.9379969646709085</v>
       </c>
       <c r="D140" t="n">
-        <v>1.042014108181816</v>
+        <v>0.9218936119410032</v>
       </c>
     </row>
     <row r="141">
@@ -2415,10 +2415,10 @@
         <v>0.862700614811129</v>
       </c>
       <c r="C141" t="n">
-        <v>1.033127429270563</v>
+        <v>0.927568993610685</v>
       </c>
       <c r="D141" t="n">
-        <v>1.043887801071731</v>
+        <v>0.9123959212720499</v>
       </c>
     </row>
     <row r="142">
@@ -2429,10 +2429,10 @@
         <v>0.8634512072731566</v>
       </c>
       <c r="C142" t="n">
-        <v>1.032331312548182</v>
+        <v>0.9314752861439822</v>
       </c>
       <c r="D142" t="n">
-        <v>1.040841315929586</v>
+        <v>0.9138386523881494</v>
       </c>
     </row>
     <row r="143">
@@ -2443,10 +2443,10 @@
         <v>0.8811196478118964</v>
       </c>
       <c r="C143" t="n">
-        <v>1.041460635503402</v>
+        <v>0.9460909618893627</v>
       </c>
       <c r="D143" t="n">
-        <v>1.051259114455217</v>
+        <v>0.9276613333154748</v>
       </c>
     </row>
     <row r="144">
@@ -2457,10 +2457,10 @@
         <v>0.8780160744857598</v>
       </c>
       <c r="C144" t="n">
-        <v>1.034791025089556</v>
+        <v>0.9411957476029407</v>
       </c>
       <c r="D144" t="n">
-        <v>1.045708564553798</v>
+        <v>0.9240385919516203</v>
       </c>
     </row>
     <row r="145">
@@ -2471,10 +2471,10 @@
         <v>0.8906327747463588</v>
       </c>
       <c r="C145" t="n">
-        <v>1.033902040454098</v>
+        <v>0.9410110673363827</v>
       </c>
       <c r="D145" t="n">
-        <v>1.046789843155381</v>
+        <v>0.9249942207924308</v>
       </c>
     </row>
     <row r="146">
@@ -2485,10 +2485,10 @@
         <v>0.8856063353377245</v>
       </c>
       <c r="C146" t="n">
-        <v>1.034995119744413</v>
+        <v>0.9484496634557678</v>
       </c>
       <c r="D146" t="n">
-        <v>1.046243485311094</v>
+        <v>0.9297429785389439</v>
       </c>
     </row>
     <row r="147">
@@ -2499,10 +2499,10 @@
         <v>0.8679210275526469</v>
       </c>
       <c r="C147" t="n">
-        <v>1.037578763297024</v>
+        <v>0.9693407628848991</v>
       </c>
       <c r="D147" t="n">
-        <v>1.050880605458092</v>
+        <v>0.9439314972197221</v>
       </c>
     </row>
     <row r="148">
@@ -2513,10 +2513,10 @@
         <v>0.8672294704528012</v>
       </c>
       <c r="C148" t="n">
-        <v>1.027630311657729</v>
+        <v>0.9537783155001494</v>
       </c>
       <c r="D148" t="n">
-        <v>1.045018227653897</v>
+        <v>0.931999488745977</v>
       </c>
     </row>
     <row r="149">
@@ -2527,10 +2527,10 @@
         <v>0.853617602658278</v>
       </c>
       <c r="C149" t="n">
-        <v>1.007906751837878</v>
+        <v>0.953069792819332</v>
       </c>
       <c r="D149" t="n">
-        <v>1.033612587605276</v>
+        <v>0.9318486613025078</v>
       </c>
     </row>
     <row r="150">
@@ -2541,10 +2541,10 @@
         <v>0.8669933290040734</v>
       </c>
       <c r="C150" t="n">
-        <v>1.015258345571796</v>
+        <v>0.9485251642119531</v>
       </c>
       <c r="D150" t="n">
-        <v>1.040215638656362</v>
+        <v>0.9275519048902827</v>
       </c>
     </row>
     <row r="151">
@@ -2555,10 +2555,10 @@
         <v>0.8781594460796303</v>
       </c>
       <c r="C151" t="n">
-        <v>1.016446515909365</v>
+        <v>0.9658664010543681</v>
       </c>
       <c r="D151" t="n">
-        <v>1.045397899380685</v>
+        <v>0.9452825315385356</v>
       </c>
     </row>
     <row r="152">
@@ -2569,10 +2569,10 @@
         <v>0.8667740548016833</v>
       </c>
       <c r="C152" t="n">
-        <v>1.012712712076094</v>
+        <v>0.9623262271840213</v>
       </c>
       <c r="D152" t="n">
-        <v>1.039611208192661</v>
+        <v>0.9426645139396711</v>
       </c>
     </row>
     <row r="153">
@@ -2583,10 +2583,10 @@
         <v>0.8724077150784748</v>
       </c>
       <c r="C153" t="n">
-        <v>1.001484445382447</v>
+        <v>0.9627537976255256</v>
       </c>
       <c r="D153" t="n">
-        <v>1.03194754015223</v>
+        <v>0.9426867779324954</v>
       </c>
     </row>
     <row r="154">
@@ -2597,10 +2597,10 @@
         <v>0.8616970136540359</v>
       </c>
       <c r="C154" t="n">
-        <v>1.00304873492409</v>
+        <v>0.9593006197674864</v>
       </c>
       <c r="D154" t="n">
-        <v>1.026800985587271</v>
+        <v>0.9406263903651405</v>
       </c>
     </row>
     <row r="155">
@@ -2611,10 +2611,10 @@
         <v>0.8612247307565803</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9941516765087197</v>
+        <v>0.9541729959634488</v>
       </c>
       <c r="D155" t="n">
-        <v>1.017247913759511</v>
+        <v>0.9348296138925256</v>
       </c>
     </row>
     <row r="156">
@@ -2625,10 +2625,10 @@
         <v>0.8472502171657966</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9853150851809009</v>
+        <v>0.9485611661806221</v>
       </c>
       <c r="D156" t="n">
-        <v>1.005604255346794</v>
+        <v>0.9253092558990264</v>
       </c>
     </row>
     <row r="157">
@@ -2639,10 +2639,10 @@
         <v>0.8547730090324104</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9836080379864162</v>
+        <v>0.9497124226126311</v>
       </c>
       <c r="D157" t="n">
-        <v>1.00443444892091</v>
+        <v>0.9250261672194685</v>
       </c>
     </row>
     <row r="158">
@@ -2653,10 +2653,10 @@
         <v>0.8399466995015729</v>
       </c>
       <c r="C158" t="n">
-        <v>0.972450814518876</v>
+        <v>0.9414798070061166</v>
       </c>
       <c r="D158" t="n">
-        <v>0.991009638445066</v>
+        <v>0.914857978426978</v>
       </c>
     </row>
     <row r="159">
@@ -2667,10 +2667,10 @@
         <v>0.8607777487286313</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9812011427825723</v>
+        <v>0.9510409703426621</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9990124736784328</v>
+        <v>0.9245439710770187</v>
       </c>
     </row>
     <row r="160">
@@ -2681,10 +2681,10 @@
         <v>0.8505646310711544</v>
       </c>
       <c r="C160" t="n">
-        <v>1.020335291761532</v>
+        <v>0.9459649444727223</v>
       </c>
       <c r="D160" t="n">
-        <v>1.032626237332741</v>
+        <v>0.9190916761015524</v>
       </c>
     </row>
     <row r="161">
@@ -2695,10 +2695,10 @@
         <v>0.8557428756968282</v>
       </c>
       <c r="C161" t="n">
-        <v>0.999397400026741</v>
+        <v>0.9460134814896386</v>
       </c>
       <c r="D161" t="n">
-        <v>1.012939809496344</v>
+        <v>0.9208333417472236</v>
       </c>
     </row>
     <row r="162">
@@ -2709,10 +2709,10 @@
         <v>0.8561898577247772</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9900698053300174</v>
+        <v>0.9485845892062252</v>
       </c>
       <c r="D162" t="n">
-        <v>1.011170063268009</v>
+        <v>0.9257969580241564</v>
       </c>
     </row>
     <row r="163">
@@ -2723,10 +2723,10 @@
         <v>0.8627427829269733</v>
       </c>
       <c r="C163" t="n">
-        <v>1.000985164042158</v>
+        <v>0.947023565812078</v>
       </c>
       <c r="D163" t="n">
-        <v>1.026993069240276</v>
+        <v>0.9222871134540687</v>
       </c>
     </row>
     <row r="164">
@@ -2737,10 +2737,10 @@
         <v>0.8612247307565803</v>
       </c>
       <c r="C164" t="n">
-        <v>1.002122360433855</v>
+        <v>0.9459318579240834</v>
       </c>
       <c r="D164" t="n">
-        <v>1.028298858489207</v>
+        <v>0.9220548645442218</v>
       </c>
     </row>
     <row r="165">
@@ -2751,10 +2751,10 @@
         <v>0.8486501986118257</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9966121005028202</v>
+        <v>0.9376666953819565</v>
       </c>
       <c r="D165" t="n">
-        <v>1.021895841166291</v>
+        <v>0.9161854051652828</v>
       </c>
     </row>
     <row r="166">
@@ -2765,10 +2765,10 @@
         <v>0.8486248977423191</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9927032056828107</v>
+        <v>0.9255152449698767</v>
       </c>
       <c r="D166" t="n">
-        <v>1.017972822951592</v>
+        <v>0.9012855383062424</v>
       </c>
     </row>
     <row r="167">
@@ -2779,10 +2779,10 @@
         <v>0.8614355713358016</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9975796277066364</v>
+        <v>0.9336828357933186</v>
       </c>
       <c r="D167" t="n">
-        <v>1.02428028798836</v>
+        <v>0.9106272851739816</v>
       </c>
     </row>
     <row r="168">
@@ -2793,10 +2793,10 @@
         <v>0.8380407006654129</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9895957994793877</v>
+        <v>0.9329386329097491</v>
       </c>
       <c r="D168" t="n">
-        <v>1.011668988738086</v>
+        <v>0.9094412227732129</v>
       </c>
     </row>
     <row r="169">
@@ -2807,10 +2807,10 @@
         <v>0.8616464119150228</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9908984456151134</v>
+        <v>0.9285829984411258</v>
       </c>
       <c r="D169" t="n">
-        <v>1.018211146653066</v>
+        <v>0.9068193159495628</v>
       </c>
     </row>
     <row r="170">
@@ -2821,10 +2821,10 @@
         <v>0.8594789707606285</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9878626252208677</v>
+        <v>0.9340698222411243</v>
       </c>
       <c r="D170" t="n">
-        <v>1.016334871434627</v>
+        <v>0.9129852590034588</v>
       </c>
     </row>
     <row r="171">
@@ -2835,10 +2835,10 @@
         <v>0.8494429591896975</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9842542278521232</v>
+        <v>0.9314097562287085</v>
       </c>
       <c r="D171" t="n">
-        <v>1.01131623368953</v>
+        <v>0.9106916868934102</v>
       </c>
     </row>
     <row r="172">
@@ -2849,10 +2849,10 @@
         <v>0.8538368768606681</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9857020894428067</v>
+        <v>0.9287184543096716</v>
       </c>
       <c r="D172" t="n">
-        <v>1.013611942090742</v>
+        <v>0.9080200253627252</v>
       </c>
     </row>
     <row r="173">
@@ -2863,10 +2863,10 @@
         <v>0.8437839980433994</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9791028792314895</v>
+        <v>0.9344103016212747</v>
       </c>
       <c r="D173" t="n">
-        <v>1.005038892523669</v>
+        <v>0.9152836682099577</v>
       </c>
     </row>
     <row r="174">
@@ -2877,10 +2877,10 @@
         <v>0.8542585580191105</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9853603674920406</v>
+        <v>0.9424430216841999</v>
       </c>
       <c r="D174" t="n">
-        <v>1.013067391389546</v>
+        <v>0.923055844696552</v>
       </c>
     </row>
     <row r="175">
@@ -2891,10 +2891,10 @@
         <v>0.8335371458932472</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9766355661974438</v>
+        <v>0.9322851287152605</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9995131375510888</v>
+        <v>0.9126759398482936</v>
       </c>
     </row>
     <row r="176">
@@ -2905,10 +2905,10 @@
         <v>0.8295564757575502</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9729345171576536</v>
+        <v>0.92454768106059</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9956750900618261</v>
+        <v>0.9051037026479311</v>
       </c>
     </row>
     <row r="177">
@@ -2919,10 +2919,10 @@
         <v>0.8456815632563905</v>
       </c>
       <c r="C177" t="n">
-        <v>0.975631470001647</v>
+        <v>0.9250324247833375</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9989962967542626</v>
+        <v>0.904553481039421</v>
       </c>
     </row>
     <row r="178">
@@ -2933,10 +2933,10 @@
         <v>0.8458755365892742</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9758255084446597</v>
+        <v>0.9269721238360917</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9965643889037127</v>
+        <v>0.9075150208870143</v>
       </c>
     </row>
     <row r="179">
@@ -2947,10 +2947,10 @@
         <v>0.8406298229782497</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9785208956267214</v>
+        <v>0.9260315236660742</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9996753334214187</v>
+        <v>0.9074004459343703</v>
       </c>
     </row>
     <row r="180">
@@ -2961,10 +2961,10 @@
         <v>0.8441888119555042</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9800284467394424</v>
+        <v>0.9296715619213021</v>
       </c>
       <c r="D180" t="n">
-        <v>1.001847122581683</v>
+        <v>0.909890955381959</v>
       </c>
     </row>
     <row r="181">
@@ -2975,10 +2975,10 @@
         <v>0.8289408212662241</v>
       </c>
       <c r="C181" t="n">
-        <v>0.966288440505058</v>
+        <v>0.9323121664502284</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9888959116449481</v>
+        <v>0.911112183137002</v>
       </c>
     </row>
     <row r="182">
@@ -2989,10 +2989,10 @@
         <v>0.8179855447698886</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9698507520165736</v>
+        <v>0.9375801499137584</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9924069135218022</v>
+        <v>0.9147387242288273</v>
       </c>
     </row>
     <row r="183">
@@ -3003,10 +3003,10 @@
         <v>0.82054093259005</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9726665229929635</v>
+        <v>0.9416664645029125</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9959269250564079</v>
+        <v>0.9179842202342026</v>
       </c>
     </row>
     <row r="184">
@@ -3017,10 +3017,10 @@
         <v>0.8073929140698135</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9606396736200483</v>
+        <v>0.9453639199738888</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9860038886639242</v>
+        <v>0.9236518589529232</v>
       </c>
     </row>
     <row r="185">
@@ -3031,10 +3031,10 @@
         <v>0.8181626508564345</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9654111494880252</v>
+        <v>0.9602914747592042</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9858547252695147</v>
+        <v>0.9361774914239949</v>
       </c>
     </row>
     <row r="186">
@@ -3045,10 +3045,10 @@
         <v>0.8180530137552394</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9670464043340148</v>
+        <v>0.9536272620204345</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9919579856510526</v>
+        <v>0.9325738147807416</v>
       </c>
     </row>
     <row r="187">
@@ -3059,10 +3059,10 @@
         <v>0.7983773709023133</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9625777765830122</v>
+        <v>0.9444126833868902</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9824624039515876</v>
+        <v>0.9213629783271988</v>
       </c>
     </row>
     <row r="188">
@@ -3073,10 +3073,10 @@
         <v>0.7892184561409427</v>
       </c>
       <c r="C188" t="n">
-        <v>0.9591047518918164</v>
+        <v>0.9388084259388836</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9798314761547127</v>
+        <v>0.9166845064743252</v>
       </c>
     </row>
     <row r="189">
@@ -3087,10 +3087,10 @@
         <v>0.7978460526426758</v>
       </c>
       <c r="C189" t="n">
-        <v>0.9512831219356036</v>
+        <v>0.9322447837485204</v>
       </c>
       <c r="D189" t="n">
-        <v>0.9747676480135692</v>
+        <v>0.9069683812225176</v>
       </c>
     </row>
     <row r="190">
@@ -3101,10 +3101,10 @@
         <v>0.8052339065385881</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9520061729070031</v>
+        <v>0.9401108897411888</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9729258404243578</v>
+        <v>0.9135881956079327</v>
       </c>
     </row>
     <row r="191">
@@ -3115,10 +3115,10 @@
         <v>0.7928955158425611</v>
       </c>
       <c r="C191" t="n">
-        <v>0.9479262438426321</v>
+        <v>0.9315521558766324</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9679814299767098</v>
+        <v>0.9057202140468464</v>
       </c>
     </row>
     <row r="192">
@@ -3129,10 +3129,10 @@
         <v>0.8103784166715863</v>
       </c>
       <c r="C192" t="n">
-        <v>0.9487241951388879</v>
+        <v>0.9315806587545012</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9707891130103332</v>
+        <v>0.9072122523859057</v>
       </c>
     </row>
     <row r="193">
@@ -3143,10 +3143,10 @@
         <v>0.8063808792895516</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9474694678503865</v>
+        <v>0.9281547032936249</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9707545404739151</v>
+        <v>0.9023067752065043</v>
       </c>
     </row>
     <row r="194">
@@ -3157,10 +3157,10 @@
         <v>0.805630286827524</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9393922339916201</v>
+        <v>0.9305480613188823</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9657139442622643</v>
+        <v>0.9078075728720109</v>
       </c>
     </row>
     <row r="195">
@@ -3171,10 +3171,10 @@
         <v>0.8258203806937499</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9417407597542576</v>
+        <v>0.9340787588681909</v>
       </c>
       <c r="D195" t="n">
-        <v>0.958845356878979</v>
+        <v>0.9100784071531561</v>
       </c>
     </row>
     <row r="196">
@@ -3185,10 +3185,10 @@
         <v>0.8221348873689626</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9462862478547646</v>
+        <v>0.9249807684709916</v>
       </c>
       <c r="D196" t="n">
-        <v>0.957993352313671</v>
+        <v>0.9010234767206193</v>
       </c>
     </row>
     <row r="197">
@@ -3199,10 +3199,10 @@
         <v>0.8307371830011892</v>
       </c>
       <c r="C197" t="n">
-        <v>0.9419704485268866</v>
+        <v>0.9253348563238344</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9589209457350887</v>
+        <v>0.8963389742193469</v>
       </c>
     </row>
     <row r="198">
@@ -3213,10 +3213,10 @@
         <v>0.8377455238545032</v>
       </c>
       <c r="C198" t="n">
-        <v>0.9489477336831041</v>
+        <v>0.934657222345542</v>
       </c>
       <c r="D198" t="n">
-        <v>0.9659696678743062</v>
+        <v>0.9043345238647229</v>
       </c>
     </row>
     <row r="199">
@@ -3227,10 +3227,10 @@
         <v>0.8353841093672253</v>
       </c>
       <c r="C199" t="n">
-        <v>0.9440045806805504</v>
+        <v>0.928971521309957</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9626856207841035</v>
+        <v>0.8977748686098057</v>
       </c>
     </row>
     <row r="200">
@@ -3241,10 +3241,10 @@
         <v>0.8291010601064324</v>
       </c>
       <c r="C200" t="n">
-        <v>0.943758435702887</v>
+        <v>0.9352140542638243</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9634398759073917</v>
+        <v>0.9071561584048827</v>
       </c>
     </row>
     <row r="201">
@@ -3255,10 +3255,10 @@
         <v>0.8320443945923608</v>
       </c>
       <c r="C201" t="n">
-        <v>0.9535553256483638</v>
+        <v>0.9329707155853824</v>
       </c>
       <c r="D201" t="n">
-        <v>0.9717266950955342</v>
+        <v>0.9054307161948498</v>
       </c>
     </row>
     <row r="202">
@@ -3269,10 +3269,10 @@
         <v>0.8479164733961357</v>
       </c>
       <c r="C202" t="n">
-        <v>0.9568417540036037</v>
+        <v>0.9427791837228998</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9732013926144127</v>
+        <v>0.9121041675589396</v>
       </c>
     </row>
     <row r="203">
@@ -3283,10 +3283,10 @@
         <v>0.848017676874162</v>
       </c>
       <c r="C203" t="n">
-        <v>0.9580614445260869</v>
+        <v>0.9482203869010188</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9731702509163791</v>
+        <v>0.9210129035672856</v>
       </c>
     </row>
     <row r="204">
@@ -3297,10 +3297,10 @@
         <v>0.8595380061228104</v>
       </c>
       <c r="C204" t="n">
-        <v>0.9558963556660937</v>
+        <v>0.9534361377683784</v>
       </c>
       <c r="D204" t="n">
-        <v>0.972486451037528</v>
+        <v>0.9257931974362641</v>
       </c>
     </row>
     <row r="205">
@@ -3311,10 +3311,10 @@
         <v>0.8539886820777074</v>
       </c>
       <c r="C205" t="n">
-        <v>0.9585790959628547</v>
+        <v>0.9573518028304084</v>
       </c>
       <c r="D205" t="n">
-        <v>0.9754122688496945</v>
+        <v>0.9280204851844349</v>
       </c>
     </row>
     <row r="206">
@@ -3325,10 +3325,10 @@
         <v>0.851939311647677</v>
       </c>
       <c r="C206" t="n">
-        <v>0.9722956200831688</v>
+        <v>0.9603846954231736</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9824948153461166</v>
+        <v>0.9297394606953993</v>
       </c>
     </row>
     <row r="207">
@@ -3339,10 +3339,10 @@
         <v>0.8400394693564303</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9593822004449249</v>
+        <v>0.9738603056973878</v>
       </c>
       <c r="D207" t="n">
-        <v>0.972859861270605</v>
+        <v>0.9391576703995634</v>
       </c>
     </row>
     <row r="208">
@@ -3353,10 +3353,10 @@
         <v>0.8043062079900146</v>
       </c>
       <c r="C208" t="n">
-        <v>0.962452904895669</v>
+        <v>0.9621273185357619</v>
       </c>
       <c r="D208" t="n">
-        <v>0.9660288650617166</v>
+        <v>0.9245599424284836</v>
       </c>
     </row>
     <row r="209">
@@ -3367,10 +3367,10 @@
         <v>0.8145361928938292</v>
       </c>
       <c r="C209" t="n">
-        <v>0.9510360801027224</v>
+        <v>0.959490486746768</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9608395387743344</v>
+        <v>0.9215418825146343</v>
       </c>
     </row>
     <row r="210">
@@ -3381,10 +3381,10 @@
         <v>0.7923557639597547</v>
       </c>
       <c r="C210" t="n">
-        <v>0.9472057577467392</v>
+        <v>0.9536666818237606</v>
       </c>
       <c r="D210" t="n">
-        <v>0.9521266501427209</v>
+        <v>0.9165450300082603</v>
       </c>
     </row>
     <row r="211">
@@ -3395,10 +3395,10 @@
         <v>0.8061447378408237</v>
       </c>
       <c r="C211" t="n">
-        <v>0.957197766595534</v>
+        <v>0.9774721926372709</v>
       </c>
       <c r="D211" t="n">
-        <v>0.9592713118738991</v>
+        <v>0.9340719016621442</v>
       </c>
     </row>
     <row r="212">
@@ -3409,10 +3409,10 @@
         <v>0.8249011157683452</v>
       </c>
       <c r="C212" t="n">
-        <v>0.9717722525288384</v>
+        <v>1.000984033914327</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9734798338062109</v>
+        <v>0.9537044226980875</v>
       </c>
     </row>
     <row r="213">
@@ -3423,10 +3423,10 @@
         <v>0.8498899412176465</v>
       </c>
       <c r="C213" t="n">
-        <v>0.9824215727035724</v>
+        <v>1.015456464376791</v>
       </c>
       <c r="D213" t="n">
-        <v>0.9867154674969516</v>
+        <v>0.9661704436573966</v>
       </c>
     </row>
     <row r="214">
@@ -3437,10 +3437,10 @@
         <v>0.8501007817968678</v>
       </c>
       <c r="C214" t="n">
-        <v>0.9883286067701522</v>
+        <v>1.038125961641959</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9915844687077507</v>
+        <v>0.9895600047078827</v>
       </c>
     </row>
     <row r="215">
@@ -3451,10 +3451,10 @@
         <v>0.8763630843446654</v>
       </c>
       <c r="C215" t="n">
-        <v>0.9919304383251956</v>
+        <v>1.048030798320517</v>
       </c>
       <c r="D215" t="n">
-        <v>0.9907385281586594</v>
+        <v>0.9975756427355535</v>
       </c>
     </row>
     <row r="216">
@@ -3465,10 +3465,10 @@
         <v>0.888490634461471</v>
       </c>
       <c r="C216" t="n">
-        <v>0.9859694061861161</v>
+        <v>1.056552709023067</v>
       </c>
       <c r="D216" t="n">
-        <v>0.9961578642666484</v>
+        <v>1.004856496362677</v>
       </c>
     </row>
     <row r="217">
@@ -3479,10 +3479,10 @@
         <v>0.8815834970861832</v>
       </c>
       <c r="C217" t="n">
-        <v>0.9740039040891827</v>
+        <v>1.043895802863035</v>
       </c>
       <c r="D217" t="n">
-        <v>0.9852034594676945</v>
+        <v>0.9903440387481104</v>
       </c>
     </row>
     <row r="218">
@@ -3493,10 +3493,10 @@
         <v>0.8617054472772048</v>
       </c>
       <c r="C218" t="n">
-        <v>0.9649224514838324</v>
+        <v>1.041249272095173</v>
       </c>
       <c r="D218" t="n">
-        <v>0.9714531388513955</v>
+        <v>0.9879979328524587</v>
       </c>
     </row>
     <row r="219">
@@ -3507,10 +3507,10 @@
         <v>0.8814148246228062</v>
       </c>
       <c r="C219" t="n">
-        <v>0.9752826680149088</v>
+        <v>1.046456305397541</v>
       </c>
       <c r="D219" t="n">
-        <v>1.000835581241841</v>
+        <v>0.9915002688747386</v>
       </c>
     </row>
     <row r="220">
@@ -3521,10 +3521,10 @@
         <v>0.8975905138606597</v>
       </c>
       <c r="C220" t="n">
-        <v>0.9752994531645771</v>
+        <v>1.061523522966315</v>
       </c>
       <c r="D220" t="n">
-        <v>0.9981480587373247</v>
+        <v>1.009564858821733</v>
       </c>
     </row>
     <row r="221">
@@ -3535,10 +3535,10 @@
         <v>0.9043289787725705</v>
       </c>
       <c r="C221" t="n">
-        <v>0.9715850597993617</v>
+        <v>1.055180073175524</v>
       </c>
       <c r="D221" t="n">
-        <v>0.9918453355527166</v>
+        <v>1.004157051497265</v>
       </c>
     </row>
     <row r="222">
@@ -3549,10 +3549,10 @@
         <v>0.8980374958886087</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9699615898921915</v>
+        <v>1.045084535694105</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9898352705635423</v>
+        <v>0.9925983485270802</v>
       </c>
     </row>
     <row r="223">
@@ -3563,10 +3563,10 @@
         <v>0.8983242390763496</v>
       </c>
       <c r="C223" t="n">
-        <v>0.9732718092997251</v>
+        <v>1.048338665833519</v>
       </c>
       <c r="D223" t="n">
-        <v>0.9891502906702048</v>
+        <v>0.9935565411353877</v>
       </c>
     </row>
     <row r="224">
@@ -3577,10 +3577,10 @@
         <v>0.9055940222478979</v>
       </c>
       <c r="C224" t="n">
-        <v>0.966050964903678</v>
+        <v>1.052417688916484</v>
       </c>
       <c r="D224" t="n">
-        <v>0.9793223747722311</v>
+        <v>0.9996619778423746</v>
       </c>
     </row>
     <row r="225">
@@ -3591,10 +3591,10 @@
         <v>0.9258937532153189</v>
       </c>
       <c r="C225" t="n">
-        <v>0.966277796534487</v>
+        <v>1.049382171003931</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9801545369247225</v>
+        <v>0.9911415907285586</v>
       </c>
     </row>
     <row r="226">
@@ -3605,10 +3605,10 @@
         <v>0.9288202204549096</v>
       </c>
       <c r="C226" t="n">
-        <v>0.9692272082235708</v>
+        <v>1.061703688650255</v>
       </c>
       <c r="D226" t="n">
-        <v>0.9819509530801735</v>
+        <v>1.003640556010797</v>
       </c>
     </row>
     <row r="227">
@@ -3619,10 +3619,10 @@
         <v>0.9296129810327814</v>
       </c>
       <c r="C227" t="n">
-        <v>0.9736337211854844</v>
+        <v>1.064262234686967</v>
       </c>
       <c r="D227" t="n">
-        <v>0.9892222740530502</v>
+        <v>1.006155817229172</v>
       </c>
     </row>
     <row r="228">
@@ -3633,10 +3633,10 @@
         <v>0.9325478818955412</v>
       </c>
       <c r="C228" t="n">
-        <v>0.9716489016250835</v>
+        <v>1.069525020326769</v>
       </c>
       <c r="D228" t="n">
-        <v>0.9867437631170702</v>
+        <v>1.011205211080201</v>
       </c>
     </row>
     <row r="229">
@@ -3647,10 +3647,10 @@
         <v>0.9183203596096919</v>
       </c>
       <c r="C229" t="n">
-        <v>0.9710345854268088</v>
+        <v>1.068498148419666</v>
       </c>
       <c r="D229" t="n">
-        <v>0.9837525008541455</v>
+        <v>1.010587214166175</v>
       </c>
     </row>
     <row r="230">
@@ -3661,10 +3661,10 @@
         <v>0.9389574355038668</v>
       </c>
       <c r="C230" t="n">
-        <v>0.9752869002864492</v>
+        <v>1.060902377656937</v>
       </c>
       <c r="D230" t="n">
-        <v>0.9913894706913262</v>
+        <v>1.001081065666431</v>
       </c>
     </row>
     <row r="231">
@@ -3675,10 +3675,10 @@
         <v>0.9429971410017458</v>
       </c>
       <c r="C231" t="n">
-        <v>0.9750199735822119</v>
+        <v>1.059280885640679</v>
       </c>
       <c r="D231" t="n">
-        <v>0.9926501740581831</v>
+        <v>1.007487038409776</v>
       </c>
     </row>
     <row r="232">
@@ -3689,10 +3689,10 @@
         <v>0.9523162946033246</v>
       </c>
       <c r="C232" t="n">
-        <v>0.9807029506251226</v>
+        <v>1.073966530019185</v>
       </c>
       <c r="D232" t="n">
-        <v>0.9964893379228299</v>
+        <v>1.021447032118649</v>
       </c>
     </row>
     <row r="233">
@@ -3703,10 +3703,10 @@
         <v>0.9587511490811568</v>
       </c>
       <c r="C233" t="n">
-        <v>0.9805574208635637</v>
+        <v>1.077255717607517</v>
       </c>
       <c r="D233" t="n">
-        <v>0.9993754602254615</v>
+        <v>1.026064699570367</v>
       </c>
     </row>
     <row r="234">
@@ -3717,10 +3717,10 @@
         <v>0.9582704325605323</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9808956676823467</v>
+        <v>1.098300712915701</v>
       </c>
       <c r="D234" t="n">
-        <v>0.9989443684768883</v>
+        <v>1.041794368233461</v>
       </c>
     </row>
     <row r="235">
@@ -3731,10 +3731,10 @@
         <v>0.9578150169094145</v>
       </c>
       <c r="C235" t="n">
-        <v>0.9866903625590983</v>
+        <v>1.097229899444189</v>
       </c>
       <c r="D235" t="n">
-        <v>1.005413246439571</v>
+        <v>1.043559420057486</v>
       </c>
     </row>
     <row r="236">
@@ -3745,10 +3745,10 @@
         <v>0.9506548708390612</v>
       </c>
       <c r="C236" t="n">
-        <v>0.9843269410368342</v>
+        <v>1.099381991219647</v>
       </c>
       <c r="D236" t="n">
-        <v>1.002573546432295</v>
+        <v>1.045185155729423</v>
       </c>
     </row>
     <row r="237">
@@ -3759,10 +3759,10 @@
         <v>0.9697991954323497</v>
       </c>
       <c r="C237" t="n">
-        <v>0.990438844869324</v>
+        <v>1.110123606825446</v>
       </c>
       <c r="D237" t="n">
-        <v>1.01013175343178</v>
+        <v>1.055848892389176</v>
       </c>
     </row>
     <row r="238">
@@ -3773,10 +3773,10 @@
         <v>0.9725907247012389</v>
       </c>
       <c r="C238" t="n">
-        <v>1.002777434188948</v>
+        <v>1.133898617789294</v>
       </c>
       <c r="D238" t="n">
-        <v>1.022578779708427</v>
+        <v>1.081631823858002</v>
       </c>
     </row>
     <row r="239">
@@ -3787,10 +3787,10 @@
         <v>0.9696558238384793</v>
       </c>
       <c r="C239" t="n">
-        <v>1.032514122449506</v>
+        <v>1.16026773763044</v>
       </c>
       <c r="D239" t="n">
-        <v>1.042860838393569</v>
+        <v>1.099131833748267</v>
       </c>
     </row>
     <row r="240">
@@ -3801,10 +3801,10 @@
         <v>0.9795315965692021</v>
       </c>
       <c r="C240" t="n">
-        <v>1.036563127372336</v>
+        <v>1.160424552094503</v>
       </c>
       <c r="D240" t="n">
-        <v>1.048210222344375</v>
+        <v>1.100123126862973</v>
       </c>
     </row>
     <row r="241">
@@ -3815,10 +3815,10 @@
         <v>0.9947205518963002</v>
       </c>
       <c r="C241" t="n">
-        <v>1.048215441986808</v>
+        <v>1.165942300424205</v>
       </c>
       <c r="D241" t="n">
-        <v>1.069148940660121</v>
+        <v>1.107979279280561</v>
       </c>
     </row>
     <row r="242">
@@ -3829,10 +3829,10 @@
         <v>0.9964916127617586</v>
       </c>
       <c r="C242" t="n">
-        <v>1.051767672406376</v>
+        <v>1.16489511287869</v>
       </c>
       <c r="D242" t="n">
-        <v>1.068893921886338</v>
+        <v>1.107535913302725</v>
       </c>
     </row>
     <row r="243">
@@ -3843,10 +3843,10 @@
         <v>0.9924603408870485</v>
       </c>
       <c r="C243" t="n">
-        <v>1.053701486936344</v>
+        <v>1.154932981014887</v>
       </c>
       <c r="D243" t="n">
-        <v>1.071083692660709</v>
+        <v>1.094490985663335</v>
       </c>
     </row>
     <row r="244">
@@ -3857,10 +3857,10 @@
         <v>0.9784352255572516</v>
       </c>
       <c r="C244" t="n">
-        <v>1.047052200440051</v>
+        <v>1.150196761323158</v>
       </c>
       <c r="D244" t="n">
-        <v>1.062781512388635</v>
+        <v>1.093245288135231</v>
       </c>
     </row>
     <row r="245">
@@ -3871,10 +3871,10 @@
         <v>0.9812351884493097</v>
       </c>
       <c r="C245" t="n">
-        <v>1.035319191637158</v>
+        <v>1.145195134410764</v>
       </c>
       <c r="D245" t="n">
-        <v>1.052937313523185</v>
+        <v>1.085041825780255</v>
       </c>
     </row>
     <row r="246">
@@ -3885,10 +3885,10 @@
         <v>0.9939615258111038</v>
       </c>
       <c r="C246" t="n">
-        <v>1.035582881322518</v>
+        <v>1.147924203259878</v>
       </c>
       <c r="D246" t="n">
-        <v>1.057746762434407</v>
+        <v>1.088606082298135</v>
       </c>
     </row>
     <row r="247">
@@ -3899,10 +3899,10 @@
         <v>1.00403127187471</v>
       </c>
       <c r="C247" t="n">
-        <v>1.052501901577851</v>
+        <v>1.155959657245618</v>
       </c>
       <c r="D247" t="n">
-        <v>1.068746167173635</v>
+        <v>1.097109734817875</v>
       </c>
     </row>
     <row r="248">
@@ -3913,10 +3913,10 @@
         <v>1.007607128098302</v>
       </c>
       <c r="C248" t="n">
-        <v>1.060144488159215</v>
+        <v>1.160852764422101</v>
       </c>
       <c r="D248" t="n">
-        <v>1.07447448938668</v>
+        <v>1.097951788895018</v>
       </c>
     </row>
     <row r="249">
@@ -3927,10 +3927,10 @@
         <v>1.006181845782767</v>
       </c>
       <c r="C249" t="n">
-        <v>1.059490280393222</v>
+        <v>1.148188106716831</v>
       </c>
       <c r="D249" t="n">
-        <v>1.077127498596655</v>
+        <v>1.090999511844077</v>
       </c>
     </row>
     <row r="250">
@@ -3941,10 +3941,10 @@
         <v>0.9998734956524673</v>
       </c>
       <c r="C250" t="n">
-        <v>1.051629510926178</v>
+        <v>1.145373262519573</v>
       </c>
       <c r="D250" t="n">
-        <v>1.077863501576382</v>
+        <v>1.08685595500397</v>
       </c>
     </row>
     <row r="251">
@@ -3955,10 +3955,10 @@
         <v>1.005481855059752</v>
       </c>
       <c r="C251" t="n">
-        <v>1.044906705035336</v>
+        <v>1.128271932014656</v>
       </c>
       <c r="D251" t="n">
-        <v>1.070873473616233</v>
+        <v>1.070680497404753</v>
       </c>
     </row>
     <row r="252">
@@ -3969,10 +3969,10 @@
         <v>1.01077817040979</v>
       </c>
       <c r="C252" t="n">
-        <v>1.043401017667049</v>
+        <v>1.132882643979662</v>
       </c>
       <c r="D252" t="n">
-        <v>1.063081909603421</v>
+        <v>1.074952370140851</v>
       </c>
     </row>
     <row r="253">
@@ -3983,10 +3983,10 @@
         <v>1.028530947180218</v>
       </c>
       <c r="C253" t="n">
-        <v>1.03807790070781</v>
+        <v>1.12077155677252</v>
       </c>
       <c r="D253" t="n">
-        <v>1.056844080840123</v>
+        <v>1.064345274881351</v>
       </c>
     </row>
     <row r="254">
@@ -3997,10 +3997,10 @@
         <v>1.054852285090198</v>
       </c>
       <c r="C254" t="n">
-        <v>1.04431144553076</v>
+        <v>1.145523402027823</v>
       </c>
       <c r="D254" t="n">
-        <v>1.070646793407033</v>
+        <v>1.083169806018579</v>
       </c>
     </row>
     <row r="255">
@@ -4011,10 +4011,10 @@
         <v>1.035707960496909</v>
       </c>
       <c r="C255" t="n">
-        <v>1.040675180293577</v>
+        <v>1.140584877674085</v>
       </c>
       <c r="D255" t="n">
-        <v>1.062836863049638</v>
+        <v>1.081702275437497</v>
       </c>
     </row>
     <row r="256">
@@ -4025,10 +4025,10 @@
         <v>1.045752405691009</v>
       </c>
       <c r="C256" t="n">
-        <v>1.031512980095142</v>
+        <v>1.152297806462455</v>
       </c>
       <c r="D256" t="n">
-        <v>1.057336872009524</v>
+        <v>1.087016578856102</v>
       </c>
     </row>
     <row r="257">
@@ -4039,10 +4039,10 @@
         <v>1.029239371526401</v>
       </c>
       <c r="C257" t="n">
-        <v>1.052380887194438</v>
+        <v>1.164824508064253</v>
       </c>
       <c r="D257" t="n">
-        <v>1.070195347403687</v>
+        <v>1.10580506517817</v>
       </c>
     </row>
     <row r="258">
@@ -4053,10 +4053,10 @@
         <v>1.041392222512714</v>
       </c>
       <c r="C258" t="n">
-        <v>1.050288680107893</v>
+        <v>1.162082092691821</v>
       </c>
       <c r="D258" t="n">
-        <v>1.074557253782847</v>
+        <v>1.101587038177683</v>
       </c>
     </row>
     <row r="259">
@@ -4067,10 +4067,10 @@
         <v>1.016268459092711</v>
       </c>
       <c r="C259" t="n">
-        <v>1.044211951662962</v>
+        <v>1.166847911705106</v>
       </c>
       <c r="D259" t="n">
-        <v>1.069353801628357</v>
+        <v>1.111189579562448</v>
       </c>
     </row>
     <row r="260">
@@ -4081,10 +4081,10 @@
         <v>1.022509340237659</v>
       </c>
       <c r="C260" t="n">
-        <v>1.030157552474227</v>
+        <v>1.159716269558034</v>
       </c>
       <c r="D260" t="n">
-        <v>1.058736440680502</v>
+        <v>1.10374596594525</v>
       </c>
     </row>
     <row r="261">
@@ -4095,10 +4095,10 @@
         <v>1.017710608654584</v>
       </c>
       <c r="C261" t="n">
-        <v>1.031170221905921</v>
+        <v>1.164688211468262</v>
       </c>
       <c r="D261" t="n">
-        <v>1.060513195301754</v>
+        <v>1.110069106285323</v>
       </c>
     </row>
     <row r="262">
@@ -4109,10 +4109,10 @@
         <v>1.009572162296644</v>
       </c>
       <c r="C262" t="n">
-        <v>1.017788774241394</v>
+        <v>1.141454366601554</v>
       </c>
       <c r="D262" t="n">
-        <v>1.05128440097887</v>
+        <v>1.084645219114896</v>
       </c>
     </row>
     <row r="263">
@@ -4123,10 +4123,10 @@
         <v>0.9989036289880495</v>
       </c>
       <c r="C263" t="n">
-        <v>1.017130463532165</v>
+        <v>1.132614737275749</v>
       </c>
       <c r="D263" t="n">
-        <v>1.043443689888446</v>
+        <v>1.074823933110368</v>
       </c>
     </row>
     <row r="264">
@@ -4137,10 +4137,10 @@
         <v>0.9881844939404417</v>
       </c>
       <c r="C264" t="n">
-        <v>1.013098224142981</v>
+        <v>1.123537711358191</v>
       </c>
       <c r="D264" t="n">
-        <v>1.034229332870094</v>
+        <v>1.062106321808558</v>
       </c>
     </row>
     <row r="265">
@@ -4151,10 +4151,10 @@
         <v>0.9822134887368963</v>
       </c>
       <c r="C265" t="n">
-        <v>1.008926441249151</v>
+        <v>1.121268171613186</v>
       </c>
       <c r="D265" t="n">
-        <v>1.027996111087435</v>
+        <v>1.055904857156955</v>
       </c>
     </row>
     <row r="266">
@@ -4165,10 +4165,10 @@
         <v>0.9773051200526258</v>
       </c>
       <c r="C266" t="n">
-        <v>1.015529418571066</v>
+        <v>1.123102890221282</v>
       </c>
       <c r="D266" t="n">
-        <v>1.040004409668685</v>
+        <v>1.061418223280193</v>
       </c>
     </row>
     <row r="267">
@@ -4179,10 +4179,10 @@
         <v>1.006249314768118</v>
       </c>
       <c r="C267" t="n">
-        <v>1.024533065986586</v>
+        <v>1.13230002224738</v>
       </c>
       <c r="D267" t="n">
-        <v>1.051722823578973</v>
+        <v>1.073383207108637</v>
       </c>
     </row>
     <row r="268">
@@ -4193,10 +4193,10 @@
         <v>0.978359322948732</v>
       </c>
       <c r="C268" t="n">
-        <v>1.022643680577495</v>
+        <v>1.114350482604092</v>
       </c>
       <c r="D268" t="n">
-        <v>1.0474263347806</v>
+        <v>1.057318969205877</v>
       </c>
     </row>
     <row r="269">
@@ -4207,10 +4207,10 @@
         <v>0.9898121832120297</v>
       </c>
       <c r="C269" t="n">
-        <v>1.026273411232485</v>
+        <v>1.124271339160561</v>
       </c>
       <c r="D269" t="n">
-        <v>1.052280084417523</v>
+        <v>1.068568646395377</v>
       </c>
     </row>
     <row r="270">
@@ -4221,10 +4221,10 @@
         <v>0.99714100174576</v>
       </c>
       <c r="C270" t="n">
-        <v>1.027647711995103</v>
+        <v>1.113338658655961</v>
       </c>
       <c r="D270" t="n">
-        <v>1.055544137105815</v>
+        <v>1.058073734361508</v>
       </c>
     </row>
     <row r="271">
@@ -4235,10 +4235,10 @@
         <v>1.009715533890515</v>
       </c>
       <c r="C271" t="n">
-        <v>1.032443187529435</v>
+        <v>1.125589310290153</v>
       </c>
       <c r="D271" t="n">
-        <v>1.064128646693969</v>
+        <v>1.070270942821669</v>
       </c>
     </row>
     <row r="272">
@@ -4249,10 +4249,10 @@
         <v>1.005802332740169</v>
       </c>
       <c r="C272" t="n">
-        <v>1.017973411403239</v>
+        <v>1.107751897994621</v>
       </c>
       <c r="D272" t="n">
-        <v>1.047911163140115</v>
+        <v>1.052758086493156</v>
       </c>
     </row>
     <row r="273">
@@ -4263,10 +4263,10 @@
         <v>1.011402258524285</v>
       </c>
       <c r="C273" t="n">
-        <v>1.007780136894731</v>
+        <v>1.106431082275719</v>
       </c>
       <c r="D273" t="n">
-        <v>1.040966233062532</v>
+        <v>1.053974629517515</v>
       </c>
     </row>
     <row r="274">
@@ -4277,10 +4277,10 @@
         <v>1.007952906648225</v>
       </c>
       <c r="C274" t="n">
-        <v>1.007758532152452</v>
+        <v>1.105432804586319</v>
       </c>
       <c r="D274" t="n">
-        <v>1.042954717343512</v>
+        <v>1.053957441547785</v>
       </c>
     </row>
     <row r="275">
@@ -4291,10 +4291,10 @@
         <v>1.007219181432535</v>
       </c>
       <c r="C275" t="n">
-        <v>1.01763854150812</v>
+        <v>1.098729260585539</v>
       </c>
       <c r="D275" t="n">
-        <v>1.05130261882503</v>
+        <v>1.046745627282484</v>
       </c>
     </row>
     <row r="276">
@@ -4305,10 +4305,10 @@
         <v>0.9987939918868545</v>
       </c>
       <c r="C276" t="n">
-        <v>1.017145649774303</v>
+        <v>1.094754112231933</v>
       </c>
       <c r="D276" t="n">
-        <v>1.048109299545414</v>
+        <v>1.045006257775927</v>
       </c>
     </row>
     <row r="277">
@@ -4319,10 +4319,10 @@
         <v>1.005583058537779</v>
       </c>
       <c r="C277" t="n">
-        <v>1.02090061177994</v>
+        <v>1.092197426205676</v>
       </c>
       <c r="D277" t="n">
-        <v>1.050808418380557</v>
+        <v>1.04279246529082</v>
       </c>
     </row>
     <row r="278">
@@ -4333,10 +4333,10 @@
         <v>1.004579457380685</v>
       </c>
       <c r="C278" t="n">
-        <v>1.023930808780615</v>
+        <v>1.087914304596749</v>
       </c>
       <c r="D278" t="n">
-        <v>1.058407458844192</v>
+        <v>1.037981732401364</v>
       </c>
     </row>
     <row r="279">
@@ -4347,10 +4347,10 @@
         <v>1.015332326920968</v>
       </c>
       <c r="C279" t="n">
-        <v>1.021725072957981</v>
+        <v>1.07596075929387</v>
       </c>
       <c r="D279" t="n">
-        <v>1.057333934102039</v>
+        <v>1.027149742007674</v>
       </c>
     </row>
     <row r="280">
@@ -4361,10 +4361,10 @@
         <v>1.004781864336738</v>
       </c>
       <c r="C280" t="n">
-        <v>1.008405800931448</v>
+        <v>1.079739518210225</v>
       </c>
       <c r="D280" t="n">
-        <v>1.043774554182171</v>
+        <v>1.03051157594162</v>
       </c>
     </row>
     <row r="281">
@@ -4375,10 +4375,10 @@
         <v>1.001475884054549</v>
       </c>
       <c r="C281" t="n">
-        <v>1.010859123629012</v>
+        <v>1.07812769831788</v>
       </c>
       <c r="D281" t="n">
-        <v>1.042968238354464</v>
+        <v>1.027810044208529</v>
       </c>
     </row>
     <row r="282">
@@ -4389,10 +4389,10 @@
         <v>0.9501994551879432</v>
       </c>
       <c r="C282" t="n">
-        <v>0.9987819455567974</v>
+        <v>1.061626137040306</v>
       </c>
       <c r="D282" t="n">
-        <v>1.028821166262654</v>
+        <v>1.015534992201406</v>
       </c>
     </row>
     <row r="283">
@@ -4403,10 +4403,10 @@
         <v>0.9717810968770293</v>
       </c>
       <c r="C283" t="n">
-        <v>1.006505888345781</v>
+        <v>1.097195597317453</v>
       </c>
       <c r="D283" t="n">
-        <v>1.039087172930973</v>
+        <v>1.039640486718291</v>
       </c>
     </row>
     <row r="284">
@@ -4417,10 +4417,10 @@
         <v>0.975500324694492</v>
       </c>
       <c r="C284" t="n">
-        <v>1.016908235243442</v>
+        <v>1.121597344189565</v>
       </c>
       <c r="D284" t="n">
-        <v>1.047708217092665</v>
+        <v>1.054149178129247</v>
       </c>
     </row>
     <row r="285">
@@ -4431,10 +4431,10 @@
         <v>0.9467248024423772</v>
       </c>
       <c r="C285" t="n">
-        <v>1.002060019254701</v>
+        <v>1.111212427577241</v>
       </c>
       <c r="D285" t="n">
-        <v>1.028961654464179</v>
+        <v>1.047592166229855</v>
       </c>
     </row>
     <row r="286">
@@ -4445,10 +4445,10 @@
         <v>0.9279937253843624</v>
       </c>
       <c r="C286" t="n">
-        <v>0.9909390069985899</v>
+        <v>1.070808036973587</v>
       </c>
       <c r="D286" t="n">
-        <v>1.018624086505738</v>
+        <v>1.011229445936437</v>
       </c>
     </row>
     <row r="287">
@@ -4459,10 +4459,10 @@
         <v>0.9305238123350172</v>
       </c>
       <c r="C287" t="n">
-        <v>0.9792964384406148</v>
+        <v>1.048412900356056</v>
       </c>
       <c r="D287" t="n">
-        <v>1.004666156629251</v>
+        <v>0.989302735416115</v>
       </c>
     </row>
     <row r="288">
@@ -4473,10 +4473,10 @@
         <v>0.940686328253481</v>
       </c>
       <c r="C288" t="n">
-        <v>0.9679868025266711</v>
+        <v>1.044758607184325</v>
       </c>
       <c r="D288" t="n">
-        <v>0.9984750593279321</v>
+        <v>0.9867134307851486</v>
       </c>
     </row>
     <row r="289">
@@ -4487,10 +4487,10 @@
         <v>0.9376839584053706</v>
       </c>
       <c r="C289" t="n">
-        <v>0.9703810902812291</v>
+        <v>1.07964345903465</v>
       </c>
       <c r="D289" t="n">
-        <v>0.9740081717681632</v>
+        <v>1.014194909395238</v>
       </c>
     </row>
     <row r="290">
@@ -4501,10 +4501,10 @@
         <v>0.9503849948976579</v>
       </c>
       <c r="C290" t="n">
-        <v>0.9661000206004635</v>
+        <v>1.080625281517631</v>
       </c>
       <c r="D290" t="n">
-        <v>0.9792393512602423</v>
+        <v>1.01977573424034</v>
       </c>
     </row>
     <row r="291">
@@ -4515,10 +4515,10 @@
         <v>0.9715702562978081</v>
       </c>
       <c r="C291" t="n">
-        <v>0.9642608750063231</v>
+        <v>1.078574452579222</v>
       </c>
       <c r="D291" t="n">
-        <v>0.9784949869662264</v>
+        <v>1.019932429395099</v>
       </c>
     </row>
     <row r="292">
@@ -4529,10 +4529,10 @@
         <v>0.9328599259527885</v>
       </c>
       <c r="C292" t="n">
-        <v>0.9565378072243135</v>
+        <v>1.057686543052911</v>
       </c>
       <c r="D292" t="n">
-        <v>0.9690585665955319</v>
+        <v>1.001200118252907</v>
       </c>
     </row>
     <row r="293">
@@ -4543,10 +4543,10 @@
         <v>0.9389237010111914</v>
       </c>
       <c r="C293" t="n">
-        <v>0.9534163867844044</v>
+        <v>1.068513402369527</v>
       </c>
       <c r="D293" t="n">
-        <v>0.9654792566100344</v>
+        <v>1.004204655689626</v>
       </c>
     </row>
     <row r="294">
@@ -4557,10 +4557,10 @@
         <v>0.951110286490179</v>
       </c>
       <c r="C294" t="n">
-        <v>0.953997777249078</v>
+        <v>1.067289349851772</v>
       </c>
       <c r="D294" t="n">
-        <v>0.9677404707995557</v>
+        <v>1.009544500416985</v>
       </c>
     </row>
     <row r="295">
@@ -4571,10 +4571,10 @@
         <v>0.9697317264469989</v>
       </c>
       <c r="C295" t="n">
-        <v>0.9493495721915751</v>
+        <v>1.068348995284857</v>
       </c>
       <c r="D295" t="n">
-        <v>0.9741032243107</v>
+        <v>1.01287359476773</v>
       </c>
     </row>
     <row r="296">
@@ -4585,10 +4585,10 @@
         <v>0.9627824209558669</v>
       </c>
       <c r="C296" t="n">
-        <v>0.9485146547787802</v>
+        <v>1.068370864992705</v>
       </c>
       <c r="D296" t="n">
-        <v>0.9701389666568493</v>
+        <v>1.009926334918249</v>
       </c>
     </row>
     <row r="297">
@@ -4599,10 +4599,10 @@
         <v>0.9686100545655419</v>
       </c>
       <c r="C297" t="n">
-        <v>0.9564267219594373</v>
+        <v>1.081232067894874</v>
       </c>
       <c r="D297" t="n">
-        <v>0.9783519041363266</v>
+        <v>1.018626595490008</v>
       </c>
     </row>
     <row r="298">
@@ -4613,10 +4613,10 @@
         <v>0.9615932800890591</v>
       </c>
       <c r="C298" t="n">
-        <v>0.9550320294674455</v>
+        <v>1.091111516851007</v>
       </c>
       <c r="D298" t="n">
-        <v>0.9744560239291353</v>
+        <v>1.024445011022064</v>
       </c>
     </row>
     <row r="299">
@@ -4627,10 +4627,10 @@
         <v>0.9829303467062485</v>
       </c>
       <c r="C299" t="n">
-        <v>0.9579187560396076</v>
+        <v>1.096710702438329</v>
       </c>
       <c r="D299" t="n">
-        <v>0.9803873390720248</v>
+        <v>1.036723139479741</v>
       </c>
     </row>
     <row r="300">
@@ -4641,10 +4641,10 @@
         <v>0.9684751165948403</v>
       </c>
       <c r="C300" t="n">
-        <v>0.9547059312619354</v>
+        <v>1.091039501899492</v>
       </c>
       <c r="D300" t="n">
-        <v>0.9765993919288086</v>
+        <v>1.029649728344336</v>
       </c>
     </row>
     <row r="301">
@@ -4655,10 +4655,10 @@
         <v>0.9801725519300346</v>
       </c>
       <c r="C301" t="n">
-        <v>0.9811976764615794</v>
+        <v>1.102452346596055</v>
       </c>
       <c r="D301" t="n">
-        <v>0.9931666072286327</v>
+        <v>1.046543168381109</v>
       </c>
     </row>
     <row r="302">
@@ -4669,10 +4669,10 @@
         <v>0.9696895583311547</v>
       </c>
       <c r="C302" t="n">
-        <v>0.9812246670926184</v>
+        <v>1.095081314802095</v>
       </c>
       <c r="D302" t="n">
-        <v>0.9980709755334187</v>
+        <v>1.038473340413707</v>
       </c>
     </row>
     <row r="303">
@@ -4683,10 +4683,10 @@
         <v>0.9552090273502399</v>
       </c>
       <c r="C303" t="n">
-        <v>0.9823216906390553</v>
+        <v>1.096990447091127</v>
       </c>
       <c r="D303" t="n">
-        <v>0.9966162984354692</v>
+        <v>1.038573573967255</v>
       </c>
     </row>
     <row r="304">
@@ -4697,10 +4697,10 @@
         <v>0.9451055467939582</v>
       </c>
       <c r="C304" t="n">
-        <v>0.9732726586548827</v>
+        <v>1.082887441662538</v>
       </c>
       <c r="D304" t="n">
-        <v>0.9886036699925655</v>
+        <v>1.030376466866434</v>
       </c>
     </row>
     <row r="305">
@@ -4711,10 +4711,10 @@
         <v>0.9593246354566385</v>
       </c>
       <c r="C305" t="n">
-        <v>0.9848986383153366</v>
+        <v>1.092171764752138</v>
       </c>
       <c r="D305" t="n">
-        <v>1.002054572520203</v>
+        <v>1.039651983820132</v>
       </c>
     </row>
     <row r="306">
@@ -4725,10 +4725,10 @@
         <v>0.9680197009437225</v>
       </c>
       <c r="C306" t="n">
-        <v>0.991931804610542</v>
+        <v>1.126260923010965</v>
       </c>
       <c r="D306" t="n">
-        <v>1.007064027367818</v>
+        <v>1.064494229184757</v>
       </c>
     </row>
     <row r="307">
@@ -4739,10 +4739,10 @@
         <v>0.9734003525254484</v>
       </c>
       <c r="C307" t="n">
-        <v>0.9960853316864973</v>
+        <v>1.153365394931606</v>
       </c>
       <c r="D307" t="n">
-        <v>1.007684153608948</v>
+        <v>1.087663647323804</v>
       </c>
     </row>
     <row r="308">
@@ -4753,10 +4753,10 @@
         <v>0.9854688672800722</v>
       </c>
       <c r="C308" t="n">
-        <v>0.9994219925011235</v>
+        <v>1.145329444906755</v>
       </c>
       <c r="D308" t="n">
-        <v>1.01047475084082</v>
+        <v>1.081753447647875</v>
       </c>
     </row>
     <row r="309">
@@ -4767,10 +4767,10 @@
         <v>0.9836472046756007</v>
       </c>
       <c r="C309" t="n">
-        <v>1.009196859345058</v>
+        <v>1.151533089374469</v>
       </c>
       <c r="D309" t="n">
-        <v>1.015649305865533</v>
+        <v>1.088005066133835</v>
       </c>
     </row>
     <row r="310">
@@ -4781,10 +4781,10 @@
         <v>0.9720003710794194</v>
       </c>
       <c r="C310" t="n">
-        <v>0.9975479765678238</v>
+        <v>1.147026235546365</v>
       </c>
       <c r="D310" t="n">
-        <v>1.01386172786218</v>
+        <v>1.085151881688069</v>
       </c>
     </row>
     <row r="311">
@@ -4795,10 +4795,10 @@
         <v>0.9911025275568637</v>
       </c>
       <c r="C311" t="n">
-        <v>0.9976676824528206</v>
+        <v>1.152233045646672</v>
       </c>
       <c r="D311" t="n">
-        <v>1.01650803879762</v>
+        <v>1.090345504577665</v>
       </c>
     </row>
     <row r="312">
@@ -4809,10 +4809,10 @@
         <v>0.9909422887166556</v>
       </c>
       <c r="C312" t="n">
-        <v>1.010999125467097</v>
+        <v>1.161469622766256</v>
       </c>
       <c r="D312" t="n">
-        <v>1.030426779905888</v>
+        <v>1.100997914225337</v>
       </c>
     </row>
     <row r="313">
@@ -4823,10 +4823,10 @@
         <v>0.9919964916127617</v>
       </c>
       <c r="C313" t="n">
-        <v>1.010455574544856</v>
+        <v>1.155712643714295</v>
       </c>
       <c r="D313" t="n">
-        <v>1.029937241864916</v>
+        <v>1.094615599086728</v>
       </c>
     </row>
     <row r="314">
@@ -4837,10 +4837,10 @@
         <v>0.9978072579760991</v>
       </c>
       <c r="C314" t="n">
-        <v>1.011873829563559</v>
+        <v>1.160703889829124</v>
       </c>
       <c r="D314" t="n">
-        <v>1.027201339176102</v>
+        <v>1.095548866216291</v>
       </c>
     </row>
     <row r="315">
@@ -4851,10 +4851,10 @@
         <v>0.9923844382785288</v>
       </c>
       <c r="C315" t="n">
-        <v>1.017852321149449</v>
+        <v>1.157367999370263</v>
       </c>
       <c r="D315" t="n">
-        <v>1.030243052216732</v>
+        <v>1.100326321935749</v>
       </c>
     </row>
     <row r="316">
@@ -4865,10 +4865,10 @@
         <v>1.002015635937355</v>
       </c>
       <c r="C316" t="n">
-        <v>1.014188571336014</v>
+        <v>1.152428147521579</v>
       </c>
       <c r="D316" t="n">
-        <v>1.027576330316477</v>
+        <v>1.093134295725116</v>
       </c>
     </row>
     <row r="317">
@@ -4879,10 +4879,10 @@
         <v>1.006105943174247</v>
       </c>
       <c r="C317" t="n">
-        <v>1.014488382971803</v>
+        <v>1.148452083677269</v>
       </c>
       <c r="D317" t="n">
-        <v>1.027969340780677</v>
+        <v>1.085191333650624</v>
       </c>
     </row>
     <row r="318">
@@ -4893,10 +4893,10 @@
         <v>1.014522699096759</v>
       </c>
       <c r="C318" t="n">
-        <v>1.000240956374469</v>
+        <v>1.14669301373581</v>
       </c>
       <c r="D318" t="n">
-        <v>1.014714679748002</v>
+        <v>1.080306364847666</v>
       </c>
     </row>
     <row r="319">
@@ -4907,10 +4907,10 @@
         <v>1.017946750103312</v>
       </c>
       <c r="C319" t="n">
-        <v>1.005112458660687</v>
+        <v>1.154167687338802</v>
       </c>
       <c r="D319" t="n">
-        <v>1.013221005501225</v>
+        <v>1.088273225803273</v>
       </c>
     </row>
     <row r="320">
@@ -4921,10 +4921,10 @@
         <v>1.021429836472047</v>
       </c>
       <c r="C320" t="n">
-        <v>1.018697034622009</v>
+        <v>1.170659353067073</v>
       </c>
       <c r="D320" t="n">
-        <v>1.023553466919978</v>
+        <v>1.10137555911754</v>
       </c>
     </row>
     <row r="321">
@@ -4935,10 +4935,10 @@
         <v>1.019911784301654</v>
       </c>
       <c r="C321" t="n">
-        <v>1.023040474794212</v>
+        <v>1.168306618550388</v>
       </c>
       <c r="D321" t="n">
-        <v>1.026660228847182</v>
+        <v>1.096893016797527</v>
       </c>
     </row>
     <row r="322">
@@ -4949,10 +4949,10 @@
         <v>1.012557664898417</v>
       </c>
       <c r="C322" t="n">
-        <v>1.020822335127674</v>
+        <v>1.170174900963806</v>
       </c>
       <c r="D322" t="n">
-        <v>1.026389164927324</v>
+        <v>1.09893667819192</v>
       </c>
     </row>
     <row r="323">
@@ -4963,10 +4963,10 @@
         <v>1.006730031288742</v>
       </c>
       <c r="C323" t="n">
-        <v>1.024210092555063</v>
+        <v>1.172389571652174</v>
       </c>
       <c r="D323" t="n">
-        <v>1.016679038947285</v>
+        <v>1.107663838911224</v>
       </c>
     </row>
     <row r="324">
@@ -4977,10 +4977,10 @@
         <v>1.016504600541439</v>
       </c>
       <c r="C324" t="n">
-        <v>1.032256982143513</v>
+        <v>1.17992133450154</v>
       </c>
       <c r="D324" t="n">
-        <v>1.028966646581736</v>
+        <v>1.117172570170923</v>
       </c>
     </row>
     <row r="325">
@@ -4991,10 +4991,10 @@
         <v>1.017052786047414</v>
       </c>
       <c r="C325" t="n">
-        <v>1.044859237137983</v>
+        <v>1.149082328597386</v>
       </c>
       <c r="D325" t="n">
-        <v>1.039128716812437</v>
+        <v>1.093443355217351</v>
       </c>
     </row>
     <row r="326">
@@ -5005,10 +5005,10 @@
         <v>1.006873402882612</v>
       </c>
       <c r="C326" t="n">
-        <v>1.047921562678342</v>
+        <v>1.151023127035478</v>
       </c>
       <c r="D326" t="n">
-        <v>1.040422091257389</v>
+        <v>1.092027794226915</v>
       </c>
     </row>
     <row r="327">
@@ -5019,10 +5019,10 @@
         <v>1.020915385458747</v>
       </c>
       <c r="C327" t="n">
-        <v>1.047962427848544</v>
+        <v>1.164493305813958</v>
       </c>
       <c r="D327" t="n">
-        <v>1.041955436079137</v>
+        <v>1.104607413365959</v>
       </c>
     </row>
     <row r="328">
@@ -5033,10 +5033,10 @@
         <v>1.012591399391092</v>
       </c>
       <c r="C328" t="n">
-        <v>1.040174758609062</v>
+        <v>1.188476150397897</v>
       </c>
       <c r="D328" t="n">
-        <v>1.043103237200836</v>
+        <v>1.129554187776577</v>
       </c>
     </row>
     <row r="329">
@@ -5047,10 +5047,10 @@
         <v>1.002707193037201</v>
       </c>
       <c r="C329" t="n">
-        <v>1.042618178906266</v>
+        <v>1.192480293959272</v>
       </c>
       <c r="D329" t="n">
-        <v>1.046514728428728</v>
+        <v>1.132134688628804</v>
       </c>
     </row>
     <row r="330">
@@ -5061,10 +5061,10 @@
         <v>1.005363784335388</v>
       </c>
       <c r="C330" t="n">
-        <v>1.040642764464188</v>
+        <v>1.192494946156629</v>
       </c>
       <c r="D330" t="n">
-        <v>1.039486846327943</v>
+        <v>1.134416352063977</v>
       </c>
     </row>
     <row r="331">
@@ -5075,10 +5075,10 @@
         <v>0.9927386504516206</v>
       </c>
       <c r="C331" t="n">
-        <v>1.040133772947813</v>
+        <v>1.169018100866209</v>
       </c>
       <c r="D331" t="n">
-        <v>1.037923096044121</v>
+        <v>1.118446673565954</v>
       </c>
     </row>
     <row r="332">
@@ -5089,10 +5089,10 @@
         <v>1.00835772056033</v>
       </c>
       <c r="C332" t="n">
-        <v>1.036728698662719</v>
+        <v>1.175150029225908</v>
       </c>
       <c r="D332" t="n">
-        <v>1.038207464152928</v>
+        <v>1.126218539153578</v>
       </c>
     </row>
     <row r="333">
@@ -5103,10 +5103,10 @@
         <v>1.011368524031609</v>
       </c>
       <c r="C333" t="n">
-        <v>1.044060644558175</v>
+        <v>1.164886322166504</v>
       </c>
       <c r="D333" t="n">
-        <v>1.046160864993458</v>
+        <v>1.115106827575335</v>
       </c>
     </row>
     <row r="334">
@@ -5117,10 +5117,10 @@
         <v>1.029222504280064</v>
       </c>
       <c r="C334" t="n">
-        <v>1.049570988054005</v>
+        <v>1.177803241823774</v>
       </c>
       <c r="D334" t="n">
-        <v>1.055626510746719</v>
+        <v>1.130029144979882</v>
       </c>
     </row>
     <row r="335">
@@ -5131,10 +5131,10 @@
         <v>1.028134566891282</v>
       </c>
       <c r="C335" t="n">
-        <v>1.05025906970485</v>
+        <v>1.160956664010845</v>
       </c>
       <c r="D335" t="n">
-        <v>1.053966986863106</v>
+        <v>1.11259799800705</v>
       </c>
     </row>
     <row r="336">
@@ -5145,10 +5145,10 @@
         <v>1.037032039334419</v>
       </c>
       <c r="C336" t="n">
-        <v>1.076347239902313</v>
+        <v>1.164049736644718</v>
       </c>
       <c r="D336" t="n">
-        <v>1.086213567542708</v>
+        <v>1.11357379797333</v>
       </c>
     </row>
     <row r="337">
@@ -5159,10 +5159,10 @@
         <v>1.009589029542982</v>
       </c>
       <c r="C337" t="n">
-        <v>1.066553306884985</v>
+        <v>1.147425473064689</v>
       </c>
       <c r="D337" t="n">
-        <v>1.069179240811304</v>
+        <v>1.10056969102437</v>
       </c>
     </row>
     <row r="338">
@@ -5173,10 +5173,10 @@
         <v>1.017988918219156</v>
       </c>
       <c r="C338" t="n">
-        <v>1.070292891030676</v>
+        <v>1.149677434803308</v>
       </c>
       <c r="D338" t="n">
-        <v>1.076482575661064</v>
+        <v>1.105734716794886</v>
       </c>
     </row>
     <row r="339">
@@ -5187,10 +5187,10 @@
         <v>1.027898425442554</v>
       </c>
       <c r="C339" t="n">
-        <v>1.07687600179631</v>
+        <v>1.169362968114256</v>
       </c>
       <c r="D339" t="n">
-        <v>1.087442231324921</v>
+        <v>1.125744543784879</v>
       </c>
     </row>
     <row r="340">
@@ -5201,10 +5201,10 @@
         <v>1.036812765132028</v>
       </c>
       <c r="C340" t="n">
-        <v>1.086267002370352</v>
+        <v>1.183100012910462</v>
       </c>
       <c r="D340" t="n">
-        <v>1.090826897238654</v>
+        <v>1.135371564046081</v>
       </c>
     </row>
     <row r="341">
@@ -5215,10 +5215,10 @@
         <v>1.03716697730512</v>
       </c>
       <c r="C341" t="n">
-        <v>1.080763848293841</v>
+        <v>1.186961627070713</v>
       </c>
       <c r="D341" t="n">
-        <v>1.083664618439785</v>
+        <v>1.136770785552554</v>
       </c>
     </row>
     <row r="342">
@@ -5229,10 +5229,10 @@
         <v>1.034265810935036</v>
       </c>
       <c r="C342" t="n">
-        <v>1.085697262349861</v>
+        <v>1.182009141065694</v>
       </c>
       <c r="D342" t="n">
-        <v>1.089680912964425</v>
+        <v>1.127853191317632</v>
       </c>
     </row>
     <row r="343">
@@ -5243,10 +5243,10 @@
         <v>1.034813996441011</v>
       </c>
       <c r="C343" t="n">
-        <v>1.076225992076485</v>
+        <v>1.189025807343159</v>
       </c>
       <c r="D343" t="n">
-        <v>1.083262103816577</v>
+        <v>1.131635298625046</v>
       </c>
     </row>
     <row r="344">
@@ -5257,10 +5257,10 @@
         <v>1.033894731515606</v>
       </c>
       <c r="C344" t="n">
-        <v>1.086602464316697</v>
+        <v>1.196595599697154</v>
       </c>
       <c r="D344" t="n">
-        <v>1.090414916565676</v>
+        <v>1.135646287347304</v>
       </c>
     </row>
     <row r="345">
@@ -5271,10 +5271,10 @@
         <v>1.04603914887875</v>
       </c>
       <c r="C345" t="n">
-        <v>1.101616567602836</v>
+        <v>1.216317049296161</v>
       </c>
       <c r="D345" t="n">
-        <v>1.10707343734702</v>
+        <v>1.159889987187798</v>
       </c>
     </row>
     <row r="346">
@@ -5285,10 +5285,10 @@
         <v>1.037234446290471</v>
       </c>
       <c r="C346" t="n">
-        <v>1.103482622600754</v>
+        <v>1.221761466737811</v>
       </c>
       <c r="D346" t="n">
-        <v>1.110489868774922</v>
+        <v>1.16583479242695</v>
       </c>
     </row>
     <row r="347">
@@ -5299,10 +5299,10 @@
         <v>1.045676503082489</v>
       </c>
       <c r="C347" t="n">
-        <v>1.102461094519604</v>
+        <v>1.220826657348748</v>
       </c>
       <c r="D347" t="n">
-        <v>1.10930924964809</v>
+        <v>1.164479480726384</v>
       </c>
     </row>
     <row r="348">
@@ -5313,10 +5313,10 @@
         <v>1.048864412640314</v>
       </c>
       <c r="C348" t="n">
-        <v>1.090808289847764</v>
+        <v>1.197996935679615</v>
       </c>
       <c r="D348" t="n">
-        <v>1.099665415641502</v>
+        <v>1.145063309570899</v>
       </c>
     </row>
     <row r="349">
@@ -5327,10 +5327,10 @@
         <v>1.058934158703921</v>
       </c>
       <c r="C349" t="n">
-        <v>1.095004382691113</v>
+        <v>1.202997342679524</v>
       </c>
       <c r="D349" t="n">
-        <v>1.10010452676849</v>
+        <v>1.147080851328691</v>
       </c>
     </row>
     <row r="350">
@@ -5341,10 +5341,10 @@
         <v>1.064458181879517</v>
       </c>
       <c r="C350" t="n">
-        <v>1.094702561808196</v>
+        <v>1.210147550576819</v>
       </c>
       <c r="D350" t="n">
-        <v>1.101327053550468</v>
+        <v>1.151070199324033</v>
       </c>
     </row>
     <row r="351">
@@ -5355,10 +5355,10 @@
         <v>1.081755542998828</v>
       </c>
       <c r="C351" t="n">
-        <v>1.145061901300548</v>
+        <v>1.23309821922432</v>
       </c>
       <c r="D351" t="n">
-        <v>1.132891537635335</v>
+        <v>1.172322008325303</v>
       </c>
     </row>
     <row r="352">
@@ -5369,10 +5369,10 @@
         <v>1.093005996306073</v>
       </c>
       <c r="C352" t="n">
-        <v>1.148928644055172</v>
+        <v>1.226619011556503</v>
       </c>
       <c r="D352" t="n">
-        <v>1.135042635859149</v>
+        <v>1.170668358127303</v>
       </c>
     </row>
     <row r="353">
@@ -5383,10 +5383,10 @@
         <v>1.097433648469719</v>
       </c>
       <c r="C353" t="n">
-        <v>1.204706456026833</v>
+        <v>1.243307338807396</v>
       </c>
       <c r="D353" t="n">
-        <v>1.169196486865836</v>
+        <v>1.187453651925585</v>
       </c>
     </row>
     <row r="354">
@@ -5397,10 +5397,10 @@
         <v>1.102915503529471</v>
       </c>
       <c r="C354" t="n">
-        <v>1.278812155652232</v>
+        <v>1.245950968878617</v>
       </c>
       <c r="D354" t="n">
-        <v>1.221489457060196</v>
+        <v>1.186417253179644</v>
       </c>
     </row>
     <row r="355">
@@ -5411,10 +5411,10 @@
         <v>1.094574650215479</v>
       </c>
       <c r="C355" t="n">
-        <v>1.271277347825306</v>
+        <v>1.229935244729</v>
       </c>
       <c r="D355" t="n">
-        <v>1.217580968470691</v>
+        <v>1.174273245846994</v>
       </c>
     </row>
     <row r="356">
@@ -5425,10 +5425,10 @@
         <v>1.095586684995741</v>
       </c>
       <c r="C356" t="n">
-        <v>1.272491879778067</v>
+        <v>1.237504739885235</v>
       </c>
       <c r="D356" t="n">
-        <v>1.215105574120291</v>
+        <v>1.177606538853526</v>
       </c>
     </row>
     <row r="357">
@@ -5439,10 +5439,10 @@
         <v>1.097011967311277</v>
       </c>
       <c r="C357" t="n">
-        <v>1.277523504921555</v>
+        <v>1.236037316628489</v>
       </c>
       <c r="D357" t="n">
-        <v>1.222388525961243</v>
+        <v>1.17569238751298</v>
       </c>
     </row>
     <row r="358">
@@ -5453,10 +5453,10 @@
         <v>1.091656616599057</v>
       </c>
       <c r="C358" t="n">
-        <v>1.273749968620466</v>
+        <v>1.224892316421877</v>
       </c>
       <c r="D358" t="n">
-        <v>1.219440325649052</v>
+        <v>1.1651383430891</v>
       </c>
     </row>
     <row r="359">
@@ -5467,10 +5467,10 @@
         <v>1.098125205569565</v>
       </c>
       <c r="C359" t="n">
-        <v>1.278830343420865</v>
+        <v>1.240525324771801</v>
       </c>
       <c r="D359" t="n">
-        <v>1.223699591562407</v>
+        <v>1.176143435689932</v>
       </c>
     </row>
     <row r="360">
@@ -5481,10 +5481,10 @@
         <v>1.097138471658809</v>
       </c>
       <c r="C360" t="n">
-        <v>1.275853933471854</v>
+        <v>1.240595567136038</v>
       </c>
       <c r="D360" t="n">
-        <v>1.221352613103081</v>
+        <v>1.177224007446553</v>
       </c>
     </row>
     <row r="361">
@@ -5495,10 +5495,10 @@
         <v>1.090121697182326</v>
       </c>
       <c r="C361" t="n">
-        <v>1.272245323706195</v>
+        <v>1.23549096274679</v>
       </c>
       <c r="D361" t="n">
-        <v>1.218024493408952</v>
+        <v>1.172272857485319</v>
       </c>
     </row>
     <row r="362">
@@ -5509,10 +5509,10 @@
         <v>1.079984482133369</v>
       </c>
       <c r="C362" t="n">
-        <v>1.269213801370793</v>
+        <v>1.222268076861043</v>
       </c>
       <c r="D362" t="n">
-        <v>1.209829666824077</v>
+        <v>1.155554691448514</v>
       </c>
     </row>
     <row r="363">
@@ -5523,10 +5523,10 @@
         <v>1.082919382996129</v>
       </c>
       <c r="C363" t="n">
-        <v>1.269412203796044</v>
+        <v>1.220426084233277</v>
       </c>
       <c r="D363" t="n">
-        <v>1.215771975843872</v>
+        <v>1.157694069888553</v>
       </c>
     </row>
     <row r="364">
@@ -5537,10 +5537,10 @@
         <v>1.09017229892134</v>
       </c>
       <c r="C364" t="n">
-        <v>1.44954241510075</v>
+        <v>1.223672942623938</v>
       </c>
       <c r="D364" t="n">
-        <v>1.316858811515424</v>
+        <v>1.163189185789545</v>
       </c>
     </row>
     <row r="365">
@@ -5551,10 +5551,10 @@
         <v>1.085972354583252</v>
       </c>
       <c r="C365" t="n">
-        <v>1.449988481892515</v>
+        <v>1.211679436081195</v>
       </c>
       <c r="D365" t="n">
-        <v>1.316290230594579</v>
+        <v>1.152068665346397</v>
       </c>
     </row>
     <row r="366">
@@ -5565,10 +5565,10 @@
         <v>1.083113356329013</v>
       </c>
       <c r="C366" t="n">
-        <v>1.444092725740221</v>
+        <v>1.201278234603107</v>
       </c>
       <c r="D366" t="n">
-        <v>1.311293420835531</v>
+        <v>1.143730757240934</v>
       </c>
     </row>
     <row r="367">
@@ -5579,10 +5579,10 @@
         <v>1.092272271090383</v>
       </c>
       <c r="C367" t="n">
-        <v>1.441413353522452</v>
+        <v>1.195229575904847</v>
       </c>
       <c r="D367" t="n">
-        <v>1.309314350686211</v>
+        <v>1.138454376856329</v>
       </c>
     </row>
     <row r="368">
@@ -5593,10 +5593,10 @@
         <v>1.073229149975121</v>
       </c>
       <c r="C368" t="n">
-        <v>1.207617774227193</v>
+        <v>1.189214330830539</v>
       </c>
       <c r="D368" t="n">
-        <v>1.178034416739618</v>
+        <v>1.130004642044527</v>
       </c>
     </row>
     <row r="369">
@@ -5607,10 +5607,10 @@
         <v>1.074688166783332</v>
       </c>
       <c r="C369" t="n">
-        <v>1.478266228917303</v>
+        <v>1.181220321546708</v>
       </c>
       <c r="D369" t="n">
-        <v>1.367149554654266</v>
+        <v>1.125349021795501</v>
       </c>
     </row>
     <row r="370">
@@ -5621,10 +5621,10 @@
         <v>1.073827937220109</v>
       </c>
       <c r="C370" t="n">
-        <v>1.556540824732059</v>
+        <v>1.175102122812024</v>
       </c>
       <c r="D370" t="n">
-        <v>1.433036065967997</v>
+        <v>1.12240361060106</v>
       </c>
     </row>
     <row r="371">
@@ -5635,10 +5635,10 @@
         <v>1.069400285056463</v>
       </c>
       <c r="C371" t="n">
-        <v>1.557237023798999</v>
+        <v>1.176727072899816</v>
       </c>
       <c r="D371" t="n">
-        <v>1.425004850449766</v>
+        <v>1.124237257514629</v>
       </c>
     </row>
     <row r="372">
@@ -5649,10 +5649,10 @@
         <v>1.05981968913665</v>
       </c>
       <c r="C372" t="n">
-        <v>1.538890260488481</v>
+        <v>1.158475880356017</v>
       </c>
       <c r="D372" t="n">
-        <v>1.412582870167863</v>
+        <v>1.109679798940396</v>
       </c>
     </row>
     <row r="373">
@@ -5663,10 +5663,10 @@
         <v>1.07631585605492</v>
       </c>
       <c r="C373" t="n">
-        <v>1.53289610290147</v>
+        <v>1.193186621040854</v>
       </c>
       <c r="D373" t="n">
-        <v>1.410488888937341</v>
+        <v>1.137899011326257</v>
       </c>
     </row>
     <row r="374">
@@ -5677,10 +5677,10 @@
         <v>1.070395452590387</v>
       </c>
       <c r="C374" t="n">
-        <v>1.544277690927805</v>
+        <v>1.205958164838621</v>
       </c>
       <c r="D374" t="n">
-        <v>1.4171186769337</v>
+        <v>1.148949544735425</v>
       </c>
     </row>
     <row r="375">
@@ -5691,10 +5691,10 @@
         <v>1.055004090307237</v>
       </c>
       <c r="C375" t="n">
-        <v>1.524570777571508</v>
+        <v>1.202472028442575</v>
       </c>
       <c r="D375" t="n">
-        <v>1.396608574172201</v>
+        <v>1.14294181814914</v>
       </c>
     </row>
     <row r="376">
@@ -5705,10 +5705,10 @@
         <v>1.071230381284104</v>
       </c>
       <c r="C376" t="n">
-        <v>1.511385730645342</v>
+        <v>1.195601058896468</v>
       </c>
       <c r="D376" t="n">
-        <v>1.387756162711906</v>
+        <v>1.137908185936981</v>
       </c>
     </row>
     <row r="377">
@@ -5719,10 +5719,10 @@
         <v>1.057812486822464</v>
       </c>
       <c r="C377" t="n">
-        <v>1.513633084596493</v>
+        <v>1.190084277257254</v>
       </c>
       <c r="D377" t="n">
-        <v>1.387225806360875</v>
+        <v>1.130764086844676</v>
       </c>
     </row>
     <row r="378">
@@ -5733,10 +5733,10 @@
         <v>1.076079714606192</v>
       </c>
       <c r="C378" t="n">
-        <v>1.488809294709292</v>
+        <v>1.185717090129267</v>
       </c>
       <c r="D378" t="n">
-        <v>1.380473080953669</v>
+        <v>1.125971872667911</v>
       </c>
     </row>
     <row r="379">
@@ -5747,10 +5747,10 @@
         <v>1.080920614305112</v>
       </c>
       <c r="C379" t="n">
-        <v>1.474603276289521</v>
+        <v>1.185005110144475</v>
       </c>
       <c r="D379" t="n">
-        <v>1.372814525269577</v>
+        <v>1.126880786072737</v>
       </c>
     </row>
     <row r="380">
@@ -5761,10 +5761,10 @@
         <v>1.082936250242467</v>
       </c>
       <c r="C380" t="n">
-        <v>1.482671134748502</v>
+        <v>1.202261388773041</v>
       </c>
       <c r="D380" t="n">
-        <v>1.380088445640139</v>
+        <v>1.146286860691437</v>
       </c>
     </row>
     <row r="381">
@@ -5775,10 +5775,10 @@
         <v>1.075017078086917</v>
       </c>
       <c r="C381" t="n">
-        <v>1.476964218374627</v>
+        <v>1.190366755832866</v>
       </c>
       <c r="D381" t="n">
-        <v>1.374724128829462</v>
+        <v>1.133345997365336</v>
       </c>
     </row>
     <row r="382">
@@ -5789,10 +5789,10 @@
         <v>1.062299174348292</v>
       </c>
       <c r="C382" t="n">
-        <v>1.475967819303189</v>
+        <v>1.193018037589557</v>
       </c>
       <c r="D382" t="n">
-        <v>1.37284397489469</v>
+        <v>1.133215755556308</v>
       </c>
     </row>
     <row r="383">
@@ -5803,10 +5803,10 @@
         <v>1.049100554089042</v>
       </c>
       <c r="C383" t="n">
-        <v>1.468649596777307</v>
+        <v>1.180279264904471</v>
       </c>
       <c r="D383" t="n">
-        <v>1.350210107259997</v>
+        <v>1.119939125014981</v>
       </c>
     </row>
     <row r="384">
@@ -5817,10 +5817,10 @@
         <v>1.057584778996905</v>
       </c>
       <c r="C384" t="n">
-        <v>1.467799702482757</v>
+        <v>1.184653036400115</v>
       </c>
       <c r="D384" t="n">
-        <v>1.349352078250524</v>
+        <v>1.124092419798706</v>
       </c>
     </row>
     <row r="385">
@@ -5831,10 +5831,10 @@
         <v>1.062037732030057</v>
       </c>
       <c r="C385" t="n">
-        <v>1.466066343518236</v>
+        <v>1.187843520451187</v>
       </c>
       <c r="D385" t="n">
-        <v>1.346813438242498</v>
+        <v>1.124457126869161</v>
       </c>
     </row>
     <row r="386">
@@ -5845,10 +5845,10 @@
         <v>1.063876261880867</v>
       </c>
       <c r="C386" t="n">
-        <v>1.468467939981896</v>
+        <v>1.19142881484526</v>
       </c>
       <c r="D386" t="n">
-        <v>1.347243709221863</v>
+        <v>1.126350775724841</v>
       </c>
     </row>
     <row r="387">
@@ -5859,10 +5859,10 @@
         <v>1.054649878134145</v>
       </c>
       <c r="C387" t="n">
-        <v>1.464866046840432</v>
+        <v>1.183427645230853</v>
       </c>
       <c r="D387" t="n">
-        <v>1.343886304051753</v>
+        <v>1.116374172396804</v>
       </c>
     </row>
     <row r="388">
@@ -5873,10 +5873,10 @@
         <v>1.062670253767721</v>
       </c>
       <c r="C388" t="n">
-        <v>1.460274107374563</v>
+        <v>1.175310074805425</v>
       </c>
       <c r="D388" t="n">
-        <v>1.342738901988153</v>
+        <v>1.110415099198851</v>
       </c>
     </row>
     <row r="389">
@@ -5887,10 +5887,10 @@
         <v>1.050930650316683</v>
       </c>
       <c r="C389" t="n">
-        <v>1.459374690515489</v>
+        <v>1.176680440620796</v>
       </c>
       <c r="D389" t="n">
-        <v>1.338075669567839</v>
+        <v>1.111793298158151</v>
       </c>
     </row>
     <row r="390">
@@ -5901,10 +5901,10 @@
         <v>1.065048535501337</v>
       </c>
       <c r="C390" t="n">
-        <v>1.464751001592296</v>
+        <v>1.18068036777232</v>
       </c>
       <c r="D390" t="n">
-        <v>1.344753519424162</v>
+        <v>1.113846739904686</v>
       </c>
     </row>
     <row r="391">
@@ -5915,10 +5915,10 @@
         <v>1.05989559174517</v>
       </c>
       <c r="C391" t="n">
-        <v>1.423785386402751</v>
+        <v>1.157553288963177</v>
       </c>
       <c r="D391" t="n">
-        <v>1.319138054600653</v>
+        <v>1.092528677979708</v>
       </c>
     </row>
     <row r="392">
@@ -5929,10 +5929,10 @@
         <v>1.027223735589046</v>
       </c>
       <c r="C392" t="n">
-        <v>1.41494994389443</v>
+        <v>1.144278869644093</v>
       </c>
       <c r="D392" t="n">
-        <v>1.305367092175522</v>
+        <v>1.081646201985864</v>
       </c>
     </row>
     <row r="393">
@@ -5943,10 +5943,10 @@
         <v>1.033253776154774</v>
       </c>
       <c r="C393" t="n">
-        <v>1.43227550873456</v>
+        <v>1.181603545151369</v>
       </c>
       <c r="D393" t="n">
-        <v>1.312111530346543</v>
+        <v>1.116967473455849</v>
       </c>
     </row>
     <row r="394">
@@ -5957,10 +5957,10 @@
         <v>1.042201850336923</v>
       </c>
       <c r="C394" t="n">
-        <v>1.429700119493087</v>
+        <v>1.173320707140508</v>
       </c>
       <c r="D394" t="n">
-        <v>1.308302521322254</v>
+        <v>1.107958155872132</v>
       </c>
     </row>
     <row r="395">
@@ -5971,10 +5971,10 @@
         <v>1.027223735589046</v>
       </c>
       <c r="C395" t="n">
-        <v>1.424760188452689</v>
+        <v>1.162383447024179</v>
       </c>
       <c r="D395" t="n">
-        <v>1.303678718075442</v>
+        <v>1.102493499252537</v>
       </c>
     </row>
     <row r="396">
@@ -5985,10 +5985,10 @@
         <v>1.02580688689668</v>
       </c>
       <c r="C396" t="n">
-        <v>1.428011094655511</v>
+        <v>1.160082142022024</v>
       </c>
       <c r="D396" t="n">
-        <v>1.307207049441097</v>
+        <v>1.100066575757558</v>
       </c>
     </row>
     <row r="397">
@@ -5999,10 +5999,10 @@
         <v>1.035733261366416</v>
       </c>
       <c r="C397" t="n">
-        <v>1.436948692666721</v>
+        <v>1.157170090202021</v>
       </c>
       <c r="D397" t="n">
-        <v>1.319044115142517</v>
+        <v>1.095683416837853</v>
       </c>
     </row>
     <row r="398">
@@ -6013,10 +6013,10 @@
         <v>1.037495888608705</v>
       </c>
       <c r="C398" t="n">
-        <v>1.43374223708537</v>
+        <v>1.156646309250044</v>
       </c>
       <c r="D398" t="n">
-        <v>1.313617035555118</v>
+        <v>1.094573592859064</v>
       </c>
     </row>
     <row r="399">
@@ -6027,10 +6027,10 @@
         <v>1.030605618479755</v>
       </c>
       <c r="C399" t="n">
-        <v>1.431113318470922</v>
+        <v>1.149078899033011</v>
       </c>
       <c r="D399" t="n">
-        <v>1.311475735049812</v>
+        <v>1.087406809979292</v>
       </c>
     </row>
     <row r="400">
@@ -6041,10 +6041,10 @@
         <v>1.029374309497103</v>
       </c>
       <c r="C400" t="n">
-        <v>1.205141062870353</v>
+        <v>1.143804000067471</v>
       </c>
       <c r="D400" t="n">
-        <v>1.186286352066388</v>
+        <v>1.08405432563249</v>
       </c>
     </row>
     <row r="401">
@@ -6055,10 +6055,10 @@
         <v>1.017946750103312</v>
       </c>
       <c r="C401" t="n">
-        <v>1.165415298569403</v>
+        <v>1.146108892797533</v>
       </c>
       <c r="D401" t="n">
-        <v>1.149040334465359</v>
+        <v>1.083448175386451</v>
       </c>
     </row>
     <row r="402">
@@ -6069,10 +6069,10 @@
         <v>1.022104526325555</v>
       </c>
       <c r="C402" t="n">
-        <v>1.193040029305202</v>
+        <v>1.143788828014524</v>
       </c>
       <c r="D402" t="n">
-        <v>1.177437104937656</v>
+        <v>1.082114103817509</v>
       </c>
     </row>
     <row r="403">
@@ -6083,10 +6083,10 @@
         <v>1.005119209263492</v>
       </c>
       <c r="C403" t="n">
-        <v>1.168337101973974</v>
+        <v>1.139734277036779</v>
       </c>
       <c r="D403" t="n">
-        <v>1.158219866192675</v>
+        <v>1.079456232591843</v>
       </c>
     </row>
     <row r="404">
@@ -6097,10 +6097,10 @@
         <v>0.9943579061000396</v>
       </c>
       <c r="C404" t="n">
-        <v>1.156793841703203</v>
+        <v>1.142236382810729</v>
       </c>
       <c r="D404" t="n">
-        <v>1.153131612935664</v>
+        <v>1.084994589412512</v>
       </c>
     </row>
     <row r="405">
@@ -6111,10 +6111,10 @@
         <v>0.9837231072841204</v>
       </c>
       <c r="C405" t="n">
-        <v>1.162429096775456</v>
+        <v>1.136586490963535</v>
       </c>
       <c r="D405" t="n">
-        <v>1.152082670451166</v>
+        <v>1.076323560802002</v>
       </c>
     </row>
     <row r="406">
@@ -6125,10 +6125,10 @@
         <v>0.9881254585782598</v>
       </c>
       <c r="C406" t="n">
-        <v>1.163081912123807</v>
+        <v>1.124519586984389</v>
       </c>
       <c r="D406" t="n">
-        <v>1.154794242103113</v>
+        <v>1.070198852947508</v>
       </c>
     </row>
     <row r="407">
@@ -6139,10 +6139,10 @@
         <v>0.9956145159521982</v>
       </c>
       <c r="C407" t="n">
-        <v>1.167663107020926</v>
+        <v>1.152768464462291</v>
       </c>
       <c r="D407" t="n">
-        <v>1.16162664389088</v>
+        <v>1.092085475138488</v>
       </c>
     </row>
     <row r="408">
@@ -6153,10 +6153,10 @@
         <v>0.9907145808910967</v>
       </c>
       <c r="C408" t="n">
-        <v>1.165656267735093</v>
+        <v>1.153133679416275</v>
       </c>
       <c r="D408" t="n">
-        <v>1.144498275810732</v>
+        <v>1.093286537253239</v>
       </c>
     </row>
     <row r="409">
@@ -6167,10 +6167,10 @@
         <v>1.013814274750576</v>
       </c>
       <c r="C409" t="n">
-        <v>1.180460604475567</v>
+        <v>1.174291023628538</v>
       </c>
       <c r="D409" t="n">
-        <v>1.160895726544356</v>
+        <v>1.110238466559595</v>
       </c>
     </row>
     <row r="410">
@@ -6181,10 +6181,10 @@
         <v>1.018933484014067</v>
       </c>
       <c r="C410" t="n">
-        <v>1.180820747110262</v>
+        <v>1.176466476342139</v>
       </c>
       <c r="D410" t="n">
-        <v>1.163699159247511</v>
+        <v>1.111108927385432</v>
       </c>
     </row>
     <row r="411">
@@ -6195,10 +6195,10 @@
         <v>1.001273477098496</v>
       </c>
       <c r="C411" t="n">
-        <v>1.176500220262831</v>
+        <v>1.171091762545761</v>
       </c>
       <c r="D411" t="n">
-        <v>1.163567687957054</v>
+        <v>1.106754577883586</v>
       </c>
     </row>
     <row r="412">
@@ -6209,10 +6209,10 @@
         <v>1.017752776770428</v>
       </c>
       <c r="C412" t="n">
-        <v>1.178759171896318</v>
+        <v>1.174910150673566</v>
       </c>
       <c r="D412" t="n">
-        <v>1.163757469929149</v>
+        <v>1.108194654267405</v>
       </c>
     </row>
     <row r="413">
@@ -6223,10 +6223,10 @@
         <v>1.009842038238048</v>
       </c>
       <c r="C413" t="n">
-        <v>1.179515850230789</v>
+        <v>1.187077535059619</v>
       </c>
       <c r="D413" t="n">
-        <v>1.162859318243192</v>
+        <v>1.122833572093425</v>
       </c>
     </row>
     <row r="414">
@@ -6237,10 +6237,10 @@
         <v>1.001754193619121</v>
       </c>
       <c r="C414" t="n">
-        <v>1.178502861456948</v>
+        <v>1.181057778791</v>
       </c>
       <c r="D414" t="n">
-        <v>1.161576762666768</v>
+        <v>1.118116277029083</v>
       </c>
     </row>
     <row r="415">
@@ -6251,10 +6251,10 @@
         <v>1.006940871867963</v>
       </c>
       <c r="C415" t="n">
-        <v>1.18313187612103</v>
+        <v>1.18639467547808</v>
       </c>
       <c r="D415" t="n">
-        <v>1.165254242075092</v>
+        <v>1.12146106018431</v>
       </c>
     </row>
     <row r="416">
@@ -6265,10 +6265,10 @@
         <v>0.9840098504718612</v>
       </c>
       <c r="C416" t="n">
-        <v>1.16606893738745</v>
+        <v>1.171924414883747</v>
       </c>
       <c r="D416" t="n">
-        <v>1.151526846489303</v>
+        <v>1.104892618397904</v>
       </c>
     </row>
     <row r="417">
@@ -6279,10 +6279,10 @@
         <v>0.9861688580030867</v>
       </c>
       <c r="C417" t="n">
-        <v>1.159759683060801</v>
+        <v>1.165004117147322</v>
       </c>
       <c r="D417" t="n">
-        <v>1.147405721458478</v>
+        <v>1.10245269775407</v>
       </c>
     </row>
     <row r="418">
@@ -6293,10 +6293,10 @@
         <v>0.9940627292891299</v>
       </c>
       <c r="C418" t="n">
-        <v>1.16934665222609</v>
+        <v>1.168440968434753</v>
       </c>
       <c r="D418" t="n">
-        <v>1.155389667740246</v>
+        <v>1.104412539400938</v>
       </c>
     </row>
     <row r="419">
@@ -6307,10 +6307,10 @@
         <v>0.9564825044487362</v>
       </c>
       <c r="C419" t="n">
-        <v>1.149082211672985</v>
+        <v>1.137460200359897</v>
       </c>
       <c r="D419" t="n">
-        <v>1.135306466213488</v>
+        <v>1.080368592217639</v>
       </c>
     </row>
     <row r="420">
@@ -6321,10 +6321,10 @@
         <v>0.9729112023816552</v>
       </c>
       <c r="C420" t="n">
-        <v>1.139046830839831</v>
+        <v>1.162421298614303</v>
       </c>
       <c r="D420" t="n">
-        <v>1.125364379912134</v>
+        <v>1.102518083000048</v>
       </c>
     </row>
     <row r="421">
@@ -6335,10 +6335,10 @@
         <v>0.9638450574751419</v>
       </c>
       <c r="C421" t="n">
-        <v>1.13254550366436</v>
+        <v>1.170664231269301</v>
       </c>
       <c r="D421" t="n">
-        <v>1.117790279299726</v>
+        <v>1.107568704589942</v>
       </c>
     </row>
     <row r="422">
@@ -6349,10 +6349,10 @@
         <v>0.9817074713467653</v>
       </c>
       <c r="C422" t="n">
-        <v>1.140022656750207</v>
+        <v>1.192430600911918</v>
       </c>
       <c r="D422" t="n">
-        <v>1.125424538225764</v>
+        <v>1.127270619157266</v>
       </c>
     </row>
     <row r="423">
@@ -6363,10 +6363,10 @@
         <v>0.9798267733801118</v>
       </c>
       <c r="C423" t="n">
-        <v>1.142715387135239</v>
+        <v>1.198675210955789</v>
       </c>
       <c r="D423" t="n">
-        <v>1.12848313459263</v>
+        <v>1.132267442099839</v>
       </c>
     </row>
     <row r="424">
@@ -6377,10 +6377,10 @@
         <v>0.970397982677338</v>
       </c>
       <c r="C424" t="n">
-        <v>1.133805216826478</v>
+        <v>1.176470049346658</v>
       </c>
       <c r="D424" t="n">
-        <v>1.119280945628238</v>
+        <v>1.110737818834594</v>
       </c>
     </row>
     <row r="425">
@@ -6391,10 +6391,10 @@
         <v>0.9596957148760679</v>
       </c>
       <c r="C425" t="n">
-        <v>1.135633997899729</v>
+        <v>1.190164904112386</v>
       </c>
       <c r="D425" t="n">
-        <v>1.120959719933134</v>
+        <v>1.121665356583179</v>
       </c>
     </row>
     <row r="426">
@@ -6405,10 +6405,10 @@
         <v>0.9398345323134272</v>
       </c>
       <c r="C426" t="n">
-        <v>1.133210420725937</v>
+        <v>1.180954350896538</v>
       </c>
       <c r="D426" t="n">
-        <v>1.119645978329352</v>
+        <v>1.114803704774129</v>
       </c>
     </row>
     <row r="427">
@@ -6419,10 +6419,10 @@
         <v>0.9179492801902626</v>
       </c>
       <c r="C427" t="n">
-        <v>1.120012792314796</v>
+        <v>1.160698607620698</v>
       </c>
       <c r="D427" t="n">
-        <v>1.106639002152159</v>
+        <v>1.096568500397954</v>
       </c>
     </row>
     <row r="428">
@@ -6433,10 +6433,10 @@
         <v>0.9298069543656651</v>
       </c>
       <c r="C428" t="n">
-        <v>1.12562107116159</v>
+        <v>1.169281007470356</v>
       </c>
       <c r="D428" t="n">
-        <v>1.112685577222444</v>
+        <v>1.104909879807929</v>
       </c>
     </row>
     <row r="429">
@@ -6447,10 +6447,10 @@
         <v>0.9469440766447673</v>
       </c>
       <c r="C429" t="n">
-        <v>1.13000435435603</v>
+        <v>1.173930361797038</v>
       </c>
       <c r="D429" t="n">
-        <v>1.116446600838632</v>
+        <v>1.113596124448409</v>
       </c>
     </row>
     <row r="430">
@@ -6461,10 +6461,10 @@
         <v>0.9619727931316573</v>
       </c>
       <c r="C430" t="n">
-        <v>1.137592231857173</v>
+        <v>1.186908927389995</v>
       </c>
       <c r="D430" t="n">
-        <v>1.125066178645448</v>
+        <v>1.124623470470723</v>
       </c>
     </row>
     <row r="431">
@@ -6475,10 +6475,10 @@
         <v>0.9553861334367858</v>
       </c>
       <c r="C431" t="n">
-        <v>1.108351227613939</v>
+        <v>1.180325800249495</v>
       </c>
       <c r="D431" t="n">
-        <v>1.108009781081057</v>
+        <v>1.114100564123258</v>
       </c>
     </row>
     <row r="432">
@@ -6489,10 +6489,10 @@
         <v>0.9579162203874406</v>
       </c>
       <c r="C432" t="n">
-        <v>1.103391802038278</v>
+        <v>1.184639090447229</v>
       </c>
       <c r="D432" t="n">
-        <v>1.099393370535709</v>
+        <v>1.117744310103395</v>
       </c>
     </row>
     <row r="433">
@@ -6503,10 +6503,10 @@
         <v>0.92874431784639</v>
       </c>
       <c r="C433" t="n">
-        <v>1.087841795072198</v>
+        <v>1.168612971320891</v>
       </c>
       <c r="D433" t="n">
-        <v>1.085785401880715</v>
+        <v>1.100319923204113</v>
       </c>
     </row>
     <row r="434">
@@ -6517,10 +6517,10 @@
         <v>0.9370345694213691</v>
       </c>
       <c r="C434" t="n">
-        <v>1.092414349016451</v>
+        <v>1.163769615272201</v>
       </c>
       <c r="D434" t="n">
-        <v>1.09459227345282</v>
+        <v>1.093767147083361</v>
       </c>
     </row>
     <row r="435">
@@ -6531,10 +6531,10 @@
         <v>0.9359550656557564</v>
       </c>
       <c r="C435" t="n">
-        <v>1.093698060613947</v>
+        <v>1.161866867615413</v>
       </c>
       <c r="D435" t="n">
-        <v>1.096002713479612</v>
+        <v>1.09445371774474</v>
       </c>
     </row>
     <row r="436">
@@ -6545,10 +6545,10 @@
         <v>0.9521560557631163</v>
       </c>
       <c r="C436" t="n">
-        <v>1.08590452058013</v>
+        <v>1.16095529320145</v>
       </c>
       <c r="D436" t="n">
-        <v>1.088889331335259</v>
+        <v>1.086166327352472</v>
       </c>
     </row>
     <row r="437">
@@ -6559,10 +6559,10 @@
         <v>0.9310129624788105</v>
       </c>
       <c r="C437" t="n">
-        <v>1.08367359325475</v>
+        <v>1.155367212142683</v>
       </c>
       <c r="D437" t="n">
-        <v>1.082163569914874</v>
+        <v>1.081884751721734</v>
       </c>
     </row>
     <row r="438">
@@ -6573,10 +6573,10 @@
         <v>0.9315611479847857</v>
       </c>
       <c r="C438" t="n">
-        <v>1.09231491795584</v>
+        <v>1.160063945580311</v>
       </c>
       <c r="D438" t="n">
-        <v>1.088357556140069</v>
+        <v>1.085451224184794</v>
       </c>
     </row>
     <row r="439">
@@ -6587,10 +6587,10 @@
         <v>0.9324213775480084</v>
       </c>
       <c r="C439" t="n">
-        <v>1.084976053088633</v>
+        <v>1.160624653486599</v>
       </c>
       <c r="D439" t="n">
-        <v>1.081027204093572</v>
+        <v>1.086710802783195</v>
       </c>
     </row>
     <row r="440">
@@ -6601,10 +6601,10 @@
         <v>0.9326322181272296</v>
       </c>
       <c r="C440" t="n">
-        <v>1.083665893107986</v>
+        <v>1.151756843816402</v>
       </c>
       <c r="D440" t="n">
-        <v>1.079845578671301</v>
+        <v>1.081418954996262</v>
       </c>
     </row>
     <row r="441">
@@ -6615,10 +6615,10 @@
         <v>0.9515910030108035</v>
       </c>
       <c r="C441" t="n">
-        <v>1.094777400264468</v>
+        <v>1.178676282388723</v>
       </c>
       <c r="D441" t="n">
-        <v>1.089905402381047</v>
+        <v>1.108536472204759</v>
       </c>
     </row>
     <row r="442">
@@ -6629,10 +6629,10 @@
         <v>0.9460838470815447</v>
       </c>
       <c r="C442" t="n">
-        <v>1.094673526259566</v>
+        <v>1.170905284132881</v>
       </c>
       <c r="D442" t="n">
-        <v>1.092034494849031</v>
+        <v>1.098680204925752</v>
       </c>
     </row>
     <row r="443">
@@ -6643,10 +6643,10 @@
         <v>0.9568451502449967</v>
       </c>
       <c r="C443" t="n">
-        <v>1.098146771123331</v>
+        <v>1.186214864171814</v>
       </c>
       <c r="D443" t="n">
-        <v>1.094447702746128</v>
+        <v>1.117513152347309</v>
       </c>
     </row>
     <row r="444">
@@ -6657,10 +6657,10 @@
         <v>0.9545596383662385</v>
       </c>
       <c r="C444" t="n">
-        <v>1.103913740889862</v>
+        <v>1.191631410232688</v>
       </c>
       <c r="D444" t="n">
-        <v>1.102134382451429</v>
+        <v>1.121738081292122</v>
       </c>
     </row>
     <row r="445">
@@ -6671,10 +6671,10 @@
         <v>0.9668980290622654</v>
       </c>
       <c r="C445" t="n">
-        <v>1.108765225647141</v>
+        <v>1.192054091956464</v>
       </c>
       <c r="D445" t="n">
-        <v>1.10658509547729</v>
+        <v>1.124986899371685</v>
       </c>
     </row>
     <row r="446">
@@ -6685,10 +6685,10 @@
         <v>0.9650426319651185</v>
       </c>
       <c r="C446" t="n">
-        <v>1.112403604457941</v>
+        <v>1.206790029570034</v>
       </c>
       <c r="D446" t="n">
-        <v>1.110696756020221</v>
+        <v>1.14142740077385</v>
       </c>
     </row>
     <row r="447">
@@ -6699,10 +6699,10 @@
         <v>0.9333743769660884</v>
       </c>
       <c r="C447" t="n">
-        <v>1.096334825604506</v>
+        <v>1.170052639441639</v>
       </c>
       <c r="D447" t="n">
-        <v>1.095342018212474</v>
+        <v>1.100530681016379</v>
       </c>
     </row>
     <row r="448">
@@ -6713,10 +6713,10 @@
         <v>0.9343273763841684</v>
       </c>
       <c r="C448" t="n">
-        <v>1.09470479118133</v>
+        <v>1.174756856495</v>
       </c>
       <c r="D448" t="n">
-        <v>1.092491357842186</v>
+        <v>1.109232022227204</v>
       </c>
     </row>
     <row r="449">
@@ -6727,10 +6727,10 @@
         <v>0.9085963920960084</v>
       </c>
       <c r="C449" t="n">
-        <v>1.076470435441343</v>
+        <v>1.150024674856019</v>
       </c>
       <c r="D449" t="n">
-        <v>1.07184615598224</v>
+        <v>1.079484355012781</v>
       </c>
     </row>
     <row r="450">
@@ -6741,10 +6741,10 @@
         <v>0.8964604083560338</v>
       </c>
       <c r="C450" t="n">
-        <v>1.062907104080199</v>
+        <v>1.151417232018653</v>
       </c>
       <c r="D450" t="n">
-        <v>1.058479516529217</v>
+        <v>1.082091345727686</v>
       </c>
     </row>
     <row r="451">
@@ -6755,10 +6755,10 @@
         <v>0.9168613428014809</v>
       </c>
       <c r="C451" t="n">
-        <v>1.061528744814023</v>
+        <v>1.158795915498083</v>
       </c>
       <c r="D451" t="n">
-        <v>1.062747881077097</v>
+        <v>1.091067330632001</v>
       </c>
     </row>
     <row r="452">
@@ -6769,10 +6769,10 @@
         <v>0.8975061776289712</v>
       </c>
       <c r="C452" t="n">
-        <v>1.048506948538232</v>
+        <v>1.153682711865136</v>
       </c>
       <c r="D452" t="n">
-        <v>1.047225571871933</v>
+        <v>1.084928608333902</v>
       </c>
     </row>
     <row r="453">
@@ -6783,10 +6783,10 @@
         <v>0.8970254611083468</v>
       </c>
       <c r="C453" t="n">
-        <v>1.053885923817135</v>
+        <v>1.165614805794369</v>
       </c>
       <c r="D453" t="n">
-        <v>1.053409140241014</v>
+        <v>1.095687969000642</v>
       </c>
     </row>
     <row r="454">
@@ -6797,10 +6797,10 @@
         <v>0.8914761370632437</v>
       </c>
       <c r="C454" t="n">
-        <v>1.044573988038473</v>
+        <v>1.153056929621732</v>
       </c>
       <c r="D454" t="n">
-        <v>1.04301409768875</v>
+        <v>1.08397196111707</v>
       </c>
     </row>
     <row r="455">
@@ -6811,10 +6811,10 @@
         <v>0.8728884315990992</v>
       </c>
       <c r="C455" t="n">
-        <v>1.046940517814275</v>
+        <v>1.162731463542784</v>
       </c>
       <c r="D455" t="n">
-        <v>1.040334780603362</v>
+        <v>1.090076676839725</v>
       </c>
     </row>
     <row r="456">
@@ -6825,10 +6825,10 @@
         <v>0.8901773590952409</v>
       </c>
       <c r="C456" t="n">
-        <v>1.049297791534611</v>
+        <v>1.172591554950116</v>
       </c>
       <c r="D456" t="n">
-        <v>1.047485659910419</v>
+        <v>1.102438390541892</v>
       </c>
     </row>
     <row r="457">
@@ -6839,10 +6839,10 @@
         <v>0.8907339782243849</v>
       </c>
       <c r="C457" t="n">
-        <v>1.05948714776839</v>
+        <v>1.189706615831727</v>
       </c>
       <c r="D457" t="n">
-        <v>1.054409545969825</v>
+        <v>1.117232711646391</v>
       </c>
     </row>
     <row r="458">
@@ -6853,10 +6853,10 @@
         <v>0.8721378391370717</v>
       </c>
       <c r="C458" t="n">
-        <v>1.035905378829579</v>
+        <v>1.165204184677308</v>
       </c>
       <c r="D458" t="n">
-        <v>1.031065150073901</v>
+        <v>1.093142011042193</v>
       </c>
     </row>
     <row r="459">
@@ -6867,10 +6867,10 @@
         <v>0.8840461150514872</v>
       </c>
       <c r="C459" t="n">
-        <v>1.033698659743113</v>
+        <v>1.148787282144905</v>
       </c>
       <c r="D459" t="n">
-        <v>1.033669573143892</v>
+        <v>1.081629636619487</v>
       </c>
     </row>
     <row r="460">
@@ -6881,10 +6881,10 @@
         <v>0.8836834692552268</v>
       </c>
       <c r="C460" t="n">
-        <v>1.034295413624825</v>
+        <v>1.151593773848119</v>
       </c>
       <c r="D460" t="n">
-        <v>1.032367240260123</v>
+        <v>1.084547265193206</v>
       </c>
     </row>
     <row r="461">
@@ -6895,10 +6895,10 @@
         <v>0.8900424211245394</v>
       </c>
       <c r="C461" t="n">
-        <v>1.036510245834793</v>
+        <v>1.156706189472644</v>
       </c>
       <c r="D461" t="n">
-        <v>1.035778449222153</v>
+        <v>1.093750968386278</v>
       </c>
     </row>
     <row r="462">
@@ -6909,10 +6909,10 @@
         <v>0.8936941799566511</v>
       </c>
       <c r="C462" t="n">
-        <v>1.04236413326518</v>
+        <v>1.160784083150335</v>
       </c>
       <c r="D462" t="n">
-        <v>1.0413378618043</v>
+        <v>1.097068351792079</v>
       </c>
     </row>
     <row r="463">
@@ -6923,10 +6923,10 @@
         <v>0.9085120558643198</v>
       </c>
       <c r="C463" t="n">
-        <v>1.06640400835709</v>
+        <v>1.207257416156101</v>
       </c>
       <c r="D463" t="n">
-        <v>1.055231120997071</v>
+        <v>1.135130753045201</v>
       </c>
     </row>
     <row r="464">
@@ -6937,10 +6937,10 @@
         <v>0.8965953463267354</v>
       </c>
       <c r="C464" t="n">
-        <v>1.052995662840737</v>
+        <v>1.175038744384302</v>
       </c>
       <c r="D464" t="n">
-        <v>1.048982876576792</v>
+        <v>1.108515995465991</v>
       </c>
     </row>
     <row r="465">
@@ -6951,10 +6951,10 @@
         <v>0.8813810901301308</v>
       </c>
       <c r="C465" t="n">
-        <v>1.03900664890772</v>
+        <v>1.162319069838445</v>
       </c>
       <c r="D465" t="n">
-        <v>1.044577338693264</v>
+        <v>1.093816007960168</v>
       </c>
     </row>
     <row r="466">
@@ -6965,10 +6965,10 @@
         <v>0.868199337117219</v>
       </c>
       <c r="C466" t="n">
-        <v>1.021806518349554</v>
+        <v>1.155554552209855</v>
       </c>
       <c r="D466" t="n">
-        <v>1.028904702126761</v>
+        <v>1.08674555188467</v>
       </c>
     </row>
     <row r="467">
@@ -6979,10 +6979,10 @@
         <v>0.8646487817631333</v>
       </c>
       <c r="C467" t="n">
-        <v>1.024532005639308</v>
+        <v>1.161466993662775</v>
       </c>
       <c r="D467" t="n">
-        <v>1.025476857060176</v>
+        <v>1.092350244172715</v>
       </c>
     </row>
     <row r="468">
@@ -6993,10 +6993,10 @@
         <v>0.8689583632024154</v>
       </c>
       <c r="C468" t="n">
-        <v>1.038181370153187</v>
+        <v>1.185697771110914</v>
       </c>
       <c r="D468" t="n">
-        <v>1.034588745475931</v>
+        <v>1.114727955375299</v>
       </c>
     </row>
     <row r="469">
@@ -7007,10 +7007,10 @@
         <v>0.8612584652492558</v>
       </c>
       <c r="C469" t="n">
-        <v>1.028136590150173</v>
+        <v>1.163631800464457</v>
       </c>
       <c r="D469" t="n">
-        <v>1.02888765616524</v>
+        <v>1.094857588282539</v>
       </c>
     </row>
     <row r="470">
@@ -7021,10 +7021,10 @@
         <v>0.8742546785524529</v>
       </c>
       <c r="C470" t="n">
-        <v>1.02213674240372</v>
+        <v>1.164320474643429</v>
       </c>
       <c r="D470" t="n">
-        <v>1.026321771194431</v>
+        <v>1.09724137466735</v>
       </c>
     </row>
     <row r="471">
@@ -7035,10 +7035,10 @@
         <v>0.8814316918691439</v>
       </c>
       <c r="C471" t="n">
-        <v>1.036157632827271</v>
+        <v>1.167054282028901</v>
       </c>
       <c r="D471" t="n">
-        <v>1.040822200425017</v>
+        <v>1.09787542740014</v>
       </c>
     </row>
     <row r="472">
@@ -7049,10 +7049,10 @@
         <v>0.8923701011191418</v>
       </c>
       <c r="C472" t="n">
-        <v>1.039481216123095</v>
+        <v>1.169638954242417</v>
       </c>
       <c r="D472" t="n">
-        <v>1.045853515819347</v>
+        <v>1.100652303525476</v>
       </c>
     </row>
     <row r="473">
@@ -7063,10 +7063,10 @@
         <v>0.8621186948124784</v>
       </c>
       <c r="C473" t="n">
-        <v>1.035533712867559</v>
+        <v>1.166808934827232</v>
       </c>
       <c r="D473" t="n">
-        <v>1.041895511195179</v>
+        <v>1.09583892118941</v>
       </c>
     </row>
     <row r="474">
@@ -7077,10 +7077,10 @@
         <v>0.8670945324820997</v>
       </c>
       <c r="C474" t="n">
-        <v>1.030566553844227</v>
+        <v>1.170587593116261</v>
       </c>
       <c r="D474" t="n">
-        <v>1.036645142270931</v>
+        <v>1.098367732118686</v>
       </c>
     </row>
     <row r="475">
@@ -7091,10 +7091,10 @@
         <v>0.8595127052533039</v>
       </c>
       <c r="C475" t="n">
-        <v>1.018685115669854</v>
+        <v>1.173854450190138</v>
       </c>
       <c r="D475" t="n">
-        <v>1.029496744117631</v>
+        <v>1.101333538776689</v>
       </c>
     </row>
     <row r="476">
@@ -7105,10 +7105,10 @@
         <v>0.8498983748408153</v>
       </c>
       <c r="C476" t="n">
-        <v>1.025837852112462</v>
+        <v>1.185283224928135</v>
       </c>
       <c r="D476" t="n">
-        <v>1.034880653492457</v>
+        <v>1.109937065594254</v>
       </c>
     </row>
     <row r="477">
@@ -7119,10 +7119,10 @@
         <v>0.8810268779570392</v>
       </c>
       <c r="C477" t="n">
-        <v>1.028805244188921</v>
+        <v>1.192152094044091</v>
       </c>
       <c r="D477" t="n">
-        <v>1.040424584380952</v>
+        <v>1.112166792364623</v>
       </c>
     </row>
     <row r="478">
@@ -7133,10 +7133,10 @@
         <v>0.8861207863510243</v>
       </c>
       <c r="C478" t="n">
-        <v>1.092044550149628</v>
+        <v>1.209454171082541</v>
       </c>
       <c r="D478" t="n">
-        <v>1.083362428407704</v>
+        <v>1.130761683297563</v>
       </c>
     </row>
     <row r="479">
@@ -7147,10 +7147,10 @@
         <v>0.9012085382000962</v>
       </c>
       <c r="C479" t="n">
-        <v>1.091363240318627</v>
+        <v>1.205801198308239</v>
       </c>
       <c r="D479" t="n">
-        <v>1.087990017019178</v>
+        <v>1.127138306428982</v>
       </c>
     </row>
     <row r="480">
@@ -7161,10 +7161,10 @@
         <v>0.907103640795122</v>
       </c>
       <c r="C480" t="n">
-        <v>1.09062036868265</v>
+        <v>1.201912725846765</v>
       </c>
       <c r="D480" t="n">
-        <v>1.087498351512454</v>
+        <v>1.124872284966158</v>
       </c>
     </row>
     <row r="481">
@@ -7175,10 +7175,10 @@
         <v>0.9116409300599631</v>
       </c>
       <c r="C481" t="n">
-        <v>1.087367425094943</v>
+        <v>1.196394193567681</v>
       </c>
       <c r="D481" t="n">
-        <v>1.089183475460167</v>
+        <v>1.120656142076089</v>
       </c>
     </row>
     <row r="482">
@@ -7189,10 +7189,10 @@
         <v>0.8964182402401896</v>
       </c>
       <c r="C482" t="n">
-        <v>1.076234377028281</v>
+        <v>1.177850527165704</v>
       </c>
       <c r="D482" t="n">
-        <v>1.0786543544267</v>
+        <v>1.105356456235237</v>
       </c>
     </row>
     <row r="483">
@@ -7203,10 +7203,10 @@
         <v>0.9087903654288919</v>
       </c>
       <c r="C483" t="n">
-        <v>1.076393706207058</v>
+        <v>1.167552451700099</v>
       </c>
       <c r="D483" t="n">
-        <v>1.083593293030244</v>
+        <v>1.097832051370716</v>
       </c>
     </row>
     <row r="484">
@@ -7217,10 +7217,10 @@
         <v>0.9056277567405733</v>
       </c>
       <c r="C484" t="n">
-        <v>1.078935210630085</v>
+        <v>1.184546528851599</v>
       </c>
       <c r="D484" t="n">
-        <v>1.082933509937394</v>
+        <v>1.114891538499128</v>
       </c>
     </row>
     <row r="485">
@@ -7231,10 +7231,10 @@
         <v>0.90037360950638</v>
       </c>
       <c r="C485" t="n">
-        <v>1.078638003186688</v>
+        <v>1.183857457391773</v>
       </c>
       <c r="D485" t="n">
-        <v>1.080929316319334</v>
+        <v>1.110324883862523</v>
       </c>
     </row>
     <row r="486">
@@ -7245,10 +7245,10 @@
         <v>0.9055181196393782</v>
       </c>
       <c r="C486" t="n">
-        <v>1.08894938288774</v>
+        <v>1.200483957611612</v>
       </c>
       <c r="D486" t="n">
-        <v>1.091087315070269</v>
+        <v>1.122290920253904</v>
       </c>
     </row>
     <row r="487">
@@ -7259,10 +7259,10 @@
         <v>0.9126192303475497</v>
       </c>
       <c r="C487" t="n">
-        <v>1.075889420151881</v>
+        <v>1.185786668689677</v>
       </c>
       <c r="D487" t="n">
-        <v>1.07302176854962</v>
+        <v>1.107723998118077</v>
       </c>
     </row>
     <row r="488">
@@ -7273,10 +7273,10 @@
         <v>0.9040928373238427</v>
       </c>
       <c r="C488" t="n">
-        <v>1.082224243158837</v>
+        <v>1.19836366482245</v>
       </c>
       <c r="D488" t="n">
-        <v>1.074683078187324</v>
+        <v>1.122113251714137</v>
       </c>
     </row>
     <row r="489">
@@ -7287,10 +7287,10 @@
         <v>0.8856991051925818</v>
       </c>
       <c r="C489" t="n">
-        <v>1.069362289806043</v>
+        <v>1.175916305103686</v>
       </c>
       <c r="D489" t="n">
-        <v>1.066482541337994</v>
+        <v>1.0975291050139</v>
       </c>
     </row>
     <row r="490">
@@ -7301,10 +7301,10 @@
         <v>0.8897472443136296</v>
       </c>
       <c r="C490" t="n">
-        <v>1.06141959703252</v>
+        <v>1.178016360853408</v>
       </c>
       <c r="D490" t="n">
-        <v>1.057291975934513</v>
+        <v>1.100153266174045</v>
       </c>
     </row>
     <row r="491">
@@ -7315,10 +7315,10 @@
         <v>0.8875882367824041</v>
       </c>
       <c r="C491" t="n">
-        <v>1.071196863872528</v>
+        <v>1.201242197564574</v>
       </c>
       <c r="D491" t="n">
-        <v>1.064917820542191</v>
+        <v>1.118962352918612</v>
       </c>
     </row>
     <row r="492">
@@ -7329,10 +7329,10 @@
         <v>0.8846111678038002</v>
       </c>
       <c r="C492" t="n">
-        <v>1.068798771951229</v>
+        <v>1.183434375973841</v>
       </c>
       <c r="D492" t="n">
-        <v>1.063270014326119</v>
+        <v>1.099956002962287</v>
       </c>
     </row>
     <row r="493">
@@ -7343,10 +7343,10 @@
         <v>0.8900086866318639</v>
       </c>
       <c r="C493" t="n">
-        <v>1.066516217815731</v>
+        <v>1.181955113122469</v>
       </c>
       <c r="D493" t="n">
-        <v>1.060751877055343</v>
+        <v>1.100682020101042</v>
       </c>
     </row>
     <row r="494">
@@ -7357,10 +7357,10 @@
         <v>0.8843834599782413</v>
       </c>
       <c r="C494" t="n">
-        <v>1.074808772493098</v>
+        <v>1.20087092188868</v>
       </c>
       <c r="D494" t="n">
-        <v>1.062159141216401</v>
+        <v>1.11803471692343</v>
       </c>
     </row>
     <row r="495">
@@ -7371,10 +7371,10 @@
         <v>0.8779992072394222</v>
       </c>
       <c r="C495" t="n">
-        <v>1.0641930504413</v>
+        <v>1.188271686918072</v>
       </c>
       <c r="D495" t="n">
-        <v>1.050920069106695</v>
+        <v>1.105965664963995</v>
       </c>
     </row>
     <row r="496">
@@ -7385,10 +7385,10 @@
         <v>0.8840292478051496</v>
       </c>
       <c r="C496" t="n">
-        <v>1.063550121927467</v>
+        <v>1.192599421103374</v>
       </c>
       <c r="D496" t="n">
-        <v>1.052602334112538</v>
+        <v>1.111519476342267</v>
       </c>
     </row>
   </sheetData>

--- a/resultado_simu.xlsx
+++ b/resultado_simu.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D496"/>
+  <dimension ref="A1:E496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>DEA(1/N)</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IEE</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -469,9 +474,12 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>0.9990000000000001</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,10 +491,13 @@
         <v>0.9926964823357762</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9926172407971501</v>
+        <v>0.9957182703214311</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9940117946454118</v>
+        <v>0.9987440164367114</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9998796685158423</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +508,13 @@
         <v>0.9857050087288</v>
       </c>
       <c r="C4" t="n">
-        <v>1.017089421248981</v>
+        <v>1.027330727048297</v>
       </c>
       <c r="D4" t="n">
-        <v>1.015750442310797</v>
+        <v>1.027966375819459</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.000148637171623</v>
       </c>
     </row>
     <row r="5">
@@ -511,10 +525,13 @@
         <v>0.9838833461243285</v>
       </c>
       <c r="C5" t="n">
-        <v>1.014591444685034</v>
+        <v>1.02289228360106</v>
       </c>
       <c r="D5" t="n">
-        <v>1.014123896820268</v>
+        <v>1.024590896078508</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9953795812076602</v>
       </c>
     </row>
     <row r="6">
@@ -525,10 +542,13 @@
         <v>0.9803833925092559</v>
       </c>
       <c r="C6" t="n">
-        <v>1.006506489612638</v>
+        <v>1.019384624957734</v>
       </c>
       <c r="D6" t="n">
-        <v>1.00256827854195</v>
+        <v>1.022038014969828</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9975856153339793</v>
       </c>
     </row>
     <row r="7">
@@ -539,10 +559,13 @@
         <v>0.9778533055586011</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9964016049382027</v>
+        <v>1.004815447757713</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9955687997806223</v>
+        <v>1.010109847672816</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.004686465396426</v>
       </c>
     </row>
     <row r="8">
@@ -553,10 +576,13 @@
         <v>0.9741087768716318</v>
       </c>
       <c r="C8" t="n">
-        <v>0.990479710630893</v>
+        <v>1.004010577400125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9893513609155091</v>
+        <v>1.013834072949914</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.015879749167664</v>
       </c>
     </row>
     <row r="9">
@@ -567,10 +593,13 @@
         <v>0.9894748382852757</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9899046063699921</v>
+        <v>0.9976838818108482</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9906857393662118</v>
+        <v>1.008275115885798</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.024692640947783</v>
       </c>
     </row>
     <row r="10">
@@ -581,10 +610,13 @@
         <v>0.9920639605981125</v>
       </c>
       <c r="C10" t="n">
-        <v>1.004813079258707</v>
+        <v>1.01577630510197</v>
       </c>
       <c r="D10" t="n">
-        <v>1.00506453322891</v>
+        <v>1.024836842798976</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.026033348235825</v>
       </c>
     </row>
     <row r="11">
@@ -595,10 +627,13 @@
         <v>0.9817918075784537</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9956767464607226</v>
+        <v>1.000495692293063</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9997276956595604</v>
+        <v>1.01332775916282</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.025571151256934</v>
       </c>
     </row>
     <row r="12">
@@ -609,10 +644,13 @@
         <v>0.9842375582974201</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999763110924826</v>
+        <v>1.008119367545542</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9991200158790611</v>
+        <v>1.018785553325454</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.028136887338582</v>
       </c>
     </row>
     <row r="13">
@@ -623,10 +661,13 @@
         <v>0.9991988057989593</v>
       </c>
       <c r="C13" t="n">
-        <v>1.020420247071178</v>
+        <v>1.032004606442323</v>
       </c>
       <c r="D13" t="n">
-        <v>1.017877275509665</v>
+        <v>1.04032946675679</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.032971989906631</v>
       </c>
     </row>
     <row r="14">
@@ -637,10 +678,13 @@
         <v>1.002437317095797</v>
       </c>
       <c r="C14" t="n">
-        <v>1.020151723943391</v>
+        <v>1.029415684691994</v>
       </c>
       <c r="D14" t="n">
-        <v>1.017832285727249</v>
+        <v>1.03937873859691</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.038809294760566</v>
       </c>
     </row>
     <row r="15">
@@ -651,10 +695,13 @@
         <v>0.9869531849577897</v>
       </c>
       <c r="C15" t="n">
-        <v>1.028853307329247</v>
+        <v>1.037357112661768</v>
       </c>
       <c r="D15" t="n">
-        <v>1.027965828621865</v>
+        <v>1.046777572458948</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.033671360111548</v>
       </c>
     </row>
     <row r="16">
@@ -665,10 +712,13 @@
         <v>0.9984650805832693</v>
       </c>
       <c r="C16" t="n">
-        <v>1.013041718376391</v>
+        <v>1.032632420478631</v>
       </c>
       <c r="D16" t="n">
-        <v>1.008507819404847</v>
+        <v>1.043266346082272</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.03976535489839</v>
       </c>
     </row>
     <row r="17">
@@ -679,10 +729,13 @@
         <v>1.008054110126251</v>
       </c>
       <c r="C17" t="n">
-        <v>1.016848138898937</v>
+        <v>1.024020238841175</v>
       </c>
       <c r="D17" t="n">
-        <v>1.019498591729566</v>
+        <v>1.037634147559973</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.047608744570381</v>
       </c>
     </row>
     <row r="18">
@@ -693,10 +746,13 @@
         <v>0.9983385762357366</v>
       </c>
       <c r="C18" t="n">
-        <v>1.021733194167444</v>
+        <v>1.024766888250085</v>
       </c>
       <c r="D18" t="n">
-        <v>1.028493526973633</v>
+        <v>1.039397385146794</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.047213886692721</v>
       </c>
     </row>
     <row r="19">
@@ -707,10 +763,13 @@
         <v>0.9654980476162364</v>
       </c>
       <c r="C19" t="n">
-        <v>1.020398571536346</v>
+        <v>1.021940102581033</v>
       </c>
       <c r="D19" t="n">
-        <v>1.031238964894432</v>
+        <v>1.037993316774656</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.028732082273647</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +780,13 @@
         <v>0.982339993084429</v>
       </c>
       <c r="C20" t="n">
-        <v>1.025073256933891</v>
+        <v>1.024016041132623</v>
       </c>
       <c r="D20" t="n">
-        <v>1.036493237469682</v>
+        <v>1.039486042638547</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.044856630400489</v>
       </c>
     </row>
     <row r="21">
@@ -735,10 +797,13 @@
         <v>0.9731136093377075</v>
       </c>
       <c r="C21" t="n">
-        <v>1.011346474196228</v>
+        <v>1.00425662054343</v>
       </c>
       <c r="D21" t="n">
-        <v>1.027264240901817</v>
+        <v>1.023508208960002</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.038285704167308</v>
       </c>
     </row>
     <row r="22">
@@ -749,10 +814,13 @@
         <v>0.974319617450853</v>
       </c>
       <c r="C22" t="n">
-        <v>1.004958341973349</v>
+        <v>1.000692351947589</v>
       </c>
       <c r="D22" t="n">
-        <v>1.021237895335178</v>
+        <v>1.022493506944987</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.026167767938859</v>
       </c>
     </row>
     <row r="23">
@@ -763,10 +831,13 @@
         <v>0.9594174053114959</v>
       </c>
       <c r="C23" t="n">
-        <v>1.000491892912646</v>
+        <v>0.9997673528930172</v>
       </c>
       <c r="D23" t="n">
-        <v>1.012944116363901</v>
+        <v>1.021090420121367</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.012138616182762</v>
       </c>
     </row>
     <row r="24">
@@ -777,10 +848,13 @@
         <v>0.9667377902220573</v>
       </c>
       <c r="C24" t="n">
-        <v>1.006022285437854</v>
+        <v>1.002397785038011</v>
       </c>
       <c r="D24" t="n">
-        <v>1.018042498317311</v>
+        <v>1.016193367417523</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.02480482969993</v>
       </c>
     </row>
     <row r="25">
@@ -791,10 +865,13 @@
         <v>0.9745641925227497</v>
       </c>
       <c r="C25" t="n">
-        <v>1.019819362507098</v>
+        <v>1.01406220489704</v>
       </c>
       <c r="D25" t="n">
-        <v>1.032159887904355</v>
+        <v>1.024145109791184</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.030586815676078</v>
       </c>
     </row>
     <row r="26">
@@ -805,10 +882,13 @@
         <v>0.9785364290352778</v>
       </c>
       <c r="C26" t="n">
-        <v>1.010888506035745</v>
+        <v>1.004791328980507</v>
       </c>
       <c r="D26" t="n">
-        <v>1.023915877952805</v>
+        <v>1.016889646963354</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.035455135420742</v>
       </c>
     </row>
     <row r="27">
@@ -819,10 +899,13 @@
         <v>0.9714690528197819</v>
       </c>
       <c r="C27" t="n">
-        <v>1.001207529185147</v>
+        <v>0.9932293515482229</v>
       </c>
       <c r="D27" t="n">
-        <v>1.015757329390711</v>
+        <v>1.007658226228672</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.021583797565995</v>
       </c>
     </row>
     <row r="28">
@@ -833,10 +916,13 @@
         <v>0.9594933079200155</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9816641952424773</v>
+        <v>0.979141154197932</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9928739026935214</v>
+        <v>0.9982220367552828</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.004433135956095</v>
       </c>
     </row>
     <row r="29">
@@ -847,10 +933,13 @@
         <v>0.949372960117396</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9697462108590967</v>
+        <v>0.9756211070801566</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9768771252564531</v>
+        <v>1.001415119243167</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9876519992798206</v>
       </c>
     </row>
     <row r="30">
@@ -861,10 +950,13 @@
         <v>0.9729955386133436</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9880547678996212</v>
+        <v>0.9915692630421056</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9970114827271596</v>
+        <v>1.016445789751353</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.008952998470588</v>
       </c>
     </row>
     <row r="31">
@@ -875,10 +967,13 @@
         <v>0.9839845496023547</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9961604476571402</v>
+        <v>0.9991218525228455</v>
       </c>
       <c r="D31" t="n">
-        <v>1.003648328093423</v>
+        <v>1.022251069321225</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.02233564315498</v>
       </c>
     </row>
     <row r="32">
@@ -889,10 +984,13 @@
         <v>0.9754497229554789</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9937461449096779</v>
+        <v>0.9945401259035798</v>
       </c>
       <c r="D32" t="n">
-        <v>1.003487193888264</v>
+        <v>1.018680575573689</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.020855604674755</v>
       </c>
     </row>
     <row r="33">
@@ -903,10 +1001,13 @@
         <v>0.9646462516761826</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9974522728524922</v>
+        <v>1.004864637945722</v>
       </c>
       <c r="D33" t="n">
-        <v>1.003412027021681</v>
+        <v>1.028826650185312</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.017352161914736</v>
       </c>
     </row>
     <row r="34">
@@ -917,10 +1018,13 @@
         <v>0.972472653976875</v>
       </c>
       <c r="C34" t="n">
-        <v>1.016170857158789</v>
+        <v>1.018430515333385</v>
       </c>
       <c r="D34" t="n">
-        <v>1.024064801487987</v>
+        <v>1.039135438058785</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.029190918759963</v>
       </c>
     </row>
     <row r="35">
@@ -931,10 +1035,13 @@
         <v>0.9696726910848169</v>
       </c>
       <c r="C35" t="n">
-        <v>1.010718990932062</v>
+        <v>1.017326372612758</v>
       </c>
       <c r="D35" t="n">
-        <v>1.014517719384931</v>
+        <v>1.037456798554754</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.033765841652814</v>
       </c>
     </row>
     <row r="36">
@@ -945,10 +1052,13 @@
         <v>0.9826689043880141</v>
       </c>
       <c r="C36" t="n">
-        <v>1.012411399282055</v>
+        <v>1.019402152360269</v>
       </c>
       <c r="D36" t="n">
-        <v>1.016583490662554</v>
+        <v>1.038822383729922</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.039293722690343</v>
       </c>
     </row>
     <row r="37">
@@ -959,10 +1069,13 @@
         <v>0.9663751444257968</v>
       </c>
       <c r="C37" t="n">
-        <v>1.001685729558468</v>
+        <v>1.010356728996257</v>
       </c>
       <c r="D37" t="n">
-        <v>1.00678481058159</v>
+        <v>1.032482396381316</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.023338233190008</v>
       </c>
     </row>
     <row r="38">
@@ -973,10 +1086,13 @@
         <v>0.9587427154579879</v>
       </c>
       <c r="C38" t="n">
-        <v>1.005989217879091</v>
+        <v>1.011681026409991</v>
       </c>
       <c r="D38" t="n">
-        <v>1.013383308845845</v>
+        <v>1.033428076293347</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.029336324688725</v>
       </c>
     </row>
     <row r="39">
@@ -987,10 +1103,13 @@
         <v>0.8915857741644387</v>
       </c>
       <c r="C39" t="n">
-        <v>0.96609224324344</v>
+        <v>0.9751597306272977</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9709858850236499</v>
+        <v>1.004245474817214</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9855713373765229</v>
       </c>
     </row>
     <row r="40">
@@ -1001,10 +1120,13 @@
         <v>0.8685282484208041</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9717534852514534</v>
+        <v>0.9827386850340973</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9757981755433988</v>
+        <v>1.010334753068263</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9681575233479915</v>
       </c>
     </row>
     <row r="41">
@@ -1015,10 +1137,13 @@
         <v>0.8785473927453974</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9673702029539462</v>
+        <v>0.9731442706509295</v>
       </c>
       <c r="D41" t="n">
-        <v>0.972282680041061</v>
+        <v>1.001718738732379</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9765533262995639</v>
       </c>
     </row>
     <row r="42">
@@ -1029,10 +1154,13 @@
         <v>0.8992350703785853</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9929241038604033</v>
+        <v>1.008475680298951</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9966442368495974</v>
+        <v>1.043977561381124</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.017016629656011</v>
       </c>
     </row>
     <row r="43">
@@ -1043,10 +1171,13 @@
         <v>0.890059288370877</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9955495779147271</v>
+        <v>1.008027009928698</v>
       </c>
       <c r="D43" t="n">
-        <v>1.001698828057718</v>
+        <v>1.041316234736053</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.015907667105987</v>
       </c>
     </row>
     <row r="44">
@@ -1057,10 +1188,13 @@
         <v>0.9042868106567262</v>
       </c>
       <c r="C44" t="n">
-        <v>1.034166942409599</v>
+        <v>1.040430065845138</v>
       </c>
       <c r="D44" t="n">
-        <v>1.039778650047165</v>
+        <v>1.065813953516116</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.058182017461378</v>
       </c>
     </row>
     <row r="45">
@@ -1071,10 +1205,13 @@
         <v>0.862194597420998</v>
       </c>
       <c r="C45" t="n">
-        <v>1.003212808666344</v>
+        <v>1.009202408702832</v>
       </c>
       <c r="D45" t="n">
-        <v>1.008993429182323</v>
+        <v>1.040164184192831</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.021759835677083</v>
       </c>
     </row>
     <row r="46">
@@ -1085,10 +1222,13 @@
         <v>0.8264697696777512</v>
       </c>
       <c r="C46" t="n">
-        <v>1.001545808340444</v>
+        <v>0.9934684858995754</v>
       </c>
       <c r="D46" t="n">
-        <v>1.01012971345999</v>
+        <v>1.009128691950711</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.985774130178503</v>
       </c>
     </row>
     <row r="47">
@@ -1099,10 +1239,13 @@
         <v>0.7258566452733759</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9330389838677294</v>
+        <v>0.9605928111174442</v>
       </c>
       <c r="D47" t="n">
-        <v>0.923692684786168</v>
+        <v>0.9862662411760987</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9070971147456992</v>
       </c>
     </row>
     <row r="48">
@@ -1113,10 +1256,13 @@
         <v>0.7776981268922942</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9538080542931712</v>
+        <v>0.9728948352335279</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9526694058744959</v>
+        <v>1.002426374902817</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9417440517019537</v>
       </c>
     </row>
     <row r="49">
@@ -1127,10 +1273,13 @@
         <v>0.7183001189140866</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9154443855614736</v>
+        <v>0.9449038578382656</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9098230541759796</v>
+        <v>0.9810201371825288</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8910413274669473</v>
       </c>
     </row>
     <row r="50">
@@ -1141,10 +1290,13 @@
         <v>0.6121376704646083</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8438691668488063</v>
+        <v>0.8909566832458896</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8318627848077935</v>
+        <v>0.9379714138607932</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.7877505134121782</v>
       </c>
     </row>
     <row r="51">
@@ -1155,10 +1307,13 @@
         <v>0.6972750963541448</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8836102665350232</v>
+        <v>0.92107231303214</v>
       </c>
       <c r="D51" t="n">
-        <v>0.876189077950336</v>
+        <v>0.9687012389042216</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.8585604864752453</v>
       </c>
     </row>
     <row r="52">
@@ -1169,10 +1324,13 @@
         <v>0.6002040936806862</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8396561392918145</v>
+        <v>0.8783693516770636</v>
       </c>
       <c r="D52" t="n">
-        <v>0.834038318076883</v>
+        <v>0.9355532419465049</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.7798218189286465</v>
       </c>
     </row>
     <row r="53">
@@ -1183,10 +1341,13 @@
         <v>0.6292916599900483</v>
       </c>
       <c r="C53" t="n">
-        <v>0.836304283319806</v>
+        <v>0.8770730415996171</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8288197990728374</v>
+        <v>0.9388364506037354</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.8035047611071064</v>
       </c>
     </row>
     <row r="54">
@@ -1197,10 +1358,13 @@
         <v>0.564167221880192</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7891743929612042</v>
+        <v>0.8502603099742152</v>
       </c>
       <c r="D54" t="n">
-        <v>0.776644520329281</v>
+        <v>0.9211770400659709</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.7253391867944016</v>
       </c>
     </row>
     <row r="55">
@@ -1211,10 +1375,13 @@
         <v>0.5762863383738288</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7957741473848836</v>
+        <v>0.8438873054984732</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7891928464769031</v>
+        <v>0.9149781602030427</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.7230042907027707</v>
       </c>
     </row>
     <row r="56">
@@ -1225,10 +1392,13 @@
         <v>0.5656346723115718</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8217434111256214</v>
+        <v>0.8538033526993322</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8274067125328851</v>
+        <v>0.9234290377823099</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.70842233791795</v>
       </c>
     </row>
     <row r="57">
@@ -1239,10 +1409,13 @@
         <v>0.5361254248437671</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7897957601767343</v>
+        <v>0.8269382432630349</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7903167670365661</v>
+        <v>0.8976248752734169</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.6679838505066783</v>
       </c>
     </row>
     <row r="58">
@@ -1253,10 +1426,13 @@
         <v>0.5880681099407117</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7965629267182627</v>
+        <v>0.8340432968938253</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7964691359019269</v>
+        <v>0.9069426413488741</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.6893782972409969</v>
       </c>
     </row>
     <row r="59">
@@ -1267,10 +1443,13 @@
         <v>0.6321506582442883</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8358846650074575</v>
+        <v>0.8735605500314236</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8310294856107696</v>
+        <v>0.9376269018187394</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.7094118737318179</v>
       </c>
     </row>
     <row r="60">
@@ -1281,10 +1460,13 @@
         <v>0.6553768564513001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8726750861294454</v>
+        <v>0.9081567688758907</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8657417076906133</v>
+        <v>0.9663929884942852</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.7616195816419392</v>
       </c>
     </row>
     <row r="61">
@@ -1295,10 +1477,13 @@
         <v>0.619272515665455</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8600159296332401</v>
+        <v>0.9089458585485594</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8474504651186801</v>
+        <v>0.9682919800071976</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.7354794731419739</v>
       </c>
     </row>
     <row r="62">
@@ -1309,10 +1494,13 @@
         <v>0.6294856333229318</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8337950270759286</v>
+        <v>0.8679592779803331</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8321737960921668</v>
+        <v>0.9350684780427685</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.7491587459210406</v>
       </c>
     </row>
     <row r="63">
@@ -1323,10 +1511,13 @@
         <v>0.6158231637893956</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8338813387297368</v>
+        <v>0.8762192641654851</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8273060178648295</v>
+        <v>0.9424337097190814</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.7451348145609109</v>
       </c>
     </row>
     <row r="64">
@@ -1337,10 +1528,13 @@
         <v>0.5985089354237474</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8150658188860662</v>
+        <v>0.8541458937795898</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8117190662303313</v>
+        <v>0.9217723239469238</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.7210122941035892</v>
       </c>
     </row>
     <row r="65">
@@ -1351,10 +1545,13 @@
         <v>0.609354574818888</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8379594973952804</v>
+        <v>0.8831022230847831</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8291702583148711</v>
+        <v>0.9482852641210092</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.7263309198534154</v>
       </c>
     </row>
     <row r="66">
@@ -1365,10 +1562,13 @@
         <v>0.5864572879154614</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8431349040634601</v>
+        <v>0.8806778218548956</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8375423540632831</v>
+        <v>0.9436819089376502</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.716232122664183</v>
       </c>
     </row>
     <row r="67">
@@ -1379,10 +1579,13 @@
         <v>0.6247037689861942</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8522875376944884</v>
+        <v>0.8893647876050295</v>
       </c>
       <c r="D67" t="n">
-        <v>0.846361122083058</v>
+        <v>0.9519539955654508</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.7369658448582073</v>
       </c>
     </row>
     <row r="68">
@@ -1393,10 +1596,13 @@
         <v>0.6439745979270154</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8383700909057071</v>
+        <v>0.8828610128027199</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8294882567029822</v>
+        <v>0.9477723147743164</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.7470288398765356</v>
       </c>
     </row>
     <row r="69">
@@ -1407,10 +1613,13 @@
         <v>0.6630936216507974</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8251073155048765</v>
+        <v>0.8691414038505891</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8179663644703513</v>
+        <v>0.9367091287692728</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.7603727096465912</v>
       </c>
     </row>
     <row r="70">
@@ -1421,10 +1630,13 @@
         <v>0.6551407150025722</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8400843099145663</v>
+        <v>0.8846053465564159</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8335473303945117</v>
+        <v>0.9492522153360065</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.7698419314767129</v>
       </c>
     </row>
     <row r="71">
@@ -1435,10 +1647,13 @@
         <v>0.6648731161394247</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8324139421046181</v>
+        <v>0.8792716611911373</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8238559069459134</v>
+        <v>0.9448803942591655</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.7745444238377316</v>
       </c>
     </row>
     <row r="72">
@@ -1449,10 +1664,13 @@
         <v>0.6739982964081199</v>
       </c>
       <c r="C72" t="n">
-        <v>0.862795491452833</v>
+        <v>0.9061287502069306</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8520695057218838</v>
+        <v>0.9615909016589523</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.7995641958128004</v>
       </c>
     </row>
     <row r="73">
@@ -1463,10 +1681,13 @@
         <v>0.6648309480235804</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8663699653119619</v>
+        <v>0.9180218330694954</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8523980322738394</v>
+        <v>0.9756744162871468</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.8061926381689141</v>
       </c>
     </row>
     <row r="74">
@@ -1477,10 +1698,13 @@
         <v>0.6562370860145227</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8618238942766516</v>
+        <v>0.9100908534921597</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8509875084398161</v>
+        <v>0.9688349665500947</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.7997043025032696</v>
       </c>
     </row>
     <row r="75">
@@ -1491,10 +1715,13 @@
         <v>0.6661718941074275</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8503997729386359</v>
+        <v>0.8946024515092169</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8452581501475194</v>
+        <v>0.9575335695668548</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.7999714616630483</v>
       </c>
     </row>
     <row r="76">
@@ -1505,10 +1732,13 @@
         <v>0.666028522513557</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8416040615031443</v>
+        <v>0.887208426517812</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8388548200207894</v>
+        <v>0.9511393558048693</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.80599320585951</v>
       </c>
     </row>
     <row r="77">
@@ -1519,10 +1749,13 @@
         <v>0.6804837526249652</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8533226364693789</v>
+        <v>0.9003544263695921</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8468915352429758</v>
+        <v>0.9610410637174065</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.8153247767437369</v>
       </c>
     </row>
     <row r="78">
@@ -1533,10 +1766,13 @@
         <v>0.6719320587317518</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8473409271919081</v>
+        <v>0.8923200515410401</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8414693015028574</v>
+        <v>0.9547184482090398</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.8046279411257211</v>
       </c>
     </row>
     <row r="79">
@@ -1547,10 +1783,13 @@
         <v>0.6353132669326069</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8204491970166923</v>
+        <v>0.8731507918021335</v>
       </c>
       <c r="D79" t="n">
-        <v>0.81339658032697</v>
+        <v>0.9401352699340829</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.7562773031943679</v>
       </c>
     </row>
     <row r="80">
@@ -1561,10 +1800,13 @@
         <v>0.6598382431076215</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8369689827444629</v>
+        <v>0.8814547048125717</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8337897781063278</v>
+        <v>0.9462333140783692</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.7815934447646822</v>
       </c>
     </row>
     <row r="81">
@@ -1575,10 +1817,13 @@
         <v>0.6857547671054962</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8629737908122408</v>
+        <v>0.8997204974980987</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8638914782088348</v>
+        <v>0.9610407365345672</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.8045997646879699</v>
       </c>
     </row>
     <row r="82">
@@ -1589,10 +1834,13 @@
         <v>0.7014328725763875</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8527606128498809</v>
+        <v>0.8972864304184764</v>
       </c>
       <c r="D82" t="n">
-        <v>0.848487402180476</v>
+        <v>0.9591240459985758</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.8071726095039125</v>
       </c>
     </row>
     <row r="83">
@@ -1603,10 +1851,13 @@
         <v>0.6789572668314034</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8495906646817498</v>
+        <v>0.8977159623264052</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8419917322690358</v>
+        <v>0.9594548066408847</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.7927549331061641</v>
       </c>
     </row>
     <row r="84">
@@ -1617,10 +1868,13 @@
         <v>0.6652104610661786</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8299072196173662</v>
+        <v>0.8762388905177338</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8249310349262485</v>
+        <v>0.9425353524592713</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.7800918215821432</v>
       </c>
     </row>
     <row r="85">
@@ -1631,10 +1885,13 @@
         <v>0.6702284668516442</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8397560161291668</v>
+        <v>0.8871669390785246</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8343646660060183</v>
+        <v>0.9517664460111136</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.791011871457023</v>
       </c>
     </row>
     <row r="86">
@@ -1645,10 +1902,13 @@
         <v>0.6667959822219224</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8372860523841051</v>
+        <v>0.8862723323767977</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8317652445773476</v>
+        <v>0.9512786674301141</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.7802007790914288</v>
       </c>
     </row>
     <row r="87">
@@ -1659,10 +1919,13 @@
         <v>0.6588262083273595</v>
       </c>
       <c r="C87" t="n">
-        <v>0.835205218323354</v>
+        <v>0.8845185030551347</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8289573357294268</v>
+        <v>0.9500022268757742</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.7497039212166121</v>
       </c>
     </row>
     <row r="88">
@@ -1673,10 +1936,13 @@
         <v>0.6769078964013729</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8412263100626193</v>
+        <v>0.8917843673877386</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8324961678489416</v>
+        <v>0.9552903377437538</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.7730336239254663</v>
       </c>
     </row>
     <row r="89">
@@ -1687,10 +1953,13 @@
         <v>0.6668044158450912</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8308447965160072</v>
+        <v>0.880694044518985</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8241874151092863</v>
+        <v>0.9462711502000272</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7647313977671595</v>
       </c>
     </row>
     <row r="90">
@@ -1701,10 +1970,13 @@
         <v>0.6567431034046537</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8249739135964722</v>
+        <v>0.8756668694581697</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8175100432891355</v>
+        <v>0.9426452812539907</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.7530229246341037</v>
       </c>
     </row>
     <row r="91">
@@ -1715,10 +1987,13 @@
         <v>0.6558997410877687</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8321499180554557</v>
+        <v>0.8832553194329366</v>
       </c>
       <c r="D91" t="n">
-        <v>0.824487913160729</v>
+        <v>0.948531099497689</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.7433491005059997</v>
       </c>
     </row>
     <row r="92">
@@ -1729,10 +2004,13 @@
         <v>0.6663490001939734</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8340799645184062</v>
+        <v>0.8837207118348921</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8282624300392231</v>
+        <v>0.9489423988138248</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.7672145432812703</v>
       </c>
     </row>
     <row r="93">
@@ -1743,10 +2021,13 @@
         <v>0.6540865121064661</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8380496115205647</v>
+        <v>0.8840788403629244</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8332877492273045</v>
+        <v>0.9493663634859253</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.7633338206047567</v>
       </c>
     </row>
     <row r="94">
@@ -1757,10 +2038,13 @@
         <v>0.684759599571572</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8576825982376779</v>
+        <v>0.8977875245103802</v>
       </c>
       <c r="D94" t="n">
-        <v>0.8563616957251305</v>
+        <v>0.9594887432998158</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.790878098002562</v>
       </c>
     </row>
     <row r="95">
@@ -1771,10 +2055,13 @@
         <v>0.680947601899252</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8475352088484858</v>
+        <v>0.8894218624920915</v>
       </c>
       <c r="D95" t="n">
-        <v>0.8451922348737976</v>
+        <v>0.9534075838666933</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.7788249158810545</v>
       </c>
     </row>
     <row r="96">
@@ -1785,10 +2072,13 @@
         <v>0.6858138024676781</v>
       </c>
       <c r="C96" t="n">
-        <v>0.847629757438177</v>
+        <v>0.8853412299647294</v>
       </c>
       <c r="D96" t="n">
-        <v>0.848914768454859</v>
+        <v>0.9502017874203974</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.7736772875034525</v>
       </c>
     </row>
     <row r="97">
@@ -1799,10 +2089,13 @@
         <v>0.7002184308400732</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8640956107798629</v>
+        <v>0.9002312459620483</v>
       </c>
       <c r="D97" t="n">
-        <v>0.865380561487987</v>
+        <v>0.9613291145171796</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.7950891829492225</v>
       </c>
     </row>
     <row r="98">
@@ -1813,10 +2106,13 @@
         <v>0.6930161166538756</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8667323685731581</v>
+        <v>0.9046438008954616</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8660296388187951</v>
+        <v>0.9648020176431216</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.8023510781558806</v>
       </c>
     </row>
     <row r="99">
@@ -1827,10 +2123,13 @@
         <v>0.7224494615131607</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8811985748472482</v>
+        <v>0.9152029549276237</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8829006768096703</v>
+        <v>0.9727954810204329</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.8372090798958403</v>
       </c>
     </row>
     <row r="100">
@@ -1841,10 +2140,13 @@
         <v>0.7208133386184038</v>
       </c>
       <c r="C100" t="n">
-        <v>0.88554387883991</v>
+        <v>0.9208227302247238</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8864223756067975</v>
+        <v>0.9771759080442756</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.8393796996003987</v>
       </c>
     </row>
     <row r="101">
@@ -1855,10 +2157,13 @@
         <v>0.7417034232076443</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9028904195692758</v>
+        <v>0.9454145832832124</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8991769549109035</v>
+        <v>0.9970337248096997</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.8617747976240282</v>
       </c>
     </row>
     <row r="102">
@@ -1869,10 +2174,13 @@
         <v>0.7332951009083012</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9151001968861996</v>
+        <v>0.9590166387730596</v>
       </c>
       <c r="D102" t="n">
-        <v>0.909819235322548</v>
+        <v>1.007677332734445</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.8604768719914705</v>
       </c>
     </row>
     <row r="103">
@@ -1883,10 +2191,13 @@
         <v>0.7371239658269589</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9155631622409346</v>
+        <v>0.9588381303233188</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9113250441687558</v>
+        <v>1.007910342808924</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.8578339738302933</v>
       </c>
     </row>
     <row r="104">
@@ -1897,10 +2208,13 @@
         <v>0.7473876852234489</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9167238297415428</v>
+        <v>0.9606990647148264</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9114165581547085</v>
+        <v>1.009046977318577</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.8615667055837557</v>
       </c>
     </row>
     <row r="105">
@@ -1911,10 +2225,13 @@
         <v>0.7678476550310779</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9249897827053927</v>
+        <v>0.9704351742292368</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9191582312075517</v>
+        <v>1.01658659877382</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.8714310437909665</v>
       </c>
     </row>
     <row r="106">
@@ -1925,10 +2242,13 @@
         <v>0.7843438219493477</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9072578944000851</v>
+        <v>0.9472050671192955</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9084580537604627</v>
+        <v>0.9990264074814792</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.8766893099241421</v>
       </c>
     </row>
     <row r="107">
@@ -1939,10 +2259,13 @@
         <v>0.7913184283099862</v>
       </c>
       <c r="C107" t="n">
-        <v>0.903871761011881</v>
+        <v>0.9457990767373045</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9034180375924104</v>
+        <v>0.9977416881629769</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.8724792589751972</v>
       </c>
     </row>
     <row r="108">
@@ -1953,10 +2276,13 @@
         <v>0.7981327958304167</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9085838349220237</v>
+        <v>0.9513831503444563</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9072135945425669</v>
+        <v>1.002168717201716</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.8773378849912775</v>
       </c>
     </row>
     <row r="109">
@@ -1967,10 +2293,13 @@
         <v>0.8235011343223162</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9073340527407592</v>
+        <v>0.9491275917145749</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9051753321095504</v>
+        <v>1.000019016591245</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.9096569053404819</v>
       </c>
     </row>
     <row r="110">
@@ -1981,10 +2310,13 @@
         <v>0.8159277407166893</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9134062657826172</v>
+        <v>0.9561277864879996</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9108115066781314</v>
+        <v>1.006035867696026</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.9110796861972034</v>
       </c>
     </row>
     <row r="111">
@@ -1995,10 +2327,13 @@
         <v>0.7985460433656904</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9120165886651264</v>
+        <v>0.9573452964400465</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9080646130621777</v>
+        <v>1.007375635030189</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.8952665006324835</v>
       </c>
     </row>
     <row r="112">
@@ -2009,10 +2344,13 @@
         <v>0.7825980619533958</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8926492537739175</v>
+        <v>0.9406290949166964</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8875719611786489</v>
+        <v>0.9943022272765234</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.8829515878392045</v>
       </c>
     </row>
     <row r="113">
@@ -2023,10 +2361,13 @@
         <v>0.7790643738456479</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8885641740280834</v>
+        <v>0.9384097143889992</v>
       </c>
       <c r="D113" t="n">
-        <v>0.8823149792237757</v>
+        <v>0.9924873467173252</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.8759714570100586</v>
       </c>
     </row>
     <row r="114">
@@ -2037,10 +2378,13 @@
         <v>0.7888052086056691</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8931405583976735</v>
+        <v>0.9449293942472407</v>
       </c>
       <c r="D114" t="n">
-        <v>0.8866483834364454</v>
+        <v>0.9990039873933914</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.8766619089846777</v>
       </c>
     </row>
     <row r="115">
@@ -2051,10 +2395,13 @@
         <v>0.8058073929140698</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9005083546514266</v>
+        <v>0.9509068216601371</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8929133899646583</v>
+        <v>1.003426957023167</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.9058560589875017</v>
       </c>
     </row>
     <row r="116">
@@ -2065,10 +2412,13 @@
         <v>0.8106820271056648</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9046068360529019</v>
+        <v>0.949689788120326</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9013615673456736</v>
+        <v>1.002468611755171</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.8977637343654699</v>
       </c>
     </row>
     <row r="117">
@@ -2079,10 +2429,13 @@
         <v>0.8144518566621406</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9062261023170242</v>
+        <v>0.9525895652100609</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9027281813737909</v>
+        <v>1.005050882984743</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.9093843176926962</v>
       </c>
     </row>
     <row r="118">
@@ -2093,10 +2446,13 @@
         <v>0.8040278984254425</v>
       </c>
       <c r="C118" t="n">
-        <v>0.903385504782162</v>
+        <v>0.9522669795678982</v>
       </c>
       <c r="D118" t="n">
-        <v>0.897007521989158</v>
+        <v>1.004453175609024</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.9109774496730694</v>
       </c>
     </row>
     <row r="119">
@@ -2107,10 +2463,13 @@
         <v>0.8094169836303374</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9026398428782036</v>
+        <v>0.9536991760718703</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8957603132564949</v>
+        <v>1.005894752919981</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.9015759546933221</v>
       </c>
     </row>
     <row r="120">
@@ -2121,10 +2480,13 @@
         <v>0.7959400538065158</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8939893407358341</v>
+        <v>0.9476140083728146</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8850422971601956</v>
+        <v>1.001103026580003</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.8897675715309926</v>
       </c>
     </row>
     <row r="121">
@@ -2135,10 +2497,13 @@
         <v>0.8094844526156882</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8956182949646474</v>
+        <v>0.9486517394424916</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8864563765098736</v>
+        <v>1.001658678478864</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.89903503455685</v>
       </c>
     </row>
     <row r="122">
@@ -2149,10 +2514,13 @@
         <v>0.7913605964258305</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8924929269555371</v>
+        <v>0.9461510904301513</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8841083877722669</v>
+        <v>1.001102204977721</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.8853973801858379</v>
       </c>
     </row>
     <row r="123">
@@ -2163,10 +2531,13 @@
         <v>0.8073929140698135</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9066438858122521</v>
+        <v>0.9612356787372218</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8975077911040514</v>
+        <v>1.014458622573678</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.8994363549202328</v>
       </c>
     </row>
     <row r="124">
@@ -2177,10 +2548,13 @@
         <v>0.8016664839381646</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9094473072298475</v>
+        <v>0.9639196576464812</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8981798572297189</v>
+        <v>1.016049099005399</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.9068100511298944</v>
       </c>
     </row>
     <row r="125">
@@ -2191,10 +2565,13 @@
         <v>0.8113398497128351</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9192941320896899</v>
+        <v>0.9733690420127556</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9071984159113086</v>
+        <v>1.02307155175875</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.9161983626387674</v>
       </c>
     </row>
     <row r="126">
@@ -2205,10 +2582,13 @@
         <v>0.8116097256542383</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9205626546442014</v>
+        <v>0.9760275973427384</v>
       </c>
       <c r="D126" t="n">
-        <v>0.908984418310181</v>
+        <v>1.027751218970369</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.9143999821118396</v>
       </c>
     </row>
     <row r="127">
@@ -2219,10 +2599,13 @@
         <v>0.8160795459337286</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9270748481068296</v>
+        <v>0.9836776375212769</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9142957926144828</v>
+        <v>1.033493011814181</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.9254950361000915</v>
       </c>
     </row>
     <row r="128">
@@ -2233,10 +2616,13 @@
         <v>0.8343973754564699</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9402411071985508</v>
+        <v>0.9915264477181198</v>
       </c>
       <c r="D128" t="n">
-        <v>0.929709043054059</v>
+        <v>1.039612000078594</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.9304622318763143</v>
       </c>
     </row>
     <row r="129">
@@ -2247,10 +2633,13 @@
         <v>0.8244794346099028</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9243079927125846</v>
+        <v>0.9764574468588243</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9162149743578012</v>
+        <v>1.028336260990123</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.9239812634443938</v>
       </c>
     </row>
     <row r="130">
@@ -2261,10 +2650,13 @@
         <v>0.8414225835561215</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9276349621618294</v>
+        <v>0.9859785522131521</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9135278302500338</v>
+        <v>1.035519791091128</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.9305529651758617</v>
       </c>
     </row>
     <row r="131">
@@ -2275,10 +2667,13 @@
         <v>0.8362780734231233</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9142795611632835</v>
+        <v>0.9719111043213494</v>
       </c>
       <c r="D131" t="n">
-        <v>0.901673275092409</v>
+        <v>1.024464883850247</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.9308238725773594</v>
       </c>
     </row>
     <row r="132">
@@ -2289,10 +2684,13 @@
         <v>0.8436321928263601</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9187136747896436</v>
+        <v>0.9767435367906456</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9059130496416105</v>
+        <v>1.028344866937125</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.9312492333876311</v>
       </c>
     </row>
     <row r="133">
@@ -2303,10 +2701,13 @@
         <v>0.8323733058959459</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9164509720900588</v>
+        <v>0.9730570520894215</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9052186824002652</v>
+        <v>1.025770714525479</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.9260019534801843</v>
       </c>
     </row>
     <row r="134">
@@ -2317,10 +2718,13 @@
         <v>0.8470731110792508</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9161700334047251</v>
+        <v>0.9762784619968475</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9018539586250975</v>
+        <v>1.028187848998435</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.9271242287507977</v>
       </c>
     </row>
     <row r="135">
@@ -2331,10 +2735,13 @@
         <v>0.8584669359803665</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9191973396361675</v>
+        <v>0.9775665813083977</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9052093205743033</v>
+        <v>1.028798708859194</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.9412491545453053</v>
       </c>
     </row>
     <row r="136">
@@ -2345,10 +2752,13 @@
         <v>0.8480261104973308</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9155379734863627</v>
+        <v>0.978461505618282</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8984027375599639</v>
+        <v>1.029540768817638</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.9380369113919536</v>
       </c>
     </row>
     <row r="137">
@@ -2359,10 +2769,13 @@
         <v>0.8677186205965945</v>
       </c>
       <c r="C137" t="n">
-        <v>0.916266070811412</v>
+        <v>0.975025409158931</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9028312826406606</v>
+        <v>1.027021824367889</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.9611121214130457</v>
       </c>
     </row>
     <row r="138">
@@ -2373,10 +2786,13 @@
         <v>0.8806895330302852</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9245077868612875</v>
+        <v>0.9842856778789468</v>
       </c>
       <c r="D138" t="n">
-        <v>0.908478603153817</v>
+        <v>1.033590762382012</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.9710514244546404</v>
       </c>
     </row>
     <row r="139">
@@ -2387,10 +2803,13 @@
         <v>0.8797112327426986</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9268864375568644</v>
+        <v>0.9885195655585405</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9091603124406158</v>
+        <v>1.03716953489371</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.9654993737205085</v>
       </c>
     </row>
     <row r="140">
@@ -2401,10 +2820,13 @@
         <v>0.8795425602793217</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9379969646709085</v>
+        <v>0.99681880444819</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9218936119410032</v>
+        <v>1.044738052050402</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.978102125627879</v>
       </c>
     </row>
     <row r="141">
@@ -2415,10 +2837,13 @@
         <v>0.862700614811129</v>
       </c>
       <c r="C141" t="n">
-        <v>0.927568993610685</v>
+        <v>0.9860756853027939</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9123959212720499</v>
+        <v>1.035202022987623</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.9715358523844182</v>
       </c>
     </row>
     <row r="142">
@@ -2429,10 +2854,13 @@
         <v>0.8634512072731566</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9314752861439822</v>
+        <v>0.9938122398967677</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9138386523881494</v>
+        <v>1.042549868242963</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.9681146124427924</v>
       </c>
     </row>
     <row r="143">
@@ -2443,10 +2871,13 @@
         <v>0.8811196478118964</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9460909618893627</v>
+        <v>1.007807807996438</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9276613333154748</v>
+        <v>1.053316557447468</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.9834263091154265</v>
       </c>
     </row>
     <row r="144">
@@ -2457,10 +2888,13 @@
         <v>0.8780160744857598</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9411957476029407</v>
+        <v>1.002438897353447</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9240385919516203</v>
+        <v>1.04937276045169</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.9753010258162087</v>
       </c>
     </row>
     <row r="145">
@@ -2471,10 +2905,13 @@
         <v>0.8906327747463588</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9410110673363827</v>
+        <v>1.001855463599284</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9249942207924308</v>
+        <v>1.050770806317829</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.977974297660283</v>
       </c>
     </row>
     <row r="146">
@@ -2485,10 +2922,13 @@
         <v>0.8856063353377245</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9484496634557678</v>
+        <v>1.011448289941665</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9297429785389439</v>
+        <v>1.058115413766487</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.9840968566340195</v>
       </c>
     </row>
     <row r="147">
@@ -2499,10 +2939,13 @@
         <v>0.8679210275526469</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9693407628848991</v>
+        <v>1.037399030475286</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9439314972197221</v>
+        <v>1.077982323607988</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.9890661204056735</v>
       </c>
     </row>
     <row r="148">
@@ -2513,10 +2956,13 @@
         <v>0.8672294704528012</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9537783155001494</v>
+        <v>1.016473876961694</v>
       </c>
       <c r="D148" t="n">
-        <v>0.931999488745977</v>
+        <v>1.060469875825298</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.9799207983599761</v>
       </c>
     </row>
     <row r="149">
@@ -2527,10 +2973,13 @@
         <v>0.853617602658278</v>
       </c>
       <c r="C149" t="n">
-        <v>0.953069792819332</v>
+        <v>1.017120012548181</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9318486613025078</v>
+        <v>1.059817789380331</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.9610482720541048</v>
       </c>
     </row>
     <row r="150">
@@ -2541,10 +2990,13 @@
         <v>0.8669933290040734</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9485251642119531</v>
+        <v>1.010692961940559</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9275519048902827</v>
+        <v>1.051970648973149</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.9612321943977745</v>
       </c>
     </row>
     <row r="151">
@@ -2555,10 +3007,13 @@
         <v>0.8781594460796303</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9658664010543681</v>
+        <v>1.028839590167639</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9452825315385356</v>
+        <v>1.070307777119303</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.9834310913548613</v>
       </c>
     </row>
     <row r="152">
@@ -2569,10 +3024,13 @@
         <v>0.8667740548016833</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9623262271840213</v>
+        <v>1.024860912177097</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9426645139396711</v>
+        <v>1.068051225574559</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.9716047424822226</v>
       </c>
     </row>
     <row r="153">
@@ -2583,10 +3041,13 @@
         <v>0.8724077150784748</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9627537976255256</v>
+        <v>1.027377148637212</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9426867779324954</v>
+        <v>1.070688377583189</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.9674908533208323</v>
       </c>
     </row>
     <row r="154">
@@ -2597,10 +3058,13 @@
         <v>0.8616970136540359</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9593006197674864</v>
+        <v>1.021864478409956</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9406263903651405</v>
+        <v>1.066168144514659</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.9531477540083244</v>
       </c>
     </row>
     <row r="155">
@@ -2611,10 +3075,13 @@
         <v>0.8612247307565803</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9541729959634488</v>
+        <v>1.017461577848588</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9348296138925256</v>
+        <v>1.062618922070089</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.9415835235566006</v>
       </c>
     </row>
     <row r="156">
@@ -2625,10 +3092,13 @@
         <v>0.8472502171657966</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9485611661806221</v>
+        <v>1.017676264400514</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9253092558990264</v>
+        <v>1.062720732046883</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.9268151926835356</v>
       </c>
     </row>
     <row r="157">
@@ -2639,10 +3109,13 @@
         <v>0.8547730090324104</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9497124226126311</v>
+        <v>1.020611584376118</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9250261672194685</v>
+        <v>1.065129260572836</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.9320613093435524</v>
       </c>
     </row>
     <row r="158">
@@ -2653,10 +3126,13 @@
         <v>0.8399466995015729</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9414798070061166</v>
+        <v>1.014740944424909</v>
       </c>
       <c r="D158" t="n">
-        <v>0.914857978426978</v>
+        <v>1.060312203520928</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.9083633741982156</v>
       </c>
     </row>
     <row r="159">
@@ -2667,10 +3143,13 @@
         <v>0.8607777487286313</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9510409703426621</v>
+        <v>1.02441063081068</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9245439710770187</v>
+        <v>1.069339182699742</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.9288314882290346</v>
       </c>
     </row>
     <row r="160">
@@ -2681,10 +3160,13 @@
         <v>0.8505646310711544</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9459649444727223</v>
+        <v>1.021715080402742</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9190916761015524</v>
+        <v>1.068909682650717</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.9204290935420252</v>
       </c>
     </row>
     <row r="161">
@@ -2695,10 +3177,13 @@
         <v>0.8557428756968282</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9460134814896386</v>
+        <v>1.019910109269746</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9208333417472236</v>
+        <v>1.068336651621249</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.9219993483229396</v>
       </c>
     </row>
     <row r="162">
@@ -2709,10 +3194,13 @@
         <v>0.8561898577247772</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9485845892062252</v>
+        <v>1.019460633401411</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9257969580241564</v>
+        <v>1.067649966861305</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.9336605160605048</v>
       </c>
     </row>
     <row r="163">
@@ -2723,10 +3211,13 @@
         <v>0.8627427829269733</v>
       </c>
       <c r="C163" t="n">
-        <v>0.947023565812078</v>
+        <v>1.02178180966185</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9222871134540687</v>
+        <v>1.070286951633332</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.9445487705056287</v>
       </c>
     </row>
     <row r="164">
@@ -2737,10 +3228,13 @@
         <v>0.8612247307565803</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9459318579240834</v>
+        <v>1.019337770602025</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9220548645442218</v>
+        <v>1.068192299038523</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.9540998074050006</v>
       </c>
     </row>
     <row r="165">
@@ -2751,10 +3245,13 @@
         <v>0.8486501986118257</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9376666953819565</v>
+        <v>1.007131415905808</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9161854051652828</v>
+        <v>1.058401166996017</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.9388338651312835</v>
       </c>
     </row>
     <row r="166">
@@ -2765,10 +3262,13 @@
         <v>0.8486248977423191</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9255152449698767</v>
+        <v>1.003240534241019</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9012855383062424</v>
+        <v>1.05615744804384</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.9355029707400618</v>
       </c>
     </row>
     <row r="167">
@@ -2779,10 +3279,13 @@
         <v>0.8614355713358016</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9336828357933186</v>
+        <v>1.009120669760195</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9106272851739816</v>
+        <v>1.060771045088398</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.9463347430599689</v>
       </c>
     </row>
     <row r="168">
@@ -2793,10 +3296,13 @@
         <v>0.8380407006654129</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9329386329097491</v>
+        <v>1.008962264074939</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9094412227732129</v>
+        <v>1.061487119969234</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.9301663792799266</v>
       </c>
     </row>
     <row r="169">
@@ -2807,10 +3313,13 @@
         <v>0.8616464119150228</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9285829984411258</v>
+        <v>1.002805534191908</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9068193159495628</v>
+        <v>1.056661456970325</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.9433813870846706</v>
       </c>
     </row>
     <row r="170">
@@ -2821,10 +3330,13 @@
         <v>0.8594789707606285</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9340698222411243</v>
+        <v>1.007315539823121</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9129852590034588</v>
+        <v>1.060070873370207</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.9459080897525526</v>
       </c>
     </row>
     <row r="171">
@@ -2835,10 +3347,13 @@
         <v>0.8494429591896975</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9314097562287085</v>
+        <v>1.005086504923378</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9106916868934102</v>
+        <v>1.058332312129636</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.9361116076454308</v>
       </c>
     </row>
     <row r="172">
@@ -2849,10 +3364,13 @@
         <v>0.8538368768606681</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9287184543096716</v>
+        <v>1.002447564467955</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9080200253627252</v>
+        <v>1.056364632986947</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.9369041668944693</v>
       </c>
     </row>
     <row r="173">
@@ -2863,10 +3381,13 @@
         <v>0.8437839980433994</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9344103016212747</v>
+        <v>1.004702329077443</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9152836682099577</v>
+        <v>1.057878630153804</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.9423321379027243</v>
       </c>
     </row>
     <row r="174">
@@ -2877,10 +3398,13 @@
         <v>0.8542585580191105</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9424430216841999</v>
+        <v>1.012111952994311</v>
       </c>
       <c r="D174" t="n">
-        <v>0.923055844696552</v>
+        <v>1.063743177094536</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.9553281966911814</v>
       </c>
     </row>
     <row r="175">
@@ -2891,10 +3415,13 @@
         <v>0.8335371458932472</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9322851287152605</v>
+        <v>1.004846088661707</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9126759398482936</v>
+        <v>1.058455066226557</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.9333845679201433</v>
       </c>
     </row>
     <row r="176">
@@ -2905,10 +3432,13 @@
         <v>0.8295564757575502</v>
       </c>
       <c r="C176" t="n">
-        <v>0.92454768106059</v>
+        <v>0.9960661760527963</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9051037026479311</v>
+        <v>1.051259197952427</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.9168314277401682</v>
       </c>
     </row>
     <row r="177">
@@ -2919,10 +3449,13 @@
         <v>0.8456815632563905</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9250324247833375</v>
+        <v>1.000397514430189</v>
       </c>
       <c r="D177" t="n">
-        <v>0.904553481039421</v>
+        <v>1.054774483738065</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.9261380534295055</v>
       </c>
     </row>
     <row r="178">
@@ -2933,10 +3466,13 @@
         <v>0.8458755365892742</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9269721238360917</v>
+        <v>1.000039544706235</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9075150208870143</v>
+        <v>1.054477659754687</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.9227121604981595</v>
       </c>
     </row>
     <row r="179">
@@ -2947,10 +3483,13 @@
         <v>0.8406298229782497</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9260315236660742</v>
+        <v>0.9973189112825556</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9074004459343703</v>
+        <v>1.052170941205527</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.9256246735636899</v>
       </c>
     </row>
     <row r="180">
@@ -2961,10 +3500,13 @@
         <v>0.8441888119555042</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9296715619213021</v>
+        <v>1.00316382152402</v>
       </c>
       <c r="D180" t="n">
-        <v>0.909890955381959</v>
+        <v>1.057212562331148</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.9286112467156031</v>
       </c>
     </row>
     <row r="181">
@@ -2975,10 +3517,13 @@
         <v>0.8289408212662241</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9323121664502284</v>
+        <v>1.006108954675748</v>
       </c>
       <c r="D181" t="n">
-        <v>0.911112183137002</v>
+        <v>1.059671912227197</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.9133570661659016</v>
       </c>
     </row>
     <row r="182">
@@ -2989,10 +3534,13 @@
         <v>0.8179855447698886</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9375801499137584</v>
+        <v>1.011779554176024</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9147387242288273</v>
+        <v>1.063094648348722</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.9124739028670301</v>
       </c>
     </row>
     <row r="183">
@@ -3003,10 +3551,13 @@
         <v>0.82054093259005</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9416664645029125</v>
+        <v>1.014939373879678</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9179842202342026</v>
+        <v>1.065655808221565</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.9168443527116138</v>
       </c>
     </row>
     <row r="184">
@@ -3017,10 +3568,13 @@
         <v>0.8073929140698135</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9453639199738888</v>
+        <v>1.016238100387746</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9236518589529232</v>
+        <v>1.066953192896031</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.9064989470672012</v>
       </c>
     </row>
     <row r="185">
@@ -3031,10 +3585,13 @@
         <v>0.8181626508564345</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9602914747592042</v>
+        <v>1.02857183320006</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9361774914239949</v>
+        <v>1.074604379060191</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.9145817072103634</v>
       </c>
     </row>
     <row r="186">
@@ -3045,10 +3602,13 @@
         <v>0.8180530137552394</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9536272620204345</v>
+        <v>1.02060482284693</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9325738147807416</v>
+        <v>1.070167595289329</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.9125996628391948</v>
       </c>
     </row>
     <row r="187">
@@ -3059,10 +3619,13 @@
         <v>0.7983773709023133</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9444126833868902</v>
+        <v>1.016739512087807</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9213629783271988</v>
+        <v>1.067572171574716</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.8890794460512338</v>
       </c>
     </row>
     <row r="188">
@@ -3073,10 +3636,13 @@
         <v>0.7892184561409427</v>
       </c>
       <c r="C188" t="n">
-        <v>0.9388084259388836</v>
+        <v>1.010009967124819</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9166845064743252</v>
+        <v>1.062220733926913</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.8823286042155311</v>
       </c>
     </row>
     <row r="189">
@@ -3087,10 +3653,13 @@
         <v>0.7978460526426758</v>
       </c>
       <c r="C189" t="n">
-        <v>0.9322447837485204</v>
+        <v>1.010413451714845</v>
       </c>
       <c r="D189" t="n">
-        <v>0.9069683812225176</v>
+        <v>1.06252177726549</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.8862563737881062</v>
       </c>
     </row>
     <row r="190">
@@ -3101,10 +3670,13 @@
         <v>0.8052339065385881</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9401108897411888</v>
+        <v>1.019761357956536</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9135881956079327</v>
+        <v>1.068976407183458</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.888479339627019</v>
       </c>
     </row>
     <row r="191">
@@ -3115,10 +3687,13 @@
         <v>0.7928955158425611</v>
       </c>
       <c r="C191" t="n">
-        <v>0.9315521558766324</v>
+        <v>1.012746040669884</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9057202140468464</v>
+        <v>1.063870644966098</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.8820287448779954</v>
       </c>
     </row>
     <row r="192">
@@ -3129,10 +3704,13 @@
         <v>0.8103784166715863</v>
       </c>
       <c r="C192" t="n">
-        <v>0.9315806587545012</v>
+        <v>1.011365303585402</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9072122523859057</v>
+        <v>1.061979939507715</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.891279276191259</v>
       </c>
     </row>
     <row r="193">
@@ -3143,10 +3721,13 @@
         <v>0.8063808792895516</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9281547032936249</v>
+        <v>1.011866715285463</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9023067752065043</v>
+        <v>1.0625989181864</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.8881718545563303</v>
       </c>
     </row>
     <row r="194">
@@ -3157,10 +3738,13 @@
         <v>0.805630286827524</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9305480613188823</v>
+        <v>1.00850186340193</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9078075728720109</v>
+        <v>1.059859629018137</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.883413784818096</v>
       </c>
     </row>
     <row r="195">
@@ -3171,10 +3755,13 @@
         <v>0.8258203806937499</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9340787588681909</v>
+        <v>1.013011710229063</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9100784071531561</v>
+        <v>1.063141904729297</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.8981974964071811</v>
       </c>
     </row>
     <row r="196">
@@ -3185,10 +3772,13 @@
         <v>0.8221348873689626</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9249807684709916</v>
+        <v>1.006752855527445</v>
       </c>
       <c r="D196" t="n">
-        <v>0.9010234767206193</v>
+        <v>1.059850201468854</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.8999528367791954</v>
       </c>
     </row>
     <row r="197">
@@ -3199,10 +3789,13 @@
         <v>0.8307371830011892</v>
       </c>
       <c r="C197" t="n">
-        <v>0.9253348563238344</v>
+        <v>1.012407856102258</v>
       </c>
       <c r="D197" t="n">
-        <v>0.8963389742193469</v>
+        <v>1.063802604411633</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.8971981376150144</v>
       </c>
     </row>
     <row r="198">
@@ -3213,10 +3806,13 @@
         <v>0.8377455238545032</v>
       </c>
       <c r="C198" t="n">
-        <v>0.934657222345542</v>
+        <v>1.021248723698626</v>
       </c>
       <c r="D198" t="n">
-        <v>0.9043345238647229</v>
+        <v>1.070345884530986</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.9065953673541846</v>
       </c>
     </row>
     <row r="199">
@@ -3227,10 +3823,13 @@
         <v>0.8353841093672253</v>
       </c>
       <c r="C199" t="n">
-        <v>0.928971521309957</v>
+        <v>1.019781301916942</v>
       </c>
       <c r="D199" t="n">
-        <v>0.8977748686098057</v>
+        <v>1.069332331301093</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.9147788130249074</v>
       </c>
     </row>
     <row r="200">
@@ -3241,10 +3840,13 @@
         <v>0.8291010601064324</v>
       </c>
       <c r="C200" t="n">
-        <v>0.9352140542638243</v>
+        <v>1.022251070686512</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9071561584048827</v>
+        <v>1.071202419822188</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.9166586208719418</v>
       </c>
     </row>
     <row r="201">
@@ -3255,10 +3857,13 @@
         <v>0.8320443945923608</v>
       </c>
       <c r="C201" t="n">
-        <v>0.9329707155853824</v>
+        <v>1.01874293563095</v>
       </c>
       <c r="D201" t="n">
-        <v>0.9054307161948498</v>
+        <v>1.068268116647341</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.9147241403956929</v>
       </c>
     </row>
     <row r="202">
@@ -3269,10 +3874,13 @@
         <v>0.8479164733961357</v>
       </c>
       <c r="C202" t="n">
-        <v>0.9427791837228998</v>
+        <v>1.029685312684575</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9121041675589396</v>
+        <v>1.075952417868149</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.927287083391011</v>
       </c>
     </row>
     <row r="203">
@@ -3283,10 +3891,13 @@
         <v>0.848017676874162</v>
       </c>
       <c r="C203" t="n">
-        <v>0.9482203869010188</v>
+        <v>1.029803183755016</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9210129035672856</v>
+        <v>1.076626277325892</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.9305903183433393</v>
       </c>
     </row>
     <row r="204">
@@ -3297,10 +3908,13 @@
         <v>0.8595380061228104</v>
       </c>
       <c r="C204" t="n">
-        <v>0.9534361377683784</v>
+        <v>1.032952555066231</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9257931974362641</v>
+        <v>1.078628053073749</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.9360467242887744</v>
       </c>
     </row>
     <row r="205">
@@ -3311,10 +3925,13 @@
         <v>0.8539886820777074</v>
       </c>
       <c r="C205" t="n">
-        <v>0.9573518028304084</v>
+        <v>1.038930617695442</v>
       </c>
       <c r="D205" t="n">
-        <v>0.9280204851844349</v>
+        <v>1.083559585458415</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.936622919515815</v>
       </c>
     </row>
     <row r="206">
@@ -3325,10 +3942,13 @@
         <v>0.851939311647677</v>
       </c>
       <c r="C206" t="n">
-        <v>0.9603846954231736</v>
+        <v>1.04268882338472</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9297394606953993</v>
+        <v>1.086294815217715</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.9440671860695692</v>
       </c>
     </row>
     <row r="207">
@@ -3339,10 +3959,13 @@
         <v>0.8400394693564303</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9738603056973878</v>
+        <v>1.056719457958024</v>
       </c>
       <c r="D207" t="n">
-        <v>0.9391576703995634</v>
+        <v>1.096506339652434</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.9407947125492813</v>
       </c>
     </row>
     <row r="208">
@@ -3353,10 +3976,13 @@
         <v>0.8043062079900146</v>
       </c>
       <c r="C208" t="n">
-        <v>0.9621273185357619</v>
+        <v>1.048414750927193</v>
       </c>
       <c r="D208" t="n">
-        <v>0.9245599424284836</v>
+        <v>1.089772592064534</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.9168322032384549</v>
       </c>
     </row>
     <row r="209">
@@ -3367,10 +3993,13 @@
         <v>0.8145361928938292</v>
       </c>
       <c r="C209" t="n">
-        <v>0.959490486746768</v>
+        <v>1.048327748621833</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9215418825146343</v>
+        <v>1.090395462915579</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.9179471112753445</v>
       </c>
     </row>
     <row r="210">
@@ -3381,10 +4010,13 @@
         <v>0.7923557639597547</v>
       </c>
       <c r="C210" t="n">
-        <v>0.9536666818237606</v>
+        <v>1.042897088970991</v>
       </c>
       <c r="D210" t="n">
-        <v>0.9165450300082603</v>
+        <v>1.086468550630966</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.9041192013246545</v>
       </c>
     </row>
     <row r="211">
@@ -3395,10 +4027,13 @@
         <v>0.8061447378408237</v>
       </c>
       <c r="C211" t="n">
-        <v>0.9774721926372709</v>
+        <v>1.069814157194393</v>
       </c>
       <c r="D211" t="n">
-        <v>0.9340719016621442</v>
+        <v>1.10698431640112</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.9201686553673981</v>
       </c>
     </row>
     <row r="212">
@@ -3409,10 +4044,13 @@
         <v>0.8249011157683452</v>
       </c>
       <c r="C212" t="n">
-        <v>1.000984033914327</v>
+        <v>1.095048958280106</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9537044226980875</v>
+        <v>1.126257578275866</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.9450739120954597</v>
       </c>
     </row>
     <row r="213">
@@ -3423,10 +4061,13 @@
         <v>0.8498899412176465</v>
       </c>
       <c r="C213" t="n">
-        <v>1.015456464376791</v>
+        <v>1.111560445231734</v>
       </c>
       <c r="D213" t="n">
-        <v>0.9661704436573966</v>
+        <v>1.139407138111556</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.9754214865500808</v>
       </c>
     </row>
     <row r="214">
@@ -3437,10 +4078,13 @@
         <v>0.8501007817968678</v>
       </c>
       <c r="C214" t="n">
-        <v>1.038125961641959</v>
+        <v>1.128527034996958</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9895600047078827</v>
+        <v>1.152535753827119</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.9847432344560092</v>
       </c>
     </row>
     <row r="215">
@@ -3451,10 +4095,13 @@
         <v>0.8763630843446654</v>
       </c>
       <c r="C215" t="n">
-        <v>1.048030798320517</v>
+        <v>1.137500737372916</v>
       </c>
       <c r="D215" t="n">
-        <v>0.9975756427355535</v>
+        <v>1.158714663828072</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.9878404453634961</v>
       </c>
     </row>
     <row r="216">
@@ -3465,10 +4112,13 @@
         <v>0.888490634461471</v>
       </c>
       <c r="C216" t="n">
-        <v>1.056552709023067</v>
+        <v>1.146198798209492</v>
       </c>
       <c r="D216" t="n">
-        <v>1.004856496362677</v>
+        <v>1.165444352007008</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.9891007593291474</v>
       </c>
     </row>
     <row r="217">
@@ -3479,10 +4129,13 @@
         <v>0.8815834970861832</v>
       </c>
       <c r="C217" t="n">
-        <v>1.043895802863035</v>
+        <v>1.13760784244276</v>
       </c>
       <c r="D217" t="n">
-        <v>0.9903440387481104</v>
+        <v>1.158574857783385</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.9751041785010935</v>
       </c>
     </row>
     <row r="218">
@@ -3493,10 +4146,13 @@
         <v>0.8617054472772048</v>
       </c>
       <c r="C218" t="n">
-        <v>1.041249272095173</v>
+        <v>1.13815524542113</v>
       </c>
       <c r="D218" t="n">
-        <v>0.9879979328524587</v>
+        <v>1.159579477883437</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.9612810507898386</v>
       </c>
     </row>
     <row r="219">
@@ -3507,10 +4163,13 @@
         <v>0.8814148246228062</v>
       </c>
       <c r="C219" t="n">
-        <v>1.046456305397541</v>
+        <v>1.146341763773363</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9915002688747386</v>
+        <v>1.165385084636148</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.9845174352048562</v>
       </c>
     </row>
     <row r="220">
@@ -3521,10 +4180,13 @@
         <v>0.8975905138606597</v>
       </c>
       <c r="C220" t="n">
-        <v>1.061523522966315</v>
+        <v>1.154108722197871</v>
       </c>
       <c r="D220" t="n">
-        <v>1.009564858821733</v>
+        <v>1.171037892805367</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.9922307996641058</v>
       </c>
     </row>
     <row r="221">
@@ -3535,10 +4197,13 @@
         <v>0.9043289787725705</v>
       </c>
       <c r="C221" t="n">
-        <v>1.055180073175524</v>
+        <v>1.149378244265395</v>
       </c>
       <c r="D221" t="n">
-        <v>1.004157051497265</v>
+        <v>1.16810715462004</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.9976466211992021</v>
       </c>
     </row>
     <row r="222">
@@ -3549,10 +4214,13 @@
         <v>0.8980374958886087</v>
       </c>
       <c r="C222" t="n">
-        <v>1.045084535694105</v>
+        <v>1.143472379036473</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9925983485270802</v>
+        <v>1.163718121649196</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.9915881700838352</v>
       </c>
     </row>
     <row r="223">
@@ -3563,10 +4231,13 @@
         <v>0.8983242390763496</v>
       </c>
       <c r="C223" t="n">
-        <v>1.048338665833519</v>
+        <v>1.149092154333573</v>
       </c>
       <c r="D223" t="n">
-        <v>0.9935565411353877</v>
+        <v>1.168098548673038</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.9899781063908685</v>
       </c>
     </row>
     <row r="224">
@@ -3577,10 +4248,13 @@
         <v>0.9055940222478979</v>
       </c>
       <c r="C224" t="n">
-        <v>1.052417688916484</v>
+        <v>1.149557546735529</v>
       </c>
       <c r="D224" t="n">
-        <v>0.9996619778423746</v>
+        <v>1.168509847989174</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.9780735614409843</v>
       </c>
     </row>
     <row r="225">
@@ -3591,10 +4265,13 @@
         <v>0.9258937532153189</v>
       </c>
       <c r="C225" t="n">
-        <v>1.049382171003931</v>
+        <v>1.153780986022684</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9911415907285586</v>
+        <v>1.171529236375887</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.9853468306225144</v>
       </c>
     </row>
     <row r="226">
@@ -3605,10 +4282,13 @@
         <v>0.9288202204549096</v>
       </c>
       <c r="C226" t="n">
-        <v>1.061703688650255</v>
+        <v>1.165506190587402</v>
       </c>
       <c r="D226" t="n">
-        <v>1.003640556010797</v>
+        <v>1.181311595234788</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.9941641168929247</v>
       </c>
     </row>
     <row r="227">
@@ -3619,10 +4299,13 @@
         <v>0.9296129810327814</v>
       </c>
       <c r="C227" t="n">
-        <v>1.064262234686967</v>
+        <v>1.167367283782989</v>
       </c>
       <c r="D227" t="n">
-        <v>1.006155817229172</v>
+        <v>1.182575370433164</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.0032162498945</v>
       </c>
     </row>
     <row r="228">
@@ -3633,10 +4316,13 @@
         <v>0.9325478818955412</v>
       </c>
       <c r="C228" t="n">
-        <v>1.069525020326769</v>
+        <v>1.171268772644295</v>
       </c>
       <c r="D228" t="n">
-        <v>1.011205211080201</v>
+        <v>1.185505614199048</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.00346285834968</v>
       </c>
     </row>
     <row r="229">
@@ -3647,10 +4333,13 @@
         <v>0.9183203596096919</v>
       </c>
       <c r="C229" t="n">
-        <v>1.068498148419666</v>
+        <v>1.170874942426315</v>
       </c>
       <c r="D229" t="n">
-        <v>1.010587214166175</v>
+        <v>1.185128251541843</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.9988822484693927</v>
       </c>
     </row>
     <row r="230">
@@ -3661,10 +4350,13 @@
         <v>0.9389574355038668</v>
       </c>
       <c r="C230" t="n">
-        <v>1.060902377656937</v>
+        <v>1.166723065323135</v>
       </c>
       <c r="D230" t="n">
-        <v>1.001081065666431</v>
+        <v>1.182142799814062</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1.002067866181567</v>
       </c>
     </row>
     <row r="231">
@@ -3675,10 +4367,13 @@
         <v>0.9429971410017458</v>
       </c>
       <c r="C231" t="n">
-        <v>1.059280885640679</v>
+        <v>1.155770239877071</v>
       </c>
       <c r="D231" t="n">
-        <v>1.007487038409776</v>
+        <v>1.173899114468268</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1.010020213362844</v>
       </c>
     </row>
     <row r="232">
@@ -3689,10 +4384,13 @@
         <v>0.9523162946033246</v>
       </c>
       <c r="C232" t="n">
-        <v>1.073966530019185</v>
+        <v>1.170016513826772</v>
       </c>
       <c r="D232" t="n">
-        <v>1.021447032118649</v>
+        <v>1.184975293012116</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.014297991162163</v>
       </c>
     </row>
     <row r="233">
@@ -3703,10 +4401,13 @@
         <v>0.9587511490811568</v>
       </c>
       <c r="C233" t="n">
-        <v>1.077255717607517</v>
+        <v>1.172859204551756</v>
       </c>
       <c r="D233" t="n">
-        <v>1.026064699570367</v>
+        <v>1.188714321269186</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1.010841983047349</v>
       </c>
     </row>
     <row r="234">
@@ -3717,10 +4418,13 @@
         <v>0.9582704325605323</v>
       </c>
       <c r="C234" t="n">
-        <v>1.098300712915701</v>
+        <v>1.195265949535788</v>
       </c>
       <c r="D234" t="n">
-        <v>1.041794368233461</v>
+        <v>1.205566389262013</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.013513186895992</v>
       </c>
     </row>
     <row r="235">
@@ -3731,10 +4435,13 @@
         <v>0.9578150169094145</v>
       </c>
       <c r="C235" t="n">
-        <v>1.097229899444189</v>
+        <v>1.192223683294418</v>
       </c>
       <c r="D235" t="n">
-        <v>1.043559420057486</v>
+        <v>1.203424807469468</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.009248721817261</v>
       </c>
     </row>
     <row r="236">
@@ -3745,10 +4452,13 @@
         <v>0.9506548708390612</v>
       </c>
       <c r="C236" t="n">
-        <v>1.099381991219647</v>
+        <v>1.19505158059202</v>
       </c>
       <c r="D236" t="n">
-        <v>1.045185155729423</v>
+        <v>1.205718860662664</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.007854117398291</v>
       </c>
     </row>
     <row r="237">
@@ -3759,10 +4469,13 @@
         <v>0.9697991954323497</v>
       </c>
       <c r="C237" t="n">
-        <v>1.110123606825446</v>
+        <v>1.204321821292239</v>
       </c>
       <c r="D237" t="n">
-        <v>1.055848892389176</v>
+        <v>1.212465760735604</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.01496517818818</v>
       </c>
     </row>
     <row r="238">
@@ -3773,10 +4486,13 @@
         <v>0.9725907247012389</v>
       </c>
       <c r="C238" t="n">
-        <v>1.133898617789294</v>
+        <v>1.223221225241102</v>
       </c>
       <c r="D238" t="n">
-        <v>1.081631823858002</v>
+        <v>1.227019228997196</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.038783057068531</v>
       </c>
     </row>
     <row r="239">
@@ -3787,10 +4503,13 @@
         <v>0.9696558238384793</v>
       </c>
       <c r="C239" t="n">
-        <v>1.16026773763044</v>
+        <v>1.263921715877507</v>
       </c>
       <c r="D239" t="n">
-        <v>1.099131833748267</v>
+        <v>1.260234125014624</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.032868331635638</v>
       </c>
     </row>
     <row r="240">
@@ -3801,10 +4520,13 @@
         <v>0.9795315965692021</v>
       </c>
       <c r="C240" t="n">
-        <v>1.160424552094503</v>
+        <v>1.262167727751765</v>
       </c>
       <c r="D240" t="n">
-        <v>1.100123126862973</v>
+        <v>1.258830543771561</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.042010551688189</v>
       </c>
     </row>
     <row r="241">
@@ -3815,10 +4537,13 @@
         <v>0.9947205518963002</v>
       </c>
       <c r="C241" t="n">
-        <v>1.165942300424205</v>
+        <v>1.264351247785436</v>
       </c>
       <c r="D241" t="n">
-        <v>1.107979279280561</v>
+        <v>1.260564885656932</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.048184552048278</v>
       </c>
     </row>
     <row r="242">
@@ -3829,10 +4554,13 @@
         <v>0.9964916127617586</v>
       </c>
       <c r="C242" t="n">
-        <v>1.16489511287869</v>
+        <v>1.264172739335695</v>
       </c>
       <c r="D242" t="n">
-        <v>1.107535913302725</v>
+        <v>1.260797895731411</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.047222804923018</v>
       </c>
     </row>
     <row r="243">
@@ -3843,10 +4571,13 @@
         <v>0.9924603408870485</v>
       </c>
       <c r="C243" t="n">
-        <v>1.154932981014887</v>
+        <v>1.259380988807604</v>
       </c>
       <c r="D243" t="n">
-        <v>1.094490985663335</v>
+        <v>1.258265464323415</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.044243599004829</v>
       </c>
     </row>
     <row r="244">
@@ -3857,10 +4588,13 @@
         <v>0.9784352255572516</v>
       </c>
       <c r="C244" t="n">
-        <v>1.150196761323158</v>
+        <v>1.252196011945174</v>
       </c>
       <c r="D244" t="n">
-        <v>1.093245288135231</v>
+        <v>1.255291034747034</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.028146581067166</v>
       </c>
     </row>
     <row r="245">
@@ -3871,10 +4605,13 @@
         <v>0.9812351884493097</v>
       </c>
       <c r="C245" t="n">
-        <v>1.145195134410764</v>
+        <v>1.252072184843627</v>
       </c>
       <c r="D245" t="n">
-        <v>1.085041825780255</v>
+        <v>1.257680868120657</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.030820111410669</v>
       </c>
     </row>
     <row r="246">
@@ -3885,10 +4622,13 @@
         <v>0.9939615258111038</v>
       </c>
       <c r="C246" t="n">
-        <v>1.147924203259878</v>
+        <v>1.254453669397519</v>
       </c>
       <c r="D246" t="n">
-        <v>1.088606082298135</v>
+        <v>1.261767047311756</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.046977359715268</v>
       </c>
     </row>
     <row r="247">
@@ -3899,10 +4639,13 @@
         <v>1.00403127187471</v>
       </c>
       <c r="C247" t="n">
-        <v>1.155959657245618</v>
+        <v>1.258712969178701</v>
       </c>
       <c r="D247" t="n">
-        <v>1.097109734817875</v>
+        <v>1.264866974372296</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.063989982630131</v>
       </c>
     </row>
     <row r="248">
@@ -3913,10 +4656,13 @@
         <v>1.007607128098302</v>
       </c>
       <c r="C248" t="n">
-        <v>1.160852764422101</v>
+        <v>1.271567081871632</v>
       </c>
       <c r="D248" t="n">
-        <v>1.097951788895018</v>
+        <v>1.27795090985792</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1.06549625880239</v>
       </c>
     </row>
     <row r="249">
@@ -3927,10 +4673,13 @@
         <v>1.006181845782767</v>
       </c>
       <c r="C249" t="n">
-        <v>1.148188106716831</v>
+        <v>1.254835916639133</v>
       </c>
       <c r="D249" t="n">
-        <v>1.090999511844077</v>
+        <v>1.265915731680398</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1.070781408876172</v>
       </c>
     </row>
     <row r="250">
@@ -3941,10 +4690,13 @@
         <v>0.9998734956524673</v>
       </c>
       <c r="C250" t="n">
-        <v>1.145373262519573</v>
+        <v>1.253680473303094</v>
       </c>
       <c r="D250" t="n">
-        <v>1.08685595500397</v>
+        <v>1.264813361012516</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.059266681065085</v>
       </c>
     </row>
     <row r="251">
@@ -3955,10 +4707,13 @@
         <v>1.005481855059752</v>
       </c>
       <c r="C251" t="n">
-        <v>1.128271932014656</v>
+        <v>1.235889886195647</v>
       </c>
       <c r="D251" t="n">
-        <v>1.070680497404753</v>
+        <v>1.250468059242548</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1.054139991141225</v>
       </c>
     </row>
     <row r="252">
@@ -3969,10 +4724,13 @@
         <v>1.01077817040979</v>
       </c>
       <c r="C252" t="n">
-        <v>1.132882643979662</v>
+        <v>1.242405379823024</v>
       </c>
       <c r="D252" t="n">
-        <v>1.074952370140851</v>
+        <v>1.256226249668448</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1.041670495689457</v>
       </c>
     </row>
     <row r="253">
@@ -3983,10 +4741,13 @@
         <v>1.028530947180218</v>
       </c>
       <c r="C253" t="n">
-        <v>1.12077155677252</v>
+        <v>1.231166464445138</v>
       </c>
       <c r="D253" t="n">
-        <v>1.064345274881351</v>
+        <v>1.247973958375653</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1.028532779213957</v>
       </c>
     </row>
     <row r="254">
@@ -3997,10 +4758,13 @@
         <v>1.054852285090198</v>
       </c>
       <c r="C254" t="n">
-        <v>1.145523402027823</v>
+        <v>1.260296163144737</v>
       </c>
       <c r="D254" t="n">
-        <v>1.083169806018579</v>
+        <v>1.272732594092759</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1.064708094043643</v>
       </c>
     </row>
     <row r="255">
@@ -4011,10 +4775,13 @@
         <v>1.035707960496909</v>
       </c>
       <c r="C255" t="n">
-        <v>1.140584877674085</v>
+        <v>1.253639291994275</v>
       </c>
       <c r="D255" t="n">
-        <v>1.081702275437497</v>
+        <v>1.268305077924945</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1.043812163457978</v>
       </c>
     </row>
     <row r="256">
@@ -4025,10 +4792,13 @@
         <v>1.045752405691009</v>
       </c>
       <c r="C256" t="n">
-        <v>1.152297806462455</v>
+        <v>1.270078263937456</v>
       </c>
       <c r="D256" t="n">
-        <v>1.087016578856102</v>
+        <v>1.280657856969369</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1.053774085199602</v>
       </c>
     </row>
     <row r="257">
@@ -4039,10 +4809,13 @@
         <v>1.029239371526401</v>
       </c>
       <c r="C257" t="n">
-        <v>1.164824508064253</v>
+        <v>1.273478817510937</v>
       </c>
       <c r="D257" t="n">
-        <v>1.10580506517817</v>
+        <v>1.283350544122735</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1.062707696213022</v>
       </c>
     </row>
     <row r="258">
@@ -4053,10 +4826,13 @@
         <v>1.041392222512714</v>
       </c>
       <c r="C258" t="n">
-        <v>1.162082092691821</v>
+        <v>1.271366859661242</v>
       </c>
       <c r="D258" t="n">
-        <v>1.101587038177683</v>
+        <v>1.281650138896295</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1.082367611779354</v>
       </c>
     </row>
     <row r="259">
@@ -4067,10 +4843,13 @@
         <v>1.016268459092711</v>
       </c>
       <c r="C259" t="n">
-        <v>1.166847911705106</v>
+        <v>1.270374961065795</v>
       </c>
       <c r="D259" t="n">
-        <v>1.111189579562448</v>
+        <v>1.281352987730078</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1.078379741089557</v>
       </c>
     </row>
     <row r="260">
@@ -4081,10 +4860,13 @@
         <v>1.022509340237659</v>
       </c>
       <c r="C260" t="n">
-        <v>1.159716269558034</v>
+        <v>1.264130911269247</v>
       </c>
       <c r="D260" t="n">
-        <v>1.10374596594525</v>
+        <v>1.276895914204768</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1.065328751172457</v>
       </c>
     </row>
     <row r="261">
@@ -4095,10 +4877,13 @@
         <v>1.017710608654584</v>
       </c>
       <c r="C261" t="n">
-        <v>1.164688211468262</v>
+        <v>1.270977192718747</v>
       </c>
       <c r="D261" t="n">
-        <v>1.110069106285323</v>
+        <v>1.287251917146736</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1.06285995237665</v>
       </c>
     </row>
     <row r="262">
@@ -4109,10 +4894,13 @@
         <v>1.009572162296644</v>
       </c>
       <c r="C262" t="n">
-        <v>1.141454366601554</v>
+        <v>1.253601332614159</v>
       </c>
       <c r="D262" t="n">
-        <v>1.084645219114896</v>
+        <v>1.274402746283944</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1.046200827430822</v>
       </c>
     </row>
     <row r="263">
@@ -4123,10 +4911,13 @@
         <v>0.9989036289880495</v>
       </c>
       <c r="C263" t="n">
-        <v>1.132614737275749</v>
+        <v>1.2505429795574</v>
       </c>
       <c r="D263" t="n">
-        <v>1.074823933110368</v>
+        <v>1.275019754575225</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1.034904402387449</v>
       </c>
     </row>
     <row r="264">
@@ -4137,10 +4928,13 @@
         <v>0.9881844939404417</v>
       </c>
       <c r="C264" t="n">
-        <v>1.123537711358191</v>
+        <v>1.247643996488058</v>
       </c>
       <c r="D264" t="n">
-        <v>1.062106321808558</v>
+        <v>1.273073186789266</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1.025283441392557</v>
       </c>
     </row>
     <row r="265">
@@ -4151,10 +4945,13 @@
         <v>0.9822134887368963</v>
       </c>
       <c r="C265" t="n">
-        <v>1.121268171613186</v>
+        <v>1.254056888884612</v>
       </c>
       <c r="D265" t="n">
-        <v>1.055904857156955</v>
+        <v>1.279983914887464</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1.006920805210211</v>
       </c>
     </row>
     <row r="266">
@@ -4165,10 +4962,13 @@
         <v>0.9773051200526258</v>
       </c>
       <c r="C266" t="n">
-        <v>1.123102890221282</v>
+        <v>1.250159427450091</v>
       </c>
       <c r="D266" t="n">
-        <v>1.061418223280193</v>
+        <v>1.277684980683023</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1.015665582390812</v>
       </c>
     </row>
     <row r="267">
@@ -4179,10 +4979,13 @@
         <v>1.006249314768118</v>
       </c>
       <c r="C267" t="n">
-        <v>1.13230002224738</v>
+        <v>1.25600947674689</v>
       </c>
       <c r="D267" t="n">
-        <v>1.073383207108637</v>
+        <v>1.284247896191145</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1.039259859265156</v>
       </c>
     </row>
     <row r="268">
@@ -4193,10 +4996,13 @@
         <v>0.978359322948732</v>
       </c>
       <c r="C268" t="n">
-        <v>1.114350482604092</v>
+        <v>1.240797351519645</v>
       </c>
       <c r="D268" t="n">
-        <v>1.057318969205877</v>
+        <v>1.272904283784812</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1.020074419400589</v>
       </c>
     </row>
     <row r="269">
@@ -4207,10 +5013,13 @@
         <v>0.9898121832120297</v>
       </c>
       <c r="C269" t="n">
-        <v>1.124271339160561</v>
+        <v>1.246237665542532</v>
       </c>
       <c r="D269" t="n">
-        <v>1.068568646395377</v>
+        <v>1.276754876750798</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1.042908190955079</v>
       </c>
     </row>
     <row r="270">
@@ -4221,10 +5030,13 @@
         <v>0.99714100174576</v>
       </c>
       <c r="C270" t="n">
-        <v>1.113338658655961</v>
+        <v>1.234988142968129</v>
       </c>
       <c r="D270" t="n">
-        <v>1.058073734361508</v>
+        <v>1.267816060644295</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1.056789093288696</v>
       </c>
     </row>
     <row r="271">
@@ -4235,10 +5047,13 @@
         <v>1.009715533890515</v>
       </c>
       <c r="C271" t="n">
-        <v>1.125589310290153</v>
+        <v>1.246550120400413</v>
       </c>
       <c r="D271" t="n">
-        <v>1.070270942821669</v>
+        <v>1.277047481378977</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1.065010796874897</v>
       </c>
     </row>
     <row r="272">
@@ -4249,10 +5064,13 @@
         <v>1.005802332740169</v>
       </c>
       <c r="C272" t="n">
-        <v>1.107751897994621</v>
+        <v>1.230509652796001</v>
       </c>
       <c r="D272" t="n">
-        <v>1.052758086493156</v>
+        <v>1.263601591979351</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1.062806701494295</v>
       </c>
     </row>
     <row r="273">
@@ -4263,10 +5081,13 @@
         <v>1.011402258524285</v>
       </c>
       <c r="C273" t="n">
-        <v>1.106431082275719</v>
+        <v>1.224459869178736</v>
       </c>
       <c r="D273" t="n">
-        <v>1.053974629517515</v>
+        <v>1.258508982247032</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1.064720889765374</v>
       </c>
     </row>
     <row r="274">
@@ -4277,10 +5098,13 @@
         <v>1.007952906648225</v>
       </c>
       <c r="C274" t="n">
-        <v>1.105432804586319</v>
+        <v>1.222276507949144</v>
       </c>
       <c r="D274" t="n">
-        <v>1.053957441547785</v>
+        <v>1.256901781050383</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1.064886846398735</v>
       </c>
     </row>
     <row r="275">
@@ -4291,10 +5115,13 @@
         <v>1.007219181432535</v>
       </c>
       <c r="C275" t="n">
-        <v>1.098729260585539</v>
+        <v>1.218303615707942</v>
       </c>
       <c r="D275" t="n">
-        <v>1.046745627282484</v>
+        <v>1.25406474131429</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1.062948488431052</v>
       </c>
     </row>
     <row r="276">
@@ -4305,10 +5132,13 @@
         <v>0.9987939918868545</v>
       </c>
       <c r="C276" t="n">
-        <v>1.094754112231933</v>
+        <v>1.212755720202974</v>
       </c>
       <c r="D276" t="n">
-        <v>1.045006257775927</v>
+        <v>1.249972532326824</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1.051509888701778</v>
       </c>
     </row>
     <row r="277">
@@ -4319,10 +5149,13 @@
         <v>1.005583058537779</v>
       </c>
       <c r="C277" t="n">
-        <v>1.092197426205676</v>
+        <v>1.211073770673443</v>
       </c>
       <c r="D277" t="n">
-        <v>1.04279246529082</v>
+        <v>1.24898430980886</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1.053917164633504</v>
       </c>
     </row>
     <row r="278">
@@ -4333,10 +5166,13 @@
         <v>1.004579457380685</v>
       </c>
       <c r="C278" t="n">
-        <v>1.087914304596749</v>
+        <v>1.209585440629192</v>
       </c>
       <c r="D278" t="n">
-        <v>1.037981732401364</v>
+        <v>1.249462333657736</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1.047216600936725</v>
       </c>
     </row>
     <row r="279">
@@ -4347,10 +5183,13 @@
         <v>1.015332326920968</v>
       </c>
       <c r="C279" t="n">
-        <v>1.07596075929387</v>
+        <v>1.198919022723107</v>
       </c>
       <c r="D279" t="n">
-        <v>1.027149742007674</v>
+        <v>1.24148153563639</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1.03254662909636</v>
       </c>
     </row>
     <row r="280">
@@ -4361,10 +5200,13 @@
         <v>1.004781864336738</v>
       </c>
       <c r="C280" t="n">
-        <v>1.079739518210225</v>
+        <v>1.202355119182458</v>
       </c>
       <c r="D280" t="n">
-        <v>1.03051157594162</v>
+        <v>1.244000480086138</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1.024662784263744</v>
       </c>
     </row>
     <row r="281">
@@ -4375,10 +5217,13 @@
         <v>1.001475884054549</v>
       </c>
       <c r="C281" t="n">
-        <v>1.07812769831788</v>
+        <v>1.201726340843989</v>
       </c>
       <c r="D281" t="n">
-        <v>1.027810044208529</v>
+        <v>1.24291110195706</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1.020586894518403</v>
       </c>
     </row>
     <row r="282">
@@ -4389,10 +5234,13 @@
         <v>0.9501994551879432</v>
       </c>
       <c r="C282" t="n">
-        <v>1.061626137040306</v>
+        <v>1.1828331990567</v>
       </c>
       <c r="D282" t="n">
-        <v>1.015534992201406</v>
+        <v>1.228158567570288</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.9850699777341516</v>
       </c>
     </row>
     <row r="283">
@@ -4403,10 +5251,13 @@
         <v>0.9717810968770293</v>
       </c>
       <c r="C283" t="n">
-        <v>1.097195597317453</v>
+        <v>1.226229921164488</v>
       </c>
       <c r="D283" t="n">
-        <v>1.039640486718291</v>
+        <v>1.262374664063749</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.9996106998600613</v>
       </c>
     </row>
     <row r="284">
@@ -4417,10 +5268,13 @@
         <v>0.975500324694492</v>
       </c>
       <c r="C284" t="n">
-        <v>1.121597344189565</v>
+        <v>1.265748285930637</v>
       </c>
       <c r="D284" t="n">
-        <v>1.054149178129247</v>
+        <v>1.293948909354672</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1.000625180868819</v>
       </c>
     </row>
     <row r="285">
@@ -4431,10 +5285,13 @@
         <v>0.9467248024423772</v>
       </c>
       <c r="C285" t="n">
-        <v>1.111212427577241</v>
+        <v>1.252146548048947</v>
       </c>
       <c r="D285" t="n">
-        <v>1.047592166229855</v>
+        <v>1.283559582807371</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.9792580058242506</v>
       </c>
     </row>
     <row r="286">
@@ -4445,10 +5302,13 @@
         <v>0.9279937253843624</v>
       </c>
       <c r="C286" t="n">
-        <v>1.070808036973587</v>
+        <v>1.212092816737654</v>
       </c>
       <c r="D286" t="n">
-        <v>1.011229445936437</v>
+        <v>1.252811508428607</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.9615682436553578</v>
       </c>
     </row>
     <row r="287">
@@ -4459,10 +5319,13 @@
         <v>0.9305238123350172</v>
       </c>
       <c r="C287" t="n">
-        <v>1.048412900356056</v>
+        <v>1.19157210063856</v>
       </c>
       <c r="D287" t="n">
-        <v>0.989302735416115</v>
+        <v>1.236362948116829</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.9443462362030777</v>
       </c>
     </row>
     <row r="288">
@@ -4473,10 +5336,13 @@
         <v>0.940686328253481</v>
       </c>
       <c r="C288" t="n">
-        <v>1.044758607184325</v>
+        <v>1.183910976851268</v>
       </c>
       <c r="D288" t="n">
-        <v>0.9867134307851486</v>
+        <v>1.229553208393142</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.9527420391546499</v>
       </c>
     </row>
     <row r="289">
@@ -4487,10 +5353,13 @@
         <v>0.9376839584053706</v>
       </c>
       <c r="C289" t="n">
-        <v>1.07964345903465</v>
+        <v>1.19352929589356</v>
       </c>
       <c r="D289" t="n">
-        <v>1.014194909395238</v>
+        <v>1.176128477141148</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.955207348208166</v>
       </c>
     </row>
     <row r="290">
@@ -4501,10 +5370,13 @@
         <v>0.9503849948976579</v>
       </c>
       <c r="C290" t="n">
-        <v>1.080625281517631</v>
+        <v>1.181054413164749</v>
       </c>
       <c r="D290" t="n">
-        <v>1.01977573424034</v>
+        <v>1.164777552938437</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.9795290424754629</v>
       </c>
     </row>
     <row r="291">
@@ -4515,10 +5387,13 @@
         <v>0.9715702562978081</v>
       </c>
       <c r="C291" t="n">
-        <v>1.078574452579222</v>
+        <v>1.175551873721775</v>
       </c>
       <c r="D291" t="n">
-        <v>1.019932429395099</v>
+        <v>1.160562422617447</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.9757610255499543</v>
       </c>
     </row>
     <row r="292">
@@ -4529,10 +5404,13 @@
         <v>0.9328599259527885</v>
       </c>
       <c r="C292" t="n">
-        <v>1.057686543052911</v>
+        <v>1.15643857724138</v>
       </c>
       <c r="D292" t="n">
-        <v>1.001200118252907</v>
+        <v>1.146542847822674</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.9434913785916718</v>
       </c>
     </row>
     <row r="293">
@@ -4543,10 +5421,13 @@
         <v>0.9389237010111914</v>
       </c>
       <c r="C293" t="n">
-        <v>1.068513402369527</v>
+        <v>1.174146200947941</v>
       </c>
       <c r="D293" t="n">
-        <v>1.004204655689626</v>
+        <v>1.15953198467639</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.9455959516921437</v>
       </c>
     </row>
     <row r="294">
@@ -4557,10 +5438,13 @@
         <v>0.951110286490179</v>
       </c>
       <c r="C294" t="n">
-        <v>1.067289349851772</v>
+        <v>1.165586601836215</v>
       </c>
       <c r="D294" t="n">
-        <v>1.009544500416985</v>
+        <v>1.151730297498982</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.9650449317244845</v>
       </c>
     </row>
     <row r="295">
@@ -4571,10 +5455,13 @@
         <v>0.9697317264469989</v>
       </c>
       <c r="C295" t="n">
-        <v>1.068348995284857</v>
+        <v>1.162794565032639</v>
       </c>
       <c r="D295" t="n">
-        <v>1.01287359476773</v>
+        <v>1.149516782979613</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.9787972305922183</v>
       </c>
     </row>
     <row r="296">
@@ -4585,10 +5472,13 @@
         <v>0.9627824209558669</v>
       </c>
       <c r="C296" t="n">
-        <v>1.068370864992705</v>
+        <v>1.166517386640126</v>
       </c>
       <c r="D296" t="n">
-        <v>1.009926334918249</v>
+        <v>1.152552896131254</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.9803396966845251</v>
       </c>
     </row>
     <row r="297">
@@ -4599,10 +5489,13 @@
         <v>0.9686100545655419</v>
       </c>
       <c r="C297" t="n">
-        <v>1.081232067894874</v>
+        <v>1.181697996408288</v>
       </c>
       <c r="D297" t="n">
-        <v>1.018626595490008</v>
+        <v>1.164701560802649</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.9965835422978092</v>
       </c>
     </row>
     <row r="298">
@@ -4613,10 +5506,13 @@
         <v>0.9615932800890591</v>
       </c>
       <c r="C298" t="n">
-        <v>1.091111516851007</v>
+        <v>1.194880333166331</v>
       </c>
       <c r="D298" t="n">
-        <v>1.024445011022064</v>
+        <v>1.175065229455181</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.9969968828846364</v>
       </c>
     </row>
     <row r="299">
@@ -4627,10 +5523,13 @@
         <v>0.9829303467062485</v>
       </c>
       <c r="C299" t="n">
-        <v>1.096710702438329</v>
+        <v>1.190814652870429</v>
       </c>
       <c r="D299" t="n">
-        <v>1.036723139479741</v>
+        <v>1.173431548761481</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1.012868101571147</v>
       </c>
     </row>
     <row r="300">
@@ -4641,10 +5540,13 @@
         <v>0.9684751165948403</v>
       </c>
       <c r="C300" t="n">
-        <v>1.091039501899492</v>
+        <v>1.18781806029921</v>
       </c>
       <c r="D300" t="n">
-        <v>1.029649728344336</v>
+        <v>1.171421327012858</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1.003166618004149</v>
       </c>
     </row>
     <row r="301">
@@ -4655,10 +5557,13 @@
         <v>0.9801725519300346</v>
       </c>
       <c r="C301" t="n">
-        <v>1.102452346596055</v>
+        <v>1.192829954042719</v>
       </c>
       <c r="D301" t="n">
-        <v>1.046543168381109</v>
+        <v>1.175831144157593</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1.020098201348049</v>
       </c>
     </row>
     <row r="302">
@@ -4669,10 +5574,13 @@
         <v>0.9696895583311547</v>
       </c>
       <c r="C302" t="n">
-        <v>1.095081314802095</v>
+        <v>1.187782993825576</v>
       </c>
       <c r="D302" t="n">
-        <v>1.038473340413707</v>
+        <v>1.171976491782644</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1.01284238087797</v>
       </c>
     </row>
     <row r="303">
@@ -4683,10 +5591,13 @@
         <v>0.9552090273502399</v>
       </c>
       <c r="C303" t="n">
-        <v>1.096990447091127</v>
+        <v>1.192865973340824</v>
       </c>
       <c r="D303" t="n">
-        <v>1.038573573967255</v>
+        <v>1.176038823520143</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1.01049417206575</v>
       </c>
     </row>
     <row r="304">
@@ -4697,10 +5608,13 @@
         <v>0.9451055467939582</v>
       </c>
       <c r="C304" t="n">
-        <v>1.082887441662538</v>
+        <v>1.173322668540264</v>
       </c>
       <c r="D304" t="n">
-        <v>1.030376466866434</v>
+        <v>1.161307066016894</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.9878753427863989</v>
       </c>
     </row>
     <row r="305">
@@ -4711,10 +5625,13 @@
         <v>0.9593246354566385</v>
       </c>
       <c r="C305" t="n">
-        <v>1.092171764752138</v>
+        <v>1.180537073453378</v>
       </c>
       <c r="D305" t="n">
-        <v>1.039651983820132</v>
+        <v>1.1670443050323</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1.012240852706896</v>
       </c>
     </row>
     <row r="306">
@@ -4725,10 +5642,13 @@
         <v>0.9680197009437225</v>
       </c>
       <c r="C306" t="n">
-        <v>1.126260923010965</v>
+        <v>1.221797866324279</v>
       </c>
       <c r="D306" t="n">
-        <v>1.064494229184757</v>
+        <v>1.198572762620242</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1.020110609320636</v>
       </c>
     </row>
     <row r="307">
@@ -4739,10 +5659,13 @@
         <v>0.9734003525254484</v>
       </c>
       <c r="C307" t="n">
-        <v>1.153365394931606</v>
+        <v>1.251757994809444</v>
       </c>
       <c r="D307" t="n">
-        <v>1.087663647323804</v>
+        <v>1.221865813626553</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1.018357207694339</v>
       </c>
     </row>
     <row r="308">
@@ -4753,10 +5676,13 @@
         <v>0.9854688672800722</v>
       </c>
       <c r="C308" t="n">
-        <v>1.145329444906755</v>
+        <v>1.23944374102299</v>
       </c>
       <c r="D308" t="n">
-        <v>1.081753447647875</v>
+        <v>1.211578784185122</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1.036180614067978</v>
       </c>
     </row>
     <row r="309">
@@ -4767,10 +5693,13 @@
         <v>0.9836472046756007</v>
       </c>
       <c r="C309" t="n">
-        <v>1.151533089374469</v>
+        <v>1.247247989178232</v>
       </c>
       <c r="D309" t="n">
-        <v>1.088005066133835</v>
+        <v>1.218456397226671</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1.045799119318296</v>
       </c>
     </row>
     <row r="310">
@@ -4781,10 +5710,13 @@
         <v>0.9720003710794194</v>
       </c>
       <c r="C310" t="n">
-        <v>1.147026235546365</v>
+        <v>1.240446564423112</v>
       </c>
       <c r="D310" t="n">
-        <v>1.085151881688069</v>
+        <v>1.212816741542492</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1.034153073797322</v>
       </c>
     </row>
     <row r="311">
@@ -4795,10 +5727,13 @@
         <v>0.9911025275568637</v>
       </c>
       <c r="C311" t="n">
-        <v>1.152233045646672</v>
+        <v>1.243954223066438</v>
       </c>
       <c r="D311" t="n">
-        <v>1.090345504577665</v>
+        <v>1.215369622651172</v>
+      </c>
+      <c r="E311" t="n">
+        <v>1.043120677485643</v>
       </c>
     </row>
     <row r="312">
@@ -4809,10 +5744,13 @@
         <v>0.9909422887166556</v>
       </c>
       <c r="C312" t="n">
-        <v>1.161469622766256</v>
+        <v>1.253583862727318</v>
       </c>
       <c r="D312" t="n">
-        <v>1.100997914225337</v>
+        <v>1.223557612905992</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1.046389402764212</v>
       </c>
     </row>
     <row r="313">
@@ -4823,10 +5761,13 @@
         <v>0.9919964916127617</v>
       </c>
       <c r="C313" t="n">
-        <v>1.155712643714295</v>
+        <v>1.249144942867845</v>
       </c>
       <c r="D313" t="n">
-        <v>1.094615599086728</v>
+        <v>1.219800711098873</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1.040809692591186</v>
       </c>
     </row>
     <row r="314">
@@ -4837,10 +5778,13 @@
         <v>0.9978072579760991</v>
       </c>
       <c r="C314" t="n">
-        <v>1.160703889829124</v>
+        <v>1.259095897738259</v>
       </c>
       <c r="D314" t="n">
-        <v>1.095548866216291</v>
+        <v>1.227569283219632</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1.041033423846908</v>
       </c>
     </row>
     <row r="315">
@@ -4851,10 +5795,13 @@
         <v>0.9923844382785288</v>
       </c>
       <c r="C315" t="n">
-        <v>1.157367999370263</v>
+        <v>1.246102835430553</v>
       </c>
       <c r="D315" t="n">
-        <v>1.100326321935749</v>
+        <v>1.217786269995052</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1.034270044788904</v>
       </c>
     </row>
     <row r="316">
@@ -4865,10 +5812,13 @@
         <v>1.002015635937355</v>
       </c>
       <c r="C316" t="n">
-        <v>1.152428147521579</v>
+        <v>1.243003970714356</v>
       </c>
       <c r="D316" t="n">
-        <v>1.093134295725116</v>
+        <v>1.214572521967433</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1.039179078193622</v>
       </c>
     </row>
     <row r="317">
@@ -4879,10 +5829,13 @@
         <v>1.006105943174247</v>
       </c>
       <c r="C317" t="n">
-        <v>1.148452083677269</v>
+        <v>1.244200583881526</v>
       </c>
       <c r="D317" t="n">
-        <v>1.085191333650624</v>
+        <v>1.214793521051626</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1.032418284129906</v>
       </c>
     </row>
     <row r="318">
@@ -4893,10 +5846,13 @@
         <v>1.014522699096759</v>
       </c>
       <c r="C318" t="n">
-        <v>1.14669301373581</v>
+        <v>1.238123811663201</v>
       </c>
       <c r="D318" t="n">
-        <v>1.080306364847666</v>
+        <v>1.195793485567421</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1.025723536670277</v>
       </c>
     </row>
     <row r="319">
@@ -4907,10 +5863,13 @@
         <v>1.017946750103312</v>
       </c>
       <c r="C319" t="n">
-        <v>1.154167687338802</v>
+        <v>1.236788759790184</v>
       </c>
       <c r="D319" t="n">
-        <v>1.088273225803273</v>
+        <v>1.180919275837141</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1.030828641891823</v>
       </c>
     </row>
     <row r="320">
@@ -4921,10 +5880,13 @@
         <v>1.021429836472047</v>
       </c>
       <c r="C320" t="n">
-        <v>1.170659353067073</v>
+        <v>1.254900185694929</v>
       </c>
       <c r="D320" t="n">
-        <v>1.10137555911754</v>
+        <v>1.194463737406879</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1.048012520678339</v>
       </c>
     </row>
     <row r="321">
@@ -4935,10 +5897,13 @@
         <v>1.019911784301654</v>
       </c>
       <c r="C321" t="n">
-        <v>1.168306618550388</v>
+        <v>1.254547684112157</v>
       </c>
       <c r="D321" t="n">
-        <v>1.096893016797527</v>
+        <v>1.193332143854708</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1.045830526998908</v>
       </c>
     </row>
     <row r="322">
@@ -4949,10 +5914,13 @@
         <v>1.012557664898417</v>
       </c>
       <c r="C322" t="n">
-        <v>1.170174900963806</v>
+        <v>1.257891945341281</v>
       </c>
       <c r="D322" t="n">
-        <v>1.09893667819192</v>
+        <v>1.197817291479185</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1.049419662319611</v>
       </c>
     </row>
     <row r="323">
@@ -4963,10 +5931,13 @@
         <v>1.006730031288742</v>
       </c>
       <c r="C323" t="n">
-        <v>1.172389571652174</v>
+        <v>1.252159279224997</v>
       </c>
       <c r="D323" t="n">
-        <v>1.107663838911224</v>
+        <v>1.194157158691378</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1.044043908195996</v>
       </c>
     </row>
     <row r="324">
@@ -4977,10 +5948,13 @@
         <v>1.016504600541439</v>
       </c>
       <c r="C324" t="n">
-        <v>1.17992133450154</v>
+        <v>1.257226659814782</v>
       </c>
       <c r="D324" t="n">
-        <v>1.117172570170923</v>
+        <v>1.19874915725013</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1.051356727790149</v>
       </c>
     </row>
     <row r="325">
@@ -4991,10 +5965,13 @@
         <v>1.017052786047414</v>
       </c>
       <c r="C325" t="n">
-        <v>1.149082328597386</v>
+        <v>1.215104262262765</v>
       </c>
       <c r="D325" t="n">
-        <v>1.093443355217351</v>
+        <v>1.164524927358008</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1.045665345863835</v>
       </c>
     </row>
     <row r="326">
@@ -5005,10 +5982,13 @@
         <v>1.006873402882612</v>
       </c>
       <c r="C326" t="n">
-        <v>1.151023127035478</v>
+        <v>1.222192094557864</v>
       </c>
       <c r="D326" t="n">
-        <v>1.092027794226915</v>
+        <v>1.170427470366634</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1.03264964111878</v>
       </c>
     </row>
     <row r="327">
@@ -5019,10 +5999,13 @@
         <v>1.020915385458747</v>
       </c>
       <c r="C327" t="n">
-        <v>1.164493305813958</v>
+        <v>1.2342747924343</v>
       </c>
       <c r="D327" t="n">
-        <v>1.104607413365959</v>
+        <v>1.180125231142746</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1.042456721702488</v>
       </c>
     </row>
     <row r="328">
@@ -5033,10 +6016,13 @@
         <v>1.012591399391092</v>
       </c>
       <c r="C328" t="n">
-        <v>1.188476150397897</v>
+        <v>1.253510463824157</v>
       </c>
       <c r="D328" t="n">
-        <v>1.129554187776577</v>
+        <v>1.195831397022872</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1.049185461837018</v>
       </c>
     </row>
     <row r="329">
@@ -5047,10 +6033,13 @@
         <v>1.002707193037201</v>
       </c>
       <c r="C329" t="n">
-        <v>1.192480293959272</v>
+        <v>1.260929730635383</v>
       </c>
       <c r="D329" t="n">
-        <v>1.132134688628804</v>
+        <v>1.204229969973717</v>
+      </c>
+      <c r="E329" t="n">
+        <v>1.035575854654043</v>
       </c>
     </row>
     <row r="330">
@@ -5061,10 +6050,13 @@
         <v>1.005363784335388</v>
       </c>
       <c r="C330" t="n">
-        <v>1.192494946156629</v>
+        <v>1.252904681156656</v>
       </c>
       <c r="D330" t="n">
-        <v>1.134416352063977</v>
+        <v>1.189682580110939</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1.038224439802656</v>
       </c>
     </row>
     <row r="331">
@@ -5075,10 +6067,13 @@
         <v>0.9927386504516206</v>
       </c>
       <c r="C331" t="n">
-        <v>1.169018100866209</v>
+        <v>1.227450837006386</v>
       </c>
       <c r="D331" t="n">
-        <v>1.118446673565954</v>
+        <v>1.172032262649251</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1.021751563695358</v>
       </c>
     </row>
     <row r="332">
@@ -5089,10 +6084,13 @@
         <v>1.00835772056033</v>
       </c>
       <c r="C332" t="n">
-        <v>1.175150029225908</v>
+        <v>1.232885830214481</v>
       </c>
       <c r="D332" t="n">
-        <v>1.126218539153578</v>
+        <v>1.179455111201493</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1.023729342825949</v>
       </c>
     </row>
     <row r="333">
@@ -5103,10 +6101,13 @@
         <v>1.011368524031609</v>
       </c>
       <c r="C333" t="n">
-        <v>1.164886322166504</v>
+        <v>1.224571627615683</v>
       </c>
       <c r="D333" t="n">
-        <v>1.115106827575335</v>
+        <v>1.172924823620944</v>
+      </c>
+      <c r="E333" t="n">
+        <v>1.023584195396616</v>
       </c>
     </row>
     <row r="334">
@@ -5117,10 +6118,13 @@
         <v>1.029222504280064</v>
       </c>
       <c r="C334" t="n">
-        <v>1.177803241823774</v>
+        <v>1.232007310328142</v>
       </c>
       <c r="D334" t="n">
-        <v>1.130029144979882</v>
+        <v>1.176208742536669</v>
+      </c>
+      <c r="E334" t="n">
+        <v>1.037362344207241</v>
       </c>
     </row>
     <row r="335">
@@ -5131,10 +6135,13 @@
         <v>1.028134566891282</v>
       </c>
       <c r="C335" t="n">
-        <v>1.160956664010845</v>
+        <v>1.217791111123129</v>
       </c>
       <c r="D335" t="n">
-        <v>1.11259799800705</v>
+        <v>1.165793590857996</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1.023010585163865</v>
       </c>
     </row>
     <row r="336">
@@ -5145,10 +6152,13 @@
         <v>1.037032039334419</v>
       </c>
       <c r="C336" t="n">
-        <v>1.164049736644718</v>
+        <v>1.223211957597846</v>
       </c>
       <c r="D336" t="n">
-        <v>1.11357379797333</v>
+        <v>1.169669681772515</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1.034591359579039</v>
       </c>
     </row>
     <row r="337">
@@ -5159,10 +6169,13 @@
         <v>1.009589029542982</v>
       </c>
       <c r="C337" t="n">
-        <v>1.147425473064689</v>
+        <v>1.20524381486513</v>
       </c>
       <c r="D337" t="n">
-        <v>1.10056969102437</v>
+        <v>1.156320234209362</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1.007578557007073</v>
       </c>
     </row>
     <row r="338">
@@ -5173,10 +6186,13 @@
         <v>1.017988918219156</v>
       </c>
       <c r="C338" t="n">
-        <v>1.149677434803308</v>
+        <v>1.203724616055798</v>
       </c>
       <c r="D338" t="n">
-        <v>1.105734716794886</v>
+        <v>1.15550152774945</v>
+      </c>
+      <c r="E338" t="n">
+        <v>1.02929237978581</v>
       </c>
     </row>
     <row r="339">
@@ -5187,10 +6203,13 @@
         <v>1.027898425442554</v>
       </c>
       <c r="C339" t="n">
-        <v>1.169362968114256</v>
+        <v>1.231167668086075</v>
       </c>
       <c r="D339" t="n">
-        <v>1.125744543784879</v>
+        <v>1.196467623605556</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1.045359153290291</v>
       </c>
     </row>
     <row r="340">
@@ -5201,10 +6220,13 @@
         <v>1.036812765132028</v>
       </c>
       <c r="C340" t="n">
-        <v>1.183100012910462</v>
+        <v>1.242011641681054</v>
       </c>
       <c r="D340" t="n">
-        <v>1.135371564046081</v>
+        <v>1.19294804843301</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1.048889221491487</v>
       </c>
     </row>
     <row r="341">
@@ -5215,10 +6237,13 @@
         <v>1.03716697730512</v>
       </c>
       <c r="C341" t="n">
-        <v>1.186961627070713</v>
+        <v>1.244292147477976</v>
       </c>
       <c r="D341" t="n">
-        <v>1.136770785552554</v>
+        <v>1.191627136197414</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1.051100037857241</v>
       </c>
     </row>
     <row r="342">
@@ -5229,10 +6254,13 @@
         <v>1.034265810935036</v>
       </c>
       <c r="C342" t="n">
-        <v>1.182009141065694</v>
+        <v>1.239539014501693</v>
       </c>
       <c r="D342" t="n">
-        <v>1.127853191317632</v>
+        <v>1.17828490852783</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1.06228117215532</v>
       </c>
     </row>
     <row r="343">
@@ -5243,10 +6271,13 @@
         <v>1.034813996441011</v>
       </c>
       <c r="C343" t="n">
-        <v>1.189025807343159</v>
+        <v>1.250670654527967</v>
       </c>
       <c r="D343" t="n">
-        <v>1.131635298625046</v>
+        <v>1.189160210505329</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1.066323715474332</v>
       </c>
     </row>
     <row r="344">
@@ -5257,10 +6288,13 @@
         <v>1.033894731515606</v>
       </c>
       <c r="C344" t="n">
-        <v>1.196595599697154</v>
+        <v>1.261992703588505</v>
       </c>
       <c r="D344" t="n">
-        <v>1.135646287347304</v>
+        <v>1.196285462074359</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1.067805951199702</v>
       </c>
     </row>
     <row r="345">
@@ -5271,10 +6305,13 @@
         <v>1.04603914887875</v>
       </c>
       <c r="C345" t="n">
-        <v>1.216317049296161</v>
+        <v>1.272648990710309</v>
       </c>
       <c r="D345" t="n">
-        <v>1.159889987187798</v>
+        <v>1.203961157348165</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1.083762603947467</v>
       </c>
     </row>
     <row r="346">
@@ -5285,10 +6322,13 @@
         <v>1.037234446290471</v>
       </c>
       <c r="C346" t="n">
-        <v>1.221761466737811</v>
+        <v>1.27714886555724</v>
       </c>
       <c r="D346" t="n">
-        <v>1.16583479242695</v>
+        <v>1.207065471000508</v>
+      </c>
+      <c r="E346" t="n">
+        <v>1.086544445551684</v>
       </c>
     </row>
     <row r="347">
@@ -5299,10 +6339,13 @@
         <v>1.045676503082489</v>
       </c>
       <c r="C347" t="n">
-        <v>1.220826657348748</v>
+        <v>1.278575752724109</v>
       </c>
       <c r="D347" t="n">
-        <v>1.164479480726384</v>
+        <v>1.20946895856898</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1.083709611564541</v>
       </c>
     </row>
     <row r="348">
@@ -5313,10 +6356,13 @@
         <v>1.048864412640314</v>
       </c>
       <c r="C348" t="n">
-        <v>1.197996935679615</v>
+        <v>1.252056712427241</v>
       </c>
       <c r="D348" t="n">
-        <v>1.145063309570899</v>
+        <v>1.187478660377457</v>
+      </c>
+      <c r="E348" t="n">
+        <v>1.08310614464775</v>
       </c>
     </row>
     <row r="349">
@@ -5327,10 +6373,13 @@
         <v>1.058934158703921</v>
       </c>
       <c r="C349" t="n">
-        <v>1.202997342679524</v>
+        <v>1.263660324625202</v>
       </c>
       <c r="D349" t="n">
-        <v>1.147080851328691</v>
+        <v>1.198820476923357</v>
+      </c>
+      <c r="E349" t="n">
+        <v>1.08033929601041</v>
       </c>
     </row>
     <row r="350">
@@ -5341,10 +6390,13 @@
         <v>1.064458181879517</v>
       </c>
       <c r="C350" t="n">
-        <v>1.210147550576819</v>
+        <v>1.271913424910153</v>
       </c>
       <c r="D350" t="n">
-        <v>1.151070199324033</v>
+        <v>1.20326586664122</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1.080773058052122</v>
       </c>
     </row>
     <row r="351">
@@ -5355,10 +6407,13 @@
         <v>1.081755542998828</v>
       </c>
       <c r="C351" t="n">
-        <v>1.23309821922432</v>
+        <v>1.290777944144839</v>
       </c>
       <c r="D351" t="n">
-        <v>1.172322008325303</v>
+        <v>1.213280949703841</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1.089951597274434</v>
       </c>
     </row>
     <row r="352">
@@ -5369,10 +6424,13 @@
         <v>1.093005996306073</v>
       </c>
       <c r="C352" t="n">
-        <v>1.226619011556503</v>
+        <v>1.281880784204113</v>
       </c>
       <c r="D352" t="n">
-        <v>1.170668358127303</v>
+        <v>1.208530130055598</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1.091493029369025</v>
       </c>
     </row>
     <row r="353">
@@ -5383,10 +6441,13 @@
         <v>1.097433648469719</v>
       </c>
       <c r="C353" t="n">
-        <v>1.243307338807396</v>
+        <v>1.29638854148213</v>
       </c>
       <c r="D353" t="n">
-        <v>1.187453651925585</v>
+        <v>1.218119118112479</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1.095263760538537</v>
       </c>
     </row>
     <row r="354">
@@ -5397,10 +6458,13 @@
         <v>1.102915503529471</v>
       </c>
       <c r="C354" t="n">
-        <v>1.245950968878617</v>
+        <v>1.303317332875658</v>
       </c>
       <c r="D354" t="n">
-        <v>1.186417253179644</v>
+        <v>1.224229173247051</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1.102404678012465</v>
       </c>
     </row>
     <row r="355">
@@ -5411,10 +6475,13 @@
         <v>1.094574650215479</v>
       </c>
       <c r="C355" t="n">
-        <v>1.229935244729</v>
+        <v>1.285112960112135</v>
       </c>
       <c r="D355" t="n">
-        <v>1.174273245846994</v>
+        <v>1.211760930030984</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1.092559598012708</v>
       </c>
     </row>
     <row r="356">
@@ -5425,10 +6492,13 @@
         <v>1.095586684995741</v>
       </c>
       <c r="C356" t="n">
-        <v>1.237504739885235</v>
+        <v>1.298540205493181</v>
       </c>
       <c r="D356" t="n">
-        <v>1.177606538853526</v>
+        <v>1.225624921542947</v>
+      </c>
+      <c r="E356" t="n">
+        <v>1.08256303734761</v>
       </c>
     </row>
     <row r="357">
@@ -5439,10 +6509,13 @@
         <v>1.097011967311277</v>
       </c>
       <c r="C357" t="n">
-        <v>1.236037316628489</v>
+        <v>1.297951632683681</v>
       </c>
       <c r="D357" t="n">
-        <v>1.17569238751298</v>
+        <v>1.225501673026584</v>
+      </c>
+      <c r="E357" t="n">
+        <v>1.092207521790532</v>
       </c>
     </row>
     <row r="358">
@@ -5453,10 +6526,13 @@
         <v>1.091656616599057</v>
       </c>
       <c r="C358" t="n">
-        <v>1.224892316421877</v>
+        <v>1.288291747996346</v>
       </c>
       <c r="D358" t="n">
-        <v>1.1651383430891</v>
+        <v>1.219135860546606</v>
+      </c>
+      <c r="E358" t="n">
+        <v>1.081133794005166</v>
       </c>
     </row>
     <row r="359">
@@ -5467,10 +6543,13 @@
         <v>1.098125205569565</v>
       </c>
       <c r="C359" t="n">
-        <v>1.240525324771801</v>
+        <v>1.30630700511361</v>
       </c>
       <c r="D359" t="n">
-        <v>1.176143435689932</v>
+        <v>1.231150589023444</v>
+      </c>
+      <c r="E359" t="n">
+        <v>1.096898510926965</v>
       </c>
     </row>
     <row r="360">
@@ -5481,10 +6560,13 @@
         <v>1.097138471658809</v>
       </c>
       <c r="C360" t="n">
-        <v>1.240595567136038</v>
+        <v>1.304236375899123</v>
       </c>
       <c r="D360" t="n">
-        <v>1.177224007446553</v>
+        <v>1.228695952902037</v>
+      </c>
+      <c r="E360" t="n">
+        <v>1.094354359547631</v>
       </c>
     </row>
     <row r="361">
@@ -5495,10 +6577,13 @@
         <v>1.090121697182326</v>
       </c>
       <c r="C361" t="n">
-        <v>1.23549096274679</v>
+        <v>1.301772710487049</v>
       </c>
       <c r="D361" t="n">
-        <v>1.172272857485319</v>
+        <v>1.226499657567038</v>
+      </c>
+      <c r="E361" t="n">
+        <v>1.084149448342831</v>
       </c>
     </row>
     <row r="362">
@@ -5509,10 +6594,13 @@
         <v>1.079984482133369</v>
       </c>
       <c r="C362" t="n">
-        <v>1.222268076861043</v>
+        <v>1.294486913671728</v>
       </c>
       <c r="D362" t="n">
-        <v>1.155554691448514</v>
+        <v>1.218245277252684</v>
+      </c>
+      <c r="E362" t="n">
+        <v>1.08000738274369</v>
       </c>
     </row>
     <row r="363">
@@ -5523,10 +6611,13 @@
         <v>1.082919382996129</v>
       </c>
       <c r="C363" t="n">
-        <v>1.220426084233277</v>
+        <v>1.288410912454793</v>
       </c>
       <c r="D363" t="n">
-        <v>1.157694069888553</v>
+        <v>1.21560615485665</v>
+      </c>
+      <c r="E363" t="n">
+        <v>1.085791307465554</v>
       </c>
     </row>
     <row r="364">
@@ -5537,10 +6628,13 @@
         <v>1.09017229892134</v>
       </c>
       <c r="C364" t="n">
-        <v>1.223672942623938</v>
+        <v>1.287506016164706</v>
       </c>
       <c r="D364" t="n">
-        <v>1.163189185789545</v>
+        <v>1.214686132839387</v>
+      </c>
+      <c r="E364" t="n">
+        <v>1.085426823270791</v>
       </c>
     </row>
     <row r="365">
@@ -5551,10 +6645,13 @@
         <v>1.085972354583252</v>
       </c>
       <c r="C365" t="n">
-        <v>1.211679436081195</v>
+        <v>1.27855836110665</v>
       </c>
       <c r="D365" t="n">
-        <v>1.152068665346397</v>
+        <v>1.208536940142167</v>
+      </c>
+      <c r="E365" t="n">
+        <v>1.076472273803629</v>
       </c>
     </row>
     <row r="366">
@@ -5565,10 +6662,13 @@
         <v>1.083113356329013</v>
       </c>
       <c r="C366" t="n">
-        <v>1.201278234603107</v>
+        <v>1.265186114681955</v>
       </c>
       <c r="D366" t="n">
-        <v>1.143730757240934</v>
+        <v>1.197084053306793</v>
+      </c>
+      <c r="E366" t="n">
+        <v>1.070320762893855</v>
       </c>
     </row>
     <row r="367">
@@ -5579,10 +6679,13 @@
         <v>1.092272271090383</v>
       </c>
       <c r="C367" t="n">
-        <v>1.195229575904847</v>
+        <v>1.257817342988059</v>
       </c>
       <c r="D367" t="n">
-        <v>1.138454376856329</v>
+        <v>1.190083853404927</v>
+      </c>
+      <c r="E367" t="n">
+        <v>1.072782452955366</v>
       </c>
     </row>
     <row r="368">
@@ -5593,10 +6696,13 @@
         <v>1.073229149975121</v>
       </c>
       <c r="C368" t="n">
-        <v>1.189214330830539</v>
+        <v>1.260812789497662</v>
       </c>
       <c r="D368" t="n">
-        <v>1.130004642044527</v>
+        <v>1.199035126318711</v>
+      </c>
+      <c r="E368" t="n">
+        <v>1.057903613576442</v>
       </c>
     </row>
     <row r="369">
@@ -5607,10 +6713,13 @@
         <v>1.074688166783332</v>
       </c>
       <c r="C369" t="n">
-        <v>1.181220321546708</v>
+        <v>1.252491178675671</v>
       </c>
       <c r="D369" t="n">
-        <v>1.125349021795501</v>
+        <v>1.199644956028504</v>
+      </c>
+      <c r="E369" t="n">
+        <v>1.055272347889565</v>
       </c>
     </row>
     <row r="370">
@@ -5621,10 +6730,13 @@
         <v>1.073827937220109</v>
       </c>
       <c r="C370" t="n">
-        <v>1.175102122812024</v>
+        <v>1.253852107584823</v>
       </c>
       <c r="D370" t="n">
-        <v>1.12240361060106</v>
+        <v>1.217032087702533</v>
+      </c>
+      <c r="E370" t="n">
+        <v>1.046925401330057</v>
       </c>
     </row>
     <row r="371">
@@ -5635,10 +6747,13 @@
         <v>1.069400285056463</v>
       </c>
       <c r="C371" t="n">
-        <v>1.176727072899816</v>
+        <v>1.246980584379127</v>
       </c>
       <c r="D371" t="n">
-        <v>1.124237257514629</v>
+        <v>1.194167206584628</v>
+      </c>
+      <c r="E371" t="n">
+        <v>1.039842129228776</v>
       </c>
     </row>
     <row r="372">
@@ -5649,10 +6764,13 @@
         <v>1.05981968913665</v>
       </c>
       <c r="C372" t="n">
-        <v>1.158475880356017</v>
+        <v>1.227201367155918</v>
       </c>
       <c r="D372" t="n">
-        <v>1.109679798940396</v>
+        <v>1.18057093480591</v>
+      </c>
+      <c r="E372" t="n">
+        <v>1.030828383392394</v>
       </c>
     </row>
     <row r="373">
@@ -5663,10 +6781,13 @@
         <v>1.07631585605492</v>
       </c>
       <c r="C373" t="n">
-        <v>1.193186621040854</v>
+        <v>1.264157515661333</v>
       </c>
       <c r="D373" t="n">
-        <v>1.137899011326257</v>
+        <v>1.206512041338096</v>
+      </c>
+      <c r="E373" t="n">
+        <v>1.040271238280767</v>
       </c>
     </row>
     <row r="374">
@@ -5677,10 +6798,13 @@
         <v>1.070395452590387</v>
       </c>
       <c r="C374" t="n">
-        <v>1.205958164838621</v>
+        <v>1.275137364205149</v>
       </c>
       <c r="D374" t="n">
-        <v>1.148949544735425</v>
+        <v>1.210327597462477</v>
+      </c>
+      <c r="E374" t="n">
+        <v>1.040521853477095</v>
       </c>
     </row>
     <row r="375">
@@ -5691,10 +6815,13 @@
         <v>1.055004090307237</v>
       </c>
       <c r="C375" t="n">
-        <v>1.202472028442575</v>
+        <v>1.27759329237181</v>
       </c>
       <c r="D375" t="n">
-        <v>1.14294181814914</v>
+        <v>1.211515555052034</v>
+      </c>
+      <c r="E375" t="n">
+        <v>1.032457188293957</v>
       </c>
     </row>
     <row r="376">
@@ -5705,10 +6832,13 @@
         <v>1.071230381284104</v>
       </c>
       <c r="C376" t="n">
-        <v>1.195601058896468</v>
+        <v>1.266283472981641</v>
       </c>
       <c r="D376" t="n">
-        <v>1.137908185936981</v>
+        <v>1.198517199197719</v>
+      </c>
+      <c r="E376" t="n">
+        <v>1.040786944641443</v>
       </c>
     </row>
     <row r="377">
@@ -5719,10 +6849,13 @@
         <v>1.057812486822464</v>
       </c>
       <c r="C377" t="n">
-        <v>1.190084277257254</v>
+        <v>1.260581051891813</v>
       </c>
       <c r="D377" t="n">
-        <v>1.130764086844676</v>
+        <v>1.193034888635069</v>
+      </c>
+      <c r="E377" t="n">
+        <v>1.031674452023217</v>
       </c>
     </row>
     <row r="378">
@@ -5733,10 +6866,13 @@
         <v>1.076079714606192</v>
       </c>
       <c r="C378" t="n">
-        <v>1.185717090129267</v>
+        <v>1.260783667577446</v>
       </c>
       <c r="D378" t="n">
-        <v>1.125971872667911</v>
+        <v>1.199136943585871</v>
+      </c>
+      <c r="E378" t="n">
+        <v>1.04429064590089</v>
       </c>
     </row>
     <row r="379">
@@ -5747,10 +6883,13 @@
         <v>1.080920614305112</v>
       </c>
       <c r="C379" t="n">
-        <v>1.185005110144475</v>
+        <v>1.258468118262268</v>
       </c>
       <c r="D379" t="n">
-        <v>1.126880786072737</v>
+        <v>1.195792329933773</v>
+      </c>
+      <c r="E379" t="n">
+        <v>1.043300722337879</v>
       </c>
     </row>
     <row r="380">
@@ -5761,10 +6900,13 @@
         <v>1.082936250242467</v>
       </c>
       <c r="C380" t="n">
-        <v>1.202261388773041</v>
+        <v>1.273149380783391</v>
       </c>
       <c r="D380" t="n">
-        <v>1.146286860691437</v>
+        <v>1.208974844879876</v>
+      </c>
+      <c r="E380" t="n">
+        <v>1.051476930024592</v>
       </c>
     </row>
     <row r="381">
@@ -5775,10 +6917,13 @@
         <v>1.075017078086917</v>
       </c>
       <c r="C381" t="n">
-        <v>1.190366755832866</v>
+        <v>1.260994973396589</v>
       </c>
       <c r="D381" t="n">
-        <v>1.133345997365336</v>
+        <v>1.196505661427371</v>
+      </c>
+      <c r="E381" t="n">
+        <v>1.04923599847537</v>
       </c>
     </row>
     <row r="382">
@@ -5789,10 +6934,13 @@
         <v>1.062299174348292</v>
       </c>
       <c r="C382" t="n">
-        <v>1.193018037589557</v>
+        <v>1.26636388403958</v>
       </c>
       <c r="D382" t="n">
-        <v>1.133215755556308</v>
+        <v>1.200449458423149</v>
+      </c>
+      <c r="E382" t="n">
+        <v>1.048978145295032</v>
       </c>
     </row>
     <row r="383">
@@ -5803,10 +6951,13 @@
         <v>1.049100554089042</v>
       </c>
       <c r="C383" t="n">
-        <v>1.180279264904471</v>
+        <v>1.253893470780348</v>
       </c>
       <c r="D383" t="n">
-        <v>1.119939125014981</v>
+        <v>1.18743778284719</v>
+      </c>
+      <c r="E383" t="n">
+        <v>1.041174564535093</v>
       </c>
     </row>
     <row r="384">
@@ -5817,10 +6968,13 @@
         <v>1.057584778996905</v>
       </c>
       <c r="C384" t="n">
-        <v>1.184653036400115</v>
+        <v>1.260116771118408</v>
       </c>
       <c r="D384" t="n">
-        <v>1.124092419798706</v>
+        <v>1.193513574139992</v>
+      </c>
+      <c r="E384" t="n">
+        <v>1.042760070782314</v>
       </c>
     </row>
     <row r="385">
@@ -5831,10 +6985,13 @@
         <v>1.062037732030057</v>
       </c>
       <c r="C385" t="n">
-        <v>1.187843520451187</v>
+        <v>1.265602758811446</v>
       </c>
       <c r="D385" t="n">
-        <v>1.124457126869161</v>
+        <v>1.197495527149899</v>
+      </c>
+      <c r="E385" t="n">
+        <v>1.044831685205599</v>
       </c>
     </row>
     <row r="386">
@@ -5845,10 +7002,13 @@
         <v>1.063876261880867</v>
       </c>
       <c r="C386" t="n">
-        <v>1.19142881484526</v>
+        <v>1.271595297259882</v>
       </c>
       <c r="D386" t="n">
-        <v>1.126350775724841</v>
+        <v>1.203617753220994</v>
+      </c>
+      <c r="E386" t="n">
+        <v>1.051898671842859</v>
       </c>
     </row>
     <row r="387">
@@ -5859,10 +7019,13 @@
         <v>1.054649878134145</v>
       </c>
       <c r="C387" t="n">
-        <v>1.183427645230853</v>
+        <v>1.270756801143056</v>
       </c>
       <c r="D387" t="n">
-        <v>1.116374172396804</v>
+        <v>1.206431064137641</v>
+      </c>
+      <c r="E387" t="n">
+        <v>1.038351104522822</v>
       </c>
     </row>
     <row r="388">
@@ -5873,10 +7036,13 @@
         <v>1.062670253767721</v>
       </c>
       <c r="C388" t="n">
-        <v>1.175310074805425</v>
+        <v>1.262429733657572</v>
       </c>
       <c r="D388" t="n">
-        <v>1.110415099198851</v>
+        <v>1.205265318087488</v>
+      </c>
+      <c r="E388" t="n">
+        <v>1.031616160401998</v>
       </c>
     </row>
     <row r="389">
@@ -5887,10 +7053,13 @@
         <v>1.050930650316683</v>
       </c>
       <c r="C389" t="n">
-        <v>1.176680440620796</v>
+        <v>1.255969091723781</v>
       </c>
       <c r="D389" t="n">
-        <v>1.111793298158151</v>
+        <v>1.188676227333636</v>
+      </c>
+      <c r="E389" t="n">
+        <v>1.033512899961626</v>
       </c>
     </row>
     <row r="390">
@@ -5901,10 +7070,13 @@
         <v>1.065048535501337</v>
       </c>
       <c r="C390" t="n">
-        <v>1.18068036777232</v>
+        <v>1.267156683530877</v>
       </c>
       <c r="D390" t="n">
-        <v>1.113846739904686</v>
+        <v>1.20272547812006</v>
+      </c>
+      <c r="E390" t="n">
+        <v>1.038225215300943</v>
       </c>
     </row>
     <row r="391">
@@ -5915,10 +7087,13 @@
         <v>1.05989559174517</v>
       </c>
       <c r="C391" t="n">
-        <v>1.157553288963177</v>
+        <v>1.237308345714034</v>
       </c>
       <c r="D391" t="n">
-        <v>1.092528677979708</v>
+        <v>1.175211802727915</v>
+      </c>
+      <c r="E391" t="n">
+        <v>1.033350820819699</v>
       </c>
     </row>
     <row r="392">
@@ -5929,10 +7104,13 @@
         <v>1.027223735589046</v>
       </c>
       <c r="C392" t="n">
-        <v>1.144278869644093</v>
+        <v>1.22336005080299</v>
       </c>
       <c r="D392" t="n">
-        <v>1.081646201985864</v>
+        <v>1.163237535125817</v>
+      </c>
+      <c r="E392" t="n">
+        <v>1.010058600528037</v>
       </c>
     </row>
     <row r="393">
@@ -5943,10 +7121,13 @@
         <v>1.033253776154774</v>
       </c>
       <c r="C393" t="n">
-        <v>1.181603545151369</v>
+        <v>1.260842206134282</v>
       </c>
       <c r="D393" t="n">
-        <v>1.116967473455849</v>
+        <v>1.193903762099397</v>
+      </c>
+      <c r="E393" t="n">
+        <v>1.021219184121517</v>
       </c>
     </row>
     <row r="394">
@@ -5957,10 +7138,13 @@
         <v>1.042201850336923</v>
       </c>
       <c r="C394" t="n">
-        <v>1.173320707140508</v>
+        <v>1.255936918093004</v>
       </c>
       <c r="D394" t="n">
-        <v>1.107958155872132</v>
+        <v>1.194193407501287</v>
+      </c>
+      <c r="E394" t="n">
+        <v>1.022502116787198</v>
       </c>
     </row>
     <row r="395">
@@ -5971,10 +7155,13 @@
         <v>1.027223735589046</v>
       </c>
       <c r="C395" t="n">
-        <v>1.162383447024179</v>
+        <v>1.232794165329647</v>
       </c>
       <c r="D395" t="n">
-        <v>1.102493499252537</v>
+        <v>1.168433590749127</v>
+      </c>
+      <c r="E395" t="n">
+        <v>1.017857140549112</v>
       </c>
     </row>
     <row r="396">
@@ -5985,10 +7172,13 @@
         <v>1.02580688689668</v>
       </c>
       <c r="C396" t="n">
-        <v>1.160082142022024</v>
+        <v>1.233756942004878</v>
       </c>
       <c r="D396" t="n">
-        <v>1.100066575757558</v>
+        <v>1.168832559182504</v>
+      </c>
+      <c r="E396" t="n">
+        <v>1.006016961957027</v>
       </c>
     </row>
     <row r="397">
@@ -5999,10 +7189,13 @@
         <v>1.035733261366416</v>
       </c>
       <c r="C397" t="n">
-        <v>1.157170090202021</v>
+        <v>1.232835323683088</v>
       </c>
       <c r="D397" t="n">
-        <v>1.095683416837853</v>
+        <v>1.170162564494178</v>
+      </c>
+      <c r="E397" t="n">
+        <v>1.013378379443815</v>
       </c>
     </row>
     <row r="398">
@@ -6013,10 +7206,13 @@
         <v>1.037495888608705</v>
       </c>
       <c r="C398" t="n">
-        <v>1.156646309250044</v>
+        <v>1.233776239271281</v>
       </c>
       <c r="D398" t="n">
-        <v>1.094573592859064</v>
+        <v>1.171290265873989</v>
+      </c>
+      <c r="E398" t="n">
+        <v>1.017585586899042</v>
       </c>
     </row>
     <row r="399">
@@ -6027,10 +7223,13 @@
         <v>1.030605618479755</v>
       </c>
       <c r="C399" t="n">
-        <v>1.149078899033011</v>
+        <v>1.227088658159816</v>
       </c>
       <c r="D399" t="n">
-        <v>1.087406809979292</v>
+        <v>1.16569316008611</v>
+      </c>
+      <c r="E399" t="n">
+        <v>1.00157969001007</v>
       </c>
     </row>
     <row r="400">
@@ -6041,10 +7240,13 @@
         <v>1.029374309497103</v>
       </c>
       <c r="C400" t="n">
-        <v>1.143804000067471</v>
+        <v>1.217598920938183</v>
       </c>
       <c r="D400" t="n">
-        <v>1.08405432563249</v>
+        <v>1.154967091702581</v>
+      </c>
+      <c r="E400" t="n">
+        <v>1.002236795558359</v>
       </c>
     </row>
     <row r="401">
@@ -6055,10 +7257,13 @@
         <v>1.017946750103312</v>
       </c>
       <c r="C401" t="n">
-        <v>1.146108892797533</v>
+        <v>1.222953196957871</v>
       </c>
       <c r="D401" t="n">
-        <v>1.083448175386451</v>
+        <v>1.157593054323207</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0.9946352321021134</v>
       </c>
     </row>
     <row r="402">
@@ -6069,10 +7274,13 @@
         <v>1.022104526325555</v>
       </c>
       <c r="C402" t="n">
-        <v>1.143788828014524</v>
+        <v>1.217809273932854</v>
       </c>
       <c r="D402" t="n">
-        <v>1.082114103817509</v>
+        <v>1.151572965411746</v>
+      </c>
+      <c r="E402" t="n">
+        <v>1.008186289164441</v>
       </c>
     </row>
     <row r="403">
@@ -6083,10 +7291,13 @@
         <v>1.005119209263492</v>
       </c>
       <c r="C403" t="n">
-        <v>1.139734277036779</v>
+        <v>1.216327206050178</v>
       </c>
       <c r="D403" t="n">
-        <v>1.079456232591843</v>
+        <v>1.151851923135442</v>
+      </c>
+      <c r="E403" t="n">
+        <v>1.001413862626424</v>
       </c>
     </row>
     <row r="404">
@@ -6097,10 +7308,13 @@
         <v>0.9943579061000396</v>
       </c>
       <c r="C404" t="n">
-        <v>1.142236382810729</v>
+        <v>1.216836014432118</v>
       </c>
       <c r="D404" t="n">
-        <v>1.084994589412512</v>
+        <v>1.158445648839603</v>
+      </c>
+      <c r="E404" t="n">
+        <v>0.996024278783362</v>
       </c>
     </row>
     <row r="405">
@@ -6111,10 +7325,13 @@
         <v>0.9837231072841204</v>
       </c>
       <c r="C405" t="n">
-        <v>1.136586490963535</v>
+        <v>1.218363562811424</v>
       </c>
       <c r="D405" t="n">
-        <v>1.076323560802002</v>
+        <v>1.155497427470248</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0.9896292614115542</v>
       </c>
     </row>
     <row r="406">
@@ -6125,10 +7342,13 @@
         <v>0.9881254585782598</v>
       </c>
       <c r="C406" t="n">
-        <v>1.124519586984389</v>
+        <v>1.192587496537905</v>
       </c>
       <c r="D406" t="n">
-        <v>1.070198852947508</v>
+        <v>1.127062302695327</v>
+      </c>
+      <c r="E406" t="n">
+        <v>1.014609999972858</v>
       </c>
     </row>
     <row r="407">
@@ -6139,10 +7359,13 @@
         <v>0.9956145159521982</v>
       </c>
       <c r="C407" t="n">
-        <v>1.152768464462291</v>
+        <v>1.224799984616001</v>
       </c>
       <c r="D407" t="n">
-        <v>1.092085475138488</v>
+        <v>1.155182931195137</v>
+      </c>
+      <c r="E407" t="n">
+        <v>1.037434207048478</v>
       </c>
     </row>
     <row r="408">
@@ -6153,10 +7376,13 @@
         <v>0.9907145808910967</v>
       </c>
       <c r="C408" t="n">
-        <v>1.153133679416275</v>
+        <v>1.225010643741141</v>
       </c>
       <c r="D408" t="n">
-        <v>1.093286537253239</v>
+        <v>1.154653431610487</v>
+      </c>
+      <c r="E408" t="n">
+        <v>1.025194388339298</v>
       </c>
     </row>
     <row r="409">
@@ -6167,10 +7393,13 @@
         <v>1.013814274750576</v>
       </c>
       <c r="C409" t="n">
-        <v>1.174291023628538</v>
+        <v>1.249764929911671</v>
       </c>
       <c r="D409" t="n">
-        <v>1.110238466559595</v>
+        <v>1.174426483056518</v>
+      </c>
+      <c r="E409" t="n">
+        <v>1.045971926186522</v>
       </c>
     </row>
     <row r="410">
@@ -6181,10 +7410,13 @@
         <v>1.018933484014067</v>
       </c>
       <c r="C410" t="n">
-        <v>1.176466476342139</v>
+        <v>1.253854728921154</v>
       </c>
       <c r="D410" t="n">
-        <v>1.111108927385432</v>
+        <v>1.179784883446758</v>
+      </c>
+      <c r="E410" t="n">
+        <v>1.049384635646994</v>
       </c>
     </row>
     <row r="411">
@@ -6195,10 +7427,13 @@
         <v>1.001273477098496</v>
       </c>
       <c r="C411" t="n">
-        <v>1.171091762545761</v>
+        <v>1.243843159626817</v>
       </c>
       <c r="D411" t="n">
-        <v>1.106754577883586</v>
+        <v>1.167702490200742</v>
+      </c>
+      <c r="E411" t="n">
+        <v>1.036215382241167</v>
       </c>
     </row>
     <row r="412">
@@ -6209,10 +7444,13 @@
         <v>1.017752776770428</v>
       </c>
       <c r="C412" t="n">
-        <v>1.174910150673566</v>
+        <v>1.251027966207479</v>
       </c>
       <c r="D412" t="n">
-        <v>1.108194654267405</v>
+        <v>1.17316012441714</v>
+      </c>
+      <c r="E412" t="n">
+        <v>1.041603156588226</v>
       </c>
     </row>
     <row r="413">
@@ -6223,10 +7461,13 @@
         <v>1.009842038238048</v>
       </c>
       <c r="C413" t="n">
-        <v>1.187077535059619</v>
+        <v>1.258856991247995</v>
       </c>
       <c r="D413" t="n">
-        <v>1.122833572093425</v>
+        <v>1.179050329252641</v>
+      </c>
+      <c r="E413" t="n">
+        <v>1.034358968592449</v>
       </c>
     </row>
     <row r="414">
@@ -6237,10 +7478,13 @@
         <v>1.001754193619121</v>
       </c>
       <c r="C414" t="n">
-        <v>1.181057778791</v>
+        <v>1.251090520713412</v>
       </c>
       <c r="D414" t="n">
-        <v>1.118116277029083</v>
+        <v>1.171168597820849</v>
+      </c>
+      <c r="E414" t="n">
+        <v>1.033302222927064</v>
       </c>
     </row>
     <row r="415">
@@ -6251,10 +7495,13 @@
         <v>1.006940871867963</v>
       </c>
       <c r="C415" t="n">
-        <v>1.18639467547808</v>
+        <v>1.257123752580741</v>
       </c>
       <c r="D415" t="n">
-        <v>1.12146106018431</v>
+        <v>1.176028030242087</v>
+      </c>
+      <c r="E415" t="n">
+        <v>1.05845072761773</v>
       </c>
     </row>
     <row r="416">
@@ -6265,10 +7512,13 @@
         <v>0.9840098504718612</v>
       </c>
       <c r="C416" t="n">
-        <v>1.171924414883747</v>
+        <v>1.245955605366437</v>
       </c>
       <c r="D416" t="n">
-        <v>1.104892618397904</v>
+        <v>1.16717397216461</v>
+      </c>
+      <c r="E416" t="n">
+        <v>1.040630164737808</v>
       </c>
     </row>
     <row r="417">
@@ -6279,10 +7529,13 @@
         <v>0.9861688580030867</v>
       </c>
       <c r="C417" t="n">
-        <v>1.165004117147322</v>
+        <v>1.233422637601273</v>
       </c>
       <c r="D417" t="n">
-        <v>1.10245269775407</v>
+        <v>1.156153823184941</v>
+      </c>
+      <c r="E417" t="n">
+        <v>1.033748005192219</v>
       </c>
     </row>
     <row r="418">
@@ -6293,10 +7546,13 @@
         <v>0.9940627292891299</v>
       </c>
       <c r="C418" t="n">
-        <v>1.168440968434753</v>
+        <v>1.238459943446369</v>
       </c>
       <c r="D418" t="n">
-        <v>1.104412539400938</v>
+        <v>1.160084794878518</v>
+      </c>
+      <c r="E418" t="n">
+        <v>1.042283785584547</v>
       </c>
     </row>
     <row r="419">
@@ -6307,10 +7563,13 @@
         <v>0.9564825044487362</v>
       </c>
       <c r="C419" t="n">
-        <v>1.137460200359897</v>
+        <v>1.202450666560254</v>
       </c>
       <c r="D419" t="n">
-        <v>1.080368592217639</v>
+        <v>1.132207696894778</v>
+      </c>
+      <c r="E419" t="n">
+        <v>1.010186945494491</v>
       </c>
     </row>
     <row r="420">
@@ -6321,10 +7580,13 @@
         <v>0.9729112023816552</v>
       </c>
       <c r="C420" t="n">
-        <v>1.162421298614303</v>
+        <v>1.230462540740395</v>
       </c>
       <c r="D420" t="n">
-        <v>1.102518083000048</v>
+        <v>1.154732702865036</v>
+      </c>
+      <c r="E420" t="n">
+        <v>1.031625854130582</v>
       </c>
     </row>
     <row r="421">
@@ -6335,10 +7597,13 @@
         <v>0.9638450574751419</v>
       </c>
       <c r="C421" t="n">
-        <v>1.170664231269301</v>
+        <v>1.243011266235101</v>
       </c>
       <c r="D421" t="n">
-        <v>1.107568704589942</v>
+        <v>1.165350325712174</v>
+      </c>
+      <c r="E421" t="n">
+        <v>1.029278550066363</v>
       </c>
     </row>
     <row r="422">
@@ -6349,10 +7614,13 @@
         <v>0.9817074713467653</v>
       </c>
       <c r="C422" t="n">
-        <v>1.192430600911918</v>
+        <v>1.269037891032262</v>
       </c>
       <c r="D422" t="n">
-        <v>1.127270619157266</v>
+        <v>1.191357453808974</v>
+      </c>
+      <c r="E422" t="n">
+        <v>1.044759305365505</v>
       </c>
     </row>
     <row r="423">
@@ -6363,10 +7631,13 @@
         <v>0.9798267733801118</v>
       </c>
       <c r="C423" t="n">
-        <v>1.198675210955789</v>
+        <v>1.276662201501055</v>
       </c>
       <c r="D423" t="n">
-        <v>1.132267442099839</v>
+        <v>1.197323810726499</v>
+      </c>
+      <c r="E423" t="n">
+        <v>1.049613795390723</v>
       </c>
     </row>
     <row r="424">
@@ -6377,10 +7648,13 @@
         <v>0.970397982677338</v>
       </c>
       <c r="C424" t="n">
-        <v>1.176470049346658</v>
+        <v>1.249791635401265</v>
       </c>
       <c r="D424" t="n">
-        <v>1.110737818834594</v>
+        <v>1.16974407245766</v>
+      </c>
+      <c r="E424" t="n">
+        <v>1.037738202376876</v>
       </c>
     </row>
     <row r="425">
@@ -6391,10 +7665,13 @@
         <v>0.9596957148760679</v>
       </c>
       <c r="C425" t="n">
-        <v>1.190164904112386</v>
+        <v>1.268423599990706</v>
       </c>
       <c r="D425" t="n">
-        <v>1.121665356583179</v>
+        <v>1.188848424037585</v>
+      </c>
+      <c r="E425" t="n">
+        <v>1.033945498755907</v>
       </c>
     </row>
     <row r="426">
@@ -6405,10 +7682,13 @@
         <v>0.9398345323134272</v>
       </c>
       <c r="C426" t="n">
-        <v>1.180954350896538</v>
+        <v>1.253349630357842</v>
       </c>
       <c r="D426" t="n">
-        <v>1.114803704774129</v>
+        <v>1.173568185926595</v>
+      </c>
+      <c r="E426" t="n">
+        <v>1.031091665060739</v>
       </c>
     </row>
     <row r="427">
@@ -6419,10 +7699,13 @@
         <v>0.9179492801902626</v>
       </c>
       <c r="C427" t="n">
-        <v>1.160698607620698</v>
+        <v>1.22965350710732</v>
       </c>
       <c r="D427" t="n">
-        <v>1.096568500397954</v>
+        <v>1.152477787234488</v>
+      </c>
+      <c r="E427" t="n">
+        <v>1.021614041999178</v>
       </c>
     </row>
     <row r="428">
@@ -6433,10 +7716,13 @@
         <v>0.9298069543656651</v>
       </c>
       <c r="C428" t="n">
-        <v>1.169281007470356</v>
+        <v>1.236086842831894</v>
       </c>
       <c r="D428" t="n">
-        <v>1.104909879807929</v>
+        <v>1.15490517085901</v>
+      </c>
+      <c r="E428" t="n">
+        <v>1.036265143381232</v>
       </c>
     </row>
     <row r="429">
@@ -6447,10 +7733,13 @@
         <v>0.9469440766447673</v>
       </c>
       <c r="C429" t="n">
-        <v>1.173930361797038</v>
+        <v>1.236020260899176</v>
       </c>
       <c r="D429" t="n">
-        <v>1.113596124448409</v>
+        <v>1.156265387893858</v>
+      </c>
+      <c r="E429" t="n">
+        <v>1.03868379328783</v>
       </c>
     </row>
     <row r="430">
@@ -6461,10 +7750,13 @@
         <v>0.9619727931316573</v>
       </c>
       <c r="C430" t="n">
-        <v>1.186908927389995</v>
+        <v>1.255537971838691</v>
       </c>
       <c r="D430" t="n">
-        <v>1.124623470470723</v>
+        <v>1.176569540817023</v>
+      </c>
+      <c r="E430" t="n">
+        <v>1.037679264507085</v>
       </c>
     </row>
     <row r="431">
@@ -6475,10 +7767,13 @@
         <v>0.9553861334367858</v>
       </c>
       <c r="C431" t="n">
-        <v>1.180325800249495</v>
+        <v>1.253604681242815</v>
       </c>
       <c r="D431" t="n">
-        <v>1.114100564123258</v>
+        <v>1.174763266204826</v>
+      </c>
+      <c r="E431" t="n">
+        <v>1.034779159414142</v>
       </c>
     </row>
     <row r="432">
@@ -6489,10 +7784,13 @@
         <v>0.9579162203874406</v>
       </c>
       <c r="C432" t="n">
-        <v>1.184639090447229</v>
+        <v>1.257247897290446</v>
       </c>
       <c r="D432" t="n">
-        <v>1.117744310103395</v>
+        <v>1.173892478245909</v>
+      </c>
+      <c r="E432" t="n">
+        <v>1.032734041182319</v>
       </c>
     </row>
     <row r="433">
@@ -6503,10 +7801,13 @@
         <v>0.92874431784639</v>
       </c>
       <c r="C433" t="n">
-        <v>1.168612971320891</v>
+        <v>1.242705255298252</v>
       </c>
       <c r="D433" t="n">
-        <v>1.100319923204113</v>
+        <v>1.159765104990057</v>
+      </c>
+      <c r="E433" t="n">
+        <v>1.019075836106709</v>
       </c>
     </row>
     <row r="434">
@@ -6517,10 +7818,13 @@
         <v>0.9370345694213691</v>
       </c>
       <c r="C434" t="n">
-        <v>1.163769615272201</v>
+        <v>1.244943762810584</v>
       </c>
       <c r="D434" t="n">
-        <v>1.093767147083361</v>
+        <v>1.166520896880757</v>
+      </c>
+      <c r="E434" t="n">
+        <v>1.020071705156586</v>
       </c>
     </row>
     <row r="435">
@@ -6531,10 +7835,13 @@
         <v>0.9359550656557564</v>
       </c>
       <c r="C435" t="n">
-        <v>1.161866867615413</v>
+        <v>1.23823078107522</v>
       </c>
       <c r="D435" t="n">
-        <v>1.09445371774474</v>
+        <v>1.158792291215297</v>
+      </c>
+      <c r="E435" t="n">
+        <v>1.011973047298545</v>
       </c>
     </row>
     <row r="436">
@@ -6545,10 +7852,13 @@
         <v>0.9521560557631163</v>
       </c>
       <c r="C436" t="n">
-        <v>1.16095529320145</v>
+        <v>1.248432759403822</v>
       </c>
       <c r="D436" t="n">
-        <v>1.086166327352472</v>
+        <v>1.167124634052843</v>
+      </c>
+      <c r="E436" t="n">
+        <v>1.0196793030235</v>
       </c>
     </row>
     <row r="437">
@@ -6559,10 +7869,13 @@
         <v>0.9310129624788105</v>
       </c>
       <c r="C437" t="n">
-        <v>1.155367212142683</v>
+        <v>1.239438489328832</v>
       </c>
       <c r="D437" t="n">
-        <v>1.081884751721734</v>
+        <v>1.157470891850625</v>
+      </c>
+      <c r="E437" t="n">
+        <v>1.001869338620164</v>
       </c>
     </row>
     <row r="438">
@@ -6573,10 +7886,13 @@
         <v>0.9315611479847857</v>
       </c>
       <c r="C438" t="n">
-        <v>1.160063945580311</v>
+        <v>1.249568735191691</v>
       </c>
       <c r="D438" t="n">
-        <v>1.085451224184794</v>
+        <v>1.168252502669258</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0.9903979094634184</v>
       </c>
     </row>
     <row r="439">
@@ -6587,10 +7903,13 @@
         <v>0.9324213775480084</v>
       </c>
       <c r="C439" t="n">
-        <v>1.160624653486599</v>
+        <v>1.246659474011678</v>
       </c>
       <c r="D439" t="n">
-        <v>1.086710802783195</v>
+        <v>1.163263346118296</v>
+      </c>
+      <c r="E439" t="n">
+        <v>0.9847795536257711</v>
       </c>
     </row>
     <row r="440">
@@ -6601,10 +7920,13 @@
         <v>0.9326322181272296</v>
       </c>
       <c r="C440" t="n">
-        <v>1.151756843816402</v>
+        <v>1.236804517646978</v>
       </c>
       <c r="D440" t="n">
-        <v>1.081418954996262</v>
+        <v>1.159507711730454</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0.9874860426464603</v>
       </c>
     </row>
     <row r="441">
@@ -6615,10 +7937,13 @@
         <v>0.9515910030108035</v>
       </c>
       <c r="C441" t="n">
-        <v>1.178676282388723</v>
+        <v>1.261983502800569</v>
       </c>
       <c r="D441" t="n">
-        <v>1.108536472204759</v>
+        <v>1.180954856142478</v>
+      </c>
+      <c r="E441" t="n">
+        <v>1.008054454455696</v>
       </c>
     </row>
     <row r="442">
@@ -6629,10 +7954,13 @@
         <v>0.9460838470815447</v>
       </c>
       <c r="C442" t="n">
-        <v>1.170905284132881</v>
+        <v>1.252718117980595</v>
       </c>
       <c r="D442" t="n">
-        <v>1.098680204925752</v>
+        <v>1.167643933088375</v>
+      </c>
+      <c r="E442" t="n">
+        <v>1.014630809176885</v>
       </c>
     </row>
     <row r="443">
@@ -6643,10 +7971,13 @@
         <v>0.9568451502449967</v>
       </c>
       <c r="C443" t="n">
-        <v>1.186214864171814</v>
+        <v>1.260204454614463</v>
       </c>
       <c r="D443" t="n">
-        <v>1.117513152347309</v>
+        <v>1.172453365741799</v>
+      </c>
+      <c r="E443" t="n">
+        <v>1.028762843705687</v>
       </c>
     </row>
     <row r="444">
@@ -6657,10 +7988,13 @@
         <v>0.9545596383662385</v>
       </c>
       <c r="C444" t="n">
-        <v>1.191631410232688</v>
+        <v>1.267445542061794</v>
       </c>
       <c r="D444" t="n">
-        <v>1.121738081292122</v>
+        <v>1.178728884815827</v>
+      </c>
+      <c r="E444" t="n">
+        <v>1.028119826376273</v>
       </c>
     </row>
     <row r="445">
@@ -6671,10 +8005,13 @@
         <v>0.9668980290622654</v>
       </c>
       <c r="C445" t="n">
-        <v>1.192054091956464</v>
+        <v>1.265399995863049</v>
       </c>
       <c r="D445" t="n">
-        <v>1.124986899371685</v>
+        <v>1.178151467194557</v>
+      </c>
+      <c r="E445" t="n">
+        <v>1.029909030173475</v>
       </c>
     </row>
     <row r="446">
@@ -6685,10 +8022,13 @@
         <v>0.9650426319651185</v>
       </c>
       <c r="C446" t="n">
-        <v>1.206790029570034</v>
+        <v>1.276414887925121</v>
       </c>
       <c r="D446" t="n">
-        <v>1.14142740077385</v>
+        <v>1.186632549206632</v>
+      </c>
+      <c r="E446" t="n">
+        <v>1.039676948093702</v>
       </c>
     </row>
     <row r="447">
@@ -6699,10 +8039,13 @@
         <v>0.9333743769660884</v>
       </c>
       <c r="C447" t="n">
-        <v>1.170052639441639</v>
+        <v>1.251356984292984</v>
       </c>
       <c r="D447" t="n">
-        <v>1.100530681016379</v>
+        <v>1.171075561027661</v>
+      </c>
+      <c r="E447" t="n">
+        <v>1.013885813822766</v>
       </c>
     </row>
     <row r="448">
@@ -6713,10 +8056,13 @@
         <v>0.9343273763841684</v>
       </c>
       <c r="C448" t="n">
-        <v>1.174756856495</v>
+        <v>1.248866636346694</v>
       </c>
       <c r="D448" t="n">
-        <v>1.109232022227204</v>
+        <v>1.16834098563404</v>
+      </c>
+      <c r="E448" t="n">
+        <v>1.015967897472922</v>
       </c>
     </row>
     <row r="449">
@@ -6727,10 +8073,13 @@
         <v>0.9085963920960084</v>
       </c>
       <c r="C449" t="n">
-        <v>1.150024674856019</v>
+        <v>1.231997826365115</v>
       </c>
       <c r="D449" t="n">
-        <v>1.079484355012781</v>
+        <v>1.152792819241122</v>
+      </c>
+      <c r="E449" t="n">
+        <v>0.9881524541741906</v>
       </c>
     </row>
     <row r="450">
@@ -6741,10 +8090,13 @@
         <v>0.8964604083560338</v>
       </c>
       <c r="C450" t="n">
-        <v>1.151417232018653</v>
+        <v>1.230751523578698</v>
       </c>
       <c r="D450" t="n">
-        <v>1.082091345727686</v>
+        <v>1.149198805222825</v>
+      </c>
+      <c r="E450" t="n">
+        <v>0.9675884368552459</v>
       </c>
     </row>
     <row r="451">
@@ -6755,10 +8107,13 @@
         <v>0.9168613428014809</v>
       </c>
       <c r="C451" t="n">
-        <v>1.158795915498083</v>
+        <v>1.235751528215372</v>
       </c>
       <c r="D451" t="n">
-        <v>1.091067330632001</v>
+        <v>1.154515317372811</v>
+      </c>
+      <c r="E451" t="n">
+        <v>0.9862952650271857</v>
       </c>
     </row>
     <row r="452">
@@ -6769,10 +8124,13 @@
         <v>0.8975061776289712</v>
       </c>
       <c r="C452" t="n">
-        <v>1.153682711865136</v>
+        <v>1.231455891527927</v>
       </c>
       <c r="D452" t="n">
-        <v>1.084928608333902</v>
+        <v>1.150953429572277</v>
+      </c>
+      <c r="E452" t="n">
+        <v>0.9734567616406493</v>
       </c>
     </row>
     <row r="453">
@@ -6783,10 +8141,13 @@
         <v>0.8970254611083468</v>
       </c>
       <c r="C453" t="n">
-        <v>1.165614805794369</v>
+        <v>1.244275108028992</v>
       </c>
       <c r="D453" t="n">
-        <v>1.095687969000642</v>
+        <v>1.162109325187669</v>
+      </c>
+      <c r="E453" t="n">
+        <v>0.9857213962950053</v>
       </c>
     </row>
     <row r="454">
@@ -6797,10 +8158,13 @@
         <v>0.8914761370632437</v>
       </c>
       <c r="C454" t="n">
-        <v>1.153056929621732</v>
+        <v>1.230760860342587</v>
       </c>
       <c r="D454" t="n">
-        <v>1.08397196111707</v>
+        <v>1.148868204526752</v>
+      </c>
+      <c r="E454" t="n">
+        <v>0.9698214841718862</v>
       </c>
     </row>
     <row r="455">
@@ -6811,10 +8175,13 @@
         <v>0.8728884315990992</v>
       </c>
       <c r="C455" t="n">
-        <v>1.162731463542784</v>
+        <v>1.245964284022259</v>
       </c>
       <c r="D455" t="n">
-        <v>1.090076676839725</v>
+        <v>1.161050980384048</v>
+      </c>
+      <c r="E455" t="n">
+        <v>0.9612478336132235</v>
       </c>
     </row>
     <row r="456">
@@ -6825,10 +8192,13 @@
         <v>0.8901773590952409</v>
       </c>
       <c r="C456" t="n">
-        <v>1.172591554950116</v>
+        <v>1.246868397769642</v>
       </c>
       <c r="D456" t="n">
-        <v>1.102438390541892</v>
+        <v>1.158724953628957</v>
+      </c>
+      <c r="E456" t="n">
+        <v>0.972758554683163</v>
       </c>
     </row>
     <row r="457">
@@ -6839,10 +8209,13 @@
         <v>0.8907339782243849</v>
       </c>
       <c r="C457" t="n">
-        <v>1.189706615831727</v>
+        <v>1.268064836309984</v>
       </c>
       <c r="D457" t="n">
-        <v>1.117232711646391</v>
+        <v>1.177411377623516</v>
+      </c>
+      <c r="E457" t="n">
+        <v>0.9930921197612343</v>
       </c>
     </row>
     <row r="458">
@@ -6853,10 +8226,13 @@
         <v>0.8721378391370717</v>
       </c>
       <c r="C458" t="n">
-        <v>1.165204184677308</v>
+        <v>1.246194093087411</v>
       </c>
       <c r="D458" t="n">
-        <v>1.093142011042193</v>
+        <v>1.16024170147342</v>
+      </c>
+      <c r="E458" t="n">
+        <v>0.9697983484729986</v>
       </c>
     </row>
     <row r="459">
@@ -6867,10 +8243,13 @@
         <v>0.8840461150514872</v>
       </c>
       <c r="C459" t="n">
-        <v>1.148787282144905</v>
+        <v>1.222425443350753</v>
       </c>
       <c r="D459" t="n">
-        <v>1.081629636619487</v>
+        <v>1.140964867318787</v>
+      </c>
+      <c r="E459" t="n">
+        <v>0.977497753963087</v>
       </c>
     </row>
     <row r="460">
@@ -6881,10 +8260,13 @@
         <v>0.8836834692552268</v>
       </c>
       <c r="C460" t="n">
-        <v>1.151593773848119</v>
+        <v>1.22513144215113</v>
       </c>
       <c r="D460" t="n">
-        <v>1.084547265193206</v>
+        <v>1.141953751492797</v>
+      </c>
+      <c r="E460" t="n">
+        <v>0.9736817853935157</v>
       </c>
     </row>
     <row r="461">
@@ -6895,10 +8277,13 @@
         <v>0.8900424211245394</v>
       </c>
       <c r="C461" t="n">
-        <v>1.156706189472644</v>
+        <v>1.224906783619002</v>
       </c>
       <c r="D461" t="n">
-        <v>1.093750968386278</v>
+        <v>1.141673979457186</v>
+      </c>
+      <c r="E461" t="n">
+        <v>0.986465228401694</v>
       </c>
     </row>
     <row r="462">
@@ -6909,10 +8294,13 @@
         <v>0.8936941799566511</v>
       </c>
       <c r="C462" t="n">
-        <v>1.160784083150335</v>
+        <v>1.229053192581</v>
       </c>
       <c r="D462" t="n">
-        <v>1.097068351792079</v>
+        <v>1.145494200753761</v>
+      </c>
+      <c r="E462" t="n">
+        <v>1.004461829392703</v>
       </c>
     </row>
     <row r="463">
@@ -6923,10 +8311,13 @@
         <v>0.9085120558643198</v>
       </c>
       <c r="C463" t="n">
-        <v>1.207257416156101</v>
+        <v>1.291447188422866</v>
       </c>
       <c r="D463" t="n">
-        <v>1.135130753045201</v>
+        <v>1.197128908505544</v>
+      </c>
+      <c r="E463" t="n">
+        <v>1.015203773161064</v>
       </c>
     </row>
     <row r="464">
@@ -6937,10 +8328,13 @@
         <v>0.8965953463267354</v>
       </c>
       <c r="C464" t="n">
-        <v>1.175038744384302</v>
+        <v>1.24902712944035</v>
       </c>
       <c r="D464" t="n">
-        <v>1.108515995465991</v>
+        <v>1.164057049049117</v>
+      </c>
+      <c r="E464" t="n">
+        <v>1.001739959655994</v>
       </c>
     </row>
     <row r="465">
@@ -6951,10 +8345,13 @@
         <v>0.8813810901301308</v>
       </c>
       <c r="C465" t="n">
-        <v>1.162319069838445</v>
+        <v>1.251231999652131</v>
       </c>
       <c r="D465" t="n">
-        <v>1.093816007960168</v>
+        <v>1.183016790895185</v>
+      </c>
+      <c r="E465" t="n">
+        <v>0.9858710674643443</v>
       </c>
     </row>
     <row r="466">
@@ -6965,10 +8362,13 @@
         <v>0.868199337117219</v>
       </c>
       <c r="C466" t="n">
-        <v>1.155554552209855</v>
+        <v>1.24520922765493</v>
       </c>
       <c r="D466" t="n">
-        <v>1.08674555188467</v>
+        <v>1.176106397270194</v>
+      </c>
+      <c r="E466" t="n">
+        <v>0.9655628353303061</v>
       </c>
     </row>
     <row r="467">
@@ -6979,10 +8379,13 @@
         <v>0.8646487817631333</v>
       </c>
       <c r="C467" t="n">
-        <v>1.161466993662775</v>
+        <v>1.241844398790399</v>
       </c>
       <c r="D467" t="n">
-        <v>1.092350244172715</v>
+        <v>1.157641898457372</v>
+      </c>
+      <c r="E467" t="n">
+        <v>0.9685513472279361</v>
       </c>
     </row>
     <row r="468">
@@ -6993,10 +8396,13 @@
         <v>0.8689583632024154</v>
       </c>
       <c r="C468" t="n">
-        <v>1.185697771110914</v>
+        <v>1.269255459076605</v>
       </c>
       <c r="D468" t="n">
-        <v>1.114727955375299</v>
+        <v>1.178022586538215</v>
+      </c>
+      <c r="E468" t="n">
+        <v>0.9789275143043891</v>
       </c>
     </row>
     <row r="469">
@@ -7007,10 +8413,13 @@
         <v>0.8612584652492558</v>
       </c>
       <c r="C469" t="n">
-        <v>1.163631800464457</v>
+        <v>1.245311681622988</v>
       </c>
       <c r="D469" t="n">
-        <v>1.094857588282539</v>
+        <v>1.161711854593354</v>
+      </c>
+      <c r="E469" t="n">
+        <v>0.9659907811348668</v>
       </c>
     </row>
     <row r="470">
@@ -7021,10 +8430,13 @@
         <v>0.8742546785524529</v>
       </c>
       <c r="C470" t="n">
-        <v>1.164320474643429</v>
+        <v>1.240739938461615</v>
       </c>
       <c r="D470" t="n">
-        <v>1.09724137466735</v>
+        <v>1.155708977575896</v>
+      </c>
+      <c r="E470" t="n">
+        <v>0.9767274256649349</v>
       </c>
     </row>
     <row r="471">
@@ -7035,10 +8447,13 @@
         <v>0.8814316918691439</v>
       </c>
       <c r="C471" t="n">
-        <v>1.167054282028901</v>
+        <v>1.245888694411498</v>
       </c>
       <c r="D471" t="n">
-        <v>1.09787542740014</v>
+        <v>1.160385734163674</v>
+      </c>
+      <c r="E471" t="n">
+        <v>0.9818251636527571</v>
       </c>
     </row>
     <row r="472">
@@ -7049,10 +8464,13 @@
         <v>0.8923701011191418</v>
       </c>
       <c r="C472" t="n">
-        <v>1.169638954242417</v>
+        <v>1.247284395205129</v>
       </c>
       <c r="D472" t="n">
-        <v>1.100652303525476</v>
+        <v>1.161238210045913</v>
+      </c>
+      <c r="E472" t="n">
+        <v>0.996517624943437</v>
       </c>
     </row>
     <row r="473">
@@ -7063,10 +8481,13 @@
         <v>0.8621186948124784</v>
       </c>
       <c r="C473" t="n">
-        <v>1.166808934827232</v>
+        <v>1.246885902344049</v>
       </c>
       <c r="D473" t="n">
-        <v>1.09583892118941</v>
+        <v>1.159720975072375</v>
+      </c>
+      <c r="E473" t="n">
+        <v>0.9799706887497558</v>
       </c>
     </row>
     <row r="474">
@@ -7077,10 +8498,13 @@
         <v>0.8670945324820997</v>
       </c>
       <c r="C474" t="n">
-        <v>1.170587593116261</v>
+        <v>1.250439234657526</v>
       </c>
       <c r="D474" t="n">
-        <v>1.098367732118686</v>
+        <v>1.162405216224977</v>
+      </c>
+      <c r="E474" t="n">
+        <v>0.9903643045376602</v>
       </c>
     </row>
     <row r="475">
@@ -7091,10 +8515,13 @@
         <v>0.8595127052533039</v>
       </c>
       <c r="C475" t="n">
-        <v>1.173854450190138</v>
+        <v>1.254876225912678</v>
       </c>
       <c r="D475" t="n">
-        <v>1.101333538776689</v>
+        <v>1.169857120424904</v>
+      </c>
+      <c r="E475" t="n">
+        <v>0.9808155941331488</v>
       </c>
     </row>
     <row r="476">
@@ -7105,10 +8532,13 @@
         <v>0.8498983748408153</v>
       </c>
       <c r="C476" t="n">
-        <v>1.185283224928135</v>
+        <v>1.269651411072428</v>
       </c>
       <c r="D476" t="n">
-        <v>1.109937065594254</v>
+        <v>1.177505570492193</v>
+      </c>
+      <c r="E476" t="n">
+        <v>0.9704623042561542</v>
       </c>
     </row>
     <row r="477">
@@ -7119,10 +8549,13 @@
         <v>0.8810268779570392</v>
       </c>
       <c r="C477" t="n">
-        <v>1.192152094044091</v>
+        <v>1.274982555572448</v>
       </c>
       <c r="D477" t="n">
-        <v>1.112166792364623</v>
+        <v>1.179843140549473</v>
+      </c>
+      <c r="E477" t="n">
+        <v>0.9958323429573963</v>
       </c>
     </row>
     <row r="478">
@@ -7133,10 +8566,13 @@
         <v>0.8861207863510243</v>
       </c>
       <c r="C478" t="n">
-        <v>1.209454171082541</v>
+        <v>1.291714185739494</v>
       </c>
       <c r="D478" t="n">
-        <v>1.130761683297563</v>
+        <v>1.194870086121902</v>
+      </c>
+      <c r="E478" t="n">
+        <v>1.011156189103189</v>
       </c>
     </row>
     <row r="479">
@@ -7147,10 +8583,13 @@
         <v>0.9012085382000962</v>
       </c>
       <c r="C479" t="n">
-        <v>1.205801198308239</v>
+        <v>1.286866801038738</v>
       </c>
       <c r="D479" t="n">
-        <v>1.127138306428982</v>
+        <v>1.189417987282428</v>
+      </c>
+      <c r="E479" t="n">
+        <v>1.010215121932242</v>
       </c>
     </row>
     <row r="480">
@@ -7161,10 +8600,13 @@
         <v>0.907103640795122</v>
       </c>
       <c r="C480" t="n">
-        <v>1.201912725846765</v>
+        <v>1.282295522811911</v>
       </c>
       <c r="D480" t="n">
-        <v>1.124872284966158</v>
+        <v>1.186406877659877</v>
+      </c>
+      <c r="E480" t="n">
+        <v>1.005030915885449</v>
       </c>
     </row>
     <row r="481">
@@ -7175,10 +8617,13 @@
         <v>0.9116409300599631</v>
       </c>
       <c r="C481" t="n">
-        <v>1.196394193567681</v>
+        <v>1.272373531057634</v>
       </c>
       <c r="D481" t="n">
-        <v>1.120656142076089</v>
+        <v>1.178409347583236</v>
+      </c>
+      <c r="E481" t="n">
+        <v>1.013774142069477</v>
       </c>
     </row>
     <row r="482">
@@ -7189,10 +8634,13 @@
         <v>0.8964182402401896</v>
       </c>
       <c r="C482" t="n">
-        <v>1.177850527165704</v>
+        <v>1.24827698634171</v>
       </c>
       <c r="D482" t="n">
-        <v>1.105356456235237</v>
+        <v>1.1594967163104</v>
+      </c>
+      <c r="E482" t="n">
+        <v>1.003761037440928</v>
       </c>
     </row>
     <row r="483">
@@ -7203,10 +8651,13 @@
         <v>0.9087903654288919</v>
       </c>
       <c r="C483" t="n">
-        <v>1.167552451700099</v>
+        <v>1.232808222188705</v>
       </c>
       <c r="D483" t="n">
-        <v>1.097832051370716</v>
+        <v>1.14568661673861</v>
+      </c>
+      <c r="E483" t="n">
+        <v>1.008136915773519</v>
       </c>
     </row>
     <row r="484">
@@ -7217,10 +8668,13 @@
         <v>0.9056277567405733</v>
       </c>
       <c r="C484" t="n">
-        <v>1.184546528851599</v>
+        <v>1.253551645260228</v>
       </c>
       <c r="D484" t="n">
-        <v>1.114891538499128</v>
+        <v>1.171330642136287</v>
+      </c>
+      <c r="E484" t="n">
+        <v>1.009806434335135</v>
       </c>
     </row>
     <row r="485">
@@ -7231,10 +8685,13 @@
         <v>0.90037360950638</v>
       </c>
       <c r="C485" t="n">
-        <v>1.183857457391773</v>
+        <v>1.256428597024389</v>
       </c>
       <c r="D485" t="n">
-        <v>1.110324883862523</v>
+        <v>1.16598462852162</v>
+      </c>
+      <c r="E485" t="n">
+        <v>0.9973439183679483</v>
       </c>
     </row>
     <row r="486">
@@ -7245,10 +8702,13 @@
         <v>0.9055181196393782</v>
       </c>
       <c r="C486" t="n">
-        <v>1.200483957611612</v>
+        <v>1.285987464113003</v>
       </c>
       <c r="D486" t="n">
-        <v>1.122290920253904</v>
+        <v>1.201261124818548</v>
+      </c>
+      <c r="E486" t="n">
+        <v>1.001317700838869</v>
       </c>
     </row>
     <row r="487">
@@ -7259,10 +8719,13 @@
         <v>0.9126192303475497</v>
       </c>
       <c r="C487" t="n">
-        <v>1.185786668689677</v>
+        <v>1.267864648469037</v>
       </c>
       <c r="D487" t="n">
-        <v>1.107723998118077</v>
+        <v>1.18378408966275</v>
+      </c>
+      <c r="E487" t="n">
+        <v>0.9874985798687624</v>
       </c>
     </row>
     <row r="488">
@@ -7273,10 +8736,13 @@
         <v>0.9040928373238427</v>
       </c>
       <c r="C488" t="n">
-        <v>1.19836366482245</v>
+        <v>1.279448974878284</v>
       </c>
       <c r="D488" t="n">
-        <v>1.122113251714137</v>
+        <v>1.190057854188425</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0.9956307134028464</v>
       </c>
     </row>
     <row r="489">
@@ -7287,10 +8753,13 @@
         <v>0.8856991051925818</v>
       </c>
       <c r="C489" t="n">
-        <v>1.175916305103686</v>
+        <v>1.261008054475798</v>
       </c>
       <c r="D489" t="n">
-        <v>1.0975291050139</v>
+        <v>1.178216533941999</v>
+      </c>
+      <c r="E489" t="n">
+        <v>0.9841652297329662</v>
       </c>
     </row>
     <row r="490">
@@ -7301,10 +8770,13 @@
         <v>0.8897472443136296</v>
       </c>
       <c r="C490" t="n">
-        <v>1.178016360853408</v>
+        <v>1.260461456995511</v>
       </c>
       <c r="D490" t="n">
-        <v>1.100153266174045</v>
+        <v>1.17523727195682</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0.9843437235886285</v>
       </c>
     </row>
     <row r="491">
@@ -7315,10 +8787,13 @@
         <v>0.8875882367824041</v>
       </c>
       <c r="C491" t="n">
-        <v>1.201242197564574</v>
+        <v>1.291101970565025</v>
       </c>
       <c r="D491" t="n">
-        <v>1.118962352918612</v>
+        <v>1.201908058962245</v>
+      </c>
+      <c r="E491" t="n">
+        <v>0.9867048573722939</v>
       </c>
     </row>
     <row r="492">
@@ -7329,10 +8804,13 @@
         <v>0.8846111678038002</v>
       </c>
       <c r="C492" t="n">
-        <v>1.183434375973841</v>
+        <v>1.275495062295326</v>
       </c>
       <c r="D492" t="n">
-        <v>1.099956002962287</v>
+        <v>1.189424239766372</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0.981011407450548</v>
       </c>
     </row>
     <row r="493">
@@ -7343,10 +8821,13 @@
         <v>0.8900086866318639</v>
       </c>
       <c r="C493" t="n">
-        <v>1.181955113122469</v>
+        <v>1.269644525108602</v>
       </c>
       <c r="D493" t="n">
-        <v>1.100682020101042</v>
+        <v>1.185090247520822</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0.9838373232073937</v>
       </c>
     </row>
     <row r="494">
@@ -7357,10 +8838,13 @@
         <v>0.8843834599782413</v>
       </c>
       <c r="C494" t="n">
-        <v>1.20087092188868</v>
+        <v>1.289140533828782</v>
       </c>
       <c r="D494" t="n">
-        <v>1.11803471692343</v>
+        <v>1.195745755092064</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0.9886741060217313</v>
       </c>
     </row>
     <row r="495">
@@ -7371,10 +8855,13 @@
         <v>0.8779992072394222</v>
       </c>
       <c r="C495" t="n">
-        <v>1.188271686918072</v>
+        <v>1.278646997427177</v>
       </c>
       <c r="D495" t="n">
-        <v>1.105965664963995</v>
+        <v>1.18823957587631</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0.9803430571771009</v>
       </c>
     </row>
     <row r="496">
@@ -7385,10 +8872,13 @@
         <v>0.8840292478051496</v>
       </c>
       <c r="C496" t="n">
-        <v>1.192599421103374</v>
+        <v>1.277429328671052</v>
       </c>
       <c r="D496" t="n">
-        <v>1.111519476342267</v>
+        <v>1.186772667853424</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0.9862403338985423</v>
       </c>
     </row>
   </sheetData>

--- a/resultado_simu.xlsx
+++ b/resultado_simu.xlsx
@@ -452,19 +452,19 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>IEE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>DEA(M)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>DEA(1/N)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>IEE</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990000000000001</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -491,13 +491,13 @@
         <v>0.9926964823357762</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9957182703214311</v>
+        <v>0.9998796685158423</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9987440164367114</v>
+        <v>1.000773621928768</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998796685158423</v>
+        <v>1.003001397227031</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>0.9857050087288</v>
       </c>
       <c r="C4" t="n">
-        <v>1.027330727048297</v>
+        <v>1.000148637171623</v>
       </c>
       <c r="D4" t="n">
-        <v>1.027966375819459</v>
+        <v>1.010895583153096</v>
       </c>
       <c r="E4" t="n">
-        <v>1.000148637171623</v>
+        <v>1.007847052371499</v>
       </c>
     </row>
     <row r="5">
@@ -525,13 +525,13 @@
         <v>0.9838833461243285</v>
       </c>
       <c r="C5" t="n">
-        <v>1.02289228360106</v>
+        <v>0.9953795812076602</v>
       </c>
       <c r="D5" t="n">
-        <v>1.024590896078508</v>
+        <v>1.005645536987378</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9953795812076602</v>
+        <v>1.010391606629977</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +542,13 @@
         <v>0.9803833925092559</v>
       </c>
       <c r="C6" t="n">
-        <v>1.019384624957734</v>
+        <v>0.9975856153339793</v>
       </c>
       <c r="D6" t="n">
-        <v>1.022038014969828</v>
+        <v>1.001636807094076</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9975856153339793</v>
+        <v>1.011314263060194</v>
       </c>
     </row>
     <row r="7">
@@ -559,13 +559,13 @@
         <v>0.9778533055586011</v>
       </c>
       <c r="C7" t="n">
-        <v>1.004815447757713</v>
+        <v>1.004686465396426</v>
       </c>
       <c r="D7" t="n">
-        <v>1.010109847672816</v>
+        <v>0.9954985639164049</v>
       </c>
       <c r="E7" t="n">
-        <v>1.004686465396426</v>
+        <v>1.002256063936529</v>
       </c>
     </row>
     <row r="8">
@@ -576,13 +576,13 @@
         <v>0.9741087768716318</v>
       </c>
       <c r="C8" t="n">
-        <v>1.004010577400125</v>
+        <v>1.015879749167664</v>
       </c>
       <c r="D8" t="n">
-        <v>1.013834072949914</v>
+        <v>1.013761685236644</v>
       </c>
       <c r="E8" t="n">
-        <v>1.015879749167664</v>
+        <v>1.015093139503917</v>
       </c>
     </row>
     <row r="9">
@@ -593,13 +593,13 @@
         <v>0.9894748382852757</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9976838818108482</v>
+        <v>1.024692640947783</v>
       </c>
       <c r="D9" t="n">
-        <v>1.008275115885798</v>
+        <v>1.017457835517401</v>
       </c>
       <c r="E9" t="n">
-        <v>1.024692640947783</v>
+        <v>1.023345566138713</v>
       </c>
     </row>
     <row r="10">
@@ -610,13 +610,13 @@
         <v>0.9920639605981125</v>
       </c>
       <c r="C10" t="n">
-        <v>1.01577630510197</v>
+        <v>1.026033348235825</v>
       </c>
       <c r="D10" t="n">
-        <v>1.024836842798976</v>
+        <v>1.020037097627278</v>
       </c>
       <c r="E10" t="n">
-        <v>1.026033348235825</v>
+        <v>1.026814415269376</v>
       </c>
     </row>
     <row r="11">
@@ -627,13 +627,13 @@
         <v>0.9817918075784537</v>
       </c>
       <c r="C11" t="n">
-        <v>1.000495692293063</v>
+        <v>1.025571151256934</v>
       </c>
       <c r="D11" t="n">
-        <v>1.01332775916282</v>
+        <v>1.026360868221924</v>
       </c>
       <c r="E11" t="n">
-        <v>1.025571151256934</v>
+        <v>1.032404471788927</v>
       </c>
     </row>
     <row r="12">
@@ -644,13 +644,13 @@
         <v>0.9842375582974201</v>
       </c>
       <c r="C12" t="n">
-        <v>1.008119367545542</v>
+        <v>1.028136887338582</v>
       </c>
       <c r="D12" t="n">
-        <v>1.018785553325454</v>
+        <v>1.025402483781554</v>
       </c>
       <c r="E12" t="n">
-        <v>1.028136887338582</v>
+        <v>1.033050854950381</v>
       </c>
     </row>
     <row r="13">
@@ -661,13 +661,13 @@
         <v>0.9991988057989593</v>
       </c>
       <c r="C13" t="n">
-        <v>1.032004606442323</v>
+        <v>1.032971989906631</v>
       </c>
       <c r="D13" t="n">
-        <v>1.04032946675679</v>
+        <v>1.041242963099025</v>
       </c>
       <c r="E13" t="n">
-        <v>1.032971989906631</v>
+        <v>1.050962810903143</v>
       </c>
     </row>
     <row r="14">
@@ -678,13 +678,13 @@
         <v>1.002437317095797</v>
       </c>
       <c r="C14" t="n">
-        <v>1.029415684691994</v>
+        <v>1.038809294760566</v>
       </c>
       <c r="D14" t="n">
-        <v>1.03937873859691</v>
+        <v>1.055573139757012</v>
       </c>
       <c r="E14" t="n">
-        <v>1.038809294760566</v>
+        <v>1.062188799942684</v>
       </c>
     </row>
     <row r="15">
@@ -695,13 +695,13 @@
         <v>0.9869531849577897</v>
       </c>
       <c r="C15" t="n">
-        <v>1.037357112661768</v>
+        <v>1.033671360111548</v>
       </c>
       <c r="D15" t="n">
-        <v>1.046777572458948</v>
+        <v>1.055596756734415</v>
       </c>
       <c r="E15" t="n">
-        <v>1.033671360111548</v>
+        <v>1.054190439982768</v>
       </c>
     </row>
     <row r="16">
@@ -712,13 +712,13 @@
         <v>0.9984650805832693</v>
       </c>
       <c r="C16" t="n">
-        <v>1.032632420478631</v>
+        <v>1.03976535489839</v>
       </c>
       <c r="D16" t="n">
-        <v>1.043266346082272</v>
+        <v>1.055162817677486</v>
       </c>
       <c r="E16" t="n">
-        <v>1.03976535489839</v>
+        <v>1.054431172098555</v>
       </c>
     </row>
     <row r="17">
@@ -729,13 +729,13 @@
         <v>1.008054110126251</v>
       </c>
       <c r="C17" t="n">
-        <v>1.024020238841175</v>
+        <v>1.047608744570381</v>
       </c>
       <c r="D17" t="n">
-        <v>1.037634147559973</v>
+        <v>1.062754880068181</v>
       </c>
       <c r="E17" t="n">
-        <v>1.047608744570381</v>
+        <v>1.060812495544684</v>
       </c>
     </row>
     <row r="18">
@@ -746,13 +746,13 @@
         <v>0.9983385762357366</v>
       </c>
       <c r="C18" t="n">
-        <v>1.024766888250085</v>
+        <v>1.047213886692721</v>
       </c>
       <c r="D18" t="n">
-        <v>1.039397385146794</v>
+        <v>1.061871273922664</v>
       </c>
       <c r="E18" t="n">
-        <v>1.047213886692721</v>
+        <v>1.060888559019548</v>
       </c>
     </row>
     <row r="19">
@@ -763,13 +763,13 @@
         <v>0.9654980476162364</v>
       </c>
       <c r="C19" t="n">
-        <v>1.021940102581033</v>
+        <v>1.028732082273647</v>
       </c>
       <c r="D19" t="n">
-        <v>1.037993316774656</v>
+        <v>1.055993415301693</v>
       </c>
       <c r="E19" t="n">
-        <v>1.028732082273647</v>
+        <v>1.049036767134824</v>
       </c>
     </row>
     <row r="20">
@@ -780,13 +780,13 @@
         <v>0.982339993084429</v>
       </c>
       <c r="C20" t="n">
-        <v>1.024016041132623</v>
+        <v>1.044856630400489</v>
       </c>
       <c r="D20" t="n">
-        <v>1.039486042638547</v>
+        <v>1.060709471662937</v>
       </c>
       <c r="E20" t="n">
-        <v>1.044856630400489</v>
+        <v>1.059872082295822</v>
       </c>
     </row>
     <row r="21">
@@ -797,13 +797,13 @@
         <v>0.9731136093377075</v>
       </c>
       <c r="C21" t="n">
-        <v>1.00425662054343</v>
+        <v>1.038285704167308</v>
       </c>
       <c r="D21" t="n">
-        <v>1.023508208960002</v>
+        <v>1.058555116899454</v>
       </c>
       <c r="E21" t="n">
-        <v>1.038285704167308</v>
+        <v>1.052753543318191</v>
       </c>
     </row>
     <row r="22">
@@ -814,13 +814,13 @@
         <v>0.974319617450853</v>
       </c>
       <c r="C22" t="n">
-        <v>1.000692351947589</v>
+        <v>1.026167767938859</v>
       </c>
       <c r="D22" t="n">
-        <v>1.022493506944987</v>
+        <v>1.054218228595451</v>
       </c>
       <c r="E22" t="n">
-        <v>1.026167767938859</v>
+        <v>1.045202879232274</v>
       </c>
     </row>
     <row r="23">
@@ -831,13 +831,13 @@
         <v>0.9594174053114959</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9997673528930172</v>
+        <v>1.012138616182762</v>
       </c>
       <c r="D23" t="n">
-        <v>1.021090420121367</v>
+        <v>1.048904420142843</v>
       </c>
       <c r="E23" t="n">
-        <v>1.012138616182762</v>
+        <v>1.036241792496933</v>
       </c>
     </row>
     <row r="24">
@@ -848,13 +848,13 @@
         <v>0.9667377902220573</v>
       </c>
       <c r="C24" t="n">
-        <v>1.002397785038011</v>
+        <v>1.02480482969993</v>
       </c>
       <c r="D24" t="n">
-        <v>1.016193367417523</v>
+        <v>1.035997870066381</v>
       </c>
       <c r="E24" t="n">
-        <v>1.02480482969993</v>
+        <v>1.036496022201685</v>
       </c>
     </row>
     <row r="25">
@@ -865,13 +865,13 @@
         <v>0.9745641925227497</v>
       </c>
       <c r="C25" t="n">
-        <v>1.01406220489704</v>
+        <v>1.030586815676078</v>
       </c>
       <c r="D25" t="n">
-        <v>1.024145109791184</v>
+        <v>1.033289203789231</v>
       </c>
       <c r="E25" t="n">
-        <v>1.030586815676078</v>
+        <v>1.038956327737978</v>
       </c>
     </row>
     <row r="26">
@@ -882,13 +882,13 @@
         <v>0.9785364290352778</v>
       </c>
       <c r="C26" t="n">
-        <v>1.004791328980507</v>
+        <v>1.035455135420742</v>
       </c>
       <c r="D26" t="n">
-        <v>1.016889646963354</v>
+        <v>1.03419766605084</v>
       </c>
       <c r="E26" t="n">
-        <v>1.035455135420742</v>
+        <v>1.046347015144257</v>
       </c>
     </row>
     <row r="27">
@@ -899,13 +899,13 @@
         <v>0.9714690528197819</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9932293515482229</v>
+        <v>1.021583797565995</v>
       </c>
       <c r="D27" t="n">
-        <v>1.007658226228672</v>
+        <v>1.028113653473067</v>
       </c>
       <c r="E27" t="n">
-        <v>1.021583797565995</v>
+        <v>1.037287602581086</v>
       </c>
     </row>
     <row r="28">
@@ -916,13 +916,13 @@
         <v>0.9594933079200155</v>
       </c>
       <c r="C28" t="n">
-        <v>0.979141154197932</v>
+        <v>1.004433135956095</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9982220367552828</v>
+        <v>1.02539317160601</v>
       </c>
       <c r="E28" t="n">
-        <v>1.004433135956095</v>
+        <v>1.028071718074842</v>
       </c>
     </row>
     <row r="29">
@@ -933,13 +933,13 @@
         <v>0.949372960117396</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9756211070801566</v>
+        <v>0.9876519992798206</v>
       </c>
       <c r="D29" t="n">
-        <v>1.001415119243167</v>
+        <v>1.028192688339654</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9876519992798206</v>
+        <v>1.01832302857507</v>
       </c>
     </row>
     <row r="30">
@@ -950,13 +950,13 @@
         <v>0.9729955386133436</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9915692630421056</v>
+        <v>1.008952998470588</v>
       </c>
       <c r="D30" t="n">
-        <v>1.016445789751353</v>
+        <v>1.047257597106448</v>
       </c>
       <c r="E30" t="n">
-        <v>1.008952998470588</v>
+        <v>1.035272216261082</v>
       </c>
     </row>
     <row r="31">
@@ -967,13 +967,13 @@
         <v>0.9839845496023547</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9991218525228455</v>
+        <v>1.02233564315498</v>
       </c>
       <c r="D31" t="n">
-        <v>1.022251069321225</v>
+        <v>1.058760679688454</v>
       </c>
       <c r="E31" t="n">
-        <v>1.02233564315498</v>
+        <v>1.050586964085556</v>
       </c>
     </row>
     <row r="32">
@@ -984,13 +984,13 @@
         <v>0.9754497229554789</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9945401259035798</v>
+        <v>1.020855604674755</v>
       </c>
       <c r="D32" t="n">
-        <v>1.018680575573689</v>
+        <v>1.054605717927628</v>
       </c>
       <c r="E32" t="n">
-        <v>1.020855604674755</v>
+        <v>1.040931523837267</v>
       </c>
     </row>
     <row r="33">
@@ -1001,13 +1001,13 @@
         <v>0.9646462516761826</v>
       </c>
       <c r="C33" t="n">
-        <v>1.004864637945722</v>
+        <v>1.017352161914736</v>
       </c>
       <c r="D33" t="n">
-        <v>1.028826650185312</v>
+        <v>1.055076380073769</v>
       </c>
       <c r="E33" t="n">
-        <v>1.017352161914736</v>
+        <v>1.03752499089075</v>
       </c>
     </row>
     <row r="34">
@@ -1018,13 +1018,13 @@
         <v>0.972472653976875</v>
       </c>
       <c r="C34" t="n">
-        <v>1.018430515333385</v>
+        <v>1.029190918759963</v>
       </c>
       <c r="D34" t="n">
-        <v>1.039135438058785</v>
+        <v>1.062918826257723</v>
       </c>
       <c r="E34" t="n">
-        <v>1.029190918759963</v>
+        <v>1.049230159369787</v>
       </c>
     </row>
     <row r="35">
@@ -1035,13 +1035,13 @@
         <v>0.9696726910848169</v>
       </c>
       <c r="C35" t="n">
-        <v>1.017326372612758</v>
+        <v>1.033765841652814</v>
       </c>
       <c r="D35" t="n">
-        <v>1.037456798554754</v>
+        <v>1.056065700664689</v>
       </c>
       <c r="E35" t="n">
-        <v>1.033765841652814</v>
+        <v>1.044899987910238</v>
       </c>
     </row>
     <row r="36">
@@ -1052,13 +1052,13 @@
         <v>0.9826689043880141</v>
       </c>
       <c r="C36" t="n">
-        <v>1.019402152360269</v>
+        <v>1.039293722690343</v>
       </c>
       <c r="D36" t="n">
-        <v>1.038822383729922</v>
+        <v>1.059832381148448</v>
       </c>
       <c r="E36" t="n">
-        <v>1.039293722690343</v>
+        <v>1.04384388948598</v>
       </c>
     </row>
     <row r="37">
@@ -1069,13 +1069,13 @@
         <v>0.9663751444257968</v>
       </c>
       <c r="C37" t="n">
-        <v>1.010356728996257</v>
+        <v>1.023338233190008</v>
       </c>
       <c r="D37" t="n">
-        <v>1.032482396381316</v>
+        <v>1.047663091454626</v>
       </c>
       <c r="E37" t="n">
-        <v>1.023338233190008</v>
+        <v>1.0261511500106</v>
       </c>
     </row>
     <row r="38">
@@ -1086,13 +1086,13 @@
         <v>0.9587427154579879</v>
       </c>
       <c r="C38" t="n">
-        <v>1.011681026409991</v>
+        <v>1.029336324688725</v>
       </c>
       <c r="D38" t="n">
-        <v>1.033428076293347</v>
+        <v>1.048857486877246</v>
       </c>
       <c r="E38" t="n">
-        <v>1.029336324688725</v>
+        <v>1.028534796648664</v>
       </c>
     </row>
     <row r="39">
@@ -1103,13 +1103,13 @@
         <v>0.8915857741644387</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9751597306272977</v>
+        <v>0.9855713373765229</v>
       </c>
       <c r="D39" t="n">
-        <v>1.004245474817214</v>
+        <v>1.027627927688479</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9855713373765229</v>
+        <v>0.9903581935200643</v>
       </c>
     </row>
     <row r="40">
@@ -1120,13 +1120,13 @@
         <v>0.8685282484208041</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9827386850340973</v>
+        <v>0.9681575233479915</v>
       </c>
       <c r="D40" t="n">
-        <v>1.010334753068263</v>
+        <v>1.03453283929364</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9681575233479915</v>
+        <v>0.9920160324200659</v>
       </c>
     </row>
     <row r="41">
@@ -1137,13 +1137,13 @@
         <v>0.8785473927453974</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9731442706509295</v>
+        <v>0.9765533262995639</v>
       </c>
       <c r="D41" t="n">
-        <v>1.001718738732379</v>
+        <v>1.025301490489289</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9765533262995639</v>
+        <v>0.9883861144661779</v>
       </c>
     </row>
     <row r="42">
@@ -1154,13 +1154,13 @@
         <v>0.8992350703785853</v>
       </c>
       <c r="C42" t="n">
-        <v>1.008475680298951</v>
+        <v>1.017016629656011</v>
       </c>
       <c r="D42" t="n">
-        <v>1.043977561381124</v>
+        <v>1.068905997287085</v>
       </c>
       <c r="E42" t="n">
-        <v>1.017016629656011</v>
+        <v>1.016795300133825</v>
       </c>
     </row>
     <row r="43">
@@ -1171,13 +1171,13 @@
         <v>0.890059288370877</v>
       </c>
       <c r="C43" t="n">
-        <v>1.008027009928698</v>
+        <v>1.015907667105987</v>
       </c>
       <c r="D43" t="n">
-        <v>1.041316234736053</v>
+        <v>1.063332256453072</v>
       </c>
       <c r="E43" t="n">
-        <v>1.015907667105987</v>
+        <v>1.017439808693939</v>
       </c>
     </row>
     <row r="44">
@@ -1188,13 +1188,13 @@
         <v>0.9042868106567262</v>
       </c>
       <c r="C44" t="n">
-        <v>1.040430065845138</v>
+        <v>1.058182017461378</v>
       </c>
       <c r="D44" t="n">
-        <v>1.065813953516116</v>
+        <v>1.079231032906629</v>
       </c>
       <c r="E44" t="n">
-        <v>1.058182017461378</v>
+        <v>1.042925785414009</v>
       </c>
     </row>
     <row r="45">
@@ -1205,13 +1205,13 @@
         <v>0.862194597420998</v>
       </c>
       <c r="C45" t="n">
-        <v>1.009202408702832</v>
+        <v>1.021759835677083</v>
       </c>
       <c r="D45" t="n">
-        <v>1.040164184192831</v>
+        <v>1.055267029823533</v>
       </c>
       <c r="E45" t="n">
-        <v>1.021759835677083</v>
+        <v>1.011451406099164</v>
       </c>
     </row>
     <row r="46">
@@ -1222,13 +1222,13 @@
         <v>0.8264697696777512</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9934684858995754</v>
+        <v>0.985774130178503</v>
       </c>
       <c r="D46" t="n">
-        <v>1.009128691950711</v>
+        <v>1.008652707784634</v>
       </c>
       <c r="E46" t="n">
-        <v>0.985774130178503</v>
+        <v>0.9806334967575701</v>
       </c>
     </row>
     <row r="47">
@@ -1239,13 +1239,13 @@
         <v>0.7258566452733759</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9605928111174442</v>
+        <v>0.9070971147456992</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9862662411760987</v>
+        <v>1.003738028798016</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9070971147456992</v>
+        <v>0.9475306191578738</v>
       </c>
     </row>
     <row r="48">
@@ -1256,13 +1256,13 @@
         <v>0.7776981268922942</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9728948352335279</v>
+        <v>0.9417440517019537</v>
       </c>
       <c r="D48" t="n">
-        <v>1.002426374902817</v>
+        <v>1.036959439042898</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9417440517019537</v>
+        <v>0.9791514535336594</v>
       </c>
     </row>
     <row r="49">
@@ -1273,13 +1273,13 @@
         <v>0.7183001189140866</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9449038578382656</v>
+        <v>0.8910413274669473</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9810201371825288</v>
+        <v>1.027949020518896</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8910413274669473</v>
+        <v>0.9581549064384555</v>
       </c>
     </row>
     <row r="50">
@@ -1290,13 +1290,13 @@
         <v>0.6121376704646083</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8909566832458896</v>
+        <v>0.7877505134121782</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9379714138607932</v>
+        <v>0.9965149629459918</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7877505134121782</v>
+        <v>0.897707062116893</v>
       </c>
     </row>
     <row r="51">
@@ -1307,13 +1307,13 @@
         <v>0.6972750963541448</v>
       </c>
       <c r="C51" t="n">
-        <v>0.92107231303214</v>
+        <v>0.8585604864752453</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9687012389042216</v>
+        <v>1.026583269578966</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8585604864752453</v>
+        <v>0.9272087489377588</v>
       </c>
     </row>
     <row r="52">
@@ -1324,13 +1324,13 @@
         <v>0.6002040936806862</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8783693516770636</v>
+        <v>0.7798218189286465</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9355532419465049</v>
+        <v>0.9920850485384018</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7798218189286465</v>
+        <v>0.8707782292654512</v>
       </c>
     </row>
     <row r="53">
@@ -1341,13 +1341,13 @@
         <v>0.6292916599900483</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8770730415996171</v>
+        <v>0.8035047611071064</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9388364506037354</v>
+        <v>1.016809044498982</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8035047611071064</v>
+        <v>0.9010640799295616</v>
       </c>
     </row>
     <row r="54">
@@ -1358,13 +1358,13 @@
         <v>0.564167221880192</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8502603099742152</v>
+        <v>0.7253391867944016</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9211770400659709</v>
+        <v>0.997028572287985</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7253391867944016</v>
+        <v>0.8638494388158237</v>
       </c>
     </row>
     <row r="55">
@@ -1375,13 +1375,13 @@
         <v>0.5762863383738288</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8438873054984732</v>
+        <v>0.7230042907027707</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9149781602030427</v>
+        <v>0.9903212167354819</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7230042907027707</v>
+        <v>0.8497987945787969</v>
       </c>
     </row>
     <row r="56">
@@ -1392,13 +1392,13 @@
         <v>0.5656346723115718</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8538033526993322</v>
+        <v>0.70842233791795</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9234290377823099</v>
+        <v>0.9940428016777962</v>
       </c>
       <c r="E56" t="n">
-        <v>0.70842233791795</v>
+        <v>0.8592804148146207</v>
       </c>
     </row>
     <row r="57">
@@ -1409,13 +1409,13 @@
         <v>0.5361254248437671</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8269382432630349</v>
+        <v>0.6679838505066783</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8976248752734169</v>
+        <v>0.9559627286256299</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6679838505066783</v>
+        <v>0.8039414007651852</v>
       </c>
     </row>
     <row r="58">
@@ -1426,13 +1426,13 @@
         <v>0.5880681099407117</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8340432968938253</v>
+        <v>0.6893782972409969</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9069426413488741</v>
+        <v>0.9763340016822465</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6893782972409969</v>
+        <v>0.830141112827146</v>
       </c>
     </row>
     <row r="59">
@@ -1443,13 +1443,13 @@
         <v>0.6321506582442883</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8735605500314236</v>
+        <v>0.7094118737318179</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9376269018187394</v>
+        <v>0.9783051765966445</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7094118737318179</v>
+        <v>0.8322034858401475</v>
       </c>
     </row>
     <row r="60">
@@ -1460,13 +1460,13 @@
         <v>0.6553768564513001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9081567688758907</v>
+        <v>0.7616195816419392</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9663929884942852</v>
+        <v>0.9995438743390883</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7616195816419392</v>
+        <v>0.8733336812333777</v>
       </c>
     </row>
     <row r="61">
@@ -1477,13 +1477,13 @@
         <v>0.619272515665455</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9089458585485594</v>
+        <v>0.7354794731419739</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9682919800071976</v>
+        <v>0.9917907276769508</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7354794731419739</v>
+        <v>0.8637033302580925</v>
       </c>
     </row>
     <row r="62">
@@ -1494,13 +1494,13 @@
         <v>0.6294856333229318</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8679592779803331</v>
+        <v>0.7491587459210406</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9350684780427685</v>
+        <v>0.9873744196596587</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7491587459210406</v>
+        <v>0.8527706529298094</v>
       </c>
     </row>
     <row r="63">
@@ -1511,13 +1511,13 @@
         <v>0.6158231637893956</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8762192641654851</v>
+        <v>0.7451348145609109</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9424337097190814</v>
+        <v>0.9933408581805022</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7451348145609109</v>
+        <v>0.8539742053202156</v>
       </c>
     </row>
     <row r="64">
@@ -1528,13 +1528,13 @@
         <v>0.5985089354237474</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8541458937795898</v>
+        <v>0.7210122941035892</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9217723239469238</v>
+        <v>0.9781383498048044</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7210122941035892</v>
+        <v>0.8353096637197766</v>
       </c>
     </row>
     <row r="65">
@@ -1545,13 +1545,13 @@
         <v>0.609354574818888</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8831022230847831</v>
+        <v>0.7263309198534154</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9482852641210092</v>
+        <v>1.002992064608265</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7263309198534154</v>
+        <v>0.8566885304033257</v>
       </c>
     </row>
     <row r="66">
@@ -1562,13 +1562,13 @@
         <v>0.5864572879154614</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8806778218548956</v>
+        <v>0.716232122664183</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9436819089376502</v>
+        <v>1.001073934600363</v>
       </c>
       <c r="E66" t="n">
-        <v>0.716232122664183</v>
+        <v>0.8562958991314236</v>
       </c>
     </row>
     <row r="67">
@@ -1579,13 +1579,13 @@
         <v>0.6247037689861942</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8893647876050295</v>
+        <v>0.7369658448582073</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9519539955654508</v>
+        <v>1.01533725879373</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7369658448582073</v>
+        <v>0.8746391357334994</v>
       </c>
     </row>
     <row r="68">
@@ -1596,13 +1596,13 @@
         <v>0.6439745979270154</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8828610128027199</v>
+        <v>0.7470288398765356</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9477723147743164</v>
+        <v>1.014922084651801</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7470288398765356</v>
+        <v>0.8779611160494066</v>
       </c>
     </row>
     <row r="69">
@@ -1613,13 +1613,13 @@
         <v>0.6630936216507974</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8691414038505891</v>
+        <v>0.7603727096465912</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9367091287692728</v>
+        <v>1.013857897304431</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7603727096465912</v>
+        <v>0.8754615792188006</v>
       </c>
     </row>
     <row r="70">
@@ -1630,13 +1630,13 @@
         <v>0.6551407150025722</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8846053465564159</v>
+        <v>0.7698419314767129</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9492522153360065</v>
+        <v>1.012873678809461</v>
       </c>
       <c r="E70" t="n">
-        <v>0.7698419314767129</v>
+        <v>0.8799087307072453</v>
       </c>
     </row>
     <row r="71">
@@ -1647,13 +1647,13 @@
         <v>0.6648731161394247</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8792716611911373</v>
+        <v>0.7745444238377316</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9448803942591655</v>
+        <v>1.014204443657185</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7745444238377316</v>
+        <v>0.8836961336593048</v>
       </c>
     </row>
     <row r="72">
@@ -1664,13 +1664,13 @@
         <v>0.6739982964081199</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9061287502069306</v>
+        <v>0.7995641958128004</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9615909016589523</v>
+        <v>1.014018830167784</v>
       </c>
       <c r="E72" t="n">
-        <v>0.7995641958128004</v>
+        <v>0.8950542008621989</v>
       </c>
     </row>
     <row r="73">
@@ -1681,13 +1681,13 @@
         <v>0.6648309480235804</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9180218330694954</v>
+        <v>0.8061926381689141</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9756744162871468</v>
+        <v>1.023253668976881</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8061926381689141</v>
+        <v>0.9008221732974616</v>
       </c>
     </row>
     <row r="74">
@@ -1698,13 +1698,13 @@
         <v>0.6562370860145227</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9100908534921597</v>
+        <v>0.7997043025032696</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9688349665500947</v>
+        <v>1.015480597221851</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7997043025032696</v>
+        <v>0.8932885578785459</v>
       </c>
     </row>
     <row r="75">
@@ -1715,13 +1715,13 @@
         <v>0.6661718941074275</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8946024515092169</v>
+        <v>0.7999714616630483</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9575335695668548</v>
+        <v>1.011672847297455</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7999714616630483</v>
+        <v>0.8864207938528054</v>
       </c>
     </row>
     <row r="76">
@@ -1732,13 +1732,13 @@
         <v>0.666028522513557</v>
       </c>
       <c r="C76" t="n">
-        <v>0.887208426517812</v>
+        <v>0.80599320585951</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9511393558048693</v>
+        <v>1.011671294429485</v>
       </c>
       <c r="E76" t="n">
-        <v>0.80599320585951</v>
+        <v>0.887202048634443</v>
       </c>
     </row>
     <row r="77">
@@ -1749,13 +1749,13 @@
         <v>0.6804837526249652</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9003544263695921</v>
+        <v>0.8153247767437369</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9610410637174065</v>
+        <v>1.026428222451698</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8153247767437369</v>
+        <v>0.9063106524542043</v>
       </c>
     </row>
     <row r="78">
@@ -1766,13 +1766,13 @@
         <v>0.6719320587317518</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8923200515410401</v>
+        <v>0.8046279411257211</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9547184482090398</v>
+        <v>1.031188972537819</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8046279411257211</v>
+        <v>0.9054088971048759</v>
       </c>
     </row>
     <row r="79">
@@ -1783,13 +1783,13 @@
         <v>0.6353132669326069</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8731507918021335</v>
+        <v>0.7562773031943679</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9401352699340829</v>
+        <v>1.015523059460801</v>
       </c>
       <c r="E79" t="n">
-        <v>0.7562773031943679</v>
+        <v>0.8727222706192241</v>
       </c>
     </row>
     <row r="80">
@@ -1800,13 +1800,13 @@
         <v>0.6598382431076215</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8814547048125717</v>
+        <v>0.7815934447646822</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9462333140783692</v>
+        <v>1.032587950508186</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7815934447646822</v>
+        <v>0.9015232611895094</v>
       </c>
     </row>
     <row r="81">
@@ -1817,13 +1817,13 @@
         <v>0.6857547671054962</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8997204974980987</v>
+        <v>0.8045997646879699</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9610407365345672</v>
+        <v>1.035692476908129</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8045997646879699</v>
+        <v>0.908131629014028</v>
       </c>
     </row>
     <row r="82">
@@ -1834,13 +1834,13 @@
         <v>0.7014328725763875</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8972864304184764</v>
+        <v>0.8071726095039125</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9591240459985758</v>
+        <v>1.026779132943908</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8071726095039125</v>
+        <v>0.9032853572676589</v>
       </c>
     </row>
     <row r="83">
@@ -1851,13 +1851,13 @@
         <v>0.6789572668314034</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8977159623264052</v>
+        <v>0.7927549331061641</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9594548066408847</v>
+        <v>1.022676368856749</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7927549331061641</v>
+        <v>0.8923043686194533</v>
       </c>
     </row>
     <row r="84">
@@ -1868,13 +1868,13 @@
         <v>0.6652104610661786</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8762388905177338</v>
+        <v>0.7800918215821432</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9425353524592713</v>
+        <v>1.02128027148806</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7800918215821432</v>
+        <v>0.888274115558338</v>
       </c>
     </row>
     <row r="85">
@@ -1885,13 +1885,13 @@
         <v>0.6702284668516442</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8871669390785246</v>
+        <v>0.791011871457023</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9517664460111136</v>
+        <v>1.025534615667707</v>
       </c>
       <c r="E85" t="n">
-        <v>0.791011871457023</v>
+        <v>0.8916496752135089</v>
       </c>
     </row>
     <row r="86">
@@ -1902,13 +1902,13 @@
         <v>0.6667959822219224</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8862723323767977</v>
+        <v>0.7802007790914288</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9512786674301141</v>
+        <v>1.023803608417079</v>
       </c>
       <c r="E86" t="n">
-        <v>0.7802007790914288</v>
+        <v>0.8827474200503218</v>
       </c>
     </row>
     <row r="87">
@@ -1919,13 +1919,13 @@
         <v>0.6588262083273595</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8845185030551347</v>
+        <v>0.7497039212166121</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9500022268757742</v>
+        <v>1.014842999029222</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7497039212166121</v>
+        <v>0.8684815773382829</v>
       </c>
     </row>
     <row r="88">
@@ -1936,13 +1936,13 @@
         <v>0.6769078964013729</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8917843673877386</v>
+        <v>0.7730336239254663</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9552903377437538</v>
+        <v>1.017834422161159</v>
       </c>
       <c r="E88" t="n">
-        <v>0.7730336239254663</v>
+        <v>0.8730842890424134</v>
       </c>
     </row>
     <row r="89">
@@ -1953,13 +1953,13 @@
         <v>0.6668044158450912</v>
       </c>
       <c r="C89" t="n">
-        <v>0.880694044518985</v>
+        <v>0.7647313977671595</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9462711502000272</v>
+        <v>1.008739712286821</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7647313977671595</v>
+        <v>0.8624966500422604</v>
       </c>
     </row>
     <row r="90">
@@ -1970,13 +1970,13 @@
         <v>0.6567431034046537</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8756668694581697</v>
+        <v>0.7530229246341037</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9426452812539907</v>
+        <v>1.006022410015297</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7530229246341037</v>
+        <v>0.8561206249665801</v>
       </c>
     </row>
     <row r="91">
@@ -1987,13 +1987,13 @@
         <v>0.6558997410877687</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8832553194329366</v>
+        <v>0.7433491005059997</v>
       </c>
       <c r="D91" t="n">
-        <v>0.948531099497689</v>
+        <v>1.008558819710287</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7433491005059997</v>
+        <v>0.8564893379686755</v>
       </c>
     </row>
     <row r="92">
@@ -2004,13 +2004,13 @@
         <v>0.6663490001939734</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8837207118348921</v>
+        <v>0.7672145432812703</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9489423988138248</v>
+        <v>1.016541866807188</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7672145432812703</v>
+        <v>0.8731729715811609</v>
       </c>
     </row>
     <row r="93">
@@ -2021,13 +2021,13 @@
         <v>0.6540865121064661</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8840788403629244</v>
+        <v>0.7633338206047567</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9493663634859253</v>
+        <v>1.015532289274533</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7633338206047567</v>
+        <v>0.8722412254563433</v>
       </c>
     </row>
     <row r="94">
@@ -2038,13 +2038,13 @@
         <v>0.684759599571572</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8977875245103802</v>
+        <v>0.790878098002562</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9594887432998158</v>
+        <v>1.030550729585639</v>
       </c>
       <c r="E94" t="n">
-        <v>0.790878098002562</v>
+        <v>0.8957662354821955</v>
       </c>
     </row>
     <row r="95">
@@ -2055,13 +2055,13 @@
         <v>0.680947601899252</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8894218624920915</v>
+        <v>0.7788249158810545</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9534075838666933</v>
+        <v>1.031632462137281</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7788249158810545</v>
+        <v>0.894226849539289</v>
       </c>
     </row>
     <row r="96">
@@ -2072,13 +2072,13 @@
         <v>0.6858138024676781</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8853412299647294</v>
+        <v>0.7736772875034525</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9502017874203974</v>
+        <v>1.030816822451735</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7736772875034525</v>
+        <v>0.8953917303040884</v>
       </c>
     </row>
     <row r="97">
@@ -2089,13 +2089,13 @@
         <v>0.7002184308400732</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9002312459620483</v>
+        <v>0.7950891829492225</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9613291145171796</v>
+        <v>1.045419066148218</v>
       </c>
       <c r="E97" t="n">
-        <v>0.7950891829492225</v>
+        <v>0.9189399903889645</v>
       </c>
     </row>
     <row r="98">
@@ -2106,13 +2106,13 @@
         <v>0.6930161166538756</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9046438008954616</v>
+        <v>0.8023510781558806</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9648020176431216</v>
+        <v>1.04570918286187</v>
       </c>
       <c r="E98" t="n">
-        <v>0.8023510781558806</v>
+        <v>0.9181243215343152</v>
       </c>
     </row>
     <row r="99">
@@ -2123,13 +2123,13 @@
         <v>0.7224494615131607</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9152029549276237</v>
+        <v>0.8372090798958403</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9727954810204329</v>
+        <v>1.055638336997987</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8372090798958403</v>
+        <v>0.9346512941724201</v>
       </c>
     </row>
     <row r="100">
@@ -2140,13 +2140,13 @@
         <v>0.7208133386184038</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9208227302247238</v>
+        <v>0.8393796996003987</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9771759080442756</v>
+        <v>1.052366658707943</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8393796996003987</v>
+        <v>0.9359518098335404</v>
       </c>
     </row>
     <row r="101">
@@ -2157,13 +2157,13 @@
         <v>0.7417034232076443</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9454145832832124</v>
+        <v>0.8617747976240282</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9970337248096997</v>
+        <v>1.055683734059474</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8617747976240282</v>
+        <v>0.9532585112767461</v>
       </c>
     </row>
     <row r="102">
@@ -2174,13 +2174,13 @@
         <v>0.7332951009083012</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9590166387730596</v>
+        <v>0.8604768719914705</v>
       </c>
       <c r="D102" t="n">
-        <v>1.007677332734445</v>
+        <v>1.05651225949286</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8604768719914705</v>
+        <v>0.9489562199112128</v>
       </c>
     </row>
     <row r="103">
@@ -2191,13 +2191,13 @@
         <v>0.7371239658269589</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9588381303233188</v>
+        <v>0.8578339738302933</v>
       </c>
       <c r="D103" t="n">
-        <v>1.007910342808924</v>
+        <v>1.060963117075268</v>
       </c>
       <c r="E103" t="n">
-        <v>0.8578339738302933</v>
+        <v>0.9554049727837645</v>
       </c>
     </row>
     <row r="104">
@@ -2208,13 +2208,13 @@
         <v>0.7473876852234489</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9606990647148264</v>
+        <v>0.8615667055837557</v>
       </c>
       <c r="D104" t="n">
-        <v>1.009046977318577</v>
+        <v>1.065455886324147</v>
       </c>
       <c r="E104" t="n">
-        <v>0.8615667055837557</v>
+        <v>0.9641321522468052</v>
       </c>
     </row>
     <row r="105">
@@ -2225,13 +2225,13 @@
         <v>0.7678476550310779</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9704351742292368</v>
+        <v>0.8714310437909665</v>
       </c>
       <c r="D105" t="n">
-        <v>1.01658659877382</v>
+        <v>1.066050925369648</v>
       </c>
       <c r="E105" t="n">
-        <v>0.8714310437909665</v>
+        <v>0.9682171623592757</v>
       </c>
     </row>
     <row r="106">
@@ -2242,13 +2242,13 @@
         <v>0.7843438219493477</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9472050671192955</v>
+        <v>0.8766893099241421</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9990264074814792</v>
+        <v>1.061441238717579</v>
       </c>
       <c r="E106" t="n">
-        <v>0.8766893099241421</v>
+        <v>0.9645974078687697</v>
       </c>
     </row>
     <row r="107">
@@ -2259,13 +2259,13 @@
         <v>0.7913184283099862</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9457990767373045</v>
+        <v>0.8724792589751972</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9977416881629769</v>
+        <v>1.053170189342548</v>
       </c>
       <c r="E107" t="n">
-        <v>0.8724792589751972</v>
+        <v>0.9540717079376293</v>
       </c>
     </row>
     <row r="108">
@@ -2276,13 +2276,13 @@
         <v>0.7981327958304167</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9513831503444563</v>
+        <v>0.8773378849912775</v>
       </c>
       <c r="D108" t="n">
-        <v>1.002168717201716</v>
+        <v>1.064683005981542</v>
       </c>
       <c r="E108" t="n">
-        <v>0.8773378849912775</v>
+        <v>0.9705009984031774</v>
       </c>
     </row>
     <row r="109">
@@ -2293,13 +2293,13 @@
         <v>0.8235011343223162</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9491275917145749</v>
+        <v>0.9096569053404819</v>
       </c>
       <c r="D109" t="n">
-        <v>1.000019016591245</v>
+        <v>1.065864004870043</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9096569053404819</v>
+        <v>0.9800352571848909</v>
       </c>
     </row>
     <row r="110">
@@ -2310,13 +2310,13 @@
         <v>0.8159277407166893</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9561277864879996</v>
+        <v>0.9110796861972034</v>
       </c>
       <c r="D110" t="n">
-        <v>1.006035867696026</v>
+        <v>1.064644381834518</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9110796861972034</v>
+        <v>0.9777467602901601</v>
       </c>
     </row>
     <row r="111">
@@ -2327,13 +2327,13 @@
         <v>0.7985460433656904</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9573452964400465</v>
+        <v>0.8952665006324835</v>
       </c>
       <c r="D111" t="n">
-        <v>1.007375635030189</v>
+        <v>1.068103155227118</v>
       </c>
       <c r="E111" t="n">
-        <v>0.8952665006324835</v>
+        <v>0.9783404758714255</v>
       </c>
     </row>
     <row r="112">
@@ -2344,13 +2344,13 @@
         <v>0.7825980619533958</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9406290949166964</v>
+        <v>0.8829515878392045</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9943022272765234</v>
+        <v>1.058984871712871</v>
       </c>
       <c r="E112" t="n">
-        <v>0.8829515878392045</v>
+        <v>0.9637795267148438</v>
       </c>
     </row>
     <row r="113">
@@ -2361,13 +2361,13 @@
         <v>0.7790643738456479</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9384097143889992</v>
+        <v>0.8759714570100586</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9924873467173252</v>
+        <v>1.056720511143351</v>
       </c>
       <c r="E113" t="n">
-        <v>0.8759714570100586</v>
+        <v>0.9577324513502921</v>
       </c>
     </row>
     <row r="114">
@@ -2378,13 +2378,13 @@
         <v>0.7888052086056691</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9449293942472407</v>
+        <v>0.8766619089846777</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9990039873933914</v>
+        <v>1.058824531395048</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8766619089846777</v>
+        <v>0.9616873012008592</v>
       </c>
     </row>
     <row r="115">
@@ -2395,13 +2395,13 @@
         <v>0.8058073929140698</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9509068216601371</v>
+        <v>0.9058560589875017</v>
       </c>
       <c r="D115" t="n">
-        <v>1.003426957023167</v>
+        <v>1.069825382234127</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9058560589875017</v>
+        <v>0.9803261410449063</v>
       </c>
     </row>
     <row r="116">
@@ -2412,13 +2412,13 @@
         <v>0.8106820271056648</v>
       </c>
       <c r="C116" t="n">
-        <v>0.949689788120326</v>
+        <v>0.8977637343654699</v>
       </c>
       <c r="D116" t="n">
-        <v>1.002468611755171</v>
+        <v>1.067488149481557</v>
       </c>
       <c r="E116" t="n">
-        <v>0.8977637343654699</v>
+        <v>0.9729009842100473</v>
       </c>
     </row>
     <row r="117">
@@ -2429,13 +2429,13 @@
         <v>0.8144518566621406</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9525895652100609</v>
+        <v>0.9093843176926962</v>
       </c>
       <c r="D117" t="n">
-        <v>1.005050882984743</v>
+        <v>1.069391741042667</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9093843176926962</v>
+        <v>0.9743000458837014</v>
       </c>
     </row>
     <row r="118">
@@ -2446,13 +2446,13 @@
         <v>0.8040278984254425</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9522669795678982</v>
+        <v>0.9109774496730694</v>
       </c>
       <c r="D118" t="n">
-        <v>1.004453175609024</v>
+        <v>1.067928899508204</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9109774496730694</v>
+        <v>0.9787125587285463</v>
       </c>
     </row>
     <row r="119">
@@ -2463,13 +2463,13 @@
         <v>0.8094169836303374</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9536991760718703</v>
+        <v>0.9015759546933221</v>
       </c>
       <c r="D119" t="n">
-        <v>1.005894752919981</v>
+        <v>1.062473929475235</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9015759546933221</v>
+        <v>0.9699746205941376</v>
       </c>
     </row>
     <row r="120">
@@ -2480,13 +2480,13 @@
         <v>0.7959400538065158</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9476140083728146</v>
+        <v>0.8897675715309926</v>
       </c>
       <c r="D120" t="n">
-        <v>1.001103026580003</v>
+        <v>1.056445557424485</v>
       </c>
       <c r="E120" t="n">
-        <v>0.8897675715309926</v>
+        <v>0.9584975700151214</v>
       </c>
     </row>
     <row r="121">
@@ -2497,13 +2497,13 @@
         <v>0.8094844526156882</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9486517394424916</v>
+        <v>0.89903503455685</v>
       </c>
       <c r="D121" t="n">
-        <v>1.001658678478864</v>
+        <v>1.058085794874767</v>
       </c>
       <c r="E121" t="n">
-        <v>0.89903503455685</v>
+        <v>0.9608718395641871</v>
       </c>
     </row>
     <row r="122">
@@ -2514,13 +2514,13 @@
         <v>0.7913605964258305</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9461510904301513</v>
+        <v>0.8853973801858379</v>
       </c>
       <c r="D122" t="n">
-        <v>1.001102204977721</v>
+        <v>1.055923658155366</v>
       </c>
       <c r="E122" t="n">
-        <v>0.8853973801858379</v>
+        <v>0.9506454427918264</v>
       </c>
     </row>
     <row r="123">
@@ -2531,13 +2531,13 @@
         <v>0.8073929140698135</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9612356787372218</v>
+        <v>0.8994363549202328</v>
       </c>
       <c r="D123" t="n">
-        <v>1.014458622573678</v>
+        <v>1.069182345796576</v>
       </c>
       <c r="E123" t="n">
-        <v>0.8994363549202328</v>
+        <v>0.9640670692894021</v>
       </c>
     </row>
     <row r="124">
@@ -2548,13 +2548,13 @@
         <v>0.8016664839381646</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9639196576464812</v>
+        <v>0.9068100511298944</v>
       </c>
       <c r="D124" t="n">
-        <v>1.016049099005399</v>
+        <v>1.06608442594776</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9068100511298944</v>
+        <v>0.9623151954096736</v>
       </c>
     </row>
     <row r="125">
@@ -2565,13 +2565,13 @@
         <v>0.8113398497128351</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9733690420127556</v>
+        <v>0.9161983626387674</v>
       </c>
       <c r="D125" t="n">
-        <v>1.02307155175875</v>
+        <v>1.067619088035568</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9161983626387674</v>
+        <v>0.966887886669345</v>
       </c>
     </row>
     <row r="126">
@@ -2582,13 +2582,13 @@
         <v>0.8116097256542383</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9760275973427384</v>
+        <v>0.9143999821118396</v>
       </c>
       <c r="D126" t="n">
-        <v>1.027751218970369</v>
+        <v>1.070860889510533</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9143999821118396</v>
+        <v>0.9640171842120158</v>
       </c>
     </row>
     <row r="127">
@@ -2599,13 +2599,13 @@
         <v>0.8160795459337286</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9836776375212769</v>
+        <v>0.9254950361000915</v>
       </c>
       <c r="D127" t="n">
-        <v>1.033493011814181</v>
+        <v>1.070411075542638</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9254950361000915</v>
+        <v>0.9656437255384946</v>
       </c>
     </row>
     <row r="128">
@@ -2616,13 +2616,13 @@
         <v>0.8343973754564699</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9915264477181198</v>
+        <v>0.9304622318763143</v>
       </c>
       <c r="D128" t="n">
-        <v>1.039612000078594</v>
+        <v>1.072914104340385</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9304622318763143</v>
+        <v>0.9713036035335836</v>
       </c>
     </row>
     <row r="129">
@@ -2633,13 +2633,13 @@
         <v>0.8244794346099028</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9764574468588243</v>
+        <v>0.9239812634443938</v>
       </c>
       <c r="D129" t="n">
-        <v>1.028336260990123</v>
+        <v>1.071414594810755</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9239812634443938</v>
+        <v>0.9638414006230718</v>
       </c>
     </row>
     <row r="130">
@@ -2650,13 +2650,13 @@
         <v>0.8414225835561215</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9859785522131521</v>
+        <v>0.9305529651758617</v>
       </c>
       <c r="D130" t="n">
-        <v>1.035519791091128</v>
+        <v>1.075873043916673</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9305529651758617</v>
+        <v>0.9723097532498318</v>
       </c>
     </row>
     <row r="131">
@@ -2667,13 +2667,13 @@
         <v>0.8362780734231233</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9719111043213494</v>
+        <v>0.9308238725773594</v>
       </c>
       <c r="D131" t="n">
-        <v>1.024464883850247</v>
+        <v>1.073383195955492</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9308238725773594</v>
+        <v>0.9681733597669566</v>
       </c>
     </row>
     <row r="132">
@@ -2684,13 +2684,13 @@
         <v>0.8436321928263601</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9767435367906456</v>
+        <v>0.9312492333876311</v>
       </c>
       <c r="D132" t="n">
-        <v>1.028344866937125</v>
+        <v>1.07232036471565</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9312492333876311</v>
+        <v>0.9678721903135798</v>
       </c>
     </row>
     <row r="133">
@@ -2701,13 +2701,13 @@
         <v>0.8323733058959459</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9730570520894215</v>
+        <v>0.9260019534801843</v>
       </c>
       <c r="D133" t="n">
-        <v>1.025770714525479</v>
+        <v>1.071800511244441</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9260019534801843</v>
+        <v>0.9680597757761858</v>
       </c>
     </row>
     <row r="134">
@@ -2718,13 +2718,13 @@
         <v>0.8470731110792508</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9762784619968475</v>
+        <v>0.9271242287507977</v>
       </c>
       <c r="D134" t="n">
-        <v>1.028187848998435</v>
+        <v>1.070066554526274</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9271242287507977</v>
+        <v>0.9640734151073626</v>
       </c>
     </row>
     <row r="135">
@@ -2735,13 +2735,13 @@
         <v>0.8584669359803665</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9775665813083977</v>
+        <v>0.9412491545453053</v>
       </c>
       <c r="D135" t="n">
-        <v>1.028798708859194</v>
+        <v>1.069785536214834</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9412491545453053</v>
+        <v>0.9661723429313406</v>
       </c>
     </row>
     <row r="136">
@@ -2752,13 +2752,13 @@
         <v>0.8480261104973308</v>
       </c>
       <c r="C136" t="n">
-        <v>0.978461505618282</v>
+        <v>0.9380369113919536</v>
       </c>
       <c r="D136" t="n">
-        <v>1.029540768817638</v>
+        <v>1.066184008678316</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9380369113919536</v>
+        <v>0.9599155348482391</v>
       </c>
     </row>
     <row r="137">
@@ -2769,13 +2769,13 @@
         <v>0.8677186205965945</v>
       </c>
       <c r="C137" t="n">
-        <v>0.975025409158931</v>
+        <v>0.9611121214130457</v>
       </c>
       <c r="D137" t="n">
-        <v>1.027021824367889</v>
+        <v>1.068225201541095</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9611121214130457</v>
+        <v>0.9640553963180725</v>
       </c>
     </row>
     <row r="138">
@@ -2786,13 +2786,13 @@
         <v>0.8806895330302852</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9842856778789468</v>
+        <v>0.9710514244546404</v>
       </c>
       <c r="D138" t="n">
-        <v>1.033590762382012</v>
+        <v>1.068965056404473</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9710514244546404</v>
+        <v>0.9669362620234041</v>
       </c>
     </row>
     <row r="139">
@@ -2803,13 +2803,13 @@
         <v>0.8797112327426986</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9885195655585405</v>
+        <v>0.9654993737205085</v>
       </c>
       <c r="D139" t="n">
-        <v>1.03716953489371</v>
+        <v>1.068969761850173</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9654993737205085</v>
+        <v>0.9659898358538674</v>
       </c>
     </row>
     <row r="140">
@@ -2820,13 +2820,13 @@
         <v>0.8795425602793217</v>
       </c>
       <c r="C140" t="n">
-        <v>0.99681880444819</v>
+        <v>0.978102125627879</v>
       </c>
       <c r="D140" t="n">
-        <v>1.044738052050402</v>
+        <v>1.072521734597888</v>
       </c>
       <c r="E140" t="n">
-        <v>0.978102125627879</v>
+        <v>0.9754062212224136</v>
       </c>
     </row>
     <row r="141">
@@ -2837,13 +2837,13 @@
         <v>0.862700614811129</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9860756853027939</v>
+        <v>0.9715358523844182</v>
       </c>
       <c r="D141" t="n">
-        <v>1.035202022987623</v>
+        <v>1.066846850769184</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9715358523844182</v>
+        <v>0.967006135028586</v>
       </c>
     </row>
     <row r="142">
@@ -2854,13 +2854,13 @@
         <v>0.8634512072731566</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9938122398967677</v>
+        <v>0.9681146124427924</v>
       </c>
       <c r="D142" t="n">
-        <v>1.042549868242963</v>
+        <v>1.073243910408689</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9681146124427924</v>
+        <v>0.9706226485663991</v>
       </c>
     </row>
     <row r="143">
@@ -2871,13 +2871,13 @@
         <v>0.8811196478118964</v>
       </c>
       <c r="C143" t="n">
-        <v>1.007807807996438</v>
+        <v>0.9834263091154265</v>
       </c>
       <c r="D143" t="n">
-        <v>1.053316557447468</v>
+        <v>1.077654514042809</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9834263091154265</v>
+        <v>0.9806372697987986</v>
       </c>
     </row>
     <row r="144">
@@ -2888,13 +2888,13 @@
         <v>0.8780160744857598</v>
       </c>
       <c r="C144" t="n">
-        <v>1.002438897353447</v>
+        <v>0.9753010258162087</v>
       </c>
       <c r="D144" t="n">
-        <v>1.04937276045169</v>
+        <v>1.084414354027668</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9753010258162087</v>
+        <v>0.9882201348991037</v>
       </c>
     </row>
     <row r="145">
@@ -2905,13 +2905,13 @@
         <v>0.8906327747463588</v>
       </c>
       <c r="C145" t="n">
-        <v>1.001855463599284</v>
+        <v>0.977974297660283</v>
       </c>
       <c r="D145" t="n">
-        <v>1.050770806317829</v>
+        <v>1.086148753544676</v>
       </c>
       <c r="E145" t="n">
-        <v>0.977974297660283</v>
+        <v>0.9847202074208874</v>
       </c>
     </row>
     <row r="146">
@@ -2922,13 +2922,13 @@
         <v>0.8856063353377245</v>
       </c>
       <c r="C146" t="n">
-        <v>1.011448289941665</v>
+        <v>0.9840968566340195</v>
       </c>
       <c r="D146" t="n">
-        <v>1.058115413766487</v>
+        <v>1.090615814438261</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9840968566340195</v>
+        <v>0.9907366671329939</v>
       </c>
     </row>
     <row r="147">
@@ -2939,13 +2939,13 @@
         <v>0.8679210275526469</v>
       </c>
       <c r="C147" t="n">
-        <v>1.037399030475286</v>
+        <v>0.9890661204056735</v>
       </c>
       <c r="D147" t="n">
-        <v>1.077982323607988</v>
+        <v>1.087752581488345</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9890661204056735</v>
+        <v>0.9850701652227931</v>
       </c>
     </row>
     <row r="148">
@@ -2956,13 +2956,13 @@
         <v>0.8672294704528012</v>
       </c>
       <c r="C148" t="n">
-        <v>1.016473876961694</v>
+        <v>0.9799207983599761</v>
       </c>
       <c r="D148" t="n">
-        <v>1.060469875825298</v>
+        <v>1.080580134165648</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9799207983599761</v>
+        <v>0.9796244131872851</v>
       </c>
     </row>
     <row r="149">
@@ -2973,13 +2973,13 @@
         <v>0.853617602658278</v>
       </c>
       <c r="C149" t="n">
-        <v>1.017120012548181</v>
+        <v>0.9610482720541048</v>
       </c>
       <c r="D149" t="n">
-        <v>1.059817789380331</v>
+        <v>1.074682625897157</v>
       </c>
       <c r="E149" t="n">
-        <v>0.9610482720541048</v>
+        <v>0.9719525057857089</v>
       </c>
     </row>
     <row r="150">
@@ -2990,13 +2990,13 @@
         <v>0.8669933290040734</v>
       </c>
       <c r="C150" t="n">
-        <v>1.010692961940559</v>
+        <v>0.9612321943977745</v>
       </c>
       <c r="D150" t="n">
-        <v>1.051970648973149</v>
+        <v>1.065329237494435</v>
       </c>
       <c r="E150" t="n">
-        <v>0.9612321943977745</v>
+        <v>0.9640272806993575</v>
       </c>
     </row>
     <row r="151">
@@ -3007,13 +3007,13 @@
         <v>0.8781594460796303</v>
       </c>
       <c r="C151" t="n">
-        <v>1.028839590167639</v>
+        <v>0.9834310913548613</v>
       </c>
       <c r="D151" t="n">
-        <v>1.070307777119303</v>
+        <v>1.082463816316641</v>
       </c>
       <c r="E151" t="n">
-        <v>0.9834310913548613</v>
+        <v>0.9815523954346348</v>
       </c>
     </row>
     <row r="152">
@@ -3024,13 +3024,13 @@
         <v>0.8667740548016833</v>
       </c>
       <c r="C152" t="n">
-        <v>1.024860912177097</v>
+        <v>0.9716047424822226</v>
       </c>
       <c r="D152" t="n">
-        <v>1.068051225574559</v>
+        <v>1.082382273075692</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9716047424822226</v>
+        <v>0.9786700241719557</v>
       </c>
     </row>
     <row r="153">
@@ -3041,13 +3041,13 @@
         <v>0.8724077150784748</v>
       </c>
       <c r="C153" t="n">
-        <v>1.027377148637212</v>
+        <v>0.9674908533208323</v>
       </c>
       <c r="D153" t="n">
-        <v>1.070688377583189</v>
+        <v>1.08548179372768</v>
       </c>
       <c r="E153" t="n">
-        <v>0.9674908533208323</v>
+        <v>0.9790239801759347</v>
       </c>
     </row>
     <row r="154">
@@ -3058,13 +3058,13 @@
         <v>0.8616970136540359</v>
       </c>
       <c r="C154" t="n">
-        <v>1.021864478409956</v>
+        <v>0.9531477540083244</v>
       </c>
       <c r="D154" t="n">
-        <v>1.066168144514659</v>
+        <v>1.081622746566626</v>
       </c>
       <c r="E154" t="n">
-        <v>0.9531477540083244</v>
+        <v>0.9764510423488889</v>
       </c>
     </row>
     <row r="155">
@@ -3075,13 +3075,13 @@
         <v>0.8612247307565803</v>
       </c>
       <c r="C155" t="n">
-        <v>1.017461577848588</v>
+        <v>0.9415835235566006</v>
       </c>
       <c r="D155" t="n">
-        <v>1.062618922070089</v>
+        <v>1.075898490335186</v>
       </c>
       <c r="E155" t="n">
-        <v>0.9415835235566006</v>
+        <v>0.9662438158473439</v>
       </c>
     </row>
     <row r="156">
@@ -3092,13 +3092,13 @@
         <v>0.8472502171657966</v>
       </c>
       <c r="C156" t="n">
-        <v>1.017676264400514</v>
+        <v>0.9268151926835356</v>
       </c>
       <c r="D156" t="n">
-        <v>1.062720732046883</v>
+        <v>1.08368967147884</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9268151926835356</v>
+        <v>0.9687522072671424</v>
       </c>
     </row>
     <row r="157">
@@ -3109,13 +3109,13 @@
         <v>0.8547730090324104</v>
       </c>
       <c r="C157" t="n">
-        <v>1.020611584376118</v>
+        <v>0.9320613093435524</v>
       </c>
       <c r="D157" t="n">
-        <v>1.065129260572836</v>
+        <v>1.092070155509988</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9320613093435524</v>
+        <v>0.9802774636905819</v>
       </c>
     </row>
     <row r="158">
@@ -3126,13 +3126,13 @@
         <v>0.8399466995015729</v>
       </c>
       <c r="C158" t="n">
-        <v>1.014740944424909</v>
+        <v>0.9083633741982156</v>
       </c>
       <c r="D158" t="n">
-        <v>1.060312203520928</v>
+        <v>1.090084374570647</v>
       </c>
       <c r="E158" t="n">
-        <v>0.9083633741982156</v>
+        <v>0.9730341534535009</v>
       </c>
     </row>
     <row r="159">
@@ -3143,13 +3143,13 @@
         <v>0.8607777487286313</v>
       </c>
       <c r="C159" t="n">
-        <v>1.02441063081068</v>
+        <v>0.9288314882290346</v>
       </c>
       <c r="D159" t="n">
-        <v>1.069339182699742</v>
+        <v>1.091850452245891</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9288314882290346</v>
+        <v>0.9792841572687508</v>
       </c>
     </row>
     <row r="160">
@@ -3160,13 +3160,13 @@
         <v>0.8505646310711544</v>
       </c>
       <c r="C160" t="n">
-        <v>1.021715080402742</v>
+        <v>0.9204290935420252</v>
       </c>
       <c r="D160" t="n">
-        <v>1.068909682650717</v>
+        <v>1.098448556621758</v>
       </c>
       <c r="E160" t="n">
-        <v>0.9204290935420252</v>
+        <v>0.9853545261508281</v>
       </c>
     </row>
     <row r="161">
@@ -3177,13 +3177,13 @@
         <v>0.8557428756968282</v>
       </c>
       <c r="C161" t="n">
-        <v>1.019910109269746</v>
+        <v>0.9219993483229396</v>
       </c>
       <c r="D161" t="n">
-        <v>1.068336651621249</v>
+        <v>1.101684133981414</v>
       </c>
       <c r="E161" t="n">
-        <v>0.9219993483229396</v>
+        <v>0.9845909074358817</v>
       </c>
     </row>
     <row r="162">
@@ -3194,13 +3194,13 @@
         <v>0.8561898577247772</v>
       </c>
       <c r="C162" t="n">
-        <v>1.019460633401411</v>
+        <v>0.9336605160605048</v>
       </c>
       <c r="D162" t="n">
-        <v>1.067649966861305</v>
+        <v>1.095957755940621</v>
       </c>
       <c r="E162" t="n">
-        <v>0.9336605160605048</v>
+        <v>0.9850061787470971</v>
       </c>
     </row>
     <row r="163">
@@ -3211,13 +3211,13 @@
         <v>0.8627427829269733</v>
       </c>
       <c r="C163" t="n">
-        <v>1.02178180966185</v>
+        <v>0.9445487705056287</v>
       </c>
       <c r="D163" t="n">
-        <v>1.070286951633332</v>
+        <v>1.095970311342316</v>
       </c>
       <c r="E163" t="n">
-        <v>0.9445487705056287</v>
+        <v>0.9814870011934695</v>
       </c>
     </row>
     <row r="164">
@@ -3228,13 +3228,13 @@
         <v>0.8612247307565803</v>
       </c>
       <c r="C164" t="n">
-        <v>1.019337770602025</v>
+        <v>0.9540998074050006</v>
       </c>
       <c r="D164" t="n">
-        <v>1.068192299038523</v>
+        <v>1.097891301490996</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9540998074050006</v>
+        <v>0.9889803220841108</v>
       </c>
     </row>
     <row r="165">
@@ -3245,13 +3245,13 @@
         <v>0.8486501986118257</v>
       </c>
       <c r="C165" t="n">
-        <v>1.007131415905808</v>
+        <v>0.9388338651312835</v>
       </c>
       <c r="D165" t="n">
-        <v>1.058401166996017</v>
+        <v>1.095586033427101</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9388338651312835</v>
+        <v>0.9804654234645899</v>
       </c>
     </row>
     <row r="166">
@@ -3262,13 +3262,13 @@
         <v>0.8486248977423191</v>
       </c>
       <c r="C166" t="n">
-        <v>1.003240534241019</v>
+        <v>0.9355029707400618</v>
       </c>
       <c r="D166" t="n">
-        <v>1.05615744804384</v>
+        <v>1.095832616116178</v>
       </c>
       <c r="E166" t="n">
-        <v>0.9355029707400618</v>
+        <v>0.9794077784881603</v>
       </c>
     </row>
     <row r="167">
@@ -3279,13 +3279,13 @@
         <v>0.8614355713358016</v>
       </c>
       <c r="C167" t="n">
-        <v>1.009120669760195</v>
+        <v>0.9463347430599689</v>
       </c>
       <c r="D167" t="n">
-        <v>1.060771045088398</v>
+        <v>1.099248461095088</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9463347430599689</v>
+        <v>0.9864098726565742</v>
       </c>
     </row>
     <row r="168">
@@ -3296,13 +3296,13 @@
         <v>0.8380407006654129</v>
       </c>
       <c r="C168" t="n">
-        <v>1.008962264074939</v>
+        <v>0.9301663792799266</v>
       </c>
       <c r="D168" t="n">
-        <v>1.061487119969234</v>
+        <v>1.097968837249976</v>
       </c>
       <c r="E168" t="n">
-        <v>0.9301663792799266</v>
+        <v>0.9776187882565061</v>
       </c>
     </row>
     <row r="169">
@@ -3313,13 +3313,13 @@
         <v>0.8616464119150228</v>
       </c>
       <c r="C169" t="n">
-        <v>1.002805534191908</v>
+        <v>0.9433813870846706</v>
       </c>
       <c r="D169" t="n">
-        <v>1.056661456970325</v>
+        <v>1.10264653309695</v>
       </c>
       <c r="E169" t="n">
-        <v>0.9433813870846706</v>
+        <v>0.9864091055545119</v>
       </c>
     </row>
     <row r="170">
@@ -3330,13 +3330,13 @@
         <v>0.8594789707606285</v>
       </c>
       <c r="C170" t="n">
-        <v>1.007315539823121</v>
+        <v>0.9459080897525526</v>
       </c>
       <c r="D170" t="n">
-        <v>1.060070873370207</v>
+        <v>1.103838099766056</v>
       </c>
       <c r="E170" t="n">
-        <v>0.9459080897525526</v>
+        <v>0.9903546580732097</v>
       </c>
     </row>
     <row r="171">
@@ -3347,13 +3347,13 @@
         <v>0.8494429591896975</v>
       </c>
       <c r="C171" t="n">
-        <v>1.005086504923378</v>
+        <v>0.9361116076454308</v>
       </c>
       <c r="D171" t="n">
-        <v>1.058332312129636</v>
+        <v>1.099072258509727</v>
       </c>
       <c r="E171" t="n">
-        <v>0.9361116076454308</v>
+        <v>0.9867213917374491</v>
       </c>
     </row>
     <row r="172">
@@ -3364,13 +3364,13 @@
         <v>0.8538368768606681</v>
       </c>
       <c r="C172" t="n">
-        <v>1.002447564467955</v>
+        <v>0.9369041668944693</v>
       </c>
       <c r="D172" t="n">
-        <v>1.056364632986947</v>
+        <v>1.100073245172114</v>
       </c>
       <c r="E172" t="n">
-        <v>0.9369041668944693</v>
+        <v>0.9864833368643453</v>
       </c>
     </row>
     <row r="173">
@@ -3381,13 +3381,13 @@
         <v>0.8437839980433994</v>
       </c>
       <c r="C173" t="n">
-        <v>1.004702329077443</v>
+        <v>0.9423321379027243</v>
       </c>
       <c r="D173" t="n">
-        <v>1.057878630153804</v>
+        <v>1.106653623640972</v>
       </c>
       <c r="E173" t="n">
-        <v>0.9423321379027243</v>
+        <v>0.9926456249926459</v>
       </c>
     </row>
     <row r="174">
@@ -3398,13 +3398,13 @@
         <v>0.8542585580191105</v>
       </c>
       <c r="C174" t="n">
-        <v>1.012111952994311</v>
+        <v>0.9553281966911814</v>
       </c>
       <c r="D174" t="n">
-        <v>1.063743177094536</v>
+        <v>1.115329517779293</v>
       </c>
       <c r="E174" t="n">
-        <v>0.9553281966911814</v>
+        <v>1.00855417549908</v>
       </c>
     </row>
     <row r="175">
@@ -3415,13 +3415,13 @@
         <v>0.8335371458932472</v>
       </c>
       <c r="C175" t="n">
-        <v>1.004846088661707</v>
+        <v>0.9333845679201433</v>
       </c>
       <c r="D175" t="n">
-        <v>1.058455066226557</v>
+        <v>1.107391671814245</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9333845679201433</v>
+        <v>1.003101407857202</v>
       </c>
     </row>
     <row r="176">
@@ -3432,13 +3432,13 @@
         <v>0.8295564757575502</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9960661760527963</v>
+        <v>0.9168314277401682</v>
       </c>
       <c r="D176" t="n">
-        <v>1.051259197952427</v>
+        <v>1.099725964483084</v>
       </c>
       <c r="E176" t="n">
-        <v>0.9168314277401682</v>
+        <v>0.9879340176484833</v>
       </c>
     </row>
     <row r="177">
@@ -3449,13 +3449,13 @@
         <v>0.8456815632563905</v>
       </c>
       <c r="C177" t="n">
-        <v>1.000397514430189</v>
+        <v>0.9261380534295055</v>
       </c>
       <c r="D177" t="n">
-        <v>1.054774483738065</v>
+        <v>1.104069373937056</v>
       </c>
       <c r="E177" t="n">
-        <v>0.9261380534295055</v>
+        <v>0.9974667440076119</v>
       </c>
     </row>
     <row r="178">
@@ -3466,13 +3466,13 @@
         <v>0.8458755365892742</v>
       </c>
       <c r="C178" t="n">
-        <v>1.000039544706235</v>
+        <v>0.9227121604981595</v>
       </c>
       <c r="D178" t="n">
-        <v>1.054477659754687</v>
+        <v>1.102986913523855</v>
       </c>
       <c r="E178" t="n">
-        <v>0.9227121604981595</v>
+        <v>0.9935672319309663</v>
       </c>
     </row>
     <row r="179">
@@ -3483,13 +3483,13 @@
         <v>0.8406298229782497</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9973189112825556</v>
+        <v>0.9256246735636899</v>
       </c>
       <c r="D179" t="n">
-        <v>1.052170941205527</v>
+        <v>1.105629776154994</v>
       </c>
       <c r="E179" t="n">
-        <v>0.9256246735636899</v>
+        <v>0.9989002440311626</v>
       </c>
     </row>
     <row r="180">
@@ -3500,13 +3500,13 @@
         <v>0.8441888119555042</v>
       </c>
       <c r="C180" t="n">
-        <v>1.00316382152402</v>
+        <v>0.9286112467156031</v>
       </c>
       <c r="D180" t="n">
-        <v>1.057212562331148</v>
+        <v>1.105081072448256</v>
       </c>
       <c r="E180" t="n">
-        <v>0.9286112467156031</v>
+        <v>0.9981319656122547</v>
       </c>
     </row>
     <row r="181">
@@ -3517,13 +3517,13 @@
         <v>0.8289408212662241</v>
       </c>
       <c r="C181" t="n">
-        <v>1.006108954675748</v>
+        <v>0.9133570661659016</v>
       </c>
       <c r="D181" t="n">
-        <v>1.059671912227197</v>
+        <v>1.099155950612187</v>
       </c>
       <c r="E181" t="n">
-        <v>0.9133570661659016</v>
+        <v>0.9846308256876055</v>
       </c>
     </row>
     <row r="182">
@@ -3534,13 +3534,13 @@
         <v>0.8179855447698886</v>
       </c>
       <c r="C182" t="n">
-        <v>1.011779554176024</v>
+        <v>0.9124739028670301</v>
       </c>
       <c r="D182" t="n">
-        <v>1.063094648348722</v>
+        <v>1.09866490269564</v>
       </c>
       <c r="E182" t="n">
-        <v>0.9124739028670301</v>
+        <v>0.982264278611515</v>
       </c>
     </row>
     <row r="183">
@@ -3551,13 +3551,13 @@
         <v>0.82054093259005</v>
       </c>
       <c r="C183" t="n">
-        <v>1.014939373879678</v>
+        <v>0.9168443527116138</v>
       </c>
       <c r="D183" t="n">
-        <v>1.065655808221565</v>
+        <v>1.099457837154107</v>
       </c>
       <c r="E183" t="n">
-        <v>0.9168443527116138</v>
+        <v>0.984841655941826</v>
       </c>
     </row>
     <row r="184">
@@ -3568,13 +3568,13 @@
         <v>0.8073929140698135</v>
       </c>
       <c r="C184" t="n">
-        <v>1.016238100387746</v>
+        <v>0.9064989470672012</v>
       </c>
       <c r="D184" t="n">
-        <v>1.066953192896031</v>
+        <v>1.098186975037029</v>
       </c>
       <c r="E184" t="n">
-        <v>0.9064989470672012</v>
+        <v>0.9810199437575821</v>
       </c>
     </row>
     <row r="185">
@@ -3585,13 +3585,13 @@
         <v>0.8181626508564345</v>
       </c>
       <c r="C185" t="n">
-        <v>1.02857183320006</v>
+        <v>0.9145817072103634</v>
       </c>
       <c r="D185" t="n">
-        <v>1.074604379060191</v>
+        <v>1.099508883367086</v>
       </c>
       <c r="E185" t="n">
-        <v>0.9145817072103634</v>
+        <v>0.9882109951954987</v>
       </c>
     </row>
     <row r="186">
@@ -3602,13 +3602,13 @@
         <v>0.8180530137552394</v>
       </c>
       <c r="C186" t="n">
-        <v>1.02060482284693</v>
+        <v>0.9125996628391948</v>
       </c>
       <c r="D186" t="n">
-        <v>1.070167595289329</v>
+        <v>1.099399554835633</v>
       </c>
       <c r="E186" t="n">
-        <v>0.9125996628391948</v>
+        <v>0.9834112638026552</v>
       </c>
     </row>
     <row r="187">
@@ -3619,13 +3619,13 @@
         <v>0.7983773709023133</v>
       </c>
       <c r="C187" t="n">
-        <v>1.016739512087807</v>
+        <v>0.8890794460512338</v>
       </c>
       <c r="D187" t="n">
-        <v>1.067572171574716</v>
+        <v>1.093211765995649</v>
       </c>
       <c r="E187" t="n">
-        <v>0.8890794460512338</v>
+        <v>0.9743152648398274</v>
       </c>
     </row>
     <row r="188">
@@ -3636,13 +3636,13 @@
         <v>0.7892184561409427</v>
       </c>
       <c r="C188" t="n">
-        <v>1.010009967124819</v>
+        <v>0.8823286042155311</v>
       </c>
       <c r="D188" t="n">
-        <v>1.062220733926913</v>
+        <v>1.093939348733439</v>
       </c>
       <c r="E188" t="n">
-        <v>0.8823286042155311</v>
+        <v>0.9740022945349811</v>
       </c>
     </row>
     <row r="189">
@@ -3653,13 +3653,13 @@
         <v>0.7978460526426758</v>
       </c>
       <c r="C189" t="n">
-        <v>1.010413451714845</v>
+        <v>0.8862563737881062</v>
       </c>
       <c r="D189" t="n">
-        <v>1.06252177726549</v>
+        <v>1.094018855565571</v>
       </c>
       <c r="E189" t="n">
-        <v>0.8862563737881062</v>
+        <v>0.9739895480102494</v>
       </c>
     </row>
     <row r="190">
@@ -3670,13 +3670,13 @@
         <v>0.8052339065385881</v>
       </c>
       <c r="C190" t="n">
-        <v>1.019761357956536</v>
+        <v>0.888479339627019</v>
       </c>
       <c r="D190" t="n">
-        <v>1.068976407183458</v>
+        <v>1.095106424777688</v>
       </c>
       <c r="E190" t="n">
-        <v>0.888479339627019</v>
+        <v>0.9802845176919566</v>
       </c>
     </row>
     <row r="191">
@@ -3687,13 +3687,13 @@
         <v>0.7928955158425611</v>
       </c>
       <c r="C191" t="n">
-        <v>1.012746040669884</v>
+        <v>0.8820287448779954</v>
       </c>
       <c r="D191" t="n">
-        <v>1.063870644966098</v>
+        <v>1.09322155345071</v>
       </c>
       <c r="E191" t="n">
-        <v>0.8820287448779954</v>
+        <v>0.9784567077982123</v>
       </c>
     </row>
     <row r="192">
@@ -3704,13 +3704,13 @@
         <v>0.8103784166715863</v>
       </c>
       <c r="C192" t="n">
-        <v>1.011365303585402</v>
+        <v>0.891279276191259</v>
       </c>
       <c r="D192" t="n">
-        <v>1.061979939507715</v>
+        <v>1.093133763231121</v>
       </c>
       <c r="E192" t="n">
-        <v>0.891279276191259</v>
+        <v>0.9818748632878445</v>
       </c>
     </row>
     <row r="193">
@@ -3721,13 +3721,13 @@
         <v>0.8063808792895516</v>
       </c>
       <c r="C193" t="n">
-        <v>1.011866715285463</v>
+        <v>0.8881718545563303</v>
       </c>
       <c r="D193" t="n">
-        <v>1.0625989181864</v>
+        <v>1.0927363794667</v>
       </c>
       <c r="E193" t="n">
-        <v>0.8881718545563303</v>
+        <v>0.9843626984528774</v>
       </c>
     </row>
     <row r="194">
@@ -3738,13 +3738,13 @@
         <v>0.805630286827524</v>
       </c>
       <c r="C194" t="n">
-        <v>1.00850186340193</v>
+        <v>0.883413784818096</v>
       </c>
       <c r="D194" t="n">
-        <v>1.059859629018137</v>
+        <v>1.094527702383558</v>
       </c>
       <c r="E194" t="n">
-        <v>0.883413784818096</v>
+        <v>0.988377988444767</v>
       </c>
     </row>
     <row r="195">
@@ -3755,13 +3755,13 @@
         <v>0.8258203806937499</v>
       </c>
       <c r="C195" t="n">
-        <v>1.013011710229063</v>
+        <v>0.8981974964071811</v>
       </c>
       <c r="D195" t="n">
-        <v>1.063141904729297</v>
+        <v>1.09456958766976</v>
       </c>
       <c r="E195" t="n">
-        <v>0.8981974964071811</v>
+        <v>0.9906345455364086</v>
       </c>
     </row>
     <row r="196">
@@ -3772,13 +3772,13 @@
         <v>0.8221348873689626</v>
       </c>
       <c r="C196" t="n">
-        <v>1.006752855527445</v>
+        <v>0.8999528367791954</v>
       </c>
       <c r="D196" t="n">
-        <v>1.059850201468854</v>
+        <v>1.095568032599925</v>
       </c>
       <c r="E196" t="n">
-        <v>0.8999528367791954</v>
+        <v>0.995158137830231</v>
       </c>
     </row>
     <row r="197">
@@ -3789,13 +3789,13 @@
         <v>0.8307371830011892</v>
       </c>
       <c r="C197" t="n">
-        <v>1.012407856102258</v>
+        <v>0.8971981376150144</v>
       </c>
       <c r="D197" t="n">
-        <v>1.063802604411633</v>
+        <v>1.095373855042452</v>
       </c>
       <c r="E197" t="n">
-        <v>0.8971981376150144</v>
+        <v>0.9935002967293982</v>
       </c>
     </row>
     <row r="198">
@@ -3806,13 +3806,13 @@
         <v>0.8377455238545032</v>
       </c>
       <c r="C198" t="n">
-        <v>1.021248723698626</v>
+        <v>0.9065953673541846</v>
       </c>
       <c r="D198" t="n">
-        <v>1.070345884530986</v>
+        <v>1.096762829201579</v>
       </c>
       <c r="E198" t="n">
-        <v>0.9065953673541846</v>
+        <v>0.9957579749989238</v>
       </c>
     </row>
     <row r="199">
@@ -3823,13 +3823,13 @@
         <v>0.8353841093672253</v>
       </c>
       <c r="C199" t="n">
-        <v>1.019781301916942</v>
+        <v>0.9147788130249074</v>
       </c>
       <c r="D199" t="n">
-        <v>1.069332331301093</v>
+        <v>1.096306004249189</v>
       </c>
       <c r="E199" t="n">
-        <v>0.9147788130249074</v>
+        <v>0.9984384913643066</v>
       </c>
     </row>
     <row r="200">
@@ -3840,13 +3840,13 @@
         <v>0.8291010601064324</v>
       </c>
       <c r="C200" t="n">
-        <v>1.022251070686512</v>
+        <v>0.9166586208719418</v>
       </c>
       <c r="D200" t="n">
-        <v>1.071202419822188</v>
+        <v>1.101018827582471</v>
       </c>
       <c r="E200" t="n">
-        <v>0.9166586208719418</v>
+        <v>1.000762517095656</v>
       </c>
     </row>
     <row r="201">
@@ -3857,13 +3857,13 @@
         <v>0.8320443945923608</v>
       </c>
       <c r="C201" t="n">
-        <v>1.01874293563095</v>
+        <v>0.9147241403956929</v>
       </c>
       <c r="D201" t="n">
-        <v>1.068268116647341</v>
+        <v>1.103268608507318</v>
       </c>
       <c r="E201" t="n">
-        <v>0.9147241403956929</v>
+        <v>1.001650524734975</v>
       </c>
     </row>
     <row r="202">
@@ -3874,13 +3874,13 @@
         <v>0.8479164733961357</v>
       </c>
       <c r="C202" t="n">
-        <v>1.029685312684575</v>
+        <v>0.927287083391011</v>
       </c>
       <c r="D202" t="n">
-        <v>1.075952417868149</v>
+        <v>1.107656952511656</v>
       </c>
       <c r="E202" t="n">
-        <v>0.927287083391011</v>
+        <v>1.008791618990226</v>
       </c>
     </row>
     <row r="203">
@@ -3891,13 +3891,13 @@
         <v>0.848017676874162</v>
       </c>
       <c r="C203" t="n">
-        <v>1.029803183755016</v>
+        <v>0.9305903183433393</v>
       </c>
       <c r="D203" t="n">
-        <v>1.076626277325892</v>
+        <v>1.106066280332684</v>
       </c>
       <c r="E203" t="n">
-        <v>0.9305903183433393</v>
+        <v>1.006388365784717</v>
       </c>
     </row>
     <row r="204">
@@ -3908,13 +3908,13 @@
         <v>0.8595380061228104</v>
       </c>
       <c r="C204" t="n">
-        <v>1.032952555066231</v>
+        <v>0.9360467242887744</v>
       </c>
       <c r="D204" t="n">
-        <v>1.078628053073749</v>
+        <v>1.106588837267387</v>
       </c>
       <c r="E204" t="n">
-        <v>0.9360467242887744</v>
+        <v>1.008436081497695</v>
       </c>
     </row>
     <row r="205">
@@ -3925,13 +3925,13 @@
         <v>0.8539886820777074</v>
       </c>
       <c r="C205" t="n">
-        <v>1.038930617695442</v>
+        <v>0.936622919515815</v>
       </c>
       <c r="D205" t="n">
-        <v>1.083559585458415</v>
+        <v>1.105290733126756</v>
       </c>
       <c r="E205" t="n">
-        <v>0.936622919515815</v>
+        <v>1.005332401870257</v>
       </c>
     </row>
     <row r="206">
@@ -3942,13 +3942,13 @@
         <v>0.851939311647677</v>
       </c>
       <c r="C206" t="n">
-        <v>1.04268882338472</v>
+        <v>0.9440671860695692</v>
       </c>
       <c r="D206" t="n">
-        <v>1.086294815217715</v>
+        <v>1.106361878288796</v>
       </c>
       <c r="E206" t="n">
-        <v>0.9440671860695692</v>
+        <v>1.009448505685972</v>
       </c>
     </row>
     <row r="207">
@@ -3959,13 +3959,13 @@
         <v>0.8400394693564303</v>
       </c>
       <c r="C207" t="n">
-        <v>1.056719457958024</v>
+        <v>0.9407947125492813</v>
       </c>
       <c r="D207" t="n">
-        <v>1.096506339652434</v>
+        <v>1.109152748533539</v>
       </c>
       <c r="E207" t="n">
-        <v>0.9407947125492813</v>
+        <v>1.013278634999919</v>
       </c>
     </row>
     <row r="208">
@@ -3976,13 +3976,13 @@
         <v>0.8043062079900146</v>
       </c>
       <c r="C208" t="n">
-        <v>1.048414750927193</v>
+        <v>0.9168322032384549</v>
       </c>
       <c r="D208" t="n">
-        <v>1.089772592064534</v>
+        <v>1.103870159279338</v>
       </c>
       <c r="E208" t="n">
-        <v>0.9168322032384549</v>
+        <v>0.9999284725403915</v>
       </c>
     </row>
     <row r="209">
@@ -3993,13 +3993,13 @@
         <v>0.8145361928938292</v>
       </c>
       <c r="C209" t="n">
-        <v>1.048327748621833</v>
+        <v>0.9179471112753445</v>
       </c>
       <c r="D209" t="n">
-        <v>1.090395462915579</v>
+        <v>1.104295017597118</v>
       </c>
       <c r="E209" t="n">
-        <v>0.9179471112753445</v>
+        <v>0.9989094470570239</v>
       </c>
     </row>
     <row r="210">
@@ -4010,13 +4010,13 @@
         <v>0.7923557639597547</v>
       </c>
       <c r="C210" t="n">
-        <v>1.042897088970991</v>
+        <v>0.9041192013246545</v>
       </c>
       <c r="D210" t="n">
-        <v>1.086468550630966</v>
+        <v>1.099757501646811</v>
       </c>
       <c r="E210" t="n">
-        <v>0.9041192013246545</v>
+        <v>0.9912507455161206</v>
       </c>
     </row>
     <row r="211">
@@ -4027,13 +4027,13 @@
         <v>0.8061447378408237</v>
       </c>
       <c r="C211" t="n">
-        <v>1.069814157194393</v>
+        <v>0.9201686553673981</v>
       </c>
       <c r="D211" t="n">
-        <v>1.10698431640112</v>
+        <v>1.102417664786578</v>
       </c>
       <c r="E211" t="n">
-        <v>0.9201686553673981</v>
+        <v>0.9961411200957833</v>
       </c>
     </row>
     <row r="212">
@@ -4044,13 +4044,13 @@
         <v>0.8249011157683452</v>
       </c>
       <c r="C212" t="n">
-        <v>1.095048958280106</v>
+        <v>0.9450739120954597</v>
       </c>
       <c r="D212" t="n">
-        <v>1.126257578275866</v>
+        <v>1.115998843533081</v>
       </c>
       <c r="E212" t="n">
-        <v>0.9450739120954597</v>
+        <v>1.018729564993978</v>
       </c>
     </row>
     <row r="213">
@@ -4061,13 +4061,13 @@
         <v>0.8498899412176465</v>
       </c>
       <c r="C213" t="n">
-        <v>1.111560445231734</v>
+        <v>0.9754214865500808</v>
       </c>
       <c r="D213" t="n">
-        <v>1.139407138111556</v>
+        <v>1.124566561272121</v>
       </c>
       <c r="E213" t="n">
-        <v>0.9754214865500808</v>
+        <v>1.034997471989144</v>
       </c>
     </row>
     <row r="214">
@@ -4078,13 +4078,13 @@
         <v>0.8501007817968678</v>
       </c>
       <c r="C214" t="n">
-        <v>1.128527034996958</v>
+        <v>0.9847432344560092</v>
       </c>
       <c r="D214" t="n">
-        <v>1.152535753827119</v>
+        <v>1.13543808438637</v>
       </c>
       <c r="E214" t="n">
-        <v>0.9847432344560092</v>
+        <v>1.0499872004445</v>
       </c>
     </row>
     <row r="215">
@@ -4095,13 +4095,13 @@
         <v>0.8763630843446654</v>
       </c>
       <c r="C215" t="n">
-        <v>1.137500737372916</v>
+        <v>0.9878404453634961</v>
       </c>
       <c r="D215" t="n">
-        <v>1.158714663828072</v>
+        <v>1.140163070237997</v>
       </c>
       <c r="E215" t="n">
-        <v>0.9878404453634961</v>
+        <v>1.057734454259571</v>
       </c>
     </row>
     <row r="216">
@@ -4112,13 +4112,13 @@
         <v>0.888490634461471</v>
       </c>
       <c r="C216" t="n">
-        <v>1.146198798209492</v>
+        <v>0.9891007593291474</v>
       </c>
       <c r="D216" t="n">
-        <v>1.165444352007008</v>
+        <v>1.142551268787668</v>
       </c>
       <c r="E216" t="n">
-        <v>0.9891007593291474</v>
+        <v>1.062497019212329</v>
       </c>
     </row>
     <row r="217">
@@ -4129,13 +4129,13 @@
         <v>0.8815834970861832</v>
       </c>
       <c r="C217" t="n">
-        <v>1.13760784244276</v>
+        <v>0.9751041785010935</v>
       </c>
       <c r="D217" t="n">
-        <v>1.158574857783385</v>
+        <v>1.143675793356201</v>
       </c>
       <c r="E217" t="n">
-        <v>0.9751041785010935</v>
+        <v>1.059471058278679</v>
       </c>
     </row>
     <row r="218">
@@ -4146,13 +4146,13 @@
         <v>0.8617054472772048</v>
       </c>
       <c r="C218" t="n">
-        <v>1.13815524542113</v>
+        <v>0.9612810507898386</v>
       </c>
       <c r="D218" t="n">
-        <v>1.159579477883437</v>
+        <v>1.15959744174013</v>
       </c>
       <c r="E218" t="n">
-        <v>0.9612810507898386</v>
+        <v>1.07781587429315</v>
       </c>
     </row>
     <row r="219">
@@ -4163,13 +4163,13 @@
         <v>0.8814148246228062</v>
       </c>
       <c r="C219" t="n">
-        <v>1.146341763773363</v>
+        <v>0.9845174352048562</v>
       </c>
       <c r="D219" t="n">
-        <v>1.165385084636148</v>
+        <v>1.178977821681862</v>
       </c>
       <c r="E219" t="n">
-        <v>0.9845174352048562</v>
+        <v>1.103997793714036</v>
       </c>
     </row>
     <row r="220">
@@ -4180,13 +4180,13 @@
         <v>0.8975905138606597</v>
       </c>
       <c r="C220" t="n">
-        <v>1.154108722197871</v>
+        <v>0.9922307996641058</v>
       </c>
       <c r="D220" t="n">
-        <v>1.171037892805367</v>
+        <v>1.193357895550021</v>
       </c>
       <c r="E220" t="n">
-        <v>0.9922307996641058</v>
+        <v>1.132161853120877</v>
       </c>
     </row>
     <row r="221">
@@ -4197,13 +4197,13 @@
         <v>0.9043289787725705</v>
       </c>
       <c r="C221" t="n">
-        <v>1.149378244265395</v>
+        <v>0.9976466211992021</v>
       </c>
       <c r="D221" t="n">
-        <v>1.16810715462004</v>
+        <v>1.19454849768655</v>
       </c>
       <c r="E221" t="n">
-        <v>0.9976466211992021</v>
+        <v>1.128521543041965</v>
       </c>
     </row>
     <row r="222">
@@ -4214,13 +4214,13 @@
         <v>0.8980374958886087</v>
       </c>
       <c r="C222" t="n">
-        <v>1.143472379036473</v>
+        <v>0.9915881700838352</v>
       </c>
       <c r="D222" t="n">
-        <v>1.163718121649196</v>
+        <v>1.200448899179054</v>
       </c>
       <c r="E222" t="n">
-        <v>0.9915881700838352</v>
+        <v>1.133889318658257</v>
       </c>
     </row>
     <row r="223">
@@ -4231,13 +4231,13 @@
         <v>0.8983242390763496</v>
       </c>
       <c r="C223" t="n">
-        <v>1.149092154333573</v>
+        <v>0.9899781063908685</v>
       </c>
       <c r="D223" t="n">
-        <v>1.168098548673038</v>
+        <v>1.208704999982806</v>
       </c>
       <c r="E223" t="n">
-        <v>0.9899781063908685</v>
+        <v>1.141990912222098</v>
       </c>
     </row>
     <row r="224">
@@ -4248,13 +4248,13 @@
         <v>0.9055940222478979</v>
       </c>
       <c r="C224" t="n">
-        <v>1.149557546735529</v>
+        <v>0.9780735614409843</v>
       </c>
       <c r="D224" t="n">
-        <v>1.168509847989174</v>
+        <v>1.197903452753895</v>
       </c>
       <c r="E224" t="n">
-        <v>0.9780735614409843</v>
+        <v>1.1306246177074</v>
       </c>
     </row>
     <row r="225">
@@ -4265,13 +4265,13 @@
         <v>0.9258937532153189</v>
       </c>
       <c r="C225" t="n">
-        <v>1.153780986022684</v>
+        <v>0.9853468306225144</v>
       </c>
       <c r="D225" t="n">
-        <v>1.171529236375887</v>
+        <v>1.203354521907769</v>
       </c>
       <c r="E225" t="n">
-        <v>0.9853468306225144</v>
+        <v>1.144511585998348</v>
       </c>
     </row>
     <row r="226">
@@ -4282,13 +4282,13 @@
         <v>0.9288202204549096</v>
       </c>
       <c r="C226" t="n">
-        <v>1.165506190587402</v>
+        <v>0.9941641168929247</v>
       </c>
       <c r="D226" t="n">
-        <v>1.181311595234788</v>
+        <v>1.212113214892099</v>
       </c>
       <c r="E226" t="n">
-        <v>0.9941641168929247</v>
+        <v>1.152734664628906</v>
       </c>
     </row>
     <row r="227">
@@ -4299,13 +4299,13 @@
         <v>0.9296129810327814</v>
       </c>
       <c r="C227" t="n">
-        <v>1.167367283782989</v>
+        <v>1.0032162498945</v>
       </c>
       <c r="D227" t="n">
-        <v>1.182575370433164</v>
+        <v>1.21500967119681</v>
       </c>
       <c r="E227" t="n">
-        <v>1.0032162498945</v>
+        <v>1.155956056713769</v>
       </c>
     </row>
     <row r="228">
@@ -4316,13 +4316,13 @@
         <v>0.9325478818955412</v>
       </c>
       <c r="C228" t="n">
-        <v>1.171268772644295</v>
+        <v>1.00346285834968</v>
       </c>
       <c r="D228" t="n">
-        <v>1.185505614199048</v>
+        <v>1.214884803563406</v>
       </c>
       <c r="E228" t="n">
-        <v>1.00346285834968</v>
+        <v>1.156567464895933</v>
       </c>
     </row>
     <row r="229">
@@ -4333,13 +4333,13 @@
         <v>0.9183203596096919</v>
       </c>
       <c r="C229" t="n">
-        <v>1.170874942426315</v>
+        <v>0.9988822484693927</v>
       </c>
       <c r="D229" t="n">
-        <v>1.185128251541843</v>
+        <v>1.21396914752195</v>
       </c>
       <c r="E229" t="n">
-        <v>0.9988822484693927</v>
+        <v>1.157911751143428</v>
       </c>
     </row>
     <row r="230">
@@ -4350,13 +4350,13 @@
         <v>0.9389574355038668</v>
       </c>
       <c r="C230" t="n">
-        <v>1.166723065323135</v>
+        <v>1.002067866181567</v>
       </c>
       <c r="D230" t="n">
-        <v>1.182142799814062</v>
+        <v>1.214494423602922</v>
       </c>
       <c r="E230" t="n">
-        <v>1.002067866181567</v>
+        <v>1.160626953049317</v>
       </c>
     </row>
     <row r="231">
@@ -4367,13 +4367,13 @@
         <v>0.9429971410017458</v>
       </c>
       <c r="C231" t="n">
-        <v>1.155770239877071</v>
+        <v>1.010020213362844</v>
       </c>
       <c r="D231" t="n">
-        <v>1.173899114468268</v>
+        <v>1.208488290264556</v>
       </c>
       <c r="E231" t="n">
-        <v>1.010020213362844</v>
+        <v>1.155645123360023</v>
       </c>
     </row>
     <row r="232">
@@ -4384,13 +4384,13 @@
         <v>0.9523162946033246</v>
       </c>
       <c r="C232" t="n">
-        <v>1.170016513826772</v>
+        <v>1.014297991162163</v>
       </c>
       <c r="D232" t="n">
-        <v>1.184975293012116</v>
+        <v>1.218280259960812</v>
       </c>
       <c r="E232" t="n">
-        <v>1.014297991162163</v>
+        <v>1.166079671749904</v>
       </c>
     </row>
     <row r="233">
@@ -4401,13 +4401,13 @@
         <v>0.9587511490811568</v>
       </c>
       <c r="C233" t="n">
-        <v>1.172859204551756</v>
+        <v>1.010841983047349</v>
       </c>
       <c r="D233" t="n">
-        <v>1.188714321269186</v>
+        <v>1.212179087881561</v>
       </c>
       <c r="E233" t="n">
-        <v>1.010841983047349</v>
+        <v>1.15474240435015</v>
       </c>
     </row>
     <row r="234">
@@ -4418,13 +4418,13 @@
         <v>0.9582704325605323</v>
       </c>
       <c r="C234" t="n">
-        <v>1.195265949535788</v>
+        <v>1.013513186895992</v>
       </c>
       <c r="D234" t="n">
-        <v>1.205566389262013</v>
+        <v>1.227722389129517</v>
       </c>
       <c r="E234" t="n">
-        <v>1.013513186895992</v>
+        <v>1.178065049295259</v>
       </c>
     </row>
     <row r="235">
@@ -4435,13 +4435,13 @@
         <v>0.9578150169094145</v>
       </c>
       <c r="C235" t="n">
-        <v>1.192223683294418</v>
+        <v>1.009248721817261</v>
       </c>
       <c r="D235" t="n">
-        <v>1.203424807469468</v>
+        <v>1.222595273313125</v>
       </c>
       <c r="E235" t="n">
-        <v>1.009248721817261</v>
+        <v>1.171743091881615</v>
       </c>
     </row>
     <row r="236">
@@ -4452,13 +4452,13 @@
         <v>0.9506548708390612</v>
       </c>
       <c r="C236" t="n">
-        <v>1.19505158059202</v>
+        <v>1.007854117398291</v>
       </c>
       <c r="D236" t="n">
-        <v>1.205718860662664</v>
+        <v>1.220890841293973</v>
       </c>
       <c r="E236" t="n">
-        <v>1.007854117398291</v>
+        <v>1.171124592796548</v>
       </c>
     </row>
     <row r="237">
@@ -4469,13 +4469,13 @@
         <v>0.9697991954323497</v>
       </c>
       <c r="C237" t="n">
-        <v>1.204321821292239</v>
+        <v>1.01496517818818</v>
       </c>
       <c r="D237" t="n">
-        <v>1.212465760735604</v>
+        <v>1.219737743437982</v>
       </c>
       <c r="E237" t="n">
-        <v>1.01496517818818</v>
+        <v>1.170549556484268</v>
       </c>
     </row>
     <row r="238">
@@ -4486,13 +4486,13 @@
         <v>0.9725907247012389</v>
       </c>
       <c r="C238" t="n">
-        <v>1.223221225241102</v>
+        <v>1.038783057068531</v>
       </c>
       <c r="D238" t="n">
-        <v>1.227019228997196</v>
+        <v>1.233658268803667</v>
       </c>
       <c r="E238" t="n">
-        <v>1.038783057068531</v>
+        <v>1.192424551700897</v>
       </c>
     </row>
     <row r="239">
@@ -4503,13 +4503,13 @@
         <v>0.9696558238384793</v>
       </c>
       <c r="C239" t="n">
-        <v>1.263921715877507</v>
+        <v>1.032868331635638</v>
       </c>
       <c r="D239" t="n">
-        <v>1.260234125014624</v>
+        <v>1.23277081166019</v>
       </c>
       <c r="E239" t="n">
-        <v>1.032868331635638</v>
+        <v>1.196461233140834</v>
       </c>
     </row>
     <row r="240">
@@ -4520,13 +4520,13 @@
         <v>0.9795315965692021</v>
       </c>
       <c r="C240" t="n">
-        <v>1.262167727751765</v>
+        <v>1.042010551688189</v>
       </c>
       <c r="D240" t="n">
-        <v>1.258830543771561</v>
+        <v>1.229137267573572</v>
       </c>
       <c r="E240" t="n">
-        <v>1.042010551688189</v>
+        <v>1.190409798449438</v>
       </c>
     </row>
     <row r="241">
@@ -4537,13 +4537,13 @@
         <v>0.9947205518963002</v>
       </c>
       <c r="C241" t="n">
-        <v>1.264351247785436</v>
+        <v>1.048184552048278</v>
       </c>
       <c r="D241" t="n">
-        <v>1.260564885656932</v>
+        <v>1.228329194339666</v>
       </c>
       <c r="E241" t="n">
-        <v>1.048184552048278</v>
+        <v>1.190017499052629</v>
       </c>
     </row>
     <row r="242">
@@ -4554,13 +4554,13 @@
         <v>0.9964916127617586</v>
       </c>
       <c r="C242" t="n">
-        <v>1.264172739335695</v>
+        <v>1.047222804923018</v>
       </c>
       <c r="D242" t="n">
-        <v>1.260797895731411</v>
+        <v>1.228878660140679</v>
       </c>
       <c r="E242" t="n">
-        <v>1.047222804923018</v>
+        <v>1.199248607964073</v>
       </c>
     </row>
     <row r="243">
@@ -4571,13 +4571,13 @@
         <v>0.9924603408870485</v>
       </c>
       <c r="C243" t="n">
-        <v>1.259380988807604</v>
+        <v>1.044243599004829</v>
       </c>
       <c r="D243" t="n">
-        <v>1.258265464323415</v>
+        <v>1.227622572482782</v>
       </c>
       <c r="E243" t="n">
-        <v>1.044243599004829</v>
+        <v>1.198178090443548</v>
       </c>
     </row>
     <row r="244">
@@ -4588,13 +4588,13 @@
         <v>0.9784352255572516</v>
       </c>
       <c r="C244" t="n">
-        <v>1.252196011945174</v>
+        <v>1.028146581067166</v>
       </c>
       <c r="D244" t="n">
-        <v>1.255291034747034</v>
+        <v>1.227087972413645</v>
       </c>
       <c r="E244" t="n">
-        <v>1.028146581067166</v>
+        <v>1.179109842985367</v>
       </c>
     </row>
     <row r="245">
@@ -4605,13 +4605,13 @@
         <v>0.9812351884493097</v>
       </c>
       <c r="C245" t="n">
-        <v>1.252072184843627</v>
+        <v>1.030820111410669</v>
       </c>
       <c r="D245" t="n">
-        <v>1.257680868120657</v>
+        <v>1.234348702067704</v>
       </c>
       <c r="E245" t="n">
-        <v>1.030820111410669</v>
+        <v>1.191160684508421</v>
       </c>
     </row>
     <row r="246">
@@ -4622,13 +4622,13 @@
         <v>0.9939615258111038</v>
       </c>
       <c r="C246" t="n">
-        <v>1.254453669397519</v>
+        <v>1.046977359715268</v>
       </c>
       <c r="D246" t="n">
-        <v>1.261767047311756</v>
+        <v>1.240292436489235</v>
       </c>
       <c r="E246" t="n">
-        <v>1.046977359715268</v>
+        <v>1.196737023406225</v>
       </c>
     </row>
     <row r="247">
@@ -4639,13 +4639,13 @@
         <v>1.00403127187471</v>
       </c>
       <c r="C247" t="n">
-        <v>1.258712969178701</v>
+        <v>1.063989982630131</v>
       </c>
       <c r="D247" t="n">
-        <v>1.264866974372296</v>
+        <v>1.252730320289334</v>
       </c>
       <c r="E247" t="n">
-        <v>1.063989982630131</v>
+        <v>1.215626617626528</v>
       </c>
     </row>
     <row r="248">
@@ -4656,13 +4656,13 @@
         <v>1.007607128098302</v>
       </c>
       <c r="C248" t="n">
-        <v>1.271567081871632</v>
+        <v>1.06549625880239</v>
       </c>
       <c r="D248" t="n">
-        <v>1.27795090985792</v>
+        <v>1.258996208892016</v>
       </c>
       <c r="E248" t="n">
-        <v>1.06549625880239</v>
+        <v>1.216560220365402</v>
       </c>
     </row>
     <row r="249">
@@ -4673,13 +4673,13 @@
         <v>1.006181845782767</v>
       </c>
       <c r="C249" t="n">
-        <v>1.254835916639133</v>
+        <v>1.070781408876172</v>
       </c>
       <c r="D249" t="n">
-        <v>1.265915731680398</v>
+        <v>1.257581295418791</v>
       </c>
       <c r="E249" t="n">
-        <v>1.070781408876172</v>
+        <v>1.214192041712601</v>
       </c>
     </row>
     <row r="250">
@@ -4690,13 +4690,13 @@
         <v>0.9998734956524673</v>
       </c>
       <c r="C250" t="n">
-        <v>1.253680473303094</v>
+        <v>1.059266681065085</v>
       </c>
       <c r="D250" t="n">
-        <v>1.264813361012516</v>
+        <v>1.249501116735391</v>
       </c>
       <c r="E250" t="n">
-        <v>1.059266681065085</v>
+        <v>1.204208749923525</v>
       </c>
     </row>
     <row r="251">
@@ -4707,13 +4707,13 @@
         <v>1.005481855059752</v>
       </c>
       <c r="C251" t="n">
-        <v>1.235889886195647</v>
+        <v>1.054139991141225</v>
       </c>
       <c r="D251" t="n">
-        <v>1.250468059242548</v>
+        <v>1.250186693472954</v>
       </c>
       <c r="E251" t="n">
-        <v>1.054139991141225</v>
+        <v>1.204993211140767</v>
       </c>
     </row>
     <row r="252">
@@ -4724,13 +4724,13 @@
         <v>1.01077817040979</v>
       </c>
       <c r="C252" t="n">
-        <v>1.242405379823024</v>
+        <v>1.041670495689457</v>
       </c>
       <c r="D252" t="n">
-        <v>1.256226249668448</v>
+        <v>1.251103700387315</v>
       </c>
       <c r="E252" t="n">
-        <v>1.041670495689457</v>
+        <v>1.207901171200403</v>
       </c>
     </row>
     <row r="253">
@@ -4741,13 +4741,13 @@
         <v>1.028530947180218</v>
       </c>
       <c r="C253" t="n">
-        <v>1.231166464445138</v>
+        <v>1.028532779213957</v>
       </c>
       <c r="D253" t="n">
-        <v>1.247973958375653</v>
+        <v>1.234970386337688</v>
       </c>
       <c r="E253" t="n">
-        <v>1.028532779213957</v>
+        <v>1.190767926321667</v>
       </c>
     </row>
     <row r="254">
@@ -4758,13 +4758,13 @@
         <v>1.054852285090198</v>
       </c>
       <c r="C254" t="n">
-        <v>1.260296163144737</v>
+        <v>1.064708094043643</v>
       </c>
       <c r="D254" t="n">
-        <v>1.272732594092759</v>
+        <v>1.254846006056934</v>
       </c>
       <c r="E254" t="n">
-        <v>1.064708094043643</v>
+        <v>1.221512665117241</v>
       </c>
     </row>
     <row r="255">
@@ -4775,13 +4775,13 @@
         <v>1.035707960496909</v>
       </c>
       <c r="C255" t="n">
-        <v>1.253639291994275</v>
+        <v>1.043812163457978</v>
       </c>
       <c r="D255" t="n">
-        <v>1.268305077924945</v>
+        <v>1.250707613016954</v>
       </c>
       <c r="E255" t="n">
-        <v>1.043812163457978</v>
+        <v>1.204474657841798</v>
       </c>
     </row>
     <row r="256">
@@ -4792,13 +4792,13 @@
         <v>1.045752405691009</v>
       </c>
       <c r="C256" t="n">
-        <v>1.270078263937456</v>
+        <v>1.053774085199602</v>
       </c>
       <c r="D256" t="n">
-        <v>1.280657856969369</v>
+        <v>1.261130968955747</v>
       </c>
       <c r="E256" t="n">
-        <v>1.053774085199602</v>
+        <v>1.219648095751125</v>
       </c>
     </row>
     <row r="257">
@@ -4809,13 +4809,13 @@
         <v>1.029239371526401</v>
       </c>
       <c r="C257" t="n">
-        <v>1.273478817510937</v>
+        <v>1.062707696213022</v>
       </c>
       <c r="D257" t="n">
-        <v>1.283350544122735</v>
+        <v>1.272727089161596</v>
       </c>
       <c r="E257" t="n">
-        <v>1.062707696213022</v>
+        <v>1.236788565020368</v>
       </c>
     </row>
     <row r="258">
@@ -4826,13 +4826,13 @@
         <v>1.041392222512714</v>
       </c>
       <c r="C258" t="n">
-        <v>1.271366859661242</v>
+        <v>1.082367611779354</v>
       </c>
       <c r="D258" t="n">
-        <v>1.281650138896295</v>
+        <v>1.271254852190259</v>
       </c>
       <c r="E258" t="n">
-        <v>1.082367611779354</v>
+        <v>1.23582867288029</v>
       </c>
     </row>
     <row r="259">
@@ -4843,13 +4843,13 @@
         <v>1.016268459092711</v>
       </c>
       <c r="C259" t="n">
-        <v>1.270374961065795</v>
+        <v>1.078379741089557</v>
       </c>
       <c r="D259" t="n">
-        <v>1.281352987730078</v>
+        <v>1.271100012461291</v>
       </c>
       <c r="E259" t="n">
-        <v>1.078379741089557</v>
+        <v>1.229203500603505</v>
       </c>
     </row>
     <row r="260">
@@ -4860,13 +4860,13 @@
         <v>1.022509340237659</v>
       </c>
       <c r="C260" t="n">
-        <v>1.264130911269247</v>
+        <v>1.065328751172457</v>
       </c>
       <c r="D260" t="n">
-        <v>1.276895914204768</v>
+        <v>1.26731338421458</v>
       </c>
       <c r="E260" t="n">
-        <v>1.065328751172457</v>
+        <v>1.223210642981859</v>
       </c>
     </row>
     <row r="261">
@@ -4877,13 +4877,13 @@
         <v>1.017710608654584</v>
       </c>
       <c r="C261" t="n">
-        <v>1.270977192718747</v>
+        <v>1.06285995237665</v>
       </c>
       <c r="D261" t="n">
-        <v>1.287251917146736</v>
+        <v>1.279850300490998</v>
       </c>
       <c r="E261" t="n">
-        <v>1.06285995237665</v>
+        <v>1.226351677368809</v>
       </c>
     </row>
     <row r="262">
@@ -4894,13 +4894,13 @@
         <v>1.009572162296644</v>
       </c>
       <c r="C262" t="n">
-        <v>1.253601332614159</v>
+        <v>1.046200827430822</v>
       </c>
       <c r="D262" t="n">
-        <v>1.274402746283944</v>
+        <v>1.273901131944041</v>
       </c>
       <c r="E262" t="n">
-        <v>1.046200827430822</v>
+        <v>1.217485144130631</v>
       </c>
     </row>
     <row r="263">
@@ -4911,13 +4911,13 @@
         <v>0.9989036289880495</v>
       </c>
       <c r="C263" t="n">
-        <v>1.2505429795574</v>
+        <v>1.034904402387449</v>
       </c>
       <c r="D263" t="n">
-        <v>1.275019754575225</v>
+        <v>1.27306672300839</v>
       </c>
       <c r="E263" t="n">
-        <v>1.034904402387449</v>
+        <v>1.212555741696175</v>
       </c>
     </row>
     <row r="264">
@@ -4928,13 +4928,13 @@
         <v>0.9881844939404417</v>
       </c>
       <c r="C264" t="n">
-        <v>1.247643996488058</v>
+        <v>1.025283441392557</v>
       </c>
       <c r="D264" t="n">
-        <v>1.273073186789266</v>
+        <v>1.263394036867104</v>
       </c>
       <c r="E264" t="n">
-        <v>1.025283441392557</v>
+        <v>1.199952021436223</v>
       </c>
     </row>
     <row r="265">
@@ -4945,13 +4945,13 @@
         <v>0.9822134887368963</v>
       </c>
       <c r="C265" t="n">
-        <v>1.254056888884612</v>
+        <v>1.006920805210211</v>
       </c>
       <c r="D265" t="n">
-        <v>1.279983914887464</v>
+        <v>1.263722179345067</v>
       </c>
       <c r="E265" t="n">
-        <v>1.006920805210211</v>
+        <v>1.192497489128987</v>
       </c>
     </row>
     <row r="266">
@@ -4962,13 +4962,13 @@
         <v>0.9773051200526258</v>
       </c>
       <c r="C266" t="n">
-        <v>1.250159427450091</v>
+        <v>1.015665582390812</v>
       </c>
       <c r="D266" t="n">
-        <v>1.277684980683023</v>
+        <v>1.268230524933603</v>
       </c>
       <c r="E266" t="n">
-        <v>1.015665582390812</v>
+        <v>1.193607181441388</v>
       </c>
     </row>
     <row r="267">
@@ -4979,13 +4979,13 @@
         <v>1.006249314768118</v>
       </c>
       <c r="C267" t="n">
-        <v>1.25600947674689</v>
+        <v>1.039259859265156</v>
       </c>
       <c r="D267" t="n">
-        <v>1.284247896191145</v>
+        <v>1.274312938951097</v>
       </c>
       <c r="E267" t="n">
-        <v>1.039259859265156</v>
+        <v>1.214479264487828</v>
       </c>
     </row>
     <row r="268">
@@ -4996,13 +4996,13 @@
         <v>0.978359322948732</v>
       </c>
       <c r="C268" t="n">
-        <v>1.240797351519645</v>
+        <v>1.020074419400589</v>
       </c>
       <c r="D268" t="n">
-        <v>1.272904283784812</v>
+        <v>1.275500431197214</v>
       </c>
       <c r="E268" t="n">
-        <v>1.020074419400589</v>
+        <v>1.2052029901438</v>
       </c>
     </row>
     <row r="269">
@@ -5013,13 +5013,13 @@
         <v>0.9898121832120297</v>
       </c>
       <c r="C269" t="n">
-        <v>1.246237665542532</v>
+        <v>1.042908190955079</v>
       </c>
       <c r="D269" t="n">
-        <v>1.276754876750798</v>
+        <v>1.278371358984205</v>
       </c>
       <c r="E269" t="n">
-        <v>1.042908190955079</v>
+        <v>1.217372109615829</v>
       </c>
     </row>
     <row r="270">
@@ -5030,13 +5030,13 @@
         <v>0.99714100174576</v>
       </c>
       <c r="C270" t="n">
-        <v>1.234988142968129</v>
+        <v>1.056789093288696</v>
       </c>
       <c r="D270" t="n">
-        <v>1.267816060644295</v>
+        <v>1.288028851858566</v>
       </c>
       <c r="E270" t="n">
-        <v>1.056789093288696</v>
+        <v>1.23114800876146</v>
       </c>
     </row>
     <row r="271">
@@ -5047,13 +5047,13 @@
         <v>1.009715533890515</v>
       </c>
       <c r="C271" t="n">
-        <v>1.246550120400413</v>
+        <v>1.065010796874897</v>
       </c>
       <c r="D271" t="n">
-        <v>1.277047481378977</v>
+        <v>1.290428875137277</v>
       </c>
       <c r="E271" t="n">
-        <v>1.065010796874897</v>
+        <v>1.235235690849203</v>
       </c>
     </row>
     <row r="272">
@@ -5064,13 +5064,13 @@
         <v>1.005802332740169</v>
       </c>
       <c r="C272" t="n">
-        <v>1.230509652796001</v>
+        <v>1.062806701494295</v>
       </c>
       <c r="D272" t="n">
-        <v>1.263601591979351</v>
+        <v>1.281665457507535</v>
       </c>
       <c r="E272" t="n">
-        <v>1.062806701494295</v>
+        <v>1.22531154086208</v>
       </c>
     </row>
     <row r="273">
@@ -5081,13 +5081,13 @@
         <v>1.011402258524285</v>
       </c>
       <c r="C273" t="n">
-        <v>1.224459869178736</v>
+        <v>1.064720889765374</v>
       </c>
       <c r="D273" t="n">
-        <v>1.258508982247032</v>
+        <v>1.284171977503127</v>
       </c>
       <c r="E273" t="n">
-        <v>1.064720889765374</v>
+        <v>1.226548385125421</v>
       </c>
     </row>
     <row r="274">
@@ -5098,13 +5098,13 @@
         <v>1.007952906648225</v>
       </c>
       <c r="C274" t="n">
-        <v>1.222276507949144</v>
+        <v>1.064886846398735</v>
       </c>
       <c r="D274" t="n">
-        <v>1.256901781050383</v>
+        <v>1.278581531301505</v>
       </c>
       <c r="E274" t="n">
-        <v>1.064886846398735</v>
+        <v>1.22200159650305</v>
       </c>
     </row>
     <row r="275">
@@ -5115,13 +5115,13 @@
         <v>1.007219181432535</v>
       </c>
       <c r="C275" t="n">
-        <v>1.218303615707942</v>
+        <v>1.062948488431052</v>
       </c>
       <c r="D275" t="n">
-        <v>1.25406474131429</v>
+        <v>1.278019969695539</v>
       </c>
       <c r="E275" t="n">
-        <v>1.062948488431052</v>
+        <v>1.217019786210753</v>
       </c>
     </row>
     <row r="276">
@@ -5132,13 +5132,13 @@
         <v>0.9987939918868545</v>
       </c>
       <c r="C276" t="n">
-        <v>1.212755720202974</v>
+        <v>1.051509888701778</v>
       </c>
       <c r="D276" t="n">
-        <v>1.249972532326824</v>
+        <v>1.273249303768923</v>
       </c>
       <c r="E276" t="n">
-        <v>1.051509888701778</v>
+        <v>1.20572030087826</v>
       </c>
     </row>
     <row r="277">
@@ -5149,13 +5149,13 @@
         <v>1.005583058537779</v>
       </c>
       <c r="C277" t="n">
-        <v>1.211073770673443</v>
+        <v>1.053917164633504</v>
       </c>
       <c r="D277" t="n">
-        <v>1.24898430980886</v>
+        <v>1.27221345523327</v>
       </c>
       <c r="E277" t="n">
-        <v>1.053917164633504</v>
+        <v>1.205206668152468</v>
       </c>
     </row>
     <row r="278">
@@ -5166,13 +5166,13 @@
         <v>1.004579457380685</v>
       </c>
       <c r="C278" t="n">
-        <v>1.209585440629192</v>
+        <v>1.047216600936725</v>
       </c>
       <c r="D278" t="n">
-        <v>1.249462333657736</v>
+        <v>1.27415572587653</v>
       </c>
       <c r="E278" t="n">
-        <v>1.047216600936725</v>
+        <v>1.200303115647029</v>
       </c>
     </row>
     <row r="279">
@@ -5183,13 +5183,13 @@
         <v>1.015332326920968</v>
       </c>
       <c r="C279" t="n">
-        <v>1.198919022723107</v>
+        <v>1.03254662909636</v>
       </c>
       <c r="D279" t="n">
-        <v>1.24148153563639</v>
+        <v>1.271764823863363</v>
       </c>
       <c r="E279" t="n">
-        <v>1.03254662909636</v>
+        <v>1.193305249518687</v>
       </c>
     </row>
     <row r="280">
@@ -5200,13 +5200,13 @@
         <v>1.004781864336738</v>
       </c>
       <c r="C280" t="n">
-        <v>1.202355119182458</v>
+        <v>1.024662784263744</v>
       </c>
       <c r="D280" t="n">
-        <v>1.244000480086138</v>
+        <v>1.264931430051412</v>
       </c>
       <c r="E280" t="n">
-        <v>1.024662784263744</v>
+        <v>1.184557933273087</v>
       </c>
     </row>
     <row r="281">
@@ -5217,13 +5217,13 @@
         <v>1.001475884054549</v>
       </c>
       <c r="C281" t="n">
-        <v>1.201726340843989</v>
+        <v>1.020586894518403</v>
       </c>
       <c r="D281" t="n">
-        <v>1.24291110195706</v>
+        <v>1.264905265616312</v>
       </c>
       <c r="E281" t="n">
-        <v>1.020586894518403</v>
+        <v>1.185332404965409</v>
       </c>
     </row>
     <row r="282">
@@ -5234,13 +5234,13 @@
         <v>0.9501994551879432</v>
       </c>
       <c r="C282" t="n">
-        <v>1.1828331990567</v>
+        <v>0.9850699777341516</v>
       </c>
       <c r="D282" t="n">
-        <v>1.228158567570288</v>
+        <v>1.249573866705072</v>
       </c>
       <c r="E282" t="n">
-        <v>0.9850699777341516</v>
+        <v>1.162945153462623</v>
       </c>
     </row>
     <row r="283">
@@ -5251,13 +5251,13 @@
         <v>0.9717810968770293</v>
       </c>
       <c r="C283" t="n">
-        <v>1.226229921164488</v>
+        <v>0.9996106998600613</v>
       </c>
       <c r="D283" t="n">
-        <v>1.262374664063749</v>
+        <v>1.252875610571914</v>
       </c>
       <c r="E283" t="n">
-        <v>0.9996106998600613</v>
+        <v>1.164063107975739</v>
       </c>
     </row>
     <row r="284">
@@ -5268,13 +5268,13 @@
         <v>0.975500324694492</v>
       </c>
       <c r="C284" t="n">
-        <v>1.265748285930637</v>
+        <v>1.000625180868819</v>
       </c>
       <c r="D284" t="n">
-        <v>1.293948909354672</v>
+        <v>1.254567280824845</v>
       </c>
       <c r="E284" t="n">
-        <v>1.000625180868819</v>
+        <v>1.167576721022292</v>
       </c>
     </row>
     <row r="285">
@@ -5285,13 +5285,13 @@
         <v>0.9467248024423772</v>
       </c>
       <c r="C285" t="n">
-        <v>1.252146548048947</v>
+        <v>0.9792580058242506</v>
       </c>
       <c r="D285" t="n">
-        <v>1.283559582807371</v>
+        <v>1.243571411970251</v>
       </c>
       <c r="E285" t="n">
-        <v>0.9792580058242506</v>
+        <v>1.148060602665999</v>
       </c>
     </row>
     <row r="286">
@@ -5302,13 +5302,13 @@
         <v>0.9279937253843624</v>
       </c>
       <c r="C286" t="n">
-        <v>1.212092816737654</v>
+        <v>0.9615682436553578</v>
       </c>
       <c r="D286" t="n">
-        <v>1.252811508428607</v>
+        <v>1.242941458768537</v>
       </c>
       <c r="E286" t="n">
-        <v>0.9615682436553578</v>
+        <v>1.149981228832554</v>
       </c>
     </row>
     <row r="287">
@@ -5319,13 +5319,13 @@
         <v>0.9305238123350172</v>
       </c>
       <c r="C287" t="n">
-        <v>1.19157210063856</v>
+        <v>0.9443462362030777</v>
       </c>
       <c r="D287" t="n">
-        <v>1.236362948116829</v>
+        <v>1.234396496821838</v>
       </c>
       <c r="E287" t="n">
-        <v>0.9443462362030777</v>
+        <v>1.129482931303032</v>
       </c>
     </row>
     <row r="288">
@@ -5336,13 +5336,13 @@
         <v>0.940686328253481</v>
       </c>
       <c r="C288" t="n">
-        <v>1.183910976851268</v>
+        <v>0.9527420391546499</v>
       </c>
       <c r="D288" t="n">
-        <v>1.229553208393142</v>
+        <v>1.236743676552204</v>
       </c>
       <c r="E288" t="n">
-        <v>0.9527420391546499</v>
+        <v>1.140276256513042</v>
       </c>
     </row>
     <row r="289">
@@ -5353,13 +5353,13 @@
         <v>0.9376839584053706</v>
       </c>
       <c r="C289" t="n">
-        <v>1.19352929589356</v>
+        <v>0.955207348208166</v>
       </c>
       <c r="D289" t="n">
-        <v>1.176128477141148</v>
+        <v>1.101100160250504</v>
       </c>
       <c r="E289" t="n">
-        <v>0.955207348208166</v>
+        <v>1.083161082905717</v>
       </c>
     </row>
     <row r="290">
@@ -5370,13 +5370,13 @@
         <v>0.9503849948976579</v>
       </c>
       <c r="C290" t="n">
-        <v>1.181054413164749</v>
+        <v>0.9795290424754629</v>
       </c>
       <c r="D290" t="n">
-        <v>1.164777552938437</v>
+        <v>1.135768395689807</v>
       </c>
       <c r="E290" t="n">
-        <v>0.9795290424754629</v>
+        <v>1.12634368280912</v>
       </c>
     </row>
     <row r="291">
@@ -5387,13 +5387,13 @@
         <v>0.9715702562978081</v>
       </c>
       <c r="C291" t="n">
-        <v>1.175551873721775</v>
+        <v>0.9757610255499543</v>
       </c>
       <c r="D291" t="n">
-        <v>1.160562422617447</v>
+        <v>1.135868110025776</v>
       </c>
       <c r="E291" t="n">
-        <v>0.9757610255499543</v>
+        <v>1.125232630775024</v>
       </c>
     </row>
     <row r="292">
@@ -5404,13 +5404,13 @@
         <v>0.9328599259527885</v>
       </c>
       <c r="C292" t="n">
-        <v>1.15643857724138</v>
+        <v>0.9434913785916718</v>
       </c>
       <c r="D292" t="n">
-        <v>1.146542847822674</v>
+        <v>1.123993360046008</v>
       </c>
       <c r="E292" t="n">
-        <v>0.9434913785916718</v>
+        <v>1.102134836546677</v>
       </c>
     </row>
     <row r="293">
@@ -5421,13 +5421,13 @@
         <v>0.9389237010111914</v>
       </c>
       <c r="C293" t="n">
-        <v>1.174146200947941</v>
+        <v>0.9455959516921437</v>
       </c>
       <c r="D293" t="n">
-        <v>1.15953198467639</v>
+        <v>1.14280931344961</v>
       </c>
       <c r="E293" t="n">
-        <v>0.9455959516921437</v>
+        <v>1.12244466818027</v>
       </c>
     </row>
     <row r="294">
@@ -5438,13 +5438,13 @@
         <v>0.951110286490179</v>
       </c>
       <c r="C294" t="n">
-        <v>1.165586601836215</v>
+        <v>0.9650449317244845</v>
       </c>
       <c r="D294" t="n">
-        <v>1.151730297498982</v>
+        <v>1.146992062446876</v>
       </c>
       <c r="E294" t="n">
-        <v>0.9650449317244845</v>
+        <v>1.13344571946137</v>
       </c>
     </row>
     <row r="295">
@@ -5455,13 +5455,13 @@
         <v>0.9697317264469989</v>
       </c>
       <c r="C295" t="n">
-        <v>1.162794565032639</v>
+        <v>0.9787972305922183</v>
       </c>
       <c r="D295" t="n">
-        <v>1.149516782979613</v>
+        <v>1.146498545805179</v>
       </c>
       <c r="E295" t="n">
-        <v>0.9787972305922183</v>
+        <v>1.13880093637391</v>
       </c>
     </row>
     <row r="296">
@@ -5472,13 +5472,13 @@
         <v>0.9627824209558669</v>
       </c>
       <c r="C296" t="n">
-        <v>1.166517386640126</v>
+        <v>0.9803396966845251</v>
       </c>
       <c r="D296" t="n">
-        <v>1.152552896131254</v>
+        <v>1.145343009267928</v>
       </c>
       <c r="E296" t="n">
-        <v>0.9803396966845251</v>
+        <v>1.139128593013079</v>
       </c>
     </row>
     <row r="297">
@@ -5489,13 +5489,13 @@
         <v>0.9686100545655419</v>
       </c>
       <c r="C297" t="n">
-        <v>1.181697996408288</v>
+        <v>0.9965835422978092</v>
       </c>
       <c r="D297" t="n">
-        <v>1.164701560802649</v>
+        <v>1.16164707653795</v>
       </c>
       <c r="E297" t="n">
-        <v>0.9965835422978092</v>
+        <v>1.15838447264708</v>
       </c>
     </row>
     <row r="298">
@@ -5506,13 +5506,13 @@
         <v>0.9615932800890591</v>
       </c>
       <c r="C298" t="n">
-        <v>1.194880333166331</v>
+        <v>0.9969968828846364</v>
       </c>
       <c r="D298" t="n">
-        <v>1.175065229455181</v>
+        <v>1.171491382513211</v>
       </c>
       <c r="E298" t="n">
-        <v>0.9969968828846364</v>
+        <v>1.170341891966385</v>
       </c>
     </row>
     <row r="299">
@@ -5523,13 +5523,13 @@
         <v>0.9829303467062485</v>
       </c>
       <c r="C299" t="n">
-        <v>1.190814652870429</v>
+        <v>1.012868101571147</v>
       </c>
       <c r="D299" t="n">
-        <v>1.173431548761481</v>
+        <v>1.198636079038225</v>
       </c>
       <c r="E299" t="n">
-        <v>1.012868101571147</v>
+        <v>1.200717616732297</v>
       </c>
     </row>
     <row r="300">
@@ -5540,13 +5540,13 @@
         <v>0.9684751165948403</v>
       </c>
       <c r="C300" t="n">
-        <v>1.18781806029921</v>
+        <v>1.003166618004149</v>
       </c>
       <c r="D300" t="n">
-        <v>1.171421327012858</v>
+        <v>1.19033914221052</v>
       </c>
       <c r="E300" t="n">
-        <v>1.003166618004149</v>
+        <v>1.190965784810837</v>
       </c>
     </row>
     <row r="301">
@@ -5557,13 +5557,13 @@
         <v>0.9801725519300346</v>
       </c>
       <c r="C301" t="n">
-        <v>1.192829954042719</v>
+        <v>1.020098201348049</v>
       </c>
       <c r="D301" t="n">
-        <v>1.175831144157593</v>
+        <v>1.202801610788193</v>
       </c>
       <c r="E301" t="n">
-        <v>1.020098201348049</v>
+        <v>1.212554573643315</v>
       </c>
     </row>
     <row r="302">
@@ -5574,13 +5574,13 @@
         <v>0.9696895583311547</v>
       </c>
       <c r="C302" t="n">
-        <v>1.187782993825576</v>
+        <v>1.01284238087797</v>
       </c>
       <c r="D302" t="n">
-        <v>1.171976491782644</v>
+        <v>1.202817169942377</v>
       </c>
       <c r="E302" t="n">
-        <v>1.01284238087797</v>
+        <v>1.211233183766543</v>
       </c>
     </row>
     <row r="303">
@@ -5591,13 +5591,13 @@
         <v>0.9552090273502399</v>
       </c>
       <c r="C303" t="n">
-        <v>1.192865973340824</v>
+        <v>1.01049417206575</v>
       </c>
       <c r="D303" t="n">
-        <v>1.176038823520143</v>
+        <v>1.207980467970199</v>
       </c>
       <c r="E303" t="n">
-        <v>1.01049417206575</v>
+        <v>1.215338731758975</v>
       </c>
     </row>
     <row r="304">
@@ -5608,13 +5608,13 @@
         <v>0.9451055467939582</v>
       </c>
       <c r="C304" t="n">
-        <v>1.173322668540264</v>
+        <v>0.9878753427863989</v>
       </c>
       <c r="D304" t="n">
-        <v>1.161307066016894</v>
+        <v>1.200261283153604</v>
       </c>
       <c r="E304" t="n">
-        <v>0.9878753427863989</v>
+        <v>1.200776509562101</v>
       </c>
     </row>
     <row r="305">
@@ -5625,13 +5625,13 @@
         <v>0.9593246354566385</v>
       </c>
       <c r="C305" t="n">
-        <v>1.180537073453378</v>
+        <v>1.012240852706896</v>
       </c>
       <c r="D305" t="n">
-        <v>1.1670443050323</v>
+        <v>1.203858533475615</v>
       </c>
       <c r="E305" t="n">
-        <v>1.012240852706896</v>
+        <v>1.211845494845606</v>
       </c>
     </row>
     <row r="306">
@@ -5642,13 +5642,13 @@
         <v>0.9680197009437225</v>
       </c>
       <c r="C306" t="n">
-        <v>1.221797866324279</v>
+        <v>1.020110609320636</v>
       </c>
       <c r="D306" t="n">
-        <v>1.198572762620242</v>
+        <v>1.208120071254073</v>
       </c>
       <c r="E306" t="n">
-        <v>1.020110609320636</v>
+        <v>1.214897804210034</v>
       </c>
     </row>
     <row r="307">
@@ -5659,13 +5659,13 @@
         <v>0.9734003525254484</v>
       </c>
       <c r="C307" t="n">
-        <v>1.251757994809444</v>
+        <v>1.018357207694339</v>
       </c>
       <c r="D307" t="n">
-        <v>1.221865813626553</v>
+        <v>1.249915287977017</v>
       </c>
       <c r="E307" t="n">
-        <v>1.018357207694339</v>
+        <v>1.27201177456083</v>
       </c>
     </row>
     <row r="308">
@@ -5676,13 +5676,13 @@
         <v>0.9854688672800722</v>
       </c>
       <c r="C308" t="n">
-        <v>1.23944374102299</v>
+        <v>1.036180614067978</v>
       </c>
       <c r="D308" t="n">
-        <v>1.211578784185122</v>
+        <v>1.264360503421788</v>
       </c>
       <c r="E308" t="n">
-        <v>1.036180614067978</v>
+        <v>1.289884833478813</v>
       </c>
     </row>
     <row r="309">
@@ -5693,13 +5693,13 @@
         <v>0.9836472046756007</v>
       </c>
       <c r="C309" t="n">
-        <v>1.247247989178232</v>
+        <v>1.045799119318296</v>
       </c>
       <c r="D309" t="n">
-        <v>1.218456397226671</v>
+        <v>1.259957287370179</v>
       </c>
       <c r="E309" t="n">
-        <v>1.045799119318296</v>
+        <v>1.287495062186743</v>
       </c>
     </row>
     <row r="310">
@@ -5710,13 +5710,13 @@
         <v>0.9720003710794194</v>
       </c>
       <c r="C310" t="n">
-        <v>1.240446564423112</v>
+        <v>1.034153073797322</v>
       </c>
       <c r="D310" t="n">
-        <v>1.212816741542492</v>
+        <v>1.241203236699137</v>
       </c>
       <c r="E310" t="n">
-        <v>1.034153073797322</v>
+        <v>1.261896413391424</v>
       </c>
     </row>
     <row r="311">
@@ -5727,13 +5727,13 @@
         <v>0.9911025275568637</v>
       </c>
       <c r="C311" t="n">
-        <v>1.243954223066438</v>
+        <v>1.043120677485643</v>
       </c>
       <c r="D311" t="n">
-        <v>1.215369622651172</v>
+        <v>1.254719797651952</v>
       </c>
       <c r="E311" t="n">
-        <v>1.043120677485643</v>
+        <v>1.274623556451526</v>
       </c>
     </row>
     <row r="312">
@@ -5744,13 +5744,13 @@
         <v>0.9909422887166556</v>
       </c>
       <c r="C312" t="n">
-        <v>1.253583862727318</v>
+        <v>1.046389402764212</v>
       </c>
       <c r="D312" t="n">
-        <v>1.223557612905992</v>
+        <v>1.258840975127965</v>
       </c>
       <c r="E312" t="n">
-        <v>1.046389402764212</v>
+        <v>1.283583748236435</v>
       </c>
     </row>
     <row r="313">
@@ -5761,13 +5761,13 @@
         <v>0.9919964916127617</v>
       </c>
       <c r="C313" t="n">
-        <v>1.249144942867845</v>
+        <v>1.040809692591186</v>
       </c>
       <c r="D313" t="n">
-        <v>1.219800711098873</v>
+        <v>1.271373562281455</v>
       </c>
       <c r="E313" t="n">
-        <v>1.040809692591186</v>
+        <v>1.297161757532003</v>
       </c>
     </row>
     <row r="314">
@@ -5778,13 +5778,13 @@
         <v>0.9978072579760991</v>
       </c>
       <c r="C314" t="n">
-        <v>1.259095897738259</v>
+        <v>1.041033423846908</v>
       </c>
       <c r="D314" t="n">
-        <v>1.227569283219632</v>
+        <v>1.272323792550611</v>
       </c>
       <c r="E314" t="n">
-        <v>1.041033423846908</v>
+        <v>1.2976246077663</v>
       </c>
     </row>
     <row r="315">
@@ -5795,13 +5795,13 @@
         <v>0.9923844382785288</v>
       </c>
       <c r="C315" t="n">
-        <v>1.246102835430553</v>
+        <v>1.034270044788904</v>
       </c>
       <c r="D315" t="n">
-        <v>1.217786269995052</v>
+        <v>1.258921133297648</v>
       </c>
       <c r="E315" t="n">
-        <v>1.034270044788904</v>
+        <v>1.281834470400775</v>
       </c>
     </row>
     <row r="316">
@@ -5812,13 +5812,13 @@
         <v>1.002015635937355</v>
       </c>
       <c r="C316" t="n">
-        <v>1.243003970714356</v>
+        <v>1.039179078193622</v>
       </c>
       <c r="D316" t="n">
-        <v>1.214572521967433</v>
+        <v>1.261926816800537</v>
       </c>
       <c r="E316" t="n">
-        <v>1.039179078193622</v>
+        <v>1.287445356655283</v>
       </c>
     </row>
     <row r="317">
@@ -5829,13 +5829,13 @@
         <v>1.006105943174247</v>
       </c>
       <c r="C317" t="n">
-        <v>1.244200583881526</v>
+        <v>1.032418284129906</v>
       </c>
       <c r="D317" t="n">
-        <v>1.214793521051626</v>
+        <v>1.262083711909784</v>
       </c>
       <c r="E317" t="n">
-        <v>1.032418284129906</v>
+        <v>1.293915701904257</v>
       </c>
     </row>
     <row r="318">
@@ -5846,13 +5846,13 @@
         <v>1.014522699096759</v>
       </c>
       <c r="C318" t="n">
-        <v>1.238123811663201</v>
+        <v>1.025723536670277</v>
       </c>
       <c r="D318" t="n">
-        <v>1.195793485567421</v>
+        <v>1.235000572665904</v>
       </c>
       <c r="E318" t="n">
-        <v>1.025723536670277</v>
+        <v>1.282309515743904</v>
       </c>
     </row>
     <row r="319">
@@ -5863,13 +5863,13 @@
         <v>1.017946750103312</v>
       </c>
       <c r="C319" t="n">
-        <v>1.236788759790184</v>
+        <v>1.030828641891823</v>
       </c>
       <c r="D319" t="n">
-        <v>1.180919275837141</v>
+        <v>1.202153445363603</v>
       </c>
       <c r="E319" t="n">
-        <v>1.030828641891823</v>
+        <v>1.264621615700075</v>
       </c>
     </row>
     <row r="320">
@@ -5880,13 +5880,13 @@
         <v>1.021429836472047</v>
       </c>
       <c r="C320" t="n">
-        <v>1.254900185694929</v>
+        <v>1.048012520678339</v>
       </c>
       <c r="D320" t="n">
-        <v>1.194463737406879</v>
+        <v>1.217372778899702</v>
       </c>
       <c r="E320" t="n">
-        <v>1.048012520678339</v>
+        <v>1.278392154333585</v>
       </c>
     </row>
     <row r="321">
@@ -5897,13 +5897,13 @@
         <v>1.019911784301654</v>
       </c>
       <c r="C321" t="n">
-        <v>1.254547684112157</v>
+        <v>1.045830526998908</v>
       </c>
       <c r="D321" t="n">
-        <v>1.193332143854708</v>
+        <v>1.228282795227046</v>
       </c>
       <c r="E321" t="n">
-        <v>1.045830526998908</v>
+        <v>1.294701487909784</v>
       </c>
     </row>
     <row r="322">
@@ -5914,13 +5914,13 @@
         <v>1.012557664898417</v>
       </c>
       <c r="C322" t="n">
-        <v>1.257891945341281</v>
+        <v>1.049419662319611</v>
       </c>
       <c r="D322" t="n">
-        <v>1.197817291479185</v>
+        <v>1.234670778281874</v>
       </c>
       <c r="E322" t="n">
-        <v>1.049419662319611</v>
+        <v>1.304738181908408</v>
       </c>
     </row>
     <row r="323">
@@ -5931,13 +5931,13 @@
         <v>1.006730031288742</v>
       </c>
       <c r="C323" t="n">
-        <v>1.252159279224997</v>
+        <v>1.044043908195996</v>
       </c>
       <c r="D323" t="n">
-        <v>1.194157158691378</v>
+        <v>1.237200092228745</v>
       </c>
       <c r="E323" t="n">
-        <v>1.044043908195996</v>
+        <v>1.306269599597444</v>
       </c>
     </row>
     <row r="324">
@@ -5948,13 +5948,13 @@
         <v>1.016504600541439</v>
       </c>
       <c r="C324" t="n">
-        <v>1.257226659814782</v>
+        <v>1.051356727790149</v>
       </c>
       <c r="D324" t="n">
-        <v>1.19874915725013</v>
+        <v>1.232406917835493</v>
       </c>
       <c r="E324" t="n">
-        <v>1.051356727790149</v>
+        <v>1.295732750201195</v>
       </c>
     </row>
     <row r="325">
@@ -5965,13 +5965,13 @@
         <v>1.017052786047414</v>
       </c>
       <c r="C325" t="n">
-        <v>1.215104262262765</v>
+        <v>1.045665345863835</v>
       </c>
       <c r="D325" t="n">
-        <v>1.164524927358008</v>
+        <v>1.235311963064538</v>
       </c>
       <c r="E325" t="n">
-        <v>1.045665345863835</v>
+        <v>1.300695692381332</v>
       </c>
     </row>
     <row r="326">
@@ -5982,13 +5982,13 @@
         <v>1.006873402882612</v>
       </c>
       <c r="C326" t="n">
-        <v>1.222192094557864</v>
+        <v>1.03264964111878</v>
       </c>
       <c r="D326" t="n">
-        <v>1.170427470366634</v>
+        <v>1.233424975993638</v>
       </c>
       <c r="E326" t="n">
-        <v>1.03264964111878</v>
+        <v>1.297080528077862</v>
       </c>
     </row>
     <row r="327">
@@ -5999,13 +5999,13 @@
         <v>1.020915385458747</v>
       </c>
       <c r="C327" t="n">
-        <v>1.2342747924343</v>
+        <v>1.042456721702488</v>
       </c>
       <c r="D327" t="n">
-        <v>1.180125231142746</v>
+        <v>1.234366440449619</v>
       </c>
       <c r="E327" t="n">
-        <v>1.042456721702488</v>
+        <v>1.307056638903243</v>
       </c>
     </row>
     <row r="328">
@@ -6016,13 +6016,13 @@
         <v>1.012591399391092</v>
       </c>
       <c r="C328" t="n">
-        <v>1.253510463824157</v>
+        <v>1.049185461837018</v>
       </c>
       <c r="D328" t="n">
-        <v>1.195831397022872</v>
+        <v>1.244231033263822</v>
       </c>
       <c r="E328" t="n">
-        <v>1.049185461837018</v>
+        <v>1.3168079893355</v>
       </c>
     </row>
     <row r="329">
@@ -6033,13 +6033,13 @@
         <v>1.002707193037201</v>
       </c>
       <c r="C329" t="n">
-        <v>1.260929730635383</v>
+        <v>1.035575854654043</v>
       </c>
       <c r="D329" t="n">
-        <v>1.204229969973717</v>
+        <v>1.264576120933587</v>
       </c>
       <c r="E329" t="n">
-        <v>1.035575854654043</v>
+        <v>1.344759337320582</v>
       </c>
     </row>
     <row r="330">
@@ -6050,13 +6050,13 @@
         <v>1.005363784335388</v>
       </c>
       <c r="C330" t="n">
-        <v>1.252904681156656</v>
+        <v>1.038224439802656</v>
       </c>
       <c r="D330" t="n">
-        <v>1.189682580110939</v>
+        <v>1.254579341321501</v>
       </c>
       <c r="E330" t="n">
-        <v>1.038224439802656</v>
+        <v>1.344777860711072</v>
       </c>
     </row>
     <row r="331">
@@ -6067,13 +6067,13 @@
         <v>0.9927386504516206</v>
       </c>
       <c r="C331" t="n">
-        <v>1.227450837006386</v>
+        <v>1.021751563695358</v>
       </c>
       <c r="D331" t="n">
-        <v>1.172032262649251</v>
+        <v>1.254529803933158</v>
       </c>
       <c r="E331" t="n">
-        <v>1.021751563695358</v>
+        <v>1.340100431575167</v>
       </c>
     </row>
     <row r="332">
@@ -6084,13 +6084,13 @@
         <v>1.00835772056033</v>
       </c>
       <c r="C332" t="n">
-        <v>1.232885830214481</v>
+        <v>1.023729342825949</v>
       </c>
       <c r="D332" t="n">
-        <v>1.179455111201493</v>
+        <v>1.251738851111617</v>
       </c>
       <c r="E332" t="n">
-        <v>1.023729342825949</v>
+        <v>1.332351029370281</v>
       </c>
     </row>
     <row r="333">
@@ -6101,13 +6101,13 @@
         <v>1.011368524031609</v>
       </c>
       <c r="C333" t="n">
-        <v>1.224571627615683</v>
+        <v>1.023584195396616</v>
       </c>
       <c r="D333" t="n">
-        <v>1.172924823620944</v>
+        <v>1.233865912789073</v>
       </c>
       <c r="E333" t="n">
-        <v>1.023584195396616</v>
+        <v>1.310821301172913</v>
       </c>
     </row>
     <row r="334">
@@ -6118,13 +6118,13 @@
         <v>1.029222504280064</v>
       </c>
       <c r="C334" t="n">
-        <v>1.232007310328142</v>
+        <v>1.037362344207241</v>
       </c>
       <c r="D334" t="n">
-        <v>1.176208742536669</v>
+        <v>1.22472623172984</v>
       </c>
       <c r="E334" t="n">
-        <v>1.037362344207241</v>
+        <v>1.305170273490111</v>
       </c>
     </row>
     <row r="335">
@@ -6135,13 +6135,13 @@
         <v>1.028134566891282</v>
       </c>
       <c r="C335" t="n">
-        <v>1.217791111123129</v>
+        <v>1.023010585163865</v>
       </c>
       <c r="D335" t="n">
-        <v>1.165793590857996</v>
+        <v>1.212527304066139</v>
       </c>
       <c r="E335" t="n">
-        <v>1.023010585163865</v>
+        <v>1.293180005040548</v>
       </c>
     </row>
     <row r="336">
@@ -6152,13 +6152,13 @@
         <v>1.037032039334419</v>
       </c>
       <c r="C336" t="n">
-        <v>1.223211957597846</v>
+        <v>1.034591359579039</v>
       </c>
       <c r="D336" t="n">
-        <v>1.169669681772515</v>
+        <v>1.21329252514776</v>
       </c>
       <c r="E336" t="n">
-        <v>1.034591359579039</v>
+        <v>1.298814140331888</v>
       </c>
     </row>
     <row r="337">
@@ -6169,13 +6169,13 @@
         <v>1.009589029542982</v>
       </c>
       <c r="C337" t="n">
-        <v>1.20524381486513</v>
+        <v>1.007578557007073</v>
       </c>
       <c r="D337" t="n">
-        <v>1.156320234209362</v>
+        <v>1.19594417882536</v>
       </c>
       <c r="E337" t="n">
-        <v>1.007578557007073</v>
+        <v>1.266745579098352</v>
       </c>
     </row>
     <row r="338">
@@ -6186,13 +6186,13 @@
         <v>1.017988918219156</v>
       </c>
       <c r="C338" t="n">
-        <v>1.203724616055798</v>
+        <v>1.02929237978581</v>
       </c>
       <c r="D338" t="n">
-        <v>1.15550152774945</v>
+        <v>1.210548152541258</v>
       </c>
       <c r="E338" t="n">
-        <v>1.02929237978581</v>
+        <v>1.286599745738329</v>
       </c>
     </row>
     <row r="339">
@@ -6203,13 +6203,13 @@
         <v>1.027898425442554</v>
       </c>
       <c r="C339" t="n">
-        <v>1.231167668086075</v>
+        <v>1.045359153290291</v>
       </c>
       <c r="D339" t="n">
-        <v>1.196467623605556</v>
+        <v>1.292905308913388</v>
       </c>
       <c r="E339" t="n">
-        <v>1.045359153290291</v>
+        <v>1.356802230301601</v>
       </c>
     </row>
     <row r="340">
@@ -6220,13 +6220,13 @@
         <v>1.036812765132028</v>
       </c>
       <c r="C340" t="n">
-        <v>1.242011641681054</v>
+        <v>1.048889221491487</v>
       </c>
       <c r="D340" t="n">
-        <v>1.19294804843301</v>
+        <v>1.277160046999611</v>
       </c>
       <c r="E340" t="n">
-        <v>1.048889221491487</v>
+        <v>1.362782796886283</v>
       </c>
     </row>
     <row r="341">
@@ -6237,13 +6237,13 @@
         <v>1.03716697730512</v>
       </c>
       <c r="C341" t="n">
-        <v>1.244292147477976</v>
+        <v>1.051100037857241</v>
       </c>
       <c r="D341" t="n">
-        <v>1.191627136197414</v>
+        <v>1.273309705323064</v>
       </c>
       <c r="E341" t="n">
-        <v>1.051100037857241</v>
+        <v>1.36779099398414</v>
       </c>
     </row>
     <row r="342">
@@ -6254,13 +6254,13 @@
         <v>1.034265810935036</v>
       </c>
       <c r="C342" t="n">
-        <v>1.239539014501693</v>
+        <v>1.06228117215532</v>
       </c>
       <c r="D342" t="n">
-        <v>1.17828490852783</v>
+        <v>1.251353927344057</v>
       </c>
       <c r="E342" t="n">
-        <v>1.06228117215532</v>
+        <v>1.364899819100222</v>
       </c>
     </row>
     <row r="343">
@@ -6271,13 +6271,13 @@
         <v>1.034813996441011</v>
       </c>
       <c r="C343" t="n">
-        <v>1.250670654527967</v>
+        <v>1.066323715474332</v>
       </c>
       <c r="D343" t="n">
-        <v>1.189160210505329</v>
+        <v>1.258844313305439</v>
       </c>
       <c r="E343" t="n">
-        <v>1.066323715474332</v>
+        <v>1.368902283197772</v>
       </c>
     </row>
     <row r="344">
@@ -6288,13 +6288,13 @@
         <v>1.033894731515606</v>
       </c>
       <c r="C344" t="n">
-        <v>1.261992703588505</v>
+        <v>1.067805951199702</v>
       </c>
       <c r="D344" t="n">
-        <v>1.196285462074359</v>
+        <v>1.256783064153235</v>
       </c>
       <c r="E344" t="n">
-        <v>1.067805951199702</v>
+        <v>1.367082552269035</v>
       </c>
     </row>
     <row r="345">
@@ -6305,13 +6305,13 @@
         <v>1.04603914887875</v>
       </c>
       <c r="C345" t="n">
-        <v>1.272648990710309</v>
+        <v>1.083762603947467</v>
       </c>
       <c r="D345" t="n">
-        <v>1.203961157348165</v>
+        <v>1.266552604739675</v>
       </c>
       <c r="E345" t="n">
-        <v>1.083762603947467</v>
+        <v>1.388970198682195</v>
       </c>
     </row>
     <row r="346">
@@ -6322,13 +6322,13 @@
         <v>1.037234446290471</v>
       </c>
       <c r="C346" t="n">
-        <v>1.27714886555724</v>
+        <v>1.086544445551684</v>
       </c>
       <c r="D346" t="n">
-        <v>1.207065471000508</v>
+        <v>1.262708846715948</v>
       </c>
       <c r="E346" t="n">
-        <v>1.086544445551684</v>
+        <v>1.383991755781247</v>
       </c>
     </row>
     <row r="347">
@@ -6339,13 +6339,13 @@
         <v>1.045676503082489</v>
       </c>
       <c r="C347" t="n">
-        <v>1.278575752724109</v>
+        <v>1.083709611564541</v>
       </c>
       <c r="D347" t="n">
-        <v>1.20946895856898</v>
+        <v>1.262949509745824</v>
       </c>
       <c r="E347" t="n">
-        <v>1.083709611564541</v>
+        <v>1.383048459093918</v>
       </c>
     </row>
     <row r="348">
@@ -6356,13 +6356,13 @@
         <v>1.048864412640314</v>
       </c>
       <c r="C348" t="n">
-        <v>1.252056712427241</v>
+        <v>1.08310614464775</v>
       </c>
       <c r="D348" t="n">
-        <v>1.187478660377457</v>
+        <v>1.256601411975282</v>
       </c>
       <c r="E348" t="n">
-        <v>1.08310614464775</v>
+        <v>1.380522830116478</v>
       </c>
     </row>
     <row r="349">
@@ -6373,13 +6373,13 @@
         <v>1.058934158703921</v>
       </c>
       <c r="C349" t="n">
-        <v>1.263660324625202</v>
+        <v>1.08033929601041</v>
       </c>
       <c r="D349" t="n">
-        <v>1.198820476923357</v>
+        <v>1.251843891378471</v>
       </c>
       <c r="E349" t="n">
-        <v>1.08033929601041</v>
+        <v>1.37392233692196</v>
       </c>
     </row>
     <row r="350">
@@ -6390,13 +6390,13 @@
         <v>1.064458181879517</v>
       </c>
       <c r="C350" t="n">
-        <v>1.271913424910153</v>
+        <v>1.080773058052122</v>
       </c>
       <c r="D350" t="n">
-        <v>1.20326586664122</v>
+        <v>1.241180279051707</v>
       </c>
       <c r="E350" t="n">
-        <v>1.080773058052122</v>
+        <v>1.361551949642012</v>
       </c>
     </row>
     <row r="351">
@@ -6407,13 +6407,13 @@
         <v>1.081755542998828</v>
       </c>
       <c r="C351" t="n">
-        <v>1.290777944144839</v>
+        <v>1.089951597274434</v>
       </c>
       <c r="D351" t="n">
-        <v>1.213280949703841</v>
+        <v>1.24758690101263</v>
       </c>
       <c r="E351" t="n">
-        <v>1.089951597274434</v>
+        <v>1.379348573996753</v>
       </c>
     </row>
     <row r="352">
@@ -6424,13 +6424,13 @@
         <v>1.093005996306073</v>
       </c>
       <c r="C352" t="n">
-        <v>1.281880784204113</v>
+        <v>1.091493029369025</v>
       </c>
       <c r="D352" t="n">
-        <v>1.208530130055598</v>
+        <v>1.250300883809237</v>
       </c>
       <c r="E352" t="n">
-        <v>1.091493029369025</v>
+        <v>1.386235760411274</v>
       </c>
     </row>
     <row r="353">
@@ -6441,13 +6441,13 @@
         <v>1.097433648469719</v>
       </c>
       <c r="C353" t="n">
-        <v>1.29638854148213</v>
+        <v>1.095263760538537</v>
       </c>
       <c r="D353" t="n">
-        <v>1.218119118112479</v>
+        <v>1.255988455497572</v>
       </c>
       <c r="E353" t="n">
-        <v>1.095263760538537</v>
+        <v>1.393847529750947</v>
       </c>
     </row>
     <row r="354">
@@ -6458,13 +6458,13 @@
         <v>1.102915503529471</v>
       </c>
       <c r="C354" t="n">
-        <v>1.303317332875658</v>
+        <v>1.102404678012465</v>
       </c>
       <c r="D354" t="n">
-        <v>1.224229173247051</v>
+        <v>1.263535529074664</v>
       </c>
       <c r="E354" t="n">
-        <v>1.102404678012465</v>
+        <v>1.407305028594455</v>
       </c>
     </row>
     <row r="355">
@@ -6475,13 +6475,13 @@
         <v>1.094574650215479</v>
       </c>
       <c r="C355" t="n">
-        <v>1.285112960112135</v>
+        <v>1.092559598012708</v>
       </c>
       <c r="D355" t="n">
-        <v>1.211760930030984</v>
+        <v>1.262457998818878</v>
       </c>
       <c r="E355" t="n">
-        <v>1.092559598012708</v>
+        <v>1.404288399294381</v>
       </c>
     </row>
     <row r="356">
@@ -6492,13 +6492,13 @@
         <v>1.095586684995741</v>
       </c>
       <c r="C356" t="n">
-        <v>1.298540205493181</v>
+        <v>1.08256303734761</v>
       </c>
       <c r="D356" t="n">
-        <v>1.225624921542947</v>
+        <v>1.267709895537402</v>
       </c>
       <c r="E356" t="n">
-        <v>1.08256303734761</v>
+        <v>1.398881201806531</v>
       </c>
     </row>
     <row r="357">
@@ -6509,13 +6509,13 @@
         <v>1.097011967311277</v>
       </c>
       <c r="C357" t="n">
-        <v>1.297951632683681</v>
+        <v>1.092207521790532</v>
       </c>
       <c r="D357" t="n">
-        <v>1.225501673026584</v>
+        <v>1.278238056504781</v>
       </c>
       <c r="E357" t="n">
-        <v>1.092207521790532</v>
+        <v>1.410677546491234</v>
       </c>
     </row>
     <row r="358">
@@ -6526,13 +6526,13 @@
         <v>1.091656616599057</v>
       </c>
       <c r="C358" t="n">
-        <v>1.288291747996346</v>
+        <v>1.081133794005166</v>
       </c>
       <c r="D358" t="n">
-        <v>1.219135860546606</v>
+        <v>1.270235926575176</v>
       </c>
       <c r="E358" t="n">
-        <v>1.081133794005166</v>
+        <v>1.393089742257383</v>
       </c>
     </row>
     <row r="359">
@@ -6543,13 +6543,13 @@
         <v>1.098125205569565</v>
       </c>
       <c r="C359" t="n">
-        <v>1.30630700511361</v>
+        <v>1.096898510926965</v>
       </c>
       <c r="D359" t="n">
-        <v>1.231150589023444</v>
+        <v>1.278454621814865</v>
       </c>
       <c r="E359" t="n">
-        <v>1.096898510926965</v>
+        <v>1.414926740269554</v>
       </c>
     </row>
     <row r="360">
@@ -6560,13 +6560,13 @@
         <v>1.097138471658809</v>
       </c>
       <c r="C360" t="n">
-        <v>1.304236375899123</v>
+        <v>1.094354359547631</v>
       </c>
       <c r="D360" t="n">
-        <v>1.228695952902037</v>
+        <v>1.279359386875775</v>
       </c>
       <c r="E360" t="n">
-        <v>1.094354359547631</v>
+        <v>1.413519235623151</v>
       </c>
     </row>
     <row r="361">
@@ -6577,13 +6577,13 @@
         <v>1.090121697182326</v>
       </c>
       <c r="C361" t="n">
-        <v>1.301772710487049</v>
+        <v>1.084149448342831</v>
       </c>
       <c r="D361" t="n">
-        <v>1.226499657567038</v>
+        <v>1.262848358727127</v>
       </c>
       <c r="E361" t="n">
-        <v>1.084149448342831</v>
+        <v>1.396139161442762</v>
       </c>
     </row>
     <row r="362">
@@ -6594,13 +6594,13 @@
         <v>1.079984482133369</v>
       </c>
       <c r="C362" t="n">
-        <v>1.294486913671728</v>
+        <v>1.08000738274369</v>
       </c>
       <c r="D362" t="n">
-        <v>1.218245277252684</v>
+        <v>1.252811551803093</v>
       </c>
       <c r="E362" t="n">
-        <v>1.08000738274369</v>
+        <v>1.384956603043361</v>
       </c>
     </row>
     <row r="363">
@@ -6611,13 +6611,13 @@
         <v>1.082919382996129</v>
       </c>
       <c r="C363" t="n">
-        <v>1.288410912454793</v>
+        <v>1.085791307465554</v>
       </c>
       <c r="D363" t="n">
-        <v>1.21560615485665</v>
+        <v>1.265758261218843</v>
       </c>
       <c r="E363" t="n">
-        <v>1.085791307465554</v>
+        <v>1.385324086851187</v>
       </c>
     </row>
     <row r="364">
@@ -6628,13 +6628,13 @@
         <v>1.09017229892134</v>
       </c>
       <c r="C364" t="n">
-        <v>1.287506016164706</v>
+        <v>1.085426823270791</v>
       </c>
       <c r="D364" t="n">
-        <v>1.214686132839387</v>
+        <v>1.251840563775864</v>
       </c>
       <c r="E364" t="n">
-        <v>1.085426823270791</v>
+        <v>1.372243159046511</v>
       </c>
     </row>
     <row r="365">
@@ -6645,13 +6645,13 @@
         <v>1.085972354583252</v>
       </c>
       <c r="C365" t="n">
-        <v>1.27855836110665</v>
+        <v>1.076472273803629</v>
       </c>
       <c r="D365" t="n">
-        <v>1.208536940142167</v>
+        <v>1.242772122480998</v>
       </c>
       <c r="E365" t="n">
-        <v>1.076472273803629</v>
+        <v>1.35500809286907</v>
       </c>
     </row>
     <row r="366">
@@ -6662,13 +6662,13 @@
         <v>1.083113356329013</v>
       </c>
       <c r="C366" t="n">
-        <v>1.265186114681955</v>
+        <v>1.070320762893855</v>
       </c>
       <c r="D366" t="n">
-        <v>1.197084053306793</v>
+        <v>1.230964483682652</v>
       </c>
       <c r="E366" t="n">
-        <v>1.070320762893855</v>
+        <v>1.340340897427707</v>
       </c>
     </row>
     <row r="367">
@@ -6679,13 +6679,13 @@
         <v>1.092272271090383</v>
       </c>
       <c r="C367" t="n">
-        <v>1.257817342988059</v>
+        <v>1.072782452955366</v>
       </c>
       <c r="D367" t="n">
-        <v>1.190083853404927</v>
+        <v>1.225895558206199</v>
       </c>
       <c r="E367" t="n">
-        <v>1.072782452955366</v>
+        <v>1.335539160146751</v>
       </c>
     </row>
     <row r="368">
@@ -6696,13 +6696,13 @@
         <v>1.073229149975121</v>
       </c>
       <c r="C368" t="n">
-        <v>1.260812789497662</v>
+        <v>1.057903613576442</v>
       </c>
       <c r="D368" t="n">
-        <v>1.199035126318711</v>
+        <v>1.228021228597564</v>
       </c>
       <c r="E368" t="n">
-        <v>1.057903613576442</v>
+        <v>1.3277069846773</v>
       </c>
     </row>
     <row r="369">
@@ -6713,13 +6713,13 @@
         <v>1.074688166783332</v>
       </c>
       <c r="C369" t="n">
-        <v>1.252491178675671</v>
+        <v>1.055272347889565</v>
       </c>
       <c r="D369" t="n">
-        <v>1.199644956028504</v>
+        <v>1.243721758546577</v>
       </c>
       <c r="E369" t="n">
-        <v>1.055272347889565</v>
+        <v>1.328576876528514</v>
       </c>
     </row>
     <row r="370">
@@ -6730,13 +6730,13 @@
         <v>1.073827937220109</v>
       </c>
       <c r="C370" t="n">
-        <v>1.253852107584823</v>
+        <v>1.046925401330057</v>
       </c>
       <c r="D370" t="n">
-        <v>1.217032087702533</v>
+        <v>1.268802230815126</v>
       </c>
       <c r="E370" t="n">
-        <v>1.046925401330057</v>
+        <v>1.326445981423786</v>
       </c>
     </row>
     <row r="371">
@@ -6747,13 +6747,13 @@
         <v>1.069400285056463</v>
       </c>
       <c r="C371" t="n">
-        <v>1.246980584379127</v>
+        <v>1.039842129228776</v>
       </c>
       <c r="D371" t="n">
-        <v>1.194167206584628</v>
+        <v>1.220922742553364</v>
       </c>
       <c r="E371" t="n">
-        <v>1.039842129228776</v>
+        <v>1.298904954438056</v>
       </c>
     </row>
     <row r="372">
@@ -6764,13 +6764,13 @@
         <v>1.05981968913665</v>
       </c>
       <c r="C372" t="n">
-        <v>1.227201367155918</v>
+        <v>1.030828383392394</v>
       </c>
       <c r="D372" t="n">
-        <v>1.18057093480591</v>
+        <v>1.218975894371627</v>
       </c>
       <c r="E372" t="n">
-        <v>1.030828383392394</v>
+        <v>1.289621620689102</v>
       </c>
     </row>
     <row r="373">
@@ -6781,13 +6781,13 @@
         <v>1.07631585605492</v>
       </c>
       <c r="C373" t="n">
-        <v>1.264157515661333</v>
+        <v>1.040271238280767</v>
       </c>
       <c r="D373" t="n">
-        <v>1.206512041338096</v>
+        <v>1.227606016899659</v>
       </c>
       <c r="E373" t="n">
-        <v>1.040271238280767</v>
+        <v>1.306224300865472</v>
       </c>
     </row>
     <row r="374">
@@ -6798,13 +6798,13 @@
         <v>1.070395452590387</v>
       </c>
       <c r="C374" t="n">
-        <v>1.275137364205149</v>
+        <v>1.040521853477095</v>
       </c>
       <c r="D374" t="n">
-        <v>1.210327597462477</v>
+        <v>1.22295261707864</v>
       </c>
       <c r="E374" t="n">
-        <v>1.040521853477095</v>
+        <v>1.312356324114971</v>
       </c>
     </row>
     <row r="375">
@@ -6815,13 +6815,13 @@
         <v>1.055004090307237</v>
       </c>
       <c r="C375" t="n">
-        <v>1.27759329237181</v>
+        <v>1.032457188293957</v>
       </c>
       <c r="D375" t="n">
-        <v>1.211515555052034</v>
+        <v>1.213707894091556</v>
       </c>
       <c r="E375" t="n">
-        <v>1.032457188293957</v>
+        <v>1.302237982737412</v>
       </c>
     </row>
     <row r="376">
@@ -6832,13 +6832,13 @@
         <v>1.071230381284104</v>
       </c>
       <c r="C376" t="n">
-        <v>1.266283472981641</v>
+        <v>1.040786944641443</v>
       </c>
       <c r="D376" t="n">
-        <v>1.198517199197719</v>
+        <v>1.214867384893335</v>
       </c>
       <c r="E376" t="n">
-        <v>1.040786944641443</v>
+        <v>1.308941892041961</v>
       </c>
     </row>
     <row r="377">
@@ -6849,13 +6849,13 @@
         <v>1.057812486822464</v>
       </c>
       <c r="C377" t="n">
-        <v>1.260581051891813</v>
+        <v>1.031674452023217</v>
       </c>
       <c r="D377" t="n">
-        <v>1.193034888635069</v>
+        <v>1.204300139953942</v>
       </c>
       <c r="E377" t="n">
-        <v>1.031674452023217</v>
+        <v>1.297963745837398</v>
       </c>
     </row>
     <row r="378">
@@ -6866,13 +6866,13 @@
         <v>1.076079714606192</v>
       </c>
       <c r="C378" t="n">
-        <v>1.260783667577446</v>
+        <v>1.04429064590089</v>
       </c>
       <c r="D378" t="n">
-        <v>1.199136943585871</v>
+        <v>1.218413566151676</v>
       </c>
       <c r="E378" t="n">
-        <v>1.04429064590089</v>
+        <v>1.311681285298776</v>
       </c>
     </row>
     <row r="379">
@@ -6883,13 +6883,13 @@
         <v>1.080920614305112</v>
       </c>
       <c r="C379" t="n">
-        <v>1.258468118262268</v>
+        <v>1.043300722337879</v>
       </c>
       <c r="D379" t="n">
-        <v>1.195792329933773</v>
+        <v>1.220572347807429</v>
       </c>
       <c r="E379" t="n">
-        <v>1.043300722337879</v>
+        <v>1.313066940183383</v>
       </c>
     </row>
     <row r="380">
@@ -6900,13 +6900,13 @@
         <v>1.082936250242467</v>
       </c>
       <c r="C380" t="n">
-        <v>1.273149380783391</v>
+        <v>1.051476930024592</v>
       </c>
       <c r="D380" t="n">
-        <v>1.208974844879876</v>
+        <v>1.229909339621115</v>
       </c>
       <c r="E380" t="n">
-        <v>1.051476930024592</v>
+        <v>1.325974863416047</v>
       </c>
     </row>
     <row r="381">
@@ -6917,13 +6917,13 @@
         <v>1.075017078086917</v>
       </c>
       <c r="C381" t="n">
-        <v>1.260994973396589</v>
+        <v>1.04923599847537</v>
       </c>
       <c r="D381" t="n">
-        <v>1.196505661427371</v>
+        <v>1.221161906053706</v>
       </c>
       <c r="E381" t="n">
-        <v>1.04923599847537</v>
+        <v>1.317432674733791</v>
       </c>
     </row>
     <row r="382">
@@ -6934,13 +6934,13 @@
         <v>1.062299174348292</v>
       </c>
       <c r="C382" t="n">
-        <v>1.26636388403958</v>
+        <v>1.048978145295032</v>
       </c>
       <c r="D382" t="n">
-        <v>1.200449458423149</v>
+        <v>1.226011031267892</v>
       </c>
       <c r="E382" t="n">
-        <v>1.048978145295032</v>
+        <v>1.321843903368853</v>
       </c>
     </row>
     <row r="383">
@@ -6951,13 +6951,13 @@
         <v>1.049100554089042</v>
       </c>
       <c r="C383" t="n">
-        <v>1.253893470780348</v>
+        <v>1.041174564535093</v>
       </c>
       <c r="D383" t="n">
-        <v>1.18743778284719</v>
+        <v>1.216061243364395</v>
       </c>
       <c r="E383" t="n">
-        <v>1.041174564535093</v>
+        <v>1.313775961576612</v>
       </c>
     </row>
     <row r="384">
@@ -6968,13 +6968,13 @@
         <v>1.057584778996905</v>
       </c>
       <c r="C384" t="n">
-        <v>1.260116771118408</v>
+        <v>1.042760070782314</v>
       </c>
       <c r="D384" t="n">
-        <v>1.193513574139992</v>
+        <v>1.228059985384179</v>
       </c>
       <c r="E384" t="n">
-        <v>1.042760070782314</v>
+        <v>1.33117240739851</v>
       </c>
     </row>
     <row r="385">
@@ -6985,13 +6985,13 @@
         <v>1.062037732030057</v>
       </c>
       <c r="C385" t="n">
-        <v>1.265602758811446</v>
+        <v>1.044831685205599</v>
       </c>
       <c r="D385" t="n">
-        <v>1.197495527149899</v>
+        <v>1.233118559664457</v>
       </c>
       <c r="E385" t="n">
-        <v>1.044831685205599</v>
+        <v>1.336975536140528</v>
       </c>
     </row>
     <row r="386">
@@ -7002,13 +7002,13 @@
         <v>1.063876261880867</v>
       </c>
       <c r="C386" t="n">
-        <v>1.271595297259882</v>
+        <v>1.051898671842859</v>
       </c>
       <c r="D386" t="n">
-        <v>1.203617753220994</v>
+        <v>1.234466053018365</v>
       </c>
       <c r="E386" t="n">
-        <v>1.051898671842859</v>
+        <v>1.340949069505297</v>
       </c>
     </row>
     <row r="387">
@@ -7019,13 +7019,13 @@
         <v>1.054649878134145</v>
       </c>
       <c r="C387" t="n">
-        <v>1.270756801143056</v>
+        <v>1.038351104522822</v>
       </c>
       <c r="D387" t="n">
-        <v>1.206431064137641</v>
+        <v>1.231660417716177</v>
       </c>
       <c r="E387" t="n">
-        <v>1.038351104522822</v>
+        <v>1.330358644643176</v>
       </c>
     </row>
     <row r="388">
@@ -7036,13 +7036,13 @@
         <v>1.062670253767721</v>
       </c>
       <c r="C388" t="n">
-        <v>1.262429733657572</v>
+        <v>1.031616160401998</v>
       </c>
       <c r="D388" t="n">
-        <v>1.205265318087488</v>
+        <v>1.235554589156201</v>
       </c>
       <c r="E388" t="n">
-        <v>1.031616160401998</v>
+        <v>1.324082784316717</v>
       </c>
     </row>
     <row r="389">
@@ -7053,13 +7053,13 @@
         <v>1.050930650316683</v>
       </c>
       <c r="C389" t="n">
-        <v>1.255969091723781</v>
+        <v>1.033512899961626</v>
       </c>
       <c r="D389" t="n">
-        <v>1.188676227333636</v>
+        <v>1.212181800441279</v>
       </c>
       <c r="E389" t="n">
-        <v>1.033512899961626</v>
+        <v>1.316338764462378</v>
       </c>
     </row>
     <row r="390">
@@ -7070,13 +7070,13 @@
         <v>1.065048535501337</v>
       </c>
       <c r="C390" t="n">
-        <v>1.267156683530877</v>
+        <v>1.038225215300943</v>
       </c>
       <c r="D390" t="n">
-        <v>1.20272547812006</v>
+        <v>1.231307011855943</v>
       </c>
       <c r="E390" t="n">
-        <v>1.038225215300943</v>
+        <v>1.332741862296407</v>
       </c>
     </row>
     <row r="391">
@@ -7087,13 +7087,13 @@
         <v>1.05989559174517</v>
       </c>
       <c r="C391" t="n">
-        <v>1.237308345714034</v>
+        <v>1.033350820819699</v>
       </c>
       <c r="D391" t="n">
-        <v>1.175211802727915</v>
+        <v>1.220506727628256</v>
       </c>
       <c r="E391" t="n">
-        <v>1.033350820819699</v>
+        <v>1.323033234740168</v>
       </c>
     </row>
     <row r="392">
@@ -7104,13 +7104,13 @@
         <v>1.027223735589046</v>
       </c>
       <c r="C392" t="n">
-        <v>1.22336005080299</v>
+        <v>1.010058600528037</v>
       </c>
       <c r="D392" t="n">
-        <v>1.163237535125817</v>
+        <v>1.215270964024934</v>
       </c>
       <c r="E392" t="n">
-        <v>1.010058600528037</v>
+        <v>1.316764829537704</v>
       </c>
     </row>
     <row r="393">
@@ -7121,13 +7121,13 @@
         <v>1.033253776154774</v>
       </c>
       <c r="C393" t="n">
-        <v>1.260842206134282</v>
+        <v>1.021219184121517</v>
       </c>
       <c r="D393" t="n">
-        <v>1.193903762099397</v>
+        <v>1.245149068872279</v>
       </c>
       <c r="E393" t="n">
-        <v>1.021219184121517</v>
+        <v>1.341118827437916</v>
       </c>
     </row>
     <row r="394">
@@ -7138,13 +7138,13 @@
         <v>1.042201850336923</v>
       </c>
       <c r="C394" t="n">
-        <v>1.255936918093004</v>
+        <v>1.022502116787198</v>
       </c>
       <c r="D394" t="n">
-        <v>1.194193407501287</v>
+        <v>1.249398003360836</v>
       </c>
       <c r="E394" t="n">
-        <v>1.022502116787198</v>
+        <v>1.341797811348912</v>
       </c>
     </row>
     <row r="395">
@@ -7155,13 +7155,13 @@
         <v>1.027223735589046</v>
       </c>
       <c r="C395" t="n">
-        <v>1.232794165329647</v>
+        <v>1.017857140549112</v>
       </c>
       <c r="D395" t="n">
-        <v>1.168433590749127</v>
+        <v>1.238580015224309</v>
       </c>
       <c r="E395" t="n">
-        <v>1.017857140549112</v>
+        <v>1.335699103639779</v>
       </c>
     </row>
     <row r="396">
@@ -7172,13 +7172,13 @@
         <v>1.02580688689668</v>
       </c>
       <c r="C396" t="n">
-        <v>1.233756942004878</v>
+        <v>1.006016961957027</v>
       </c>
       <c r="D396" t="n">
-        <v>1.168832559182504</v>
+        <v>1.228416402108749</v>
       </c>
       <c r="E396" t="n">
-        <v>1.006016961957027</v>
+        <v>1.32307229003133</v>
       </c>
     </row>
     <row r="397">
@@ -7189,13 +7189,13 @@
         <v>1.035733261366416</v>
       </c>
       <c r="C397" t="n">
-        <v>1.232835323683088</v>
+        <v>1.013378379443815</v>
       </c>
       <c r="D397" t="n">
-        <v>1.170162564494178</v>
+        <v>1.240384511568928</v>
       </c>
       <c r="E397" t="n">
-        <v>1.013378379443815</v>
+        <v>1.338166063829814</v>
       </c>
     </row>
     <row r="398">
@@ -7206,13 +7206,13 @@
         <v>1.037495888608705</v>
       </c>
       <c r="C398" t="n">
-        <v>1.233776239271281</v>
+        <v>1.017585586899042</v>
       </c>
       <c r="D398" t="n">
-        <v>1.171290265873989</v>
+        <v>1.255349532549706</v>
       </c>
       <c r="E398" t="n">
-        <v>1.017585586899042</v>
+        <v>1.356468200379303</v>
       </c>
     </row>
     <row r="399">
@@ -7223,13 +7223,13 @@
         <v>1.030605618479755</v>
       </c>
       <c r="C399" t="n">
-        <v>1.227088658159816</v>
+        <v>1.00157969001007</v>
       </c>
       <c r="D399" t="n">
-        <v>1.16569316008611</v>
+        <v>1.241815390360651</v>
       </c>
       <c r="E399" t="n">
-        <v>1.00157969001007</v>
+        <v>1.334271543672278</v>
       </c>
     </row>
     <row r="400">
@@ -7240,13 +7240,13 @@
         <v>1.029374309497103</v>
       </c>
       <c r="C400" t="n">
-        <v>1.217598920938183</v>
+        <v>1.002236795558359</v>
       </c>
       <c r="D400" t="n">
-        <v>1.154967091702581</v>
+        <v>1.234492520687193</v>
       </c>
       <c r="E400" t="n">
-        <v>1.002236795558359</v>
+        <v>1.334177618877997</v>
       </c>
     </row>
     <row r="401">
@@ -7257,13 +7257,13 @@
         <v>1.017946750103312</v>
       </c>
       <c r="C401" t="n">
-        <v>1.222953196957871</v>
+        <v>0.9946352321021134</v>
       </c>
       <c r="D401" t="n">
-        <v>1.157593054323207</v>
+        <v>1.228385913342108</v>
       </c>
       <c r="E401" t="n">
-        <v>0.9946352321021134</v>
+        <v>1.328073324508527</v>
       </c>
     </row>
     <row r="402">
@@ -7274,13 +7274,13 @@
         <v>1.022104526325555</v>
       </c>
       <c r="C402" t="n">
-        <v>1.217809273932854</v>
+        <v>1.008186289164441</v>
       </c>
       <c r="D402" t="n">
-        <v>1.151572965411746</v>
+        <v>1.226207304853036</v>
       </c>
       <c r="E402" t="n">
-        <v>1.008186289164441</v>
+        <v>1.331135863088554</v>
       </c>
     </row>
     <row r="403">
@@ -7291,13 +7291,13 @@
         <v>1.005119209263492</v>
       </c>
       <c r="C403" t="n">
-        <v>1.216327206050178</v>
+        <v>1.001413862626424</v>
       </c>
       <c r="D403" t="n">
-        <v>1.151851923135442</v>
+        <v>1.229154408774541</v>
       </c>
       <c r="E403" t="n">
-        <v>1.001413862626424</v>
+        <v>1.325529768846974</v>
       </c>
     </row>
     <row r="404">
@@ -7308,13 +7308,13 @@
         <v>0.9943579061000396</v>
       </c>
       <c r="C404" t="n">
-        <v>1.216836014432118</v>
+        <v>0.996024278783362</v>
       </c>
       <c r="D404" t="n">
-        <v>1.158445648839603</v>
+        <v>1.249283487500886</v>
       </c>
       <c r="E404" t="n">
-        <v>0.996024278783362</v>
+        <v>1.343661804001997</v>
       </c>
     </row>
     <row r="405">
@@ -7325,13 +7325,13 @@
         <v>0.9837231072841204</v>
       </c>
       <c r="C405" t="n">
-        <v>1.218363562811424</v>
+        <v>0.9896292614115542</v>
       </c>
       <c r="D405" t="n">
-        <v>1.155497427470248</v>
+        <v>1.230233493731904</v>
       </c>
       <c r="E405" t="n">
-        <v>0.9896292614115542</v>
+        <v>1.340894176994636</v>
       </c>
     </row>
     <row r="406">
@@ -7342,13 +7342,13 @@
         <v>0.9881254585782598</v>
       </c>
       <c r="C406" t="n">
-        <v>1.192587496537905</v>
+        <v>1.014609999972858</v>
       </c>
       <c r="D406" t="n">
-        <v>1.127062302695327</v>
+        <v>1.221866690829073</v>
       </c>
       <c r="E406" t="n">
-        <v>1.014609999972858</v>
+        <v>1.349294352966188</v>
       </c>
     </row>
     <row r="407">
@@ -7359,13 +7359,13 @@
         <v>0.9956145159521982</v>
       </c>
       <c r="C407" t="n">
-        <v>1.224799984616001</v>
+        <v>1.037434207048478</v>
       </c>
       <c r="D407" t="n">
-        <v>1.155182931195137</v>
+        <v>1.242628395935847</v>
       </c>
       <c r="E407" t="n">
-        <v>1.037434207048478</v>
+        <v>1.378016387609045</v>
       </c>
     </row>
     <row r="408">
@@ -7376,13 +7376,13 @@
         <v>0.9907145808910967</v>
       </c>
       <c r="C408" t="n">
-        <v>1.225010643741141</v>
+        <v>1.025194388339298</v>
       </c>
       <c r="D408" t="n">
-        <v>1.154653431610487</v>
+        <v>1.2266037072187</v>
       </c>
       <c r="E408" t="n">
-        <v>1.025194388339298</v>
+        <v>1.366535037041124</v>
       </c>
     </row>
     <row r="409">
@@ -7393,13 +7393,13 @@
         <v>1.013814274750576</v>
       </c>
       <c r="C409" t="n">
-        <v>1.249764929911671</v>
+        <v>1.045971926186522</v>
       </c>
       <c r="D409" t="n">
-        <v>1.174426483056518</v>
+        <v>1.232354007171214</v>
       </c>
       <c r="E409" t="n">
-        <v>1.045971926186522</v>
+        <v>1.379321780464077</v>
       </c>
     </row>
     <row r="410">
@@ -7410,13 +7410,13 @@
         <v>1.018933484014067</v>
       </c>
       <c r="C410" t="n">
-        <v>1.253854728921154</v>
+        <v>1.049384635646994</v>
       </c>
       <c r="D410" t="n">
-        <v>1.179784883446758</v>
+        <v>1.232523742529266</v>
       </c>
       <c r="E410" t="n">
-        <v>1.049384635646994</v>
+        <v>1.380346996201747</v>
       </c>
     </row>
     <row r="411">
@@ -7427,13 +7427,13 @@
         <v>1.001273477098496</v>
       </c>
       <c r="C411" t="n">
-        <v>1.243843159626817</v>
+        <v>1.036215382241167</v>
       </c>
       <c r="D411" t="n">
-        <v>1.167702490200742</v>
+        <v>1.195187397633565</v>
       </c>
       <c r="E411" t="n">
-        <v>1.036215382241167</v>
+        <v>1.338432732198326</v>
       </c>
     </row>
     <row r="412">
@@ -7444,13 +7444,13 @@
         <v>1.017752776770428</v>
       </c>
       <c r="C412" t="n">
-        <v>1.251027966207479</v>
+        <v>1.041603156588226</v>
       </c>
       <c r="D412" t="n">
-        <v>1.17316012441714</v>
+        <v>1.192279553298869</v>
       </c>
       <c r="E412" t="n">
-        <v>1.041603156588226</v>
+        <v>1.338165257372151</v>
       </c>
     </row>
     <row r="413">
@@ -7461,13 +7461,13 @@
         <v>1.009842038238048</v>
       </c>
       <c r="C413" t="n">
-        <v>1.258856991247995</v>
+        <v>1.034358968592449</v>
       </c>
       <c r="D413" t="n">
-        <v>1.179050329252641</v>
+        <v>1.193860720433724</v>
       </c>
       <c r="E413" t="n">
-        <v>1.034358968592449</v>
+        <v>1.33742549766628</v>
       </c>
     </row>
     <row r="414">
@@ -7478,13 +7478,13 @@
         <v>1.001754193619121</v>
       </c>
       <c r="C414" t="n">
-        <v>1.251090520713412</v>
+        <v>1.033302222927064</v>
       </c>
       <c r="D414" t="n">
-        <v>1.171168597820849</v>
+        <v>1.184740725643898</v>
       </c>
       <c r="E414" t="n">
-        <v>1.033302222927064</v>
+        <v>1.334203302069802</v>
       </c>
     </row>
     <row r="415">
@@ -7495,13 +7495,13 @@
         <v>1.006940871867963</v>
       </c>
       <c r="C415" t="n">
-        <v>1.257123752580741</v>
+        <v>1.05845072761773</v>
       </c>
       <c r="D415" t="n">
-        <v>1.176028030242087</v>
+        <v>1.190758180368186</v>
       </c>
       <c r="E415" t="n">
-        <v>1.05845072761773</v>
+        <v>1.348239794432839</v>
       </c>
     </row>
     <row r="416">
@@ -7512,13 +7512,13 @@
         <v>0.9840098504718612</v>
       </c>
       <c r="C416" t="n">
-        <v>1.245955605366437</v>
+        <v>1.040630164737808</v>
       </c>
       <c r="D416" t="n">
-        <v>1.16717397216461</v>
+        <v>1.183172100173898</v>
       </c>
       <c r="E416" t="n">
-        <v>1.040630164737808</v>
+        <v>1.332419950107366</v>
       </c>
     </row>
     <row r="417">
@@ -7529,13 +7529,13 @@
         <v>0.9861688580030867</v>
       </c>
       <c r="C417" t="n">
-        <v>1.233422637601273</v>
+        <v>1.033748005192219</v>
       </c>
       <c r="D417" t="n">
-        <v>1.156153823184941</v>
+        <v>1.182951070811808</v>
       </c>
       <c r="E417" t="n">
-        <v>1.033748005192219</v>
+        <v>1.319764675589348</v>
       </c>
     </row>
     <row r="418">
@@ -7546,13 +7546,13 @@
         <v>0.9940627292891299</v>
       </c>
       <c r="C418" t="n">
-        <v>1.238459943446369</v>
+        <v>1.042283785584547</v>
       </c>
       <c r="D418" t="n">
-        <v>1.160084794878518</v>
+        <v>1.179176888802784</v>
       </c>
       <c r="E418" t="n">
-        <v>1.042283785584547</v>
+        <v>1.316638565681459</v>
       </c>
     </row>
     <row r="419">
@@ -7563,13 +7563,13 @@
         <v>0.9564825044487362</v>
       </c>
       <c r="C419" t="n">
-        <v>1.202450666560254</v>
+        <v>1.010186945494491</v>
       </c>
       <c r="D419" t="n">
-        <v>1.132207696894778</v>
+        <v>1.161960390223584</v>
       </c>
       <c r="E419" t="n">
-        <v>1.010186945494491</v>
+        <v>1.300079665556624</v>
       </c>
     </row>
     <row r="420">
@@ -7580,13 +7580,13 @@
         <v>0.9729112023816552</v>
       </c>
       <c r="C420" t="n">
-        <v>1.230462540740395</v>
+        <v>1.031625854130582</v>
       </c>
       <c r="D420" t="n">
-        <v>1.154732702865036</v>
+        <v>1.168013990980652</v>
       </c>
       <c r="E420" t="n">
-        <v>1.031625854130582</v>
+        <v>1.309447565122819</v>
       </c>
     </row>
     <row r="421">
@@ -7597,13 +7597,13 @@
         <v>0.9638450574751419</v>
       </c>
       <c r="C421" t="n">
-        <v>1.243011266235101</v>
+        <v>1.029278550066363</v>
       </c>
       <c r="D421" t="n">
-        <v>1.165350325712174</v>
+        <v>1.168064111719107</v>
       </c>
       <c r="E421" t="n">
-        <v>1.029278550066363</v>
+        <v>1.308915376343672</v>
       </c>
     </row>
     <row r="422">
@@ -7614,13 +7614,13 @@
         <v>0.9817074713467653</v>
       </c>
       <c r="C422" t="n">
-        <v>1.269037891032262</v>
+        <v>1.044759305365505</v>
       </c>
       <c r="D422" t="n">
-        <v>1.191357453808974</v>
+        <v>1.189612791701312</v>
       </c>
       <c r="E422" t="n">
-        <v>1.044759305365505</v>
+        <v>1.327964198380212</v>
       </c>
     </row>
     <row r="423">
@@ -7631,13 +7631,13 @@
         <v>0.9798267733801118</v>
       </c>
       <c r="C423" t="n">
-        <v>1.276662201501055</v>
+        <v>1.049613795390723</v>
       </c>
       <c r="D423" t="n">
-        <v>1.197323810726499</v>
+        <v>1.198957405719931</v>
       </c>
       <c r="E423" t="n">
-        <v>1.049613795390723</v>
+        <v>1.339055811649517</v>
       </c>
     </row>
     <row r="424">
@@ -7648,13 +7648,13 @@
         <v>0.970397982677338</v>
       </c>
       <c r="C424" t="n">
-        <v>1.249791635401265</v>
+        <v>1.037738202376876</v>
       </c>
       <c r="D424" t="n">
-        <v>1.16974407245766</v>
+        <v>1.175756087173862</v>
       </c>
       <c r="E424" t="n">
-        <v>1.037738202376876</v>
+        <v>1.322432501964206</v>
       </c>
     </row>
     <row r="425">
@@ -7665,13 +7665,13 @@
         <v>0.9596957148760679</v>
       </c>
       <c r="C425" t="n">
-        <v>1.268423599990706</v>
+        <v>1.033945498755907</v>
       </c>
       <c r="D425" t="n">
-        <v>1.188848424037585</v>
+        <v>1.183180825507673</v>
       </c>
       <c r="E425" t="n">
-        <v>1.033945498755907</v>
+        <v>1.320086000823291</v>
       </c>
     </row>
     <row r="426">
@@ -7682,13 +7682,13 @@
         <v>0.9398345323134272</v>
       </c>
       <c r="C426" t="n">
-        <v>1.253349630357842</v>
+        <v>1.031091665060739</v>
       </c>
       <c r="D426" t="n">
-        <v>1.173568185926595</v>
+        <v>1.170647489984108</v>
       </c>
       <c r="E426" t="n">
-        <v>1.031091665060739</v>
+        <v>1.306202790932813</v>
       </c>
     </row>
     <row r="427">
@@ -7699,13 +7699,13 @@
         <v>0.9179492801902626</v>
       </c>
       <c r="C427" t="n">
-        <v>1.22965350710732</v>
+        <v>1.021614041999178</v>
       </c>
       <c r="D427" t="n">
-        <v>1.152477787234488</v>
+        <v>1.153142138785894</v>
       </c>
       <c r="E427" t="n">
-        <v>1.021614041999178</v>
+        <v>1.290103225351598</v>
       </c>
     </row>
     <row r="428">
@@ -7716,13 +7716,13 @@
         <v>0.9298069543656651</v>
       </c>
       <c r="C428" t="n">
-        <v>1.236086842831894</v>
+        <v>1.036265143381232</v>
       </c>
       <c r="D428" t="n">
-        <v>1.15490517085901</v>
+        <v>1.155849290991143</v>
       </c>
       <c r="E428" t="n">
-        <v>1.036265143381232</v>
+        <v>1.300158584410383</v>
       </c>
     </row>
     <row r="429">
@@ -7733,13 +7733,13 @@
         <v>0.9469440766447673</v>
       </c>
       <c r="C429" t="n">
-        <v>1.236020260899176</v>
+        <v>1.03868379328783</v>
       </c>
       <c r="D429" t="n">
-        <v>1.156265387893858</v>
+        <v>1.160534906796193</v>
       </c>
       <c r="E429" t="n">
-        <v>1.03868379328783</v>
+        <v>1.314566547194619</v>
       </c>
     </row>
     <row r="430">
@@ -7750,13 +7750,13 @@
         <v>0.9619727931316573</v>
       </c>
       <c r="C430" t="n">
-        <v>1.255537971838691</v>
+        <v>1.037679264507085</v>
       </c>
       <c r="D430" t="n">
-        <v>1.176569540817023</v>
+        <v>1.173733708289051</v>
       </c>
       <c r="E430" t="n">
-        <v>1.037679264507085</v>
+        <v>1.321387754012669</v>
       </c>
     </row>
     <row r="431">
@@ -7767,13 +7767,13 @@
         <v>0.9553861334367858</v>
       </c>
       <c r="C431" t="n">
-        <v>1.253604681242815</v>
+        <v>1.034779159414142</v>
       </c>
       <c r="D431" t="n">
-        <v>1.174763266204826</v>
+        <v>1.166544093600192</v>
       </c>
       <c r="E431" t="n">
-        <v>1.034779159414142</v>
+        <v>1.315589495415614</v>
       </c>
     </row>
     <row r="432">
@@ -7784,13 +7784,13 @@
         <v>0.9579162203874406</v>
       </c>
       <c r="C432" t="n">
-        <v>1.257247897290446</v>
+        <v>1.032734041182319</v>
       </c>
       <c r="D432" t="n">
-        <v>1.173892478245909</v>
+        <v>1.16032002663138</v>
       </c>
       <c r="E432" t="n">
-        <v>1.032734041182319</v>
+        <v>1.316452398163392</v>
       </c>
     </row>
     <row r="433">
@@ -7801,13 +7801,13 @@
         <v>0.92874431784639</v>
       </c>
       <c r="C433" t="n">
-        <v>1.242705255298252</v>
+        <v>1.019075836106709</v>
       </c>
       <c r="D433" t="n">
-        <v>1.159765104990057</v>
+        <v>1.152074870796167</v>
       </c>
       <c r="E433" t="n">
-        <v>1.019075836106709</v>
+        <v>1.304541203464804</v>
       </c>
     </row>
     <row r="434">
@@ -7818,13 +7818,13 @@
         <v>0.9370345694213691</v>
       </c>
       <c r="C434" t="n">
-        <v>1.244943762810584</v>
+        <v>1.020071705156586</v>
       </c>
       <c r="D434" t="n">
-        <v>1.166520896880757</v>
+        <v>1.163188615283774</v>
       </c>
       <c r="E434" t="n">
-        <v>1.020071705156586</v>
+        <v>1.31229624807967</v>
       </c>
     </row>
     <row r="435">
@@ -7835,13 +7835,13 @@
         <v>0.9359550656557564</v>
       </c>
       <c r="C435" t="n">
-        <v>1.23823078107522</v>
+        <v>1.011973047298545</v>
       </c>
       <c r="D435" t="n">
-        <v>1.158792291215297</v>
+        <v>1.140513473268327</v>
       </c>
       <c r="E435" t="n">
-        <v>1.011973047298545</v>
+        <v>1.29220372231608</v>
       </c>
     </row>
     <row r="436">
@@ -7852,13 +7852,13 @@
         <v>0.9521560557631163</v>
       </c>
       <c r="C436" t="n">
-        <v>1.248432759403822</v>
+        <v>1.0196793030235</v>
       </c>
       <c r="D436" t="n">
-        <v>1.167124634052843</v>
+        <v>1.140456632230289</v>
       </c>
       <c r="E436" t="n">
-        <v>1.0196793030235</v>
+        <v>1.290148686884394</v>
       </c>
     </row>
     <row r="437">
@@ -7869,13 +7869,13 @@
         <v>0.9310129624788105</v>
       </c>
       <c r="C437" t="n">
-        <v>1.239438489328832</v>
+        <v>1.001869338620164</v>
       </c>
       <c r="D437" t="n">
-        <v>1.157470891850625</v>
+        <v>1.134061074449851</v>
       </c>
       <c r="E437" t="n">
-        <v>1.001869338620164</v>
+        <v>1.286308802344121</v>
       </c>
     </row>
     <row r="438">
@@ -7886,13 +7886,13 @@
         <v>0.9315611479847857</v>
       </c>
       <c r="C438" t="n">
-        <v>1.249568735191691</v>
+        <v>0.9903979094634184</v>
       </c>
       <c r="D438" t="n">
-        <v>1.168252502669258</v>
+        <v>1.132169150531211</v>
       </c>
       <c r="E438" t="n">
-        <v>0.9903979094634184</v>
+        <v>1.282083750384004</v>
       </c>
     </row>
     <row r="439">
@@ -7903,13 +7903,13 @@
         <v>0.9324213775480084</v>
       </c>
       <c r="C439" t="n">
-        <v>1.246659474011678</v>
+        <v>0.9847795536257711</v>
       </c>
       <c r="D439" t="n">
-        <v>1.163263346118296</v>
+        <v>1.132515503752787</v>
       </c>
       <c r="E439" t="n">
-        <v>0.9847795536257711</v>
+        <v>1.28381245676557</v>
       </c>
     </row>
     <row r="440">
@@ -7920,13 +7920,13 @@
         <v>0.9326322181272296</v>
       </c>
       <c r="C440" t="n">
-        <v>1.236804517646978</v>
+        <v>0.9874860426464603</v>
       </c>
       <c r="D440" t="n">
-        <v>1.159507711730454</v>
+        <v>1.144236443669479</v>
       </c>
       <c r="E440" t="n">
-        <v>0.9874860426464603</v>
+        <v>1.291804485163815</v>
       </c>
     </row>
     <row r="441">
@@ -7937,13 +7937,13 @@
         <v>0.9515910030108035</v>
       </c>
       <c r="C441" t="n">
-        <v>1.261983502800569</v>
+        <v>1.008054454455696</v>
       </c>
       <c r="D441" t="n">
-        <v>1.180954856142478</v>
+        <v>1.160059120818536</v>
       </c>
       <c r="E441" t="n">
-        <v>1.008054454455696</v>
+        <v>1.310974903055418</v>
       </c>
     </row>
     <row r="442">
@@ -7954,13 +7954,13 @@
         <v>0.9460838470815447</v>
       </c>
       <c r="C442" t="n">
-        <v>1.252718117980595</v>
+        <v>1.014630809176885</v>
       </c>
       <c r="D442" t="n">
-        <v>1.167643933088375</v>
+        <v>1.149008018522681</v>
       </c>
       <c r="E442" t="n">
-        <v>1.014630809176885</v>
+        <v>1.316284757122612</v>
       </c>
     </row>
     <row r="443">
@@ -7971,13 +7971,13 @@
         <v>0.9568451502449967</v>
       </c>
       <c r="C443" t="n">
-        <v>1.260204454614463</v>
+        <v>1.028762843705687</v>
       </c>
       <c r="D443" t="n">
-        <v>1.172453365741799</v>
+        <v>1.164179949635785</v>
       </c>
       <c r="E443" t="n">
-        <v>1.028762843705687</v>
+        <v>1.341610944020765</v>
       </c>
     </row>
     <row r="444">
@@ -7988,13 +7988,13 @@
         <v>0.9545596383662385</v>
       </c>
       <c r="C444" t="n">
-        <v>1.267445542061794</v>
+        <v>1.028119826376273</v>
       </c>
       <c r="D444" t="n">
-        <v>1.178728884815827</v>
+        <v>1.167140712325148</v>
       </c>
       <c r="E444" t="n">
-        <v>1.028119826376273</v>
+        <v>1.348617396493831</v>
       </c>
     </row>
     <row r="445">
@@ -8005,13 +8005,13 @@
         <v>0.9668980290622654</v>
       </c>
       <c r="C445" t="n">
-        <v>1.265399995863049</v>
+        <v>1.029909030173475</v>
       </c>
       <c r="D445" t="n">
-        <v>1.178151467194557</v>
+        <v>1.172760769741448</v>
       </c>
       <c r="E445" t="n">
-        <v>1.029909030173475</v>
+        <v>1.352798655295019</v>
       </c>
     </row>
     <row r="446">
@@ -8022,13 +8022,13 @@
         <v>0.9650426319651185</v>
       </c>
       <c r="C446" t="n">
-        <v>1.276414887925121</v>
+        <v>1.039676948093702</v>
       </c>
       <c r="D446" t="n">
-        <v>1.186632549206632</v>
+        <v>1.177207014494226</v>
       </c>
       <c r="E446" t="n">
-        <v>1.039676948093702</v>
+        <v>1.363087167663207</v>
       </c>
     </row>
     <row r="447">
@@ -8039,13 +8039,13 @@
         <v>0.9333743769660884</v>
       </c>
       <c r="C447" t="n">
-        <v>1.251356984292984</v>
+        <v>1.013885813822766</v>
       </c>
       <c r="D447" t="n">
-        <v>1.171075561027661</v>
+        <v>1.176984034420817</v>
       </c>
       <c r="E447" t="n">
-        <v>1.013885813822766</v>
+        <v>1.345005661462479</v>
       </c>
     </row>
     <row r="448">
@@ -8056,13 +8056,13 @@
         <v>0.9343273763841684</v>
       </c>
       <c r="C448" t="n">
-        <v>1.248866636346694</v>
+        <v>1.015967897472922</v>
       </c>
       <c r="D448" t="n">
-        <v>1.16834098563404</v>
+        <v>1.179824315877006</v>
       </c>
       <c r="E448" t="n">
-        <v>1.015967897472922</v>
+        <v>1.35322364511464</v>
       </c>
     </row>
     <row r="449">
@@ -8073,13 +8073,13 @@
         <v>0.9085963920960084</v>
       </c>
       <c r="C449" t="n">
-        <v>1.231997826365115</v>
+        <v>0.9881524541741906</v>
       </c>
       <c r="D449" t="n">
-        <v>1.152792819241122</v>
+        <v>1.166874309324465</v>
       </c>
       <c r="E449" t="n">
-        <v>0.9881524541741906</v>
+        <v>1.332489935589529</v>
       </c>
     </row>
     <row r="450">
@@ -8090,13 +8090,13 @@
         <v>0.8964604083560338</v>
       </c>
       <c r="C450" t="n">
-        <v>1.230751523578698</v>
+        <v>0.9675884368552459</v>
       </c>
       <c r="D450" t="n">
-        <v>1.149198805222825</v>
+        <v>1.149235641219646</v>
       </c>
       <c r="E450" t="n">
-        <v>0.9675884368552459</v>
+        <v>1.306211764984477</v>
       </c>
     </row>
     <row r="451">
@@ -8107,13 +8107,13 @@
         <v>0.9168613428014809</v>
       </c>
       <c r="C451" t="n">
-        <v>1.235751528215372</v>
+        <v>0.9862952650271857</v>
       </c>
       <c r="D451" t="n">
-        <v>1.154515317372811</v>
+        <v>1.161376890264179</v>
       </c>
       <c r="E451" t="n">
-        <v>0.9862952650271857</v>
+        <v>1.326638274782926</v>
       </c>
     </row>
     <row r="452">
@@ -8124,13 +8124,13 @@
         <v>0.8975061776289712</v>
       </c>
       <c r="C452" t="n">
-        <v>1.231455891527927</v>
+        <v>0.9734567616406493</v>
       </c>
       <c r="D452" t="n">
-        <v>1.150953429572277</v>
+        <v>1.152800979398533</v>
       </c>
       <c r="E452" t="n">
-        <v>0.9734567616406493</v>
+        <v>1.31995514019782</v>
       </c>
     </row>
     <row r="453">
@@ -8141,13 +8141,13 @@
         <v>0.8970254611083468</v>
       </c>
       <c r="C453" t="n">
-        <v>1.244275108028992</v>
+        <v>0.9857213962950053</v>
       </c>
       <c r="D453" t="n">
-        <v>1.162109325187669</v>
+        <v>1.16094980574271</v>
       </c>
       <c r="E453" t="n">
-        <v>0.9857213962950053</v>
+        <v>1.326657085757976</v>
       </c>
     </row>
     <row r="454">
@@ -8158,13 +8158,13 @@
         <v>0.8914761370632437</v>
       </c>
       <c r="C454" t="n">
-        <v>1.230760860342587</v>
+        <v>0.9698214841718862</v>
       </c>
       <c r="D454" t="n">
-        <v>1.148868204526752</v>
+        <v>1.148277812246422</v>
       </c>
       <c r="E454" t="n">
-        <v>0.9698214841718862</v>
+        <v>1.306354943023226</v>
       </c>
     </row>
     <row r="455">
@@ -8175,13 +8175,13 @@
         <v>0.8728884315990992</v>
       </c>
       <c r="C455" t="n">
-        <v>1.245964284022259</v>
+        <v>0.9612478336132235</v>
       </c>
       <c r="D455" t="n">
-        <v>1.161050980384048</v>
+        <v>1.145444918519426</v>
       </c>
       <c r="E455" t="n">
-        <v>0.9612478336132235</v>
+        <v>1.29470555626659</v>
       </c>
     </row>
     <row r="456">
@@ -8192,13 +8192,13 @@
         <v>0.8901773590952409</v>
       </c>
       <c r="C456" t="n">
-        <v>1.246868397769642</v>
+        <v>0.972758554683163</v>
       </c>
       <c r="D456" t="n">
-        <v>1.158724953628957</v>
+        <v>1.145047320559747</v>
       </c>
       <c r="E456" t="n">
-        <v>0.972758554683163</v>
+        <v>1.305365490330065</v>
       </c>
     </row>
     <row r="457">
@@ -8209,13 +8209,13 @@
         <v>0.8907339782243849</v>
       </c>
       <c r="C457" t="n">
-        <v>1.268064836309984</v>
+        <v>0.9930921197612343</v>
       </c>
       <c r="D457" t="n">
-        <v>1.177411377623516</v>
+        <v>1.162863190811672</v>
       </c>
       <c r="E457" t="n">
-        <v>0.9930921197612343</v>
+        <v>1.328941433950473</v>
       </c>
     </row>
     <row r="458">
@@ -8226,13 +8226,13 @@
         <v>0.8721378391370717</v>
       </c>
       <c r="C458" t="n">
-        <v>1.246194093087411</v>
+        <v>0.9697983484729986</v>
       </c>
       <c r="D458" t="n">
-        <v>1.16024170147342</v>
+        <v>1.150607769856537</v>
       </c>
       <c r="E458" t="n">
-        <v>0.9697983484729986</v>
+        <v>1.307440890600768</v>
       </c>
     </row>
     <row r="459">
@@ -8243,13 +8243,13 @@
         <v>0.8840461150514872</v>
       </c>
       <c r="C459" t="n">
-        <v>1.222425443350753</v>
+        <v>0.977497753963087</v>
       </c>
       <c r="D459" t="n">
-        <v>1.140964867318787</v>
+        <v>1.147290150226207</v>
       </c>
       <c r="E459" t="n">
-        <v>0.977497753963087</v>
+        <v>1.306266493126209</v>
       </c>
     </row>
     <row r="460">
@@ -8260,13 +8260,13 @@
         <v>0.8836834692552268</v>
       </c>
       <c r="C460" t="n">
-        <v>1.22513144215113</v>
+        <v>0.9736817853935157</v>
       </c>
       <c r="D460" t="n">
-        <v>1.141953751492797</v>
+        <v>1.137348629174869</v>
       </c>
       <c r="E460" t="n">
-        <v>0.9736817853935157</v>
+        <v>1.294918705179607</v>
       </c>
     </row>
     <row r="461">
@@ -8277,13 +8277,13 @@
         <v>0.8900424211245394</v>
       </c>
       <c r="C461" t="n">
-        <v>1.224906783619002</v>
+        <v>0.986465228401694</v>
       </c>
       <c r="D461" t="n">
-        <v>1.141673979457186</v>
+        <v>1.145773536970105</v>
       </c>
       <c r="E461" t="n">
-        <v>0.986465228401694</v>
+        <v>1.308065531042085</v>
       </c>
     </row>
     <row r="462">
@@ -8294,13 +8294,13 @@
         <v>0.8936941799566511</v>
       </c>
       <c r="C462" t="n">
-        <v>1.229053192581</v>
+        <v>1.004461829392703</v>
       </c>
       <c r="D462" t="n">
-        <v>1.145494200753761</v>
+        <v>1.159404763447992</v>
       </c>
       <c r="E462" t="n">
-        <v>1.004461829392703</v>
+        <v>1.327161670339428</v>
       </c>
     </row>
     <row r="463">
@@ -8311,13 +8311,13 @@
         <v>0.9085120558643198</v>
       </c>
       <c r="C463" t="n">
-        <v>1.291447188422866</v>
+        <v>1.015203773161064</v>
       </c>
       <c r="D463" t="n">
-        <v>1.197128908505544</v>
+        <v>1.147390089455548</v>
       </c>
       <c r="E463" t="n">
-        <v>1.015203773161064</v>
+        <v>1.314965073946942</v>
       </c>
     </row>
     <row r="464">
@@ -8328,13 +8328,13 @@
         <v>0.8965953463267354</v>
       </c>
       <c r="C464" t="n">
-        <v>1.24902712944035</v>
+        <v>1.001739959655994</v>
       </c>
       <c r="D464" t="n">
-        <v>1.164057049049117</v>
+        <v>1.146945255082968</v>
       </c>
       <c r="E464" t="n">
-        <v>1.001739959655994</v>
+        <v>1.312129552664687</v>
       </c>
     </row>
     <row r="465">
@@ -8345,13 +8345,13 @@
         <v>0.8813810901301308</v>
       </c>
       <c r="C465" t="n">
-        <v>1.251231999652131</v>
+        <v>0.9858710674643443</v>
       </c>
       <c r="D465" t="n">
-        <v>1.183016790895185</v>
+        <v>1.167968943413355</v>
       </c>
       <c r="E465" t="n">
-        <v>0.9858710674643443</v>
+        <v>1.304073296077929</v>
       </c>
     </row>
     <row r="466">
@@ -8362,13 +8362,13 @@
         <v>0.868199337117219</v>
       </c>
       <c r="C466" t="n">
-        <v>1.24520922765493</v>
+        <v>0.9655628353303061</v>
       </c>
       <c r="D466" t="n">
-        <v>1.176106397270194</v>
+        <v>1.154167327884647</v>
       </c>
       <c r="E466" t="n">
-        <v>0.9655628353303061</v>
+        <v>1.288974502472905</v>
       </c>
     </row>
     <row r="467">
@@ -8379,13 +8379,13 @@
         <v>0.8646487817631333</v>
       </c>
       <c r="C467" t="n">
-        <v>1.241844398790399</v>
+        <v>0.9685513472279361</v>
       </c>
       <c r="D467" t="n">
-        <v>1.157641898457372</v>
+        <v>1.121509047280962</v>
       </c>
       <c r="E467" t="n">
-        <v>0.9685513472279361</v>
+        <v>1.280646433098324</v>
       </c>
     </row>
     <row r="468">
@@ -8396,13 +8396,13 @@
         <v>0.8689583632024154</v>
       </c>
       <c r="C468" t="n">
-        <v>1.269255459076605</v>
+        <v>0.9789275143043891</v>
       </c>
       <c r="D468" t="n">
-        <v>1.178022586538215</v>
+        <v>1.116562091388158</v>
       </c>
       <c r="E468" t="n">
-        <v>0.9789275143043891</v>
+        <v>1.281103301862456</v>
       </c>
     </row>
     <row r="469">
@@ -8413,13 +8413,13 @@
         <v>0.8612584652492558</v>
       </c>
       <c r="C469" t="n">
-        <v>1.245311681622988</v>
+        <v>0.9659907811348668</v>
       </c>
       <c r="D469" t="n">
-        <v>1.161711854593354</v>
+        <v>1.121310015009312</v>
       </c>
       <c r="E469" t="n">
-        <v>0.9659907811348668</v>
+        <v>1.278141444037941</v>
       </c>
     </row>
     <row r="470">
@@ -8430,13 +8430,13 @@
         <v>0.8742546785524529</v>
       </c>
       <c r="C470" t="n">
-        <v>1.240739938461615</v>
+        <v>0.9767274256649349</v>
       </c>
       <c r="D470" t="n">
-        <v>1.155708977575896</v>
+        <v>1.11714789649981</v>
       </c>
       <c r="E470" t="n">
-        <v>0.9767274256649349</v>
+        <v>1.281115412991191</v>
       </c>
     </row>
     <row r="471">
@@ -8447,13 +8447,13 @@
         <v>0.8814316918691439</v>
       </c>
       <c r="C471" t="n">
-        <v>1.245888694411498</v>
+        <v>0.9818251636527571</v>
       </c>
       <c r="D471" t="n">
-        <v>1.160385734163674</v>
+        <v>1.125526210502086</v>
       </c>
       <c r="E471" t="n">
-        <v>0.9818251636527571</v>
+        <v>1.283739632833684</v>
       </c>
     </row>
     <row r="472">
@@ -8464,13 +8464,13 @@
         <v>0.8923701011191418</v>
       </c>
       <c r="C472" t="n">
-        <v>1.247284395205129</v>
+        <v>0.996517624943437</v>
       </c>
       <c r="D472" t="n">
-        <v>1.161238210045913</v>
+        <v>1.130572429658048</v>
       </c>
       <c r="E472" t="n">
-        <v>0.996517624943437</v>
+        <v>1.294297629479239</v>
       </c>
     </row>
     <row r="473">
@@ -8481,13 +8481,13 @@
         <v>0.8621186948124784</v>
       </c>
       <c r="C473" t="n">
-        <v>1.246885902344049</v>
+        <v>0.9799706887497558</v>
       </c>
       <c r="D473" t="n">
-        <v>1.159720975072375</v>
+        <v>1.124697289089934</v>
       </c>
       <c r="E473" t="n">
-        <v>0.9799706887497558</v>
+        <v>1.285127325056913</v>
       </c>
     </row>
     <row r="474">
@@ -8498,13 +8498,13 @@
         <v>0.8670945324820997</v>
       </c>
       <c r="C474" t="n">
-        <v>1.250439234657526</v>
+        <v>0.9903643045376602</v>
       </c>
       <c r="D474" t="n">
-        <v>1.162405216224977</v>
+        <v>1.135733058420736</v>
       </c>
       <c r="E474" t="n">
-        <v>0.9903643045376602</v>
+        <v>1.296547279087295</v>
       </c>
     </row>
     <row r="475">
@@ -8515,13 +8515,13 @@
         <v>0.8595127052533039</v>
       </c>
       <c r="C475" t="n">
-        <v>1.254876225912678</v>
+        <v>0.9808155941331488</v>
       </c>
       <c r="D475" t="n">
-        <v>1.169857120424904</v>
+        <v>1.138374406777009</v>
       </c>
       <c r="E475" t="n">
-        <v>0.9808155941331488</v>
+        <v>1.290391121875357</v>
       </c>
     </row>
     <row r="476">
@@ -8532,13 +8532,13 @@
         <v>0.8498983748408153</v>
       </c>
       <c r="C476" t="n">
-        <v>1.269651411072428</v>
+        <v>0.9704623042561542</v>
       </c>
       <c r="D476" t="n">
-        <v>1.177505570492193</v>
+        <v>1.124350056107857</v>
       </c>
       <c r="E476" t="n">
-        <v>0.9704623042561542</v>
+        <v>1.280263900405616</v>
       </c>
     </row>
     <row r="477">
@@ -8549,13 +8549,13 @@
         <v>0.8810268779570392</v>
       </c>
       <c r="C477" t="n">
-        <v>1.274982555572448</v>
+        <v>0.9958323429573963</v>
       </c>
       <c r="D477" t="n">
-        <v>1.179843140549473</v>
+        <v>1.152967766925381</v>
       </c>
       <c r="E477" t="n">
-        <v>0.9958323429573963</v>
+        <v>1.323491695410572</v>
       </c>
     </row>
     <row r="478">
@@ -8566,13 +8566,13 @@
         <v>0.8861207863510243</v>
       </c>
       <c r="C478" t="n">
-        <v>1.291714185739494</v>
+        <v>1.011156189103189</v>
       </c>
       <c r="D478" t="n">
-        <v>1.194870086121902</v>
+        <v>1.162102253785159</v>
       </c>
       <c r="E478" t="n">
-        <v>1.011156189103189</v>
+        <v>1.340264881088484</v>
       </c>
     </row>
     <row r="479">
@@ -8583,13 +8583,13 @@
         <v>0.9012085382000962</v>
       </c>
       <c r="C479" t="n">
-        <v>1.286866801038738</v>
+        <v>1.010215121932242</v>
       </c>
       <c r="D479" t="n">
-        <v>1.189417987282428</v>
+        <v>1.169160764968754</v>
       </c>
       <c r="E479" t="n">
-        <v>1.010215121932242</v>
+        <v>1.351850478079828</v>
       </c>
     </row>
     <row r="480">
@@ -8600,13 +8600,13 @@
         <v>0.907103640795122</v>
       </c>
       <c r="C480" t="n">
-        <v>1.282295522811911</v>
+        <v>1.005030915885449</v>
       </c>
       <c r="D480" t="n">
-        <v>1.186406877659877</v>
+        <v>1.160435739834653</v>
       </c>
       <c r="E480" t="n">
-        <v>1.005030915885449</v>
+        <v>1.332020631845246</v>
       </c>
     </row>
     <row r="481">
@@ -8617,13 +8617,13 @@
         <v>0.9116409300599631</v>
       </c>
       <c r="C481" t="n">
-        <v>1.272373531057634</v>
+        <v>1.013774142069477</v>
       </c>
       <c r="D481" t="n">
-        <v>1.178409347583236</v>
+        <v>1.154726532233723</v>
       </c>
       <c r="E481" t="n">
-        <v>1.013774142069477</v>
+        <v>1.332847189032942</v>
       </c>
     </row>
     <row r="482">
@@ -8634,13 +8634,13 @@
         <v>0.8964182402401896</v>
       </c>
       <c r="C482" t="n">
-        <v>1.24827698634171</v>
+        <v>1.003761037440928</v>
       </c>
       <c r="D482" t="n">
-        <v>1.1594967163104</v>
+        <v>1.153676938039618</v>
       </c>
       <c r="E482" t="n">
-        <v>1.003761037440928</v>
+        <v>1.328813211700925</v>
       </c>
     </row>
     <row r="483">
@@ -8651,13 +8651,13 @@
         <v>0.9087903654288919</v>
       </c>
       <c r="C483" t="n">
-        <v>1.232808222188705</v>
+        <v>1.008136915773519</v>
       </c>
       <c r="D483" t="n">
-        <v>1.14568661673861</v>
+        <v>1.155824172177007</v>
       </c>
       <c r="E483" t="n">
-        <v>1.008136915773519</v>
+        <v>1.336570588109229</v>
       </c>
     </row>
     <row r="484">
@@ -8668,13 +8668,13 @@
         <v>0.9056277567405733</v>
       </c>
       <c r="C484" t="n">
-        <v>1.253551645260228</v>
+        <v>1.009806434335135</v>
       </c>
       <c r="D484" t="n">
-        <v>1.171330642136287</v>
+        <v>1.176109884497339</v>
       </c>
       <c r="E484" t="n">
-        <v>1.009806434335135</v>
+        <v>1.344754619088925</v>
       </c>
     </row>
     <row r="485">
@@ -8685,13 +8685,13 @@
         <v>0.90037360950638</v>
       </c>
       <c r="C485" t="n">
-        <v>1.256428597024389</v>
+        <v>0.9973439183679483</v>
       </c>
       <c r="D485" t="n">
-        <v>1.16598462852162</v>
+        <v>1.162148807030011</v>
       </c>
       <c r="E485" t="n">
-        <v>0.9973439183679483</v>
+        <v>1.342677739051928</v>
       </c>
     </row>
     <row r="486">
@@ -8702,13 +8702,13 @@
         <v>0.9055181196393782</v>
       </c>
       <c r="C486" t="n">
-        <v>1.285987464113003</v>
+        <v>1.001317700838869</v>
       </c>
       <c r="D486" t="n">
-        <v>1.201261124818548</v>
+        <v>1.195567661412082</v>
       </c>
       <c r="E486" t="n">
-        <v>1.001317700838869</v>
+        <v>1.360912024182122</v>
       </c>
     </row>
     <row r="487">
@@ -8719,13 +8719,13 @@
         <v>0.9126192303475497</v>
       </c>
       <c r="C487" t="n">
-        <v>1.267864648469037</v>
+        <v>0.9874985798687624</v>
       </c>
       <c r="D487" t="n">
-        <v>1.18378408966275</v>
+        <v>1.193589389850048</v>
       </c>
       <c r="E487" t="n">
-        <v>0.9874985798687624</v>
+        <v>1.365079269785098</v>
       </c>
     </row>
     <row r="488">
@@ -8736,13 +8736,13 @@
         <v>0.9040928373238427</v>
       </c>
       <c r="C488" t="n">
-        <v>1.279448974878284</v>
+        <v>0.9956307134028464</v>
       </c>
       <c r="D488" t="n">
-        <v>1.190057854188425</v>
+        <v>1.185971316856488</v>
       </c>
       <c r="E488" t="n">
-        <v>0.9956307134028464</v>
+        <v>1.365750184967061</v>
       </c>
     </row>
     <row r="489">
@@ -8753,13 +8753,13 @@
         <v>0.8856991051925818</v>
       </c>
       <c r="C489" t="n">
-        <v>1.261008054475798</v>
+        <v>0.9841652297329662</v>
       </c>
       <c r="D489" t="n">
-        <v>1.178216533941999</v>
+        <v>1.18524083977956</v>
       </c>
       <c r="E489" t="n">
-        <v>0.9841652297329662</v>
+        <v>1.35858306286196</v>
       </c>
     </row>
     <row r="490">
@@ -8770,13 +8770,13 @@
         <v>0.8897472443136296</v>
       </c>
       <c r="C490" t="n">
-        <v>1.260461456995511</v>
+        <v>0.9843437235886285</v>
       </c>
       <c r="D490" t="n">
-        <v>1.17523727195682</v>
+        <v>1.180819136204259</v>
       </c>
       <c r="E490" t="n">
-        <v>0.9843437235886285</v>
+        <v>1.354623443199194</v>
       </c>
     </row>
     <row r="491">
@@ -8787,13 +8787,13 @@
         <v>0.8875882367824041</v>
       </c>
       <c r="C491" t="n">
-        <v>1.291101970565025</v>
+        <v>0.9867048573722939</v>
       </c>
       <c r="D491" t="n">
-        <v>1.201908058962245</v>
+        <v>1.186173547707777</v>
       </c>
       <c r="E491" t="n">
-        <v>0.9867048573722939</v>
+        <v>1.358891392859841</v>
       </c>
     </row>
     <row r="492">
@@ -8804,13 +8804,13 @@
         <v>0.8846111678038002</v>
       </c>
       <c r="C492" t="n">
-        <v>1.275495062295326</v>
+        <v>0.981011407450548</v>
       </c>
       <c r="D492" t="n">
-        <v>1.189424239766372</v>
+        <v>1.183867326923925</v>
       </c>
       <c r="E492" t="n">
-        <v>0.981011407450548</v>
+        <v>1.354164540319464</v>
       </c>
     </row>
     <row r="493">
@@ -8821,13 +8821,13 @@
         <v>0.8900086866318639</v>
       </c>
       <c r="C493" t="n">
-        <v>1.269644525108602</v>
+        <v>0.9838373232073937</v>
       </c>
       <c r="D493" t="n">
-        <v>1.185090247520822</v>
+        <v>1.187275464899923</v>
       </c>
       <c r="E493" t="n">
-        <v>0.9838373232073937</v>
+        <v>1.360447144417499</v>
       </c>
     </row>
     <row r="494">
@@ -8838,13 +8838,13 @@
         <v>0.8843834599782413</v>
       </c>
       <c r="C494" t="n">
-        <v>1.289140533828782</v>
+        <v>0.9886741060217313</v>
       </c>
       <c r="D494" t="n">
-        <v>1.195745755092064</v>
+        <v>1.175008281955922</v>
       </c>
       <c r="E494" t="n">
-        <v>0.9886741060217313</v>
+        <v>1.35430214524978</v>
       </c>
     </row>
     <row r="495">
@@ -8855,13 +8855,13 @@
         <v>0.8779992072394222</v>
       </c>
       <c r="C495" t="n">
-        <v>1.278646997427177</v>
+        <v>0.9803430571771009</v>
       </c>
       <c r="D495" t="n">
-        <v>1.18823957587631</v>
+        <v>1.175648080802157</v>
       </c>
       <c r="E495" t="n">
-        <v>0.9803430571771009</v>
+        <v>1.353339450235177</v>
       </c>
     </row>
     <row r="496">
@@ -8872,13 +8872,13 @@
         <v>0.8840292478051496</v>
       </c>
       <c r="C496" t="n">
-        <v>1.277429328671052</v>
+        <v>0.9862403338985423</v>
       </c>
       <c r="D496" t="n">
-        <v>1.186772667853424</v>
+        <v>1.178034842225864</v>
       </c>
       <c r="E496" t="n">
-        <v>0.9862403338985423</v>
+        <v>1.365925132308842</v>
       </c>
     </row>
   </sheetData>
